--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,42 +475,22 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46037.16666666666</v>
+        <v>46037</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>46037.66666666666</v>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>45.36</v>
+        <v>60.48</v>
       </c>
       <c r="E2" t="n">
-        <v>1043.48709075</v>
+        <v>1632.584050499999</v>
       </c>
       <c r="F2" t="n">
-        <v>23.00456549272488</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>46037.83333333334</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>46038</v>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>15.12</v>
-      </c>
-      <c r="E3" t="n">
-        <v>709.8202994999998</v>
-      </c>
-      <c r="F3" t="n">
-        <v>46.94578700396824</v>
+        <v>26.99378390376983</v>
       </c>
     </row>
   </sheetData>
@@ -524,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,7 +541,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46037.02083333334</v>
+        <v>46037</v>
       </c>
       <c r="B2" t="n">
         <v>78</v>
@@ -576,16 +556,16 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46037.04166666666</v>
+        <v>46037.02083333334</v>
       </c>
       <c r="B3" t="n">
-        <v>78</v>
+        <v>76.66624</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -597,20 +577,20 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46037.0625</v>
+        <v>46037.04166666666</v>
       </c>
       <c r="B4" t="n">
         <v>78</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D4" s="3" t="n">
@@ -618,20 +598,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46037.08333333334</v>
+        <v>46037.0625</v>
       </c>
       <c r="B5" t="n">
-        <v>78</v>
+        <v>82.35556</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D5" s="3" t="n">
@@ -639,20 +619,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>46037.10416666666</v>
+        <v>46037.08333333334</v>
       </c>
       <c r="B6" t="n">
-        <v>74.34273</v>
+        <v>78</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D6" s="3" t="n">
@@ -660,16 +640,16 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>46037.125</v>
+        <v>46037.10416666666</v>
       </c>
       <c r="B7" t="n">
-        <v>73.35939</v>
+        <v>76.64994</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -681,16 +661,16 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>46037.14583333334</v>
+        <v>46037.125</v>
       </c>
       <c r="B8" t="n">
-        <v>65.84793999999999</v>
+        <v>73.59164</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -702,16 +682,16 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>46037.16666666666</v>
+        <v>46037.14583333334</v>
       </c>
       <c r="B9" t="n">
-        <v>64.78918</v>
+        <v>72.6703</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -729,10 +709,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>46037.1875</v>
+        <v>46037.16666666666</v>
       </c>
       <c r="B10" t="n">
-        <v>60.83516</v>
+        <v>64.37671</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -750,10 +730,10 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>46037.20833333334</v>
+        <v>46037.1875</v>
       </c>
       <c r="B11" t="n">
-        <v>64.23663999999999</v>
+        <v>61.34927</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -771,10 +751,10 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>46037.22916666666</v>
+        <v>46037.20833333334</v>
       </c>
       <c r="B12" t="n">
-        <v>84.7901</v>
+        <v>63.83266</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -792,10 +772,10 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>46037.25</v>
+        <v>46037.22916666666</v>
       </c>
       <c r="B13" t="n">
-        <v>80.28617</v>
+        <v>84.7901</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -813,10 +793,10 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>46037.27083333334</v>
+        <v>46037.25</v>
       </c>
       <c r="B14" t="n">
-        <v>78.74827000000001</v>
+        <v>80.06771000000001</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -834,10 +814,10 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>46037.29166666666</v>
+        <v>46037.27083333334</v>
       </c>
       <c r="B15" t="n">
-        <v>56.98</v>
+        <v>78.25467999999999</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -855,10 +835,10 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>46037.3125</v>
+        <v>46037.29166666666</v>
       </c>
       <c r="B16" t="n">
-        <v>51.38425</v>
+        <v>52.16133</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -876,10 +856,10 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>46037.33333333334</v>
+        <v>46037.3125</v>
       </c>
       <c r="B17" t="n">
-        <v>49.76664</v>
+        <v>51.07513</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -897,10 +877,10 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>46037.35416666666</v>
+        <v>46037.33333333334</v>
       </c>
       <c r="B18" t="n">
-        <v>36.06</v>
+        <v>49.7656</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -918,10 +898,10 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>46037.375</v>
+        <v>46037.35416666666</v>
       </c>
       <c r="B19" t="n">
-        <v>42.1703</v>
+        <v>36.06</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -939,10 +919,10 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>46037.39583333334</v>
+        <v>46037.375</v>
       </c>
       <c r="B20" t="n">
-        <v>8.037800000000001</v>
+        <v>41.92585</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -960,10 +940,10 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>46037.41666666666</v>
+        <v>46037.39583333334</v>
       </c>
       <c r="B21" t="n">
-        <v>0.51</v>
+        <v>10.52921</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -981,10 +961,10 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>46037.4375</v>
+        <v>46037.41666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>26.37936</v>
+        <v>11.75013</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1002,10 +982,10 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>46037.45833333334</v>
+        <v>46037.4375</v>
       </c>
       <c r="B23" t="n">
-        <v>5.29955</v>
+        <v>36.06</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1023,7 +1003,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>46037.47916666666</v>
+        <v>46037.45833333334</v>
       </c>
       <c r="B24" t="n">
         <v>0.51</v>
@@ -1044,10 +1024,10 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>46037.5</v>
+        <v>46037.47916666666</v>
       </c>
       <c r="B25" t="n">
-        <v>36.06</v>
+        <v>2.83675</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1065,10 +1045,10 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>46037.52083333334</v>
+        <v>46037.5</v>
       </c>
       <c r="B26" t="n">
-        <v>36.0601</v>
+        <v>36.06</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1086,10 +1066,10 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>46037.54166666666</v>
+        <v>46037.52083333334</v>
       </c>
       <c r="B27" t="n">
-        <v>26.82405</v>
+        <v>36.0601</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1107,10 +1087,10 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>46037.5625</v>
+        <v>46037.54166666666</v>
       </c>
       <c r="B28" t="n">
-        <v>36.0601</v>
+        <v>0.51</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1128,10 +1108,10 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>46037.58333333334</v>
+        <v>46037.5625</v>
       </c>
       <c r="B29" t="n">
-        <v>52.10755</v>
+        <v>36.0601</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1149,10 +1129,10 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>46037.60416666666</v>
+        <v>46037.58333333334</v>
       </c>
       <c r="B30" t="n">
-        <v>56.98</v>
+        <v>52.11471</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1170,10 +1150,10 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>46037.625</v>
+        <v>46037.60416666666</v>
       </c>
       <c r="B31" t="n">
-        <v>58.38795</v>
+        <v>56.98</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1191,10 +1171,10 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>46037.64583333334</v>
+        <v>46037.625</v>
       </c>
       <c r="B32" t="n">
-        <v>56.98</v>
+        <v>58.40146</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1212,10 +1192,10 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>46037.66666666666</v>
+        <v>46037.64583333334</v>
       </c>
       <c r="B33" t="n">
-        <v>44.16666</v>
+        <v>56.98</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1227,16 +1207,16 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>46037.6875</v>
+        <v>46037.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>53.07603</v>
+        <v>47.42517</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1254,10 +1234,10 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>46037.70833333334</v>
+        <v>46037.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>59.47781</v>
+        <v>53.07603</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1275,10 +1255,10 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>46037.72916666666</v>
+        <v>46037.70833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>28.43649</v>
+        <v>57.6972</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1296,10 +1276,10 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>46037.75</v>
+        <v>46037.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>62.71437</v>
+        <v>21.07294</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1317,10 +1297,10 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>46037.77083333334</v>
+        <v>46037.75</v>
       </c>
       <c r="B38" t="n">
-        <v>80.02</v>
+        <v>61.49051</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1338,10 +1318,10 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>46037.79166666666</v>
+        <v>46037.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>101.76767</v>
+        <v>70.66426</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1359,10 +1339,10 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>46037.8125</v>
+        <v>46037.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>139.06772</v>
+        <v>101.77225</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1380,10 +1360,10 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>46037.83333333334</v>
+        <v>46037.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>158.99</v>
+        <v>132.06252</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1395,16 +1375,16 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>46037.85416666666</v>
+        <v>46037.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>120.01</v>
+        <v>158.99</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1416,16 +1396,16 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>46037.875</v>
+        <v>46037.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>85.95</v>
+        <v>120.01</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1437,16 +1417,16 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>46037.89583333334</v>
+        <v>46037.875</v>
       </c>
       <c r="B44" t="n">
-        <v>78.00005</v>
+        <v>85.95</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1458,16 +1438,16 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>46037.91666666666</v>
+        <v>46037.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>78.00005</v>
+        <v>77.14255</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1479,16 +1459,16 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>46037.9375</v>
+        <v>46037.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>57.09</v>
+        <v>78.00005</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1500,16 +1480,16 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>46037.95833333334</v>
+        <v>46037.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>71.98072000000001</v>
+        <v>64.99985</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1521,28 +1501,49 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
+        <v>46037.95833333334</v>
+      </c>
+      <c r="B48" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D48" s="3" t="n">
+        <v>46037</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
         <v>46037.97916666666</v>
       </c>
-      <c r="B48" t="n">
-        <v>78</v>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D48" s="3" t="n">
-        <v>46037</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>ON</t>
+      <c r="B49" t="n">
+        <v>72.27782999999999</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D49" s="3" t="n">
+        <v>46037</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>OFF</t>
         </is>
       </c>
     </row>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -487,10 +487,10 @@
         <v>60.48</v>
       </c>
       <c r="E2" t="n">
-        <v>1674.97327725</v>
+        <v>1718.68822125</v>
       </c>
       <c r="F2" t="n">
-        <v>27.69466397569445</v>
+        <v>28.41746397569445</v>
       </c>
     </row>
   </sheetData>
@@ -649,7 +649,7 @@
         <v>46037.10416666666</v>
       </c>
       <c r="B7" t="n">
-        <v>67.98876</v>
+        <v>78</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>46037.125</v>
       </c>
       <c r="B8" t="n">
-        <v>68.04342</v>
+        <v>78</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -691,11 +691,11 @@
         <v>46037.14583333334</v>
       </c>
       <c r="B9" t="n">
-        <v>67.2062</v>
+        <v>67.27928</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D9" s="3" t="n">
@@ -712,11 +712,11 @@
         <v>46037.16666666666</v>
       </c>
       <c r="B10" t="n">
-        <v>66.36573</v>
+        <v>65.84793999999999</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D10" s="3" t="n">
@@ -733,7 +733,7 @@
         <v>46037.1875</v>
       </c>
       <c r="B11" t="n">
-        <v>61.70593</v>
+        <v>61.54031</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>46037.20833333334</v>
       </c>
       <c r="B12" t="n">
-        <v>63.8185</v>
+        <v>62.8085</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -796,7 +796,7 @@
         <v>46037.25</v>
       </c>
       <c r="B14" t="n">
-        <v>80.06771000000001</v>
+        <v>80.02</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
         <v>46037.27083333334</v>
       </c>
       <c r="B15" t="n">
-        <v>78.71372</v>
+        <v>78.33004</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>46037.29166666666</v>
       </c>
       <c r="B16" t="n">
-        <v>56.98</v>
+        <v>52.33926</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>46037.3125</v>
       </c>
       <c r="B17" t="n">
-        <v>51.37223</v>
+        <v>51.39572</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         <v>46037.33333333334</v>
       </c>
       <c r="B18" t="n">
-        <v>50.05842</v>
+        <v>50.07721</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
         <v>46037.375</v>
       </c>
       <c r="B20" t="n">
-        <v>41.92894</v>
+        <v>42.1835</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>46037.39583333334</v>
       </c>
       <c r="B21" t="n">
-        <v>19.05581</v>
+        <v>19.39377</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         <v>46037.41666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>0.51</v>
+        <v>25.87642</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         <v>46037.4375</v>
       </c>
       <c r="B23" t="n">
-        <v>34.01</v>
+        <v>36.06</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>46037.47916666666</v>
       </c>
       <c r="B25" t="n">
-        <v>27.65305</v>
+        <v>22.07</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>46037.54166666666</v>
       </c>
       <c r="B28" t="n">
-        <v>12.09885</v>
+        <v>23.65517</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1132,7 +1132,7 @@
         <v>46037.58333333334</v>
       </c>
       <c r="B30" t="n">
-        <v>52.11742</v>
+        <v>52.11771</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>46037.60416666666</v>
       </c>
       <c r="B31" t="n">
-        <v>59.44001</v>
+        <v>59.75743</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>46037.625</v>
       </c>
       <c r="B32" t="n">
-        <v>62.04007</v>
+        <v>59.25835</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>46037.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>47.4258</v>
+        <v>47.57833</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>46037.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>53.14823</v>
+        <v>61.7683</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>46037.70833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>61.98752</v>
+        <v>62.02801</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>46037.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>24.39195</v>
+        <v>28.59972</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>46037.75</v>
       </c>
       <c r="B38" t="n">
-        <v>33.74417</v>
+        <v>57.09237</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>46037.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>80.02</v>
+        <v>73.69302</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         <v>46037.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>158.99</v>
+        <v>135.68796</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>46037.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>198.74561</v>
+        <v>165.37731</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         <v>46037.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>158.99</v>
+        <v>167.77584</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1510,7 +1510,7 @@
         <v>46037.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>66.44042</v>
+        <v>63.56007</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>46037.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>59.81397</v>
+        <v>59.821</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -487,10 +487,10 @@
         <v>60.48</v>
       </c>
       <c r="E2" t="n">
-        <v>1718.68822125</v>
+        <v>1610.531286</v>
       </c>
       <c r="F2" t="n">
-        <v>28.41746397569445</v>
+        <v>26.62915486111111</v>
       </c>
     </row>
   </sheetData>
@@ -691,7 +691,7 @@
         <v>46037.14583333334</v>
       </c>
       <c r="B9" t="n">
-        <v>67.27928</v>
+        <v>73.78127000000001</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
         <v>46037.16666666666</v>
       </c>
       <c r="B10" t="n">
-        <v>65.84793999999999</v>
+        <v>73.1985</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -733,11 +733,11 @@
         <v>46037.1875</v>
       </c>
       <c r="B11" t="n">
-        <v>61.54031</v>
+        <v>56.98</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D11" s="3" t="n">
@@ -754,11 +754,11 @@
         <v>46037.20833333334</v>
       </c>
       <c r="B12" t="n">
-        <v>62.8085</v>
+        <v>62.2571</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D12" s="3" t="n">
@@ -775,7 +775,7 @@
         <v>46037.22916666666</v>
       </c>
       <c r="B13" t="n">
-        <v>84.7901</v>
+        <v>80.93711999999999</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -796,7 +796,7 @@
         <v>46037.25</v>
       </c>
       <c r="B14" t="n">
-        <v>80.02</v>
+        <v>79.88200999999999</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
         <v>46037.27083333334</v>
       </c>
       <c r="B15" t="n">
-        <v>78.33004</v>
+        <v>63.65493</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>46037.29166666666</v>
       </c>
       <c r="B16" t="n">
-        <v>52.33926</v>
+        <v>50.14936</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>46037.3125</v>
       </c>
       <c r="B17" t="n">
-        <v>51.39572</v>
+        <v>49.96245</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         <v>46037.33333333334</v>
       </c>
       <c r="B18" t="n">
-        <v>50.07721</v>
+        <v>44.39991</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
         <v>46037.375</v>
       </c>
       <c r="B20" t="n">
-        <v>42.1835</v>
+        <v>36.06</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>46037.39583333334</v>
       </c>
       <c r="B21" t="n">
-        <v>19.39377</v>
+        <v>0.009379999999999999</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         <v>46037.41666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>25.87642</v>
+        <v>-0.3133</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         <v>46037.4375</v>
       </c>
       <c r="B23" t="n">
-        <v>36.06</v>
+        <v>36.07</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>46037.45833333334</v>
       </c>
       <c r="B24" t="n">
-        <v>22.07</v>
+        <v>0.51</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>46037.47916666666</v>
       </c>
       <c r="B25" t="n">
-        <v>22.07</v>
+        <v>34.01</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>46037.54166666666</v>
       </c>
       <c r="B28" t="n">
-        <v>23.65517</v>
+        <v>0</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1132,7 +1132,7 @@
         <v>46037.58333333334</v>
       </c>
       <c r="B30" t="n">
-        <v>52.11771</v>
+        <v>53.10611</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>46037.60416666666</v>
       </c>
       <c r="B31" t="n">
-        <v>59.75743</v>
+        <v>56.98</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>46037.625</v>
       </c>
       <c r="B32" t="n">
-        <v>59.25835</v>
+        <v>58.81093</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>46037.64583333334</v>
       </c>
       <c r="B33" t="n">
-        <v>56.98</v>
+        <v>52.47475</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>46037.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>47.57833</v>
+        <v>56.33086</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>46037.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>61.7683</v>
+        <v>61.21598</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>46037.70833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>62.02801</v>
+        <v>64.01355</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>46037.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>28.59972</v>
+        <v>37.60586</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>46037.75</v>
       </c>
       <c r="B38" t="n">
-        <v>57.09237</v>
+        <v>57.00873</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>46037.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>73.69302</v>
+        <v>80.02</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         <v>46037.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>135.68796</v>
+        <v>120.01</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>46037.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>165.37731</v>
+        <v>158.99</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         <v>46037.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>167.77584</v>
+        <v>159.6199</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>46037.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>120.01</v>
+        <v>111.89625</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>46037.875</v>
       </c>
       <c r="B44" t="n">
-        <v>75.21648</v>
+        <v>85.95</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>46037.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>65.0001</v>
+        <v>78.00005</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         <v>46037.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>65</v>
+        <v>105.79</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>46037.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>65</v>
+        <v>64.99985</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1510,7 +1510,7 @@
         <v>46037.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>63.56007</v>
+        <v>57.73363</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>46037.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>59.821</v>
+        <v>59.4713</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -487,10 +487,10 @@
         <v>60.48</v>
       </c>
       <c r="E2" t="n">
-        <v>1610.531286</v>
+        <v>1534.7215845</v>
       </c>
       <c r="F2" t="n">
-        <v>26.62915486111111</v>
+        <v>25.37568757440476</v>
       </c>
     </row>
   </sheetData>
@@ -733,7 +733,7 @@
         <v>46037.1875</v>
       </c>
       <c r="B11" t="n">
-        <v>56.98</v>
+        <v>65.15832</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>46037.20833333334</v>
       </c>
       <c r="B12" t="n">
-        <v>62.2571</v>
+        <v>81.07834</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -775,11 +775,11 @@
         <v>46037.22916666666</v>
       </c>
       <c r="B13" t="n">
-        <v>80.93711999999999</v>
+        <v>79.35364</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D13" s="3" t="n">
@@ -796,11 +796,11 @@
         <v>46037.25</v>
       </c>
       <c r="B14" t="n">
-        <v>79.88200999999999</v>
+        <v>80.02</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D14" s="3" t="n">
@@ -817,7 +817,7 @@
         <v>46037.27083333334</v>
       </c>
       <c r="B15" t="n">
-        <v>63.65493</v>
+        <v>63.99078</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>46037.29166666666</v>
       </c>
       <c r="B16" t="n">
-        <v>50.14936</v>
+        <v>36.07</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>46037.3125</v>
       </c>
       <c r="B17" t="n">
-        <v>49.96245</v>
+        <v>36.07</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         <v>46037.33333333334</v>
       </c>
       <c r="B18" t="n">
-        <v>44.39991</v>
+        <v>36.06</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -901,7 +901,7 @@
         <v>46037.35416666666</v>
       </c>
       <c r="B19" t="n">
-        <v>36.06</v>
+        <v>26.42341</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>46037.39583333334</v>
       </c>
       <c r="B21" t="n">
-        <v>0.009379999999999999</v>
+        <v>0.51</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         <v>46037.41666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.3133</v>
+        <v>0.51</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         <v>46037.4375</v>
       </c>
       <c r="B23" t="n">
-        <v>36.07</v>
+        <v>5.21834</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>46037.47916666666</v>
       </c>
       <c r="B25" t="n">
-        <v>34.01</v>
+        <v>0.51</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>46037.54166666666</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1132,7 +1132,7 @@
         <v>46037.58333333334</v>
       </c>
       <c r="B30" t="n">
-        <v>53.10611</v>
+        <v>53.42659</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>46037.625</v>
       </c>
       <c r="B32" t="n">
-        <v>58.81093</v>
+        <v>58.80779</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>46037.64583333334</v>
       </c>
       <c r="B33" t="n">
-        <v>52.47475</v>
+        <v>56.98</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>46037.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>56.33086</v>
+        <v>56.69206</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>46037.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>61.21598</v>
+        <v>61.2163</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>46037.70833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>64.01355</v>
+        <v>66.20182</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>46037.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>37.60586</v>
+        <v>32.55525</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>46037.75</v>
       </c>
       <c r="B38" t="n">
-        <v>57.00873</v>
+        <v>52.09869</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>46037.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>80.02</v>
+        <v>73.69302</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>46037.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>158.99</v>
+        <v>120.01</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         <v>46037.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>159.6199</v>
+        <v>158.99</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>46037.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>111.89625</v>
+        <v>120.01</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>46037.875</v>
       </c>
       <c r="B44" t="n">
-        <v>85.95</v>
+        <v>105.79</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>46037.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>78.00005</v>
+        <v>105.79</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         <v>46037.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>105.79</v>
+        <v>120.01</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>46037.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>64.99985</v>
+        <v>69.11084</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1510,7 +1510,7 @@
         <v>46037.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>57.73363</v>
+        <v>58.17358</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>46037.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>59.4713</v>
+        <v>60.55376</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -487,10 +487,10 @@
         <v>60.48</v>
       </c>
       <c r="E2" t="n">
-        <v>1414.76449725</v>
+        <v>1686.649185</v>
       </c>
       <c r="F2" t="n">
-        <v>23.3922701264881</v>
+        <v>27.88771800595238</v>
       </c>
     </row>
   </sheetData>
@@ -943,11 +943,11 @@
         <v>46037.39583333334</v>
       </c>
       <c r="B21" t="n">
-        <v>0.08382000000000001</v>
+        <v>48.97284</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D21" s="3" t="n">
@@ -964,11 +964,11 @@
         <v>46037.41666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>0.02167</v>
+        <v>36.06</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D22" s="3" t="n">
@@ -985,7 +985,7 @@
         <v>46037.4375</v>
       </c>
       <c r="B23" t="n">
-        <v>22.07</v>
+        <v>36.06</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>46037.45833333334</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.0001</v>
+        <v>34.01</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>46037.47916666666</v>
       </c>
       <c r="B25" t="n">
-        <v>-2.52488</v>
+        <v>36.06</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>46037.5</v>
       </c>
       <c r="B26" t="n">
-        <v>0.51</v>
+        <v>36.06</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>46037.54166666666</v>
       </c>
       <c r="B28" t="n">
-        <v>-4.66156</v>
+        <v>11.92153</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         <v>46037.5625</v>
       </c>
       <c r="B29" t="n">
-        <v>-5.50985</v>
+        <v>0.51</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1132,7 +1132,7 @@
         <v>46037.58333333334</v>
       </c>
       <c r="B30" t="n">
-        <v>0.51</v>
+        <v>49.7961</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>46037.625</v>
       </c>
       <c r="B32" t="n">
-        <v>36.0601</v>
+        <v>36.01246</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>46037.64583333334</v>
       </c>
       <c r="B33" t="n">
-        <v>36.0601</v>
+        <v>36.01246</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>46037.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>40.61245</v>
+        <v>40.69742</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>46037.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>44.01368</v>
+        <v>41.04596</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>46037.70833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>47.46912</v>
+        <v>54.74532</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>46037.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>19.05091</v>
+        <v>25.11183</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>46037.75</v>
       </c>
       <c r="B38" t="n">
-        <v>49.58561</v>
+        <v>55.11546</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>46037.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>70.46706</v>
+        <v>72.95139</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>46037.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>120.01</v>
+        <v>158.99</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         <v>46037.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>140.37518</v>
+        <v>158.99</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>46037.875</v>
       </c>
       <c r="B44" t="n">
-        <v>105.79004</v>
+        <v>105.79</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>46037.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>105.79</v>
+        <v>85.95</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         <v>46037.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>85.95</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>46037.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>65.31265</v>
+        <v>64.99985</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1510,7 +1510,7 @@
         <v>46037.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>67.74731</v>
+        <v>70.27191000000001</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>46037.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>74.51801</v>
+        <v>60.18313</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -487,10 +487,10 @@
         <v>60.48</v>
       </c>
       <c r="E2" t="n">
-        <v>1686.649185</v>
+        <v>1739.1522525</v>
       </c>
       <c r="F2" t="n">
-        <v>27.88771800595238</v>
+        <v>28.75582428075397</v>
       </c>
     </row>
   </sheetData>
@@ -943,7 +943,7 @@
         <v>46037.39583333334</v>
       </c>
       <c r="B21" t="n">
-        <v>48.97284</v>
+        <v>8.18614</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         <v>46037.41666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>36.06</v>
+        <v>10.3824</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -989,7 +989,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D23" s="3" t="n">
@@ -1006,11 +1006,11 @@
         <v>46037.45833333334</v>
       </c>
       <c r="B24" t="n">
-        <v>34.01</v>
+        <v>0.51</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D24" s="3" t="n">
@@ -1031,7 +1031,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D25" s="3" t="n">
@@ -1048,11 +1048,11 @@
         <v>46037.5</v>
       </c>
       <c r="B26" t="n">
-        <v>36.06</v>
+        <v>55.43646</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D26" s="3" t="n">
@@ -1069,7 +1069,7 @@
         <v>46037.52083333334</v>
       </c>
       <c r="B27" t="n">
-        <v>0.51</v>
+        <v>51.22117</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>46037.54166666666</v>
       </c>
       <c r="B28" t="n">
-        <v>11.92153</v>
+        <v>36.06009</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         <v>46037.5625</v>
       </c>
       <c r="B29" t="n">
-        <v>0.51</v>
+        <v>36.0601</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1132,7 +1132,7 @@
         <v>46037.58333333334</v>
       </c>
       <c r="B30" t="n">
-        <v>49.7961</v>
+        <v>44.79373</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>46037.60416666666</v>
       </c>
       <c r="B31" t="n">
-        <v>36.0601</v>
+        <v>56.98</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>46037.625</v>
       </c>
       <c r="B32" t="n">
-        <v>36.01246</v>
+        <v>39.93588</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>46037.64583333334</v>
       </c>
       <c r="B33" t="n">
-        <v>36.01246</v>
+        <v>40.20882</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>46037.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>40.69742</v>
+        <v>43.87656</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>46037.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>41.04596</v>
+        <v>44.10049</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>46037.70833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>54.74532</v>
+        <v>49.23158</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>46037.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>25.11183</v>
+        <v>23.49459</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>46037.75</v>
       </c>
       <c r="B38" t="n">
-        <v>55.11546</v>
+        <v>66.7022</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>46037.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>72.95139</v>
+        <v>63.34815</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         <v>46037.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>120.01</v>
+        <v>106.89055</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>46037.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>158.99</v>
+        <v>120.01</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         <v>46037.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>158.99</v>
+        <v>125.00189</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>46037.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>120.01</v>
+        <v>101.25</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>46037.875</v>
       </c>
       <c r="B44" t="n">
-        <v>105.79</v>
+        <v>85.08304</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>46037.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>85.95</v>
+        <v>80.02</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         <v>46037.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>71.40000000000001</v>
+        <v>69.09674</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>46037.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>64.99985</v>
+        <v>57.09</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1510,7 +1510,7 @@
         <v>46037.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>70.27191000000001</v>
+        <v>57.09</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>46037.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>60.18313</v>
+        <v>57.09</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,19 +478,79 @@
         <v>46037</v>
       </c>
       <c r="B2" s="2" t="n">
+        <v>46037.20833333334</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E2" t="n">
+        <v>737.8842217499999</v>
+      </c>
+      <c r="F2" t="n">
+        <v>39.04149321428572</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>46037.29166666666</v>
+      </c>
+      <c r="B3" s="2" t="n">
         <v>46037.66666666666</v>
       </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>60.48</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1739.1522525</v>
-      </c>
-      <c r="F2" t="n">
-        <v>28.75582428075397</v>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>34.02</v>
+      </c>
+      <c r="E3" t="n">
+        <v>583.4340525</v>
+      </c>
+      <c r="F3" t="n">
+        <v>17.14973699294533</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>46037.91666666666</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>46038.125</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E4" t="n">
+        <v>532.4608867500001</v>
+      </c>
+      <c r="F4" t="n">
+        <v>28.1725336904762</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>46038.29166666666</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>46038.66666666666</v>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>34.02</v>
+      </c>
+      <c r="E5" t="n">
+        <v>483.8738970000001</v>
+      </c>
+      <c r="F5" t="n">
+        <v>14.22321860670194</v>
       </c>
     </row>
   </sheetData>
@@ -504,7 +564,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -766,7 +826,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -787,7 +847,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -808,7 +868,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -829,7 +889,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1087,7 @@
         <v>46037.47916666666</v>
       </c>
       <c r="B25" t="n">
-        <v>36.06</v>
+        <v>0.51</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1048,7 +1108,7 @@
         <v>46037.5</v>
       </c>
       <c r="B26" t="n">
-        <v>55.43646</v>
+        <v>34.01</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1069,11 +1129,11 @@
         <v>46037.52083333334</v>
       </c>
       <c r="B27" t="n">
-        <v>51.22117</v>
+        <v>36.0601</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D27" s="3" t="n">
@@ -1090,11 +1150,11 @@
         <v>46037.54166666666</v>
       </c>
       <c r="B28" t="n">
-        <v>36.06009</v>
+        <v>0.51</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D28" s="3" t="n">
@@ -1111,11 +1171,11 @@
         <v>46037.5625</v>
       </c>
       <c r="B29" t="n">
-        <v>36.0601</v>
+        <v>39.0601</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D29" s="3" t="n">
@@ -1132,11 +1192,11 @@
         <v>46037.58333333334</v>
       </c>
       <c r="B30" t="n">
-        <v>44.79373</v>
+        <v>52.32496</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D30" s="3" t="n">
@@ -1153,7 +1213,7 @@
         <v>46037.60416666666</v>
       </c>
       <c r="B31" t="n">
-        <v>56.98</v>
+        <v>57.08</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1174,7 +1234,7 @@
         <v>46037.625</v>
       </c>
       <c r="B32" t="n">
-        <v>39.93588</v>
+        <v>36.07</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1195,7 +1255,7 @@
         <v>46037.64583333334</v>
       </c>
       <c r="B33" t="n">
-        <v>40.20882</v>
+        <v>56.98</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1216,7 +1276,7 @@
         <v>46037.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>43.87656</v>
+        <v>44.01769</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1237,7 +1297,7 @@
         <v>46037.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>44.10049</v>
+        <v>49.15376</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1258,7 +1318,7 @@
         <v>46037.70833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>49.23158</v>
+        <v>54.3948</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1279,7 +1339,7 @@
         <v>46037.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>23.49459</v>
+        <v>18.54764</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1300,7 +1360,7 @@
         <v>46037.75</v>
       </c>
       <c r="B38" t="n">
-        <v>66.7022</v>
+        <v>55.11462</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1321,7 +1381,7 @@
         <v>46037.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>63.34815</v>
+        <v>70.47145</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1342,7 +1402,7 @@
         <v>46037.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>106.89055</v>
+        <v>120.01</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1384,7 +1444,7 @@
         <v>46037.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>125.00189</v>
+        <v>120.01</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1426,7 +1486,7 @@
         <v>46037.875</v>
       </c>
       <c r="B44" t="n">
-        <v>85.08304</v>
+        <v>85.95</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1447,7 +1507,7 @@
         <v>46037.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>80.02</v>
+        <v>83.95355000000001</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1468,7 +1528,7 @@
         <v>46037.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>69.09674</v>
+        <v>69.09249</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1480,7 +1540,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1501,7 +1561,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1522,7 +1582,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1531,7 +1591,7 @@
         <v>46037.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>57.09</v>
+        <v>57.41519</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1542,6 +1602,1014 @@
         <v>46037</v>
       </c>
       <c r="E49" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>46038</v>
+      </c>
+      <c r="B50" t="n">
+        <v>57.06008</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D50" s="3" t="n">
+        <v>46038</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>46038.02083333334</v>
+      </c>
+      <c r="B51" t="n">
+        <v>57.06003</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D51" s="3" t="n">
+        <v>46038</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>46038.04166666666</v>
+      </c>
+      <c r="B52" t="n">
+        <v>56.98</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D52" s="3" t="n">
+        <v>46038</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>46038.0625</v>
+      </c>
+      <c r="B53" t="n">
+        <v>49.66065</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D53" s="3" t="n">
+        <v>46038</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>46038.08333333334</v>
+      </c>
+      <c r="B54" t="n">
+        <v>48.59529</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D54" s="3" t="n">
+        <v>46038</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>46038.10416666666</v>
+      </c>
+      <c r="B55" t="n">
+        <v>36.07</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D55" s="3" t="n">
+        <v>46038</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>46038.125</v>
+      </c>
+      <c r="B56" t="n">
+        <v>36.07</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D56" s="3" t="n">
+        <v>46038</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>46038.14583333334</v>
+      </c>
+      <c r="B57" t="n">
+        <v>42.26032</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D57" s="3" t="n">
+        <v>46038</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>46038.16666666666</v>
+      </c>
+      <c r="B58" t="n">
+        <v>55.39499</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D58" s="3" t="n">
+        <v>46038</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>46038.1875</v>
+      </c>
+      <c r="B59" t="n">
+        <v>57.05991</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D59" s="3" t="n">
+        <v>46038</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>46038.20833333334</v>
+      </c>
+      <c r="B60" t="n">
+        <v>57.06003</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D60" s="3" t="n">
+        <v>46038</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>46038.22916666666</v>
+      </c>
+      <c r="B61" t="n">
+        <v>60.57749</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D61" s="3" t="n">
+        <v>46038</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>46038.25</v>
+      </c>
+      <c r="B62" t="n">
+        <v>57.07828</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D62" s="3" t="n">
+        <v>46038</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>46038.27083333334</v>
+      </c>
+      <c r="B63" t="n">
+        <v>56.98</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D63" s="3" t="n">
+        <v>46038</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>46038.29166666666</v>
+      </c>
+      <c r="B64" t="n">
+        <v>36.05972</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D64" s="3" t="n">
+        <v>46038</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>46038.3125</v>
+      </c>
+      <c r="B65" t="n">
+        <v>36.06</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D65" s="3" t="n">
+        <v>46038</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>46038.33333333334</v>
+      </c>
+      <c r="B66" t="n">
+        <v>36.06</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D66" s="3" t="n">
+        <v>46038</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>46038.35416666666</v>
+      </c>
+      <c r="B67" t="n">
+        <v>36.06</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D67" s="3" t="n">
+        <v>46038</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>46038.375</v>
+      </c>
+      <c r="B68" t="n">
+        <v>36.06</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D68" s="3" t="n">
+        <v>46038</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>46038.39583333334</v>
+      </c>
+      <c r="B69" t="n">
+        <v>22.62945</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D69" s="3" t="n">
+        <v>46038</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>46038.41666666666</v>
+      </c>
+      <c r="B70" t="n">
+        <v>36.06</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D70" s="3" t="n">
+        <v>46038</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>46038.4375</v>
+      </c>
+      <c r="B71" t="n">
+        <v>36.07</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D71" s="3" t="n">
+        <v>46038</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>46038.45833333334</v>
+      </c>
+      <c r="B72" t="n">
+        <v>36.05949</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D72" s="3" t="n">
+        <v>46038</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>46038.47916666666</v>
+      </c>
+      <c r="B73" t="n">
+        <v>36.05989</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D73" s="3" t="n">
+        <v>46038</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>46038.5</v>
+      </c>
+      <c r="B74" t="n">
+        <v>36.06</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D74" s="3" t="n">
+        <v>46038</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>46038.52083333334</v>
+      </c>
+      <c r="B75" t="n">
+        <v>36.0601</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D75" s="3" t="n">
+        <v>46038</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>46038.54166666666</v>
+      </c>
+      <c r="B76" t="n">
+        <v>36.0601</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D76" s="3" t="n">
+        <v>46038</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>46038.5625</v>
+      </c>
+      <c r="B77" t="n">
+        <v>22.07</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D77" s="3" t="n">
+        <v>46038</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>46038.58333333334</v>
+      </c>
+      <c r="B78" t="n">
+        <v>-7.01</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D78" s="3" t="n">
+        <v>46038</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>46038.60416666666</v>
+      </c>
+      <c r="B79" t="n">
+        <v>-2.47963</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D79" s="3" t="n">
+        <v>46038</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>46038.625</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.57069</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D80" s="3" t="n">
+        <v>46038</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>46038.64583333334</v>
+      </c>
+      <c r="B81" t="n">
+        <v>27.77111</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D81" s="3" t="n">
+        <v>46038</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>46038.66666666666</v>
+      </c>
+      <c r="B82" t="n">
+        <v>27.7711</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D82" s="3" t="n">
+        <v>46038</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>46038.6875</v>
+      </c>
+      <c r="B83" t="n">
+        <v>21.4936</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D83" s="3" t="n">
+        <v>46038</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>46038.70833333334</v>
+      </c>
+      <c r="B84" t="n">
+        <v>43.24919</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D84" s="3" t="n">
+        <v>46038</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>46038.72916666666</v>
+      </c>
+      <c r="B85" t="n">
+        <v>37.83416</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D85" s="3" t="n">
+        <v>46038</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>46038.75</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.48373</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D86" s="3" t="n">
+        <v>46038</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>46038.77083333334</v>
+      </c>
+      <c r="B87" t="n">
+        <v>53.90481</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D87" s="3" t="n">
+        <v>46038</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>46038.79166666666</v>
+      </c>
+      <c r="B88" t="n">
+        <v>299.98</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D88" s="3" t="n">
+        <v>46038</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>46038.8125</v>
+      </c>
+      <c r="B89" t="n">
+        <v>299.98</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D89" s="3" t="n">
+        <v>46038</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>46038.83333333334</v>
+      </c>
+      <c r="B90" t="n">
+        <v>67.39879999999999</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D90" s="3" t="n">
+        <v>46038</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>46038.85416666666</v>
+      </c>
+      <c r="B91" t="n">
+        <v>49.23153</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D91" s="3" t="n">
+        <v>46038</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>46038.875</v>
+      </c>
+      <c r="B92" t="n">
+        <v>40.98924</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D92" s="3" t="n">
+        <v>46038</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>46038.89583333334</v>
+      </c>
+      <c r="B93" t="n">
+        <v>40.5543</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D93" s="3" t="n">
+        <v>46038</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>46038.91666666666</v>
+      </c>
+      <c r="B94" t="n">
+        <v>40.56485</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D94" s="3" t="n">
+        <v>46038</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>46038.9375</v>
+      </c>
+      <c r="B95" t="n">
+        <v>48.38127</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D95" s="3" t="n">
+        <v>46038</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>46038.95833333334</v>
+      </c>
+      <c r="B96" t="n">
+        <v>47.88557</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D96" s="3" t="n">
+        <v>46038</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>46038.97916666666</v>
+      </c>
+      <c r="B97" t="n">
+        <v>40.46757</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D97" s="3" t="n">
+        <v>46038</v>
+      </c>
+      <c r="E97" t="inlineStr">
         <is>
           <t>OFF</t>
         </is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -507,10 +507,10 @@
         <v>34.02</v>
       </c>
       <c r="E3" t="n">
-        <v>563.1449849999999</v>
+        <v>583.6327769999999</v>
       </c>
       <c r="F3" t="n">
-        <v>16.55335052910053</v>
+        <v>17.15557839506173</v>
       </c>
     </row>
     <row r="4">
@@ -518,39 +518,39 @@
         <v>46037.91666666666</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>46038.10416666666</v>
+        <v>46038.125</v>
       </c>
       <c r="C4" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>17.01</v>
+        <v>18.9</v>
       </c>
       <c r="E4" t="n">
-        <v>513.38060475</v>
+        <v>543.31524975</v>
       </c>
       <c r="F4" t="n">
-        <v>30.18110551146385</v>
+        <v>28.74683861111112</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46038.27083333334</v>
+        <v>46038.29166666666</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>46038.66666666666</v>
       </c>
       <c r="C5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>35.91</v>
+        <v>34.02</v>
       </c>
       <c r="E5" t="n">
-        <v>601.14417675</v>
+        <v>583.0842810000001</v>
       </c>
       <c r="F5" t="n">
-        <v>16.74030010442774</v>
+        <v>17.13945564373898</v>
       </c>
     </row>
   </sheetData>
@@ -1213,7 +1213,7 @@
         <v>46037.60416666666</v>
       </c>
       <c r="B31" t="n">
-        <v>39.7501</v>
+        <v>52.15699</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>46037.625</v>
       </c>
       <c r="B32" t="n">
-        <v>36.0601</v>
+        <v>58.73807</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
         <v>46037.64583333334</v>
       </c>
       <c r="B33" t="n">
-        <v>57.04293</v>
+        <v>42.97119</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1276,11 +1276,11 @@
         <v>46037.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>43.94456</v>
+        <v>43.22303</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D34" s="3" t="n">
@@ -1297,7 +1297,7 @@
         <v>46037.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>46.29749</v>
+        <v>43.7905</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>46037.70833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>56.00261</v>
+        <v>55.05363</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1339,7 +1339,7 @@
         <v>46037.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>24.10105</v>
+        <v>17.535</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>46037.75</v>
       </c>
       <c r="B38" t="n">
-        <v>66.66182000000001</v>
+        <v>57.89137</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>46037.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>70.09057</v>
+        <v>62.83836</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         <v>46037.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>100.58579</v>
+        <v>80.02</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         <v>46037.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>106.42876</v>
+        <v>120.01</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>46037.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>102.84099</v>
+        <v>129.81998</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>46037.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>106.59</v>
+        <v>120.01</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>46037.875</v>
       </c>
       <c r="B44" t="n">
-        <v>102.96758</v>
+        <v>90.2877</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>46037.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>67.89254</v>
+        <v>68.2715</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
         <v>46037.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>58.43705</v>
+        <v>58.42568</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>46038.02083333334</v>
       </c>
       <c r="B51" t="n">
-        <v>57.92459</v>
+        <v>57.88079</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>46038.04166666666</v>
       </c>
       <c r="B52" t="n">
-        <v>57.06003</v>
+        <v>59.1159</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         <v>46038.08333333334</v>
       </c>
       <c r="B54" t="n">
-        <v>56.98</v>
+        <v>36.07</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>46038.10416666666</v>
       </c>
       <c r="B55" t="n">
-        <v>57.06003</v>
+        <v>49.23254</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
         <v>46038.125</v>
       </c>
       <c r="B56" t="n">
-        <v>56.98</v>
+        <v>36.07</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1759,7 +1759,7 @@
         <v>46038.14583333334</v>
       </c>
       <c r="B57" t="n">
-        <v>56.88071</v>
+        <v>36.07</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         <v>46038.16666666666</v>
       </c>
       <c r="B58" t="n">
-        <v>57.96129</v>
+        <v>56.98</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>46038.1875</v>
       </c>
       <c r="B59" t="n">
-        <v>59.63457</v>
+        <v>61.77255</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>46038.20833333334</v>
       </c>
       <c r="B60" t="n">
-        <v>60.43567</v>
+        <v>62.9539</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>46038.22916666666</v>
       </c>
       <c r="B61" t="n">
-        <v>65</v>
+        <v>73.20005</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>46038.25</v>
       </c>
       <c r="B62" t="n">
-        <v>58.27761</v>
+        <v>60.8552</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>46038.27083333334</v>
       </c>
       <c r="B63" t="n">
-        <v>56.98</v>
+        <v>57.06003</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1906,7 +1906,7 @@
         <v>46038.29166666666</v>
       </c>
       <c r="B64" t="n">
-        <v>35.88</v>
+        <v>36.06</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>46038.33333333334</v>
       </c>
       <c r="B66" t="n">
-        <v>36.06</v>
+        <v>36.05989</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>46038.375</v>
       </c>
       <c r="B68" t="n">
-        <v>40.9658</v>
+        <v>45.42611</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>46038.41666666666</v>
       </c>
       <c r="B70" t="n">
-        <v>36.06</v>
+        <v>45.51652</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>46038.4375</v>
       </c>
       <c r="B71" t="n">
-        <v>40.7954</v>
+        <v>36.05922</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         <v>46038.45833333334</v>
       </c>
       <c r="B72" t="n">
-        <v>36.06028</v>
+        <v>36.05989</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>46038.5625</v>
       </c>
       <c r="B77" t="n">
-        <v>27.4532</v>
+        <v>36.05952</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>46038.58333333334</v>
       </c>
       <c r="B78" t="n">
-        <v>12.10384</v>
+        <v>36.0601</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>46038.60416666666</v>
       </c>
       <c r="B79" t="n">
-        <v>7.36827</v>
+        <v>8.562340000000001</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>46038.625</v>
       </c>
       <c r="B80" t="n">
-        <v>4.71079</v>
+        <v>12.68053</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>46038.64583333334</v>
       </c>
       <c r="B81" t="n">
-        <v>29.70035</v>
+        <v>17.07084</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>46038.66666666666</v>
       </c>
       <c r="B82" t="n">
-        <v>29.66805</v>
+        <v>17.87116</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>46038.6875</v>
       </c>
       <c r="B83" t="n">
-        <v>24.42634</v>
+        <v>0.34135</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>46038.70833333334</v>
       </c>
       <c r="B84" t="n">
-        <v>18.11114</v>
+        <v>-9.3123</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         <v>46038.72916666666</v>
       </c>
       <c r="B85" t="n">
-        <v>16.09187</v>
+        <v>-9.55317</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>46038.75</v>
       </c>
       <c r="B86" t="n">
-        <v>5.45427</v>
+        <v>-6</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         <v>46038.77083333334</v>
       </c>
       <c r="B87" t="n">
-        <v>40.36512</v>
+        <v>-5.99309</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>46038.79166666666</v>
       </c>
       <c r="B88" t="n">
-        <v>55.3303</v>
+        <v>-3.0714</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>46038.8125</v>
       </c>
       <c r="B89" t="n">
-        <v>67.39879999999999</v>
+        <v>32.40461</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>46038.83333333334</v>
       </c>
       <c r="B90" t="n">
-        <v>59.37278</v>
+        <v>32.40461</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>46038.85416666666</v>
       </c>
       <c r="B91" t="n">
-        <v>67.39879999999999</v>
+        <v>32.40461</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>46038.875</v>
       </c>
       <c r="B92" t="n">
-        <v>68.21745</v>
+        <v>32.40461</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>46038.89583333334</v>
       </c>
       <c r="B93" t="n">
-        <v>57.04922</v>
+        <v>78</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>46038.91666666666</v>
       </c>
       <c r="B94" t="n">
-        <v>56.98078</v>
+        <v>64.8901</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2557,7 +2557,7 @@
         <v>46038.9375</v>
       </c>
       <c r="B95" t="n">
-        <v>48.38244</v>
+        <v>57.09</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>46038.95833333334</v>
       </c>
       <c r="B96" t="n">
-        <v>51.55592</v>
+        <v>57.09</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>46038.97916666666</v>
       </c>
       <c r="B97" t="n">
-        <v>57.02639</v>
+        <v>57.06003</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -527,10 +527,10 @@
         <v>17.01</v>
       </c>
       <c r="E4" t="n">
-        <v>495.6750825</v>
+        <v>497.91622725</v>
       </c>
       <c r="F4" t="n">
-        <v>29.14021649029982</v>
+        <v>29.27197103174603</v>
       </c>
     </row>
     <row r="5">
@@ -547,10 +547,10 @@
         <v>34.02</v>
       </c>
       <c r="E5" t="n">
-        <v>417.760239</v>
+        <v>627.4465957500001</v>
       </c>
       <c r="F5" t="n">
-        <v>12.27984241622575</v>
+        <v>18.44346254409172</v>
       </c>
     </row>
   </sheetData>
@@ -1381,7 +1381,7 @@
         <v>46037.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>35.88</v>
+        <v>70.48375</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         <v>46037.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>36.0601</v>
+        <v>101.47343</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D41" s="3" t="n">
@@ -1444,11 +1444,11 @@
         <v>46037.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>85.95</v>
+        <v>57.09</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D42" s="3" t="n">
@@ -1465,7 +1465,7 @@
         <v>46037.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>85.95</v>
+        <v>80.02</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>46037.875</v>
       </c>
       <c r="B44" t="n">
-        <v>85.95</v>
+        <v>80.02</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>46037.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>80.02</v>
+        <v>85.95</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>46038</v>
       </c>
       <c r="B50" t="n">
-        <v>58.17198</v>
+        <v>58.22268</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>46038.02083333334</v>
       </c>
       <c r="B51" t="n">
-        <v>58.21072</v>
+        <v>58.41034</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>46038.04166666666</v>
       </c>
       <c r="B52" t="n">
-        <v>57.06003</v>
+        <v>57.88255</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>46038.0625</v>
       </c>
       <c r="B53" t="n">
-        <v>50.04197</v>
+        <v>56.98</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         <v>46038.08333333334</v>
       </c>
       <c r="B54" t="n">
-        <v>56.98</v>
+        <v>51.26774</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1759,7 +1759,7 @@
         <v>46038.14583333334</v>
       </c>
       <c r="B57" t="n">
-        <v>51.17561</v>
+        <v>56.98</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         <v>46038.16666666666</v>
       </c>
       <c r="B58" t="n">
-        <v>50.87011</v>
+        <v>56.98</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>46038.1875</v>
       </c>
       <c r="B59" t="n">
-        <v>64.56525000000001</v>
+        <v>64.94638999999999</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>46038.20833333334</v>
       </c>
       <c r="B60" t="n">
-        <v>64.45856000000001</v>
+        <v>65</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>46038.22916666666</v>
       </c>
       <c r="B61" t="n">
-        <v>75.84058</v>
+        <v>76.28136000000001</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>46038.25</v>
       </c>
       <c r="B62" t="n">
-        <v>65</v>
+        <v>70.28973999999999</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         <v>46038.3125</v>
       </c>
       <c r="B65" t="n">
-        <v>36.06</v>
+        <v>36.07</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>46038.33333333334</v>
       </c>
       <c r="B66" t="n">
-        <v>41.60172</v>
+        <v>36.05989</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>46038.41666666666</v>
       </c>
       <c r="B70" t="n">
-        <v>36.06</v>
+        <v>41.72921</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>46038.4375</v>
       </c>
       <c r="B71" t="n">
-        <v>36.06</v>
+        <v>46.61275</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         <v>46038.45833333334</v>
       </c>
       <c r="B72" t="n">
-        <v>36.05949</v>
+        <v>36.06028</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>46038.47916666666</v>
       </c>
       <c r="B73" t="n">
-        <v>36.06</v>
+        <v>39.065</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>46038.5</v>
       </c>
       <c r="B74" t="n">
-        <v>6.4549</v>
+        <v>36.06</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>46038.52083333334</v>
       </c>
       <c r="B75" t="n">
-        <v>0.51</v>
+        <v>47.65777</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>46038.5625</v>
       </c>
       <c r="B77" t="n">
-        <v>-3.6481</v>
+        <v>28.81204</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>46038.58333333334</v>
       </c>
       <c r="B78" t="n">
-        <v>-4.81333</v>
+        <v>36.0601</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>46038.60416666666</v>
       </c>
       <c r="B79" t="n">
-        <v>6.79107</v>
+        <v>36.05857</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>46038.625</v>
       </c>
       <c r="B80" t="n">
-        <v>4.96539</v>
+        <v>16.83806</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>46038.64583333334</v>
       </c>
       <c r="B81" t="n">
-        <v>16.0108</v>
+        <v>26.1512</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>46038.66666666666</v>
       </c>
       <c r="B82" t="n">
-        <v>17.3123</v>
+        <v>15.65567</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>46038.6875</v>
       </c>
       <c r="B83" t="n">
-        <v>8.53261</v>
+        <v>6.48108</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>46038.70833333334</v>
       </c>
       <c r="B84" t="n">
-        <v>-11.45546</v>
+        <v>5.98882</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         <v>46038.72916666666</v>
       </c>
       <c r="B85" t="n">
-        <v>-10.83089</v>
+        <v>-9.555009999999999</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>46038.75</v>
       </c>
       <c r="B86" t="n">
-        <v>-6.88049</v>
+        <v>-6.88159</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         <v>46038.77083333334</v>
       </c>
       <c r="B87" t="n">
-        <v>-6</v>
+        <v>-3.07461</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>46038.79166666666</v>
       </c>
       <c r="B88" t="n">
-        <v>-3.09313</v>
+        <v>-3.07143</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>46038.89583333334</v>
       </c>
       <c r="B93" t="n">
-        <v>78</v>
+        <v>64.8901</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>46038.91666666666</v>
       </c>
       <c r="B94" t="n">
-        <v>64.8901</v>
+        <v>57.09</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -475,82 +475,82 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46037</v>
+        <v>46037.02083333334</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>46037.20833333334</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="D2" t="n">
-        <v>18.9</v>
+        <v>17.01</v>
       </c>
       <c r="E2" t="n">
-        <v>737.8842217499999</v>
+        <v>661.83422175</v>
       </c>
       <c r="F2" t="n">
-        <v>39.04149321428572</v>
+        <v>38.90853743386243</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46037.27083333334</v>
+        <v>46037.29166666666</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>46037.66666666666</v>
       </c>
       <c r="C3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>35.91</v>
+        <v>34.02</v>
       </c>
       <c r="E3" t="n">
-        <v>674.410308</v>
+        <v>597.29136675</v>
       </c>
       <c r="F3" t="n">
-        <v>18.78057109440267</v>
+        <v>17.55706545414462</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46037.9375</v>
+        <v>46037.89583333334</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>46038.125</v>
+        <v>46038.16666666666</v>
       </c>
       <c r="C4" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="D4" t="n">
-        <v>17.01</v>
+        <v>24.57</v>
       </c>
       <c r="E4" t="n">
-        <v>497.91622725</v>
+        <v>718.032588</v>
       </c>
       <c r="F4" t="n">
-        <v>29.27197103174603</v>
+        <v>29.22395555555556</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46038.29166666666</v>
+        <v>46038.33333333334</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>46038.66666666666</v>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>34.02</v>
+        <v>30.24</v>
       </c>
       <c r="E5" t="n">
-        <v>627.4465957500001</v>
+        <v>540.6628304999999</v>
       </c>
       <c r="F5" t="n">
-        <v>18.44346254409172</v>
+        <v>17.87906185515873</v>
       </c>
     </row>
   </sheetData>
@@ -616,7 +616,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -889,7 +889,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1423,7 +1423,7 @@
         <v>46037.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>80.02</v>
+        <v>124.79767</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>46037.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>57.09</v>
+        <v>142.36</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D43" s="3" t="n">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D44" s="3" t="n">
@@ -1507,7 +1507,7 @@
         <v>46037.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>80.02</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1528,7 +1528,7 @@
         <v>46037.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>85.95</v>
+        <v>84.50611000000001</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1549,7 +1549,7 @@
         <v>46037.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>56.98</v>
+        <v>74.11642999999999</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
         <v>46037.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>56.98</v>
+        <v>57.79891</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>46038</v>
       </c>
       <c r="B50" t="n">
-        <v>58.22268</v>
+        <v>56.98</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>46038.02083333334</v>
       </c>
       <c r="B51" t="n">
-        <v>58.41034</v>
+        <v>58.95402</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>46038.04166666666</v>
       </c>
       <c r="B52" t="n">
-        <v>57.88255</v>
+        <v>58.95394</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>46038.0625</v>
       </c>
       <c r="B53" t="n">
-        <v>56.98</v>
+        <v>58.16581</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         <v>46038.08333333334</v>
       </c>
       <c r="B54" t="n">
-        <v>51.26774</v>
+        <v>36.07</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>46038.10416666666</v>
       </c>
       <c r="B55" t="n">
-        <v>56.98</v>
+        <v>50.37846</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
         <v>46038.125</v>
       </c>
       <c r="B56" t="n">
-        <v>56.98</v>
+        <v>36.07</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1759,7 +1759,7 @@
         <v>46038.14583333334</v>
       </c>
       <c r="B57" t="n">
-        <v>56.98</v>
+        <v>36.07</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1801,7 +1801,7 @@
         <v>46038.1875</v>
       </c>
       <c r="B59" t="n">
-        <v>64.94638999999999</v>
+        <v>64.93029</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>46038.22916666666</v>
       </c>
       <c r="B61" t="n">
-        <v>76.28136000000001</v>
+        <v>76.26062</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>46038.25</v>
       </c>
       <c r="B62" t="n">
-        <v>70.28973999999999</v>
+        <v>71.95462000000001</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>46038.29166666666</v>
       </c>
       <c r="B64" t="n">
-        <v>36.06</v>
+        <v>40.54</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1927,7 +1927,7 @@
         <v>46038.3125</v>
       </c>
       <c r="B65" t="n">
-        <v>36.07</v>
+        <v>41.26969</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1948,7 +1948,7 @@
         <v>46038.33333333334</v>
       </c>
       <c r="B66" t="n">
-        <v>36.05989</v>
+        <v>48.26714</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>46038.35416666666</v>
       </c>
       <c r="B67" t="n">
-        <v>36.06</v>
+        <v>42.04025</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>46038.41666666666</v>
       </c>
       <c r="B70" t="n">
-        <v>41.72921</v>
+        <v>36.06</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>46038.4375</v>
       </c>
       <c r="B71" t="n">
-        <v>46.61275</v>
+        <v>36.06</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         <v>46038.45833333334</v>
       </c>
       <c r="B72" t="n">
-        <v>36.06028</v>
+        <v>23.10045</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>46038.47916666666</v>
       </c>
       <c r="B73" t="n">
-        <v>39.065</v>
+        <v>36.06</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>46038.52083333334</v>
       </c>
       <c r="B75" t="n">
-        <v>47.65777</v>
+        <v>36.0601</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>46038.5625</v>
       </c>
       <c r="B77" t="n">
-        <v>28.81204</v>
+        <v>36.0601</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>46038.60416666666</v>
       </c>
       <c r="B79" t="n">
-        <v>36.05857</v>
+        <v>32.5543</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>46038.625</v>
       </c>
       <c r="B80" t="n">
-        <v>16.83806</v>
+        <v>27.01543</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>46038.64583333334</v>
       </c>
       <c r="B81" t="n">
-        <v>26.1512</v>
+        <v>20.94801</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>46038.66666666666</v>
       </c>
       <c r="B82" t="n">
-        <v>15.65567</v>
+        <v>38.44817</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>46038.6875</v>
       </c>
       <c r="B83" t="n">
-        <v>6.48108</v>
+        <v>8.271470000000001</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>46038.70833333334</v>
       </c>
       <c r="B84" t="n">
-        <v>5.98882</v>
+        <v>11.08967</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         <v>46038.72916666666</v>
       </c>
       <c r="B85" t="n">
-        <v>-9.555009999999999</v>
+        <v>-8.068099999999999</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>46038.75</v>
       </c>
       <c r="B86" t="n">
-        <v>-6.88159</v>
+        <v>-6.78305</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         <v>46038.77083333334</v>
       </c>
       <c r="B87" t="n">
-        <v>-3.07461</v>
+        <v>-3.99001</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>46038.79166666666</v>
       </c>
       <c r="B88" t="n">
-        <v>-3.07143</v>
+        <v>-3.07171</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>46038.8125</v>
       </c>
       <c r="B89" t="n">
-        <v>29.85322</v>
+        <v>22.01959</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>46038.83333333334</v>
       </c>
       <c r="B90" t="n">
-        <v>32.40461</v>
+        <v>29.85322</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>46038.875</v>
       </c>
       <c r="B92" t="n">
-        <v>29.85322</v>
+        <v>30.1875</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>46038.89583333334</v>
       </c>
       <c r="B93" t="n">
-        <v>64.8901</v>
+        <v>78</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>46038.91666666666</v>
       </c>
       <c r="B94" t="n">
-        <v>57.09</v>
+        <v>64.8901</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2557,7 +2557,7 @@
         <v>46038.9375</v>
       </c>
       <c r="B95" t="n">
-        <v>57.09</v>
+        <v>57.04922</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,50 +475,50 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46037.04166666666</v>
+        <v>46037</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>46037.20833333334</v>
+        <v>46037.66666666666</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>15.12</v>
+        <v>60.48</v>
       </c>
       <c r="E2" t="n">
-        <v>587.08463775</v>
+        <v>1670.962254</v>
       </c>
       <c r="F2" t="n">
-        <v>38.82834905753968</v>
+        <v>27.62834414682539</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46037.29166666666</v>
+        <v>46038.33333333334</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>46037.66666666666</v>
+        <v>46038.66666666666</v>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>34.02</v>
+        <v>30.24</v>
       </c>
       <c r="E3" t="n">
-        <v>597.29136675</v>
+        <v>620.6932777500001</v>
       </c>
       <c r="F3" t="n">
-        <v>17.55706545414462</v>
+        <v>20.52557135416667</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46037.875</v>
+        <v>46038.83333333334</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>46038.04166666666</v>
+        <v>46039</v>
       </c>
       <c r="C4" t="n">
         <v>4</v>
@@ -527,50 +527,10 @@
         <v>15.12</v>
       </c>
       <c r="E4" t="n">
-        <v>590.1241807499999</v>
+        <v>331.7085135</v>
       </c>
       <c r="F4" t="n">
-        <v>39.02937703373016</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>46038.375</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>46038.66666666666</v>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>26.46</v>
-      </c>
-      <c r="E5" t="n">
-        <v>468.1814669999999</v>
-      </c>
-      <c r="F5" t="n">
-        <v>17.69393299319728</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>46038.83333333334</v>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>46039</v>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>15.12</v>
-      </c>
-      <c r="E6" t="n">
-        <v>400.345803</v>
-      </c>
-      <c r="F6" t="n">
-        <v>26.47789702380953</v>
+        <v>21.93839375</v>
       </c>
     </row>
   </sheetData>
@@ -636,7 +596,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -657,7 +617,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -846,7 +806,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -867,7 +827,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -888,7 +848,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -909,7 +869,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1518,7 +1478,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1527,7 +1487,7 @@
         <v>46037.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>80.02</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1539,7 +1499,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1548,7 +1508,7 @@
         <v>46037.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>85.95</v>
+        <v>65.0001</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1560,7 +1520,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1569,11 +1529,11 @@
         <v>46037.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>71.40000000000001</v>
+        <v>65</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D47" s="3" t="n">
@@ -1581,7 +1541,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1590,11 +1550,11 @@
         <v>46037.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>65</v>
+        <v>85.95</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D48" s="3" t="n">
@@ -1602,7 +1562,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1611,11 +1571,11 @@
         <v>46037.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>73.93557</v>
+        <v>84.7901</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D49" s="3" t="n">
@@ -1623,7 +1583,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1632,7 +1592,7 @@
         <v>46038</v>
       </c>
       <c r="B50" t="n">
-        <v>65</v>
+        <v>81.05549000000001</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1644,7 +1604,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1625,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1674,7 +1634,7 @@
         <v>46038.04166666666</v>
       </c>
       <c r="B52" t="n">
-        <v>58.69504</v>
+        <v>78</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1695,7 +1655,7 @@
         <v>46038.0625</v>
       </c>
       <c r="B53" t="n">
-        <v>58.45285</v>
+        <v>78</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1716,7 +1676,7 @@
         <v>46038.08333333334</v>
       </c>
       <c r="B54" t="n">
-        <v>59.60656</v>
+        <v>78</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1737,7 +1697,7 @@
         <v>46038.10416666666</v>
       </c>
       <c r="B55" t="n">
-        <v>64.89</v>
+        <v>69.42238</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1758,7 +1718,7 @@
         <v>46038.125</v>
       </c>
       <c r="B56" t="n">
-        <v>64.89</v>
+        <v>60.46039</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1779,7 +1739,7 @@
         <v>46038.14583333334</v>
       </c>
       <c r="B57" t="n">
-        <v>58.69131</v>
+        <v>59.40249</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1800,7 +1760,7 @@
         <v>46038.16666666666</v>
       </c>
       <c r="B58" t="n">
-        <v>64.89</v>
+        <v>59.39334</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1821,7 +1781,7 @@
         <v>46038.1875</v>
       </c>
       <c r="B59" t="n">
-        <v>80.02</v>
+        <v>79.95005</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1842,7 +1802,7 @@
         <v>46038.20833333334</v>
       </c>
       <c r="B60" t="n">
-        <v>80.02</v>
+        <v>79.95</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1926,7 +1886,7 @@
         <v>46038.29166666666</v>
       </c>
       <c r="B64" t="n">
-        <v>36.07</v>
+        <v>50.62891</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1947,7 +1907,7 @@
         <v>46038.3125</v>
       </c>
       <c r="B65" t="n">
-        <v>48.49273</v>
+        <v>56.98</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1980,7 +1940,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1989,7 +1949,7 @@
         <v>46038.35416666666</v>
       </c>
       <c r="B67" t="n">
-        <v>55.27342</v>
+        <v>56.97989</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -2001,7 +1961,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -2010,7 +1970,7 @@
         <v>46038.375</v>
       </c>
       <c r="B68" t="n">
-        <v>36.06</v>
+        <v>47.31837</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -2052,7 +2012,7 @@
         <v>46038.41666666666</v>
       </c>
       <c r="B70" t="n">
-        <v>36.06</v>
+        <v>45.92104</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2073,7 +2033,7 @@
         <v>46038.4375</v>
       </c>
       <c r="B71" t="n">
-        <v>36.06</v>
+        <v>45.97441</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2094,7 +2054,7 @@
         <v>46038.45833333334</v>
       </c>
       <c r="B72" t="n">
-        <v>36.05949</v>
+        <v>36.06028</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2157,7 +2117,7 @@
         <v>46038.52083333334</v>
       </c>
       <c r="B75" t="n">
-        <v>36.0601</v>
+        <v>40.54</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2241,7 +2201,7 @@
         <v>46038.60416666666</v>
       </c>
       <c r="B79" t="n">
-        <v>33.07075</v>
+        <v>36.0601</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2262,7 +2222,7 @@
         <v>46038.625</v>
       </c>
       <c r="B80" t="n">
-        <v>27.77113</v>
+        <v>28.73596</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2283,7 +2243,7 @@
         <v>46038.64583333334</v>
       </c>
       <c r="B81" t="n">
-        <v>22.68446</v>
+        <v>25.59822</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2304,7 +2264,7 @@
         <v>46038.66666666666</v>
       </c>
       <c r="B82" t="n">
-        <v>38.44817</v>
+        <v>18.17021</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2325,7 +2285,7 @@
         <v>46038.6875</v>
       </c>
       <c r="B83" t="n">
-        <v>0.81985</v>
+        <v>8.64973</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2346,7 +2306,7 @@
         <v>46038.70833333334</v>
       </c>
       <c r="B84" t="n">
-        <v>-9.431789999999999</v>
+        <v>-7.981</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2367,7 +2327,7 @@
         <v>46038.72916666666</v>
       </c>
       <c r="B85" t="n">
-        <v>-8.136850000000001</v>
+        <v>-6.80121</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2388,7 +2348,7 @@
         <v>46038.75</v>
       </c>
       <c r="B86" t="n">
-        <v>-6.78314</v>
+        <v>-6</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2409,7 +2369,7 @@
         <v>46038.77083333334</v>
       </c>
       <c r="B87" t="n">
-        <v>-3.00909</v>
+        <v>-3.03118</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2430,7 +2390,7 @@
         <v>46038.79166666666</v>
       </c>
       <c r="B88" t="n">
-        <v>-3.07152</v>
+        <v>-3.04997</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2451,7 +2411,7 @@
         <v>46038.8125</v>
       </c>
       <c r="B89" t="n">
-        <v>29.85322</v>
+        <v>22.01959</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2472,7 +2432,7 @@
         <v>46038.83333333334</v>
       </c>
       <c r="B90" t="n">
-        <v>32.40461</v>
+        <v>22.01959</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2493,7 +2453,7 @@
         <v>46038.85416666666</v>
       </c>
       <c r="B91" t="n">
-        <v>32.40461</v>
+        <v>29.85322</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2514,7 +2474,7 @@
         <v>46038.875</v>
       </c>
       <c r="B92" t="n">
-        <v>29.85322</v>
+        <v>0.85459</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2535,7 +2495,7 @@
         <v>46038.89583333334</v>
       </c>
       <c r="B93" t="n">
-        <v>78</v>
+        <v>57.78152</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2556,7 +2516,7 @@
         <v>46038.91666666666</v>
       </c>
       <c r="B94" t="n">
-        <v>64.8901</v>
+        <v>57.04922</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2577,7 +2537,7 @@
         <v>46038.9375</v>
       </c>
       <c r="B95" t="n">
-        <v>57.04922</v>
+        <v>57.45801</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2598,7 +2558,7 @@
         <v>46038.95833333334</v>
       </c>
       <c r="B96" t="n">
-        <v>58.94929</v>
+        <v>58.21771</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2619,7 +2579,7 @@
         <v>46038.97916666666</v>
       </c>
       <c r="B97" t="n">
-        <v>57.06003</v>
+        <v>56.98</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,62 +475,42 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46037</v>
+        <v>46038.16666666666</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>46037.66666666666</v>
+        <v>46038.66666666666</v>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>60.48</v>
+        <v>45.36</v>
       </c>
       <c r="E2" t="n">
-        <v>1670.962254</v>
+        <v>1153.35137775</v>
       </c>
       <c r="F2" t="n">
-        <v>27.62834414682539</v>
+        <v>25.42661767526456</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46038.33333333334</v>
+        <v>46038.83333333334</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>46038.66666666666</v>
+        <v>46039</v>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>30.24</v>
+        <v>15.12</v>
       </c>
       <c r="E3" t="n">
-        <v>620.6932777500001</v>
+        <v>362.94820575</v>
       </c>
       <c r="F3" t="n">
-        <v>20.52557135416667</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>46038.83333333334</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>46039</v>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>15.12</v>
-      </c>
-      <c r="E4" t="n">
-        <v>331.7085135</v>
-      </c>
-      <c r="F4" t="n">
-        <v>21.93839375</v>
+        <v>24.00451096230159</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +524,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -581,10 +561,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46037</v>
+        <v>46038</v>
       </c>
       <c r="B2" t="n">
-        <v>78</v>
+        <v>84.7901</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -592,20 +572,20 @@
         </is>
       </c>
       <c r="D2" s="3" t="n">
-        <v>46037</v>
+        <v>46038</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46037.02083333334</v>
+        <v>46038.02083333334</v>
       </c>
       <c r="B3" t="n">
-        <v>76.66624</v>
+        <v>78.53740000000001</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -613,154 +593,154 @@
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>46037</v>
+        <v>46038</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46037.04166666666</v>
+        <v>46038.04166666666</v>
       </c>
       <c r="B4" t="n">
         <v>78</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>46037</v>
+        <v>46038</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46037.0625</v>
+        <v>46038.0625</v>
       </c>
       <c r="B5" t="n">
         <v>78</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>46037</v>
+        <v>46038</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>46037.08333333334</v>
+        <v>46038.08333333334</v>
       </c>
       <c r="B6" t="n">
         <v>78</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>46037</v>
+        <v>46038</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>46037.10416666666</v>
+        <v>46038.10416666666</v>
       </c>
       <c r="B7" t="n">
-        <v>78</v>
+        <v>69.41407</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>46037</v>
+        <v>46038</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>46037.125</v>
+        <v>46038.125</v>
       </c>
       <c r="B8" t="n">
-        <v>78</v>
+        <v>60.09489</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>46037</v>
+        <v>46038</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>46037.14583333334</v>
+        <v>46038.14583333334</v>
       </c>
       <c r="B9" t="n">
-        <v>73.78127000000001</v>
+        <v>59.39742</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>46037</v>
+        <v>46038</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>46037.16666666666</v>
+        <v>46038.16666666666</v>
       </c>
       <c r="B10" t="n">
-        <v>73.1985</v>
+        <v>59.38764</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>46037</v>
+        <v>46038</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -770,18 +750,18 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>46037.1875</v>
+        <v>46038.1875</v>
       </c>
       <c r="B11" t="n">
-        <v>65.15832</v>
+        <v>79.95005</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>46037</v>
+        <v>46038</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -791,18 +771,18 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>46037.20833333334</v>
+        <v>46038.20833333334</v>
       </c>
       <c r="B12" t="n">
-        <v>81.07834</v>
+        <v>79.95</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>46037</v>
+        <v>46038</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -812,18 +792,18 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>46037.22916666666</v>
+        <v>46038.22916666666</v>
       </c>
       <c r="B13" t="n">
-        <v>93.42456</v>
+        <v>87.1773</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>46037</v>
+        <v>46038</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -833,18 +813,18 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>46037.25</v>
+        <v>46038.25</v>
       </c>
       <c r="B14" t="n">
-        <v>90.79733</v>
+        <v>80.02</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>46037</v>
+        <v>46038</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -854,18 +834,18 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>46037.27083333334</v>
+        <v>46038.27083333334</v>
       </c>
       <c r="B15" t="n">
-        <v>79.09635</v>
+        <v>57.06003</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>46037</v>
+        <v>46038</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -875,18 +855,18 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>46037.29166666666</v>
+        <v>46038.29166666666</v>
       </c>
       <c r="B16" t="n">
         <v>56.98</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>46037</v>
+        <v>46038</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -896,18 +876,18 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>46037.3125</v>
+        <v>46038.3125</v>
       </c>
       <c r="B17" t="n">
-        <v>51.40072</v>
+        <v>56.98</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D17" s="3" t="n">
-        <v>46037</v>
+        <v>46038</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -917,18 +897,18 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>46037.33333333334</v>
+        <v>46038.33333333334</v>
       </c>
       <c r="B18" t="n">
-        <v>50.14948</v>
+        <v>56.98</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D18" s="3" t="n">
-        <v>46037</v>
+        <v>46038</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -938,18 +918,18 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>46037.35416666666</v>
+        <v>46038.35416666666</v>
       </c>
       <c r="B19" t="n">
-        <v>36.06</v>
+        <v>56.97989</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D19" s="3" t="n">
-        <v>46037</v>
+        <v>46038</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -959,18 +939,18 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>46037.375</v>
+        <v>46038.375</v>
       </c>
       <c r="B20" t="n">
-        <v>36.06</v>
+        <v>47.41259</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D20" s="3" t="n">
-        <v>46037</v>
+        <v>46038</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -980,18 +960,18 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>46037.39583333334</v>
+        <v>46038.39583333334</v>
       </c>
       <c r="B21" t="n">
-        <v>8.18614</v>
+        <v>36.06</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D21" s="3" t="n">
-        <v>46037</v>
+        <v>46038</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1001,18 +981,18 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>46037.41666666666</v>
+        <v>46038.41666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>10.3824</v>
+        <v>46.76361</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D22" s="3" t="n">
-        <v>46037</v>
+        <v>46038</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1022,18 +1002,18 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>46037.4375</v>
+        <v>46038.4375</v>
       </c>
       <c r="B23" t="n">
-        <v>36.06</v>
+        <v>41.46282</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D23" s="3" t="n">
-        <v>46037</v>
+        <v>46038</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1043,18 +1023,18 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>46037.45833333334</v>
+        <v>46038.45833333334</v>
       </c>
       <c r="B24" t="n">
-        <v>0.51</v>
+        <v>36.06028</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D24" s="3" t="n">
-        <v>46037</v>
+        <v>46038</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1064,18 +1044,18 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>46037.47916666666</v>
+        <v>46038.47916666666</v>
       </c>
       <c r="B25" t="n">
-        <v>0.51</v>
+        <v>36.05989</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D25" s="3" t="n">
-        <v>46037</v>
+        <v>46038</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1085,18 +1065,18 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>46037.5</v>
+        <v>46038.5</v>
       </c>
       <c r="B26" t="n">
-        <v>34.01</v>
+        <v>36.06</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D26" s="3" t="n">
-        <v>46037</v>
+        <v>46038</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1106,18 +1086,18 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>46037.52083333334</v>
+        <v>46038.52083333334</v>
       </c>
       <c r="B27" t="n">
         <v>36.0601</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D27" s="3" t="n">
-        <v>46037</v>
+        <v>46038</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1127,18 +1107,18 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>46037.54166666666</v>
+        <v>46038.54166666666</v>
       </c>
       <c r="B28" t="n">
-        <v>0.51</v>
+        <v>36.07</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D28" s="3" t="n">
-        <v>46037</v>
+        <v>46038</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1148,18 +1128,18 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>46037.5625</v>
+        <v>46038.5625</v>
       </c>
       <c r="B29" t="n">
         <v>36.0601</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D29" s="3" t="n">
-        <v>46037</v>
+        <v>46038</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1169,18 +1149,18 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>46037.58333333334</v>
+        <v>46038.58333333334</v>
       </c>
       <c r="B30" t="n">
-        <v>51.79253</v>
+        <v>36.0601</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D30" s="3" t="n">
-        <v>46037</v>
+        <v>46038</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1190,18 +1170,18 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>46037.60416666666</v>
+        <v>46038.60416666666</v>
       </c>
       <c r="B31" t="n">
-        <v>52.15699</v>
+        <v>36.0601</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D31" s="3" t="n">
-        <v>46037</v>
+        <v>46038</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1211,18 +1191,18 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>46037.625</v>
+        <v>46038.625</v>
       </c>
       <c r="B32" t="n">
-        <v>58.73807</v>
+        <v>27.27383</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D32" s="3" t="n">
-        <v>46037</v>
+        <v>46038</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1232,18 +1212,18 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>46037.64583333334</v>
+        <v>46038.64583333334</v>
       </c>
       <c r="B33" t="n">
-        <v>56.98</v>
+        <v>23.99616</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D33" s="3" t="n">
-        <v>46037</v>
+        <v>46038</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1253,18 +1233,18 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>46037.66666666666</v>
+        <v>46038.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>47.29031</v>
+        <v>41.62135</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D34" s="3" t="n">
-        <v>46037</v>
+        <v>46038</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1274,18 +1254,18 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>46037.6875</v>
+        <v>46038.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>59.97758</v>
+        <v>7.72687</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D35" s="3" t="n">
-        <v>46037</v>
+        <v>46038</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1295,18 +1275,18 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>46037.70833333334</v>
+        <v>46038.70833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>59.47856</v>
+        <v>-6</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D36" s="3" t="n">
-        <v>46037</v>
+        <v>46038</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1316,18 +1296,18 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>46037.72916666666</v>
+        <v>46038.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>38.59672</v>
+        <v>-6</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D37" s="3" t="n">
-        <v>46037</v>
+        <v>46038</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1337,18 +1317,18 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>46037.75</v>
+        <v>46038.75</v>
       </c>
       <c r="B38" t="n">
-        <v>38.15612</v>
+        <v>-3.15364</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D38" s="3" t="n">
-        <v>46037</v>
+        <v>46038</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1358,18 +1338,18 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>46037.77083333334</v>
+        <v>46038.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>70.48375</v>
+        <v>-3.05455</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D39" s="3" t="n">
-        <v>46037</v>
+        <v>46038</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1379,18 +1359,18 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>46037.79166666666</v>
+        <v>46038.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>101.47343</v>
+        <v>-3.0516</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D40" s="3" t="n">
-        <v>46037</v>
+        <v>46038</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1400,18 +1380,18 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>46037.8125</v>
+        <v>46038.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>124.79767</v>
+        <v>22.01959</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D41" s="3" t="n">
-        <v>46037</v>
+        <v>46038</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1421,1175 +1401,167 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>46037.83333333334</v>
+        <v>46038.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>142.36</v>
+        <v>22.01959</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D42" s="3" t="n">
-        <v>46037</v>
+        <v>46038</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>46037.85416666666</v>
+        <v>46038.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>120.01</v>
+        <v>32.40461</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D43" s="3" t="n">
-        <v>46037</v>
+        <v>46038</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>46037.875</v>
+        <v>46038.875</v>
       </c>
       <c r="B44" t="n">
-        <v>85.95</v>
+        <v>22.01959</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D44" s="3" t="n">
-        <v>46037</v>
+        <v>46038</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>46037.89583333334</v>
+        <v>46038.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>71.40000000000001</v>
+        <v>59.10202</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D45" s="3" t="n">
-        <v>46037</v>
+        <v>46038</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>46037.91666666666</v>
+        <v>46038.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>65.0001</v>
+        <v>57.54904</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D46" s="3" t="n">
-        <v>46037</v>
+        <v>46038</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>46037.9375</v>
+        <v>46038.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>65</v>
+        <v>64.01353</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D47" s="3" t="n">
-        <v>46037</v>
+        <v>46038</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>46037.95833333334</v>
+        <v>46038.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>85.95</v>
+        <v>58.16619</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D48" s="3" t="n">
-        <v>46037</v>
+        <v>46038</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>46037.97916666666</v>
+        <v>46038.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>84.7901</v>
+        <v>56.98</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D49" s="3" t="n">
-        <v>46037</v>
+        <v>46038</v>
       </c>
       <c r="E49" t="inlineStr">
-        <is>
-          <t>OFF</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>46038</v>
-      </c>
-      <c r="B50" t="n">
-        <v>81.05549000000001</v>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D50" s="3" t="n">
-        <v>46038</v>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>OFF</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>46038.02083333334</v>
-      </c>
-      <c r="B51" t="n">
-        <v>78</v>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D51" s="3" t="n">
-        <v>46038</v>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>OFF</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>46038.04166666666</v>
-      </c>
-      <c r="B52" t="n">
-        <v>78</v>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D52" s="3" t="n">
-        <v>46038</v>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>OFF</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>46038.0625</v>
-      </c>
-      <c r="B53" t="n">
-        <v>78</v>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D53" s="3" t="n">
-        <v>46038</v>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>OFF</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>46038.08333333334</v>
-      </c>
-      <c r="B54" t="n">
-        <v>78</v>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D54" s="3" t="n">
-        <v>46038</v>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>OFF</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>46038.10416666666</v>
-      </c>
-      <c r="B55" t="n">
-        <v>69.42238</v>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D55" s="3" t="n">
-        <v>46038</v>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>OFF</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>46038.125</v>
-      </c>
-      <c r="B56" t="n">
-        <v>60.46039</v>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D56" s="3" t="n">
-        <v>46038</v>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>OFF</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>46038.14583333334</v>
-      </c>
-      <c r="B57" t="n">
-        <v>59.40249</v>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D57" s="3" t="n">
-        <v>46038</v>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>OFF</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>46038.16666666666</v>
-      </c>
-      <c r="B58" t="n">
-        <v>59.39334</v>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D58" s="3" t="n">
-        <v>46038</v>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>OFF</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>46038.1875</v>
-      </c>
-      <c r="B59" t="n">
-        <v>79.95005</v>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D59" s="3" t="n">
-        <v>46038</v>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>OFF</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>46038.20833333334</v>
-      </c>
-      <c r="B60" t="n">
-        <v>79.95</v>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D60" s="3" t="n">
-        <v>46038</v>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>OFF</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>46038.22916666666</v>
-      </c>
-      <c r="B61" t="n">
-        <v>85.95</v>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D61" s="3" t="n">
-        <v>46038</v>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>OFF</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>46038.25</v>
-      </c>
-      <c r="B62" t="n">
-        <v>79.95</v>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D62" s="3" t="n">
-        <v>46038</v>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>OFF</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>46038.27083333334</v>
-      </c>
-      <c r="B63" t="n">
-        <v>57.06003</v>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D63" s="3" t="n">
-        <v>46038</v>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>OFF</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>46038.29166666666</v>
-      </c>
-      <c r="B64" t="n">
-        <v>50.62891</v>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D64" s="3" t="n">
-        <v>46038</v>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>OFF</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>46038.3125</v>
-      </c>
-      <c r="B65" t="n">
-        <v>56.98</v>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D65" s="3" t="n">
-        <v>46038</v>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>OFF</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>46038.33333333334</v>
-      </c>
-      <c r="B66" t="n">
-        <v>57.06003</v>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D66" s="3" t="n">
-        <v>46038</v>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>46038.35416666666</v>
-      </c>
-      <c r="B67" t="n">
-        <v>56.97989</v>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D67" s="3" t="n">
-        <v>46038</v>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
-        <v>46038.375</v>
-      </c>
-      <c r="B68" t="n">
-        <v>47.31837</v>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D68" s="3" t="n">
-        <v>46038</v>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
-        <v>46038.39583333334</v>
-      </c>
-      <c r="B69" t="n">
-        <v>36.06</v>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D69" s="3" t="n">
-        <v>46038</v>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
-        <v>46038.41666666666</v>
-      </c>
-      <c r="B70" t="n">
-        <v>45.92104</v>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D70" s="3" t="n">
-        <v>46038</v>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
-        <v>46038.4375</v>
-      </c>
-      <c r="B71" t="n">
-        <v>45.97441</v>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D71" s="3" t="n">
-        <v>46038</v>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
-        <v>46038.45833333334</v>
-      </c>
-      <c r="B72" t="n">
-        <v>36.06028</v>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D72" s="3" t="n">
-        <v>46038</v>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
-        <v>46038.47916666666</v>
-      </c>
-      <c r="B73" t="n">
-        <v>36.05989</v>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D73" s="3" t="n">
-        <v>46038</v>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
-        <v>46038.5</v>
-      </c>
-      <c r="B74" t="n">
-        <v>36.06</v>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D74" s="3" t="n">
-        <v>46038</v>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
-        <v>46038.52083333334</v>
-      </c>
-      <c r="B75" t="n">
-        <v>40.54</v>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D75" s="3" t="n">
-        <v>46038</v>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
-        <v>46038.54166666666</v>
-      </c>
-      <c r="B76" t="n">
-        <v>36.0601</v>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D76" s="3" t="n">
-        <v>46038</v>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
-        <v>46038.5625</v>
-      </c>
-      <c r="B77" t="n">
-        <v>36.0601</v>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D77" s="3" t="n">
-        <v>46038</v>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
-        <v>46038.58333333334</v>
-      </c>
-      <c r="B78" t="n">
-        <v>36.0601</v>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D78" s="3" t="n">
-        <v>46038</v>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
-        <v>46038.60416666666</v>
-      </c>
-      <c r="B79" t="n">
-        <v>36.0601</v>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D79" s="3" t="n">
-        <v>46038</v>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
-        <v>46038.625</v>
-      </c>
-      <c r="B80" t="n">
-        <v>28.73596</v>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D80" s="3" t="n">
-        <v>46038</v>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
-        <v>46038.64583333334</v>
-      </c>
-      <c r="B81" t="n">
-        <v>25.59822</v>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D81" s="3" t="n">
-        <v>46038</v>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
-        <v>46038.66666666666</v>
-      </c>
-      <c r="B82" t="n">
-        <v>18.17021</v>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D82" s="3" t="n">
-        <v>46038</v>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>OFF</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="2" t="n">
-        <v>46038.6875</v>
-      </c>
-      <c r="B83" t="n">
-        <v>8.64973</v>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D83" s="3" t="n">
-        <v>46038</v>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>OFF</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="2" t="n">
-        <v>46038.70833333334</v>
-      </c>
-      <c r="B84" t="n">
-        <v>-7.981</v>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D84" s="3" t="n">
-        <v>46038</v>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>OFF</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="2" t="n">
-        <v>46038.72916666666</v>
-      </c>
-      <c r="B85" t="n">
-        <v>-6.80121</v>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D85" s="3" t="n">
-        <v>46038</v>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>OFF</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="2" t="n">
-        <v>46038.75</v>
-      </c>
-      <c r="B86" t="n">
-        <v>-6</v>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D86" s="3" t="n">
-        <v>46038</v>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>OFF</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="2" t="n">
-        <v>46038.77083333334</v>
-      </c>
-      <c r="B87" t="n">
-        <v>-3.03118</v>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D87" s="3" t="n">
-        <v>46038</v>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>OFF</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="2" t="n">
-        <v>46038.79166666666</v>
-      </c>
-      <c r="B88" t="n">
-        <v>-3.04997</v>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D88" s="3" t="n">
-        <v>46038</v>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>OFF</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="2" t="n">
-        <v>46038.8125</v>
-      </c>
-      <c r="B89" t="n">
-        <v>22.01959</v>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D89" s="3" t="n">
-        <v>46038</v>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>OFF</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="2" t="n">
-        <v>46038.83333333334</v>
-      </c>
-      <c r="B90" t="n">
-        <v>22.01959</v>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D90" s="3" t="n">
-        <v>46038</v>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="2" t="n">
-        <v>46038.85416666666</v>
-      </c>
-      <c r="B91" t="n">
-        <v>29.85322</v>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D91" s="3" t="n">
-        <v>46038</v>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="2" t="n">
-        <v>46038.875</v>
-      </c>
-      <c r="B92" t="n">
-        <v>0.85459</v>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D92" s="3" t="n">
-        <v>46038</v>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="2" t="n">
-        <v>46038.89583333334</v>
-      </c>
-      <c r="B93" t="n">
-        <v>57.78152</v>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D93" s="3" t="n">
-        <v>46038</v>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="2" t="n">
-        <v>46038.91666666666</v>
-      </c>
-      <c r="B94" t="n">
-        <v>57.04922</v>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D94" s="3" t="n">
-        <v>46038</v>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="2" t="n">
-        <v>46038.9375</v>
-      </c>
-      <c r="B95" t="n">
-        <v>57.45801</v>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D95" s="3" t="n">
-        <v>46038</v>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="2" t="n">
-        <v>46038.95833333334</v>
-      </c>
-      <c r="B96" t="n">
-        <v>58.21771</v>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D96" s="3" t="n">
-        <v>46038</v>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="2" t="n">
-        <v>46038.97916666666</v>
-      </c>
-      <c r="B97" t="n">
-        <v>56.98</v>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D97" s="3" t="n">
-        <v>46038</v>
-      </c>
-      <c r="E97" t="inlineStr">
         <is>
           <t>ON</t>
         </is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -487,10 +487,10 @@
         <v>45.36</v>
       </c>
       <c r="E2" t="n">
-        <v>1167.7417245</v>
+        <v>1161.84723525</v>
       </c>
       <c r="F2" t="n">
-        <v>25.74386517857143</v>
+        <v>25.61391612103175</v>
       </c>
     </row>
     <row r="3">
@@ -507,10 +507,10 @@
         <v>15.12</v>
       </c>
       <c r="E3" t="n">
-        <v>349.523304</v>
+        <v>348.247965</v>
       </c>
       <c r="F3" t="n">
-        <v>23.11662063492064</v>
+        <v>23.03227281746032</v>
       </c>
     </row>
   </sheetData>
@@ -524,7 +524,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,10 +561,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46038.02083333334</v>
+        <v>46038</v>
       </c>
       <c r="B2" t="n">
-        <v>78.36722</v>
+        <v>81.05549000000001</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -582,10 +582,10 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46038.04166666666</v>
+        <v>46038.02083333334</v>
       </c>
       <c r="B3" t="n">
-        <v>84.7901</v>
+        <v>78</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -603,14 +603,14 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46038.0625</v>
+        <v>46038.04166666666</v>
       </c>
       <c r="B4" t="n">
-        <v>84.7901</v>
+        <v>78</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D4" s="3" t="n">
@@ -624,14 +624,14 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46038.08333333334</v>
+        <v>46038.0625</v>
       </c>
       <c r="B5" t="n">
         <v>84.7901</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D5" s="3" t="n">
@@ -645,14 +645,14 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>46038.10416666666</v>
+        <v>46038.08333333334</v>
       </c>
       <c r="B6" t="n">
-        <v>78</v>
+        <v>84.7901</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D6" s="3" t="n">
@@ -666,10 +666,10 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>46038.125</v>
+        <v>46038.10416666666</v>
       </c>
       <c r="B7" t="n">
-        <v>78</v>
+        <v>83.60652</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -687,10 +687,10 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>46038.14583333334</v>
+        <v>46038.125</v>
       </c>
       <c r="B8" t="n">
-        <v>80.02</v>
+        <v>84.7901</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -708,10 +708,10 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>46038.16666666666</v>
+        <v>46038.14583333334</v>
       </c>
       <c r="B9" t="n">
-        <v>78</v>
+        <v>84.7901</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -723,16 +723,16 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>46038.1875</v>
+        <v>46038.16666666666</v>
       </c>
       <c r="B10" t="n">
-        <v>77.94</v>
+        <v>84.7901</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -750,10 +750,10 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>46038.20833333334</v>
+        <v>46038.1875</v>
       </c>
       <c r="B11" t="n">
-        <v>80.02</v>
+        <v>77.94</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -771,10 +771,10 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>46038.22916666666</v>
+        <v>46038.20833333334</v>
       </c>
       <c r="B12" t="n">
-        <v>87.16685</v>
+        <v>79.95</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>46038.25</v>
+        <v>46038.22916666666</v>
       </c>
       <c r="B13" t="n">
         <v>80.02</v>
@@ -813,10 +813,10 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>46038.27083333334</v>
+        <v>46038.25</v>
       </c>
       <c r="B14" t="n">
-        <v>57.06003</v>
+        <v>79.95</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -834,10 +834,10 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>46038.29166666666</v>
+        <v>46038.27083333334</v>
       </c>
       <c r="B15" t="n">
-        <v>56.98</v>
+        <v>57.06003</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -855,10 +855,10 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>46038.3125</v>
+        <v>46038.29166666666</v>
       </c>
       <c r="B16" t="n">
-        <v>56.98</v>
+        <v>50.63034</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>46038.33333333334</v>
+        <v>46038.3125</v>
       </c>
       <c r="B17" t="n">
         <v>56.98</v>
@@ -897,10 +897,10 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>46038.35416666666</v>
+        <v>46038.33333333334</v>
       </c>
       <c r="B18" t="n">
-        <v>56.89525</v>
+        <v>56.98</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -918,10 +918,10 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>46038.375</v>
+        <v>46038.35416666666</v>
       </c>
       <c r="B19" t="n">
-        <v>46.64807</v>
+        <v>56.89739</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -939,10 +939,10 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>46038.39583333334</v>
+        <v>46038.375</v>
       </c>
       <c r="B20" t="n">
-        <v>36.06</v>
+        <v>46.64753</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -960,10 +960,10 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>46038.41666666666</v>
+        <v>46038.39583333334</v>
       </c>
       <c r="B21" t="n">
-        <v>45.94024</v>
+        <v>36.06</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -981,10 +981,10 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>46038.4375</v>
+        <v>46038.41666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>41.22326</v>
+        <v>46.76441</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1002,10 +1002,10 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>46038.45833333334</v>
+        <v>46038.4375</v>
       </c>
       <c r="B23" t="n">
-        <v>36.07</v>
+        <v>41.46457</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1023,10 +1023,10 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>46038.47916666666</v>
+        <v>46038.45833333334</v>
       </c>
       <c r="B24" t="n">
-        <v>36.06</v>
+        <v>36.06028</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>46038.5</v>
+        <v>46038.47916666666</v>
       </c>
       <c r="B25" t="n">
         <v>36.06</v>
@@ -1065,10 +1065,10 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>46038.52083333334</v>
+        <v>46038.5</v>
       </c>
       <c r="B26" t="n">
-        <v>36.07</v>
+        <v>36.06</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>46038.54166666666</v>
+        <v>46038.52083333334</v>
       </c>
       <c r="B27" t="n">
-        <v>36.0601</v>
+        <v>41.10377</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>46038.5625</v>
+        <v>46038.54166666666</v>
       </c>
       <c r="B28" t="n">
         <v>36.0601</v>
@@ -1128,7 +1128,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>46038.58333333334</v>
+        <v>46038.5625</v>
       </c>
       <c r="B29" t="n">
         <v>36.0601</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>46038.60416666666</v>
+        <v>46038.58333333334</v>
       </c>
       <c r="B30" t="n">
         <v>36.0601</v>
@@ -1170,10 +1170,10 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>46038.625</v>
+        <v>46038.60416666666</v>
       </c>
       <c r="B31" t="n">
-        <v>27.2737</v>
+        <v>36.0601</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1191,10 +1191,10 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>46038.64583333334</v>
+        <v>46038.625</v>
       </c>
       <c r="B32" t="n">
-        <v>23.99602</v>
+        <v>27.2786</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1212,10 +1212,10 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>46038.66666666666</v>
+        <v>46038.64583333334</v>
       </c>
       <c r="B33" t="n">
-        <v>41.86233</v>
+        <v>18.70077</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1227,16 +1227,16 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>46038.6875</v>
+        <v>46038.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>7.72669</v>
+        <v>42.25471</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1254,10 +1254,10 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>46038.70833333334</v>
+        <v>46038.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>-6</v>
+        <v>10.34966</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1275,10 +1275,10 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>46038.72916666666</v>
+        <v>46038.70833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>-6</v>
+        <v>2.10968</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1296,10 +1296,10 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>46038.75</v>
+        <v>46038.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>-3.13051</v>
+        <v>-6</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1317,10 +1317,10 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>46038.77083333334</v>
+        <v>46038.75</v>
       </c>
       <c r="B38" t="n">
-        <v>-3.05379</v>
+        <v>-3.17523</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1338,10 +1338,10 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>46038.79166666666</v>
+        <v>46038.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>-3.05064</v>
+        <v>-3.03165</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1359,10 +1359,10 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>46038.8125</v>
+        <v>46038.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>22.01959</v>
+        <v>0.0113</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1380,10 +1380,10 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>46038.83333333334</v>
+        <v>46038.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>22.01959</v>
+        <v>29.85322</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1395,16 +1395,16 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>46038.85416666666</v>
+        <v>46038.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>32.40461</v>
+        <v>29.85322</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1422,10 +1422,10 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>46038.875</v>
+        <v>46038.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0871</v>
+        <v>29.85322</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>46038.89583333334</v>
+        <v>46038.875</v>
       </c>
       <c r="B44" t="n">
-        <v>73.73755</v>
+        <v>8.671720000000001</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1464,10 +1464,10 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>46038.91666666666</v>
+        <v>46038.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>57.54503</v>
+        <v>59.0817</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1485,10 +1485,10 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>46038.9375</v>
+        <v>46038.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>57.46081</v>
+        <v>57.09</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1506,10 +1506,10 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>46038.95833333334</v>
+        <v>46038.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>58.1919</v>
+        <v>57.44405</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1527,20 +1527,41 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
+        <v>46038.95833333334</v>
+      </c>
+      <c r="B48" t="n">
+        <v>58.20349</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D48" s="3" t="n">
+        <v>46038</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
         <v>46038.97916666666</v>
       </c>
-      <c r="B48" t="n">
-        <v>57.03885</v>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D48" s="3" t="n">
-        <v>46038</v>
-      </c>
-      <c r="E48" t="inlineStr">
+      <c r="B49" t="n">
+        <v>56.98</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D49" s="3" t="n">
+        <v>46038</v>
+      </c>
+      <c r="E49" t="inlineStr">
         <is>
           <t>ON</t>
         </is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -487,10 +487,10 @@
         <v>45.36</v>
       </c>
       <c r="E2" t="n">
-        <v>1161.84723525</v>
+        <v>1178.2416555</v>
       </c>
       <c r="F2" t="n">
-        <v>25.61391612103175</v>
+        <v>25.97534513888889</v>
       </c>
     </row>
     <row r="3">
@@ -507,10 +507,10 @@
         <v>15.12</v>
       </c>
       <c r="E3" t="n">
-        <v>348.247965</v>
+        <v>354.6176205</v>
       </c>
       <c r="F3" t="n">
-        <v>23.03227281746032</v>
+        <v>23.45354632936508</v>
       </c>
     </row>
   </sheetData>
@@ -627,7 +627,7 @@
         <v>46038.0625</v>
       </c>
       <c r="B5" t="n">
-        <v>84.7901</v>
+        <v>78</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -648,7 +648,7 @@
         <v>46038.08333333334</v>
       </c>
       <c r="B6" t="n">
-        <v>84.7901</v>
+        <v>78</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -669,11 +669,11 @@
         <v>46038.10416666666</v>
       </c>
       <c r="B7" t="n">
-        <v>83.60652</v>
+        <v>87.05036</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D7" s="3" t="n">
@@ -694,7 +694,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D8" s="3" t="n">
@@ -711,11 +711,11 @@
         <v>46038.14583333334</v>
       </c>
       <c r="B9" t="n">
-        <v>84.7901</v>
+        <v>85.44701000000001</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D9" s="3" t="n">
@@ -753,7 +753,7 @@
         <v>46038.1875</v>
       </c>
       <c r="B11" t="n">
-        <v>77.94</v>
+        <v>80.02</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>46038.20833333334</v>
       </c>
       <c r="B12" t="n">
-        <v>79.95</v>
+        <v>80.02</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         <v>46038.22916666666</v>
       </c>
       <c r="B13" t="n">
-        <v>80.02</v>
+        <v>93.26281</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>46038.29166666666</v>
       </c>
       <c r="B16" t="n">
-        <v>50.63034</v>
+        <v>56.98</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>46038.33333333334</v>
       </c>
       <c r="B18" t="n">
-        <v>56.98</v>
+        <v>56.97999</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>46038.35416666666</v>
       </c>
       <c r="B19" t="n">
-        <v>56.89739</v>
+        <v>56.90274</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>46038.375</v>
       </c>
       <c r="B20" t="n">
-        <v>46.64753</v>
+        <v>47.13666</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -984,7 +984,7 @@
         <v>46038.41666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>46.76441</v>
+        <v>46.68963</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>46038.4375</v>
       </c>
       <c r="B23" t="n">
-        <v>41.46457</v>
+        <v>41.21992</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>46038.45833333334</v>
       </c>
       <c r="B24" t="n">
-        <v>36.06028</v>
+        <v>36.07</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
         <v>46038.52083333334</v>
       </c>
       <c r="B27" t="n">
-        <v>41.10377</v>
+        <v>36.07</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>46038.625</v>
       </c>
       <c r="B32" t="n">
-        <v>27.2786</v>
+        <v>27.27348</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         <v>46038.64583333334</v>
       </c>
       <c r="B33" t="n">
-        <v>18.70077</v>
+        <v>18.62722</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1236,7 +1236,7 @@
         <v>46038.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>42.25471</v>
+        <v>17.79394</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>46038.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>10.34966</v>
+        <v>7.7265</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1278,7 +1278,7 @@
         <v>46038.70833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>2.10968</v>
+        <v>-6</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>46038.75</v>
       </c>
       <c r="B38" t="n">
-        <v>-3.17523</v>
+        <v>-3.13002</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         <v>46038.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>-3.03165</v>
+        <v>-3.05272</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>46038.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0113</v>
+        <v>0.01129</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>46038.875</v>
       </c>
       <c r="B44" t="n">
-        <v>8.671720000000001</v>
+        <v>0.08645</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>46038.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>59.0817</v>
+        <v>73.73759</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>46038.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>57.09</v>
+        <v>57.55625</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
         <v>46038.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>57.44405</v>
+        <v>57.44178</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>46038.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>58.20349</v>
+        <v>58.20187</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -487,10 +487,10 @@
         <v>45.36</v>
       </c>
       <c r="E2" t="n">
-        <v>1178.2416555</v>
+        <v>1191.14116875</v>
       </c>
       <c r="F2" t="n">
-        <v>25.97534513888889</v>
+        <v>26.25972594246032</v>
       </c>
     </row>
     <row r="3">
@@ -507,10 +507,10 @@
         <v>15.12</v>
       </c>
       <c r="E3" t="n">
-        <v>354.6176205</v>
+        <v>367.04655</v>
       </c>
       <c r="F3" t="n">
-        <v>23.45354632936508</v>
+        <v>24.27556547619048</v>
       </c>
     </row>
   </sheetData>
@@ -669,7 +669,7 @@
         <v>46038.10416666666</v>
       </c>
       <c r="B7" t="n">
-        <v>87.05036</v>
+        <v>69.42238</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -690,7 +690,7 @@
         <v>46038.125</v>
       </c>
       <c r="B8" t="n">
-        <v>84.7901</v>
+        <v>60.46039</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -711,7 +711,7 @@
         <v>46038.14583333334</v>
       </c>
       <c r="B9" t="n">
-        <v>85.44701000000001</v>
+        <v>84.7901</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -732,11 +732,11 @@
         <v>46038.16666666666</v>
       </c>
       <c r="B10" t="n">
-        <v>84.7901</v>
+        <v>87.15796</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D10" s="3" t="n">
@@ -795,7 +795,7 @@
         <v>46038.22916666666</v>
       </c>
       <c r="B13" t="n">
-        <v>93.26281</v>
+        <v>93.85476</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>46038.29166666666</v>
       </c>
       <c r="B16" t="n">
-        <v>56.98</v>
+        <v>50.66923</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>46038.33333333334</v>
       </c>
       <c r="B18" t="n">
-        <v>56.97999</v>
+        <v>56.98</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>46038.35416666666</v>
       </c>
       <c r="B19" t="n">
-        <v>56.90274</v>
+        <v>56.59029</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>46038.375</v>
       </c>
       <c r="B20" t="n">
-        <v>47.13666</v>
+        <v>47.14626</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -984,7 +984,7 @@
         <v>46038.41666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>46.68963</v>
+        <v>46.76395</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>46038.4375</v>
       </c>
       <c r="B23" t="n">
-        <v>41.21992</v>
+        <v>48.22486</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>46038.45833333334</v>
       </c>
       <c r="B24" t="n">
-        <v>36.07</v>
+        <v>40.96027</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>46038.47916666666</v>
       </c>
       <c r="B25" t="n">
-        <v>36.06</v>
+        <v>36.07</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
         <v>46038.52083333334</v>
       </c>
       <c r="B27" t="n">
-        <v>36.07</v>
+        <v>40.82473</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>46038.625</v>
       </c>
       <c r="B32" t="n">
-        <v>27.27348</v>
+        <v>27.27351</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         <v>46038.64583333334</v>
       </c>
       <c r="B33" t="n">
-        <v>18.62722</v>
+        <v>18.777</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1236,7 +1236,7 @@
         <v>46038.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>17.79394</v>
+        <v>17.76526</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>46038.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>7.7265</v>
+        <v>7.72659</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>46038.75</v>
       </c>
       <c r="B38" t="n">
-        <v>-3.13002</v>
+        <v>-3.13019</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         <v>46038.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>-3.05272</v>
+        <v>-3.03124</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>46038.875</v>
       </c>
       <c r="B44" t="n">
-        <v>0.08645</v>
+        <v>22.01959</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>46038.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>73.73759</v>
+        <v>64.8901</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>46038.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>57.55625</v>
+        <v>57.09</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
         <v>46038.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>57.44178</v>
+        <v>57.52342</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>46038.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>58.20187</v>
+        <v>58.1896</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>46038.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>56.98</v>
+        <v>57.03885</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,42 +475,62 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46038.16666666666</v>
+        <v>46038.02083333334</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>46038.66666666666</v>
+        <v>46038.1875</v>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>45.36</v>
+        <v>15.12</v>
       </c>
       <c r="E2" t="n">
-        <v>1191.14116875</v>
+        <v>546.661635</v>
       </c>
       <c r="F2" t="n">
-        <v>26.25972594246032</v>
+        <v>36.15487003968254</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
+        <v>46038.33333333334</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>46038.66666666666</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>30.24</v>
+      </c>
+      <c r="E3" t="n">
+        <v>599.02786125</v>
+      </c>
+      <c r="F3" t="n">
+        <v>19.80912239583333</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>46038.83333333334</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B4" s="2" t="n">
         <v>46039</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>4</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>15.12</v>
       </c>
-      <c r="E3" t="n">
-        <v>367.04655</v>
-      </c>
-      <c r="F3" t="n">
-        <v>24.27556547619048</v>
+      <c r="E4" t="n">
+        <v>332.72408325</v>
+      </c>
+      <c r="F4" t="n">
+        <v>22.00556106150794</v>
       </c>
     </row>
   </sheetData>
@@ -597,7 +617,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -618,7 +638,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -639,7 +659,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -660,7 +680,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -681,7 +701,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -702,7 +722,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -711,7 +731,7 @@
         <v>46038.14583333334</v>
       </c>
       <c r="B9" t="n">
-        <v>84.7901</v>
+        <v>59.40249</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -723,7 +743,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -732,7 +752,7 @@
         <v>46038.16666666666</v>
       </c>
       <c r="B10" t="n">
-        <v>87.15796</v>
+        <v>59.39334</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -753,11 +773,11 @@
         <v>46038.1875</v>
       </c>
       <c r="B11" t="n">
-        <v>80.02</v>
+        <v>105</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D11" s="3" t="n">
@@ -765,7 +785,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -774,11 +794,11 @@
         <v>46038.20833333334</v>
       </c>
       <c r="B12" t="n">
-        <v>80.02</v>
+        <v>105</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D12" s="3" t="n">
@@ -786,7 +806,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -795,11 +815,11 @@
         <v>46038.22916666666</v>
       </c>
       <c r="B13" t="n">
-        <v>93.85476</v>
+        <v>105</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D13" s="3" t="n">
@@ -807,7 +827,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -816,7 +836,7 @@
         <v>46038.25</v>
       </c>
       <c r="B14" t="n">
-        <v>79.95</v>
+        <v>80.02</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -828,7 +848,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -849,7 +869,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -858,7 +878,7 @@
         <v>46038.29166666666</v>
       </c>
       <c r="B16" t="n">
-        <v>50.66923</v>
+        <v>53.68744</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -870,7 +890,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -891,7 +911,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -921,7 +941,7 @@
         <v>46038.35416666666</v>
       </c>
       <c r="B19" t="n">
-        <v>56.59029</v>
+        <v>56.77175</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -942,7 +962,7 @@
         <v>46038.375</v>
       </c>
       <c r="B20" t="n">
-        <v>47.14626</v>
+        <v>47.16364</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -984,7 +1004,7 @@
         <v>46038.41666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>46.76395</v>
+        <v>36.06</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1005,7 +1025,7 @@
         <v>46038.4375</v>
       </c>
       <c r="B23" t="n">
-        <v>48.22486</v>
+        <v>36.07</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1026,7 +1046,7 @@
         <v>46038.45833333334</v>
       </c>
       <c r="B24" t="n">
-        <v>40.96027</v>
+        <v>40.72701</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1047,7 +1067,7 @@
         <v>46038.47916666666</v>
       </c>
       <c r="B25" t="n">
-        <v>36.07</v>
+        <v>36.06</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1089,7 +1109,7 @@
         <v>46038.52083333334</v>
       </c>
       <c r="B27" t="n">
-        <v>40.82473</v>
+        <v>40.83066</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1194,7 +1214,7 @@
         <v>46038.625</v>
       </c>
       <c r="B32" t="n">
-        <v>27.27351</v>
+        <v>27.27134</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1215,7 +1235,7 @@
         <v>46038.64583333334</v>
       </c>
       <c r="B33" t="n">
-        <v>18.777</v>
+        <v>20.09275</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1236,7 +1256,7 @@
         <v>46038.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>17.76526</v>
+        <v>18.11374</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1257,7 +1277,7 @@
         <v>46038.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>7.72659</v>
+        <v>8.450419999999999</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1320,7 +1340,7 @@
         <v>46038.75</v>
       </c>
       <c r="B38" t="n">
-        <v>-3.13019</v>
+        <v>-3.17436</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1341,7 +1361,7 @@
         <v>46038.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>-3.03124</v>
+        <v>-3.0523</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1362,7 +1382,7 @@
         <v>46038.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>0.01129</v>
+        <v>-0.54575</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1404,7 +1424,7 @@
         <v>46038.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>29.85322</v>
+        <v>22.01959</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1446,7 +1466,7 @@
         <v>46038.875</v>
       </c>
       <c r="B44" t="n">
-        <v>22.01959</v>
+        <v>0.0858</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1467,7 +1487,7 @@
         <v>46038.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>64.8901</v>
+        <v>59.08295</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1488,7 +1508,7 @@
         <v>46038.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>57.09</v>
+        <v>57.58853</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1509,7 +1529,7 @@
         <v>46038.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>57.52342</v>
+        <v>57.45443</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1530,7 +1550,7 @@
         <v>46038.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>58.1896</v>
+        <v>58.19095</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1551,7 +1571,7 @@
         <v>46038.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>57.03885</v>
+        <v>56.98</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,62 +475,42 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46038.02083333334</v>
+        <v>46038.16666666666</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>46038.1875</v>
+        <v>46038.66666666666</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>15.12</v>
+        <v>45.36</v>
       </c>
       <c r="E2" t="n">
-        <v>546.661635</v>
+        <v>1126.019388</v>
       </c>
       <c r="F2" t="n">
-        <v>36.15487003968254</v>
+        <v>24.82406058201058</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46038.33333333334</v>
+        <v>46038.83333333334</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>46038.66666666666</v>
+        <v>46039</v>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>30.24</v>
+        <v>15.12</v>
       </c>
       <c r="E3" t="n">
-        <v>572.50464375</v>
+        <v>337.0658655</v>
       </c>
       <c r="F3" t="n">
-        <v>18.93203187003968</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>46038.83333333334</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>46039</v>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>15.12</v>
-      </c>
-      <c r="E4" t="n">
-        <v>330.5716245</v>
-      </c>
-      <c r="F4" t="n">
-        <v>21.86320267857143</v>
+        <v>22.29271597222222</v>
       </c>
     </row>
   </sheetData>
@@ -617,7 +597,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -638,7 +618,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -659,7 +639,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -680,7 +660,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -701,7 +681,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -722,7 +702,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -743,7 +723,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -785,7 +765,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -806,7 +786,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -815,7 +795,7 @@
         <v>46038.22916666666</v>
       </c>
       <c r="B13" t="n">
-        <v>105</v>
+        <v>85.95</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -827,7 +807,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -836,7 +816,7 @@
         <v>46038.25</v>
       </c>
       <c r="B14" t="n">
-        <v>80.02</v>
+        <v>79.95</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -848,7 +828,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -861,7 +841,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D15" s="3" t="n">
@@ -869,7 +849,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -882,7 +862,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D16" s="3" t="n">
@@ -890,7 +870,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -899,7 +879,7 @@
         <v>46038.3125</v>
       </c>
       <c r="B17" t="n">
-        <v>56.98</v>
+        <v>50.38708</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -911,7 +891,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -920,7 +900,7 @@
         <v>46038.33333333334</v>
       </c>
       <c r="B18" t="n">
-        <v>56.97999</v>
+        <v>56.98</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -941,7 +921,7 @@
         <v>46038.35416666666</v>
       </c>
       <c r="B19" t="n">
-        <v>48.86725</v>
+        <v>55.25227</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -983,7 +963,7 @@
         <v>46038.39583333334</v>
       </c>
       <c r="B21" t="n">
-        <v>36.06</v>
+        <v>36.05916</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1046,7 +1026,7 @@
         <v>46038.45833333334</v>
       </c>
       <c r="B24" t="n">
-        <v>36.07</v>
+        <v>36.06028</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1214,7 +1194,7 @@
         <v>46038.625</v>
       </c>
       <c r="B32" t="n">
-        <v>28.9852</v>
+        <v>35.85034</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1235,7 +1215,7 @@
         <v>46038.64583333334</v>
       </c>
       <c r="B33" t="n">
-        <v>19.62131</v>
+        <v>24.46863</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1256,7 +1236,7 @@
         <v>46038.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>19.23499</v>
+        <v>19.24233</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1277,7 +1257,7 @@
         <v>46038.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>8.450419999999999</v>
+        <v>10.31216</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1298,7 +1278,7 @@
         <v>46038.70833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>-6</v>
+        <v>-1.5001</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1340,7 +1320,7 @@
         <v>46038.75</v>
       </c>
       <c r="B38" t="n">
-        <v>-3.17461</v>
+        <v>-3.17664</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1361,7 +1341,7 @@
         <v>46038.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>-2.70941</v>
+        <v>-2.7582</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1382,7 +1362,7 @@
         <v>46038.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>0.01121</v>
+        <v>0.0113</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1445,7 +1425,7 @@
         <v>46038.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>22.01959</v>
+        <v>29.85322</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1466,7 +1446,7 @@
         <v>46038.875</v>
       </c>
       <c r="B44" t="n">
-        <v>0.04217</v>
+        <v>0.84406</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1487,7 +1467,7 @@
         <v>46038.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>59.01628</v>
+        <v>57.04922</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1529,7 +1509,7 @@
         <v>46038.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>57.04367</v>
+        <v>57.04922</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1550,7 +1530,7 @@
         <v>46038.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>57.04367</v>
+        <v>57.03042</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -487,10 +487,10 @@
         <v>45.36</v>
       </c>
       <c r="E2" t="n">
-        <v>1126.019388</v>
+        <v>890.0228512499999</v>
       </c>
       <c r="F2" t="n">
-        <v>24.82406058201058</v>
+        <v>19.62131506283069</v>
       </c>
     </row>
     <row r="3">
@@ -507,10 +507,10 @@
         <v>15.12</v>
       </c>
       <c r="E3" t="n">
-        <v>337.0658655</v>
+        <v>386.1981435</v>
       </c>
       <c r="F3" t="n">
-        <v>22.29271597222222</v>
+        <v>25.54220525793651</v>
       </c>
     </row>
   </sheetData>
@@ -858,7 +858,7 @@
         <v>46038.29166666666</v>
       </c>
       <c r="B16" t="n">
-        <v>56.98</v>
+        <v>50.62891</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
         <v>46038.3125</v>
       </c>
       <c r="B17" t="n">
-        <v>50.38708</v>
+        <v>36.06</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D17" s="3" t="n">
@@ -900,11 +900,11 @@
         <v>46038.33333333334</v>
       </c>
       <c r="B18" t="n">
-        <v>56.98</v>
+        <v>36.06</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D18" s="3" t="n">
@@ -921,7 +921,7 @@
         <v>46038.35416666666</v>
       </c>
       <c r="B19" t="n">
-        <v>55.25227</v>
+        <v>57.06003</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         <v>46038.39583333334</v>
       </c>
       <c r="B21" t="n">
-        <v>36.05916</v>
+        <v>36.05971</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>46038.45833333334</v>
       </c>
       <c r="B24" t="n">
-        <v>36.06028</v>
+        <v>36.07</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
         <v>46038.52083333334</v>
       </c>
       <c r="B27" t="n">
-        <v>36.0601</v>
+        <v>36.07</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>46038.54166666666</v>
       </c>
       <c r="B28" t="n">
-        <v>36.0601</v>
+        <v>36.07</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         <v>46038.5625</v>
       </c>
       <c r="B29" t="n">
-        <v>36.0601</v>
+        <v>22.07</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>46038.58333333334</v>
       </c>
       <c r="B30" t="n">
-        <v>36.0601</v>
+        <v>-5.50985</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>46038.60416666666</v>
       </c>
       <c r="B31" t="n">
-        <v>36.0601</v>
+        <v>-17.43694</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>46038.625</v>
       </c>
       <c r="B32" t="n">
-        <v>35.85034</v>
+        <v>-17.36059</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         <v>46038.64583333334</v>
       </c>
       <c r="B33" t="n">
-        <v>24.46863</v>
+        <v>-15.55074</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1236,7 +1236,7 @@
         <v>46038.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>19.24233</v>
+        <v>19.14129</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>46038.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>10.31216</v>
+        <v>10.3197</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1278,7 +1278,7 @@
         <v>46038.70833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>-1.5001</v>
+        <v>2.14574</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>46038.75</v>
       </c>
       <c r="B38" t="n">
-        <v>-3.17664</v>
+        <v>-3.17514</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         <v>46038.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>-2.7582</v>
+        <v>3.14796</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>46038.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0113</v>
+        <v>0.01138</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         <v>46038.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>29.85322</v>
+        <v>32.40461</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1404,7 +1404,7 @@
         <v>46038.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>29.85322</v>
+        <v>32.40461</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>46038.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>29.85322</v>
+        <v>32.40461</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>46038.875</v>
       </c>
       <c r="B44" t="n">
-        <v>0.84406</v>
+        <v>29.85322</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>46038.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>57.04922</v>
+        <v>73.20007</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>46038.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>57.04922</v>
+        <v>57.09</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>46038.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>57.03042</v>
+        <v>57.0389</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>46038.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>56.98</v>
+        <v>57.06003</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -487,10 +487,10 @@
         <v>45.36</v>
       </c>
       <c r="E2" t="n">
-        <v>592.3275247500002</v>
+        <v>753.22077675</v>
       </c>
       <c r="F2" t="n">
-        <v>13.05836694775133</v>
+        <v>16.60539631283069</v>
       </c>
     </row>
     <row r="3">
@@ -507,10 +507,10 @@
         <v>15.12</v>
       </c>
       <c r="E3" t="n">
-        <v>357.79152825</v>
+        <v>346.9494795</v>
       </c>
       <c r="F3" t="n">
-        <v>23.66346086309524</v>
+        <v>22.9463941468254</v>
       </c>
     </row>
   </sheetData>
@@ -963,7 +963,7 @@
         <v>46038.39583333334</v>
       </c>
       <c r="B21" t="n">
-        <v>-11.03101</v>
+        <v>36.06</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -984,7 +984,7 @@
         <v>46038.41666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>-8.94445</v>
+        <v>45.92104</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1005,11 +1005,11 @@
         <v>46038.4375</v>
       </c>
       <c r="B23" t="n">
-        <v>36.06</v>
+        <v>45.97441</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D23" s="3" t="n">
@@ -1026,11 +1026,11 @@
         <v>46038.45833333334</v>
       </c>
       <c r="B24" t="n">
-        <v>36.06</v>
+        <v>36.06028</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D24" s="3" t="n">
@@ -1047,11 +1047,11 @@
         <v>46038.47916666666</v>
       </c>
       <c r="B25" t="n">
-        <v>-16.24859</v>
+        <v>21.24005</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D25" s="3" t="n">
@@ -1068,11 +1068,11 @@
         <v>46038.5</v>
       </c>
       <c r="B26" t="n">
-        <v>-16.86993</v>
+        <v>0</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D26" s="3" t="n">
@@ -1089,7 +1089,7 @@
         <v>46038.52083333334</v>
       </c>
       <c r="B27" t="n">
-        <v>-17.10346</v>
+        <v>-16.1572</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>46038.54166666666</v>
       </c>
       <c r="B28" t="n">
-        <v>-15.51447</v>
+        <v>-16.27493</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         <v>46038.5625</v>
       </c>
       <c r="B29" t="n">
-        <v>-17.0409</v>
+        <v>-16.47514</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>46038.58333333334</v>
       </c>
       <c r="B30" t="n">
-        <v>-22.18182</v>
+        <v>-21.15844</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>46038.60416666666</v>
       </c>
       <c r="B31" t="n">
-        <v>-17.11931</v>
+        <v>-21.40354</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>46038.625</v>
       </c>
       <c r="B32" t="n">
-        <v>-16.88235</v>
+        <v>-16.02</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         <v>46038.64583333334</v>
       </c>
       <c r="B33" t="n">
-        <v>-16.88892</v>
+        <v>-16.45302</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1236,7 +1236,7 @@
         <v>46038.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>18.11384</v>
+        <v>5.34014</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>46038.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>10.27661</v>
+        <v>4.15594</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1278,7 +1278,7 @@
         <v>46038.70833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>-10.86954</v>
+        <v>-9.5</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>46038.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>-9.415330000000001</v>
+        <v>-10.45391</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>46038.75</v>
       </c>
       <c r="B38" t="n">
-        <v>-9.253819999999999</v>
+        <v>-9.181150000000001</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         <v>46038.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>-3.05055</v>
+        <v>-2.98349</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>46038.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.5508</v>
+        <v>-3.00221</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         <v>46038.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>29.85322</v>
+        <v>20.41263</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1404,7 +1404,7 @@
         <v>46038.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>29.85322</v>
+        <v>27.59769</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>46038.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>29.85322</v>
+        <v>21.52393</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>46038.875</v>
       </c>
       <c r="B44" t="n">
-        <v>22.01959</v>
+        <v>21.52393</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>46038.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>57.09</v>
+        <v>56.98</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
         <v>46038.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>57.04922</v>
+        <v>57.09</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>46038.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>57.03042</v>
+        <v>57.06007</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -487,10 +487,10 @@
         <v>45.36</v>
       </c>
       <c r="E2" t="n">
-        <v>930.0173805000001</v>
+        <v>1043.1788055</v>
       </c>
       <c r="F2" t="n">
-        <v>20.50302867063492</v>
+        <v>22.99776908068783</v>
       </c>
     </row>
     <row r="3">
@@ -507,10 +507,10 @@
         <v>15.12</v>
       </c>
       <c r="E3" t="n">
-        <v>324.186837</v>
+        <v>368.2275285</v>
       </c>
       <c r="F3" t="n">
-        <v>21.44092837301587</v>
+        <v>24.35367251984127</v>
       </c>
     </row>
     <row r="4">
@@ -527,10 +527,10 @@
         <v>45.36</v>
       </c>
       <c r="E4" t="n">
-        <v>-112.892013</v>
+        <v>-58.6619475</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.488800992063492</v>
+        <v>-1.293252810846561</v>
       </c>
     </row>
   </sheetData>
@@ -1151,7 +1151,7 @@
         <v>46038.5625</v>
       </c>
       <c r="B29" t="n">
-        <v>-22.255</v>
+        <v>36.0601</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>46038.58333333334</v>
       </c>
       <c r="B30" t="n">
-        <v>-14</v>
+        <v>36.0601</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1193,11 +1193,11 @@
         <v>46038.60416666666</v>
       </c>
       <c r="B31" t="n">
-        <v>-14</v>
+        <v>-4.05321</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D31" s="3" t="n">
@@ -1214,11 +1214,11 @@
         <v>46038.625</v>
       </c>
       <c r="B32" t="n">
-        <v>-15.63074</v>
+        <v>-15.51759</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D32" s="3" t="n">
@@ -1235,11 +1235,11 @@
         <v>46038.64583333334</v>
       </c>
       <c r="B33" t="n">
-        <v>-4.20662</v>
+        <v>-6.57876</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D33" s="3" t="n">
@@ -1256,7 +1256,7 @@
         <v>46038.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>2.44544</v>
+        <v>4.29232</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>46038.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>-4.10876</v>
+        <v>-3.47865</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>46038.70833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>-6.73245</v>
+        <v>-6</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1319,7 +1319,7 @@
         <v>46038.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>-6.60018</v>
+        <v>-1.57063</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         <v>46038.75</v>
       </c>
       <c r="B38" t="n">
-        <v>-3.12186</v>
+        <v>-3.20521</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>46038.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>-2.73786</v>
+        <v>1.18622</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1382,7 +1382,7 @@
         <v>46038.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>-2.74631</v>
+        <v>0.00045</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         <v>46038.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>12.41698</v>
+        <v>23.74544</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         <v>46038.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>12.51189</v>
+        <v>32.79309</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>46038.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>20.67595</v>
+        <v>24.74099</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
         <v>46038.875</v>
       </c>
       <c r="B44" t="n">
-        <v>6.37544</v>
+        <v>21.88816</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>46038.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>56.98</v>
+        <v>64.8901</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
         <v>46038.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>64.93597</v>
+        <v>62.33685</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>46039.22916666666</v>
       </c>
       <c r="B61" t="n">
-        <v>56.98</v>
+        <v>57.06017</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>46039.25</v>
       </c>
       <c r="B62" t="n">
-        <v>52.585</v>
+        <v>51.15669</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>46039.29166666666</v>
       </c>
       <c r="B64" t="n">
-        <v>36.06</v>
+        <v>36.06029</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>46039.3125</v>
       </c>
       <c r="B65" t="n">
-        <v>0.51</v>
+        <v>6.27504</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
         <v>46039.33333333334</v>
       </c>
       <c r="B66" t="n">
-        <v>-5.51</v>
+        <v>-4.56332</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>46039.35416666666</v>
       </c>
       <c r="B67" t="n">
-        <v>-5.78275</v>
+        <v>-0.90384</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>46039.375</v>
       </c>
       <c r="B68" t="n">
-        <v>-4.83962</v>
+        <v>0.0094</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         <v>46039.39583333334</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.9809099999999999</v>
+        <v>-0.00776</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>46039.41666666666</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.88414</v>
+        <v>-0.89434</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>46039.4375</v>
       </c>
       <c r="B71" t="n">
-        <v>22.07</v>
+        <v>-5.50985</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>46039.47916666666</v>
       </c>
       <c r="B73" t="n">
-        <v>7.88135</v>
+        <v>6.25571</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2096,7 +2096,7 @@
         <v>46039.5</v>
       </c>
       <c r="B74" t="n">
-        <v>7.21991</v>
+        <v>8.71008</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>46039.52083333334</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.83992</v>
+        <v>0.7</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>46039.54166666666</v>
       </c>
       <c r="B76" t="n">
-        <v>-4.81333</v>
+        <v>-5.51011</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2159,7 +2159,7 @@
         <v>46039.5625</v>
       </c>
       <c r="B77" t="n">
-        <v>-9.99</v>
+        <v>-7.01</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>46039.58333333334</v>
       </c>
       <c r="B78" t="n">
-        <v>-18.98278</v>
+        <v>-11.17408</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>46039.60416666666</v>
       </c>
       <c r="B79" t="n">
-        <v>-12.26241</v>
+        <v>-12.11173</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>46039.625</v>
       </c>
       <c r="B80" t="n">
-        <v>-10.70447</v>
+        <v>-6.72418</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>46039.64583333334</v>
       </c>
       <c r="B81" t="n">
-        <v>-12.11173</v>
+        <v>-5.66385</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2264,7 +2264,7 @@
         <v>46039.66666666666</v>
       </c>
       <c r="B82" t="n">
-        <v>-13.26203</v>
+        <v>-2.21718</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>46039.6875</v>
       </c>
       <c r="B83" t="n">
-        <v>-22.57861</v>
+        <v>-5.17419</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>46039.70833333334</v>
       </c>
       <c r="B84" t="n">
-        <v>-13.43756</v>
+        <v>-6.49855</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
         <v>46039.72916666666</v>
       </c>
       <c r="B85" t="n">
-        <v>-9.5</v>
+        <v>-3.05311</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>46039.75</v>
       </c>
       <c r="B86" t="n">
-        <v>-7.16571</v>
+        <v>-2.93302</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>46039.77083333334</v>
       </c>
       <c r="B87" t="n">
-        <v>-2.88098</v>
+        <v>-2.92219</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>46039.79166666666</v>
       </c>
       <c r="B88" t="n">
-        <v>3.05901</v>
+        <v>0.75497</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>46039.8125</v>
       </c>
       <c r="B89" t="n">
-        <v>16.37244</v>
+        <v>21.60312</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>46039.83333333334</v>
       </c>
       <c r="B90" t="n">
-        <v>17.98198</v>
+        <v>51.84959</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>46039.85416666666</v>
       </c>
       <c r="B91" t="n">
-        <v>13.59537</v>
+        <v>32.62903</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
         <v>46039.875</v>
       </c>
       <c r="B92" t="n">
-        <v>55.12255</v>
+        <v>29.54841</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>46039.89583333334</v>
       </c>
       <c r="B93" t="n">
-        <v>56.98</v>
+        <v>36.0601</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>46039.91666666666</v>
       </c>
       <c r="B94" t="n">
-        <v>47.26597</v>
+        <v>36.06045</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>46039.9375</v>
       </c>
       <c r="B95" t="n">
-        <v>36.06041</v>
+        <v>57.3</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>46039.95833333334</v>
       </c>
       <c r="B96" t="n">
-        <v>36.06043</v>
+        <v>57.3</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>46039.97916666666</v>
       </c>
       <c r="B97" t="n">
-        <v>36.0604</v>
+        <v>57.06005</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -487,10 +487,10 @@
         <v>45.36</v>
       </c>
       <c r="E2" t="n">
-        <v>1115.13373725</v>
+        <v>1156.8090495</v>
       </c>
       <c r="F2" t="n">
-        <v>24.58407709986773</v>
+        <v>25.50284500661376</v>
       </c>
     </row>
     <row r="3">
@@ -507,18 +507,18 @@
         <v>15.12</v>
       </c>
       <c r="E3" t="n">
-        <v>362.944725</v>
+        <v>309.4335659999999</v>
       </c>
       <c r="F3" t="n">
-        <v>24.00428075396826</v>
+        <v>20.46518293650793</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46039.33333333334</v>
+        <v>46039.3125</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>46039.83333333334</v>
+        <v>46039.8125</v>
       </c>
       <c r="C4" t="n">
         <v>12</v>
@@ -527,10 +527,10 @@
         <v>45.36</v>
       </c>
       <c r="E4" t="n">
-        <v>-45.41884425000002</v>
+        <v>-117.1090635</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.001297271825397</v>
+        <v>-2.581769477513227</v>
       </c>
     </row>
   </sheetData>
@@ -1235,7 +1235,7 @@
         <v>46038.64583333334</v>
       </c>
       <c r="B33" t="n">
-        <v>-17.14569</v>
+        <v>25.59822</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>46038.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>-11.91363</v>
+        <v>18.17021</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1277,11 +1277,11 @@
         <v>46038.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>-7.76371</v>
+        <v>-34.28578</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D35" s="3" t="n">
@@ -1298,11 +1298,11 @@
         <v>46038.70833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>-6.71925</v>
+        <v>-9.77904</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D36" s="3" t="n">
@@ -1319,7 +1319,7 @@
         <v>46038.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>-3.18807</v>
+        <v>-6.84011</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         <v>46038.75</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.13614</v>
+        <v>-3.13143</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>46038.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>0.08790000000000001</v>
+        <v>-3.05909</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1382,7 +1382,7 @@
         <v>46038.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>10.54681</v>
+        <v>-3.12465</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         <v>46038.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>23.33001</v>
+        <v>5.07885</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         <v>46038.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>32.8827</v>
+        <v>10.55942</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>46038.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>24.50413</v>
+        <v>21.58386</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
         <v>46038.875</v>
       </c>
       <c r="B44" t="n">
-        <v>21.974</v>
+        <v>0.19633</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>46038.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>64.8901</v>
+        <v>57.04922</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
         <v>46038.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>56.98</v>
+        <v>57.03893</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>46038.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>57.06007</v>
+        <v>56.98</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>46039.1875</v>
       </c>
       <c r="B59" t="n">
-        <v>58.42372</v>
+        <v>56.98</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>46039.25</v>
       </c>
       <c r="B62" t="n">
-        <v>56.98</v>
+        <v>57.06018</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>46039.3125</v>
       </c>
       <c r="B65" t="n">
-        <v>23.90219</v>
+        <v>0.51</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1928,7 +1928,7 @@
         <v>46039.33333333334</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.8980900000000001</v>
+        <v>-5.51</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>46039.35416666666</v>
       </c>
       <c r="B67" t="n">
-        <v>-5.33054</v>
+        <v>-4.81333</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>46039.375</v>
       </c>
       <c r="B68" t="n">
-        <v>-2.83936</v>
+        <v>0.51003</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         <v>46039.39583333334</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.89852</v>
+        <v>0</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>46039.41666666666</v>
       </c>
       <c r="B70" t="n">
-        <v>-2.54301</v>
+        <v>-0.87926</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>46039.4375</v>
       </c>
       <c r="B71" t="n">
-        <v>0.00886</v>
+        <v>-0.87869</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>46039.45833333334</v>
       </c>
       <c r="B72" t="n">
-        <v>0.51003</v>
+        <v>-0.85809</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>46039.47916666666</v>
       </c>
       <c r="B73" t="n">
-        <v>0.51003</v>
+        <v>-0.84198</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2096,7 +2096,7 @@
         <v>46039.5</v>
       </c>
       <c r="B74" t="n">
-        <v>0.008630000000000001</v>
+        <v>-3.6481</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>46039.52083333334</v>
       </c>
       <c r="B75" t="n">
-        <v>6.90404</v>
+        <v>-4.81333</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>46039.54166666666</v>
       </c>
       <c r="B76" t="n">
-        <v>-4.81333</v>
+        <v>-8.5</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2159,7 +2159,7 @@
         <v>46039.5625</v>
       </c>
       <c r="B77" t="n">
-        <v>-7</v>
+        <v>-10</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>46039.58333333334</v>
       </c>
       <c r="B78" t="n">
-        <v>-11.16992</v>
+        <v>-14</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>46039.60416666666</v>
       </c>
       <c r="B79" t="n">
-        <v>-12.08785</v>
+        <v>-14</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>46039.625</v>
       </c>
       <c r="B80" t="n">
-        <v>-10.065</v>
+        <v>-12.11173</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>46039.64583333334</v>
       </c>
       <c r="B81" t="n">
-        <v>-5.92668</v>
+        <v>-7.92844</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2264,7 +2264,7 @@
         <v>46039.66666666666</v>
       </c>
       <c r="B82" t="n">
-        <v>5.27491</v>
+        <v>-2.88008</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>46039.6875</v>
       </c>
       <c r="B83" t="n">
-        <v>-9.060980000000001</v>
+        <v>-6.76678</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>46039.70833333334</v>
       </c>
       <c r="B84" t="n">
-        <v>-6.69718</v>
+        <v>-7.78482</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
         <v>46039.72916666666</v>
       </c>
       <c r="B85" t="n">
-        <v>-3.05417</v>
+        <v>-4.96609</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>46039.75</v>
       </c>
       <c r="B86" t="n">
-        <v>-2.9124</v>
+        <v>-6.19024</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>46039.77083333334</v>
       </c>
       <c r="B87" t="n">
-        <v>-2.92257</v>
+        <v>-6</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>46039.79166666666</v>
       </c>
       <c r="B88" t="n">
-        <v>6.81655</v>
+        <v>2.23907</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>46039.8125</v>
       </c>
       <c r="B89" t="n">
-        <v>21.60312</v>
+        <v>17.98199</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -2432,7 +2432,7 @@
         <v>46039.83333333334</v>
       </c>
       <c r="B90" t="n">
-        <v>57.16514</v>
+        <v>32.58868</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>46039.85416666666</v>
       </c>
       <c r="B91" t="n">
-        <v>32.64304</v>
+        <v>29.51425</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
         <v>46039.875</v>
       </c>
       <c r="B92" t="n">
-        <v>8.499320000000001</v>
+        <v>29.67769</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>46039.9375</v>
       </c>
       <c r="B95" t="n">
-        <v>57.3</v>
+        <v>64.8901</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>46039.95833333334</v>
       </c>
       <c r="B96" t="n">
-        <v>57.3</v>
+        <v>64.8901</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>46039.97916666666</v>
       </c>
       <c r="B97" t="n">
-        <v>57.06005</v>
+        <v>64.8901</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -507,10 +507,10 @@
         <v>15.12</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1123345</v>
+        <v>352.1131185</v>
       </c>
       <c r="F3" t="n">
-        <v>18.39367291666667</v>
+        <v>23.28790466269841</v>
       </c>
     </row>
     <row r="4">
@@ -527,10 +527,10 @@
         <v>45.36</v>
       </c>
       <c r="E4" t="n">
-        <v>-131.59852875</v>
+        <v>-149.15047875</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.901202132936508</v>
+        <v>-3.288149884259259</v>
       </c>
     </row>
   </sheetData>
@@ -1319,7 +1319,7 @@
         <v>46038.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>-8.90727</v>
+        <v>-6.80121</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         <v>46038.75</v>
       </c>
       <c r="B38" t="n">
-        <v>-2.98843</v>
+        <v>-6</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1361,11 +1361,11 @@
         <v>46038.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.62019</v>
+        <v>-3.1159</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D39" s="3" t="n">
@@ -1382,11 +1382,11 @@
         <v>46038.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>3.15941</v>
+        <v>34.26695</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D40" s="3" t="n">
@@ -1403,7 +1403,7 @@
         <v>46038.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>24.11812</v>
+        <v>36.25056</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         <v>46038.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>25.00316</v>
+        <v>35.87161</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>46038.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>17.20654</v>
+        <v>20.51366</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
         <v>46038.875</v>
       </c>
       <c r="B44" t="n">
-        <v>16.67999</v>
+        <v>17.88508</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>46038.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>56.98</v>
+        <v>62.33685</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>46038.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>36.0601</v>
+        <v>62.33685</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
         <v>46038.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>53.84201</v>
+        <v>61.94424</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>46038.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>43.41162</v>
+        <v>56.98</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>46038.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>36.06</v>
+        <v>43.27337</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>46039.04166666666</v>
       </c>
       <c r="B52" t="n">
-        <v>40.54</v>
+        <v>41.38585</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>46039.0625</v>
       </c>
       <c r="B53" t="n">
-        <v>36.06</v>
+        <v>40.54</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>46039.1875</v>
       </c>
       <c r="B59" t="n">
-        <v>65</v>
+        <v>59.08177</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>46039.25</v>
       </c>
       <c r="B62" t="n">
-        <v>57.06018</v>
+        <v>56.98</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
         <v>46039.33333333334</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.87734</v>
+        <v>-0.88256</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>46039.35416666666</v>
       </c>
       <c r="B67" t="n">
-        <v>-5.65164</v>
+        <v>-5.11737</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>46039.375</v>
       </c>
       <c r="B68" t="n">
-        <v>-5.30295</v>
+        <v>0</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         <v>46039.39583333334</v>
       </c>
       <c r="B69" t="n">
-        <v>-5.50985</v>
+        <v>-5.2121</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>46039.41666666666</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.87893</v>
+        <v>-5.51</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>46039.4375</v>
       </c>
       <c r="B71" t="n">
-        <v>-4.64736</v>
+        <v>-5.51</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>46039.45833333334</v>
       </c>
       <c r="B72" t="n">
-        <v>-5.01</v>
+        <v>-5.64248</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>46039.47916666666</v>
       </c>
       <c r="B73" t="n">
-        <v>-1.092</v>
+        <v>-5.01</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2096,7 +2096,7 @@
         <v>46039.5</v>
       </c>
       <c r="B74" t="n">
-        <v>-5.06248</v>
+        <v>-1.40538</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>46039.52083333334</v>
       </c>
       <c r="B75" t="n">
-        <v>-5.63691</v>
+        <v>-2.67373</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2159,7 +2159,7 @@
         <v>46039.5625</v>
       </c>
       <c r="B77" t="n">
-        <v>-11.16992</v>
+        <v>-9.99</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>46039.58333333334</v>
       </c>
       <c r="B78" t="n">
-        <v>-12.35725</v>
+        <v>-12.3505</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>46039.625</v>
       </c>
       <c r="B80" t="n">
-        <v>-12.11173</v>
+        <v>-17.41389</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>46039.64583333334</v>
       </c>
       <c r="B81" t="n">
-        <v>-8.222300000000001</v>
+        <v>-13.9999</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2264,7 +2264,7 @@
         <v>46039.66666666666</v>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>-6.41446</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>46039.6875</v>
       </c>
       <c r="B83" t="n">
-        <v>-7.74498</v>
+        <v>-11</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>46039.70833333334</v>
       </c>
       <c r="B84" t="n">
-        <v>-7.78104</v>
+        <v>-9.5</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
         <v>46039.72916666666</v>
       </c>
       <c r="B85" t="n">
-        <v>-5.66127</v>
+        <v>-5.17024</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>46039.75</v>
       </c>
       <c r="B86" t="n">
-        <v>-6.18295</v>
+        <v>-6.19141</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>46039.77083333334</v>
       </c>
       <c r="B87" t="n">
-        <v>-6.02102</v>
+        <v>-5.9299</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>46039.83333333334</v>
       </c>
       <c r="B90" t="n">
-        <v>43.04957</v>
+        <v>13.59537</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>46039.85416666666</v>
       </c>
       <c r="B91" t="n">
-        <v>56.98</v>
+        <v>9.56921</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
         <v>46039.875</v>
       </c>
       <c r="B92" t="n">
-        <v>8.320819999999999</v>
+        <v>36.0601</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -487,10 +487,10 @@
         <v>60.48</v>
       </c>
       <c r="E2" t="n">
-        <v>767.3495895000003</v>
+        <v>768.514968</v>
       </c>
       <c r="F2" t="n">
-        <v>12.68765855654762</v>
+        <v>12.70692738095238</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         <v>46039</v>
       </c>
       <c r="B2" t="n">
-        <v>57.06003</v>
+        <v>57.09</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -565,7 +565,7 @@
         <v>46039.02083333334</v>
       </c>
       <c r="B3" t="n">
-        <v>57.06003</v>
+        <v>57.09</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -586,11 +586,11 @@
         <v>46039.04166666666</v>
       </c>
       <c r="B4" t="n">
-        <v>57.06003</v>
+        <v>57.09</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D4" s="3" t="n">
@@ -628,7 +628,7 @@
         <v>46039.08333333334</v>
       </c>
       <c r="B6" t="n">
-        <v>40.54</v>
+        <v>57.06003</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -649,7 +649,7 @@
         <v>46039.10416666666</v>
       </c>
       <c r="B7" t="n">
-        <v>36.06</v>
+        <v>40.54</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>46039.125</v>
       </c>
       <c r="B8" t="n">
-        <v>36.06</v>
+        <v>40.54</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>46039.14583333334</v>
       </c>
       <c r="B9" t="n">
-        <v>36.06</v>
+        <v>56.98</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
         <v>46039.16666666666</v>
       </c>
       <c r="B10" t="n">
-        <v>36.06</v>
+        <v>56.98</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -796,7 +796,7 @@
         <v>46039.25</v>
       </c>
       <c r="B14" t="n">
-        <v>56.98</v>
+        <v>57.06018</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
         <v>46039.27083333334</v>
       </c>
       <c r="B15" t="n">
-        <v>50.75794</v>
+        <v>50.75171</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>46039.29166666666</v>
       </c>
       <c r="B16" t="n">
-        <v>36.06029</v>
+        <v>36.2</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>46039.3125</v>
       </c>
       <c r="B17" t="n">
-        <v>5.96508</v>
+        <v>36.06029</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         <v>46039.33333333334</v>
       </c>
       <c r="B18" t="n">
-        <v>36.06011</v>
+        <v>15.43474</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -901,7 +901,7 @@
         <v>46039.35416666666</v>
       </c>
       <c r="B19" t="n">
-        <v>36.06011</v>
+        <v>13.96726</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
         <v>46039.375</v>
       </c>
       <c r="B20" t="n">
-        <v>36.06054</v>
+        <v>36.06011</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>46039.39583333334</v>
       </c>
       <c r="B21" t="n">
-        <v>36.06011</v>
+        <v>35.88</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         <v>46039.41666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>36.06011</v>
+        <v>36.06057</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>46039.45833333334</v>
       </c>
       <c r="B24" t="n">
-        <v>35.88</v>
+        <v>36.06092</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>46039.47916666666</v>
       </c>
       <c r="B25" t="n">
-        <v>36.06092</v>
+        <v>36.06046</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1069,7 +1069,7 @@
         <v>46039.52083333334</v>
       </c>
       <c r="B27" t="n">
-        <v>36.06045</v>
+        <v>36.06</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>46039.54166666666</v>
       </c>
       <c r="B28" t="n">
-        <v>36.06045</v>
+        <v>36.0609</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         <v>46039.5625</v>
       </c>
       <c r="B29" t="n">
-        <v>34.74038</v>
+        <v>31.0352</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1132,7 +1132,7 @@
         <v>46039.58333333334</v>
       </c>
       <c r="B30" t="n">
-        <v>30.215</v>
+        <v>36.06029</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>46039.60416666666</v>
       </c>
       <c r="B31" t="n">
-        <v>28.0606</v>
+        <v>36.06031</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>46039.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>22.50771</v>
+        <v>22.50263</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>46039.70833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.57265</v>
+        <v>-0.57355</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>46039.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>-2.99287</v>
+        <v>-2.99308</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>46039.75</v>
       </c>
       <c r="B38" t="n">
-        <v>-2.80956</v>
+        <v>-2.83044</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>46039.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>-2.7774</v>
+        <v>-2.77762</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>46039.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>8.572229999999999</v>
+        <v>8.580550000000001</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         <v>46039.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>9.709530000000001</v>
+        <v>11.92003</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>46039.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>9.58447</v>
+        <v>11.09544</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>46039.875</v>
       </c>
       <c r="B44" t="n">
-        <v>9.520009999999999</v>
+        <v>9.361459999999999</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>46039.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>9.75056</v>
+        <v>9.751200000000001</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>46039.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>57.06008</v>
+        <v>56.98</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>46039.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>56.47</v>
+        <v>56.98</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -487,10 +487,10 @@
         <v>60.48</v>
       </c>
       <c r="E2" t="n">
-        <v>781.7284702500003</v>
+        <v>822.923712</v>
       </c>
       <c r="F2" t="n">
-        <v>12.92540460069445</v>
+        <v>13.60654285714286</v>
       </c>
     </row>
   </sheetData>
@@ -607,7 +607,7 @@
         <v>46039.0625</v>
       </c>
       <c r="B5" t="n">
-        <v>57.09</v>
+        <v>57.06003</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -628,7 +628,7 @@
         <v>46039.08333333334</v>
       </c>
       <c r="B6" t="n">
-        <v>56.97996</v>
+        <v>40.54</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -653,7 +653,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D7" s="3" t="n">
@@ -670,11 +670,11 @@
         <v>46039.125</v>
       </c>
       <c r="B8" t="n">
-        <v>56.97996</v>
+        <v>57.06003</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D8" s="3" t="n">
@@ -691,7 +691,7 @@
         <v>46039.14583333334</v>
       </c>
       <c r="B9" t="n">
-        <v>56.98</v>
+        <v>57.06003</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
         <v>46039.16666666666</v>
       </c>
       <c r="B10" t="n">
-        <v>56.98</v>
+        <v>57.06003</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>46039.20833333334</v>
       </c>
       <c r="B12" t="n">
-        <v>57.3</v>
+        <v>65</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -796,7 +796,7 @@
         <v>46039.25</v>
       </c>
       <c r="B14" t="n">
-        <v>57.3</v>
+        <v>65</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
         <v>46039.27083333334</v>
       </c>
       <c r="B15" t="n">
-        <v>36.2</v>
+        <v>56.98</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>46039.3125</v>
       </c>
       <c r="B17" t="n">
-        <v>18.4525</v>
+        <v>36.06029</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         <v>46039.33333333334</v>
       </c>
       <c r="B18" t="n">
-        <v>0.7</v>
+        <v>16.50213</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -901,7 +901,7 @@
         <v>46039.35416666666</v>
       </c>
       <c r="B19" t="n">
-        <v>36.06011</v>
+        <v>26.94954</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
         <v>46039.375</v>
       </c>
       <c r="B20" t="n">
-        <v>36.06054</v>
+        <v>36.06011</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>46039.39583333334</v>
       </c>
       <c r="B21" t="n">
-        <v>36.06011</v>
+        <v>35.88</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         <v>46039.41666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>46.43705</v>
+        <v>36.06011</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>46039.45833333334</v>
       </c>
       <c r="B24" t="n">
-        <v>44.73383</v>
+        <v>36.06046</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>46039.5</v>
       </c>
       <c r="B26" t="n">
-        <v>36.06046</v>
+        <v>46.49741</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         <v>46039.5625</v>
       </c>
       <c r="B29" t="n">
-        <v>36.06029</v>
+        <v>36.06</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1132,7 +1132,7 @@
         <v>46039.58333333334</v>
       </c>
       <c r="B30" t="n">
-        <v>30.01081</v>
+        <v>29.64647</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>46039.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>25.55134</v>
+        <v>27.14114</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>46039.70833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.32102</v>
+        <v>-0.32145</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>46039.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>-3.01589</v>
+        <v>-3.016</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>46039.75</v>
       </c>
       <c r="B38" t="n">
-        <v>-2.85215</v>
+        <v>-2.85235</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>46039.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>-2.79911</v>
+        <v>-2.81987</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         <v>46039.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0109</v>
+        <v>4.5258</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>46039.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>9.38786</v>
+        <v>9.627840000000001</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         <v>46039.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>29.66317</v>
+        <v>29.59904</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>46039.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>9.42876</v>
+        <v>9.659560000000001</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>46039.875</v>
       </c>
       <c r="B44" t="n">
-        <v>9.52481</v>
+        <v>9.36539</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>46039.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>9.754619999999999</v>
+        <v>9.754899999999999</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>46039.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>56.98</v>
+        <v>57.06004</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -487,10 +487,10 @@
         <v>60.48</v>
       </c>
       <c r="E2" t="n">
-        <v>772.4833740000001</v>
+        <v>794.102088</v>
       </c>
       <c r="F2" t="n">
-        <v>12.77254255952381</v>
+        <v>13.12999484126984</v>
       </c>
     </row>
   </sheetData>
@@ -754,7 +754,7 @@
         <v>46039.20833333334</v>
       </c>
       <c r="B12" t="n">
-        <v>65</v>
+        <v>57.1</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -775,7 +775,7 @@
         <v>46039.22916666666</v>
       </c>
       <c r="B13" t="n">
-        <v>73.20003</v>
+        <v>57.3</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -817,11 +817,11 @@
         <v>46039.27083333334</v>
       </c>
       <c r="B15" t="n">
-        <v>56.98</v>
+        <v>36.2</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D15" s="3" t="n">
@@ -842,7 +842,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D16" s="3" t="n">
@@ -859,7 +859,7 @@
         <v>46039.3125</v>
       </c>
       <c r="B17" t="n">
-        <v>24.30882</v>
+        <v>36.06029</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         <v>46039.33333333334</v>
       </c>
       <c r="B18" t="n">
-        <v>25.52278</v>
+        <v>29.57649</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -901,7 +901,7 @@
         <v>46039.35416666666</v>
       </c>
       <c r="B19" t="n">
-        <v>28.96238</v>
+        <v>36.06011</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
         <v>46039.375</v>
       </c>
       <c r="B20" t="n">
-        <v>36.06054</v>
+        <v>36.06011</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         <v>46039.4375</v>
       </c>
       <c r="B23" t="n">
-        <v>35.88</v>
+        <v>36.06032</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>46039.45833333334</v>
       </c>
       <c r="B24" t="n">
-        <v>35.88</v>
+        <v>36.06046</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>46039.47916666666</v>
       </c>
       <c r="B25" t="n">
-        <v>36.06092</v>
+        <v>50.35718</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>46039.5</v>
       </c>
       <c r="B26" t="n">
-        <v>48.81498</v>
+        <v>36.06092</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1132,7 +1132,7 @@
         <v>46039.58333333334</v>
       </c>
       <c r="B30" t="n">
-        <v>36.06029</v>
+        <v>36.06</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>46039.60416666666</v>
       </c>
       <c r="B31" t="n">
-        <v>27.99749</v>
+        <v>36.06031</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>46039.625</v>
       </c>
       <c r="B32" t="n">
-        <v>30.21678</v>
+        <v>30.35616</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>46039.64583333334</v>
       </c>
       <c r="B33" t="n">
-        <v>36.05863</v>
+        <v>36.06038</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>46039.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>33.26446</v>
+        <v>33.26801</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>46039.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>8.26928</v>
+        <v>8.41405</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>46039.70833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>-3.07654</v>
+        <v>-3.07809</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>46039.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>-2.99582</v>
+        <v>-3.01858</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>46039.75</v>
       </c>
       <c r="B38" t="n">
-        <v>-2.91605</v>
+        <v>-2.91738</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>46039.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>-2.86176</v>
+        <v>-2.86323</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         <v>46039.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>3.42645</v>
+        <v>3.4639</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>46039.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>9.65137</v>
+        <v>9.5329</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         <v>46039.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>9.71463</v>
+        <v>29.71119</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>46039.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>19.54531</v>
+        <v>9.59267</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>46039.875</v>
       </c>
       <c r="B44" t="n">
-        <v>8.333019999999999</v>
+        <v>8.33337</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>46039.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>6.5735</v>
+        <v>6.57492</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         <v>46039.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>30.19777</v>
+        <v>30.05581</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>46039.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>57.06008</v>
+        <v>56.98</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>46039.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>47.60925</v>
+        <v>47.61072</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -487,10 +487,10 @@
         <v>60.48</v>
       </c>
       <c r="E2" t="n">
-        <v>794.102088</v>
+        <v>878.5684342500001</v>
       </c>
       <c r="F2" t="n">
-        <v>13.12999484126984</v>
+        <v>14.52659448164683</v>
       </c>
     </row>
   </sheetData>
@@ -796,7 +796,7 @@
         <v>46039.25</v>
       </c>
       <c r="B14" t="n">
-        <v>65</v>
+        <v>56.98</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
         <v>46039.27083333334</v>
       </c>
       <c r="B15" t="n">
-        <v>36.2</v>
+        <v>50.46272</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D17" s="3" t="n">
@@ -880,11 +880,11 @@
         <v>46039.33333333334</v>
       </c>
       <c r="B18" t="n">
-        <v>29.57649</v>
+        <v>12.94586</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D18" s="3" t="n">
@@ -901,7 +901,7 @@
         <v>46039.35416666666</v>
       </c>
       <c r="B19" t="n">
-        <v>36.06011</v>
+        <v>18.67563</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
         <v>46039.375</v>
       </c>
       <c r="B20" t="n">
-        <v>36.06011</v>
+        <v>27.87441</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         <v>46039.41666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>36.06011</v>
+        <v>33.86823</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         <v>46039.4375</v>
       </c>
       <c r="B23" t="n">
-        <v>36.06032</v>
+        <v>35.88</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>46039.45833333334</v>
       </c>
       <c r="B24" t="n">
-        <v>36.06046</v>
+        <v>36.06092</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>46039.47916666666</v>
       </c>
       <c r="B25" t="n">
-        <v>50.35718</v>
+        <v>44.06468</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>46039.5</v>
       </c>
       <c r="B26" t="n">
-        <v>36.06092</v>
+        <v>36.06046</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1069,7 +1069,7 @@
         <v>46039.52083333334</v>
       </c>
       <c r="B27" t="n">
-        <v>36.06045</v>
+        <v>43.1301</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>46039.54166666666</v>
       </c>
       <c r="B28" t="n">
-        <v>36.06045</v>
+        <v>46.34072</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1132,7 +1132,7 @@
         <v>46039.58333333334</v>
       </c>
       <c r="B30" t="n">
-        <v>36.06</v>
+        <v>34.78031</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>46039.625</v>
       </c>
       <c r="B32" t="n">
-        <v>30.35616</v>
+        <v>36.06033</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>46039.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>33.26801</v>
+        <v>36.05879</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>46039.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>8.41405</v>
+        <v>16.07216</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>46039.70833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>-3.07809</v>
+        <v>-0.41405</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>46039.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>-3.01858</v>
+        <v>-2.99806</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>46039.75</v>
       </c>
       <c r="B38" t="n">
-        <v>-2.91738</v>
+        <v>-2.91785</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>46039.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>-2.86323</v>
+        <v>-2.88418</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         <v>46039.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>3.4639</v>
+        <v>7.52239</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>46039.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>9.5329</v>
+        <v>32.87797</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         <v>46039.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>29.71119</v>
+        <v>56.40935</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>46039.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>9.59267</v>
+        <v>10.22525</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>46039.875</v>
       </c>
       <c r="B44" t="n">
-        <v>8.33337</v>
+        <v>19.64731</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>46039.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>6.57492</v>
+        <v>22.87055</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         <v>46039.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>30.05581</v>
+        <v>36.06045</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>46039.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>47.61072</v>
+        <v>56.98</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -487,10 +487,10 @@
         <v>60.48</v>
       </c>
       <c r="E2" t="n">
-        <v>789.1812434999999</v>
+        <v>661.6262347500001</v>
       </c>
       <c r="F2" t="n">
-        <v>13.04863167162698</v>
+        <v>10.93958721478175</v>
       </c>
     </row>
   </sheetData>
@@ -901,7 +901,7 @@
         <v>46039.35416666666</v>
       </c>
       <c r="B19" t="n">
-        <v>36.06011</v>
+        <v>33.22362</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
         <v>46039.375</v>
       </c>
       <c r="B20" t="n">
-        <v>36.06011</v>
+        <v>35.88</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -943,11 +943,11 @@
         <v>46039.39583333334</v>
       </c>
       <c r="B21" t="n">
-        <v>36.06011</v>
+        <v>-9.5031</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D21" s="3" t="n">
@@ -964,11 +964,11 @@
         <v>46039.41666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>5.98325</v>
+        <v>-7.46266</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D22" s="3" t="n">
@@ -985,7 +985,7 @@
         <v>46039.4375</v>
       </c>
       <c r="B23" t="n">
-        <v>35.88</v>
+        <v>22.07</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>46039.45833333334</v>
       </c>
       <c r="B24" t="n">
-        <v>32.34641</v>
+        <v>0.7</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>46039.47916666666</v>
       </c>
       <c r="B25" t="n">
-        <v>36.06046</v>
+        <v>22.07</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>46039.5</v>
       </c>
       <c r="B26" t="n">
-        <v>35.88</v>
+        <v>36.06046</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1069,7 +1069,7 @@
         <v>46039.52083333334</v>
       </c>
       <c r="B27" t="n">
-        <v>32.51579</v>
+        <v>36.06045</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1132,7 +1132,7 @@
         <v>46039.58333333334</v>
       </c>
       <c r="B30" t="n">
-        <v>23.63823</v>
+        <v>23.97858</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>46039.60416666666</v>
       </c>
       <c r="B31" t="n">
-        <v>23.5144</v>
+        <v>23.50558</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>46039.625</v>
       </c>
       <c r="B32" t="n">
-        <v>24.28971</v>
+        <v>28.08235</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>46039.64583333334</v>
       </c>
       <c r="B33" t="n">
-        <v>36.061</v>
+        <v>40.54</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>46039.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>33.26822</v>
+        <v>33.2694</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>46039.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>23.74211</v>
+        <v>8.34709</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>46039.70833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.12629</v>
+        <v>-0.09452000000000001</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>46039.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>-3.02299</v>
+        <v>-2.99905</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>46039.75</v>
       </c>
       <c r="B38" t="n">
-        <v>-2.9204</v>
+        <v>-2.89726</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>46039.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>-2.90758</v>
+        <v>-2.90585</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>46039.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>32.90602</v>
+        <v>13.59537</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         <v>46039.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>33.03132</v>
+        <v>29.68591</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>46039.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>9.53241</v>
+        <v>29.86477</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>46039.875</v>
       </c>
       <c r="B44" t="n">
-        <v>19.51387</v>
+        <v>15.46948</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1510,7 +1510,7 @@
         <v>46039.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>56.98</v>
+        <v>57.3</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>46039.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>56.98</v>
+        <v>57.06005</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -487,10 +487,10 @@
         <v>60.48</v>
       </c>
       <c r="E2" t="n">
-        <v>661.6262347500001</v>
+        <v>396.92921775</v>
       </c>
       <c r="F2" t="n">
-        <v>10.93958721478175</v>
+        <v>6.562983097718255</v>
       </c>
     </row>
   </sheetData>
@@ -943,7 +943,7 @@
         <v>46039.39583333334</v>
       </c>
       <c r="B21" t="n">
-        <v>-9.5031</v>
+        <v>36.06011</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         <v>46039.41666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>-7.46266</v>
+        <v>36.06011</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -985,11 +985,11 @@
         <v>46039.4375</v>
       </c>
       <c r="B23" t="n">
-        <v>22.07</v>
+        <v>36.06032</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D23" s="3" t="n">
@@ -1006,11 +1006,11 @@
         <v>46039.45833333334</v>
       </c>
       <c r="B24" t="n">
-        <v>0.7</v>
+        <v>35.88</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D24" s="3" t="n">
@@ -1027,11 +1027,11 @@
         <v>46039.47916666666</v>
       </c>
       <c r="B25" t="n">
-        <v>22.07</v>
+        <v>-18.02293</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D25" s="3" t="n">
@@ -1048,11 +1048,11 @@
         <v>46039.5</v>
       </c>
       <c r="B26" t="n">
-        <v>36.06046</v>
+        <v>-18.19512</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D26" s="3" t="n">
@@ -1069,7 +1069,7 @@
         <v>46039.52083333334</v>
       </c>
       <c r="B27" t="n">
-        <v>36.06045</v>
+        <v>-14</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>46039.54166666666</v>
       </c>
       <c r="B28" t="n">
-        <v>36.06045</v>
+        <v>-14</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         <v>46039.5625</v>
       </c>
       <c r="B29" t="n">
-        <v>36.06029</v>
+        <v>-8.12561</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1132,7 +1132,7 @@
         <v>46039.58333333334</v>
       </c>
       <c r="B30" t="n">
-        <v>23.97858</v>
+        <v>-4.81333</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>46039.60416666666</v>
       </c>
       <c r="B31" t="n">
-        <v>23.50558</v>
+        <v>-6.8</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>46039.625</v>
       </c>
       <c r="B32" t="n">
-        <v>28.08235</v>
+        <v>-6.8</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>46039.64583333334</v>
       </c>
       <c r="B33" t="n">
-        <v>40.54</v>
+        <v>0.7</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>46039.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>33.2694</v>
+        <v>18.88451</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>46039.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>8.34709</v>
+        <v>3.18383</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>46039.70833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.09452000000000001</v>
+        <v>-0.31005</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>46039.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>-2.99905</v>
+        <v>-2.94054</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>46039.75</v>
       </c>
       <c r="B38" t="n">
-        <v>-2.89726</v>
+        <v>-2.88187</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>46039.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>-2.90585</v>
+        <v>-2.95405</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         <v>46039.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>4.5258</v>
+        <v>8.24929</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>46039.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>13.59537</v>
+        <v>30.48176</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         <v>46039.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>29.68591</v>
+        <v>30.57917</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>46039.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>29.86477</v>
+        <v>9.88462</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>46039.875</v>
       </c>
       <c r="B44" t="n">
-        <v>15.46948</v>
+        <v>9.816660000000001</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>46039.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>36.0601</v>
+        <v>22.66264</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>46039.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>57.3</v>
+        <v>57.06004</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1510,7 +1510,7 @@
         <v>46039.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>57.3</v>
+        <v>57.06002</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>46039.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>57.06005</v>
+        <v>56.98</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,22 +475,82 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46039.27083333334</v>
+        <v>46039.02083333334</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>46039.9375</v>
+        <v>46039.1875</v>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>60.48</v>
+        <v>15.12</v>
       </c>
       <c r="E2" t="n">
-        <v>396.92921775</v>
+        <v>347.06108775</v>
       </c>
       <c r="F2" t="n">
-        <v>6.562983097718255</v>
+        <v>22.95377564484127</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>46039.29166666666</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>46039.5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E3" t="n">
+        <v>313.99407</v>
+      </c>
+      <c r="F3" t="n">
+        <v>16.61344285714286</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>46039.52083333334</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>46039.8125</v>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>26.46</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9.565959000000007</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.3615252834467123</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>46040.29166666666</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>46040.79166666666</v>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>45.36</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-95.68104975</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-2.10937058531746</v>
       </c>
     </row>
   </sheetData>
@@ -504,7 +564,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -577,7 +637,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -598,7 +658,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -619,7 +679,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -640,7 +700,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -661,7 +721,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -682,7 +742,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -703,7 +763,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -724,7 +784,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -829,7 +889,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1087,7 @@
         <v>46039.47916666666</v>
       </c>
       <c r="B25" t="n">
-        <v>-18.02293</v>
+        <v>36.06046</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1048,7 +1108,7 @@
         <v>46039.5</v>
       </c>
       <c r="B26" t="n">
-        <v>-18.19512</v>
+        <v>36.06092</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1060,7 +1120,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1069,11 +1129,11 @@
         <v>46039.52083333334</v>
       </c>
       <c r="B27" t="n">
-        <v>-14</v>
+        <v>36.06045</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D27" s="3" t="n">
@@ -1090,11 +1150,11 @@
         <v>46039.54166666666</v>
       </c>
       <c r="B28" t="n">
-        <v>-14</v>
+        <v>-9.99</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D28" s="3" t="n">
@@ -1111,11 +1171,11 @@
         <v>46039.5625</v>
       </c>
       <c r="B29" t="n">
-        <v>-8.12561</v>
+        <v>-6.8</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D29" s="3" t="n">
@@ -1132,11 +1192,11 @@
         <v>46039.58333333334</v>
       </c>
       <c r="B30" t="n">
-        <v>-4.81333</v>
+        <v>-9.99</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D30" s="3" t="n">
@@ -1153,7 +1213,7 @@
         <v>46039.60416666666</v>
       </c>
       <c r="B31" t="n">
-        <v>-6.8</v>
+        <v>-7</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1174,7 +1234,7 @@
         <v>46039.625</v>
       </c>
       <c r="B32" t="n">
-        <v>-6.8</v>
+        <v>-5.51011</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1195,7 +1255,7 @@
         <v>46039.64583333334</v>
       </c>
       <c r="B33" t="n">
-        <v>0.7</v>
+        <v>-5.01</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1216,7 +1276,7 @@
         <v>46039.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>18.88451</v>
+        <v>0.7</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1237,7 +1297,7 @@
         <v>46039.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>3.18383</v>
+        <v>3.23527</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1258,7 +1318,7 @@
         <v>46039.70833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.31005</v>
+        <v>0</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1279,7 +1339,7 @@
         <v>46039.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>-2.94054</v>
+        <v>-3.09373</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1300,7 +1360,7 @@
         <v>46039.75</v>
       </c>
       <c r="B38" t="n">
-        <v>-2.88187</v>
+        <v>0.00013</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1321,7 +1381,7 @@
         <v>46039.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>-2.95405</v>
+        <v>0</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1342,7 +1402,7 @@
         <v>46039.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>8.24929</v>
+        <v>17.20923</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1363,7 +1423,7 @@
         <v>46039.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>30.48176</v>
+        <v>57.16514</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1375,7 +1435,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1384,7 +1444,7 @@
         <v>46039.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>30.57917</v>
+        <v>57.18142</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1396,7 +1456,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1405,7 +1465,7 @@
         <v>46039.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>9.88462</v>
+        <v>57.16514</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1417,7 +1477,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1426,7 +1486,7 @@
         <v>46039.875</v>
       </c>
       <c r="B44" t="n">
-        <v>9.816660000000001</v>
+        <v>46.73943</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1438,7 +1498,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1447,7 +1507,7 @@
         <v>46039.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>22.66264</v>
+        <v>46.80565</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1459,7 +1519,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1468,7 +1528,7 @@
         <v>46039.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>36.06045</v>
+        <v>36.05843</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1480,7 +1540,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1489,7 +1549,7 @@
         <v>46039.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>57.06004</v>
+        <v>47.35317</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1542,6 +1602,1014 @@
         <v>46039</v>
       </c>
       <c r="E49" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>46040</v>
+      </c>
+      <c r="B50" t="n">
+        <v>47.81285</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D50" s="3" t="n">
+        <v>46040</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>46040.02083333334</v>
+      </c>
+      <c r="B51" t="n">
+        <v>36.06032</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D51" s="3" t="n">
+        <v>46040</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>46040.04166666666</v>
+      </c>
+      <c r="B52" t="n">
+        <v>56.98</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D52" s="3" t="n">
+        <v>46040</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>46040.0625</v>
+      </c>
+      <c r="B53" t="n">
+        <v>56.98</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D53" s="3" t="n">
+        <v>46040</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>46040.08333333334</v>
+      </c>
+      <c r="B54" t="n">
+        <v>56.97996</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D54" s="3" t="n">
+        <v>46040</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>46040.10416666666</v>
+      </c>
+      <c r="B55" t="n">
+        <v>57.0602</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D55" s="3" t="n">
+        <v>46040</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>46040.125</v>
+      </c>
+      <c r="B56" t="n">
+        <v>57.06021</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D56" s="3" t="n">
+        <v>46040</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>46040.14583333334</v>
+      </c>
+      <c r="B57" t="n">
+        <v>57.06022</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D57" s="3" t="n">
+        <v>46040</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>46040.16666666666</v>
+      </c>
+      <c r="B58" t="n">
+        <v>57.06022</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D58" s="3" t="n">
+        <v>46040</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>46040.1875</v>
+      </c>
+      <c r="B59" t="n">
+        <v>57.06003</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D59" s="3" t="n">
+        <v>46040</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>46040.20833333334</v>
+      </c>
+      <c r="B60" t="n">
+        <v>57.06003</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D60" s="3" t="n">
+        <v>46040</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>46040.22916666666</v>
+      </c>
+      <c r="B61" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D61" s="3" t="n">
+        <v>46040</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>46040.25</v>
+      </c>
+      <c r="B62" t="n">
+        <v>57.06003</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D62" s="3" t="n">
+        <v>46040</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>46040.27083333334</v>
+      </c>
+      <c r="B63" t="n">
+        <v>36.06</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D63" s="3" t="n">
+        <v>46040</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>46040.29166666666</v>
+      </c>
+      <c r="B64" t="n">
+        <v>24.71692</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D64" s="3" t="n">
+        <v>46040</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>46040.3125</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D65" s="3" t="n">
+        <v>46040</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>46040.33333333334</v>
+      </c>
+      <c r="B66" t="n">
+        <v>-4.58324</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D66" s="3" t="n">
+        <v>46040</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>46040.35416666666</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.62395</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D67" s="3" t="n">
+        <v>46040</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>46040.375</v>
+      </c>
+      <c r="B68" t="n">
+        <v>2.19121</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D68" s="3" t="n">
+        <v>46040</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>46040.39583333334</v>
+      </c>
+      <c r="B69" t="n">
+        <v>-0.9231200000000001</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D69" s="3" t="n">
+        <v>46040</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>46040.41666666666</v>
+      </c>
+      <c r="B70" t="n">
+        <v>-0.9403</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D70" s="3" t="n">
+        <v>46040</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>46040.4375</v>
+      </c>
+      <c r="B71" t="n">
+        <v>-5.4861</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D71" s="3" t="n">
+        <v>46040</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>46040.45833333334</v>
+      </c>
+      <c r="B72" t="n">
+        <v>-5.51</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D72" s="3" t="n">
+        <v>46040</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>46040.47916666666</v>
+      </c>
+      <c r="B73" t="n">
+        <v>-5.77472</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D73" s="3" t="n">
+        <v>46040</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>46040.5</v>
+      </c>
+      <c r="B74" t="n">
+        <v>-5.63201</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D74" s="3" t="n">
+        <v>46040</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>46040.52083333334</v>
+      </c>
+      <c r="B75" t="n">
+        <v>-6.30444</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D75" s="3" t="n">
+        <v>46040</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>46040.54166666666</v>
+      </c>
+      <c r="B76" t="n">
+        <v>-7</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D76" s="3" t="n">
+        <v>46040</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>46040.5625</v>
+      </c>
+      <c r="B77" t="n">
+        <v>-8.452769999999999</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D77" s="3" t="n">
+        <v>46040</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>46040.58333333334</v>
+      </c>
+      <c r="B78" t="n">
+        <v>-10</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D78" s="3" t="n">
+        <v>46040</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>46040.60416666666</v>
+      </c>
+      <c r="B79" t="n">
+        <v>-14</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D79" s="3" t="n">
+        <v>46040</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>46040.625</v>
+      </c>
+      <c r="B80" t="n">
+        <v>-19.76767</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D80" s="3" t="n">
+        <v>46040</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>46040.64583333334</v>
+      </c>
+      <c r="B81" t="n">
+        <v>-20.57529</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D81" s="3" t="n">
+        <v>46040</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>46040.66666666666</v>
+      </c>
+      <c r="B82" t="n">
+        <v>-14.35069</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D82" s="3" t="n">
+        <v>46040</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>46040.6875</v>
+      </c>
+      <c r="B83" t="n">
+        <v>-14.23795</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D83" s="3" t="n">
+        <v>46040</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>46040.70833333334</v>
+      </c>
+      <c r="B84" t="n">
+        <v>-12.30534</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D84" s="3" t="n">
+        <v>46040</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>46040.72916666666</v>
+      </c>
+      <c r="B85" t="n">
+        <v>-6.59911</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D85" s="3" t="n">
+        <v>46040</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>46040.75</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1.94062</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D86" s="3" t="n">
+        <v>46040</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>46040.77083333334</v>
+      </c>
+      <c r="B87" t="n">
+        <v>34.32564</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D87" s="3" t="n">
+        <v>46040</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>46040.79166666666</v>
+      </c>
+      <c r="B88" t="n">
+        <v>36.0601</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D88" s="3" t="n">
+        <v>46040</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>46040.8125</v>
+      </c>
+      <c r="B89" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D89" s="3" t="n">
+        <v>46040</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>46040.83333333334</v>
+      </c>
+      <c r="B90" t="n">
+        <v>43.32062</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D90" s="3" t="n">
+        <v>46040</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>46040.85416666666</v>
+      </c>
+      <c r="B91" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D91" s="3" t="n">
+        <v>46040</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>46040.875</v>
+      </c>
+      <c r="B92" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D92" s="3" t="n">
+        <v>46040</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>46040.89583333334</v>
+      </c>
+      <c r="B93" t="n">
+        <v>36.0601</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D93" s="3" t="n">
+        <v>46040</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>46040.91666666666</v>
+      </c>
+      <c r="B94" t="n">
+        <v>47.10825</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D94" s="3" t="n">
+        <v>46040</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>46040.9375</v>
+      </c>
+      <c r="B95" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D95" s="3" t="n">
+        <v>46040</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>46040.95833333334</v>
+      </c>
+      <c r="B96" t="n">
+        <v>36.0601</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D96" s="3" t="n">
+        <v>46040</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>46040.97916666666</v>
+      </c>
+      <c r="B97" t="n">
+        <v>36.06</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D97" s="3" t="n">
+        <v>46040</v>
+      </c>
+      <c r="E97" t="inlineStr">
         <is>
           <t>OFF</t>
         </is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -527,18 +527,18 @@
         <v>26.46</v>
       </c>
       <c r="E4" t="n">
-        <v>216.116355</v>
+        <v>194.72505975</v>
       </c>
       <c r="F4" t="n">
-        <v>8.167662698412698</v>
+        <v>7.359223724489796</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46040.3125</v>
+        <v>46040.29166666666</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>46040.8125</v>
+        <v>46040.79166666666</v>
       </c>
       <c r="C5" t="n">
         <v>12</v>
@@ -547,10 +547,10 @@
         <v>45.36</v>
       </c>
       <c r="E5" t="n">
-        <v>-6.772457249999995</v>
+        <v>95.10621899999998</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.149304613095238</v>
+        <v>2.096697949735449</v>
       </c>
     </row>
   </sheetData>
@@ -1213,7 +1213,7 @@
         <v>46039.60416666666</v>
       </c>
       <c r="B31" t="n">
-        <v>-9.99</v>
+        <v>36.06031</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>46039.625</v>
       </c>
       <c r="B32" t="n">
-        <v>-6.8</v>
+        <v>36.06033</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1255,11 +1255,11 @@
         <v>46039.64583333334</v>
       </c>
       <c r="B33" t="n">
-        <v>22.07</v>
+        <v>-9.99</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D33" s="3" t="n">
@@ -1276,11 +1276,11 @@
         <v>46039.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>36.06036</v>
+        <v>-6</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D34" s="3" t="n">
@@ -1297,7 +1297,7 @@
         <v>46039.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>25.0354</v>
+        <v>2.55649</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>46039.70833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>4.53593</v>
+        <v>-1.77936</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1339,7 +1339,7 @@
         <v>46039.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.24301</v>
+        <v>-0.289</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>46039.75</v>
       </c>
       <c r="B38" t="n">
-        <v>0.00014</v>
+        <v>-2.33161</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>46039.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>0.00014</v>
+        <v>-2.08153</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         <v>46039.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>17.07182</v>
+        <v>13.59536</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         <v>46039.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>57.18142</v>
+        <v>46.95824</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>46039.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>57.18142</v>
+        <v>47.19413</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>46039.875</v>
       </c>
       <c r="B44" t="n">
-        <v>46.60383</v>
+        <v>47.00942</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>46039.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>46.91075</v>
+        <v>46.87831</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         <v>46039.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>47.4748</v>
+        <v>47.87261</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
         <v>46039.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>56.83</v>
+        <v>56.78</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>46040</v>
       </c>
       <c r="B50" t="n">
-        <v>47.78559</v>
+        <v>48.09522</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>46040.04166666666</v>
       </c>
       <c r="B52" t="n">
-        <v>57.06016</v>
+        <v>56.98</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>46040.10416666666</v>
       </c>
       <c r="B55" t="n">
-        <v>57.0602</v>
+        <v>56.97996</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>46040.29166666666</v>
       </c>
       <c r="B64" t="n">
-        <v>36.0595</v>
+        <v>24.30295</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1927,7 +1927,7 @@
         <v>46040.3125</v>
       </c>
       <c r="B65" t="n">
-        <v>35.87994</v>
+        <v>0.7</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>46040.33333333334</v>
       </c>
       <c r="B66" t="n">
-        <v>0.63134</v>
+        <v>5.738</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>46040.35416666666</v>
       </c>
       <c r="B67" t="n">
-        <v>0.7</v>
+        <v>27.1824</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>46040.375</v>
       </c>
       <c r="B68" t="n">
-        <v>0.61554</v>
+        <v>14.8839</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
         <v>46040.39583333334</v>
       </c>
       <c r="B69" t="n">
-        <v>0.59266</v>
+        <v>0.7</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>46040.41666666666</v>
       </c>
       <c r="B70" t="n">
-        <v>8.38785</v>
+        <v>25.82334</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>46040.4375</v>
       </c>
       <c r="B71" t="n">
-        <v>27.10585</v>
+        <v>22.07</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         <v>46040.45833333334</v>
       </c>
       <c r="B72" t="n">
-        <v>0.7</v>
+        <v>22.07</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>46040.47916666666</v>
       </c>
       <c r="B73" t="n">
-        <v>0.66306</v>
+        <v>25.80412</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>46040.5</v>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v>22.07</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>46040.52083333334</v>
       </c>
       <c r="B75" t="n">
-        <v>-5.21817</v>
+        <v>-0.93264</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
         <v>46040.54166666666</v>
       </c>
       <c r="B76" t="n">
-        <v>-5.43091</v>
+        <v>-5.45227</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>46040.5625</v>
       </c>
       <c r="B77" t="n">
-        <v>-5.57994</v>
+        <v>-5.5808</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>46040.625</v>
       </c>
       <c r="B80" t="n">
-        <v>-13.5</v>
+        <v>-12.01</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>46040.64583333334</v>
       </c>
       <c r="B81" t="n">
-        <v>-12.01</v>
+        <v>-11.01</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>46040.66666666666</v>
       </c>
       <c r="B82" t="n">
-        <v>-7.44788</v>
+        <v>-7.17238</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>46040.6875</v>
       </c>
       <c r="B83" t="n">
-        <v>-8.045170000000001</v>
+        <v>-8.324020000000001</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>46040.70833333334</v>
       </c>
       <c r="B84" t="n">
-        <v>-7.66355</v>
+        <v>-6.1466</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         <v>46040.72916666666</v>
       </c>
       <c r="B85" t="n">
-        <v>-6.12644</v>
+        <v>-6.5703</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>46040.75</v>
       </c>
       <c r="B86" t="n">
-        <v>-5.85772</v>
+        <v>-3.10096</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>46040.79166666666</v>
       </c>
       <c r="B88" t="n">
-        <v>22.15733</v>
+        <v>36.0601</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -2431,7 +2431,7 @@
         <v>46040.8125</v>
       </c>
       <c r="B89" t="n">
-        <v>44.02345</v>
+        <v>45.86636</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>46040.83333333334</v>
       </c>
       <c r="B90" t="n">
-        <v>47.60158</v>
+        <v>54.96565</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>46040.85416666666</v>
       </c>
       <c r="B91" t="n">
-        <v>46.82896</v>
+        <v>47.16323</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>46040.875</v>
       </c>
       <c r="B92" t="n">
-        <v>46.12397</v>
+        <v>46.5469</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>46040.91666666666</v>
       </c>
       <c r="B94" t="n">
-        <v>55.31303</v>
+        <v>55.29915</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,82 +475,62 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46039.02083333334</v>
+        <v>46039.29166666666</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>46039.1875</v>
+        <v>46039.47916666666</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="D2" t="n">
-        <v>15.12</v>
+        <v>17.01</v>
       </c>
       <c r="E2" t="n">
-        <v>347.06108775</v>
+        <v>278.8351215</v>
       </c>
       <c r="F2" t="n">
-        <v>22.95377564484127</v>
+        <v>16.3924233686067</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46039.29166666666</v>
+        <v>46039.52083333334</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>46039.5</v>
+        <v>46040</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>11.5</v>
       </c>
       <c r="D3" t="n">
-        <v>18.9</v>
+        <v>43.47</v>
       </c>
       <c r="E3" t="n">
-        <v>313.99407</v>
+        <v>537.543513</v>
       </c>
       <c r="F3" t="n">
-        <v>16.61344285714286</v>
+        <v>12.36585031055901</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46039.52083333334</v>
+        <v>46040.29166666666</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>46039.8125</v>
+        <v>46040.79166666666</v>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>26.46</v>
+        <v>45.36</v>
       </c>
       <c r="E4" t="n">
-        <v>194.72505975</v>
+        <v>25.08997725</v>
       </c>
       <c r="F4" t="n">
-        <v>7.359223724489796</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>46040.29166666666</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>46040.79166666666</v>
-      </c>
-      <c r="C5" t="n">
-        <v>12</v>
-      </c>
-      <c r="D5" t="n">
-        <v>45.36</v>
-      </c>
-      <c r="E5" t="n">
-        <v>95.10621899999998</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2.096697949735449</v>
+        <v>0.553130009920635</v>
       </c>
     </row>
   </sheetData>
@@ -637,7 +617,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -658,7 +638,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -679,7 +659,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -700,7 +680,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -721,7 +701,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -742,7 +722,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -763,7 +743,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -784,7 +764,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1099,7 +1079,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1255,7 +1235,7 @@
         <v>46039.64583333334</v>
       </c>
       <c r="B33" t="n">
-        <v>-9.99</v>
+        <v>36.06038</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1276,7 +1256,7 @@
         <v>46039.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>-6</v>
+        <v>36.06036</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1297,11 +1277,11 @@
         <v>46039.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>2.55649</v>
+        <v>-7.37172</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D35" s="3" t="n">
@@ -1318,11 +1298,11 @@
         <v>46039.70833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>-1.77936</v>
+        <v>-6.48811</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D36" s="3" t="n">
@@ -1339,7 +1319,7 @@
         <v>46039.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.289</v>
+        <v>-2.93457</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1360,7 +1340,7 @@
         <v>46039.75</v>
       </c>
       <c r="B38" t="n">
-        <v>-2.33161</v>
+        <v>-2.81393</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1381,7 +1361,7 @@
         <v>46039.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>-2.08153</v>
+        <v>-2.96975</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1402,7 +1382,7 @@
         <v>46039.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>13.59536</v>
+        <v>2.29449</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1423,7 +1403,7 @@
         <v>46039.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>46.95824</v>
+        <v>13.64807</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1435,7 +1415,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1444,7 +1424,7 @@
         <v>46039.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>47.19413</v>
+        <v>33.18906</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1456,7 +1436,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1465,7 +1445,7 @@
         <v>46039.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>57.18142</v>
+        <v>36.2</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1477,7 +1457,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1486,7 +1466,7 @@
         <v>46039.875</v>
       </c>
       <c r="B44" t="n">
-        <v>47.00942</v>
+        <v>30.11497</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1498,7 +1478,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1507,7 +1487,7 @@
         <v>46039.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>46.87831</v>
+        <v>36.0601</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1519,7 +1499,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1528,7 +1508,7 @@
         <v>46039.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>36.06045</v>
+        <v>36.05843</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1540,7 +1520,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1549,7 +1529,7 @@
         <v>46039.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>47.87261</v>
+        <v>36.06041</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1561,7 +1541,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1570,7 +1550,7 @@
         <v>46039.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>56.98</v>
+        <v>36.06043</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1582,7 +1562,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1591,7 +1571,7 @@
         <v>46039.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>56.78</v>
+        <v>36.0604</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1603,7 +1583,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1592,7 @@
         <v>46040</v>
       </c>
       <c r="B50" t="n">
-        <v>48.09522</v>
+        <v>36.06038</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1654,7 +1634,7 @@
         <v>46040.04166666666</v>
       </c>
       <c r="B52" t="n">
-        <v>56.98</v>
+        <v>36.0603</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1675,7 +1655,7 @@
         <v>46040.0625</v>
       </c>
       <c r="B53" t="n">
-        <v>56.98</v>
+        <v>36.06028</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1696,7 +1676,7 @@
         <v>46040.08333333334</v>
       </c>
       <c r="B54" t="n">
-        <v>56.97996</v>
+        <v>36.06027</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1717,7 +1697,7 @@
         <v>46040.10416666666</v>
       </c>
       <c r="B55" t="n">
-        <v>56.97996</v>
+        <v>36.06026</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1738,7 +1718,7 @@
         <v>46040.125</v>
       </c>
       <c r="B56" t="n">
-        <v>57.06021</v>
+        <v>56.97996</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1759,7 +1739,7 @@
         <v>46040.14583333334</v>
       </c>
       <c r="B57" t="n">
-        <v>57.06022</v>
+        <v>56.98</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1780,7 +1760,7 @@
         <v>46040.16666666666</v>
       </c>
       <c r="B58" t="n">
-        <v>57.06022</v>
+        <v>56.98</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1801,7 +1781,7 @@
         <v>46040.1875</v>
       </c>
       <c r="B59" t="n">
-        <v>57.06003</v>
+        <v>56.98</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1864,7 +1844,7 @@
         <v>46040.25</v>
       </c>
       <c r="B62" t="n">
-        <v>57.06003</v>
+        <v>56.98</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1906,7 +1886,7 @@
         <v>46040.29166666666</v>
       </c>
       <c r="B64" t="n">
-        <v>24.30295</v>
+        <v>36.0595</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1927,7 +1907,7 @@
         <v>46040.3125</v>
       </c>
       <c r="B65" t="n">
-        <v>0.7</v>
+        <v>23.49478</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1948,7 +1928,7 @@
         <v>46040.33333333334</v>
       </c>
       <c r="B66" t="n">
-        <v>5.738</v>
+        <v>-0.90707</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1969,7 +1949,7 @@
         <v>46040.35416666666</v>
       </c>
       <c r="B67" t="n">
-        <v>27.1824</v>
+        <v>0.7</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1990,7 +1970,7 @@
         <v>46040.375</v>
       </c>
       <c r="B68" t="n">
-        <v>14.8839</v>
+        <v>0.7</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -2011,7 +1991,7 @@
         <v>46040.39583333334</v>
       </c>
       <c r="B69" t="n">
-        <v>0.7</v>
+        <v>0.51</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2032,7 +2012,7 @@
         <v>46040.41666666666</v>
       </c>
       <c r="B70" t="n">
-        <v>25.82334</v>
+        <v>0.51</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2053,7 +2033,7 @@
         <v>46040.4375</v>
       </c>
       <c r="B71" t="n">
-        <v>22.07</v>
+        <v>35.88</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2074,7 +2054,7 @@
         <v>46040.45833333334</v>
       </c>
       <c r="B72" t="n">
-        <v>22.07</v>
+        <v>0.66409</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2095,7 +2075,7 @@
         <v>46040.47916666666</v>
       </c>
       <c r="B73" t="n">
-        <v>25.80412</v>
+        <v>-0.97534</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2116,7 +2096,7 @@
         <v>46040.5</v>
       </c>
       <c r="B74" t="n">
-        <v>22.07</v>
+        <v>0.0003</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2137,7 +2117,7 @@
         <v>46040.52083333334</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.93264</v>
+        <v>-0.92843</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2158,7 +2138,7 @@
         <v>46040.54166666666</v>
       </c>
       <c r="B76" t="n">
-        <v>-5.45227</v>
+        <v>-5.51</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2179,7 +2159,7 @@
         <v>46040.5625</v>
       </c>
       <c r="B77" t="n">
-        <v>-5.5808</v>
+        <v>-5.51</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2200,7 +2180,7 @@
         <v>46040.58333333334</v>
       </c>
       <c r="B78" t="n">
-        <v>-13.5</v>
+        <v>-6.8</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2221,7 +2201,7 @@
         <v>46040.60416666666</v>
       </c>
       <c r="B79" t="n">
-        <v>-14</v>
+        <v>-7</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2242,7 +2222,7 @@
         <v>46040.625</v>
       </c>
       <c r="B80" t="n">
-        <v>-12.01</v>
+        <v>-8.06785</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2263,7 +2243,7 @@
         <v>46040.64583333334</v>
       </c>
       <c r="B81" t="n">
-        <v>-11.01</v>
+        <v>-6.77128</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2284,7 +2264,7 @@
         <v>46040.66666666666</v>
       </c>
       <c r="B82" t="n">
-        <v>-7.17238</v>
+        <v>-7.21403</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2305,7 +2285,7 @@
         <v>46040.6875</v>
       </c>
       <c r="B83" t="n">
-        <v>-8.324020000000001</v>
+        <v>-7.00224</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2326,7 +2306,7 @@
         <v>46040.70833333334</v>
       </c>
       <c r="B84" t="n">
-        <v>-6.1466</v>
+        <v>-6.52915</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2347,7 +2327,7 @@
         <v>46040.72916666666</v>
       </c>
       <c r="B85" t="n">
-        <v>-6.5703</v>
+        <v>-6.51864</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2368,7 +2348,7 @@
         <v>46040.75</v>
       </c>
       <c r="B86" t="n">
-        <v>-3.10096</v>
+        <v>-3.05165</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2389,7 +2369,7 @@
         <v>46040.77083333334</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0001</v>
+        <v>0.00032</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2431,7 +2411,7 @@
         <v>46040.8125</v>
       </c>
       <c r="B89" t="n">
-        <v>45.86636</v>
+        <v>46.21963</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2452,7 +2432,7 @@
         <v>46040.83333333334</v>
       </c>
       <c r="B90" t="n">
-        <v>54.96565</v>
+        <v>54.93629</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2473,7 +2453,7 @@
         <v>46040.85416666666</v>
       </c>
       <c r="B91" t="n">
-        <v>47.16323</v>
+        <v>55.52267</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2494,7 +2474,7 @@
         <v>46040.875</v>
       </c>
       <c r="B92" t="n">
-        <v>46.5469</v>
+        <v>46.9203</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2536,7 +2516,7 @@
         <v>46040.91666666666</v>
       </c>
       <c r="B94" t="n">
-        <v>55.29915</v>
+        <v>47.36052</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,39 +478,59 @@
         <v>46039.29166666666</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>46039.95833333334</v>
+        <v>46039.8125</v>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>12.5</v>
       </c>
       <c r="D2" t="n">
-        <v>60.48</v>
+        <v>47.25</v>
       </c>
       <c r="E2" t="n">
-        <v>838.15197375</v>
+        <v>652.71611925</v>
       </c>
       <c r="F2" t="n">
-        <v>13.85833289930556</v>
+        <v>13.81409776190476</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46040.29166666666</v>
+        <v>46039.85416666666</v>
       </c>
       <c r="B3" s="2" t="n">
+        <v>46040.02083333334</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.12</v>
+      </c>
+      <c r="E3" t="n">
+        <v>296.949861</v>
+      </c>
+      <c r="F3" t="n">
+        <v>19.63954107142857</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>46040.3125</v>
+      </c>
+      <c r="B4" s="2" t="n">
         <v>46040.79166666666</v>
       </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>45.36</v>
-      </c>
-      <c r="E3" t="n">
-        <v>19.22750700000002</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.423886838624339</v>
+      <c r="C4" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>43.47</v>
+      </c>
+      <c r="E4" t="n">
+        <v>71.07485774999998</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.635032384403036</v>
       </c>
     </row>
   </sheetData>
@@ -1278,7 +1298,7 @@
         <v>46039.70833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>-10.44271</v>
+        <v>-0.57248</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1299,7 +1319,7 @@
         <v>46039.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>-3.94707</v>
+        <v>-2.97056</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1320,7 +1340,7 @@
         <v>46039.75</v>
       </c>
       <c r="B38" t="n">
-        <v>-2.79778</v>
+        <v>-2.80872</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1341,11 +1361,11 @@
         <v>46039.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>-2.95059</v>
+        <v>-3.69268</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D39" s="3" t="n">
@@ -1362,11 +1382,11 @@
         <v>46039.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>9.143090000000001</v>
+        <v>17.74626</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D40" s="3" t="n">
@@ -1383,7 +1403,7 @@
         <v>46039.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>30.21113</v>
+        <v>57.18142</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1395,7 +1415,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1404,7 +1424,7 @@
         <v>46039.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>33.16531</v>
+        <v>56.98</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1416,7 +1436,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1425,7 +1445,7 @@
         <v>46039.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>33.21788</v>
+        <v>46.39479</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1446,7 +1466,7 @@
         <v>46039.875</v>
       </c>
       <c r="B44" t="n">
-        <v>9.992010000000001</v>
+        <v>30.53091</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1467,7 +1487,7 @@
         <v>46039.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>30.18307</v>
+        <v>36.2</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1488,7 +1508,7 @@
         <v>46039.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>36.05728</v>
+        <v>36.05933</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1509,7 +1529,7 @@
         <v>46039.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>36.06082</v>
+        <v>36.2</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1530,7 +1550,7 @@
         <v>46039.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>36.2</v>
+        <v>47.05815</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1542,7 +1562,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1571,7 @@
         <v>46039.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>47.40282</v>
+        <v>36.0604</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1563,7 +1583,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1584,7 +1604,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1614,7 +1634,7 @@
         <v>46040.04166666666</v>
       </c>
       <c r="B52" t="n">
-        <v>40.54</v>
+        <v>31.02048</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1635,7 +1655,7 @@
         <v>46040.0625</v>
       </c>
       <c r="B53" t="n">
-        <v>36.06028</v>
+        <v>36.2</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1698,7 +1718,7 @@
         <v>46040.125</v>
       </c>
       <c r="B56" t="n">
-        <v>37.56308</v>
+        <v>36.2</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1719,7 +1739,7 @@
         <v>46040.14583333334</v>
       </c>
       <c r="B57" t="n">
-        <v>56.98</v>
+        <v>56.97996</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1740,7 +1760,7 @@
         <v>46040.16666666666</v>
       </c>
       <c r="B58" t="n">
-        <v>56.98</v>
+        <v>50.31057</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1782,7 +1802,7 @@
         <v>46040.20833333334</v>
       </c>
       <c r="B60" t="n">
-        <v>57.06003</v>
+        <v>56.98</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1803,7 +1823,7 @@
         <v>46040.22916666666</v>
       </c>
       <c r="B61" t="n">
-        <v>57.06003</v>
+        <v>56.98</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1824,7 +1844,7 @@
         <v>46040.25</v>
       </c>
       <c r="B62" t="n">
-        <v>57.06003</v>
+        <v>56.98</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1866,7 +1886,7 @@
         <v>46040.29166666666</v>
       </c>
       <c r="B64" t="n">
-        <v>30.95328</v>
+        <v>36.0595</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1878,7 +1898,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1887,7 +1907,7 @@
         <v>46040.3125</v>
       </c>
       <c r="B65" t="n">
-        <v>0.9876200000000001</v>
+        <v>28.67846</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1908,7 +1928,7 @@
         <v>46040.33333333334</v>
       </c>
       <c r="B66" t="n">
-        <v>-5.51</v>
+        <v>0.62605</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1929,7 +1949,7 @@
         <v>46040.35416666666</v>
       </c>
       <c r="B67" t="n">
-        <v>0.009509999999999999</v>
+        <v>19.29447</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1992,7 +2012,7 @@
         <v>46040.41666666666</v>
       </c>
       <c r="B70" t="n">
-        <v>0.00962</v>
+        <v>26.41845</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2013,7 +2033,7 @@
         <v>46040.4375</v>
       </c>
       <c r="B71" t="n">
-        <v>36.06</v>
+        <v>22.07</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2034,7 +2054,7 @@
         <v>46040.45833333334</v>
       </c>
       <c r="B72" t="n">
-        <v>26.16534</v>
+        <v>0.7</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2055,7 +2075,7 @@
         <v>46040.47916666666</v>
       </c>
       <c r="B73" t="n">
-        <v>0.009809999999999999</v>
+        <v>20.59504</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2076,7 +2096,7 @@
         <v>46040.5</v>
       </c>
       <c r="B74" t="n">
-        <v>0.009390000000000001</v>
+        <v>0.51</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2097,7 +2117,7 @@
         <v>46040.52083333334</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.94498</v>
+        <v>0.64597</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2118,7 +2138,7 @@
         <v>46040.54166666666</v>
       </c>
       <c r="B76" t="n">
-        <v>-5.29877</v>
+        <v>0.7</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2139,7 +2159,7 @@
         <v>46040.5625</v>
       </c>
       <c r="B77" t="n">
-        <v>-5.51</v>
+        <v>0.00025</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2160,7 +2180,7 @@
         <v>46040.58333333334</v>
       </c>
       <c r="B78" t="n">
-        <v>-6.8</v>
+        <v>-4.9548</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2181,7 +2201,7 @@
         <v>46040.60416666666</v>
       </c>
       <c r="B79" t="n">
-        <v>-6.55247</v>
+        <v>-6.70389</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2202,7 +2222,7 @@
         <v>46040.625</v>
       </c>
       <c r="B80" t="n">
-        <v>-7.49179</v>
+        <v>-5.41349</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2223,7 +2243,7 @@
         <v>46040.64583333334</v>
       </c>
       <c r="B81" t="n">
-        <v>-6.77161</v>
+        <v>-6.85668</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2244,7 +2264,7 @@
         <v>46040.66666666666</v>
       </c>
       <c r="B82" t="n">
-        <v>-7.12033</v>
+        <v>-6.73561</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2265,7 +2285,7 @@
         <v>46040.6875</v>
       </c>
       <c r="B83" t="n">
-        <v>-6.87758</v>
+        <v>-6.89381</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2286,7 +2306,7 @@
         <v>46040.70833333334</v>
       </c>
       <c r="B84" t="n">
-        <v>-6.52931</v>
+        <v>-7.08241</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2307,7 +2327,7 @@
         <v>46040.72916666666</v>
       </c>
       <c r="B85" t="n">
-        <v>-6.54534</v>
+        <v>-1.8149</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2328,7 +2348,7 @@
         <v>46040.75</v>
       </c>
       <c r="B86" t="n">
-        <v>-3.05181</v>
+        <v>-1.41518</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2349,7 +2369,7 @@
         <v>46040.77083333334</v>
       </c>
       <c r="B87" t="n">
-        <v>0.00032</v>
+        <v>0.00975</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2391,7 +2411,7 @@
         <v>46040.8125</v>
       </c>
       <c r="B89" t="n">
-        <v>46.21429</v>
+        <v>46.5704</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2412,7 +2432,7 @@
         <v>46040.83333333334</v>
       </c>
       <c r="B90" t="n">
-        <v>46.00149</v>
+        <v>56.98</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2433,7 +2453,7 @@
         <v>46040.85416666666</v>
       </c>
       <c r="B91" t="n">
-        <v>55.51195</v>
+        <v>55.47778</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2454,7 +2474,7 @@
         <v>46040.875</v>
       </c>
       <c r="B92" t="n">
-        <v>46.86218</v>
+        <v>46.8495</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2496,7 +2516,7 @@
         <v>46040.91666666666</v>
       </c>
       <c r="B94" t="n">
-        <v>56.05084</v>
+        <v>56.0398</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -515,10 +515,10 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46039.52083333334</v>
+        <v>46039.54166666666</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>46039.8125</v>
+        <v>46039.83333333334</v>
       </c>
       <c r="C4" t="n">
         <v>7</v>
@@ -527,18 +527,18 @@
         <v>26.46</v>
       </c>
       <c r="E4" t="n">
-        <v>301.5587835000001</v>
+        <v>260.3643315</v>
       </c>
       <c r="F4" t="n">
-        <v>11.39677942176871</v>
+        <v>9.839921825396827</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46040.29166666666</v>
+        <v>46040.3125</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>46040.79166666666</v>
+        <v>46040.8125</v>
       </c>
       <c r="C5" t="n">
         <v>12</v>
@@ -547,10 +547,10 @@
         <v>45.36</v>
       </c>
       <c r="E5" t="n">
-        <v>149.74963575</v>
+        <v>-29.91509624999999</v>
       </c>
       <c r="F5" t="n">
-        <v>3.301358812830688</v>
+        <v>-0.6595038855820103</v>
       </c>
     </row>
   </sheetData>
@@ -1141,7 +1141,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1402,7 +1402,7 @@
         <v>46039.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>14.77494</v>
+        <v>0.01082</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         <v>46039.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>57.18142</v>
+        <v>8.57385</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1444,7 +1444,7 @@
         <v>46039.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>56.98</v>
+        <v>57.3</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1465,11 +1465,11 @@
         <v>46039.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>56.98</v>
+        <v>57.3</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D43" s="3" t="n">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D44" s="3" t="n">
@@ -1507,7 +1507,7 @@
         <v>46039.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>46.39404</v>
+        <v>56.98</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         <v>46039.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>47.10776</v>
+        <v>57.06004</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
         <v>46039.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>40.54</v>
+        <v>36.2</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>46040</v>
       </c>
       <c r="B50" t="n">
-        <v>36.06038</v>
+        <v>36.2</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>46040.04166666666</v>
       </c>
       <c r="B52" t="n">
-        <v>31.24649</v>
+        <v>36.0603</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>46040.0625</v>
       </c>
       <c r="B53" t="n">
-        <v>36.2</v>
+        <v>52.28671</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         <v>46040.08333333334</v>
       </c>
       <c r="B54" t="n">
-        <v>36.06027</v>
+        <v>36.2</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>46040.10416666666</v>
       </c>
       <c r="B55" t="n">
-        <v>36.06026</v>
+        <v>36.2</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
         <v>46040.125</v>
       </c>
       <c r="B56" t="n">
-        <v>36.2</v>
+        <v>56.97996</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>46040.1875</v>
       </c>
       <c r="B59" t="n">
-        <v>36.2</v>
+        <v>56.98</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>46040.20833333334</v>
       </c>
       <c r="B60" t="n">
-        <v>56.98</v>
+        <v>57.06003</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>46040.29166666666</v>
       </c>
       <c r="B64" t="n">
-        <v>24.28595</v>
+        <v>36.0595</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1927,7 +1927,7 @@
         <v>46040.3125</v>
       </c>
       <c r="B65" t="n">
-        <v>28.49947</v>
+        <v>27.51631</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>46040.35416666666</v>
       </c>
       <c r="B67" t="n">
-        <v>1.82692</v>
+        <v>21.8653</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>46040.375</v>
       </c>
       <c r="B68" t="n">
-        <v>0.7</v>
+        <v>-0.9349499999999999</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
         <v>46040.39583333334</v>
       </c>
       <c r="B69" t="n">
-        <v>0.7</v>
+        <v>-5.01</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>46040.41666666666</v>
       </c>
       <c r="B70" t="n">
-        <v>35.88</v>
+        <v>-3.6481</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>46040.4375</v>
       </c>
       <c r="B71" t="n">
-        <v>35.88</v>
+        <v>0.51</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         <v>46040.45833333334</v>
       </c>
       <c r="B72" t="n">
-        <v>26.63005</v>
+        <v>0.7</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>46040.47916666666</v>
       </c>
       <c r="B73" t="n">
-        <v>22.07</v>
+        <v>0.7</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>46040.5</v>
       </c>
       <c r="B74" t="n">
-        <v>0.7</v>
+        <v>-5.51</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>46040.52083333334</v>
       </c>
       <c r="B75" t="n">
-        <v>0.65374</v>
+        <v>-0.89546</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
         <v>46040.54166666666</v>
       </c>
       <c r="B76" t="n">
-        <v>0.51</v>
+        <v>-5.51</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>46040.5625</v>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>-5.59641</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>46040.58333333334</v>
       </c>
       <c r="B78" t="n">
-        <v>-4.42723</v>
+        <v>-9.99</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>46040.60416666666</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.83768</v>
+        <v>-10.81131</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>46040.625</v>
       </c>
       <c r="B80" t="n">
-        <v>0.00025</v>
+        <v>-13.30111</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>46040.64583333334</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.32843</v>
+        <v>-11.01</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>46040.66666666666</v>
       </c>
       <c r="B82" t="n">
-        <v>-1.79043</v>
+        <v>-7.35773</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>46040.6875</v>
       </c>
       <c r="B83" t="n">
-        <v>-6.5608</v>
+        <v>-7.29212</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>46040.70833333334</v>
       </c>
       <c r="B84" t="n">
-        <v>-6.56595</v>
+        <v>-6.37938</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         <v>46040.72916666666</v>
       </c>
       <c r="B85" t="n">
-        <v>-3.90305</v>
+        <v>-0.62352</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>46040.75</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.84376</v>
+        <v>-1.38933</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         <v>46040.77083333334</v>
       </c>
       <c r="B87" t="n">
-        <v>0.00032</v>
+        <v>0.00023</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>46040.79166666666</v>
       </c>
       <c r="B88" t="n">
-        <v>36.0601</v>
+        <v>12.77543</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -2431,7 +2431,7 @@
         <v>46040.8125</v>
       </c>
       <c r="B89" t="n">
-        <v>46.19147</v>
+        <v>44.0223</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>46040.83333333334</v>
       </c>
       <c r="B90" t="n">
-        <v>46.26191</v>
+        <v>45.92752</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>46040.85416666666</v>
       </c>
       <c r="B91" t="n">
-        <v>55.49501</v>
+        <v>45.17477</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>46040.875</v>
       </c>
       <c r="B92" t="n">
-        <v>46.85269</v>
+        <v>46.84454</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>46040.91666666666</v>
       </c>
       <c r="B94" t="n">
-        <v>55.27992</v>
+        <v>56.03123</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -475,42 +475,42 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46040.29166666666</v>
+        <v>46040</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>46040.79166666666</v>
+        <v>46040.16666666666</v>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>45.36</v>
+        <v>15.12</v>
       </c>
       <c r="E2" t="n">
-        <v>-56.21536049999997</v>
+        <v>363.42217275</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.239315707671957</v>
+        <v>24.03585798611111</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46040.83333333334</v>
+        <v>46040.29166666666</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>46041</v>
+        <v>46040.79166666666</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>15.12</v>
+        <v>45.36</v>
       </c>
       <c r="E3" t="n">
-        <v>371.6685765</v>
+        <v>-62.45913375000001</v>
       </c>
       <c r="F3" t="n">
-        <v>24.58125505952381</v>
+        <v>-1.376965029761905</v>
       </c>
     </row>
   </sheetData>
@@ -524,7 +524,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,10 +561,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46040.02083333334</v>
+        <v>46040</v>
       </c>
       <c r="B2" t="n">
-        <v>36.06032</v>
+        <v>56.98</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -576,16 +576,16 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46040.04166666666</v>
+        <v>46040.02083333334</v>
       </c>
       <c r="B3" t="n">
-        <v>35.88</v>
+        <v>36.2</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -597,20 +597,20 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46040.0625</v>
+        <v>46040.04166666666</v>
       </c>
       <c r="B4" t="n">
-        <v>36.2</v>
+        <v>36.0603</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D4" s="3" t="n">
@@ -618,20 +618,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46040.08333333334</v>
+        <v>46040.0625</v>
       </c>
       <c r="B5" t="n">
-        <v>57.06019</v>
+        <v>36.2</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D5" s="3" t="n">
@@ -639,20 +639,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>46040.10416666666</v>
+        <v>46040.08333333334</v>
       </c>
       <c r="B6" t="n">
-        <v>57.0602</v>
+        <v>36.2</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D6" s="3" t="n">
@@ -660,16 +660,16 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>46040.125</v>
+        <v>46040.10416666666</v>
       </c>
       <c r="B7" t="n">
-        <v>57.06021</v>
+        <v>56.97996</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -681,16 +681,16 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>46040.14583333334</v>
+        <v>46040.125</v>
       </c>
       <c r="B8" t="n">
-        <v>57.06022</v>
+        <v>57.06021</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -702,13 +702,13 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>46040.16666666666</v>
+        <v>46040.14583333334</v>
       </c>
       <c r="B9" t="n">
         <v>57.06022</v>
@@ -723,16 +723,16 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>46040.1875</v>
+        <v>46040.16666666666</v>
       </c>
       <c r="B10" t="n">
-        <v>57.06003</v>
+        <v>57.06022</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>46040.20833333334</v>
+        <v>46040.1875</v>
       </c>
       <c r="B11" t="n">
         <v>57.06003</v>
@@ -771,7 +771,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>46040.22916666666</v>
+        <v>46040.20833333334</v>
       </c>
       <c r="B12" t="n">
         <v>57.06003</v>
@@ -792,7 +792,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>46040.25</v>
+        <v>46040.22916666666</v>
       </c>
       <c r="B13" t="n">
         <v>57.06003</v>
@@ -813,10 +813,10 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>46040.27083333334</v>
+        <v>46040.25</v>
       </c>
       <c r="B14" t="n">
-        <v>36.06</v>
+        <v>57.06003</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -834,10 +834,10 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>46040.29166666666</v>
+        <v>46040.27083333334</v>
       </c>
       <c r="B15" t="n">
-        <v>36.0595</v>
+        <v>51.00032</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -849,16 +849,16 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>46040.3125</v>
+        <v>46040.29166666666</v>
       </c>
       <c r="B16" t="n">
-        <v>11.56192</v>
+        <v>24.52381</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -876,10 +876,10 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>46040.33333333334</v>
+        <v>46040.3125</v>
       </c>
       <c r="B17" t="n">
-        <v>-5.01</v>
+        <v>0.7</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -897,10 +897,10 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>46040.35416666666</v>
+        <v>46040.33333333334</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5954700000000001</v>
+        <v>-5.51</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -918,10 +918,10 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>46040.375</v>
+        <v>46040.35416666666</v>
       </c>
       <c r="B19" t="n">
-        <v>0.009549999999999999</v>
+        <v>0.6145699999999999</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -939,10 +939,10 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>46040.39583333334</v>
+        <v>46040.375</v>
       </c>
       <c r="B20" t="n">
-        <v>-3.6481</v>
+        <v>0.00961</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -960,10 +960,10 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>46040.41666666666</v>
+        <v>46040.39583333334</v>
       </c>
       <c r="B21" t="n">
-        <v>-4.55365</v>
+        <v>-1.74343</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>46040.4375</v>
+        <v>46040.41666666666</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
@@ -1002,10 +1002,10 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>46040.45833333334</v>
+        <v>46040.4375</v>
       </c>
       <c r="B23" t="n">
-        <v>-5.51</v>
+        <v>0.7</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1023,10 +1023,10 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>46040.47916666666</v>
+        <v>46040.45833333334</v>
       </c>
       <c r="B24" t="n">
-        <v>-1.31495</v>
+        <v>0</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1044,10 +1044,10 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>46040.5</v>
+        <v>46040.47916666666</v>
       </c>
       <c r="B25" t="n">
-        <v>-4.50424</v>
+        <v>-0.91939</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1065,10 +1065,10 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>46040.52083333334</v>
+        <v>46040.5</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>-0.90235</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>46040.54166666666</v>
+        <v>46040.52083333334</v>
       </c>
       <c r="B27" t="n">
-        <v>-5.51011</v>
+        <v>0</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1107,10 +1107,10 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>46040.5625</v>
+        <v>46040.54166666666</v>
       </c>
       <c r="B28" t="n">
-        <v>-6.8</v>
+        <v>-5.51011</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>46040.58333333334</v>
+        <v>46040.5625</v>
       </c>
       <c r="B29" t="n">
-        <v>-14</v>
+        <v>-6.8</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1149,10 +1149,10 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>46040.60416666666</v>
+        <v>46040.58333333334</v>
       </c>
       <c r="B30" t="n">
-        <v>-23.5</v>
+        <v>-14</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1170,10 +1170,10 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>46040.625</v>
+        <v>46040.60416666666</v>
       </c>
       <c r="B31" t="n">
-        <v>-14</v>
+        <v>-23.5</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1191,10 +1191,10 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>46040.64583333334</v>
+        <v>46040.625</v>
       </c>
       <c r="B32" t="n">
-        <v>-14</v>
+        <v>-14.7657</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1212,10 +1212,10 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>46040.66666666666</v>
+        <v>46040.64583333334</v>
       </c>
       <c r="B33" t="n">
-        <v>-7.1156</v>
+        <v>-14</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1233,10 +1233,10 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>46040.6875</v>
+        <v>46040.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>-6.51112</v>
+        <v>-7.15426</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1254,10 +1254,10 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>46040.70833333334</v>
+        <v>46040.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>-6</v>
+        <v>-6.48482</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1275,10 +1275,10 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>46040.72916666666</v>
+        <v>46040.70833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>0.63476</v>
+        <v>-6</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1296,10 +1296,10 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>46040.75</v>
+        <v>46040.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>3.95694</v>
+        <v>0.66143</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1317,10 +1317,10 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>46040.77083333334</v>
+        <v>46040.75</v>
       </c>
       <c r="B38" t="n">
-        <v>11.50285</v>
+        <v>3.98333</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1338,10 +1338,10 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>46040.79166666666</v>
+        <v>46040.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>36.2</v>
+        <v>12.03666</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1353,16 +1353,16 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>46040.8125</v>
+        <v>46040.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>53.65862</v>
+        <v>36.2</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>46040.83333333334</v>
+        <v>46040.8125</v>
       </c>
       <c r="B41" t="n">
         <v>56.98</v>
@@ -1395,16 +1395,16 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>46040.85416666666</v>
+        <v>46040.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>56.98</v>
+        <v>57.3</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1416,13 +1416,13 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>46040.875</v>
+        <v>46040.85416666666</v>
       </c>
       <c r="B43" t="n">
         <v>56.98</v>
@@ -1437,16 +1437,16 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>46040.89583333334</v>
+        <v>46040.875</v>
       </c>
       <c r="B44" t="n">
-        <v>45.73237</v>
+        <v>56.98</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1458,16 +1458,16 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>46040.91666666666</v>
+        <v>46040.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>56.34597</v>
+        <v>46.20513</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1479,16 +1479,16 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>46040.9375</v>
+        <v>46040.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>36.0601</v>
+        <v>56.34431</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1500,13 +1500,13 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>46040.95833333334</v>
+        <v>46040.9375</v>
       </c>
       <c r="B47" t="n">
         <v>36.0601</v>
@@ -1521,28 +1521,49 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
+        <v>46040.95833333334</v>
+      </c>
+      <c r="B48" t="n">
+        <v>36.0601</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D48" s="3" t="n">
+        <v>46040</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
         <v>46040.97916666666</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B49" t="n">
         <v>36.06</v>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D48" s="3" t="n">
-        <v>46040</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>ON</t>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D49" s="3" t="n">
+        <v>46040</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>OFF</t>
         </is>
       </c>
     </row>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -487,10 +487,10 @@
         <v>45.36</v>
       </c>
       <c r="E2" t="n">
-        <v>-27.44120924999999</v>
+        <v>-33.60198075</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.6049649305555554</v>
+        <v>-0.7407844080687831</v>
       </c>
     </row>
     <row r="3">
@@ -507,10 +507,10 @@
         <v>15.12</v>
       </c>
       <c r="E3" t="n">
-        <v>379.85008425</v>
+        <v>372.94961925</v>
       </c>
       <c r="F3" t="n">
-        <v>25.12236006944445</v>
+        <v>24.66598010912698</v>
       </c>
     </row>
   </sheetData>
@@ -669,7 +669,7 @@
         <v>46040.10416666666</v>
       </c>
       <c r="B7" t="n">
-        <v>36.2</v>
+        <v>56.97996</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -690,7 +690,7 @@
         <v>46040.125</v>
       </c>
       <c r="B8" t="n">
-        <v>56.97996</v>
+        <v>57.06021</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -711,11 +711,11 @@
         <v>46040.14583333334</v>
       </c>
       <c r="B9" t="n">
-        <v>56.98</v>
+        <v>36.2</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D9" s="3" t="n">
@@ -732,11 +732,11 @@
         <v>46040.16666666666</v>
       </c>
       <c r="B10" t="n">
-        <v>57.06022</v>
+        <v>56.98</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D10" s="3" t="n">
@@ -753,7 +753,7 @@
         <v>46040.1875</v>
       </c>
       <c r="B11" t="n">
-        <v>57.06003</v>
+        <v>56.98</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>46040.20833333334</v>
       </c>
       <c r="B12" t="n">
-        <v>57.06003</v>
+        <v>57.1</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         <v>46040.27083333334</v>
       </c>
       <c r="B15" t="n">
-        <v>50.98493</v>
+        <v>50.95183</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>46040.29166666666</v>
       </c>
       <c r="B16" t="n">
-        <v>32.29746</v>
+        <v>24.36057</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
         <v>46040.3125</v>
       </c>
       <c r="B17" t="n">
-        <v>11.61977</v>
+        <v>0.7</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>46040.33333333334</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>-5.51</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>46040.35416666666</v>
       </c>
       <c r="B19" t="n">
-        <v>2.80927</v>
+        <v>4.14872</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         <v>46040.39583333334</v>
       </c>
       <c r="B21" t="n">
-        <v>-1.74343</v>
+        <v>-3.6481</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -984,7 +984,7 @@
         <v>46040.41666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>-4.81333</v>
+        <v>-1.5776</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>46040.4375</v>
       </c>
       <c r="B23" t="n">
-        <v>0.51</v>
+        <v>11.7995</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>46040.45833333334</v>
       </c>
       <c r="B24" t="n">
-        <v>0.62873</v>
+        <v>0.00976</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>46040.47916666666</v>
       </c>
       <c r="B25" t="n">
-        <v>-4.81902</v>
+        <v>-0.93531</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
         <v>46040.52083333334</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.89155</v>
+        <v>0.00902</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>46040.54166666666</v>
       </c>
       <c r="B28" t="n">
-        <v>-5.69904</v>
+        <v>-4.49679</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>46040.58333333334</v>
       </c>
       <c r="B30" t="n">
-        <v>-9.99</v>
+        <v>-7</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>46040.60416666666</v>
       </c>
       <c r="B31" t="n">
-        <v>-20.40712</v>
+        <v>-20.55932</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>46040.625</v>
       </c>
       <c r="B32" t="n">
-        <v>-12.43825</v>
+        <v>-12.91239</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         <v>46040.64583333334</v>
       </c>
       <c r="B33" t="n">
-        <v>-12.01</v>
+        <v>-13.5</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1236,7 +1236,7 @@
         <v>46040.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>-6.71741</v>
+        <v>-7.10129</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>46040.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>-6.51053</v>
+        <v>-6.44164</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>46040.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>0.66214</v>
+        <v>0.66476</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>46040.75</v>
       </c>
       <c r="B38" t="n">
-        <v>3.98497</v>
+        <v>3.98635</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         <v>46040.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>17.67251</v>
+        <v>15.83019</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>46040.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>45.74509</v>
+        <v>41.35282</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1404,7 +1404,7 @@
         <v>46040.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>64.8901</v>
+        <v>57.3</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>46040.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>56.98</v>
+        <v>57.3</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>46040.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>46.2146</v>
+        <v>46.20722</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>46040.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>56.34493</v>
+        <v>56.54501</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,42 +475,22 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46040.29166666666</v>
+        <v>46040.14583333334</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>46040.79166666666</v>
+        <v>46040.8125</v>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>45.36</v>
+        <v>60.48</v>
       </c>
       <c r="E2" t="n">
-        <v>-33.60198075</v>
+        <v>295.28607225</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.7407844080687831</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>46040.83333333334</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>46041</v>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>15.12</v>
-      </c>
-      <c r="E3" t="n">
-        <v>372.94961925</v>
-      </c>
-      <c r="F3" t="n">
-        <v>24.66598010912698</v>
+        <v>4.882375533234127</v>
       </c>
     </row>
   </sheetData>
@@ -711,7 +691,7 @@
         <v>46040.14583333334</v>
       </c>
       <c r="B9" t="n">
-        <v>36.2</v>
+        <v>57.06022</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -723,7 +703,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -744,7 +724,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -753,11 +733,11 @@
         <v>46040.1875</v>
       </c>
       <c r="B11" t="n">
-        <v>56.98</v>
+        <v>36.06</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D11" s="3" t="n">
@@ -765,7 +745,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -774,11 +754,11 @@
         <v>46040.20833333334</v>
       </c>
       <c r="B12" t="n">
-        <v>57.1</v>
+        <v>36.2</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D12" s="3" t="n">
@@ -786,7 +766,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -795,7 +775,7 @@
         <v>46040.22916666666</v>
       </c>
       <c r="B13" t="n">
-        <v>57.06003</v>
+        <v>56.98</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -807,7 +787,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -828,7 +808,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -837,7 +817,7 @@
         <v>46040.27083333334</v>
       </c>
       <c r="B15" t="n">
-        <v>50.95183</v>
+        <v>36.06</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -849,7 +829,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -858,7 +838,7 @@
         <v>46040.29166666666</v>
       </c>
       <c r="B16" t="n">
-        <v>24.36057</v>
+        <v>8.058479999999999</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -921,7 +901,7 @@
         <v>46040.35416666666</v>
       </c>
       <c r="B19" t="n">
-        <v>4.14872</v>
+        <v>0.009549999999999999</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -942,7 +922,7 @@
         <v>46040.375</v>
       </c>
       <c r="B20" t="n">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -963,7 +943,7 @@
         <v>46040.39583333334</v>
       </c>
       <c r="B21" t="n">
-        <v>-3.6481</v>
+        <v>-0.9066</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -984,7 +964,7 @@
         <v>46040.41666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>-1.5776</v>
+        <v>-4.72132</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1005,7 +985,7 @@
         <v>46040.4375</v>
       </c>
       <c r="B23" t="n">
-        <v>11.7995</v>
+        <v>0.66745</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1026,7 +1006,7 @@
         <v>46040.45833333334</v>
       </c>
       <c r="B24" t="n">
-        <v>0.00976</v>
+        <v>0.7</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1047,7 +1027,7 @@
         <v>46040.47916666666</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.93531</v>
+        <v>-0.93546</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1068,7 +1048,7 @@
         <v>46040.5</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>-4.77113</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1089,7 +1069,7 @@
         <v>46040.52083333334</v>
       </c>
       <c r="B27" t="n">
-        <v>0.00902</v>
+        <v>-4.61593</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1110,7 +1090,7 @@
         <v>46040.54166666666</v>
       </c>
       <c r="B28" t="n">
-        <v>-4.49679</v>
+        <v>-5.51</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1131,7 +1111,7 @@
         <v>46040.5625</v>
       </c>
       <c r="B29" t="n">
-        <v>-6.8</v>
+        <v>-6.4985</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1152,7 +1132,7 @@
         <v>46040.58333333334</v>
       </c>
       <c r="B30" t="n">
-        <v>-7</v>
+        <v>-10</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1173,7 +1153,7 @@
         <v>46040.60416666666</v>
       </c>
       <c r="B31" t="n">
-        <v>-20.55932</v>
+        <v>-20.71215</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1194,7 +1174,7 @@
         <v>46040.625</v>
       </c>
       <c r="B32" t="n">
-        <v>-12.91239</v>
+        <v>-11.45471</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1215,7 +1195,7 @@
         <v>46040.64583333334</v>
       </c>
       <c r="B33" t="n">
-        <v>-13.5</v>
+        <v>-11.01</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1236,7 +1216,7 @@
         <v>46040.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>-7.10129</v>
+        <v>-7.05469</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1257,7 +1237,7 @@
         <v>46040.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>-6.44164</v>
+        <v>-6.56987</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1299,7 +1279,7 @@
         <v>46040.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>0.66476</v>
+        <v>0.66377</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1320,7 +1300,7 @@
         <v>46040.75</v>
       </c>
       <c r="B38" t="n">
-        <v>3.98635</v>
+        <v>3.98566</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1341,7 +1321,7 @@
         <v>46040.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>15.83019</v>
+        <v>16.85794</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1362,7 +1342,7 @@
         <v>46040.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>41.35282</v>
+        <v>41.08477</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1374,7 +1354,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1363,7 @@
         <v>46040.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>56.98</v>
+        <v>57.08646</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1416,7 +1396,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1425,7 +1405,7 @@
         <v>46040.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>57.3</v>
+        <v>56.98</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1437,7 +1417,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1458,7 +1438,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1467,7 +1447,7 @@
         <v>46040.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>46.20722</v>
+        <v>46.33506</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1479,7 +1459,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1488,7 +1468,7 @@
         <v>46040.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>56.54501</v>
+        <v>56.33763</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1500,7 +1480,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1501,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1542,7 +1522,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1563,7 +1543,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,22 +475,42 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46040.14583333334</v>
+        <v>46040.29166666666</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>46040.8125</v>
+        <v>46040.79166666666</v>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>60.48</v>
+        <v>45.36</v>
       </c>
       <c r="E2" t="n">
-        <v>295.28607225</v>
+        <v>-59.48107424999998</v>
       </c>
       <c r="F2" t="n">
-        <v>4.882375533234127</v>
+        <v>-1.311311160714285</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>46040.83333333334</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>46041</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.12</v>
+      </c>
+      <c r="E3" t="n">
+        <v>370.4505674999999</v>
+      </c>
+      <c r="F3" t="n">
+        <v>24.50069890873015</v>
       </c>
     </row>
   </sheetData>
@@ -703,7 +723,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -724,7 +744,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -733,7 +753,7 @@
         <v>46040.1875</v>
       </c>
       <c r="B11" t="n">
-        <v>36.06</v>
+        <v>57.06003</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -745,7 +765,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -754,7 +774,7 @@
         <v>46040.20833333334</v>
       </c>
       <c r="B12" t="n">
-        <v>36.2</v>
+        <v>57.06003</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -766,7 +786,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -775,11 +795,11 @@
         <v>46040.22916666666</v>
       </c>
       <c r="B13" t="n">
-        <v>56.98</v>
+        <v>55.33101</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D13" s="3" t="n">
@@ -787,7 +807,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -796,11 +816,11 @@
         <v>46040.25</v>
       </c>
       <c r="B14" t="n">
-        <v>57.06003</v>
+        <v>56.26125</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D14" s="3" t="n">
@@ -808,7 +828,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -829,7 +849,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -838,7 +858,7 @@
         <v>46040.29166666666</v>
       </c>
       <c r="B16" t="n">
-        <v>8.058479999999999</v>
+        <v>36.06</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -859,7 +879,7 @@
         <v>46040.3125</v>
       </c>
       <c r="B17" t="n">
-        <v>0.7</v>
+        <v>0.61797</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -880,7 +900,7 @@
         <v>46040.33333333334</v>
       </c>
       <c r="B18" t="n">
-        <v>-5.51</v>
+        <v>-5.4274</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -901,7 +921,7 @@
         <v>46040.35416666666</v>
       </c>
       <c r="B19" t="n">
-        <v>0.009549999999999999</v>
+        <v>0</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -922,7 +942,7 @@
         <v>46040.375</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-4.66577</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -943,7 +963,7 @@
         <v>46040.39583333334</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.9066</v>
+        <v>-5.31676</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -964,7 +984,7 @@
         <v>46040.41666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>-4.72132</v>
+        <v>-3.6481</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -985,7 +1005,7 @@
         <v>46040.4375</v>
       </c>
       <c r="B23" t="n">
-        <v>0.66745</v>
+        <v>0.64369</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1006,7 +1026,7 @@
         <v>46040.45833333334</v>
       </c>
       <c r="B24" t="n">
-        <v>0.7</v>
+        <v>0.00976</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1027,7 +1047,7 @@
         <v>46040.47916666666</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.93546</v>
+        <v>-4.66482</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1048,7 +1068,7 @@
         <v>46040.5</v>
       </c>
       <c r="B26" t="n">
-        <v>-4.77113</v>
+        <v>0.00025</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1069,7 +1089,7 @@
         <v>46040.52083333334</v>
       </c>
       <c r="B27" t="n">
-        <v>-4.61593</v>
+        <v>-5.51</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1090,7 +1110,7 @@
         <v>46040.54166666666</v>
       </c>
       <c r="B28" t="n">
-        <v>-5.51</v>
+        <v>-5.36283</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1111,7 +1131,7 @@
         <v>46040.5625</v>
       </c>
       <c r="B29" t="n">
-        <v>-6.4985</v>
+        <v>-6.0715</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1132,7 +1152,7 @@
         <v>46040.58333333334</v>
       </c>
       <c r="B30" t="n">
-        <v>-10</v>
+        <v>-13.5</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1153,7 +1173,7 @@
         <v>46040.60416666666</v>
       </c>
       <c r="B31" t="n">
-        <v>-20.71215</v>
+        <v>-20.57961</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1174,7 +1194,7 @@
         <v>46040.625</v>
       </c>
       <c r="B32" t="n">
-        <v>-11.45471</v>
+        <v>-13.5</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1195,7 +1215,7 @@
         <v>46040.64583333334</v>
       </c>
       <c r="B33" t="n">
-        <v>-11.01</v>
+        <v>-11.52252</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1216,7 +1236,7 @@
         <v>46040.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>-7.05469</v>
+        <v>-7.11948</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1237,7 +1257,7 @@
         <v>46040.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>-6.56987</v>
+        <v>-6.60693</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1279,7 +1299,7 @@
         <v>46040.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>0.66377</v>
+        <v>0.31443</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1300,7 +1320,7 @@
         <v>46040.75</v>
       </c>
       <c r="B38" t="n">
-        <v>3.98566</v>
+        <v>3.98303</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1321,7 +1341,7 @@
         <v>46040.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>16.85794</v>
+        <v>16.86036</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1342,7 +1362,7 @@
         <v>46040.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>41.08477</v>
+        <v>40.99071</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1354,7 +1374,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1363,7 +1383,7 @@
         <v>46040.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>57.08646</v>
+        <v>53.66969</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1396,7 +1416,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1405,7 +1425,7 @@
         <v>46040.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>56.98</v>
+        <v>57.3</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1417,7 +1437,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1426,7 +1446,7 @@
         <v>46040.875</v>
       </c>
       <c r="B44" t="n">
-        <v>56.98</v>
+        <v>56.94617</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1438,7 +1458,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1447,7 +1467,7 @@
         <v>46040.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>46.33506</v>
+        <v>43.56065</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1459,7 +1479,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1468,7 +1488,7 @@
         <v>46040.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>56.33763</v>
+        <v>56.66228</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1480,7 +1500,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1501,7 +1521,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1522,7 +1542,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1543,7 +1563,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,42 +475,62 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46040.29166666666</v>
+        <v>46040.27083333334</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>46040.79166666666</v>
+        <v>46040.4375</v>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>45.36</v>
+        <v>15.12</v>
       </c>
       <c r="E2" t="n">
-        <v>-90.22366275</v>
+        <v>140.93824875</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.989057820767196</v>
+        <v>9.321312748015874</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
+        <v>46040.45833333334</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>46040.79166666666</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>30.24</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-13.20846150000001</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.4367877480158732</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>46040.83333333334</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B4" s="2" t="n">
         <v>46041</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>4</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>15.12</v>
       </c>
-      <c r="E3" t="n">
-        <v>370.293807</v>
-      </c>
-      <c r="F3" t="n">
-        <v>24.49033115079365</v>
+      <c r="E4" t="n">
+        <v>333.5945925</v>
+      </c>
+      <c r="F4" t="n">
+        <v>22.06313442460317</v>
       </c>
     </row>
   </sheetData>
@@ -849,7 +869,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -858,7 +878,7 @@
         <v>46040.29166666666</v>
       </c>
       <c r="B16" t="n">
-        <v>0.7</v>
+        <v>24.39469</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -900,7 +920,7 @@
         <v>46040.33333333334</v>
       </c>
       <c r="B18" t="n">
-        <v>-4.34103</v>
+        <v>-5.51</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -921,11 +941,11 @@
         <v>46040.35416666666</v>
       </c>
       <c r="B19" t="n">
-        <v>11.098</v>
+        <v>36.06</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D19" s="3" t="n">
@@ -942,11 +962,11 @@
         <v>46040.375</v>
       </c>
       <c r="B20" t="n">
-        <v>0.51</v>
+        <v>20.88924</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D20" s="3" t="n">
@@ -963,7 +983,7 @@
         <v>46040.39583333334</v>
       </c>
       <c r="B21" t="n">
-        <v>-4.61115</v>
+        <v>20.4213</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -984,7 +1004,7 @@
         <v>46040.41666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.90326</v>
+        <v>11.72682</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1005,7 +1025,7 @@
         <v>46040.4375</v>
       </c>
       <c r="B23" t="n">
-        <v>-4.83666</v>
+        <v>36.06</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1017,7 +1037,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1046,7 @@
         <v>46040.45833333334</v>
       </c>
       <c r="B24" t="n">
-        <v>-5.51</v>
+        <v>0.7</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1047,7 +1067,7 @@
         <v>46040.47916666666</v>
       </c>
       <c r="B25" t="n">
-        <v>-4.5561</v>
+        <v>0.02018</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1068,7 +1088,7 @@
         <v>46040.5</v>
       </c>
       <c r="B26" t="n">
-        <v>-5.19013</v>
+        <v>0.7</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1089,7 +1109,7 @@
         <v>46040.52083333334</v>
       </c>
       <c r="B27" t="n">
-        <v>-5.01</v>
+        <v>0.7</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1110,7 +1130,7 @@
         <v>46040.54166666666</v>
       </c>
       <c r="B28" t="n">
-        <v>-5.51011</v>
+        <v>-0.9016999999999999</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1131,7 +1151,7 @@
         <v>46040.5625</v>
       </c>
       <c r="B29" t="n">
-        <v>-5.51011</v>
+        <v>-0.8791099999999999</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1152,7 +1172,7 @@
         <v>46040.58333333334</v>
       </c>
       <c r="B30" t="n">
-        <v>-7.01</v>
+        <v>-5.51011</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1173,7 +1193,7 @@
         <v>46040.60416666666</v>
       </c>
       <c r="B31" t="n">
-        <v>-12.08785</v>
+        <v>-5.1729</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1194,7 +1214,7 @@
         <v>46040.625</v>
       </c>
       <c r="B32" t="n">
-        <v>-14.70709</v>
+        <v>-6.13636</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1215,7 +1235,7 @@
         <v>46040.64583333334</v>
       </c>
       <c r="B33" t="n">
-        <v>-14</v>
+        <v>-7.49401</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1236,7 +1256,7 @@
         <v>46040.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>-6.85852</v>
+        <v>-6.81821</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1257,7 +1277,7 @@
         <v>46040.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>-7.29618</v>
+        <v>-6.44839</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1278,7 +1298,7 @@
         <v>46040.70833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>-6</v>
+        <v>-6.4473</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1299,7 +1319,7 @@
         <v>46040.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>0.66345</v>
+        <v>4.93756</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1320,7 +1340,7 @@
         <v>46040.75</v>
       </c>
       <c r="B38" t="n">
-        <v>3.98398</v>
+        <v>6.89183</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1341,7 +1361,7 @@
         <v>46040.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>3.93567</v>
+        <v>18.31138</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1383,7 +1403,7 @@
         <v>46040.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>53.77198</v>
+        <v>36.90374</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1404,7 +1424,7 @@
         <v>46040.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>57.3</v>
+        <v>46.53487</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1425,7 +1445,7 @@
         <v>46040.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>56.04515</v>
+        <v>37.61157</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1446,7 +1466,7 @@
         <v>46040.875</v>
       </c>
       <c r="B44" t="n">
-        <v>56.98</v>
+        <v>56.94145</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1467,7 +1487,7 @@
         <v>46040.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>45.37537</v>
+        <v>36.2</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1488,7 +1508,7 @@
         <v>46040.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>55.9078</v>
+        <v>56.68021</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,62 +475,42 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46040.27083333334</v>
+        <v>46040.29166666666</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>46040.4375</v>
+        <v>46040.79166666666</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>15.12</v>
+        <v>45.36</v>
       </c>
       <c r="E2" t="n">
-        <v>140.93824875</v>
+        <v>213.75222375</v>
       </c>
       <c r="F2" t="n">
-        <v>9.321312748015874</v>
+        <v>4.712350611772487</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46040.45833333334</v>
+        <v>46040.83333333334</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>46040.79166666666</v>
+        <v>46041</v>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>30.24</v>
+        <v>15.12</v>
       </c>
       <c r="E3" t="n">
-        <v>-13.20846150000001</v>
+        <v>361.68226575</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.4367877480158732</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>46040.83333333334</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>46041</v>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>15.12</v>
-      </c>
-      <c r="E4" t="n">
-        <v>333.5945925</v>
-      </c>
-      <c r="F4" t="n">
-        <v>22.06313442460317</v>
+        <v>23.9207847718254</v>
       </c>
     </row>
   </sheetData>
@@ -869,7 +849,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -941,7 +921,7 @@
         <v>46040.35416666666</v>
       </c>
       <c r="B19" t="n">
-        <v>36.06</v>
+        <v>0.009549999999999999</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -962,7 +942,7 @@
         <v>46040.375</v>
       </c>
       <c r="B20" t="n">
-        <v>20.88924</v>
+        <v>32.97732</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -983,11 +963,11 @@
         <v>46040.39583333334</v>
       </c>
       <c r="B21" t="n">
-        <v>20.4213</v>
+        <v>35.88</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D21" s="3" t="n">
@@ -1004,11 +984,11 @@
         <v>46040.41666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>11.72682</v>
+        <v>36.06</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D22" s="3" t="n">
@@ -1025,7 +1005,7 @@
         <v>46040.4375</v>
       </c>
       <c r="B23" t="n">
-        <v>36.06</v>
+        <v>34.45798</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1037,7 +1017,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1067,7 +1047,7 @@
         <v>46040.47916666666</v>
       </c>
       <c r="B25" t="n">
-        <v>0.02018</v>
+        <v>0.7</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1088,7 +1068,7 @@
         <v>46040.5</v>
       </c>
       <c r="B26" t="n">
-        <v>0.7</v>
+        <v>25.09786</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1109,7 +1089,7 @@
         <v>46040.52083333334</v>
       </c>
       <c r="B27" t="n">
-        <v>0.7</v>
+        <v>33.41567</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1130,7 +1110,7 @@
         <v>46040.54166666666</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.9016999999999999</v>
+        <v>0.51</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1151,7 +1131,7 @@
         <v>46040.5625</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.8791099999999999</v>
+        <v>0.01819</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1172,7 +1152,7 @@
         <v>46040.58333333334</v>
       </c>
       <c r="B30" t="n">
-        <v>-5.51011</v>
+        <v>-0.32596</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1193,7 +1173,7 @@
         <v>46040.60416666666</v>
       </c>
       <c r="B31" t="n">
-        <v>-5.1729</v>
+        <v>-4.22974</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1214,7 +1194,7 @@
         <v>46040.625</v>
       </c>
       <c r="B32" t="n">
-        <v>-6.13636</v>
+        <v>-4.23274</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1235,7 +1215,7 @@
         <v>46040.64583333334</v>
       </c>
       <c r="B33" t="n">
-        <v>-7.49401</v>
+        <v>-7.48187</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1256,7 +1236,7 @@
         <v>46040.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>-6.81821</v>
+        <v>-2.81401</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1277,7 +1257,7 @@
         <v>46040.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>-6.44839</v>
+        <v>-5.8994</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1298,7 +1278,7 @@
         <v>46040.70833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>-6.4473</v>
+        <v>-5.79576</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1319,7 +1299,7 @@
         <v>46040.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>4.93756</v>
+        <v>5.18238</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1340,7 +1320,7 @@
         <v>46040.75</v>
       </c>
       <c r="B38" t="n">
-        <v>6.89183</v>
+        <v>6.98736</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1361,7 +1341,7 @@
         <v>46040.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>18.31138</v>
+        <v>18.62153</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1403,7 +1383,7 @@
         <v>46040.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>36.90374</v>
+        <v>55.05565</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1424,7 +1404,7 @@
         <v>46040.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>46.53487</v>
+        <v>56.72399</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1445,7 +1425,7 @@
         <v>46040.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>37.61157</v>
+        <v>46.34977</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1466,7 +1446,7 @@
         <v>46040.875</v>
       </c>
       <c r="B44" t="n">
-        <v>56.94145</v>
+        <v>56.98</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1487,7 +1467,7 @@
         <v>46040.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>36.2</v>
+        <v>45.60231</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1508,7 +1488,7 @@
         <v>46040.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>56.68021</v>
+        <v>56.98</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1529,7 +1509,7 @@
         <v>46040.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>36.0601</v>
+        <v>36.2</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -487,10 +487,10 @@
         <v>51.02999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>60.30140025000001</v>
+        <v>100.65971175</v>
       </c>
       <c r="F2" t="n">
-        <v>1.181685288065844</v>
+        <v>1.972559509112287</v>
       </c>
     </row>
     <row r="3">
@@ -507,10 +507,10 @@
         <v>20.79</v>
       </c>
       <c r="E3" t="n">
-        <v>450.2433195</v>
+        <v>451.2848925</v>
       </c>
       <c r="F3" t="n">
-        <v>21.65672532467532</v>
+        <v>21.70682503607504</v>
       </c>
     </row>
     <row r="4">
@@ -527,10 +527,10 @@
         <v>34.02</v>
       </c>
       <c r="E4" t="n">
-        <v>-43.64514375000001</v>
+        <v>-2.813537999999978</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.282926036155203</v>
+        <v>-0.08270246913580183</v>
       </c>
     </row>
   </sheetData>
@@ -1151,7 +1151,7 @@
         <v>46040.5625</v>
       </c>
       <c r="B29" t="n">
-        <v>-5.58988</v>
+        <v>-7</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>46040.58333333334</v>
       </c>
       <c r="B30" t="n">
-        <v>-9.99</v>
+        <v>-12.20552</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1193,7 +1193,7 @@
         <v>46040.60416666666</v>
       </c>
       <c r="B31" t="n">
-        <v>-9.99</v>
+        <v>-7.46266</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1214,11 +1214,11 @@
         <v>46040.625</v>
       </c>
       <c r="B32" t="n">
-        <v>-8.452769999999999</v>
+        <v>-6.8</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D32" s="3" t="n">
@@ -1235,11 +1235,11 @@
         <v>46040.64583333334</v>
       </c>
       <c r="B33" t="n">
-        <v>-7.62043</v>
+        <v>-6.32</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D33" s="3" t="n">
@@ -1256,7 +1256,7 @@
         <v>46040.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>-6.32</v>
+        <v>-5.41</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>46040.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>-6.34762</v>
+        <v>-4.77891</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>46040.70833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>-5.95309</v>
+        <v>5.16051</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1319,7 +1319,7 @@
         <v>46040.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>4.94039</v>
+        <v>6.2382</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         <v>46040.75</v>
       </c>
       <c r="B38" t="n">
-        <v>6.91421</v>
+        <v>6.99021</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>46040.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>12.15556</v>
+        <v>18.34255</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1382,7 +1382,7 @@
         <v>46040.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>27.49695</v>
+        <v>36.2</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         <v>46040.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>36.0601</v>
+        <v>45.74218</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         <v>46040.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>45.40186</v>
+        <v>49.42693</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
         <v>46040.875</v>
       </c>
       <c r="B44" t="n">
-        <v>36.2</v>
+        <v>46.19026</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>46040.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>46.4787</v>
+        <v>47.91617</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>46041.04166666666</v>
       </c>
       <c r="B52" t="n">
-        <v>57.06003</v>
+        <v>56.98</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>46041.0625</v>
       </c>
       <c r="B53" t="n">
-        <v>56.98</v>
+        <v>56.78</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>46041.10416666666</v>
       </c>
       <c r="B55" t="n">
-        <v>48.84899</v>
+        <v>48.75983</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>46041.125</v>
       </c>
       <c r="B56" t="n">
-        <v>49.74012</v>
+        <v>49.44748</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>46041.14583333334</v>
       </c>
       <c r="B57" t="n">
-        <v>56.98</v>
+        <v>50.33883</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>46041.1875</v>
       </c>
       <c r="B59" t="n">
-        <v>57.06003</v>
+        <v>57.76254</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>46041.20833333334</v>
       </c>
       <c r="B60" t="n">
-        <v>58.32151</v>
+        <v>57.06003</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>46041.22916666666</v>
       </c>
       <c r="B61" t="n">
-        <v>69.20653</v>
+        <v>58.81169</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>46041.25</v>
       </c>
       <c r="B62" t="n">
-        <v>72.94628</v>
+        <v>58.02194</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>46041.29166666666</v>
       </c>
       <c r="B64" t="n">
-        <v>30.36901</v>
+        <v>36.06</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>46041.3125</v>
       </c>
       <c r="B65" t="n">
-        <v>6.75696</v>
+        <v>36.06</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
         <v>46041.33333333334</v>
       </c>
       <c r="B66" t="n">
-        <v>0.7</v>
+        <v>5.16569</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>46041.35416666666</v>
       </c>
       <c r="B67" t="n">
-        <v>0.64751</v>
+        <v>0.64744</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         <v>46041.39583333334</v>
       </c>
       <c r="B69" t="n">
-        <v>-6.05409</v>
+        <v>-5.50985</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>46041.41666666666</v>
       </c>
       <c r="B70" t="n">
-        <v>-7.79943</v>
+        <v>-6.14712</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>46041.4375</v>
       </c>
       <c r="B71" t="n">
-        <v>-6.97876</v>
+        <v>-7.02049</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>46041.45833333334</v>
       </c>
       <c r="B72" t="n">
-        <v>-7.69821</v>
+        <v>-7.15517</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>46041.47916666666</v>
       </c>
       <c r="B73" t="n">
-        <v>-6.90017</v>
+        <v>-7.67966</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2096,7 +2096,7 @@
         <v>46041.5</v>
       </c>
       <c r="B74" t="n">
-        <v>-7.02264</v>
+        <v>-7.68692</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>46041.52083333334</v>
       </c>
       <c r="B75" t="n">
-        <v>-6.94073</v>
+        <v>-7.23621</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>46041.54166666666</v>
       </c>
       <c r="B76" t="n">
-        <v>-6.08034</v>
+        <v>-6.19058</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2159,7 +2159,7 @@
         <v>46041.5625</v>
       </c>
       <c r="B77" t="n">
-        <v>-5.95857</v>
+        <v>-6.35843</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>46041.58333333334</v>
       </c>
       <c r="B78" t="n">
-        <v>-5.01</v>
+        <v>-6.06857</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>46041.60416666666</v>
       </c>
       <c r="B79" t="n">
-        <v>-5.51</v>
+        <v>-5.72243</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>46041.625</v>
       </c>
       <c r="B80" t="n">
-        <v>-5.77494</v>
+        <v>-5.51</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>46041.64583333334</v>
       </c>
       <c r="B81" t="n">
-        <v>-5.50985</v>
+        <v>-2.53338</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2264,7 +2264,7 @@
         <v>46041.66666666666</v>
       </c>
       <c r="B82" t="n">
-        <v>-2.52431</v>
+        <v>0</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>46041.6875</v>
       </c>
       <c r="B83" t="n">
-        <v>-5.13343</v>
+        <v>-2.54896</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>46041.70833333334</v>
       </c>
       <c r="B84" t="n">
-        <v>-2.63766</v>
+        <v>-2.40408</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
         <v>46041.72916666666</v>
       </c>
       <c r="B85" t="n">
-        <v>2.2195</v>
+        <v>4.79045</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>46041.75</v>
       </c>
       <c r="B86" t="n">
-        <v>20.24437</v>
+        <v>20.78901</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>46041.77083333334</v>
       </c>
       <c r="B87" t="n">
-        <v>47.97146</v>
+        <v>54.66255</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>46041.79166666666</v>
       </c>
       <c r="B88" t="n">
-        <v>59.14369</v>
+        <v>57.85505</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>46041.8125</v>
       </c>
       <c r="B89" t="n">
-        <v>77.94</v>
+        <v>71.91437000000001</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>46041.83333333334</v>
       </c>
       <c r="B90" t="n">
-        <v>73.20007</v>
+        <v>68.63066999999999</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>46041.85416666666</v>
       </c>
       <c r="B91" t="n">
-        <v>66.89706</v>
+        <v>66.50706</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
         <v>46041.875</v>
       </c>
       <c r="B92" t="n">
-        <v>67.11141000000001</v>
+        <v>63.83273</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>46041.89583333334</v>
       </c>
       <c r="B93" t="n">
-        <v>62.40577</v>
+        <v>61.9517</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>46041.91666666666</v>
       </c>
       <c r="B94" t="n">
-        <v>57.54921</v>
+        <v>58.95387</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -478,39 +478,39 @@
         <v>46040.27083333334</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>46040.83333333334</v>
+        <v>46040.85416666666</v>
       </c>
       <c r="C2" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>51.02999999999999</v>
+        <v>52.91999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>100.65971175</v>
+        <v>149.216769</v>
       </c>
       <c r="F2" t="n">
-        <v>1.972559509112287</v>
+        <v>2.819666836734695</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46040.89583333334</v>
+        <v>46040.91666666666</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>46041.125</v>
       </c>
       <c r="C3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>20.79</v>
+        <v>18.9</v>
       </c>
       <c r="E3" t="n">
-        <v>451.2848925</v>
+        <v>520.6762177499999</v>
       </c>
       <c r="F3" t="n">
-        <v>21.70682503607504</v>
+        <v>27.54900623015872</v>
       </c>
     </row>
     <row r="4">
@@ -527,10 +527,10 @@
         <v>34.02</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.813537999999978</v>
+        <v>20.29469325000004</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.08270246913580183</v>
+        <v>0.5965518298059976</v>
       </c>
     </row>
   </sheetData>
@@ -1193,7 +1193,7 @@
         <v>46040.60416666666</v>
       </c>
       <c r="B31" t="n">
-        <v>-7.46266</v>
+        <v>-23.5</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>46040.625</v>
       </c>
       <c r="B32" t="n">
-        <v>-6.8</v>
+        <v>-14.53915</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
         <v>46040.64583333334</v>
       </c>
       <c r="B33" t="n">
-        <v>-6.32</v>
+        <v>-11.93964</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1256,11 +1256,11 @@
         <v>46040.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>-5.41</v>
+        <v>-5.43826</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D34" s="3" t="n">
@@ -1277,7 +1277,7 @@
         <v>46040.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>-4.77891</v>
+        <v>-5.41</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>46040.70833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>5.16051</v>
+        <v>8.2301</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1319,7 +1319,7 @@
         <v>46040.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>6.2382</v>
+        <v>9.78525</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         <v>46040.75</v>
       </c>
       <c r="B38" t="n">
-        <v>6.99021</v>
+        <v>14.2512</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>46040.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>18.34255</v>
+        <v>29.00544</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1382,7 +1382,7 @@
         <v>46040.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>36.2</v>
+        <v>30.91231</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         <v>46040.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>45.74218</v>
+        <v>56.98</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         <v>46040.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>49.42693</v>
+        <v>49.36694</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1436,7 +1436,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
         <v>46040.875</v>
       </c>
       <c r="B44" t="n">
-        <v>46.19026</v>
+        <v>56.98</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>46040.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>36.0601</v>
+        <v>56.98</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1508,7 +1508,7 @@
         <v>46040.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>47.91617</v>
+        <v>56.98</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
         <v>46040.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>36.0601</v>
+        <v>50.56345</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>46040.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>36.06</v>
+        <v>49.15555</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>46041</v>
       </c>
       <c r="B50" t="n">
-        <v>36.06</v>
+        <v>56.20781</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
         <v>46041.02083333334</v>
       </c>
       <c r="B51" t="n">
-        <v>36.06</v>
+        <v>56.98</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>46041.04166666666</v>
       </c>
       <c r="B52" t="n">
-        <v>56.98</v>
+        <v>57.06003</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>46041.0625</v>
       </c>
       <c r="B53" t="n">
-        <v>56.78</v>
+        <v>57.06003</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
         <v>46041.08333333334</v>
       </c>
       <c r="B54" t="n">
-        <v>36.06</v>
+        <v>56.97996</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>46041.10416666666</v>
       </c>
       <c r="B55" t="n">
-        <v>48.75983</v>
+        <v>56.97996</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>46041.125</v>
       </c>
       <c r="B56" t="n">
-        <v>49.44748</v>
+        <v>57.06003</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>46041.14583333334</v>
       </c>
       <c r="B57" t="n">
-        <v>50.33883</v>
+        <v>57.06003</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>46041.16666666666</v>
       </c>
       <c r="B58" t="n">
-        <v>56.98</v>
+        <v>57.06003</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>46041.1875</v>
       </c>
       <c r="B59" t="n">
-        <v>57.76254</v>
+        <v>59.1451</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>46041.20833333334</v>
       </c>
       <c r="B60" t="n">
-        <v>57.06003</v>
+        <v>57.99562</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>46041.22916666666</v>
       </c>
       <c r="B61" t="n">
-        <v>58.81169</v>
+        <v>65</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>46041.25</v>
       </c>
       <c r="B62" t="n">
-        <v>58.02194</v>
+        <v>65</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>46041.29166666666</v>
       </c>
       <c r="B64" t="n">
-        <v>36.06</v>
+        <v>35.88</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
         <v>46041.33333333334</v>
       </c>
       <c r="B66" t="n">
-        <v>5.16569</v>
+        <v>23.61013</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>46041.35416666666</v>
       </c>
       <c r="B67" t="n">
-        <v>0.64744</v>
+        <v>0.7</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>46041.41666666666</v>
       </c>
       <c r="B70" t="n">
-        <v>-6.14712</v>
+        <v>-6.23257</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>46041.4375</v>
       </c>
       <c r="B71" t="n">
-        <v>-7.02049</v>
+        <v>-6.09194</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>46041.45833333334</v>
       </c>
       <c r="B72" t="n">
-        <v>-7.15517</v>
+        <v>-6.17304</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>46041.47916666666</v>
       </c>
       <c r="B73" t="n">
-        <v>-7.67966</v>
+        <v>-6.02722</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2096,7 +2096,7 @@
         <v>46041.5</v>
       </c>
       <c r="B74" t="n">
-        <v>-7.68692</v>
+        <v>-6.94065</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>46041.52083333334</v>
       </c>
       <c r="B75" t="n">
-        <v>-7.23621</v>
+        <v>-6.98156</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>46041.54166666666</v>
       </c>
       <c r="B76" t="n">
-        <v>-6.19058</v>
+        <v>-7.47989</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2159,7 +2159,7 @@
         <v>46041.5625</v>
       </c>
       <c r="B77" t="n">
-        <v>-6.35843</v>
+        <v>-6.06786</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>46041.58333333334</v>
       </c>
       <c r="B78" t="n">
-        <v>-6.06857</v>
+        <v>-5.95332</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>46041.60416666666</v>
       </c>
       <c r="B79" t="n">
-        <v>-5.72243</v>
+        <v>-5.51</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>46041.625</v>
       </c>
       <c r="B80" t="n">
-        <v>-5.51</v>
+        <v>-5.50985</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>46041.64583333334</v>
       </c>
       <c r="B81" t="n">
-        <v>-2.53338</v>
+        <v>-0.95731</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2264,7 +2264,7 @@
         <v>46041.66666666666</v>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>0.00025</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>46041.6875</v>
       </c>
       <c r="B83" t="n">
-        <v>-2.54896</v>
+        <v>-2.54783</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>46041.70833333334</v>
       </c>
       <c r="B84" t="n">
-        <v>-2.40408</v>
+        <v>0.01029</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
         <v>46041.72916666666</v>
       </c>
       <c r="B85" t="n">
-        <v>4.79045</v>
+        <v>5.04892</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>46041.75</v>
       </c>
       <c r="B86" t="n">
-        <v>20.78901</v>
+        <v>20.67051</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>46041.77083333334</v>
       </c>
       <c r="B87" t="n">
-        <v>54.66255</v>
+        <v>55.45586</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>46041.79166666666</v>
       </c>
       <c r="B88" t="n">
-        <v>57.85505</v>
+        <v>57.40696</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>46041.8125</v>
       </c>
       <c r="B89" t="n">
-        <v>71.91437000000001</v>
+        <v>73.20007</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>46041.83333333334</v>
       </c>
       <c r="B90" t="n">
-        <v>68.63066999999999</v>
+        <v>68.75594</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>46041.85416666666</v>
       </c>
       <c r="B91" t="n">
-        <v>66.50706</v>
+        <v>67.64812000000001</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
         <v>46041.875</v>
       </c>
       <c r="B92" t="n">
-        <v>63.83273</v>
+        <v>64.6053</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>46041.89583333334</v>
       </c>
       <c r="B93" t="n">
-        <v>61.9517</v>
+        <v>65</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>46041.91666666666</v>
       </c>
       <c r="B94" t="n">
-        <v>58.95387</v>
+        <v>62.95723</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>46041.9375</v>
       </c>
       <c r="B95" t="n">
-        <v>57.3</v>
+        <v>57.98162</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>46041.95833333334</v>
       </c>
       <c r="B96" t="n">
-        <v>57.06007</v>
+        <v>57.3</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>46041.97916666666</v>
       </c>
       <c r="B97" t="n">
-        <v>57.06003</v>
+        <v>60.2337</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -478,39 +478,39 @@
         <v>46040.27083333334</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>46040.85416666666</v>
+        <v>46040.83333333334</v>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="D2" t="n">
-        <v>52.91999999999999</v>
+        <v>51.02999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>149.216769</v>
+        <v>102.29225175</v>
       </c>
       <c r="F2" t="n">
-        <v>2.819666836734695</v>
+        <v>2.004551278659612</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46040.91666666666</v>
+        <v>46040.89583333334</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>46041.125</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="D3" t="n">
-        <v>18.9</v>
+        <v>20.79</v>
       </c>
       <c r="E3" t="n">
-        <v>520.6762177499999</v>
+        <v>553.9420672499999</v>
       </c>
       <c r="F3" t="n">
-        <v>27.54900623015872</v>
+        <v>26.64464007936508</v>
       </c>
     </row>
     <row r="4">
@@ -527,10 +527,10 @@
         <v>34.02</v>
       </c>
       <c r="E4" t="n">
-        <v>20.29469325000004</v>
+        <v>9.400169999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5965518298059976</v>
+        <v>0.2763130511463845</v>
       </c>
     </row>
   </sheetData>
@@ -1235,7 +1235,7 @@
         <v>46040.64583333334</v>
       </c>
       <c r="B33" t="n">
-        <v>-11.93964</v>
+        <v>-14</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>46040.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>-5.43826</v>
+        <v>-6.93618</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1277,11 +1277,11 @@
         <v>46040.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>-5.41</v>
+        <v>-7.32882</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D35" s="3" t="n">
@@ -1298,11 +1298,11 @@
         <v>46040.70833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>8.2301</v>
+        <v>-5.01</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D36" s="3" t="n">
@@ -1319,7 +1319,7 @@
         <v>46040.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>9.78525</v>
+        <v>8.12758</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         <v>46040.75</v>
       </c>
       <c r="B38" t="n">
-        <v>14.2512</v>
+        <v>23.75089</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>46040.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>29.00544</v>
+        <v>36.0601</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1382,7 +1382,7 @@
         <v>46040.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>30.91231</v>
+        <v>36.2</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         <v>46040.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>56.98</v>
+        <v>56.75206</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         <v>46040.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>49.36694</v>
+        <v>56.98</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1436,7 +1436,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1445,7 +1445,7 @@
         <v>46040.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>56.98</v>
+        <v>57.3</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
         <v>46040.875</v>
       </c>
       <c r="B44" t="n">
-        <v>56.98</v>
+        <v>57.3</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1529,7 +1529,7 @@
         <v>46040.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>50.56345</v>
+        <v>48.69693</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>46040.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>49.15555</v>
+        <v>49.00283</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>46041</v>
       </c>
       <c r="B50" t="n">
-        <v>56.20781</v>
+        <v>49.71727</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
         <v>46041.02083333334</v>
       </c>
       <c r="B51" t="n">
-        <v>56.98</v>
+        <v>56.67913</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>46041.0625</v>
       </c>
       <c r="B53" t="n">
-        <v>57.06003</v>
+        <v>56.98</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
         <v>46041.08333333334</v>
       </c>
       <c r="B54" t="n">
-        <v>56.97996</v>
+        <v>49.66961</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>46041.10416666666</v>
       </c>
       <c r="B55" t="n">
-        <v>56.97996</v>
+        <v>50.31981</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>46041.125</v>
       </c>
       <c r="B56" t="n">
-        <v>57.06003</v>
+        <v>56.97996</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>46041.1875</v>
       </c>
       <c r="B59" t="n">
-        <v>59.1451</v>
+        <v>58.7939</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>46041.20833333334</v>
       </c>
       <c r="B60" t="n">
-        <v>57.99562</v>
+        <v>57.99491</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>46041.22916666666</v>
       </c>
       <c r="B61" t="n">
-        <v>65</v>
+        <v>60.22599</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>46041.3125</v>
       </c>
       <c r="B65" t="n">
-        <v>36.06</v>
+        <v>35.87995</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
         <v>46041.33333333334</v>
       </c>
       <c r="B66" t="n">
-        <v>23.61013</v>
+        <v>6.22283</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>46041.35416666666</v>
       </c>
       <c r="B67" t="n">
-        <v>0.7</v>
+        <v>0.65994</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>46041.375</v>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>2e-05</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         <v>46041.39583333334</v>
       </c>
       <c r="B69" t="n">
-        <v>-5.50985</v>
+        <v>-5.74313</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>46041.41666666666</v>
       </c>
       <c r="B70" t="n">
-        <v>-6.23257</v>
+        <v>-6.16607</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>46041.4375</v>
       </c>
       <c r="B71" t="n">
-        <v>-6.09194</v>
+        <v>-5.58973</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>46041.45833333334</v>
       </c>
       <c r="B72" t="n">
-        <v>-6.17304</v>
+        <v>-5.02552</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>46041.47916666666</v>
       </c>
       <c r="B73" t="n">
-        <v>-6.02722</v>
+        <v>-5.74313</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2096,7 +2096,7 @@
         <v>46041.5</v>
       </c>
       <c r="B74" t="n">
-        <v>-6.94065</v>
+        <v>-5.97681</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>46041.52083333334</v>
       </c>
       <c r="B75" t="n">
-        <v>-6.98156</v>
+        <v>-6.81508</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>46041.54166666666</v>
       </c>
       <c r="B76" t="n">
-        <v>-7.47989</v>
+        <v>-6.75779</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2159,7 +2159,7 @@
         <v>46041.5625</v>
       </c>
       <c r="B77" t="n">
-        <v>-6.06786</v>
+        <v>-6.0733</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>46041.58333333334</v>
       </c>
       <c r="B78" t="n">
-        <v>-5.95332</v>
+        <v>-5.01</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>46041.60416666666</v>
       </c>
       <c r="B79" t="n">
-        <v>-5.51</v>
+        <v>-5.35398</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>46041.625</v>
       </c>
       <c r="B80" t="n">
-        <v>-5.50985</v>
+        <v>-4.74702</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>46041.64583333334</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.95731</v>
+        <v>2e-05</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2264,7 +2264,7 @@
         <v>46041.66666666666</v>
       </c>
       <c r="B82" t="n">
-        <v>0.00025</v>
+        <v>0.00549</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>46041.6875</v>
       </c>
       <c r="B83" t="n">
-        <v>-2.54783</v>
+        <v>-2.5268</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>46041.70833333334</v>
       </c>
       <c r="B84" t="n">
-        <v>0.01029</v>
+        <v>0.19949</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
         <v>46041.72916666666</v>
       </c>
       <c r="B85" t="n">
-        <v>5.04892</v>
+        <v>6.29329</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>46041.75</v>
       </c>
       <c r="B86" t="n">
-        <v>20.67051</v>
+        <v>28.30083</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>46041.77083333334</v>
       </c>
       <c r="B87" t="n">
-        <v>55.45586</v>
+        <v>55.97213</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>46041.79166666666</v>
       </c>
       <c r="B88" t="n">
-        <v>57.40696</v>
+        <v>58.25818</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>46041.8125</v>
       </c>
       <c r="B89" t="n">
-        <v>73.20007</v>
+        <v>75.95748</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>46041.83333333334</v>
       </c>
       <c r="B90" t="n">
-        <v>68.75594</v>
+        <v>77.03646999999999</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>46041.85416666666</v>
       </c>
       <c r="B91" t="n">
-        <v>67.64812000000001</v>
+        <v>68.94773000000001</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
         <v>46041.875</v>
       </c>
       <c r="B92" t="n">
-        <v>64.6053</v>
+        <v>66.7355</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>46041.91666666666</v>
       </c>
       <c r="B94" t="n">
-        <v>62.95723</v>
+        <v>63.40191</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>46041.9375</v>
       </c>
       <c r="B95" t="n">
-        <v>57.98162</v>
+        <v>58.67257</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>46041.95833333334</v>
       </c>
       <c r="B96" t="n">
-        <v>57.3</v>
+        <v>58.20539</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>46041.97916666666</v>
       </c>
       <c r="B97" t="n">
-        <v>60.2337</v>
+        <v>62.16997</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -475,42 +475,42 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46040.27083333334</v>
+        <v>46040.25</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>46040.875</v>
+        <v>46040.8125</v>
       </c>
       <c r="C2" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="D2" t="n">
-        <v>54.81</v>
+        <v>51.02999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>206.949366</v>
+        <v>82.64275499999999</v>
       </c>
       <c r="F2" t="n">
-        <v>3.775759277504105</v>
+        <v>1.619493533215755</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46040.9375</v>
+        <v>46040.89583333334</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>46041.125</v>
       </c>
       <c r="C3" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="D3" t="n">
-        <v>17.01</v>
+        <v>20.79</v>
       </c>
       <c r="E3" t="n">
-        <v>426.3550785</v>
+        <v>564.4766399999999</v>
       </c>
       <c r="F3" t="n">
-        <v>25.0649664021164</v>
+        <v>27.15135353535353</v>
       </c>
     </row>
     <row r="4">
@@ -527,10 +527,10 @@
         <v>34.02</v>
       </c>
       <c r="E4" t="n">
-        <v>-34.45792349999999</v>
+        <v>23.43251625</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.012872530864197</v>
+        <v>0.6887864858906527</v>
       </c>
     </row>
   </sheetData>
@@ -848,7 +848,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1319,7 +1319,7 @@
         <v>46040.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>-6</v>
+        <v>0.29323</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         <v>46040.75</v>
       </c>
       <c r="B38" t="n">
-        <v>17.71906</v>
+        <v>2.26942</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1361,11 +1361,11 @@
         <v>46040.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>30.58443</v>
+        <v>25.70442</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D39" s="3" t="n">
@@ -1382,11 +1382,11 @@
         <v>46040.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>55.38427</v>
+        <v>55.67285</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D40" s="3" t="n">
@@ -1415,7 +1415,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1424,7 +1424,7 @@
         <v>46040.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>56.52615</v>
+        <v>57.53438</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1436,7 +1436,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1445,7 +1445,7 @@
         <v>46040.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>56.98</v>
+        <v>65</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
         <v>46040.875</v>
       </c>
       <c r="B44" t="n">
-        <v>57.3</v>
+        <v>63.40828</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1520,7 +1520,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1529,7 +1529,7 @@
         <v>46040.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>49.04675</v>
+        <v>56.45174</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>46040.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>36.2</v>
+        <v>48.49694</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>46040.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>36.2</v>
+        <v>48.98648</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>46041</v>
       </c>
       <c r="B50" t="n">
-        <v>47.31324</v>
+        <v>49.10815</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
         <v>46041.02083333334</v>
       </c>
       <c r="B51" t="n">
-        <v>56.36108</v>
+        <v>56.66584</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>46041.04166666666</v>
       </c>
       <c r="B52" t="n">
-        <v>57.06003</v>
+        <v>48.59637</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
         <v>46041.08333333334</v>
       </c>
       <c r="B54" t="n">
-        <v>48.4027</v>
+        <v>49.63741</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>46041.10416666666</v>
       </c>
       <c r="B55" t="n">
-        <v>49.72346</v>
+        <v>49.9874</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>46041.125</v>
       </c>
       <c r="B56" t="n">
-        <v>50.63512</v>
+        <v>56.97996</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>46041.1875</v>
       </c>
       <c r="B59" t="n">
-        <v>59.11391</v>
+        <v>58.75342</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>46041.20833333334</v>
       </c>
       <c r="B60" t="n">
-        <v>57.82778</v>
+        <v>57.95516</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>46041.22916666666</v>
       </c>
       <c r="B61" t="n">
-        <v>60.21199</v>
+        <v>60.18442</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>46041.3125</v>
       </c>
       <c r="B65" t="n">
-        <v>4.45932</v>
+        <v>29.2867</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
         <v>46041.33333333334</v>
       </c>
       <c r="B66" t="n">
-        <v>0.51</v>
+        <v>6.03759</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>46041.375</v>
       </c>
       <c r="B68" t="n">
-        <v>-2.83936</v>
+        <v>2e-05</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         <v>46041.39583333334</v>
       </c>
       <c r="B69" t="n">
-        <v>-6.13408</v>
+        <v>-5.7216</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>46041.41666666666</v>
       </c>
       <c r="B70" t="n">
-        <v>-6.33411</v>
+        <v>-6.03995</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>46041.4375</v>
       </c>
       <c r="B71" t="n">
-        <v>-6.12189</v>
+        <v>-6.12917</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>46041.45833333334</v>
       </c>
       <c r="B72" t="n">
-        <v>-6.50816</v>
+        <v>-5.01</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>46041.47916666666</v>
       </c>
       <c r="B73" t="n">
-        <v>-6.25482</v>
+        <v>-5.01</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2096,7 +2096,7 @@
         <v>46041.5</v>
       </c>
       <c r="B74" t="n">
-        <v>-6.07918</v>
+        <v>-5.54648</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>46041.52083333334</v>
       </c>
       <c r="B75" t="n">
-        <v>-6.73139</v>
+        <v>-6.11947</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>46041.54166666666</v>
       </c>
       <c r="B76" t="n">
-        <v>-6.49292</v>
+        <v>-5.50985</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2159,7 +2159,7 @@
         <v>46041.5625</v>
       </c>
       <c r="B77" t="n">
-        <v>-6.21235</v>
+        <v>-2.5945</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>46041.58333333334</v>
       </c>
       <c r="B78" t="n">
-        <v>-5.51</v>
+        <v>2e-05</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>46041.60416666666</v>
       </c>
       <c r="B79" t="n">
-        <v>-5.51</v>
+        <v>2e-05</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>46041.625</v>
       </c>
       <c r="B80" t="n">
-        <v>-5.01</v>
+        <v>0</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>46041.64583333334</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.96252</v>
+        <v>2e-05</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2264,7 +2264,7 @@
         <v>46041.66666666666</v>
       </c>
       <c r="B82" t="n">
-        <v>0.00025</v>
+        <v>0.00047</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>46041.6875</v>
       </c>
       <c r="B83" t="n">
-        <v>-2.48837</v>
+        <v>-2.48761</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>46041.70833333334</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.50876</v>
+        <v>0.43069</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
         <v>46041.72916666666</v>
       </c>
       <c r="B85" t="n">
-        <v>0.91882</v>
+        <v>0.9195</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>46041.75</v>
       </c>
       <c r="B86" t="n">
-        <v>20.22705</v>
+        <v>12.59745</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>46041.77083333334</v>
       </c>
       <c r="B87" t="n">
-        <v>53.6751</v>
+        <v>53.45632</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>46041.79166666666</v>
       </c>
       <c r="B88" t="n">
-        <v>57.3908</v>
+        <v>56.95316</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>46041.8125</v>
       </c>
       <c r="B89" t="n">
-        <v>77.49445</v>
+        <v>76.92748</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>46041.83333333334</v>
       </c>
       <c r="B90" t="n">
-        <v>75.93411</v>
+        <v>73.20007</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
         <v>46041.875</v>
       </c>
       <c r="B92" t="n">
-        <v>68.44318</v>
+        <v>68.44448</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>46041.91666666666</v>
       </c>
       <c r="B94" t="n">
-        <v>62.9353</v>
+        <v>62.93811</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>46041.9375</v>
       </c>
       <c r="B95" t="n">
-        <v>59.00814</v>
+        <v>58.95394</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>46041.95833333334</v>
       </c>
       <c r="B96" t="n">
-        <v>58.18858</v>
+        <v>57.97171</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -475,42 +475,42 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46040.25</v>
+        <v>46040.27083333334</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>46040.8125</v>
+        <v>46040.85416666666</v>
       </c>
       <c r="C2" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>51.02999999999999</v>
+        <v>52.91999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>82.64275499999999</v>
+        <v>118.342185</v>
       </c>
       <c r="F2" t="n">
-        <v>1.619493533215755</v>
+        <v>2.236246882086168</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46040.89583333334</v>
+        <v>46040.91666666666</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>46041.125</v>
       </c>
       <c r="C3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>20.79</v>
+        <v>18.9</v>
       </c>
       <c r="E3" t="n">
-        <v>564.4766399999999</v>
+        <v>427.33517775</v>
       </c>
       <c r="F3" t="n">
-        <v>27.15135353535353</v>
+        <v>22.61032686507937</v>
       </c>
     </row>
     <row r="4">
@@ -527,10 +527,10 @@
         <v>34.02</v>
       </c>
       <c r="E4" t="n">
-        <v>23.43251625</v>
+        <v>9.549998250000009</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6887864858906527</v>
+        <v>0.2807171737213407</v>
       </c>
     </row>
   </sheetData>
@@ -848,7 +848,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1361,7 +1361,7 @@
         <v>46040.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>25.70442</v>
+        <v>4.23686</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1382,7 +1382,7 @@
         <v>46040.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>55.67285</v>
+        <v>56.85524</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1403,11 +1403,11 @@
         <v>46040.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>57.3</v>
+        <v>56.98</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D41" s="3" t="n">
@@ -1415,7 +1415,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1424,11 +1424,11 @@
         <v>46040.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>57.53438</v>
+        <v>56.98</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D42" s="3" t="n">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1445,7 +1445,7 @@
         <v>46040.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>65</v>
+        <v>57.3</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
         <v>46040.875</v>
       </c>
       <c r="B44" t="n">
-        <v>63.40828</v>
+        <v>57.8068</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>46040.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>56.98</v>
+        <v>57.3</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1508,7 +1508,7 @@
         <v>46040.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>57.06007</v>
+        <v>56.98</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
         <v>46040.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>56.45174</v>
+        <v>47.11292</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>46040.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>48.49694</v>
+        <v>36.2</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>46040.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>48.98648</v>
+        <v>36.2</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>46041</v>
       </c>
       <c r="B50" t="n">
-        <v>49.10815</v>
+        <v>36.2</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
         <v>46041.02083333334</v>
       </c>
       <c r="B51" t="n">
-        <v>56.66584</v>
+        <v>36.2</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>46041.04166666666</v>
       </c>
       <c r="B52" t="n">
-        <v>48.59637</v>
+        <v>36.2</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
         <v>46041.08333333334</v>
       </c>
       <c r="B54" t="n">
-        <v>49.63741</v>
+        <v>47.79916</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>46041.10416666666</v>
       </c>
       <c r="B55" t="n">
-        <v>49.9874</v>
+        <v>48.42041</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>46041.125</v>
       </c>
       <c r="B56" t="n">
-        <v>56.97996</v>
+        <v>49.90902</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>46041.1875</v>
       </c>
       <c r="B59" t="n">
-        <v>58.75342</v>
+        <v>57.06003</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>46041.20833333334</v>
       </c>
       <c r="B60" t="n">
-        <v>57.95516</v>
+        <v>58.29092</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>46041.22916666666</v>
       </c>
       <c r="B61" t="n">
-        <v>60.18442</v>
+        <v>60.17508</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>46041.3125</v>
       </c>
       <c r="B65" t="n">
-        <v>29.2867</v>
+        <v>36.06</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
         <v>46041.33333333334</v>
       </c>
       <c r="B66" t="n">
-        <v>6.03759</v>
+        <v>0.7</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>46041.375</v>
       </c>
       <c r="B68" t="n">
-        <v>2e-05</v>
+        <v>0.01003</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         <v>46041.39583333334</v>
       </c>
       <c r="B69" t="n">
-        <v>-5.7216</v>
+        <v>-5.6862</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>46041.41666666666</v>
       </c>
       <c r="B70" t="n">
-        <v>-6.03995</v>
+        <v>-6.14423</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>46041.4375</v>
       </c>
       <c r="B71" t="n">
-        <v>-6.12917</v>
+        <v>-6.11853</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2096,7 +2096,7 @@
         <v>46041.5</v>
       </c>
       <c r="B74" t="n">
-        <v>-5.54648</v>
+        <v>-5.50985</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>46041.52083333334</v>
       </c>
       <c r="B75" t="n">
-        <v>-6.11947</v>
+        <v>-5.50985</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>46041.54166666666</v>
       </c>
       <c r="B76" t="n">
-        <v>-5.50985</v>
+        <v>-6.01122</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2159,7 +2159,7 @@
         <v>46041.5625</v>
       </c>
       <c r="B77" t="n">
-        <v>-2.5945</v>
+        <v>-6.07128</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>46041.58333333334</v>
       </c>
       <c r="B78" t="n">
-        <v>2e-05</v>
+        <v>-5.01</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>46041.60416666666</v>
       </c>
       <c r="B79" t="n">
-        <v>2e-05</v>
+        <v>-4.70876</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>46041.625</v>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>-2.57526</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2264,7 +2264,7 @@
         <v>46041.66666666666</v>
       </c>
       <c r="B82" t="n">
-        <v>0.00047</v>
+        <v>0.0003</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>46041.6875</v>
       </c>
       <c r="B83" t="n">
-        <v>-2.48761</v>
+        <v>-2.48809</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>46041.70833333334</v>
       </c>
       <c r="B84" t="n">
-        <v>0.43069</v>
+        <v>0.00976</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
         <v>46041.72916666666</v>
       </c>
       <c r="B85" t="n">
-        <v>0.9195</v>
+        <v>0.40914</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>46041.75</v>
       </c>
       <c r="B86" t="n">
-        <v>12.59745</v>
+        <v>12.60083</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>46041.77083333334</v>
       </c>
       <c r="B87" t="n">
-        <v>53.45632</v>
+        <v>44.45378</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>46041.79166666666</v>
       </c>
       <c r="B88" t="n">
-        <v>56.95316</v>
+        <v>57.38802</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>46041.8125</v>
       </c>
       <c r="B89" t="n">
-        <v>76.92748</v>
+        <v>77.18000000000001</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>46041.83333333334</v>
       </c>
       <c r="B90" t="n">
-        <v>73.20007</v>
+        <v>77.61297999999999</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
         <v>46041.875</v>
       </c>
       <c r="B92" t="n">
-        <v>68.44448</v>
+        <v>65</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>46041.91666666666</v>
       </c>
       <c r="B94" t="n">
-        <v>62.93811</v>
+        <v>61.17796</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>46041.9375</v>
       </c>
       <c r="B95" t="n">
-        <v>58.95394</v>
+        <v>58.65468</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>46041.95833333334</v>
       </c>
       <c r="B96" t="n">
-        <v>57.97171</v>
+        <v>57.64573</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>46041.97916666666</v>
       </c>
       <c r="B97" t="n">
-        <v>61.96632</v>
+        <v>61.65027</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -475,42 +475,42 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46040.27083333334</v>
+        <v>46040.25</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>46040.85416666666</v>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="D2" t="n">
-        <v>52.91999999999999</v>
+        <v>54.81</v>
       </c>
       <c r="E2" t="n">
-        <v>118.342185</v>
+        <v>143.6525415</v>
       </c>
       <c r="F2" t="n">
-        <v>2.236246882086168</v>
+        <v>2.620918472906404</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46040.91666666666</v>
+        <v>46040.9375</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>46041.125</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="D3" t="n">
-        <v>18.9</v>
+        <v>17.01</v>
       </c>
       <c r="E3" t="n">
-        <v>427.33517775</v>
+        <v>398.40378825</v>
       </c>
       <c r="F3" t="n">
-        <v>22.61032686507937</v>
+        <v>23.42173946208113</v>
       </c>
     </row>
     <row r="4">
@@ -527,10 +527,10 @@
         <v>34.02</v>
       </c>
       <c r="E4" t="n">
-        <v>9.549998250000009</v>
+        <v>69.74660550000003</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2807171737213407</v>
+        <v>2.050164770723105</v>
       </c>
     </row>
   </sheetData>
@@ -848,7 +848,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1382,7 +1382,7 @@
         <v>46040.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>56.85524</v>
+        <v>36.2</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         <v>46040.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>56.98</v>
+        <v>46.53455</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1445,11 +1445,11 @@
         <v>46040.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>57.3</v>
+        <v>62.21582</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D43" s="3" t="n">
@@ -1466,11 +1466,11 @@
         <v>46040.875</v>
       </c>
       <c r="B44" t="n">
-        <v>57.8068</v>
+        <v>62.97041</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D44" s="3" t="n">
@@ -1508,7 +1508,7 @@
         <v>46040.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>56.98</v>
+        <v>57.06007</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1529,7 +1529,7 @@
         <v>46040.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>47.11292</v>
+        <v>56.98</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>46040.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>36.2</v>
+        <v>55.57436</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>46040.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>36.2</v>
+        <v>49.23901</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>46041</v>
       </c>
       <c r="B50" t="n">
-        <v>36.2</v>
+        <v>49.34509</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
         <v>46041.02083333334</v>
       </c>
       <c r="B51" t="n">
-        <v>36.2</v>
+        <v>55.94746</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>46041.04166666666</v>
       </c>
       <c r="B52" t="n">
-        <v>36.2</v>
+        <v>40.54</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>46041.0625</v>
       </c>
       <c r="B53" t="n">
-        <v>56.98</v>
+        <v>35.86</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
         <v>46041.08333333334</v>
       </c>
       <c r="B54" t="n">
-        <v>47.79916</v>
+        <v>29.25339</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>46041.10416666666</v>
       </c>
       <c r="B55" t="n">
-        <v>48.42041</v>
+        <v>35.87996</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>46041.125</v>
       </c>
       <c r="B56" t="n">
-        <v>49.90902</v>
+        <v>36.2</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>46041.14583333334</v>
       </c>
       <c r="B57" t="n">
-        <v>56.98</v>
+        <v>45.21307</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>46041.1875</v>
       </c>
       <c r="B59" t="n">
-        <v>57.06003</v>
+        <v>58.71596</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>46041.20833333334</v>
       </c>
       <c r="B60" t="n">
-        <v>58.29092</v>
+        <v>58.95696</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>46041.22916666666</v>
       </c>
       <c r="B61" t="n">
-        <v>60.17508</v>
+        <v>65</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>46041.29166666666</v>
       </c>
       <c r="B64" t="n">
-        <v>35.88</v>
+        <v>36.06</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
         <v>46041.33333333334</v>
       </c>
       <c r="B66" t="n">
-        <v>0.7</v>
+        <v>24.92768</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>46041.35416666666</v>
       </c>
       <c r="B67" t="n">
-        <v>0.51</v>
+        <v>22.07</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>46041.375</v>
       </c>
       <c r="B68" t="n">
-        <v>0.01003</v>
+        <v>0.51</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         <v>46041.39583333334</v>
       </c>
       <c r="B69" t="n">
-        <v>-5.6862</v>
+        <v>-5.01</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>46041.41666666666</v>
       </c>
       <c r="B70" t="n">
-        <v>-6.14423</v>
+        <v>-5.50985</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>46041.4375</v>
       </c>
       <c r="B71" t="n">
-        <v>-6.11853</v>
+        <v>-5.79092</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>46041.45833333334</v>
       </c>
       <c r="B72" t="n">
-        <v>-5.01</v>
+        <v>-4.83724</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>46041.47916666666</v>
       </c>
       <c r="B73" t="n">
-        <v>-5.01</v>
+        <v>-5.50985</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>46041.52083333334</v>
       </c>
       <c r="B75" t="n">
-        <v>-5.50985</v>
+        <v>-4.85271</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>46041.54166666666</v>
       </c>
       <c r="B76" t="n">
-        <v>-6.01122</v>
+        <v>-5.01</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2159,7 +2159,7 @@
         <v>46041.5625</v>
       </c>
       <c r="B77" t="n">
-        <v>-6.07128</v>
+        <v>-2.5711</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>46041.58333333334</v>
       </c>
       <c r="B78" t="n">
-        <v>-5.01</v>
+        <v>0</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>46041.60416666666</v>
       </c>
       <c r="B79" t="n">
-        <v>-4.70876</v>
+        <v>-0.91982</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>46041.625</v>
       </c>
       <c r="B80" t="n">
-        <v>-2.57526</v>
+        <v>-2.57161</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>46041.64583333334</v>
       </c>
       <c r="B81" t="n">
-        <v>2e-05</v>
+        <v>0.00025</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2264,7 +2264,7 @@
         <v>46041.66666666666</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0003</v>
+        <v>0.00048</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>46041.6875</v>
       </c>
       <c r="B83" t="n">
-        <v>-2.48809</v>
+        <v>-5.25561</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>46041.70833333334</v>
       </c>
       <c r="B84" t="n">
-        <v>0.00976</v>
+        <v>-2.53803</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
         <v>46041.72916666666</v>
       </c>
       <c r="B85" t="n">
-        <v>0.40914</v>
+        <v>0.01346</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>46041.75</v>
       </c>
       <c r="B86" t="n">
-        <v>12.60083</v>
+        <v>12.05992</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>46041.77083333334</v>
       </c>
       <c r="B87" t="n">
-        <v>44.45378</v>
+        <v>52.67227</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>46041.79166666666</v>
       </c>
       <c r="B88" t="n">
-        <v>57.38802</v>
+        <v>57.46321</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>46041.8125</v>
       </c>
       <c r="B89" t="n">
-        <v>77.18000000000001</v>
+        <v>62.05077</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>46041.83333333334</v>
       </c>
       <c r="B90" t="n">
-        <v>77.61297999999999</v>
+        <v>73.20007</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
         <v>46041.875</v>
       </c>
       <c r="B92" t="n">
-        <v>65</v>
+        <v>69.62199</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>46041.91666666666</v>
       </c>
       <c r="B94" t="n">
-        <v>61.17796</v>
+        <v>62.98392</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>46041.9375</v>
       </c>
       <c r="B95" t="n">
-        <v>58.65468</v>
+        <v>58.98682</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>46041.95833333334</v>
       </c>
       <c r="B96" t="n">
-        <v>57.64573</v>
+        <v>58.15428</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>46041.97916666666</v>
       </c>
       <c r="B97" t="n">
-        <v>61.65027</v>
+        <v>61.96632</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,22 +475,42 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46041</v>
+        <v>46041.16666666666</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>46041.66666666666</v>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>60.48</v>
+        <v>45.36</v>
       </c>
       <c r="E2" t="n">
-        <v>691.8912779999998</v>
+        <v>341.6364315</v>
       </c>
       <c r="F2" t="n">
-        <v>11.44000128968254</v>
+        <v>7.53166736111111</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>46041.83333333334</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>46042</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.12</v>
+      </c>
+      <c r="E3" t="n">
+        <v>484.6414267499999</v>
+      </c>
+      <c r="F3" t="n">
+        <v>32.05300441468254</v>
       </c>
     </row>
   </sheetData>
@@ -504,7 +524,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,7 +561,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46041</v>
+        <v>46041.02083333334</v>
       </c>
       <c r="B2" t="n">
         <v>57.06003</v>
@@ -556,20 +576,20 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46041.02083333334</v>
+        <v>46041.04166666666</v>
       </c>
       <c r="B3" t="n">
         <v>57.06003</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D3" s="3" t="n">
@@ -577,13 +597,13 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46041.04166666666</v>
+        <v>46041.0625</v>
       </c>
       <c r="B4" t="n">
         <v>56.98</v>
@@ -598,16 +618,16 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46041.0625</v>
+        <v>46041.08333333334</v>
       </c>
       <c r="B5" t="n">
-        <v>48.17243</v>
+        <v>47.65133</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -619,16 +639,16 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>46041.08333333334</v>
+        <v>46041.10416666666</v>
       </c>
       <c r="B6" t="n">
-        <v>35.87995</v>
+        <v>47.99544</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -640,16 +660,16 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>46041.10416666666</v>
+        <v>46041.125</v>
       </c>
       <c r="B7" t="n">
-        <v>35.87996</v>
+        <v>48.31738</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -661,16 +681,16 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>46041.125</v>
+        <v>46041.14583333334</v>
       </c>
       <c r="B8" t="n">
-        <v>35.87996</v>
+        <v>57.06003</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -682,16 +702,16 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>46041.14583333334</v>
+        <v>46041.16666666666</v>
       </c>
       <c r="B9" t="n">
-        <v>36.2</v>
+        <v>57.06003</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -709,10 +729,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>46041.16666666666</v>
+        <v>46041.1875</v>
       </c>
       <c r="B10" t="n">
-        <v>57.06003</v>
+        <v>58.82614</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -730,10 +750,10 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>46041.1875</v>
+        <v>46041.20833333334</v>
       </c>
       <c r="B11" t="n">
-        <v>57.08</v>
+        <v>57.83627</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -751,10 +771,10 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>46041.20833333334</v>
+        <v>46041.22916666666</v>
       </c>
       <c r="B12" t="n">
-        <v>58.91675</v>
+        <v>60.45412</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -772,10 +792,10 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>46041.22916666666</v>
+        <v>46041.25</v>
       </c>
       <c r="B13" t="n">
-        <v>60.00348</v>
+        <v>60.20735</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -793,10 +813,10 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>46041.25</v>
+        <v>46041.27083333334</v>
       </c>
       <c r="B14" t="n">
-        <v>60.36248</v>
+        <v>57.06003</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -814,10 +834,10 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>46041.27083333334</v>
+        <v>46041.29166666666</v>
       </c>
       <c r="B15" t="n">
-        <v>57.06003</v>
+        <v>32.50105</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -835,10 +855,10 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>46041.29166666666</v>
+        <v>46041.3125</v>
       </c>
       <c r="B16" t="n">
-        <v>35.88</v>
+        <v>1.302</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -856,10 +876,10 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>46041.3125</v>
+        <v>46041.33333333334</v>
       </c>
       <c r="B17" t="n">
-        <v>2.75359</v>
+        <v>0.51</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -877,10 +897,10 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>46041.33333333334</v>
+        <v>46041.35416666666</v>
       </c>
       <c r="B18" t="n">
-        <v>0.7</v>
+        <v>6.66416</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -898,10 +918,10 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>46041.35416666666</v>
+        <v>46041.375</v>
       </c>
       <c r="B19" t="n">
-        <v>0.7</v>
+        <v>0.51</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -919,10 +939,10 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>46041.375</v>
+        <v>46041.39583333334</v>
       </c>
       <c r="B20" t="n">
-        <v>0.51</v>
+        <v>-0.9374400000000001</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -940,10 +960,10 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>46041.39583333334</v>
+        <v>46041.41666666666</v>
       </c>
       <c r="B21" t="n">
-        <v>-2.83936</v>
+        <v>-5.50985</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -961,10 +981,10 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>46041.41666666666</v>
+        <v>46041.4375</v>
       </c>
       <c r="B22" t="n">
-        <v>-5.01</v>
+        <v>-5.92186</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -982,10 +1002,10 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>46041.4375</v>
+        <v>46041.45833333334</v>
       </c>
       <c r="B23" t="n">
-        <v>-5.99221</v>
+        <v>-0.93203</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1003,10 +1023,10 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>46041.45833333334</v>
+        <v>46041.47916666666</v>
       </c>
       <c r="B24" t="n">
-        <v>-5.50985</v>
+        <v>-4.93017</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1024,7 +1044,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>46041.47916666666</v>
+        <v>46041.5</v>
       </c>
       <c r="B25" t="n">
         <v>-5.01</v>
@@ -1045,10 +1065,10 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>46041.5</v>
+        <v>46041.52083333334</v>
       </c>
       <c r="B26" t="n">
-        <v>-5.01</v>
+        <v>-5.75827</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1066,10 +1086,10 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>46041.52083333334</v>
+        <v>46041.54166666666</v>
       </c>
       <c r="B27" t="n">
-        <v>-5.01</v>
+        <v>-5.50985</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1087,10 +1107,10 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>46041.54166666666</v>
+        <v>46041.5625</v>
       </c>
       <c r="B28" t="n">
-        <v>-5.36218</v>
+        <v>-5.01</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1108,10 +1128,10 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>46041.5625</v>
+        <v>46041.58333333334</v>
       </c>
       <c r="B29" t="n">
-        <v>-2.83936</v>
+        <v>-2.61261</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1129,10 +1149,10 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>46041.58333333334</v>
+        <v>46041.60416666666</v>
       </c>
       <c r="B30" t="n">
-        <v>-2.633</v>
+        <v>-0.91299</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1150,10 +1170,10 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>46041.60416666666</v>
+        <v>46041.625</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>0.00026</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1171,10 +1191,10 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>46041.625</v>
+        <v>46041.64583333334</v>
       </c>
       <c r="B32" t="n">
-        <v>0.00932</v>
+        <v>0.51</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1192,7 +1212,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>46041.64583333334</v>
+        <v>46041.66666666666</v>
       </c>
       <c r="B33" t="n">
         <v>0.7</v>
@@ -1207,16 +1227,16 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>46041.66666666666</v>
+        <v>46041.6875</v>
       </c>
       <c r="B34" t="n">
-        <v>0.7</v>
+        <v>-2.47201</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1234,10 +1254,10 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>46041.6875</v>
+        <v>46041.70833333334</v>
       </c>
       <c r="B35" t="n">
-        <v>-2.47112</v>
+        <v>-2.54304</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1255,10 +1275,10 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>46041.70833333334</v>
+        <v>46041.72916666666</v>
       </c>
       <c r="B36" t="n">
-        <v>-2.561</v>
+        <v>0.00957</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1276,10 +1296,10 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>46041.72916666666</v>
+        <v>46041.75</v>
       </c>
       <c r="B37" t="n">
-        <v>0.85345</v>
+        <v>11.99698</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1297,10 +1317,10 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>46041.75</v>
+        <v>46041.77083333334</v>
       </c>
       <c r="B38" t="n">
-        <v>11.98884</v>
+        <v>52.39947</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1318,10 +1338,10 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>46041.77083333334</v>
+        <v>46041.79166666666</v>
       </c>
       <c r="B39" t="n">
-        <v>53.24872</v>
+        <v>56.74129</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1339,10 +1359,10 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>46041.79166666666</v>
+        <v>46041.8125</v>
       </c>
       <c r="B40" t="n">
-        <v>56.70352</v>
+        <v>62.07578</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1360,10 +1380,10 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>46041.8125</v>
+        <v>46041.83333333334</v>
       </c>
       <c r="B41" t="n">
-        <v>64.02524</v>
+        <v>65</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1375,16 +1395,16 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>46041.83333333334</v>
+        <v>46041.85416666666</v>
       </c>
       <c r="B42" t="n">
-        <v>67.83107</v>
+        <v>65</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1396,13 +1416,13 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>46041.85416666666</v>
+        <v>46041.875</v>
       </c>
       <c r="B43" t="n">
         <v>65</v>
@@ -1417,16 +1437,16 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>46041.875</v>
+        <v>46041.89583333334</v>
       </c>
       <c r="B44" t="n">
-        <v>65</v>
+        <v>62.49071</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1438,16 +1458,16 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>46041.89583333334</v>
+        <v>46041.91666666666</v>
       </c>
       <c r="B45" t="n">
-        <v>65</v>
+        <v>61.16151</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1459,16 +1479,16 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>46041.91666666666</v>
+        <v>46041.9375</v>
       </c>
       <c r="B46" t="n">
-        <v>61.25461</v>
+        <v>58.63887</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1480,16 +1500,16 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>46041.9375</v>
+        <v>46041.95833333334</v>
       </c>
       <c r="B47" t="n">
-        <v>59.32564</v>
+        <v>58.14989</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1501,16 +1521,16 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>46041.95833333334</v>
+        <v>46041.97916666666</v>
       </c>
       <c r="B48" t="n">
-        <v>58.48649</v>
+        <v>61.62715</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1522,28 +1542,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>OFF</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>46041.97916666666</v>
-      </c>
-      <c r="B49" t="n">
-        <v>62.04825</v>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D49" s="3" t="n">
-        <v>46041</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -487,10 +487,10 @@
         <v>60.48</v>
       </c>
       <c r="E2" t="n">
-        <v>772.50727125</v>
+        <v>751.1665979999999</v>
       </c>
       <c r="F2" t="n">
-        <v>12.77293768601191</v>
+        <v>12.42008263888889</v>
       </c>
     </row>
   </sheetData>
@@ -649,7 +649,7 @@
         <v>46041.10416666666</v>
       </c>
       <c r="B7" t="n">
-        <v>57.06003</v>
+        <v>35.87996</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>46041.125</v>
       </c>
       <c r="B8" t="n">
-        <v>57.06003</v>
+        <v>57.50228</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -691,11 +691,11 @@
         <v>46041.14583333334</v>
       </c>
       <c r="B9" t="n">
-        <v>57.83179</v>
+        <v>58.03822</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D9" s="3" t="n">
@@ -712,11 +712,11 @@
         <v>46041.16666666666</v>
       </c>
       <c r="B10" t="n">
-        <v>57.48786</v>
+        <v>57.52849</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D10" s="3" t="n">
@@ -733,7 +733,7 @@
         <v>46041.1875</v>
       </c>
       <c r="B11" t="n">
-        <v>60.39169</v>
+        <v>61.43135</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>46041.20833333334</v>
       </c>
       <c r="B12" t="n">
-        <v>60.34276</v>
+        <v>60.04433</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -775,7 +775,7 @@
         <v>46041.22916666666</v>
       </c>
       <c r="B13" t="n">
-        <v>71.95779</v>
+        <v>65</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>46041.3125</v>
       </c>
       <c r="B17" t="n">
-        <v>7.82154</v>
+        <v>10.07303</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         <v>46041.33333333334</v>
       </c>
       <c r="B18" t="n">
-        <v>0.7</v>
+        <v>7.0734</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -901,7 +901,7 @@
         <v>46041.35416666666</v>
       </c>
       <c r="B19" t="n">
-        <v>7.00436</v>
+        <v>7.08291</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
         <v>46041.375</v>
       </c>
       <c r="B20" t="n">
-        <v>0.7</v>
+        <v>0.68371</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>46041.39583333334</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.94872</v>
+        <v>-3.6481</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         <v>46041.4375</v>
       </c>
       <c r="B23" t="n">
-        <v>-5.01</v>
+        <v>-5.74313</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>46041.45833333334</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>-6.1096</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>46041.47916666666</v>
       </c>
       <c r="B25" t="n">
-        <v>-5.82017</v>
+        <v>-2.83936</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>46041.5</v>
       </c>
       <c r="B26" t="n">
-        <v>-4.658</v>
+        <v>-5.50985</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1069,7 +1069,7 @@
         <v>46041.52083333334</v>
       </c>
       <c r="B27" t="n">
-        <v>-5.17224</v>
+        <v>-5.01</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>46041.54166666666</v>
       </c>
       <c r="B28" t="n">
-        <v>-5.50985</v>
+        <v>-0.89316</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         <v>46041.5625</v>
       </c>
       <c r="B29" t="n">
-        <v>-2.83936</v>
+        <v>-5.01</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1132,7 +1132,7 @@
         <v>46041.58333333334</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.93813</v>
+        <v>2e-05</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>46041.625</v>
       </c>
       <c r="B32" t="n">
-        <v>0.009469999999999999</v>
+        <v>0.00848</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>46041.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>1.21401</v>
+        <v>1.68233</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>46041.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.91614</v>
+        <v>-2.49239</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>46041.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>0.33937</v>
+        <v>0.85381</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>46041.75</v>
       </c>
       <c r="B38" t="n">
-        <v>12.09882</v>
+        <v>12.09485</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>46041.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>43.32325</v>
+        <v>42.36398</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         <v>46041.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>56.77711</v>
+        <v>56.76084</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>46041.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>60.96077</v>
+        <v>64.02197</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         <v>46041.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>65</v>
+        <v>59.67565</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>46041.875</v>
       </c>
       <c r="B44" t="n">
-        <v>62.69405</v>
+        <v>65</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>46041.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>62.96752</v>
+        <v>62.50682</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         <v>46041.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>61.4952</v>
+        <v>61.52231</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>46041.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>58.97571</v>
+        <v>58.9823</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1510,7 +1510,7 @@
         <v>46041.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>58.48808</v>
+        <v>58.49509</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>46041.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>62.01329</v>
+        <v>62.01673</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -487,10 +487,10 @@
         <v>60.48</v>
       </c>
       <c r="E2" t="n">
-        <v>751.1665979999999</v>
+        <v>719.6379644999998</v>
       </c>
       <c r="F2" t="n">
-        <v>12.42008263888889</v>
+        <v>11.89877586805555</v>
       </c>
     </row>
   </sheetData>
@@ -670,7 +670,7 @@
         <v>46041.125</v>
       </c>
       <c r="B8" t="n">
-        <v>57.50228</v>
+        <v>36.2</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>46041.14583333334</v>
       </c>
       <c r="B9" t="n">
-        <v>58.03822</v>
+        <v>48.37963</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
         <v>46041.16666666666</v>
       </c>
       <c r="B10" t="n">
-        <v>57.52849</v>
+        <v>57.08</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -733,11 +733,11 @@
         <v>46041.1875</v>
       </c>
       <c r="B11" t="n">
-        <v>61.43135</v>
+        <v>61.81795</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D11" s="3" t="n">
@@ -754,11 +754,11 @@
         <v>46041.20833333334</v>
       </c>
       <c r="B12" t="n">
-        <v>60.04433</v>
+        <v>60.49589</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D12" s="3" t="n">
@@ -775,7 +775,7 @@
         <v>46041.22916666666</v>
       </c>
       <c r="B13" t="n">
-        <v>65</v>
+        <v>71.97167</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>46041.29166666666</v>
       </c>
       <c r="B16" t="n">
-        <v>35.88</v>
+        <v>36.06</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>46041.3125</v>
       </c>
       <c r="B17" t="n">
-        <v>10.07303</v>
+        <v>8.797459999999999</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         <v>46041.33333333334</v>
       </c>
       <c r="B18" t="n">
-        <v>7.0734</v>
+        <v>0.7</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -901,7 +901,7 @@
         <v>46041.35416666666</v>
       </c>
       <c r="B19" t="n">
-        <v>7.08291</v>
+        <v>0.7</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
         <v>46041.375</v>
       </c>
       <c r="B20" t="n">
-        <v>0.68371</v>
+        <v>0.7</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>46041.39583333334</v>
       </c>
       <c r="B21" t="n">
-        <v>-3.6481</v>
+        <v>-2.83936</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>46041.45833333334</v>
       </c>
       <c r="B24" t="n">
-        <v>-6.1096</v>
+        <v>-5.74313</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>46041.47916666666</v>
       </c>
       <c r="B25" t="n">
-        <v>-2.83936</v>
+        <v>0</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>46041.5</v>
       </c>
       <c r="B26" t="n">
-        <v>-5.50985</v>
+        <v>-2.83936</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1069,7 +1069,7 @@
         <v>46041.52083333334</v>
       </c>
       <c r="B27" t="n">
-        <v>-5.01</v>
+        <v>-4.6323</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>46041.54166666666</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.89316</v>
+        <v>-4.73809</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         <v>46041.5625</v>
       </c>
       <c r="B29" t="n">
-        <v>-5.01</v>
+        <v>-2.69309</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1132,7 +1132,7 @@
         <v>46041.58333333334</v>
       </c>
       <c r="B30" t="n">
-        <v>2e-05</v>
+        <v>-0.93819</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>46041.60416666666</v>
       </c>
       <c r="B31" t="n">
-        <v>2e-05</v>
+        <v>3e-05</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>46041.625</v>
       </c>
       <c r="B32" t="n">
-        <v>0.00848</v>
+        <v>0.51</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>46041.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>1.68233</v>
+        <v>1.67481</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>46041.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>-2.49239</v>
+        <v>-2.49115</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>46041.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>0.85381</v>
+        <v>0.009650000000000001</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>46041.75</v>
       </c>
       <c r="B38" t="n">
-        <v>12.09485</v>
+        <v>12.0924</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>46041.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>42.36398</v>
+        <v>42.36428</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         <v>46041.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>56.76084</v>
+        <v>56.7552</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>46041.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>64.02197</v>
+        <v>59.19183</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         <v>46041.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>59.67565</v>
+        <v>65</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>46041.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>62.50682</v>
+        <v>62.96274</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         <v>46041.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>61.52231</v>
+        <v>61.15479</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>46041.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>58.9823</v>
+        <v>58.98416</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1510,7 +1510,7 @@
         <v>46041.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>58.49509</v>
+        <v>58.49624</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>46041.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>62.01673</v>
+        <v>62.01821</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -487,10 +487,10 @@
         <v>60.48</v>
       </c>
       <c r="E2" t="n">
-        <v>667.18018575</v>
+        <v>683.2300507500001</v>
       </c>
       <c r="F2" t="n">
-        <v>11.03141841517857</v>
+        <v>11.2967931671627</v>
       </c>
     </row>
   </sheetData>
@@ -775,7 +775,7 @@
         <v>46041.22916666666</v>
       </c>
       <c r="B13" t="n">
-        <v>59.72842</v>
+        <v>59.38996</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -796,7 +796,7 @@
         <v>46041.25</v>
       </c>
       <c r="B14" t="n">
-        <v>65</v>
+        <v>58.22729</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -821,7 +821,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D15" s="3" t="n">
@@ -838,11 +838,11 @@
         <v>46041.29166666666</v>
       </c>
       <c r="B16" t="n">
-        <v>33.08222</v>
+        <v>35.88</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D16" s="3" t="n">
@@ -859,7 +859,7 @@
         <v>46041.3125</v>
       </c>
       <c r="B17" t="n">
-        <v>0.98766</v>
+        <v>18.52411</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         <v>46041.33333333334</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -901,7 +901,7 @@
         <v>46041.35416666666</v>
       </c>
       <c r="B19" t="n">
-        <v>0.51</v>
+        <v>0.0101</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
         <v>46041.375</v>
       </c>
       <c r="B20" t="n">
-        <v>4e-05</v>
+        <v>0</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>46041.39583333334</v>
       </c>
       <c r="B21" t="n">
-        <v>-5.01</v>
+        <v>-5.50985</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         <v>46041.41666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>-5.50985</v>
+        <v>-5.74313</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>46041.45833333334</v>
       </c>
       <c r="B24" t="n">
-        <v>-5.17224</v>
+        <v>-5.50985</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>46041.47916666666</v>
       </c>
       <c r="B25" t="n">
-        <v>-5.50985</v>
+        <v>-2.83936</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>46041.5</v>
       </c>
       <c r="B26" t="n">
-        <v>-5.17224</v>
+        <v>-5.82892</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1069,7 +1069,7 @@
         <v>46041.52083333334</v>
       </c>
       <c r="B27" t="n">
-        <v>-6.03975</v>
+        <v>-5.50985</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>46041.54166666666</v>
       </c>
       <c r="B28" t="n">
-        <v>-5.74313</v>
+        <v>-6.00674</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         <v>46041.5625</v>
       </c>
       <c r="B29" t="n">
-        <v>-4.82081</v>
+        <v>-5.50985</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1132,7 +1132,7 @@
         <v>46041.58333333334</v>
       </c>
       <c r="B30" t="n">
-        <v>-3.6481</v>
+        <v>-0.93941</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>46041.60416666666</v>
       </c>
       <c r="B31" t="n">
-        <v>-2.5941</v>
+        <v>-2.59483</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>46041.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0003</v>
+        <v>0.00025</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>46041.70833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>-0.8372000000000001</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>46041.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>0.20106</v>
+        <v>0.20113</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>46041.75</v>
       </c>
       <c r="B38" t="n">
-        <v>12.27791</v>
+        <v>12.28008</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>46041.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>42.27416</v>
+        <v>42.27439</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         <v>46041.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>56.22722</v>
+        <v>56.23621</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>46041.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>62.41906</v>
+        <v>60.86769</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         <v>46041.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>65</v>
+        <v>59.25265</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>46041.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>59.92511</v>
+        <v>65</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>46041.875</v>
       </c>
       <c r="B44" t="n">
-        <v>61.34626</v>
+        <v>65</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>46041.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>62.95966</v>
+        <v>62.96535</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         <v>46041.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>61.72504</v>
+        <v>61.73186</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>46041.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>60.03504</v>
+        <v>60.03598</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>46041.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>62.07511</v>
+        <v>62.07428</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -507,10 +507,10 @@
         <v>35.91</v>
       </c>
       <c r="E3" t="n">
-        <v>52.77443925000003</v>
+        <v>52.26773175000002</v>
       </c>
       <c r="F3" t="n">
-        <v>1.469630722639934</v>
+        <v>1.455520238095239</v>
       </c>
     </row>
     <row r="4">
@@ -527,10 +527,10 @@
         <v>15.12</v>
       </c>
       <c r="E4" t="n">
-        <v>457.1512432499999</v>
+        <v>471.5901352499999</v>
       </c>
       <c r="F4" t="n">
-        <v>30.23487058531746</v>
+        <v>31.18982375992063</v>
       </c>
     </row>
     <row r="5">
@@ -547,10 +547,10 @@
         <v>34.02</v>
       </c>
       <c r="E5" t="n">
-        <v>-59.26747124999999</v>
+        <v>-60.296652</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.742136133156966</v>
+        <v>-1.77238835978836</v>
       </c>
     </row>
   </sheetData>
@@ -1234,7 +1234,7 @@
         <v>46041.625</v>
       </c>
       <c r="B32" t="n">
-        <v>0.01929</v>
+        <v>0.00016</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
         <v>46041.64583333334</v>
       </c>
       <c r="B33" t="n">
-        <v>0.51</v>
+        <v>0.009429999999999999</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1276,11 +1276,11 @@
         <v>46041.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D34" s="3" t="n">
@@ -1297,7 +1297,7 @@
         <v>46041.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.92309</v>
+        <v>0.7</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>46041.70833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>0.264</v>
+        <v>4.80008</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1339,7 +1339,7 @@
         <v>46041.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>12.24467</v>
+        <v>8.264950000000001</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>46041.75</v>
       </c>
       <c r="B38" t="n">
-        <v>26.68735</v>
+        <v>26.89449</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>46041.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>45.84936</v>
+        <v>57.19078</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         <v>46041.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>59.11456</v>
+        <v>60.89812</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         <v>46041.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>64.01260000000001</v>
+        <v>64.93597</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>46041.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>65</v>
+        <v>68.31175</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>46041.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>62.62134</v>
+        <v>71.46543</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>46041.875</v>
       </c>
       <c r="B44" t="n">
-        <v>64.05184</v>
+        <v>67.32592</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>46041.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>65</v>
+        <v>66.65888</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>46041.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>59.37719</v>
+        <v>64.8901</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         <v>46041.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>57.96819</v>
+        <v>59.37938</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
         <v>46041.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>58.16113</v>
+        <v>60.76462</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
         <v>46041.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>63.63924</v>
+        <v>64.04767</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>46042</v>
       </c>
       <c r="B50" t="n">
-        <v>61.77255</v>
+        <v>63.00946</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>46042.02083333334</v>
       </c>
       <c r="B51" t="n">
-        <v>57.06003</v>
+        <v>61.57869</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>46042.04166666666</v>
       </c>
       <c r="B52" t="n">
-        <v>57.06003</v>
+        <v>63.10166</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>46042.1875</v>
       </c>
       <c r="B59" t="n">
-        <v>57.06003</v>
+        <v>57.49046</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>46042.20833333334</v>
       </c>
       <c r="B60" t="n">
-        <v>64.89</v>
+        <v>65</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>46042.22916666666</v>
       </c>
       <c r="B61" t="n">
-        <v>65.67543000000001</v>
+        <v>77.94</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>46042.25</v>
       </c>
       <c r="B62" t="n">
-        <v>65.2897</v>
+        <v>78</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>46042.27083333334</v>
       </c>
       <c r="B63" t="n">
-        <v>61.31557</v>
+        <v>66.67346999999999</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         <v>46042.3125</v>
       </c>
       <c r="B65" t="n">
-        <v>8.71917</v>
+        <v>8.718500000000001</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>46042.33333333334</v>
       </c>
       <c r="B66" t="n">
-        <v>0.7</v>
+        <v>0.5099399999999999</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>46042.375</v>
       </c>
       <c r="B68" t="n">
-        <v>-2.535</v>
+        <v>-2.55434</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
         <v>46042.39583333334</v>
       </c>
       <c r="B69" t="n">
-        <v>-5.68809</v>
+        <v>-5.62917</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>46042.41666666666</v>
       </c>
       <c r="B70" t="n">
-        <v>-6.48267</v>
+        <v>-6.96628</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>46042.4375</v>
       </c>
       <c r="B71" t="n">
-        <v>-7.87948</v>
+        <v>-6.60898</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         <v>46042.45833333334</v>
       </c>
       <c r="B72" t="n">
-        <v>-8.815630000000001</v>
+        <v>-8.66264</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>46042.47916666666</v>
       </c>
       <c r="B73" t="n">
-        <v>-8.67817</v>
+        <v>-8.643409999999999</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>46042.5</v>
       </c>
       <c r="B74" t="n">
-        <v>-9.99</v>
+        <v>-9.68276</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>46042.52083333334</v>
       </c>
       <c r="B75" t="n">
-        <v>-9.99</v>
+        <v>-10</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
         <v>46042.54166666666</v>
       </c>
       <c r="B76" t="n">
-        <v>-8.3056</v>
+        <v>-9.551170000000001</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>46042.5625</v>
       </c>
       <c r="B77" t="n">
-        <v>-8.293850000000001</v>
+        <v>-8.70303</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>46042.58333333334</v>
       </c>
       <c r="B78" t="n">
-        <v>-8.12302</v>
+        <v>-8.271380000000001</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>46042.60416666666</v>
       </c>
       <c r="B79" t="n">
-        <v>-7.98411</v>
+        <v>-7.88906</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>46042.625</v>
       </c>
       <c r="B80" t="n">
-        <v>-7.00778</v>
+        <v>-7.96894</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>46042.64583333334</v>
       </c>
       <c r="B81" t="n">
-        <v>-6.49292</v>
+        <v>-6</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>46042.66666666666</v>
       </c>
       <c r="B82" t="n">
-        <v>-5.51</v>
+        <v>-2.84369</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>46042.6875</v>
       </c>
       <c r="B83" t="n">
-        <v>-5.16677</v>
+        <v>-5.5912</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>46042.70833333334</v>
       </c>
       <c r="B84" t="n">
-        <v>-2.9952</v>
+        <v>-2.96533</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         <v>46042.72916666666</v>
       </c>
       <c r="B85" t="n">
-        <v>0.01019</v>
+        <v>0.01012</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>46042.75</v>
       </c>
       <c r="B86" t="n">
-        <v>9.523630000000001</v>
+        <v>9.522930000000001</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         <v>46042.77083333334</v>
       </c>
       <c r="B87" t="n">
-        <v>55.62763</v>
+        <v>46.32246</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>46042.79166666666</v>
       </c>
       <c r="B88" t="n">
-        <v>72.86584000000001</v>
+        <v>57.3</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>46042.8125</v>
       </c>
       <c r="B89" t="n">
-        <v>72.78848000000001</v>
+        <v>69.61881</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>46042.83333333334</v>
       </c>
       <c r="B90" t="n">
-        <v>71.8766</v>
+        <v>65</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>46042.875</v>
       </c>
       <c r="B92" t="n">
-        <v>59.15606</v>
+        <v>59.15624</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>46042.89583333334</v>
       </c>
       <c r="B93" t="n">
-        <v>57.3</v>
+        <v>58.33176</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2557,7 +2557,7 @@
         <v>46042.9375</v>
       </c>
       <c r="B95" t="n">
-        <v>59.93919</v>
+        <v>59.93754</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>46042.95833333334</v>
       </c>
       <c r="B96" t="n">
-        <v>63.27752</v>
+        <v>63.27623</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>46042.97916666666</v>
       </c>
       <c r="B97" t="n">
-        <v>64.12223</v>
+        <v>64.12067</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -527,10 +527,10 @@
         <v>15.12</v>
       </c>
       <c r="E4" t="n">
-        <v>456.8181149999999</v>
+        <v>460.8246629999999</v>
       </c>
       <c r="F4" t="n">
-        <v>30.21283829365079</v>
+        <v>30.47782162698412</v>
       </c>
     </row>
     <row r="5">
@@ -547,10 +547,10 @@
         <v>34.02</v>
       </c>
       <c r="E5" t="n">
-        <v>-61.9336575</v>
+        <v>-38.58871575000001</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.820507275132275</v>
+        <v>-1.134294995590829</v>
       </c>
     </row>
   </sheetData>
@@ -1297,7 +1297,7 @@
         <v>46041.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>-5.16887</v>
+        <v>-2.47052</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>46041.70833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>-3.42323</v>
+        <v>0</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1339,7 +1339,7 @@
         <v>46041.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.99633</v>
+        <v>-2.58035</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1360,11 +1360,11 @@
         <v>46041.75</v>
       </c>
       <c r="B38" t="n">
-        <v>9.87266</v>
+        <v>3.34464</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D38" s="3" t="n">
@@ -1381,7 +1381,7 @@
         <v>46041.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>38.23834</v>
+        <v>38.55471</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         <v>46041.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>59.50248</v>
+        <v>57.18142</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         <v>46041.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>63.57365</v>
+        <v>64.53386</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>46041.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>64.46451</v>
+        <v>65</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>46041.875</v>
       </c>
       <c r="B44" t="n">
-        <v>67.39644</v>
+        <v>65.37398</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>46041.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>65.14413999999999</v>
+        <v>65.74816</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>46041.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>64.8901</v>
+        <v>59.50728</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         <v>46041.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>58.35781</v>
+        <v>64.8901</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
         <v>46041.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>58.02218</v>
+        <v>59.04126</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
         <v>46041.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>63.67826</v>
+        <v>63.32463</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>46042</v>
       </c>
       <c r="B50" t="n">
-        <v>61.53081</v>
+        <v>61.17037</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>46042.02083333334</v>
       </c>
       <c r="B51" t="n">
-        <v>57.06003</v>
+        <v>60.8643</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1759,7 +1759,7 @@
         <v>46042.14583333334</v>
       </c>
       <c r="B57" t="n">
-        <v>57.06003</v>
+        <v>61.1294</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         <v>46042.16666666666</v>
       </c>
       <c r="B58" t="n">
-        <v>57.06003</v>
+        <v>63.69192</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>46042.1875</v>
       </c>
       <c r="B59" t="n">
-        <v>57.13092</v>
+        <v>65</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>46042.20833333334</v>
       </c>
       <c r="B60" t="n">
-        <v>65</v>
+        <v>65.21083</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>46042.22916666666</v>
       </c>
       <c r="B61" t="n">
-        <v>67.7428</v>
+        <v>75.57516</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>46042.25</v>
       </c>
       <c r="B62" t="n">
-        <v>67.60051</v>
+        <v>77.94</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>46042.27083333334</v>
       </c>
       <c r="B63" t="n">
-        <v>67.13655</v>
+        <v>75.76638</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>46042.29166666666</v>
       </c>
       <c r="B64" t="n">
-        <v>36.06</v>
+        <v>56.98</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         <v>46042.3125</v>
       </c>
       <c r="B65" t="n">
-        <v>8.78514</v>
+        <v>8.85098</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>46042.35416666666</v>
       </c>
       <c r="B67" t="n">
-        <v>0.01001</v>
+        <v>0.01108</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>46042.375</v>
       </c>
       <c r="B68" t="n">
-        <v>0.00953</v>
+        <v>-2.57556</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
         <v>46042.39583333334</v>
       </c>
       <c r="B69" t="n">
-        <v>-5.50985</v>
+        <v>-6</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>46042.41666666666</v>
       </c>
       <c r="B70" t="n">
-        <v>-6.58192</v>
+        <v>-7.01255</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>46042.4375</v>
       </c>
       <c r="B71" t="n">
-        <v>-7.59468</v>
+        <v>-6.7961</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         <v>46042.45833333334</v>
       </c>
       <c r="B72" t="n">
-        <v>-9.99</v>
+        <v>-8.13832</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>46042.47916666666</v>
       </c>
       <c r="B73" t="n">
-        <v>-8.222060000000001</v>
+        <v>-7.78537</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>46042.5</v>
       </c>
       <c r="B74" t="n">
-        <v>-9.70499</v>
+        <v>-7.78335</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>46042.52083333334</v>
       </c>
       <c r="B75" t="n">
-        <v>-10.47783</v>
+        <v>-10.7155</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>46042.5625</v>
       </c>
       <c r="B77" t="n">
-        <v>-9.55391</v>
+        <v>-8.28947</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>46042.58333333334</v>
       </c>
       <c r="B78" t="n">
-        <v>-8.21705</v>
+        <v>-8.179539999999999</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>46042.60416666666</v>
       </c>
       <c r="B79" t="n">
-        <v>-9.465059999999999</v>
+        <v>-8.558400000000001</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>46042.625</v>
       </c>
       <c r="B80" t="n">
-        <v>-7.40455</v>
+        <v>-7.86778</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>46042.64583333334</v>
       </c>
       <c r="B81" t="n">
-        <v>-6.37448</v>
+        <v>-6.42829</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>46042.66666666666</v>
       </c>
       <c r="B82" t="n">
-        <v>-1.25798</v>
+        <v>-2.80319</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>46042.6875</v>
       </c>
       <c r="B83" t="n">
-        <v>-2.72939</v>
+        <v>-5.51</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>46042.70833333334</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.1267</v>
+        <v>-1.01549</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         <v>46042.72916666666</v>
       </c>
       <c r="B85" t="n">
-        <v>9.53589</v>
+        <v>9.46617</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>46042.75</v>
       </c>
       <c r="B86" t="n">
-        <v>9.66465</v>
+        <v>9.59477</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         <v>46042.77083333334</v>
       </c>
       <c r="B87" t="n">
-        <v>54.14803</v>
+        <v>31.01719</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>46042.79166666666</v>
       </c>
       <c r="B88" t="n">
-        <v>64.8901</v>
+        <v>57.3</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>46042.83333333334</v>
       </c>
       <c r="B90" t="n">
-        <v>64.8901</v>
+        <v>60.56861</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>46042.85416666666</v>
       </c>
       <c r="B91" t="n">
-        <v>59.32108</v>
+        <v>58.94198</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>46042.875</v>
       </c>
       <c r="B92" t="n">
-        <v>58.56705</v>
+        <v>58.58436</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>46042.89583333334</v>
       </c>
       <c r="B93" t="n">
-        <v>57.98785</v>
+        <v>57.84212</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>46042.91666666666</v>
       </c>
       <c r="B94" t="n">
-        <v>59.44475</v>
+        <v>57.3</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2557,7 +2557,7 @@
         <v>46042.9375</v>
       </c>
       <c r="B95" t="n">
-        <v>60.44065</v>
+        <v>58.86227</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>46042.95833333334</v>
       </c>
       <c r="B96" t="n">
-        <v>62.50152</v>
+        <v>61.45254</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -478,19 +478,19 @@
         <v>46041</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>46041.22916666666</v>
+        <v>46041.25</v>
       </c>
       <c r="C2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>20.79</v>
+        <v>22.68</v>
       </c>
       <c r="E2" t="n">
-        <v>509.8020524999999</v>
+        <v>567.7072635</v>
       </c>
       <c r="F2" t="n">
-        <v>24.52150324675324</v>
+        <v>25.03118445767196</v>
       </c>
     </row>
     <row r="3">
@@ -515,10 +515,10 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46041.95833333334</v>
+        <v>46041.97916666666</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>46042.125</v>
+        <v>46042.14583333334</v>
       </c>
       <c r="C4" t="n">
         <v>4</v>
@@ -527,30 +527,30 @@
         <v>15.12</v>
       </c>
       <c r="E4" t="n">
-        <v>460.8246629999999</v>
+        <v>449.6219714999999</v>
       </c>
       <c r="F4" t="n">
-        <v>30.47782162698412</v>
+        <v>29.73690287698412</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46042.29166666666</v>
+        <v>46042.3125</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>46042.66666666666</v>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="D5" t="n">
-        <v>34.02</v>
+        <v>32.13</v>
       </c>
       <c r="E5" t="n">
-        <v>-38.58871575000001</v>
+        <v>-105.39780225</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.134294995590829</v>
+        <v>-3.280354878618114</v>
       </c>
     </row>
   </sheetData>
@@ -847,7 +847,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1339,7 +1339,7 @@
         <v>46041.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>-2.58035</v>
+        <v>0.45799</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>46041.75</v>
       </c>
       <c r="B38" t="n">
-        <v>3.34464</v>
+        <v>11.89734</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1381,11 +1381,11 @@
         <v>46041.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>38.55471</v>
+        <v>0.01116</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D39" s="3" t="n">
@@ -1402,11 +1402,11 @@
         <v>46041.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>57.18142</v>
+        <v>47.73914</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D40" s="3" t="n">
@@ -1423,7 +1423,7 @@
         <v>46041.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>64.53386</v>
+        <v>57.3</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>46041.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>65</v>
+        <v>64.8901</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>46041.875</v>
       </c>
       <c r="B44" t="n">
-        <v>65.37398</v>
+        <v>65</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>46041.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>65.74816</v>
+        <v>65</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>46041.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>59.50728</v>
+        <v>59.20766</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         <v>46041.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>64.8901</v>
+        <v>65</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
         <v>46041.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>59.04126</v>
+        <v>59.77009</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1591,7 +1591,7 @@
         <v>46041.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>63.32463</v>
+        <v>61.73053</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>46042</v>
       </c>
       <c r="B50" t="n">
-        <v>61.17037</v>
+        <v>57.06003</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>46042.02083333334</v>
       </c>
       <c r="B51" t="n">
-        <v>60.8643</v>
+        <v>57.06003</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1759,7 +1759,7 @@
         <v>46042.14583333334</v>
       </c>
       <c r="B57" t="n">
-        <v>61.1294</v>
+        <v>57.06003</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         <v>46042.16666666666</v>
       </c>
       <c r="B58" t="n">
-        <v>63.69192</v>
+        <v>64.06528</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>46042.1875</v>
       </c>
       <c r="B59" t="n">
-        <v>65</v>
+        <v>63.37713</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>46042.20833333334</v>
       </c>
       <c r="B60" t="n">
-        <v>65.21083</v>
+        <v>64.89</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>46042.22916666666</v>
       </c>
       <c r="B61" t="n">
-        <v>75.57516</v>
+        <v>68.88809999999999</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>46042.25</v>
       </c>
       <c r="B62" t="n">
-        <v>77.94</v>
+        <v>76.59223</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>46042.27083333334</v>
       </c>
       <c r="B63" t="n">
-        <v>75.76638</v>
+        <v>69.14248000000001</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1927,7 +1927,7 @@
         <v>46042.3125</v>
       </c>
       <c r="B65" t="n">
-        <v>8.85098</v>
+        <v>4.78431</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>46042.33333333334</v>
       </c>
       <c r="B66" t="n">
-        <v>0.7</v>
+        <v>0.05444</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>46042.35416666666</v>
       </c>
       <c r="B67" t="n">
-        <v>0.01108</v>
+        <v>0.0101</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>46042.375</v>
       </c>
       <c r="B68" t="n">
-        <v>-2.57556</v>
+        <v>-2.54301</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>46042.41666666666</v>
       </c>
       <c r="B70" t="n">
-        <v>-7.01255</v>
+        <v>-7.17554</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>46042.4375</v>
       </c>
       <c r="B71" t="n">
-        <v>-6.7961</v>
+        <v>-7.11442</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         <v>46042.45833333334</v>
       </c>
       <c r="B72" t="n">
-        <v>-8.13832</v>
+        <v>-7.93212</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>46042.47916666666</v>
       </c>
       <c r="B73" t="n">
-        <v>-7.78537</v>
+        <v>-7.92499</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>46042.5</v>
       </c>
       <c r="B74" t="n">
-        <v>-7.78335</v>
+        <v>-6.91615</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>46042.52083333334</v>
       </c>
       <c r="B75" t="n">
-        <v>-10.7155</v>
+        <v>-9.99</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
         <v>46042.54166666666</v>
       </c>
       <c r="B76" t="n">
-        <v>-9.99</v>
+        <v>-10</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>46042.5625</v>
       </c>
       <c r="B77" t="n">
-        <v>-8.28947</v>
+        <v>-11.01</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>46042.58333333334</v>
       </c>
       <c r="B78" t="n">
-        <v>-8.179539999999999</v>
+        <v>-11.01</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>46042.60416666666</v>
       </c>
       <c r="B79" t="n">
-        <v>-8.558400000000001</v>
+        <v>-11</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>46042.625</v>
       </c>
       <c r="B80" t="n">
-        <v>-7.86778</v>
+        <v>-7.86626</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>46042.64583333334</v>
       </c>
       <c r="B81" t="n">
-        <v>-6.42829</v>
+        <v>-6.46667</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>46042.66666666666</v>
       </c>
       <c r="B82" t="n">
-        <v>-2.80319</v>
+        <v>-5.14727</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>46042.6875</v>
       </c>
       <c r="B83" t="n">
-        <v>-5.51</v>
+        <v>-5.74039</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>46042.70833333334</v>
       </c>
       <c r="B84" t="n">
-        <v>-1.01549</v>
+        <v>-1.00044</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         <v>46042.72916666666</v>
       </c>
       <c r="B85" t="n">
-        <v>9.46617</v>
+        <v>5.03982</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>46042.75</v>
       </c>
       <c r="B86" t="n">
-        <v>9.59477</v>
+        <v>9.316129999999999</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         <v>46042.77083333334</v>
       </c>
       <c r="B87" t="n">
-        <v>31.01719</v>
+        <v>33.11565</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>46042.79166666666</v>
       </c>
       <c r="B88" t="n">
-        <v>57.3</v>
+        <v>56.98</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>46042.8125</v>
       </c>
       <c r="B89" t="n">
-        <v>64.8901</v>
+        <v>59.2087</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>46042.83333333334</v>
       </c>
       <c r="B90" t="n">
-        <v>60.56861</v>
+        <v>60.12181</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>46042.85416666666</v>
       </c>
       <c r="B91" t="n">
-        <v>58.94198</v>
+        <v>58.92354</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>46042.875</v>
       </c>
       <c r="B92" t="n">
-        <v>58.58436</v>
+        <v>58.14193</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>46042.89583333334</v>
       </c>
       <c r="B93" t="n">
-        <v>57.84212</v>
+        <v>57.82439</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2557,7 +2557,7 @@
         <v>46042.9375</v>
       </c>
       <c r="B95" t="n">
-        <v>58.86227</v>
+        <v>58.85642</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>46042.95833333334</v>
       </c>
       <c r="B96" t="n">
-        <v>61.45254</v>
+        <v>61.43326</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -527,10 +527,10 @@
         <v>15.12</v>
       </c>
       <c r="E4" t="n">
-        <v>444.8536169999999</v>
+        <v>445.0877047499999</v>
       </c>
       <c r="F4" t="n">
-        <v>29.42153551587301</v>
+        <v>29.43701750992063</v>
       </c>
     </row>
     <row r="5">
@@ -547,10 +547,10 @@
         <v>34.02</v>
       </c>
       <c r="E5" t="n">
-        <v>-73.51220174999999</v>
+        <v>-67.72324649999999</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.160852491181658</v>
+        <v>-1.990689197530864</v>
       </c>
     </row>
   </sheetData>
@@ -1465,7 +1465,7 @@
         <v>46041.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>59.9853</v>
+        <v>64.73678</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1507,11 +1507,11 @@
         <v>46041.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>59.14887</v>
+        <v>57.97172</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D45" s="3" t="n">
@@ -1528,11 +1528,11 @@
         <v>46041.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>59.46714</v>
+        <v>64.30929</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D46" s="3" t="n">
@@ -1549,7 +1549,7 @@
         <v>46041.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>58.71986</v>
+        <v>64.8901</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>46042.04166666666</v>
       </c>
       <c r="B52" t="n">
-        <v>56.98</v>
+        <v>57.06003</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>46042.0625</v>
       </c>
       <c r="B53" t="n">
-        <v>56.98</v>
+        <v>57.06003</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         <v>46042.08333333334</v>
       </c>
       <c r="B54" t="n">
-        <v>56.98</v>
+        <v>57.06003</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>46042.20833333334</v>
       </c>
       <c r="B60" t="n">
-        <v>64.89</v>
+        <v>63.21738</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>46042.22916666666</v>
       </c>
       <c r="B61" t="n">
-        <v>64.89</v>
+        <v>65</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>46042.25</v>
       </c>
       <c r="B62" t="n">
-        <v>73.20005</v>
+        <v>74.81213</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>46042.27083333334</v>
       </c>
       <c r="B63" t="n">
-        <v>61.4478</v>
+        <v>65</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         <v>46042.3125</v>
       </c>
       <c r="B65" t="n">
-        <v>0.98766</v>
+        <v>4.56392</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>46042.35416666666</v>
       </c>
       <c r="B67" t="n">
-        <v>0.51</v>
+        <v>0.01106</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>46042.375</v>
       </c>
       <c r="B68" t="n">
-        <v>-1.17721</v>
+        <v>-1.16932</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>46042.41666666666</v>
       </c>
       <c r="B70" t="n">
-        <v>-7.12181</v>
+        <v>-6.62984</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>46042.4375</v>
       </c>
       <c r="B71" t="n">
-        <v>-7.42877</v>
+        <v>-6.67988</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         <v>46042.45833333334</v>
       </c>
       <c r="B72" t="n">
-        <v>-7.78472</v>
+        <v>-7.78287</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>46042.47916666666</v>
       </c>
       <c r="B73" t="n">
-        <v>-7.73401</v>
+        <v>-7.77869</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>46042.5</v>
       </c>
       <c r="B74" t="n">
-        <v>-7.82489</v>
+        <v>-7.77671</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>46042.52083333334</v>
       </c>
       <c r="B75" t="n">
-        <v>-9.99</v>
+        <v>-9.49592</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
         <v>46042.54166666666</v>
       </c>
       <c r="B76" t="n">
-        <v>-9.99</v>
+        <v>-9.661490000000001</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>46042.5625</v>
       </c>
       <c r="B77" t="n">
-        <v>-12.01</v>
+        <v>-11.01</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>46042.60416666666</v>
       </c>
       <c r="B79" t="n">
-        <v>-10.39703</v>
+        <v>-11</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>46042.625</v>
       </c>
       <c r="B80" t="n">
-        <v>-8.38635</v>
+        <v>-8</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>46042.6875</v>
       </c>
       <c r="B83" t="n">
-        <v>-5.56366</v>
+        <v>-5.7635</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>46042.70833333334</v>
       </c>
       <c r="B84" t="n">
-        <v>-1.01654</v>
+        <v>-2.71703</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         <v>46042.72916666666</v>
       </c>
       <c r="B85" t="n">
-        <v>9.338240000000001</v>
+        <v>9.33845</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>46042.75</v>
       </c>
       <c r="B86" t="n">
-        <v>9.46283</v>
+        <v>9.462870000000001</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         <v>46042.77083333334</v>
       </c>
       <c r="B87" t="n">
-        <v>33.1597</v>
+        <v>33.16046</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>46042.79166666666</v>
       </c>
       <c r="B88" t="n">
-        <v>57.3</v>
+        <v>57.045</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>46042.83333333334</v>
       </c>
       <c r="B90" t="n">
-        <v>60.00844</v>
+        <v>60.58156</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>46042.85416666666</v>
       </c>
       <c r="B91" t="n">
-        <v>57.3</v>
+        <v>57.2442</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>46042.97916666666</v>
       </c>
       <c r="B97" t="n">
-        <v>57.3</v>
+        <v>57.06003</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -487,10 +487,10 @@
         <v>15.12</v>
       </c>
       <c r="E2" t="n">
-        <v>471.22731825</v>
+        <v>472.3902105</v>
       </c>
       <c r="F2" t="n">
-        <v>31.1658279265873</v>
+        <v>31.24273878968254</v>
       </c>
     </row>
     <row r="3">
@@ -507,10 +507,10 @@
         <v>30.24</v>
       </c>
       <c r="E3" t="n">
-        <v>-96.83826750000001</v>
+        <v>-102.3364875</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.202323660714286</v>
+        <v>-3.384143105158731</v>
       </c>
     </row>
     <row r="4">
@@ -527,10 +527,10 @@
         <v>15.12</v>
       </c>
       <c r="E4" t="n">
-        <v>459.2190524999999</v>
+        <v>456.03580425</v>
       </c>
       <c r="F4" t="n">
-        <v>30.3716304563492</v>
+        <v>30.16109816468254</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +584,7 @@
         <v>46042</v>
       </c>
       <c r="B2" t="n">
-        <v>60.66042</v>
+        <v>61.17104</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -605,7 +605,7 @@
         <v>46042.02083333334</v>
       </c>
       <c r="B3" t="n">
-        <v>61.71008</v>
+        <v>61.72549</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -626,11 +626,11 @@
         <v>46042.04166666666</v>
       </c>
       <c r="B4" t="n">
-        <v>60.73062</v>
+        <v>59.52981</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D4" s="3" t="n">
@@ -689,7 +689,7 @@
         <v>46042.10416666666</v>
       </c>
       <c r="B7" t="n">
-        <v>61.42246</v>
+        <v>61.97292</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -710,7 +710,7 @@
         <v>46042.125</v>
       </c>
       <c r="B8" t="n">
-        <v>61.45569</v>
+        <v>62.40669</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -731,7 +731,7 @@
         <v>46042.14583333334</v>
       </c>
       <c r="B9" t="n">
-        <v>63.21074</v>
+        <v>63.57677</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>46042.16666666666</v>
       </c>
       <c r="B10" t="n">
-        <v>63.70887</v>
+        <v>64.16336</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         <v>46042.1875</v>
       </c>
       <c r="B11" t="n">
-        <v>63.79789</v>
+        <v>64.66199</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>46042.20833333334</v>
       </c>
       <c r="B12" t="n">
-        <v>73.20005</v>
+        <v>64.89</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         <v>46042.22916666666</v>
       </c>
       <c r="B13" t="n">
-        <v>77.31724</v>
+        <v>77.94</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>46042.25</v>
       </c>
       <c r="B14" t="n">
-        <v>77.55432999999999</v>
+        <v>82.12125</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>46042.27083333334</v>
       </c>
       <c r="B15" t="n">
-        <v>65.01728</v>
+        <v>77.94</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
         <v>46042.29166666666</v>
       </c>
       <c r="B16" t="n">
-        <v>56.98</v>
+        <v>57.06003</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
         <v>46042.3125</v>
       </c>
       <c r="B17" t="n">
-        <v>8.664619999999999</v>
+        <v>8.663399999999999</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>46042.35416666666</v>
       </c>
       <c r="B19" t="n">
-        <v>0.51</v>
+        <v>0.009979999999999999</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>46042.375</v>
       </c>
       <c r="B20" t="n">
-        <v>-2.57167</v>
+        <v>-1.16884</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -983,7 +983,7 @@
         <v>46042.39583333334</v>
       </c>
       <c r="B21" t="n">
-        <v>-5.79863</v>
+        <v>-6</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>46042.41666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>-6.69312</v>
+        <v>-6.77322</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         <v>46042.4375</v>
       </c>
       <c r="B23" t="n">
-        <v>-6.6436</v>
+        <v>-6.80232</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1046,7 +1046,7 @@
         <v>46042.45833333334</v>
       </c>
       <c r="B24" t="n">
-        <v>-8.16282</v>
+        <v>-8.71813</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
         <v>46042.47916666666</v>
       </c>
       <c r="B25" t="n">
-        <v>-7.36918</v>
+        <v>-7.77209</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>46042.5</v>
       </c>
       <c r="B26" t="n">
-        <v>-7.78096</v>
+        <v>-7.82869</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>46042.52083333334</v>
       </c>
       <c r="B27" t="n">
-        <v>-8.21973</v>
+        <v>-7.91751</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>46042.54166666666</v>
       </c>
       <c r="B28" t="n">
-        <v>-8.30405</v>
+        <v>-9.95445</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         <v>46042.5625</v>
       </c>
       <c r="B29" t="n">
-        <v>-8.154210000000001</v>
+        <v>-10.15931</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>46042.58333333334</v>
       </c>
       <c r="B30" t="n">
-        <v>-8.124079999999999</v>
+        <v>-9.41441</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1193,7 +1193,7 @@
         <v>46042.60416666666</v>
       </c>
       <c r="B31" t="n">
-        <v>-8.19622</v>
+        <v>-8.92239</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>46042.625</v>
       </c>
       <c r="B32" t="n">
-        <v>-7.71303</v>
+        <v>-7.86259</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
         <v>46042.64583333334</v>
       </c>
       <c r="B33" t="n">
-        <v>-6.8</v>
+        <v>-6.37653</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>46042.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>-5.62569</v>
+        <v>-5.62607</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>46042.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>-5.75426</v>
+        <v>-5.84518</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>46042.70833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>-4.69714</v>
+        <v>-5.01</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1319,7 +1319,7 @@
         <v>46042.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>5.19843</v>
+        <v>5.19816</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         <v>46042.75</v>
       </c>
       <c r="B38" t="n">
-        <v>13.93958</v>
+        <v>13.93879</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>46042.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>46.7996</v>
+        <v>46.79821</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         <v>46042.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>57.3</v>
+        <v>59.66673</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         <v>46042.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>60.15202</v>
+        <v>59.05034</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>46042.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>58.93813</v>
+        <v>57.3</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
         <v>46042.875</v>
       </c>
       <c r="B44" t="n">
-        <v>57.78072</v>
+        <v>57.3</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>46042.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>57.82215</v>
+        <v>57.77467</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
         <v>46042.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>58.63908</v>
+        <v>58.63955</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>46042.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>61.09695</v>
+        <v>61.09745</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>46042.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>59.26485</v>
+        <v>59.26702</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,62 +475,42 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46042</v>
+        <v>46042.16666666666</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>46042.16666666666</v>
+        <v>46042.66666666666</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>15.12</v>
+        <v>45.36</v>
       </c>
       <c r="E2" t="n">
-        <v>472.3902105</v>
+        <v>353.00907525</v>
       </c>
       <c r="F2" t="n">
-        <v>31.24273878968254</v>
+        <v>7.782387020502645</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46042.33333333334</v>
+        <v>46042.83333333334</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>46042.66666666666</v>
+        <v>46043</v>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>30.24</v>
+        <v>15.12</v>
       </c>
       <c r="E3" t="n">
-        <v>-102.3364875</v>
+        <v>458.182335</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.384143105158731</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>46042.83333333334</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>46043</v>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>15.12</v>
-      </c>
-      <c r="E4" t="n">
-        <v>456.03580425</v>
-      </c>
-      <c r="F4" t="n">
-        <v>30.16109816468254</v>
+        <v>30.30306448412698</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +524,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -581,10 +561,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46042</v>
+        <v>46042.04166666666</v>
       </c>
       <c r="B2" t="n">
-        <v>61.17104</v>
+        <v>63.36879</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -596,16 +576,16 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46042.02083333334</v>
+        <v>46042.0625</v>
       </c>
       <c r="B3" t="n">
-        <v>61.72549</v>
+        <v>62.9731</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -617,16 +597,16 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46042.04166666666</v>
+        <v>46042.08333333334</v>
       </c>
       <c r="B4" t="n">
-        <v>59.52981</v>
+        <v>61.92013</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -638,16 +618,16 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46042.0625</v>
+        <v>46042.10416666666</v>
       </c>
       <c r="B5" t="n">
-        <v>57.06003</v>
+        <v>62.75597</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -659,16 +639,16 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>46042.08333333334</v>
+        <v>46042.125</v>
       </c>
       <c r="B6" t="n">
-        <v>57.06003</v>
+        <v>63.09551</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -680,16 +660,16 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>46042.10416666666</v>
+        <v>46042.14583333334</v>
       </c>
       <c r="B7" t="n">
-        <v>61.97292</v>
+        <v>63.20409</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -701,16 +681,16 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>46042.125</v>
+        <v>46042.16666666666</v>
       </c>
       <c r="B8" t="n">
-        <v>62.40669</v>
+        <v>63.68422</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -728,10 +708,10 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>46042.14583333334</v>
+        <v>46042.1875</v>
       </c>
       <c r="B9" t="n">
-        <v>63.57677</v>
+        <v>62.87124</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -749,10 +729,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>46042.16666666666</v>
+        <v>46042.20833333334</v>
       </c>
       <c r="B10" t="n">
-        <v>64.16336</v>
+        <v>65.27337</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -764,16 +744,16 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>46042.1875</v>
+        <v>46042.22916666666</v>
       </c>
       <c r="B11" t="n">
-        <v>64.66199</v>
+        <v>65</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -785,16 +765,16 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>46042.20833333334</v>
+        <v>46042.25</v>
       </c>
       <c r="B12" t="n">
-        <v>64.89</v>
+        <v>72.64717</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -806,16 +786,16 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>46042.22916666666</v>
+        <v>46042.27083333334</v>
       </c>
       <c r="B13" t="n">
-        <v>77.94</v>
+        <v>65.80869</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -827,16 +807,16 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>46042.25</v>
+        <v>46042.29166666666</v>
       </c>
       <c r="B14" t="n">
-        <v>82.12125</v>
+        <v>57.06003</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -848,16 +828,16 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>46042.27083333334</v>
+        <v>46042.3125</v>
       </c>
       <c r="B15" t="n">
-        <v>77.94</v>
+        <v>8.661809999999999</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -869,16 +849,16 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>46042.29166666666</v>
+        <v>46042.33333333334</v>
       </c>
       <c r="B16" t="n">
-        <v>57.06003</v>
+        <v>0.7</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -890,16 +870,16 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>46042.3125</v>
+        <v>46042.35416666666</v>
       </c>
       <c r="B17" t="n">
-        <v>8.663399999999999</v>
+        <v>0.009979999999999999</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -911,16 +891,16 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>46042.33333333334</v>
+        <v>46042.375</v>
       </c>
       <c r="B18" t="n">
-        <v>0.7</v>
+        <v>-0.94718</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -938,10 +918,10 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>46042.35416666666</v>
+        <v>46042.39583333334</v>
       </c>
       <c r="B19" t="n">
-        <v>0.009979999999999999</v>
+        <v>-5.50985</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -959,10 +939,10 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>46042.375</v>
+        <v>46042.41666666666</v>
       </c>
       <c r="B20" t="n">
-        <v>-1.16884</v>
+        <v>-7.22542</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -980,10 +960,10 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>46042.39583333334</v>
+        <v>46042.4375</v>
       </c>
       <c r="B21" t="n">
-        <v>-6</v>
+        <v>-6.69694</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1001,10 +981,10 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>46042.41666666666</v>
+        <v>46042.45833333334</v>
       </c>
       <c r="B22" t="n">
-        <v>-6.77322</v>
+        <v>-8.01695</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1022,10 +1002,10 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>46042.4375</v>
+        <v>46042.47916666666</v>
       </c>
       <c r="B23" t="n">
-        <v>-6.80232</v>
+        <v>-8.06132</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1043,10 +1023,10 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>46042.45833333334</v>
+        <v>46042.5</v>
       </c>
       <c r="B24" t="n">
-        <v>-8.71813</v>
+        <v>-8.16812</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1064,10 +1044,10 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>46042.47916666666</v>
+        <v>46042.52083333334</v>
       </c>
       <c r="B25" t="n">
-        <v>-7.77209</v>
+        <v>-7.91811</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1085,10 +1065,10 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>46042.5</v>
+        <v>46042.54166666666</v>
       </c>
       <c r="B26" t="n">
-        <v>-7.82869</v>
+        <v>-8.165319999999999</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1106,10 +1086,10 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>46042.52083333334</v>
+        <v>46042.5625</v>
       </c>
       <c r="B27" t="n">
-        <v>-7.91751</v>
+        <v>-8.23887</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1127,10 +1107,10 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>46042.54166666666</v>
+        <v>46042.58333333334</v>
       </c>
       <c r="B28" t="n">
-        <v>-9.95445</v>
+        <v>-8.676970000000001</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1148,10 +1128,10 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>46042.5625</v>
+        <v>46042.60416666666</v>
       </c>
       <c r="B29" t="n">
-        <v>-10.15931</v>
+        <v>-8.08089</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1169,10 +1149,10 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>46042.58333333334</v>
+        <v>46042.625</v>
       </c>
       <c r="B30" t="n">
-        <v>-9.41441</v>
+        <v>-7.6109</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1190,10 +1170,10 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>46042.60416666666</v>
+        <v>46042.64583333334</v>
       </c>
       <c r="B31" t="n">
-        <v>-8.92239</v>
+        <v>-6.33908</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1211,10 +1191,10 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>46042.625</v>
+        <v>46042.66666666666</v>
       </c>
       <c r="B32" t="n">
-        <v>-7.86259</v>
+        <v>-5.66097</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1226,16 +1206,16 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>46042.64583333334</v>
+        <v>46042.6875</v>
       </c>
       <c r="B33" t="n">
-        <v>-6.37653</v>
+        <v>-5.78922</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1247,16 +1227,16 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>46042.66666666666</v>
+        <v>46042.70833333334</v>
       </c>
       <c r="B34" t="n">
-        <v>-5.62607</v>
+        <v>-4.62645</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1274,10 +1254,10 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>46042.6875</v>
+        <v>46042.72916666666</v>
       </c>
       <c r="B35" t="n">
-        <v>-5.84518</v>
+        <v>5.10151</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1295,10 +1275,10 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>46042.70833333334</v>
+        <v>46042.75</v>
       </c>
       <c r="B36" t="n">
-        <v>-5.01</v>
+        <v>13.92238</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1316,10 +1296,10 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>46042.72916666666</v>
+        <v>46042.77083333334</v>
       </c>
       <c r="B37" t="n">
-        <v>5.19816</v>
+        <v>46.71435</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1337,10 +1317,10 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>46042.75</v>
+        <v>46042.79166666666</v>
       </c>
       <c r="B38" t="n">
-        <v>13.93879</v>
+        <v>57.3</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1358,10 +1338,10 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>46042.77083333334</v>
+        <v>46042.8125</v>
       </c>
       <c r="B39" t="n">
-        <v>46.79821</v>
+        <v>57.3</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1379,10 +1359,10 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>46042.79166666666</v>
+        <v>46042.83333333334</v>
       </c>
       <c r="B40" t="n">
-        <v>57.3</v>
+        <v>60.10762</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1394,16 +1374,16 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>46042.8125</v>
+        <v>46042.85416666666</v>
       </c>
       <c r="B41" t="n">
-        <v>59.66673</v>
+        <v>58.10932</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1415,16 +1395,16 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>46042.83333333334</v>
+        <v>46042.875</v>
       </c>
       <c r="B42" t="n">
-        <v>59.05034</v>
+        <v>57.3</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1442,10 +1422,10 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>46042.85416666666</v>
+        <v>46042.89583333334</v>
       </c>
       <c r="B43" t="n">
-        <v>57.3</v>
+        <v>57.77405</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1463,7 +1443,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>46042.875</v>
+        <v>46042.91666666666</v>
       </c>
       <c r="B44" t="n">
         <v>57.3</v>
@@ -1484,10 +1464,10 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>46042.89583333334</v>
+        <v>46042.9375</v>
       </c>
       <c r="B45" t="n">
-        <v>57.77467</v>
+        <v>58.98951</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1505,10 +1485,10 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>46042.91666666666</v>
+        <v>46042.95833333334</v>
       </c>
       <c r="B46" t="n">
-        <v>57.3</v>
+        <v>61.09895</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1526,10 +1506,10 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>46042.9375</v>
+        <v>46042.97916666666</v>
       </c>
       <c r="B47" t="n">
-        <v>58.63955</v>
+        <v>59.25115</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1540,48 +1520,6 @@
         <v>46042</v>
       </c>
       <c r="E47" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46042.95833333334</v>
-      </c>
-      <c r="B48" t="n">
-        <v>61.09745</v>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D48" s="3" t="n">
-        <v>46042</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>46042.97916666666</v>
-      </c>
-      <c r="B49" t="n">
-        <v>59.26702</v>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D49" s="3" t="n">
-        <v>46042</v>
-      </c>
-      <c r="E49" t="inlineStr">
         <is>
           <t>ON</t>
         </is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,62 +475,22 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46042.02083333334</v>
+        <v>46042</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>46042.1875</v>
+        <v>46042.66666666666</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>15.12</v>
+        <v>60.48</v>
       </c>
       <c r="E2" t="n">
-        <v>445.0682339999999</v>
+        <v>807.3803789999996</v>
       </c>
       <c r="F2" t="n">
-        <v>29.43572976190476</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>46042.33333333334</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>46042.66666666666</v>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>30.24</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-90.41875049999999</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-2.99003804563492</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>46042.83333333334</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>46043</v>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>15.12</v>
-      </c>
-      <c r="E4" t="n">
-        <v>455.88185175</v>
-      </c>
-      <c r="F4" t="n">
-        <v>30.15091612103175</v>
+        <v>13.34954330357142</v>
       </c>
     </row>
   </sheetData>
@@ -596,7 +556,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -785,7 +745,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -806,7 +766,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -827,7 +787,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -848,7 +808,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -869,7 +829,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -878,7 +838,7 @@
         <v>46042.29166666666</v>
       </c>
       <c r="B16" t="n">
-        <v>59.50691</v>
+        <v>56.98</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -890,7 +850,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -899,7 +859,7 @@
         <v>46042.3125</v>
       </c>
       <c r="B17" t="n">
-        <v>55.74071</v>
+        <v>8.61645</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -911,7 +871,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -920,7 +880,7 @@
         <v>46042.33333333334</v>
       </c>
       <c r="B18" t="n">
-        <v>0.7</v>
+        <v>0.01928</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -941,11 +901,11 @@
         <v>46042.35416666666</v>
       </c>
       <c r="B19" t="n">
-        <v>0.7</v>
+        <v>8.682</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D19" s="3" t="n">
@@ -962,11 +922,11 @@
         <v>46042.375</v>
       </c>
       <c r="B20" t="n">
-        <v>-1.10419</v>
+        <v>-5.51</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D20" s="3" t="n">
@@ -983,7 +943,7 @@
         <v>46042.39583333334</v>
       </c>
       <c r="B21" t="n">
-        <v>-6</v>
+        <v>-6.19659</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1004,7 +964,7 @@
         <v>46042.41666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>-6.96611</v>
+        <v>-6.32</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1025,7 +985,7 @@
         <v>46042.4375</v>
       </c>
       <c r="B23" t="n">
-        <v>-6.52029</v>
+        <v>-6.36387</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1046,7 +1006,7 @@
         <v>46042.45833333334</v>
       </c>
       <c r="B24" t="n">
-        <v>-8.36323</v>
+        <v>-7.22044</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1067,7 +1027,7 @@
         <v>46042.47916666666</v>
       </c>
       <c r="B25" t="n">
-        <v>-7.52604</v>
+        <v>-7.25296</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1088,7 +1048,7 @@
         <v>46042.5</v>
       </c>
       <c r="B26" t="n">
-        <v>-7.07444</v>
+        <v>-6.09234</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1109,7 +1069,7 @@
         <v>46042.52083333334</v>
       </c>
       <c r="B27" t="n">
-        <v>-7.23757</v>
+        <v>-7.2065</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1130,7 +1090,7 @@
         <v>46042.54166666666</v>
       </c>
       <c r="B28" t="n">
-        <v>-7.39814</v>
+        <v>-8.84238</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1151,7 +1111,7 @@
         <v>46042.5625</v>
       </c>
       <c r="B29" t="n">
-        <v>-7.79441</v>
+        <v>-7.79956</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1172,7 +1132,7 @@
         <v>46042.58333333334</v>
       </c>
       <c r="B30" t="n">
-        <v>-7.86722</v>
+        <v>-7.37432</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1193,7 +1153,7 @@
         <v>46042.60416666666</v>
       </c>
       <c r="B31" t="n">
-        <v>-7.94014</v>
+        <v>-7.37879</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1214,7 +1174,7 @@
         <v>46042.625</v>
       </c>
       <c r="B32" t="n">
-        <v>-6.3454</v>
+        <v>-6.36144</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1235,7 +1195,7 @@
         <v>46042.64583333334</v>
       </c>
       <c r="B33" t="n">
-        <v>-6</v>
+        <v>-5.51</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1256,7 +1216,7 @@
         <v>46042.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.93093</v>
+        <v>0.7</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1277,7 +1237,7 @@
         <v>46042.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>-5.07225</v>
+        <v>-1.11816</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1298,7 +1258,7 @@
         <v>46042.70833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>-2.78511</v>
+        <v>0</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1319,7 +1279,7 @@
         <v>46042.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>9.63571</v>
+        <v>9.916370000000001</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1340,7 +1300,7 @@
         <v>46042.75</v>
       </c>
       <c r="B38" t="n">
-        <v>14.17313</v>
+        <v>9.979480000000001</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1361,7 +1321,7 @@
         <v>46042.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>33.15789</v>
+        <v>33.15828</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1403,7 +1363,7 @@
         <v>46042.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>56.98</v>
+        <v>57.3</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1424,7 +1384,7 @@
         <v>46042.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>62.17261</v>
+        <v>59.77564</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1436,7 +1396,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1445,7 +1405,7 @@
         <v>46042.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>58.2352</v>
+        <v>59.66166</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1457,7 +1417,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1426,7 @@
         <v>46042.875</v>
       </c>
       <c r="B44" t="n">
-        <v>57.47977</v>
+        <v>57.91165</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1478,7 +1438,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1487,7 +1447,7 @@
         <v>46042.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>57.3</v>
+        <v>56.98</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1499,7 +1459,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1520,7 +1480,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1541,7 +1501,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1550,7 +1510,7 @@
         <v>46042.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>60.80355</v>
+        <v>57.3</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1562,7 +1522,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1571,7 +1531,7 @@
         <v>46042.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>57.3</v>
+        <v>57.06003</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1583,7 +1543,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -487,10 +487,10 @@
         <v>60.48</v>
       </c>
       <c r="E2" t="n">
-        <v>807.3803789999996</v>
+        <v>824.4666592499998</v>
       </c>
       <c r="F2" t="n">
-        <v>13.34954330357142</v>
+        <v>13.63205455109127</v>
       </c>
     </row>
   </sheetData>
@@ -880,7 +880,7 @@
         <v>46042.33333333334</v>
       </c>
       <c r="B18" t="n">
-        <v>0.01928</v>
+        <v>3.55269</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -901,7 +901,7 @@
         <v>46042.35416666666</v>
       </c>
       <c r="B19" t="n">
-        <v>8.682</v>
+        <v>0.7</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
         <v>46042.375</v>
       </c>
       <c r="B20" t="n">
-        <v>-5.51</v>
+        <v>0.009379999999999999</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -943,11 +943,11 @@
         <v>46042.39583333334</v>
       </c>
       <c r="B21" t="n">
-        <v>-6.19659</v>
+        <v>0.0005</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D21" s="3" t="n">
@@ -964,11 +964,11 @@
         <v>46042.41666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>-6.32</v>
+        <v>0</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D22" s="3" t="n">
@@ -985,7 +985,7 @@
         <v>46042.4375</v>
       </c>
       <c r="B23" t="n">
-        <v>-6.36387</v>
+        <v>-2.91592</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>46042.45833333334</v>
       </c>
       <c r="B24" t="n">
-        <v>-7.22044</v>
+        <v>-6.40473</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>46042.47916666666</v>
       </c>
       <c r="B25" t="n">
-        <v>-7.25296</v>
+        <v>-6.14838</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>46042.5</v>
       </c>
       <c r="B26" t="n">
-        <v>-6.09234</v>
+        <v>-6.33429</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1069,7 +1069,7 @@
         <v>46042.52083333334</v>
       </c>
       <c r="B27" t="n">
-        <v>-7.2065</v>
+        <v>-7.11669</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>46042.54166666666</v>
       </c>
       <c r="B28" t="n">
-        <v>-8.84238</v>
+        <v>-8.96598</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         <v>46042.5625</v>
       </c>
       <c r="B29" t="n">
-        <v>-7.79956</v>
+        <v>-8.18792</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1132,7 +1132,7 @@
         <v>46042.58333333334</v>
       </c>
       <c r="B30" t="n">
-        <v>-7.37432</v>
+        <v>-8.118080000000001</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>46042.60416666666</v>
       </c>
       <c r="B31" t="n">
-        <v>-7.37879</v>
+        <v>-7.54132</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>46042.625</v>
       </c>
       <c r="B32" t="n">
-        <v>-6.36144</v>
+        <v>-6.46636</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>46042.64583333334</v>
       </c>
       <c r="B33" t="n">
-        <v>-5.51</v>
+        <v>-5.26642</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>46042.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>-1.11816</v>
+        <v>-0.9120200000000001</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>46042.70833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>1e-05</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>46042.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>9.916370000000001</v>
+        <v>22.05184</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>46042.75</v>
       </c>
       <c r="B38" t="n">
-        <v>9.979480000000001</v>
+        <v>30.06361</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>46042.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>33.15828</v>
+        <v>47.37894</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         <v>46042.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>56.98</v>
+        <v>60.85009</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>46042.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>57.3</v>
+        <v>57.22391</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         <v>46042.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>59.77564</v>
+        <v>62.22274</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>46042.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>59.66166</v>
+        <v>57.59874</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>46042.875</v>
       </c>
       <c r="B44" t="n">
-        <v>57.91165</v>
+        <v>58.85308</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>46042.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>56.98</v>
+        <v>57.3</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         <v>46042.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>56.98</v>
+        <v>57.06007</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>46042.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>57.3</v>
+        <v>58.6455</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1510,7 +1510,7 @@
         <v>46042.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>57.3</v>
+        <v>61.33335</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>46042.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>57.06003</v>
+        <v>57.3</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -487,10 +487,10 @@
         <v>60.48</v>
       </c>
       <c r="E2" t="n">
-        <v>824.4666592499998</v>
+        <v>848.1402832499998</v>
       </c>
       <c r="F2" t="n">
-        <v>13.63205455109127</v>
+        <v>14.02348351934524</v>
       </c>
     </row>
   </sheetData>
@@ -943,7 +943,7 @@
         <v>46042.39583333334</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0005</v>
+        <v>-5.01</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         <v>46042.41666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>-6.73332</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -985,11 +985,11 @@
         <v>46042.4375</v>
       </c>
       <c r="B23" t="n">
-        <v>-2.91592</v>
+        <v>-6.52883</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D23" s="3" t="n">
@@ -1006,11 +1006,11 @@
         <v>46042.45833333334</v>
       </c>
       <c r="B24" t="n">
-        <v>-6.40473</v>
+        <v>-7.88121</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D24" s="3" t="n">
@@ -1027,11 +1027,11 @@
         <v>46042.47916666666</v>
       </c>
       <c r="B25" t="n">
-        <v>-6.14838</v>
+        <v>0</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D25" s="3" t="n">
@@ -1048,11 +1048,11 @@
         <v>46042.5</v>
       </c>
       <c r="B26" t="n">
-        <v>-6.33429</v>
+        <v>0.7</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D26" s="3" t="n">
@@ -1069,7 +1069,7 @@
         <v>46042.52083333334</v>
       </c>
       <c r="B27" t="n">
-        <v>-7.11669</v>
+        <v>0.02274</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>46042.54166666666</v>
       </c>
       <c r="B28" t="n">
-        <v>-8.96598</v>
+        <v>-1.16054</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         <v>46042.5625</v>
       </c>
       <c r="B29" t="n">
-        <v>-8.18792</v>
+        <v>-5.58973</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1132,7 +1132,7 @@
         <v>46042.58333333334</v>
       </c>
       <c r="B30" t="n">
-        <v>-8.118080000000001</v>
+        <v>-5.48208</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>46042.60416666666</v>
       </c>
       <c r="B31" t="n">
-        <v>-7.54132</v>
+        <v>-2.54301</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>46042.625</v>
       </c>
       <c r="B32" t="n">
-        <v>-6.46636</v>
+        <v>-6</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>46042.64583333334</v>
       </c>
       <c r="B33" t="n">
-        <v>-5.26642</v>
+        <v>-2.97897</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>46042.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>0.7</v>
+        <v>36.0601</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>46042.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.9120200000000001</v>
+        <v>24.59223</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>46042.70833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>1e-05</v>
+        <v>9.847939999999999</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>46042.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>22.05184</v>
+        <v>36.0601</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>46042.75</v>
       </c>
       <c r="B38" t="n">
-        <v>30.06361</v>
+        <v>47.41716</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>46042.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>47.37894</v>
+        <v>64.02958</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         <v>46042.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>60.85009</v>
+        <v>64.82379</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>46042.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>57.22391</v>
+        <v>64.8901</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         <v>46042.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>62.22274</v>
+        <v>63.94385</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>46042.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>57.59874</v>
+        <v>60.4431</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>46042.875</v>
       </c>
       <c r="B44" t="n">
-        <v>58.85308</v>
+        <v>59.81888</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>46042.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>57.3</v>
+        <v>58.2941</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         <v>46042.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>57.06007</v>
+        <v>57.3</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>46042.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>58.6455</v>
+        <v>58.81822</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1510,7 +1510,7 @@
         <v>46042.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>61.33335</v>
+        <v>61.0907</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -507,10 +507,10 @@
         <v>34.02</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.811704999999982</v>
+        <v>-10.54730624999998</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.0826485890652552</v>
+        <v>-0.3100325176366838</v>
       </c>
     </row>
     <row r="4">
@@ -527,10 +527,10 @@
         <v>18.9</v>
       </c>
       <c r="E4" t="n">
-        <v>575.5282845</v>
+        <v>572.3830124999999</v>
       </c>
       <c r="F4" t="n">
-        <v>30.45123198412699</v>
+        <v>30.28481547619048</v>
       </c>
     </row>
     <row r="5">
@@ -547,10 +547,10 @@
         <v>34.02</v>
       </c>
       <c r="E5" t="n">
-        <v>-185.71424625</v>
+        <v>-168.28144125</v>
       </c>
       <c r="F5" t="n">
-        <v>-5.458972552910054</v>
+        <v>-4.946544422398589</v>
       </c>
     </row>
   </sheetData>
@@ -1234,7 +1234,7 @@
         <v>46042.625</v>
       </c>
       <c r="B32" t="n">
-        <v>14.00051</v>
+        <v>-7.85287</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
         <v>46042.64583333334</v>
       </c>
       <c r="B33" t="n">
-        <v>0.00048</v>
+        <v>13.91991</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1276,11 +1276,11 @@
         <v>46042.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>10.31935</v>
+        <v>24.7014</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D34" s="3" t="n">
@@ -1297,7 +1297,7 @@
         <v>46042.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>22.07</v>
+        <v>26.41646</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>46042.70833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>25.73712</v>
+        <v>54.0145</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1339,7 +1339,7 @@
         <v>46042.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>49.80515</v>
+        <v>50.52352</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>46042.75</v>
       </c>
       <c r="B38" t="n">
-        <v>57.3</v>
+        <v>58.57113</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>46042.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>63.92984</v>
+        <v>64.31851</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         <v>46042.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>65</v>
+        <v>67.69738</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         <v>46042.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>66.16136</v>
+        <v>76.61194</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>46042.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>73.20007</v>
+        <v>77.94</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>46042.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>71.92849</v>
+        <v>72.82266</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>46042.875</v>
       </c>
       <c r="B44" t="n">
-        <v>68.79257</v>
+        <v>71.72403</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>46042.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>63.47425</v>
+        <v>63.77459</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         <v>46042.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>63.96083</v>
+        <v>63.57817</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
         <v>46042.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>62.40305</v>
+        <v>62.04848</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
         <v>46042.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>61.34585</v>
+        <v>61.77267</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>46043</v>
       </c>
       <c r="B50" t="n">
-        <v>59.97554</v>
+        <v>57.06003</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>46043.1875</v>
       </c>
       <c r="B59" t="n">
-        <v>67.70496</v>
+        <v>72.00874</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>46043.20833333334</v>
       </c>
       <c r="B60" t="n">
-        <v>73.20005</v>
+        <v>77.71132</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>46043.25</v>
       </c>
       <c r="B62" t="n">
-        <v>79.95016</v>
+        <v>81.40685999999999</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>46043.27083333334</v>
       </c>
       <c r="B63" t="n">
-        <v>67.70788</v>
+        <v>73.20005</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>46043.29166666666</v>
       </c>
       <c r="B64" t="n">
-        <v>56.98</v>
+        <v>53.27499</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         <v>46043.3125</v>
       </c>
       <c r="B65" t="n">
-        <v>0.7</v>
+        <v>0.9831800000000001</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>46043.33333333334</v>
       </c>
       <c r="B66" t="n">
-        <v>0.51002</v>
+        <v>0.009650000000000001</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>46043.375</v>
       </c>
       <c r="B68" t="n">
-        <v>-6.54017</v>
+        <v>-6.08274</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
         <v>46043.39583333334</v>
       </c>
       <c r="B69" t="n">
-        <v>-6.96691</v>
+        <v>-6.96614</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>46043.41666666666</v>
       </c>
       <c r="B70" t="n">
-        <v>-8.566689999999999</v>
+        <v>-8.786479999999999</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>46043.4375</v>
       </c>
       <c r="B71" t="n">
-        <v>-9.75165</v>
+        <v>-9.5</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         <v>46043.45833333334</v>
       </c>
       <c r="B72" t="n">
-        <v>-15.60246</v>
+        <v>-15.04586</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>46043.47916666666</v>
       </c>
       <c r="B73" t="n">
-        <v>-22.35626</v>
+        <v>-18.19399</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>46043.5</v>
       </c>
       <c r="B74" t="n">
-        <v>-22.90284</v>
+        <v>-16.79318</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>46043.52083333334</v>
       </c>
       <c r="B75" t="n">
-        <v>-23.5</v>
+        <v>-22.40926</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>46043.5625</v>
       </c>
       <c r="B77" t="n">
-        <v>-27</v>
+        <v>-23.5</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>46043.58333333334</v>
       </c>
       <c r="B78" t="n">
-        <v>-23.93719</v>
+        <v>-21.03239</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>46043.60416666666</v>
       </c>
       <c r="B79" t="n">
-        <v>-23.13936</v>
+        <v>-23.5</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>46043.625</v>
       </c>
       <c r="B80" t="n">
-        <v>-22.06328</v>
+        <v>-18.71477</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>46043.66666666666</v>
       </c>
       <c r="B82" t="n">
-        <v>-5.74405</v>
+        <v>-5.72703</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         <v>46043.72916666666</v>
       </c>
       <c r="B85" t="n">
-        <v>46.3101</v>
+        <v>46.59793</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         <v>46043.77083333334</v>
       </c>
       <c r="B87" t="n">
-        <v>65</v>
+        <v>69.05019</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>46043.79166666666</v>
       </c>
       <c r="B88" t="n">
-        <v>78</v>
+        <v>100.01</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>46043.83333333334</v>
       </c>
       <c r="B90" t="n">
-        <v>86.97678000000001</v>
+        <v>87.00089</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>46043.85416666666</v>
       </c>
       <c r="B91" t="n">
-        <v>73.75449</v>
+        <v>73.78428</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>46043.875</v>
       </c>
       <c r="B92" t="n">
-        <v>70.0634</v>
+        <v>70.50577</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>46043.91666666666</v>
       </c>
       <c r="B94" t="n">
-        <v>60.2421</v>
+        <v>60.25514</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -507,10 +507,10 @@
         <v>34.02</v>
       </c>
       <c r="E3" t="n">
-        <v>-10.54730624999998</v>
+        <v>-30.35730749999998</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.3100325176366838</v>
+        <v>-0.8923370811287473</v>
       </c>
     </row>
     <row r="4">
@@ -518,39 +518,39 @@
         <v>46042.91666666666</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>46043.125</v>
+        <v>46043.14583333334</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="D4" t="n">
-        <v>18.9</v>
+        <v>20.79</v>
       </c>
       <c r="E4" t="n">
-        <v>572.3830124999999</v>
+        <v>619.4632859999999</v>
       </c>
       <c r="F4" t="n">
-        <v>30.28481547619048</v>
+        <v>29.79621385281385</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46043.29166666666</v>
+        <v>46043.3125</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>46043.66666666666</v>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="D5" t="n">
-        <v>34.02</v>
+        <v>32.13</v>
       </c>
       <c r="E5" t="n">
-        <v>-168.28144125</v>
+        <v>-226.12220475</v>
       </c>
       <c r="F5" t="n">
-        <v>-4.946544422398589</v>
+        <v>-7.037728127917834</v>
       </c>
     </row>
   </sheetData>
@@ -1255,7 +1255,7 @@
         <v>46042.64583333334</v>
       </c>
       <c r="B33" t="n">
-        <v>13.91991</v>
+        <v>-6.39804</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>46042.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>24.7014</v>
+        <v>-5.51</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1297,11 +1297,11 @@
         <v>46042.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>26.41646</v>
+        <v>22.07</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D35" s="3" t="n">
@@ -1318,11 +1318,11 @@
         <v>46042.70833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>54.0145</v>
+        <v>36.07</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D36" s="3" t="n">
@@ -1339,11 +1339,11 @@
         <v>46042.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>50.52352</v>
+        <v>50.8425</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D37" s="3" t="n">
@@ -1360,7 +1360,7 @@
         <v>46042.75</v>
       </c>
       <c r="B38" t="n">
-        <v>58.57113</v>
+        <v>60.35108</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>46042.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>64.31851</v>
+        <v>63.74797</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         <v>46042.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>67.69738</v>
+        <v>73.94592</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         <v>46042.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>76.61194</v>
+        <v>75.72364</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>46042.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>77.94</v>
+        <v>78</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>46042.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>72.82266</v>
+        <v>76.20085</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>46042.875</v>
       </c>
       <c r="B44" t="n">
-        <v>71.72403</v>
+        <v>69.69265</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>46042.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>63.77459</v>
+        <v>63.79708</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         <v>46042.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>63.57817</v>
+        <v>64.26672000000001</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
         <v>46042.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>62.04848</v>
+        <v>57.3</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
         <v>46042.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>61.77267</v>
+        <v>57.06003</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1780,7 +1780,7 @@
         <v>46043.16666666666</v>
       </c>
       <c r="B58" t="n">
-        <v>65</v>
+        <v>65.94062</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>46043.1875</v>
       </c>
       <c r="B59" t="n">
-        <v>72.00874</v>
+        <v>67.70805</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>46043.20833333334</v>
       </c>
       <c r="B60" t="n">
-        <v>77.71132</v>
+        <v>72.01038</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>46043.22916666666</v>
       </c>
       <c r="B61" t="n">
-        <v>79.95022</v>
+        <v>79.36201</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>46043.25</v>
       </c>
       <c r="B62" t="n">
-        <v>81.40685999999999</v>
+        <v>80.45009</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>46043.27083333334</v>
       </c>
       <c r="B63" t="n">
-        <v>73.20005</v>
+        <v>68.98878999999999</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>46043.29166666666</v>
       </c>
       <c r="B64" t="n">
-        <v>53.27499</v>
+        <v>57.06012</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1927,7 +1927,7 @@
         <v>46043.3125</v>
       </c>
       <c r="B65" t="n">
-        <v>0.9831800000000001</v>
+        <v>0.7</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>46043.33333333334</v>
       </c>
       <c r="B66" t="n">
-        <v>0.009650000000000001</v>
+        <v>0.009719999999999999</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>46043.375</v>
       </c>
       <c r="B68" t="n">
-        <v>-6.08274</v>
+        <v>-6.62812</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
         <v>46043.39583333334</v>
       </c>
       <c r="B69" t="n">
-        <v>-6.96614</v>
+        <v>-6.99226</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>46043.41666666666</v>
       </c>
       <c r="B70" t="n">
-        <v>-8.786479999999999</v>
+        <v>-8.691649999999999</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>46043.4375</v>
       </c>
       <c r="B71" t="n">
-        <v>-9.5</v>
+        <v>-8.85641</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         <v>46043.45833333334</v>
       </c>
       <c r="B72" t="n">
-        <v>-15.04586</v>
+        <v>-14</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>46043.47916666666</v>
       </c>
       <c r="B73" t="n">
-        <v>-18.19399</v>
+        <v>-14.49854</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>46043.5</v>
       </c>
       <c r="B74" t="n">
-        <v>-16.79318</v>
+        <v>-16.35771</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>46043.52083333334</v>
       </c>
       <c r="B75" t="n">
-        <v>-22.40926</v>
+        <v>-23.07171</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
         <v>46043.54166666666</v>
       </c>
       <c r="B76" t="n">
-        <v>-23.5</v>
+        <v>-22.40654</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>46043.58333333334</v>
       </c>
       <c r="B78" t="n">
-        <v>-21.03239</v>
+        <v>-23.5</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>46043.60416666666</v>
       </c>
       <c r="B79" t="n">
-        <v>-23.5</v>
+        <v>-23.78763</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>46043.625</v>
       </c>
       <c r="B80" t="n">
-        <v>-18.71477</v>
+        <v>-23.5</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>46043.64583333334</v>
       </c>
       <c r="B81" t="n">
-        <v>-10</v>
+        <v>-14</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>46043.66666666666</v>
       </c>
       <c r="B82" t="n">
-        <v>-5.72703</v>
+        <v>-6.40066</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>46043.6875</v>
       </c>
       <c r="B83" t="n">
-        <v>-2.03998</v>
+        <v>-4.61188</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         <v>46043.72916666666</v>
       </c>
       <c r="B85" t="n">
-        <v>46.59793</v>
+        <v>46.9682</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>46043.75</v>
       </c>
       <c r="B86" t="n">
-        <v>56.98</v>
+        <v>56.52321</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         <v>46043.77083333334</v>
       </c>
       <c r="B87" t="n">
-        <v>69.05019</v>
+        <v>65</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>46043.79166666666</v>
       </c>
       <c r="B88" t="n">
-        <v>100.01</v>
+        <v>77.94</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>46043.8125</v>
       </c>
       <c r="B89" t="n">
-        <v>105.0001</v>
+        <v>105.79</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>46043.83333333334</v>
       </c>
       <c r="B90" t="n">
-        <v>87.00089</v>
+        <v>79.95</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>46043.85416666666</v>
       </c>
       <c r="B91" t="n">
-        <v>73.78428</v>
+        <v>73.82011</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>46043.875</v>
       </c>
       <c r="B92" t="n">
-        <v>70.50577</v>
+        <v>70.12006</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>46043.91666666666</v>
       </c>
       <c r="B94" t="n">
-        <v>60.25514</v>
+        <v>60.27702</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -518,39 +518,39 @@
         <v>46042.91666666666</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>46043.14583333334</v>
+        <v>46043.125</v>
       </c>
       <c r="C4" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>20.79</v>
+        <v>18.9</v>
       </c>
       <c r="E4" t="n">
-        <v>619.4632859999999</v>
+        <v>562.6022609999999</v>
       </c>
       <c r="F4" t="n">
-        <v>29.79621385281385</v>
+        <v>29.76731539682539</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46043.3125</v>
+        <v>46043.29166666666</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>46043.66666666666</v>
       </c>
       <c r="C5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>32.13</v>
+        <v>34.02</v>
       </c>
       <c r="E5" t="n">
-        <v>-226.12220475</v>
+        <v>-177.4568445</v>
       </c>
       <c r="F5" t="n">
-        <v>-7.037728127917834</v>
+        <v>-5.21625057319224</v>
       </c>
     </row>
   </sheetData>
@@ -1297,7 +1297,7 @@
         <v>46042.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>22.07</v>
+        <v>-5.76787</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>46042.70833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>36.07</v>
+        <v>-2.7996</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1339,7 +1339,7 @@
         <v>46042.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>50.8425</v>
+        <v>49.38629</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1360,11 +1360,11 @@
         <v>46042.75</v>
       </c>
       <c r="B38" t="n">
-        <v>60.35108</v>
+        <v>60.01523</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D38" s="3" t="n">
@@ -1381,7 +1381,7 @@
         <v>46042.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>63.74797</v>
+        <v>63.25126</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         <v>46042.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>73.94592</v>
+        <v>83.7666</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         <v>46042.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>75.72364</v>
+        <v>81.25905</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>46042.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>78</v>
+        <v>79.08551</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>46042.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>76.20085</v>
+        <v>78</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>46042.875</v>
       </c>
       <c r="B44" t="n">
-        <v>69.69265</v>
+        <v>75.13731</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>46042.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>63.79708</v>
+        <v>64.8901</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         <v>46042.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>64.26672000000001</v>
+        <v>63.00775</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1780,7 +1780,7 @@
         <v>46043.16666666666</v>
       </c>
       <c r="B58" t="n">
-        <v>65.94062</v>
+        <v>65</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>46043.1875</v>
       </c>
       <c r="B59" t="n">
-        <v>67.70805</v>
+        <v>68.17046999999999</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>46043.20833333334</v>
       </c>
       <c r="B60" t="n">
-        <v>72.01038</v>
+        <v>73.20005</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>46043.22916666666</v>
       </c>
       <c r="B61" t="n">
-        <v>79.36201</v>
+        <v>78.85684000000001</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>46043.25</v>
       </c>
       <c r="B62" t="n">
-        <v>80.45009</v>
+        <v>79.26575</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>46043.27083333334</v>
       </c>
       <c r="B63" t="n">
-        <v>68.98878999999999</v>
+        <v>64.89</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>46043.29166666666</v>
       </c>
       <c r="B64" t="n">
-        <v>57.06012</v>
+        <v>54.86055</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1948,7 +1948,7 @@
         <v>46043.33333333334</v>
       </c>
       <c r="B66" t="n">
-        <v>0.009719999999999999</v>
+        <v>2e-05</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>46043.35416666666</v>
       </c>
       <c r="B67" t="n">
-        <v>-2.83936</v>
+        <v>-5.50985</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>46043.375</v>
       </c>
       <c r="B68" t="n">
-        <v>-6.62812</v>
+        <v>-6.97897</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
         <v>46043.39583333334</v>
       </c>
       <c r="B69" t="n">
-        <v>-6.99226</v>
+        <v>-7.1246</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>46043.41666666666</v>
       </c>
       <c r="B70" t="n">
-        <v>-8.691649999999999</v>
+        <v>-8.87745</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>46043.4375</v>
       </c>
       <c r="B71" t="n">
-        <v>-8.85641</v>
+        <v>-9.5</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>46043.47916666666</v>
       </c>
       <c r="B73" t="n">
-        <v>-14.49854</v>
+        <v>-14.76574</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>46043.5</v>
       </c>
       <c r="B74" t="n">
-        <v>-16.35771</v>
+        <v>-16.47786</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>46043.52083333334</v>
       </c>
       <c r="B75" t="n">
-        <v>-23.07171</v>
+        <v>-22.30467</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
         <v>46043.54166666666</v>
       </c>
       <c r="B76" t="n">
-        <v>-22.40654</v>
+        <v>-22.25351</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>46043.5625</v>
       </c>
       <c r="B77" t="n">
-        <v>-23.5</v>
+        <v>-24.46768</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>46043.58333333334</v>
       </c>
       <c r="B78" t="n">
-        <v>-23.5</v>
+        <v>-24.10291</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>46043.60416666666</v>
       </c>
       <c r="B79" t="n">
-        <v>-23.78763</v>
+        <v>-22.49172</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>46043.64583333334</v>
       </c>
       <c r="B81" t="n">
-        <v>-14</v>
+        <v>-15.21263</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>46043.66666666666</v>
       </c>
       <c r="B82" t="n">
-        <v>-6.40066</v>
+        <v>-6.71362</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>46043.6875</v>
       </c>
       <c r="B83" t="n">
-        <v>-4.61188</v>
+        <v>-5.13153</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         <v>46043.72916666666</v>
       </c>
       <c r="B85" t="n">
-        <v>46.9682</v>
+        <v>47.13993</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>46043.75</v>
       </c>
       <c r="B86" t="n">
-        <v>56.52321</v>
+        <v>56.52442</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         <v>46043.77083333334</v>
       </c>
       <c r="B87" t="n">
-        <v>65</v>
+        <v>64.8901</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>46043.79166666666</v>
       </c>
       <c r="B88" t="n">
-        <v>77.94</v>
+        <v>100.01</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>46043.8125</v>
       </c>
       <c r="B89" t="n">
-        <v>105.79</v>
+        <v>100.01</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>46043.83333333334</v>
       </c>
       <c r="B90" t="n">
-        <v>79.95</v>
+        <v>86.53725</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>46043.85416666666</v>
       </c>
       <c r="B91" t="n">
-        <v>73.82011</v>
+        <v>73.19</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>46043.875</v>
       </c>
       <c r="B92" t="n">
-        <v>70.12006</v>
+        <v>65</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>46043.91666666666</v>
       </c>
       <c r="B94" t="n">
-        <v>60.27702</v>
+        <v>59.91511</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2557,7 +2557,7 @@
         <v>46043.9375</v>
       </c>
       <c r="B95" t="n">
-        <v>65</v>
+        <v>63.83478</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -478,59 +478,59 @@
         <v>46042</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>46042.20833333334</v>
+        <v>46042.22916666666</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="D2" t="n">
-        <v>18.9</v>
+        <v>20.79</v>
       </c>
       <c r="E2" t="n">
-        <v>562.8036959999998</v>
+        <v>626.1786959999998</v>
       </c>
       <c r="F2" t="n">
-        <v>29.77797333333333</v>
+        <v>30.11922539682539</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46042.29166666666</v>
+        <v>46042.27083333334</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>46042.66666666666</v>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="D3" t="n">
-        <v>34.02</v>
+        <v>35.91</v>
       </c>
       <c r="E3" t="n">
-        <v>-30.35730749999998</v>
+        <v>32.91044249999999</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.8923370811287473</v>
+        <v>0.9164701336675019</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46042.91666666666</v>
+        <v>46042.95833333334</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>46043.125</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>18.9</v>
+        <v>15.12</v>
       </c>
       <c r="E4" t="n">
-        <v>575.3266837499999</v>
+        <v>492.34987425</v>
       </c>
       <c r="F4" t="n">
-        <v>30.44056527777778</v>
+        <v>32.56282237103174</v>
       </c>
     </row>
     <row r="5">
@@ -547,10 +547,10 @@
         <v>34.02</v>
       </c>
       <c r="E5" t="n">
-        <v>-217.64118675</v>
+        <v>-197.16784425</v>
       </c>
       <c r="F5" t="n">
-        <v>-6.397448170194004</v>
+        <v>-5.795645039682539</v>
       </c>
     </row>
   </sheetData>
@@ -826,7 +826,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -889,7 +889,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1465,7 +1465,7 @@
         <v>46042.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>76.31898</v>
+        <v>56.98</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>46042.875</v>
       </c>
       <c r="B44" t="n">
-        <v>66.49145</v>
+        <v>56.98</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1507,11 +1507,11 @@
         <v>46042.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>75.21257</v>
+        <v>80.64212000000001</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D45" s="3" t="n">
@@ -1528,11 +1528,11 @@
         <v>46042.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>62.62235</v>
+        <v>77.94</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D46" s="3" t="n">
@@ -1540,7 +1540,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1549,7 +1549,7 @@
         <v>46042.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1570,7 +1570,7 @@
         <v>46042.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>63.03609</v>
+        <v>65.85371000000001</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
         <v>46042.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>57.06003</v>
+        <v>65</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>46043</v>
       </c>
       <c r="B50" t="n">
-        <v>57.06003</v>
+        <v>65</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>46043.02083333334</v>
       </c>
       <c r="B51" t="n">
-        <v>57.06003</v>
+        <v>65</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>46043.04166666666</v>
       </c>
       <c r="B52" t="n">
-        <v>57.06003</v>
+        <v>65</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>46043.0625</v>
       </c>
       <c r="B53" t="n">
-        <v>57.06003</v>
+        <v>65</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>46043.10416666666</v>
       </c>
       <c r="B55" t="n">
-        <v>57.06003</v>
+        <v>57.06049</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
         <v>46043.125</v>
       </c>
       <c r="B56" t="n">
-        <v>57.06003</v>
+        <v>65</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1759,7 +1759,7 @@
         <v>46043.14583333334</v>
       </c>
       <c r="B57" t="n">
-        <v>57.06003</v>
+        <v>65.46223000000001</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         <v>46043.16666666666</v>
       </c>
       <c r="B58" t="n">
-        <v>63.72093</v>
+        <v>66.07064</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>46043.1875</v>
       </c>
       <c r="B59" t="n">
-        <v>67.19808999999999</v>
+        <v>67.19774</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>46043.20833333334</v>
       </c>
       <c r="B60" t="n">
-        <v>67.36196</v>
+        <v>68.17549</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>46043.22916666666</v>
       </c>
       <c r="B61" t="n">
-        <v>73.20005</v>
+        <v>78</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>46043.25</v>
       </c>
       <c r="B62" t="n">
-        <v>80.61644</v>
+        <v>83.83537</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>46043.27083333334</v>
       </c>
       <c r="B63" t="n">
-        <v>63.26957</v>
+        <v>65</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>46043.29166666666</v>
       </c>
       <c r="B64" t="n">
-        <v>20.85929</v>
+        <v>30.90576</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         <v>46043.3125</v>
       </c>
       <c r="B65" t="n">
-        <v>0.05519</v>
+        <v>0.64885</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>46043.33333333334</v>
       </c>
       <c r="B66" t="n">
-        <v>-2.54451</v>
+        <v>-3.42354</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>46043.375</v>
       </c>
       <c r="B68" t="n">
-        <v>-6.89561</v>
+        <v>-6.82305</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
         <v>46043.39583333334</v>
       </c>
       <c r="B69" t="n">
-        <v>-7.36813</v>
+        <v>-6.93715</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>46043.41666666666</v>
       </c>
       <c r="B70" t="n">
-        <v>-9.383990000000001</v>
+        <v>-9.565659999999999</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>46043.4375</v>
       </c>
       <c r="B71" t="n">
-        <v>-9.699149999999999</v>
+        <v>-9.700060000000001</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>46043.47916666666</v>
       </c>
       <c r="B73" t="n">
-        <v>-15.16775</v>
+        <v>-14</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>46043.5</v>
       </c>
       <c r="B74" t="n">
-        <v>-15.16905</v>
+        <v>-14.68544</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>46043.52083333334</v>
       </c>
       <c r="B75" t="n">
-        <v>-20</v>
+        <v>-22.78962</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
         <v>46043.54166666666</v>
       </c>
       <c r="B76" t="n">
-        <v>-21.6667</v>
+        <v>-19.39014</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>46043.58333333334</v>
       </c>
       <c r="B78" t="n">
-        <v>-21.86572</v>
+        <v>-20.82009</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>46043.625</v>
       </c>
       <c r="B80" t="n">
-        <v>-24.23063</v>
+        <v>-23.5</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>46043.64583333334</v>
       </c>
       <c r="B81" t="n">
-        <v>-23.14497</v>
+        <v>-15.14329</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>46043.66666666666</v>
       </c>
       <c r="B82" t="n">
-        <v>-6.88281</v>
+        <v>-6.88086</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>46043.6875</v>
       </c>
       <c r="B83" t="n">
-        <v>-5.51</v>
+        <v>-5.46656</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         <v>46043.72916666666</v>
       </c>
       <c r="B85" t="n">
-        <v>47.13993</v>
+        <v>47.21538</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>46043.75</v>
       </c>
       <c r="B86" t="n">
-        <v>48.11341</v>
+        <v>54.41338</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         <v>46043.77083333334</v>
       </c>
       <c r="B87" t="n">
-        <v>63.19697</v>
+        <v>57.31</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>46043.79166666666</v>
       </c>
       <c r="B88" t="n">
-        <v>73.2</v>
+        <v>79.95</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>46043.8125</v>
       </c>
       <c r="B89" t="n">
-        <v>79.95</v>
+        <v>83.63907</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>46043.85416666666</v>
       </c>
       <c r="B91" t="n">
-        <v>73.19</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>46043.89583333334</v>
       </c>
       <c r="B93" t="n">
-        <v>73.19</v>
+        <v>71.0382</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>46043.91666666666</v>
       </c>
       <c r="B94" t="n">
-        <v>59.9297</v>
+        <v>57.09</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2557,7 +2557,7 @@
         <v>46043.9375</v>
       </c>
       <c r="B95" t="n">
-        <v>63.57467</v>
+        <v>63.95073</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>46043.97916666666</v>
       </c>
       <c r="B97" t="n">
-        <v>64.8901</v>
+        <v>64.88197</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -475,62 +475,62 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46042</v>
+        <v>46042.02083333334</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>46042.22916666666</v>
+        <v>46042.1875</v>
       </c>
       <c r="C2" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>20.79</v>
+        <v>15.12</v>
       </c>
       <c r="E2" t="n">
-        <v>626.1786959999998</v>
+        <v>445.0682339999999</v>
       </c>
       <c r="F2" t="n">
-        <v>30.11922539682539</v>
+        <v>29.43572976190476</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46042.27083333334</v>
+        <v>46042.29166666666</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>46042.66666666666</v>
       </c>
       <c r="C3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>35.91</v>
+        <v>34.02</v>
       </c>
       <c r="E3" t="n">
-        <v>32.91044249999999</v>
+        <v>-30.35730749999998</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9164701336675019</v>
+        <v>-0.8923370811287473</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46042.95833333334</v>
+        <v>46042.875</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>46043.125</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>15.12</v>
+        <v>22.68</v>
       </c>
       <c r="E4" t="n">
-        <v>492.34987425</v>
+        <v>721.17638775</v>
       </c>
       <c r="F4" t="n">
-        <v>32.56282237103174</v>
+        <v>31.79790069444444</v>
       </c>
     </row>
     <row r="5">
@@ -547,10 +547,10 @@
         <v>34.02</v>
       </c>
       <c r="E5" t="n">
-        <v>-197.16784425</v>
+        <v>-221.8333455</v>
       </c>
       <c r="F5" t="n">
-        <v>-5.795645039682539</v>
+        <v>-6.520674470899471</v>
       </c>
     </row>
   </sheetData>
@@ -616,7 +616,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -805,7 +805,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -826,7 +826,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -889,7 +889,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1498,7 +1498,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1507,7 +1507,7 @@
         <v>46042.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>80.64212000000001</v>
+        <v>48.46067</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1528,7 +1528,7 @@
         <v>46042.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>77.94</v>
+        <v>56.98</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1549,11 +1549,11 @@
         <v>46042.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>78</v>
+        <v>57.3</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D47" s="3" t="n">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1570,11 +1570,11 @@
         <v>46042.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>65.85371000000001</v>
+        <v>65.85254</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D48" s="3" t="n">
@@ -1595,7 +1595,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D49" s="3" t="n">
@@ -1612,7 +1612,7 @@
         <v>46043</v>
       </c>
       <c r="B50" t="n">
-        <v>65</v>
+        <v>64.8901</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>46043.02083333334</v>
       </c>
       <c r="B51" t="n">
-        <v>65</v>
+        <v>64.89</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>46043.04166666666</v>
       </c>
       <c r="B52" t="n">
-        <v>65</v>
+        <v>64.89</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         <v>46043.08333333334</v>
       </c>
       <c r="B54" t="n">
-        <v>57.06003</v>
+        <v>64.53478</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>46043.10416666666</v>
       </c>
       <c r="B55" t="n">
-        <v>57.06049</v>
+        <v>64.89</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1759,7 +1759,7 @@
         <v>46043.14583333334</v>
       </c>
       <c r="B57" t="n">
-        <v>65.46223000000001</v>
+        <v>65.64212999999999</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         <v>46043.16666666666</v>
       </c>
       <c r="B58" t="n">
-        <v>66.07064</v>
+        <v>68.87112999999999</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>46043.1875</v>
       </c>
       <c r="B59" t="n">
-        <v>67.19774</v>
+        <v>73.20005</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>46043.20833333334</v>
       </c>
       <c r="B60" t="n">
-        <v>68.17549</v>
+        <v>73.20005</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>46043.22916666666</v>
       </c>
       <c r="B61" t="n">
-        <v>78</v>
+        <v>79.95022</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>46043.25</v>
       </c>
       <c r="B62" t="n">
-        <v>83.83537</v>
+        <v>103.52886</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>46043.27083333334</v>
       </c>
       <c r="B63" t="n">
-        <v>65</v>
+        <v>77.94</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>46043.29166666666</v>
       </c>
       <c r="B64" t="n">
-        <v>30.90576</v>
+        <v>35.88</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         <v>46043.3125</v>
       </c>
       <c r="B65" t="n">
-        <v>0.64885</v>
+        <v>0.66826</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>46043.33333333334</v>
       </c>
       <c r="B66" t="n">
-        <v>-3.42354</v>
+        <v>-1.08193</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>46043.35416666666</v>
       </c>
       <c r="B67" t="n">
-        <v>-6</v>
+        <v>-5.97579</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>46043.375</v>
       </c>
       <c r="B68" t="n">
-        <v>-6.82305</v>
+        <v>-6.79084</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
         <v>46043.39583333334</v>
       </c>
       <c r="B69" t="n">
-        <v>-6.93715</v>
+        <v>-7.41772</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>46043.41666666666</v>
       </c>
       <c r="B70" t="n">
-        <v>-9.565659999999999</v>
+        <v>-9.5</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>46043.4375</v>
       </c>
       <c r="B71" t="n">
-        <v>-9.700060000000001</v>
+        <v>-10</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>46043.47916666666</v>
       </c>
       <c r="B73" t="n">
-        <v>-14</v>
+        <v>-15.89865</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>46043.5</v>
       </c>
       <c r="B74" t="n">
-        <v>-14.68544</v>
+        <v>-22.10072</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>46043.52083333334</v>
       </c>
       <c r="B75" t="n">
-        <v>-22.78962</v>
+        <v>-23.5</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
         <v>46043.54166666666</v>
       </c>
       <c r="B76" t="n">
-        <v>-19.39014</v>
+        <v>-24.41017</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>46043.58333333334</v>
       </c>
       <c r="B78" t="n">
-        <v>-20.82009</v>
+        <v>-27</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>46043.60416666666</v>
       </c>
       <c r="B79" t="n">
-        <v>-23.5</v>
+        <v>-25.94511</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>46043.625</v>
       </c>
       <c r="B80" t="n">
-        <v>-23.5</v>
+        <v>-24.08764</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>46043.64583333334</v>
       </c>
       <c r="B81" t="n">
-        <v>-15.14329</v>
+        <v>-22.86107</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>46043.66666666666</v>
       </c>
       <c r="B82" t="n">
-        <v>-6.88086</v>
+        <v>-6.8</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>46043.6875</v>
       </c>
       <c r="B83" t="n">
-        <v>-5.46656</v>
+        <v>-5.51</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         <v>46043.72916666666</v>
       </c>
       <c r="B85" t="n">
-        <v>47.21538</v>
+        <v>48.61802</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>46043.75</v>
       </c>
       <c r="B86" t="n">
-        <v>54.41338</v>
+        <v>55.37363</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         <v>46043.77083333334</v>
       </c>
       <c r="B87" t="n">
-        <v>57.31</v>
+        <v>61.05003</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>46043.8125</v>
       </c>
       <c r="B89" t="n">
-        <v>83.63907</v>
+        <v>79.95</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>46043.83333333334</v>
       </c>
       <c r="B90" t="n">
-        <v>78</v>
+        <v>73.37</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>46043.85416666666</v>
       </c>
       <c r="B91" t="n">
-        <v>71.40000000000001</v>
+        <v>65</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>46043.875</v>
       </c>
       <c r="B92" t="n">
-        <v>65</v>
+        <v>57.31</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>46043.89583333334</v>
       </c>
       <c r="B93" t="n">
-        <v>71.0382</v>
+        <v>59.66383</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2557,7 +2557,7 @@
         <v>46043.9375</v>
       </c>
       <c r="B95" t="n">
-        <v>63.95073</v>
+        <v>61.91795</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>46043.95833333334</v>
       </c>
       <c r="B96" t="n">
-        <v>64.8901</v>
+        <v>63.33725</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>46043.97916666666</v>
       </c>
       <c r="B97" t="n">
-        <v>64.88197</v>
+        <v>63.95727</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,82 +475,42 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46042.02083333334</v>
+        <v>46043.16666666666</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>46042.1875</v>
+        <v>46043.66666666666</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>15.12</v>
+        <v>45.36</v>
       </c>
       <c r="E2" t="n">
-        <v>445.0682339999999</v>
+        <v>233.2794652500001</v>
       </c>
       <c r="F2" t="n">
-        <v>29.43572976190476</v>
+        <v>5.142845353835982</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46042.29166666666</v>
+        <v>46043.83333333334</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>46042.66666666666</v>
+        <v>46044</v>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>34.02</v>
+        <v>15.12</v>
       </c>
       <c r="E3" t="n">
-        <v>-30.35730749999998</v>
+        <v>492.7801125</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.8923370811287473</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>46042.875</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>46043.125</v>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>22.68</v>
-      </c>
-      <c r="E4" t="n">
-        <v>721.17638775</v>
-      </c>
-      <c r="F4" t="n">
-        <v>31.79790069444444</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>46043.29166666666</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>46043.66666666666</v>
-      </c>
-      <c r="C5" t="n">
-        <v>9</v>
-      </c>
-      <c r="D5" t="n">
-        <v>34.02</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-221.8333455</v>
-      </c>
-      <c r="F5" t="n">
-        <v>-6.520674470899471</v>
+        <v>32.59127728174604</v>
       </c>
     </row>
   </sheetData>
@@ -564,7 +524,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -601,10 +561,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46042</v>
+        <v>46043</v>
       </c>
       <c r="B2" t="n">
-        <v>58.98372</v>
+        <v>67.06169</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -612,7 +572,7 @@
         </is>
       </c>
       <c r="D2" s="3" t="n">
-        <v>46042</v>
+        <v>46043</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -622,10 +582,10 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46042.02083333334</v>
+        <v>46043.02083333334</v>
       </c>
       <c r="B3" t="n">
-        <v>57.06003</v>
+        <v>65</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -633,154 +593,154 @@
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>46042</v>
+        <v>46043</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46042.04166666666</v>
+        <v>46043.04166666666</v>
       </c>
       <c r="B4" t="n">
-        <v>57.06003</v>
+        <v>65</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>46042</v>
+        <v>46043</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46042.0625</v>
+        <v>46043.0625</v>
       </c>
       <c r="B5" t="n">
-        <v>57.06003</v>
+        <v>65</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>46042</v>
+        <v>46043</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>46042.08333333334</v>
+        <v>46043.08333333334</v>
       </c>
       <c r="B6" t="n">
-        <v>57.06003</v>
+        <v>64.38901</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>46042</v>
+        <v>46043</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>46042.10416666666</v>
+        <v>46043.10416666666</v>
       </c>
       <c r="B7" t="n">
-        <v>57.06003</v>
+        <v>64.89</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>46042</v>
+        <v>46043</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>46042.125</v>
+        <v>46043.125</v>
       </c>
       <c r="B8" t="n">
-        <v>57.06003</v>
+        <v>65.15516</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>46042</v>
+        <v>46043</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>46042.14583333334</v>
+        <v>46043.14583333334</v>
       </c>
       <c r="B9" t="n">
-        <v>57.06003</v>
+        <v>66.64041</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>46042</v>
+        <v>46043</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>46042.16666666666</v>
+        <v>46043.16666666666</v>
       </c>
       <c r="B10" t="n">
-        <v>57.06003</v>
+        <v>69.25782</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>46042</v>
+        <v>46043</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -790,123 +750,123 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>46042.1875</v>
+        <v>46043.1875</v>
       </c>
       <c r="B11" t="n">
-        <v>61.7706</v>
+        <v>77.94</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>46042</v>
+        <v>46043</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>46042.20833333334</v>
+        <v>46043.20833333334</v>
       </c>
       <c r="B12" t="n">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>46042</v>
+        <v>46043</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>46042.22916666666</v>
+        <v>46043.22916666666</v>
       </c>
       <c r="B13" t="n">
-        <v>65</v>
+        <v>84.36696000000001</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>46042</v>
+        <v>46043</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>46042.25</v>
+        <v>46043.25</v>
       </c>
       <c r="B14" t="n">
-        <v>77.08934000000001</v>
+        <v>90.53097</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>46042</v>
+        <v>46043</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>46042.27083333334</v>
+        <v>46043.27083333334</v>
       </c>
       <c r="B15" t="n">
-        <v>64.89</v>
+        <v>73.19</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>46042</v>
+        <v>46043</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>46042.29166666666</v>
+        <v>46043.29166666666</v>
       </c>
       <c r="B16" t="n">
-        <v>56.98</v>
+        <v>35.88</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>46042</v>
+        <v>46043</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -916,18 +876,18 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>46042.3125</v>
+        <v>46043.3125</v>
       </c>
       <c r="B17" t="n">
-        <v>8.61645</v>
+        <v>0.66809</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D17" s="3" t="n">
-        <v>46042</v>
+        <v>46043</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -937,18 +897,18 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>46042.33333333334</v>
+        <v>46043.33333333334</v>
       </c>
       <c r="B18" t="n">
-        <v>3.55269</v>
+        <v>-0.9517099999999999</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D18" s="3" t="n">
-        <v>46042</v>
+        <v>46043</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -958,18 +918,18 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>46042.35416666666</v>
+        <v>46043.35416666666</v>
       </c>
       <c r="B19" t="n">
-        <v>0.7</v>
+        <v>-5.97442</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D19" s="3" t="n">
-        <v>46042</v>
+        <v>46043</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -979,18 +939,18 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>46042.375</v>
+        <v>46043.375</v>
       </c>
       <c r="B20" t="n">
-        <v>0.009379999999999999</v>
+        <v>-6.767</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D20" s="3" t="n">
-        <v>46042</v>
+        <v>46043</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1000,18 +960,18 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>46042.39583333334</v>
+        <v>46043.39583333334</v>
       </c>
       <c r="B21" t="n">
-        <v>-5.01</v>
+        <v>-7.38118</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D21" s="3" t="n">
-        <v>46042</v>
+        <v>46043</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1021,18 +981,18 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>46042.41666666666</v>
+        <v>46043.41666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>-6.73332</v>
+        <v>-9.5</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D22" s="3" t="n">
-        <v>46042</v>
+        <v>46043</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1042,18 +1002,18 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>46042.4375</v>
+        <v>46043.4375</v>
       </c>
       <c r="B23" t="n">
-        <v>-6.52883</v>
+        <v>-10</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D23" s="3" t="n">
-        <v>46042</v>
+        <v>46043</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1063,18 +1023,18 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>46042.45833333334</v>
+        <v>46043.45833333334</v>
       </c>
       <c r="B24" t="n">
-        <v>-7.88121</v>
+        <v>-15.45567</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D24" s="3" t="n">
-        <v>46042</v>
+        <v>46043</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1084,18 +1044,18 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>46042.47916666666</v>
+        <v>46043.47916666666</v>
       </c>
       <c r="B25" t="n">
-        <v>-7.87686</v>
+        <v>-15.78457</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D25" s="3" t="n">
-        <v>46042</v>
+        <v>46043</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1105,18 +1065,18 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>46042.5</v>
+        <v>46043.5</v>
       </c>
       <c r="B26" t="n">
-        <v>-7.7809</v>
+        <v>-21.33037</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D26" s="3" t="n">
-        <v>46042</v>
+        <v>46043</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1126,18 +1086,18 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>46042.52083333334</v>
+        <v>46043.52083333334</v>
       </c>
       <c r="B27" t="n">
-        <v>-7.91645</v>
+        <v>-22.46498</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D27" s="3" t="n">
-        <v>46042</v>
+        <v>46043</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1147,18 +1107,18 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>46042.54166666666</v>
+        <v>46043.54166666666</v>
       </c>
       <c r="B28" t="n">
-        <v>-9.99</v>
+        <v>-23.82849</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D28" s="3" t="n">
-        <v>46042</v>
+        <v>46043</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1168,18 +1128,18 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>46042.5625</v>
+        <v>46043.5625</v>
       </c>
       <c r="B29" t="n">
-        <v>-8.087569999999999</v>
+        <v>-27</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D29" s="3" t="n">
-        <v>46042</v>
+        <v>46043</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1189,18 +1149,18 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>46042.58333333334</v>
+        <v>46043.58333333334</v>
       </c>
       <c r="B30" t="n">
-        <v>-9.43817</v>
+        <v>-27</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D30" s="3" t="n">
-        <v>46042</v>
+        <v>46043</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1210,18 +1170,18 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>46042.60416666666</v>
+        <v>46043.60416666666</v>
       </c>
       <c r="B31" t="n">
-        <v>-9.5</v>
+        <v>-27</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D31" s="3" t="n">
-        <v>46042</v>
+        <v>46043</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1231,18 +1191,18 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>46042.625</v>
+        <v>46043.625</v>
       </c>
       <c r="B32" t="n">
-        <v>-7.85287</v>
+        <v>-27</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D32" s="3" t="n">
-        <v>46042</v>
+        <v>46043</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1252,18 +1212,18 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>46042.64583333334</v>
+        <v>46043.64583333334</v>
       </c>
       <c r="B33" t="n">
-        <v>-6.39804</v>
+        <v>-23.13446</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D33" s="3" t="n">
-        <v>46042</v>
+        <v>46043</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1273,18 +1233,18 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>46042.66666666666</v>
+        <v>46043.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>-5.51</v>
+        <v>-6.92134</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D34" s="3" t="n">
-        <v>46042</v>
+        <v>46043</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1294,18 +1254,18 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>46042.6875</v>
+        <v>46043.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>-5.76787</v>
+        <v>-5.71303</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D35" s="3" t="n">
-        <v>46042</v>
+        <v>46043</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1315,18 +1275,18 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>46042.70833333334</v>
+        <v>46043.70833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>-2.7996</v>
+        <v>36.06</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D36" s="3" t="n">
-        <v>46042</v>
+        <v>46043</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1336,18 +1296,18 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>46042.72916666666</v>
+        <v>46043.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>5.20914</v>
+        <v>48.63073</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D37" s="3" t="n">
-        <v>46042</v>
+        <v>46043</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1357,18 +1317,18 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>46042.75</v>
+        <v>46043.75</v>
       </c>
       <c r="B38" t="n">
-        <v>9.815239999999999</v>
+        <v>55.37556</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D38" s="3" t="n">
-        <v>46042</v>
+        <v>46043</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1378,18 +1338,18 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>46042.77083333334</v>
+        <v>46043.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>33.01475</v>
+        <v>61.05122</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D39" s="3" t="n">
-        <v>46042</v>
+        <v>46043</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1399,18 +1359,18 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>46042.79166666666</v>
+        <v>46043.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>56.98</v>
+        <v>77.94</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D40" s="3" t="n">
-        <v>46042</v>
+        <v>46043</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1420,18 +1380,18 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>46042.8125</v>
+        <v>46043.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>57.3</v>
+        <v>79.95</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D41" s="3" t="n">
-        <v>46042</v>
+        <v>46043</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1441,60 +1401,60 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>46042.83333333334</v>
+        <v>46043.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>59.1531</v>
+        <v>73.29000000000001</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D42" s="3" t="n">
-        <v>46042</v>
+        <v>46043</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>46042.85416666666</v>
+        <v>46043.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>56.98</v>
+        <v>65</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D43" s="3" t="n">
-        <v>46042</v>
+        <v>46043</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>46042.875</v>
+        <v>46043.875</v>
       </c>
       <c r="B44" t="n">
-        <v>56.98</v>
+        <v>57.31</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D44" s="3" t="n">
-        <v>46042</v>
+        <v>46043</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1504,18 +1464,18 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>46042.89583333334</v>
+        <v>46043.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>48.46067</v>
+        <v>59.66499</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D45" s="3" t="n">
-        <v>46042</v>
+        <v>46043</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1525,18 +1485,18 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>46042.91666666666</v>
+        <v>46043.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>56.98</v>
+        <v>57.31</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D46" s="3" t="n">
-        <v>46042</v>
+        <v>46043</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1546,18 +1506,18 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>46042.9375</v>
+        <v>46043.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>57.3</v>
+        <v>63.17278</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D47" s="3" t="n">
-        <v>46042</v>
+        <v>46043</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1567,18 +1527,18 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>46042.95833333334</v>
+        <v>46043.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>65.85254</v>
+        <v>64.8901</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D48" s="3" t="n">
-        <v>46042</v>
+        <v>46043</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1588,1030 +1548,22 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>46042.97916666666</v>
+        <v>46043.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>65</v>
+        <v>64.77763</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D49" s="3" t="n">
-        <v>46042</v>
+        <v>46043</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
           <t>ON</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>46043</v>
-      </c>
-      <c r="B50" t="n">
-        <v>64.8901</v>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D50" s="3" t="n">
-        <v>46043</v>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>46043.02083333334</v>
-      </c>
-      <c r="B51" t="n">
-        <v>64.89</v>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D51" s="3" t="n">
-        <v>46043</v>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>46043.04166666666</v>
-      </c>
-      <c r="B52" t="n">
-        <v>64.89</v>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D52" s="3" t="n">
-        <v>46043</v>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>46043.0625</v>
-      </c>
-      <c r="B53" t="n">
-        <v>65</v>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D53" s="3" t="n">
-        <v>46043</v>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>46043.08333333334</v>
-      </c>
-      <c r="B54" t="n">
-        <v>64.53478</v>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D54" s="3" t="n">
-        <v>46043</v>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>46043.10416666666</v>
-      </c>
-      <c r="B55" t="n">
-        <v>64.89</v>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D55" s="3" t="n">
-        <v>46043</v>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>46043.125</v>
-      </c>
-      <c r="B56" t="n">
-        <v>65</v>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D56" s="3" t="n">
-        <v>46043</v>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>OFF</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>46043.14583333334</v>
-      </c>
-      <c r="B57" t="n">
-        <v>65.64212999999999</v>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D57" s="3" t="n">
-        <v>46043</v>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>OFF</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>46043.16666666666</v>
-      </c>
-      <c r="B58" t="n">
-        <v>68.87112999999999</v>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D58" s="3" t="n">
-        <v>46043</v>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>OFF</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>46043.1875</v>
-      </c>
-      <c r="B59" t="n">
-        <v>73.20005</v>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D59" s="3" t="n">
-        <v>46043</v>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>OFF</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>46043.20833333334</v>
-      </c>
-      <c r="B60" t="n">
-        <v>73.20005</v>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D60" s="3" t="n">
-        <v>46043</v>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>OFF</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>46043.22916666666</v>
-      </c>
-      <c r="B61" t="n">
-        <v>79.95022</v>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D61" s="3" t="n">
-        <v>46043</v>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>OFF</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>46043.25</v>
-      </c>
-      <c r="B62" t="n">
-        <v>103.52886</v>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D62" s="3" t="n">
-        <v>46043</v>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>OFF</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>46043.27083333334</v>
-      </c>
-      <c r="B63" t="n">
-        <v>77.94</v>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D63" s="3" t="n">
-        <v>46043</v>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>OFF</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>46043.29166666666</v>
-      </c>
-      <c r="B64" t="n">
-        <v>35.88</v>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D64" s="3" t="n">
-        <v>46043</v>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>46043.3125</v>
-      </c>
-      <c r="B65" t="n">
-        <v>0.66826</v>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D65" s="3" t="n">
-        <v>46043</v>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>46043.33333333334</v>
-      </c>
-      <c r="B66" t="n">
-        <v>-1.08193</v>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D66" s="3" t="n">
-        <v>46043</v>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>46043.35416666666</v>
-      </c>
-      <c r="B67" t="n">
-        <v>-5.97579</v>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D67" s="3" t="n">
-        <v>46043</v>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
-        <v>46043.375</v>
-      </c>
-      <c r="B68" t="n">
-        <v>-6.79084</v>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D68" s="3" t="n">
-        <v>46043</v>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
-        <v>46043.39583333334</v>
-      </c>
-      <c r="B69" t="n">
-        <v>-7.41772</v>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D69" s="3" t="n">
-        <v>46043</v>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
-        <v>46043.41666666666</v>
-      </c>
-      <c r="B70" t="n">
-        <v>-9.5</v>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D70" s="3" t="n">
-        <v>46043</v>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
-        <v>46043.4375</v>
-      </c>
-      <c r="B71" t="n">
-        <v>-10</v>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D71" s="3" t="n">
-        <v>46043</v>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
-        <v>46043.45833333334</v>
-      </c>
-      <c r="B72" t="n">
-        <v>-14</v>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D72" s="3" t="n">
-        <v>46043</v>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
-        <v>46043.47916666666</v>
-      </c>
-      <c r="B73" t="n">
-        <v>-15.89865</v>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D73" s="3" t="n">
-        <v>46043</v>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
-        <v>46043.5</v>
-      </c>
-      <c r="B74" t="n">
-        <v>-22.10072</v>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D74" s="3" t="n">
-        <v>46043</v>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
-        <v>46043.52083333334</v>
-      </c>
-      <c r="B75" t="n">
-        <v>-23.5</v>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D75" s="3" t="n">
-        <v>46043</v>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
-        <v>46043.54166666666</v>
-      </c>
-      <c r="B76" t="n">
-        <v>-24.41017</v>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D76" s="3" t="n">
-        <v>46043</v>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
-        <v>46043.5625</v>
-      </c>
-      <c r="B77" t="n">
-        <v>-23.5</v>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D77" s="3" t="n">
-        <v>46043</v>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
-        <v>46043.58333333334</v>
-      </c>
-      <c r="B78" t="n">
-        <v>-27</v>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D78" s="3" t="n">
-        <v>46043</v>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
-        <v>46043.60416666666</v>
-      </c>
-      <c r="B79" t="n">
-        <v>-25.94511</v>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D79" s="3" t="n">
-        <v>46043</v>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
-        <v>46043.625</v>
-      </c>
-      <c r="B80" t="n">
-        <v>-24.08764</v>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D80" s="3" t="n">
-        <v>46043</v>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
-        <v>46043.64583333334</v>
-      </c>
-      <c r="B81" t="n">
-        <v>-22.86107</v>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D81" s="3" t="n">
-        <v>46043</v>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
-        <v>46043.66666666666</v>
-      </c>
-      <c r="B82" t="n">
-        <v>-6.8</v>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D82" s="3" t="n">
-        <v>46043</v>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>OFF</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="2" t="n">
-        <v>46043.6875</v>
-      </c>
-      <c r="B83" t="n">
-        <v>-5.51</v>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D83" s="3" t="n">
-        <v>46043</v>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>OFF</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="2" t="n">
-        <v>46043.70833333334</v>
-      </c>
-      <c r="B84" t="n">
-        <v>36.06</v>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D84" s="3" t="n">
-        <v>46043</v>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>OFF</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="2" t="n">
-        <v>46043.72916666666</v>
-      </c>
-      <c r="B85" t="n">
-        <v>48.61802</v>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D85" s="3" t="n">
-        <v>46043</v>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>OFF</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="2" t="n">
-        <v>46043.75</v>
-      </c>
-      <c r="B86" t="n">
-        <v>55.37363</v>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D86" s="3" t="n">
-        <v>46043</v>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>OFF</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="2" t="n">
-        <v>46043.77083333334</v>
-      </c>
-      <c r="B87" t="n">
-        <v>61.05003</v>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D87" s="3" t="n">
-        <v>46043</v>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>OFF</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="2" t="n">
-        <v>46043.79166666666</v>
-      </c>
-      <c r="B88" t="n">
-        <v>79.95</v>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D88" s="3" t="n">
-        <v>46043</v>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>OFF</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="2" t="n">
-        <v>46043.8125</v>
-      </c>
-      <c r="B89" t="n">
-        <v>79.95</v>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D89" s="3" t="n">
-        <v>46043</v>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>OFF</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="2" t="n">
-        <v>46043.83333333334</v>
-      </c>
-      <c r="B90" t="n">
-        <v>73.37</v>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D90" s="3" t="n">
-        <v>46043</v>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>OFF</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="2" t="n">
-        <v>46043.85416666666</v>
-      </c>
-      <c r="B91" t="n">
-        <v>65</v>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D91" s="3" t="n">
-        <v>46043</v>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>OFF</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="2" t="n">
-        <v>46043.875</v>
-      </c>
-      <c r="B92" t="n">
-        <v>57.31</v>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D92" s="3" t="n">
-        <v>46043</v>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>OFF</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="2" t="n">
-        <v>46043.89583333334</v>
-      </c>
-      <c r="B93" t="n">
-        <v>59.66383</v>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D93" s="3" t="n">
-        <v>46043</v>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>OFF</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="2" t="n">
-        <v>46043.91666666666</v>
-      </c>
-      <c r="B94" t="n">
-        <v>57.09</v>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D94" s="3" t="n">
-        <v>46043</v>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>OFF</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="2" t="n">
-        <v>46043.9375</v>
-      </c>
-      <c r="B95" t="n">
-        <v>61.91795</v>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D95" s="3" t="n">
-        <v>46043</v>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>OFF</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="2" t="n">
-        <v>46043.95833333334</v>
-      </c>
-      <c r="B96" t="n">
-        <v>63.33725</v>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D96" s="3" t="n">
-        <v>46043</v>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>OFF</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="2" t="n">
-        <v>46043.97916666666</v>
-      </c>
-      <c r="B97" t="n">
-        <v>63.95727</v>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="D97" s="3" t="n">
-        <v>46043</v>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>OFF</t>
         </is>
       </c>
     </row>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -507,10 +507,10 @@
         <v>30.24</v>
       </c>
       <c r="E3" t="n">
-        <v>-239.3418885</v>
+        <v>-212.8982895</v>
       </c>
       <c r="F3" t="n">
-        <v>-7.914744990079364</v>
+        <v>-7.040287351190478</v>
       </c>
     </row>
     <row r="4">
@@ -527,10 +527,10 @@
         <v>15.12</v>
       </c>
       <c r="E4" t="n">
-        <v>497.6241465</v>
+        <v>503.80713825</v>
       </c>
       <c r="F4" t="n">
-        <v>32.91164990079366</v>
+        <v>33.3205779265873</v>
       </c>
     </row>
   </sheetData>
@@ -773,7 +773,7 @@
         <v>46043.1875</v>
       </c>
       <c r="B11" t="n">
-        <v>78</v>
+        <v>73.20005</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>46043.20833333334</v>
       </c>
       <c r="B12" t="n">
-        <v>96.67227</v>
+        <v>73.20005</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         <v>46043.22916666666</v>
       </c>
       <c r="B13" t="n">
-        <v>105.79</v>
+        <v>79.95022</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -836,11 +836,11 @@
         <v>46043.25</v>
       </c>
       <c r="B14" t="n">
-        <v>105</v>
+        <v>103.52886</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D14" s="3" t="n">
@@ -857,11 +857,11 @@
         <v>46043.27083333334</v>
       </c>
       <c r="B15" t="n">
-        <v>78</v>
+        <v>74.09622</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D15" s="3" t="n">
@@ -878,11 +878,11 @@
         <v>46043.29166666666</v>
       </c>
       <c r="B16" t="n">
-        <v>57.03041</v>
+        <v>57.06028</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D16" s="3" t="n">
@@ -899,7 +899,7 @@
         <v>46043.3125</v>
       </c>
       <c r="B17" t="n">
-        <v>12.39286</v>
+        <v>19.30098</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>46043.33333333334</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>4e-05</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>46043.35416666666</v>
       </c>
       <c r="B19" t="n">
-        <v>-5.74313</v>
+        <v>-5.50985</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>46043.375</v>
       </c>
       <c r="B20" t="n">
-        <v>-6.73725</v>
+        <v>-6.55616</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -983,7 +983,7 @@
         <v>46043.39583333334</v>
       </c>
       <c r="B21" t="n">
-        <v>-7.34167</v>
+        <v>-7.36041</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>46043.41666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>-8.422269999999999</v>
+        <v>-9.63087</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         <v>46043.4375</v>
       </c>
       <c r="B23" t="n">
-        <v>-10.2958</v>
+        <v>-10</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1046,7 +1046,7 @@
         <v>46043.45833333334</v>
       </c>
       <c r="B24" t="n">
-        <v>-15.15889</v>
+        <v>-13.5</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
         <v>46043.47916666666</v>
       </c>
       <c r="B25" t="n">
-        <v>-15.60123</v>
+        <v>-14</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>46043.5</v>
       </c>
       <c r="B26" t="n">
-        <v>-15.56494</v>
+        <v>-14.22398</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>46043.52083333334</v>
       </c>
       <c r="B27" t="n">
-        <v>-21.65844</v>
+        <v>-20.63217</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>46043.54166666666</v>
       </c>
       <c r="B28" t="n">
-        <v>-21.24892</v>
+        <v>-20.84583</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         <v>46043.5625</v>
       </c>
       <c r="B29" t="n">
-        <v>-22.48391</v>
+        <v>-16.87926</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>46043.58333333334</v>
       </c>
       <c r="B30" t="n">
-        <v>-25.26417</v>
+        <v>-21.75873</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1193,7 +1193,7 @@
         <v>46043.60416666666</v>
       </c>
       <c r="B31" t="n">
-        <v>-23.8909</v>
+        <v>-19.96</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
         <v>46043.64583333334</v>
       </c>
       <c r="B33" t="n">
-        <v>-22.56734</v>
+        <v>-14</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>46043.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>-6.75345</v>
+        <v>-5.92383</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1319,7 +1319,7 @@
         <v>46043.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>47.6595</v>
+        <v>48.02844</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         <v>46043.75</v>
       </c>
       <c r="B38" t="n">
-        <v>47.92523</v>
+        <v>47.64553</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>46043.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>57.31</v>
+        <v>64.01177</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1382,7 +1382,7 @@
         <v>46043.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>71.21621</v>
+        <v>73.2</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         <v>46043.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>73.19</v>
+        <v>77.94</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         <v>46043.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>77.94</v>
+        <v>78</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
         <v>46043.875</v>
       </c>
       <c r="B44" t="n">
-        <v>57.31</v>
+        <v>59.43587</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>46043.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>59.86017</v>
+        <v>62.1992</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
         <v>46043.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>63.18337</v>
+        <v>64.8901</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>46043.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>64.8901</v>
+        <v>65</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -507,10 +507,10 @@
         <v>30.24</v>
       </c>
       <c r="E3" t="n">
-        <v>-212.8982895</v>
+        <v>-202.74691125</v>
       </c>
       <c r="F3" t="n">
-        <v>-7.040287351190478</v>
+        <v>-6.704593625992064</v>
       </c>
     </row>
     <row r="4">
@@ -527,10 +527,10 @@
         <v>15.12</v>
       </c>
       <c r="E4" t="n">
-        <v>503.80713825</v>
+        <v>501.08655675</v>
       </c>
       <c r="F4" t="n">
-        <v>33.3205779265873</v>
+        <v>33.14064528769841</v>
       </c>
     </row>
   </sheetData>
@@ -857,7 +857,7 @@
         <v>46043.27083333334</v>
       </c>
       <c r="B15" t="n">
-        <v>74.09622</v>
+        <v>77.94</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
         <v>46043.29166666666</v>
       </c>
       <c r="B16" t="n">
-        <v>57.06028</v>
+        <v>35.88</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -899,11 +899,11 @@
         <v>46043.3125</v>
       </c>
       <c r="B17" t="n">
-        <v>19.30098</v>
+        <v>56.49932</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D17" s="3" t="n">
@@ -920,11 +920,11 @@
         <v>46043.33333333334</v>
       </c>
       <c r="B18" t="n">
-        <v>4e-05</v>
+        <v>3.32856</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D18" s="3" t="n">
@@ -941,7 +941,7 @@
         <v>46043.35416666666</v>
       </c>
       <c r="B19" t="n">
-        <v>-5.50985</v>
+        <v>-0.97745</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>46043.375</v>
       </c>
       <c r="B20" t="n">
-        <v>-6.55616</v>
+        <v>-6.49292</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -983,7 +983,7 @@
         <v>46043.39583333334</v>
       </c>
       <c r="B21" t="n">
-        <v>-7.36041</v>
+        <v>-7.02733</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>46043.41666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>-9.63087</v>
+        <v>-8.178520000000001</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         <v>46043.4375</v>
       </c>
       <c r="B23" t="n">
-        <v>-10</v>
+        <v>-10.56532</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1046,7 +1046,7 @@
         <v>46043.45833333334</v>
       </c>
       <c r="B24" t="n">
-        <v>-13.5</v>
+        <v>-14</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
         <v>46043.47916666666</v>
       </c>
       <c r="B25" t="n">
-        <v>-14</v>
+        <v>-14.21514</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>46043.5</v>
       </c>
       <c r="B26" t="n">
-        <v>-14.22398</v>
+        <v>-14</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>46043.52083333334</v>
       </c>
       <c r="B27" t="n">
-        <v>-20.63217</v>
+        <v>-18.76135</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>46043.54166666666</v>
       </c>
       <c r="B28" t="n">
-        <v>-20.84583</v>
+        <v>-18.35215</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         <v>46043.5625</v>
       </c>
       <c r="B29" t="n">
-        <v>-16.87926</v>
+        <v>-21.90547</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>46043.58333333334</v>
       </c>
       <c r="B30" t="n">
-        <v>-21.75873</v>
+        <v>-23.5</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1193,7 +1193,7 @@
         <v>46043.60416666666</v>
       </c>
       <c r="B31" t="n">
-        <v>-19.96</v>
+        <v>-21.38033</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>46043.625</v>
       </c>
       <c r="B32" t="n">
-        <v>-23.5</v>
+        <v>-21.91813</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
         <v>46043.64583333334</v>
       </c>
       <c r="B33" t="n">
-        <v>-14</v>
+        <v>-10</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>46043.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>-5.92383</v>
+        <v>-5.74088</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>46043.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>-5.51</v>
+        <v>-0.89533</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1319,7 +1319,7 @@
         <v>46043.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>48.02844</v>
+        <v>47.13993</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         <v>46043.75</v>
       </c>
       <c r="B38" t="n">
-        <v>47.64553</v>
+        <v>54.727</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>46043.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>64.01177</v>
+        <v>64.8901</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1382,7 +1382,7 @@
         <v>46043.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>73.2</v>
+        <v>73.19</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
         <v>46043.875</v>
       </c>
       <c r="B44" t="n">
-        <v>59.43587</v>
+        <v>57.94958</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>46043.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>62.1992</v>
+        <v>61.8265</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
         <v>46043.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>64.8901</v>
+        <v>63.95875</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,59 +478,19 @@
         <v>46043</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>46043.16666666666</v>
+        <v>46043.66666666666</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>15.12</v>
+        <v>60.48</v>
       </c>
       <c r="E2" t="n">
-        <v>506.74358475</v>
+        <v>865.4875807499998</v>
       </c>
       <c r="F2" t="n">
-        <v>33.51478735119048</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>46043.33333333334</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>46043.66666666666</v>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>30.24</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-202.74691125</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-6.704593625992064</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>46043.83333333334</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>46044</v>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>15.12</v>
-      </c>
-      <c r="E4" t="n">
-        <v>501.08655675</v>
-      </c>
-      <c r="F4" t="n">
-        <v>33.14064528769841</v>
+        <v>14.31031052827381</v>
       </c>
     </row>
   </sheetData>
@@ -764,7 +724,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -785,7 +745,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -806,7 +766,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -827,7 +787,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -848,7 +808,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -869,7 +829,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -890,7 +850,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -899,7 +859,7 @@
         <v>46043.3125</v>
       </c>
       <c r="B17" t="n">
-        <v>56.49932</v>
+        <v>0.66826</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -911,7 +871,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -920,7 +880,7 @@
         <v>46043.33333333334</v>
       </c>
       <c r="B18" t="n">
-        <v>3.32856</v>
+        <v>-1.08193</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -941,11 +901,11 @@
         <v>46043.35416666666</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.97745</v>
+        <v>19.36343</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D19" s="3" t="n">
@@ -962,11 +922,11 @@
         <v>46043.375</v>
       </c>
       <c r="B20" t="n">
-        <v>-6.49292</v>
+        <v>0.05792</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D20" s="3" t="n">
@@ -983,7 +943,7 @@
         <v>46043.39583333334</v>
       </c>
       <c r="B21" t="n">
-        <v>-7.02733</v>
+        <v>-6</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1004,7 +964,7 @@
         <v>46043.41666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>-8.178520000000001</v>
+        <v>-6.85012</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1025,7 +985,7 @@
         <v>46043.4375</v>
       </c>
       <c r="B23" t="n">
-        <v>-10.56532</v>
+        <v>-7.90903</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1046,7 +1006,7 @@
         <v>46043.45833333334</v>
       </c>
       <c r="B24" t="n">
-        <v>-14</v>
+        <v>-7.93324</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1067,7 +1027,7 @@
         <v>46043.47916666666</v>
       </c>
       <c r="B25" t="n">
-        <v>-14.21514</v>
+        <v>-10.25893</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1088,7 +1048,7 @@
         <v>46043.5</v>
       </c>
       <c r="B26" t="n">
-        <v>-14</v>
+        <v>-9.99579</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1109,7 +1069,7 @@
         <v>46043.52083333334</v>
       </c>
       <c r="B27" t="n">
-        <v>-18.76135</v>
+        <v>-14</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1130,7 +1090,7 @@
         <v>46043.54166666666</v>
       </c>
       <c r="B28" t="n">
-        <v>-18.35215</v>
+        <v>-14</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1151,7 +1111,7 @@
         <v>46043.5625</v>
       </c>
       <c r="B29" t="n">
-        <v>-21.90547</v>
+        <v>-23.5</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1172,7 +1132,7 @@
         <v>46043.58333333334</v>
       </c>
       <c r="B30" t="n">
-        <v>-23.5</v>
+        <v>-21.82782</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1193,7 +1153,7 @@
         <v>46043.60416666666</v>
       </c>
       <c r="B31" t="n">
-        <v>-21.38033</v>
+        <v>-21.86933</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1214,7 +1174,7 @@
         <v>46043.625</v>
       </c>
       <c r="B32" t="n">
-        <v>-21.91813</v>
+        <v>-12.01</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1235,7 +1195,7 @@
         <v>46043.64583333334</v>
       </c>
       <c r="B33" t="n">
-        <v>-10</v>
+        <v>-7.48117</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1256,7 +1216,7 @@
         <v>46043.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>-5.74088</v>
+        <v>-5.51</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1277,7 +1237,7 @@
         <v>46043.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.89533</v>
+        <v>0</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1298,7 +1258,7 @@
         <v>46043.70833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>36.06</v>
+        <v>36.06018</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1319,7 +1279,7 @@
         <v>46043.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>47.13993</v>
+        <v>48.11341</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1340,7 +1300,7 @@
         <v>46043.75</v>
       </c>
       <c r="B38" t="n">
-        <v>54.727</v>
+        <v>57.09</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1361,7 +1321,7 @@
         <v>46043.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>64.8901</v>
+        <v>65</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1382,7 +1342,7 @@
         <v>46043.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>73.19</v>
+        <v>72.11631</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1424,7 +1384,7 @@
         <v>46043.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>78</v>
+        <v>86.57458</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1436,7 +1396,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1445,7 +1405,7 @@
         <v>46043.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>65</v>
+        <v>66.70882</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1457,7 +1417,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1426,7 @@
         <v>46043.875</v>
       </c>
       <c r="B44" t="n">
-        <v>57.94958</v>
+        <v>60.15676</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1478,7 +1438,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1487,7 +1447,7 @@
         <v>46043.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>61.8265</v>
+        <v>64.8901</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1499,7 +1459,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1520,7 +1480,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1529,7 +1489,7 @@
         <v>46043.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>63.95875</v>
+        <v>64.35353000000001</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1541,7 +1501,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1562,7 +1522,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1571,7 +1531,7 @@
         <v>46043.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>65</v>
+        <v>64.8901</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1583,7 +1543,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,19 +478,79 @@
         <v>46043</v>
       </c>
       <c r="B2" s="2" t="n">
+        <v>46043.1875</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>17.01</v>
+      </c>
+      <c r="E2" t="n">
+        <v>573.8929364999999</v>
+      </c>
+      <c r="F2" t="n">
+        <v>33.73856181657848</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>46043.29166666666</v>
+      </c>
+      <c r="B3" s="2" t="n">
         <v>46043.66666666666</v>
       </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>60.48</v>
-      </c>
-      <c r="E2" t="n">
-        <v>854.3256832499998</v>
-      </c>
-      <c r="F2" t="n">
-        <v>14.12575534474206</v>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>34.02</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-221.8333455</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-6.520674470899471</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>46043.89583333334</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>46044.10416666666</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E4" t="n">
+        <v>588.914547</v>
+      </c>
+      <c r="F4" t="n">
+        <v>31.15949984126984</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>46044.27083333334</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>46044.66666666666</v>
+      </c>
+      <c r="C5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>35.91</v>
+      </c>
+      <c r="E5" t="n">
+        <v>13.66849575</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.3806320175438597</v>
       </c>
     </row>
   </sheetData>
@@ -504,7 +564,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -745,7 +805,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -766,7 +826,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -787,7 +847,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -808,7 +868,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -829,7 +889,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -943,7 +1003,7 @@
         <v>46043.39583333334</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>-7.41772</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -964,7 +1024,7 @@
         <v>46043.41666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>-2.78307</v>
+        <v>-9.5</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -985,11 +1045,11 @@
         <v>46043.4375</v>
       </c>
       <c r="B23" t="n">
-        <v>-7.37741</v>
+        <v>-10</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D23" s="3" t="n">
@@ -1006,11 +1066,11 @@
         <v>46043.45833333334</v>
       </c>
       <c r="B24" t="n">
-        <v>-8.19786</v>
+        <v>-14</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D24" s="3" t="n">
@@ -1027,11 +1087,11 @@
         <v>46043.47916666666</v>
       </c>
       <c r="B25" t="n">
-        <v>-14</v>
+        <v>-15.89865</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D25" s="3" t="n">
@@ -1048,11 +1108,11 @@
         <v>46043.5</v>
       </c>
       <c r="B26" t="n">
-        <v>-10</v>
+        <v>-22.10072</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D26" s="3" t="n">
@@ -1069,11 +1129,11 @@
         <v>46043.52083333334</v>
       </c>
       <c r="B27" t="n">
-        <v>-19.95</v>
+        <v>-23.5</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D27" s="3" t="n">
@@ -1090,11 +1150,11 @@
         <v>46043.54166666666</v>
       </c>
       <c r="B28" t="n">
-        <v>-22.32715</v>
+        <v>-24.41017</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D28" s="3" t="n">
@@ -1111,11 +1171,11 @@
         <v>46043.5625</v>
       </c>
       <c r="B29" t="n">
-        <v>-10</v>
+        <v>-23.5</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D29" s="3" t="n">
@@ -1132,11 +1192,11 @@
         <v>46043.58333333334</v>
       </c>
       <c r="B30" t="n">
-        <v>-22.12631</v>
+        <v>-27</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D30" s="3" t="n">
@@ -1153,11 +1213,11 @@
         <v>46043.60416666666</v>
       </c>
       <c r="B31" t="n">
-        <v>-12.01</v>
+        <v>-25.94511</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D31" s="3" t="n">
@@ -1174,11 +1234,11 @@
         <v>46043.625</v>
       </c>
       <c r="B32" t="n">
-        <v>-6.73554</v>
+        <v>-24.08764</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D32" s="3" t="n">
@@ -1195,11 +1255,11 @@
         <v>46043.64583333334</v>
       </c>
       <c r="B33" t="n">
-        <v>-7.38821</v>
+        <v>-22.86107</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D33" s="3" t="n">
@@ -1216,11 +1276,11 @@
         <v>46043.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>-5.81015</v>
+        <v>-6.8</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D34" s="3" t="n">
@@ -1237,11 +1297,11 @@
         <v>46043.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>-4.61322</v>
+        <v>-5.51</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D35" s="3" t="n">
@@ -1258,11 +1318,11 @@
         <v>46043.70833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>36.06018</v>
+        <v>36.06</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D36" s="3" t="n">
@@ -1279,11 +1339,11 @@
         <v>46043.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>48.11341</v>
+        <v>36.08141</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D37" s="3" t="n">
@@ -1300,11 +1360,11 @@
         <v>46043.75</v>
       </c>
       <c r="B38" t="n">
-        <v>56.98</v>
+        <v>46.54611</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D38" s="3" t="n">
@@ -1321,7 +1381,7 @@
         <v>46043.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>65</v>
+        <v>64.35683</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1363,7 +1423,7 @@
         <v>46043.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>78</v>
+        <v>77.94</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1384,7 +1444,7 @@
         <v>46043.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>105</v>
+        <v>100.01</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1405,7 +1465,7 @@
         <v>46043.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>73.19</v>
+        <v>74.43841999999999</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1426,7 +1486,7 @@
         <v>46043.875</v>
       </c>
       <c r="B44" t="n">
-        <v>65</v>
+        <v>73.19</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1447,7 +1507,7 @@
         <v>46043.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>65</v>
+        <v>71.7281</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1459,7 +1519,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1468,7 +1528,7 @@
         <v>46043.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>57.31</v>
+        <v>59.62291</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1480,7 +1540,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1489,7 +1549,7 @@
         <v>46043.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>64.35272999999999</v>
+        <v>57.98348</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1501,7 +1561,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1510,7 +1570,7 @@
         <v>46043.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>65</v>
+        <v>60.73801</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1522,7 +1582,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1531,7 +1591,7 @@
         <v>46043.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>65</v>
+        <v>61.32156</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1542,6 +1602,1014 @@
         <v>46043</v>
       </c>
       <c r="E49" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>46044</v>
+      </c>
+      <c r="B50" t="n">
+        <v>57.31</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D50" s="3" t="n">
+        <v>46044</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>46044.02083333334</v>
+      </c>
+      <c r="B51" t="n">
+        <v>63.88086</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D51" s="3" t="n">
+        <v>46044</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>46044.04166666666</v>
+      </c>
+      <c r="B52" t="n">
+        <v>57.31</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D52" s="3" t="n">
+        <v>46044</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>46044.0625</v>
+      </c>
+      <c r="B53" t="n">
+        <v>57.06</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D53" s="3" t="n">
+        <v>46044</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>46044.08333333334</v>
+      </c>
+      <c r="B54" t="n">
+        <v>57.06</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D54" s="3" t="n">
+        <v>46044</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>46044.10416666666</v>
+      </c>
+      <c r="B55" t="n">
+        <v>57.06</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D55" s="3" t="n">
+        <v>46044</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>46044.125</v>
+      </c>
+      <c r="B56" t="n">
+        <v>63.73519</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D56" s="3" t="n">
+        <v>46044</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>46044.14583333334</v>
+      </c>
+      <c r="B57" t="n">
+        <v>64.10364</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D57" s="3" t="n">
+        <v>46044</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>46044.16666666666</v>
+      </c>
+      <c r="B58" t="n">
+        <v>65.32088</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D58" s="3" t="n">
+        <v>46044</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>46044.1875</v>
+      </c>
+      <c r="B59" t="n">
+        <v>65.85026999999999</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D59" s="3" t="n">
+        <v>46044</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>46044.20833333334</v>
+      </c>
+      <c r="B60" t="n">
+        <v>66.04559</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D60" s="3" t="n">
+        <v>46044</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>46044.22916666666</v>
+      </c>
+      <c r="B61" t="n">
+        <v>76.12006</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D61" s="3" t="n">
+        <v>46044</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>46044.25</v>
+      </c>
+      <c r="B62" t="n">
+        <v>64.89</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D62" s="3" t="n">
+        <v>46044</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>46044.27083333334</v>
+      </c>
+      <c r="B63" t="n">
+        <v>57.06</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D63" s="3" t="n">
+        <v>46044</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>46044.29166666666</v>
+      </c>
+      <c r="B64" t="n">
+        <v>30.9379</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D64" s="3" t="n">
+        <v>46044</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>46044.3125</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D65" s="3" t="n">
+        <v>46044</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>46044.33333333334</v>
+      </c>
+      <c r="B66" t="n">
+        <v>-5.50985</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D66" s="3" t="n">
+        <v>46044</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>46044.35416666666</v>
+      </c>
+      <c r="B67" t="n">
+        <v>-6.15086</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D67" s="3" t="n">
+        <v>46044</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>46044.375</v>
+      </c>
+      <c r="B68" t="n">
+        <v>-10</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D68" s="3" t="n">
+        <v>46044</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>46044.39583333334</v>
+      </c>
+      <c r="B69" t="n">
+        <v>-13.50737</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D69" s="3" t="n">
+        <v>46044</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>46044.41666666666</v>
+      </c>
+      <c r="B70" t="n">
+        <v>-9.621499999999999</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D70" s="3" t="n">
+        <v>46044</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>46044.4375</v>
+      </c>
+      <c r="B71" t="n">
+        <v>-12.01</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D71" s="3" t="n">
+        <v>46044</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>46044.45833333334</v>
+      </c>
+      <c r="B72" t="n">
+        <v>-12.01</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D72" s="3" t="n">
+        <v>46044</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>46044.47916666666</v>
+      </c>
+      <c r="B73" t="n">
+        <v>-5.74313</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D73" s="3" t="n">
+        <v>46044</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>46044.5</v>
+      </c>
+      <c r="B74" t="n">
+        <v>-10</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D74" s="3" t="n">
+        <v>46044</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>46044.52083333334</v>
+      </c>
+      <c r="B75" t="n">
+        <v>-8.0564</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D75" s="3" t="n">
+        <v>46044</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>46044.54166666666</v>
+      </c>
+      <c r="B76" t="n">
+        <v>-7.79393</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D76" s="3" t="n">
+        <v>46044</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>46044.5625</v>
+      </c>
+      <c r="B77" t="n">
+        <v>-5.88864</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D77" s="3" t="n">
+        <v>46044</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>46044.58333333334</v>
+      </c>
+      <c r="B78" t="n">
+        <v>-5.27725</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D78" s="3" t="n">
+        <v>46044</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>46044.60416666666</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D79" s="3" t="n">
+        <v>46044</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>46044.625</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D80" s="3" t="n">
+        <v>46044</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>46044.64583333334</v>
+      </c>
+      <c r="B81" t="n">
+        <v>36.06</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D81" s="3" t="n">
+        <v>46044</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>46044.66666666666</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D82" s="3" t="n">
+        <v>46044</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>46044.6875</v>
+      </c>
+      <c r="B83" t="n">
+        <v>-4.13512</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D83" s="3" t="n">
+        <v>46044</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>46044.70833333334</v>
+      </c>
+      <c r="B84" t="n">
+        <v>-5.14805</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D84" s="3" t="n">
+        <v>46044</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>46044.72916666666</v>
+      </c>
+      <c r="B85" t="n">
+        <v>-6.90848</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D85" s="3" t="n">
+        <v>46044</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>46044.75</v>
+      </c>
+      <c r="B86" t="n">
+        <v>-0.45834</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D86" s="3" t="n">
+        <v>46044</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>46044.77083333334</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.00036</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D87" s="3" t="n">
+        <v>46044</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>46044.79166666666</v>
+      </c>
+      <c r="B88" t="n">
+        <v>10.48193</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D88" s="3" t="n">
+        <v>46044</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>46044.8125</v>
+      </c>
+      <c r="B89" t="n">
+        <v>55.33036</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D89" s="3" t="n">
+        <v>46044</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>46044.83333333334</v>
+      </c>
+      <c r="B90" t="n">
+        <v>53.90468</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D90" s="3" t="n">
+        <v>46044</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>46044.85416666666</v>
+      </c>
+      <c r="B91" t="n">
+        <v>54.47327</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D91" s="3" t="n">
+        <v>46044</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>46044.875</v>
+      </c>
+      <c r="B92" t="n">
+        <v>57.01318</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D92" s="3" t="n">
+        <v>46044</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>46044.89583333334</v>
+      </c>
+      <c r="B93" t="n">
+        <v>50.38252</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D93" s="3" t="n">
+        <v>46044</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>46044.91666666666</v>
+      </c>
+      <c r="B94" t="n">
+        <v>30.67112</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D94" s="3" t="n">
+        <v>46044</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>46044.9375</v>
+      </c>
+      <c r="B95" t="n">
+        <v>56.98</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D95" s="3" t="n">
+        <v>46044</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>46044.95833333334</v>
+      </c>
+      <c r="B96" t="n">
+        <v>56.23018</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D96" s="3" t="n">
+        <v>46044</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>46044.97916666666</v>
+      </c>
+      <c r="B97" t="n">
+        <v>48.31676</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="D97" s="3" t="n">
+        <v>46044</v>
+      </c>
+      <c r="E97" t="inlineStr">
         <is>
           <t>OFF</t>
         </is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -478,19 +478,19 @@
         <v>46043</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>46043.1875</v>
+        <v>46043.16666666666</v>
       </c>
       <c r="C2" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>17.01</v>
+        <v>15.12</v>
       </c>
       <c r="E2" t="n">
-        <v>573.8929364999999</v>
+        <v>506.74358475</v>
       </c>
       <c r="F2" t="n">
-        <v>33.73856181657848</v>
+        <v>33.51478735119048</v>
       </c>
     </row>
     <row r="3">
@@ -515,10 +515,10 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46043.89583333334</v>
+        <v>46043.875</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>46044.10416666666</v>
+        <v>46044.08333333334</v>
       </c>
       <c r="C4" t="n">
         <v>5</v>
@@ -527,30 +527,30 @@
         <v>18.9</v>
       </c>
       <c r="E4" t="n">
-        <v>588.914547</v>
+        <v>667.8974639999999</v>
       </c>
       <c r="F4" t="n">
-        <v>31.15949984126984</v>
+        <v>35.33849015873015</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46044.27083333334</v>
+        <v>46044.25</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>46044.66666666666</v>
       </c>
       <c r="C5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>35.91</v>
+        <v>37.8</v>
       </c>
       <c r="E5" t="n">
-        <v>13.66849575</v>
+        <v>54.28589400000001</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3806320175438597</v>
+        <v>1.436134761904762</v>
       </c>
     </row>
   </sheetData>
@@ -784,7 +784,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1339,7 +1339,7 @@
         <v>46043.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>36.08141</v>
+        <v>48.61802</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>46043.75</v>
       </c>
       <c r="B38" t="n">
-        <v>46.54611</v>
+        <v>55.37363</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1381,11 +1381,11 @@
         <v>46043.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>64.35683</v>
+        <v>61.05003</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D39" s="3" t="n">
@@ -1402,11 +1402,11 @@
         <v>46043.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>73.19</v>
+        <v>79.95</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D40" s="3" t="n">
@@ -1423,11 +1423,11 @@
         <v>46043.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>77.94</v>
+        <v>79.95</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D41" s="3" t="n">
@@ -1444,11 +1444,11 @@
         <v>46043.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>100.01</v>
+        <v>73.37</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D42" s="3" t="n">
@@ -1465,11 +1465,11 @@
         <v>46043.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>74.43841999999999</v>
+        <v>65</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D43" s="3" t="n">
@@ -1486,11 +1486,11 @@
         <v>46043.875</v>
       </c>
       <c r="B44" t="n">
-        <v>73.19</v>
+        <v>57.31</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D44" s="3" t="n">
@@ -1498,7 +1498,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1507,11 +1507,11 @@
         <v>46043.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>71.7281</v>
+        <v>59.66383</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D45" s="3" t="n">
@@ -1528,11 +1528,11 @@
         <v>46043.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>59.62291</v>
+        <v>57.09</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D46" s="3" t="n">
@@ -1549,11 +1549,11 @@
         <v>46043.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>57.98348</v>
+        <v>90.16674999999999</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D47" s="3" t="n">
@@ -1570,11 +1570,11 @@
         <v>46043.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>60.73801</v>
+        <v>76.08317</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D48" s="3" t="n">
@@ -1591,7 +1591,7 @@
         <v>46043.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>61.32156</v>
+        <v>73.2</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>46044</v>
       </c>
       <c r="B50" t="n">
-        <v>57.31</v>
+        <v>65.84798000000001</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>46044.02083333334</v>
       </c>
       <c r="B51" t="n">
-        <v>63.88086</v>
+        <v>73.2</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>46044.04166666666</v>
       </c>
       <c r="B52" t="n">
-        <v>57.31</v>
+        <v>66.16679999999999</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>46044.0625</v>
       </c>
       <c r="B53" t="n">
-        <v>57.06</v>
+        <v>66.29451</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         <v>46044.08333333334</v>
       </c>
       <c r="B54" t="n">
-        <v>57.06</v>
+        <v>65.19963</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1717,7 +1717,7 @@
         <v>46044.10416666666</v>
       </c>
       <c r="B55" t="n">
-        <v>57.06</v>
+        <v>66.09792</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
         <v>46044.125</v>
       </c>
       <c r="B56" t="n">
-        <v>63.73519</v>
+        <v>67.38155</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1759,7 +1759,7 @@
         <v>46044.14583333334</v>
       </c>
       <c r="B57" t="n">
-        <v>64.10364</v>
+        <v>73.2</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         <v>46044.16666666666</v>
       </c>
       <c r="B58" t="n">
-        <v>65.32088</v>
+        <v>73.2</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>46044.1875</v>
       </c>
       <c r="B59" t="n">
-        <v>65.85026999999999</v>
+        <v>73.2</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>46044.20833333334</v>
       </c>
       <c r="B60" t="n">
-        <v>66.04559</v>
+        <v>66.36660999999999</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>46044.22916666666</v>
       </c>
       <c r="B61" t="n">
-        <v>76.12006</v>
+        <v>78</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1885,7 +1885,7 @@
         <v>46044.27083333334</v>
       </c>
       <c r="B63" t="n">
-        <v>57.06</v>
+        <v>57.31</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>46044.29166666666</v>
       </c>
       <c r="B64" t="n">
-        <v>30.9379</v>
+        <v>35.88</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>46044.33333333334</v>
       </c>
       <c r="B66" t="n">
-        <v>-5.50985</v>
+        <v>-5.74313</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>46044.35416666666</v>
       </c>
       <c r="B67" t="n">
-        <v>-6.15086</v>
+        <v>-6.44675</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>46044.375</v>
       </c>
       <c r="B68" t="n">
-        <v>-10</v>
+        <v>-8.05181</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
         <v>46044.39583333334</v>
       </c>
       <c r="B69" t="n">
-        <v>-13.50737</v>
+        <v>-7.78632</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>46044.41666666666</v>
       </c>
       <c r="B70" t="n">
-        <v>-9.621499999999999</v>
+        <v>-7.66245</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>46044.4375</v>
       </c>
       <c r="B71" t="n">
-        <v>-12.01</v>
+        <v>-7.9504</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         <v>46044.45833333334</v>
       </c>
       <c r="B72" t="n">
-        <v>-12.01</v>
+        <v>-8.920400000000001</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>46044.47916666666</v>
       </c>
       <c r="B73" t="n">
-        <v>-5.74313</v>
+        <v>-5.1817</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>46044.5</v>
       </c>
       <c r="B74" t="n">
-        <v>-10</v>
+        <v>-7.39026</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>46044.52083333334</v>
       </c>
       <c r="B75" t="n">
-        <v>-8.0564</v>
+        <v>-6.31903</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
         <v>46044.54166666666</v>
       </c>
       <c r="B76" t="n">
-        <v>-7.79393</v>
+        <v>-7.86005</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>46044.5625</v>
       </c>
       <c r="B77" t="n">
-        <v>-5.88864</v>
+        <v>-5.91747</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>46044.58333333334</v>
       </c>
       <c r="B78" t="n">
-        <v>-5.27725</v>
+        <v>-5.3165</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>46044.60416666666</v>
       </c>
       <c r="B79" t="n">
-        <v>0.51</v>
+        <v>-0.86589</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>46044.64583333334</v>
       </c>
       <c r="B81" t="n">
-        <v>36.06</v>
+        <v>-12.01</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>46044.66666666666</v>
       </c>
       <c r="B82" t="n">
-        <v>0.51</v>
+        <v>-9.71002</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>46044.6875</v>
       </c>
       <c r="B83" t="n">
-        <v>-4.13512</v>
+        <v>-10</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>46044.70833333334</v>
       </c>
       <c r="B84" t="n">
-        <v>-5.14805</v>
+        <v>-11.25715</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         <v>46044.72916666666</v>
       </c>
       <c r="B85" t="n">
-        <v>-6.90848</v>
+        <v>-8.19045</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>46044.75</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.45834</v>
+        <v>-1.63851</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         <v>46044.77083333334</v>
       </c>
       <c r="B87" t="n">
-        <v>0.00036</v>
+        <v>7.77782</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>46044.79166666666</v>
       </c>
       <c r="B88" t="n">
-        <v>10.48193</v>
+        <v>18.58582</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>46044.83333333334</v>
       </c>
       <c r="B90" t="n">
-        <v>53.90468</v>
+        <v>55.33037</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>46044.85416666666</v>
       </c>
       <c r="B91" t="n">
-        <v>54.47327</v>
+        <v>52.96163</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>46044.89583333334</v>
       </c>
       <c r="B93" t="n">
-        <v>50.38252</v>
+        <v>57.03541</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>46044.91666666666</v>
       </c>
       <c r="B94" t="n">
-        <v>30.67112</v>
+        <v>42.9873</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>46044.95833333334</v>
       </c>
       <c r="B96" t="n">
-        <v>56.23018</v>
+        <v>56.98</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>46044.97916666666</v>
       </c>
       <c r="B97" t="n">
-        <v>48.31676</v>
+        <v>48.64303</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,62 +475,42 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46044.16666666666</v>
+        <v>46045</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>46044.66666666666</v>
+        <v>46045.66666666666</v>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>45.36</v>
+        <v>60.48</v>
       </c>
       <c r="E2" t="n">
-        <v>336.60947775</v>
+        <v>1152.38681025</v>
       </c>
       <c r="F2" t="n">
-        <v>7.420843865740741</v>
+        <v>19.05401471974206</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46044.83333333334</v>
+        <v>46046.27083333334</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>46045.125</v>
+        <v>46046.77083333334</v>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>26.46</v>
+        <v>45.36</v>
       </c>
       <c r="E3" t="n">
-        <v>760.2730882500001</v>
+        <v>-139.6928325</v>
       </c>
       <c r="F3" t="n">
-        <v>28.73292094671202</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>46045.29166666666</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>46045.66666666666</v>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>34.02</v>
-      </c>
-      <c r="E4" t="n">
-        <v>374.44220775</v>
-      </c>
-      <c r="F4" t="n">
-        <v>11.00653167989418</v>
+        <v>-3.079647982804233</v>
       </c>
     </row>
   </sheetData>
@@ -581,10 +561,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46044</v>
+        <v>46045</v>
       </c>
       <c r="B2" t="n">
-        <v>73.2</v>
+        <v>57.06</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -592,20 +572,20 @@
         </is>
       </c>
       <c r="D2" s="3" t="n">
-        <v>46044</v>
+        <v>46045</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46044.02083333334</v>
+        <v>46045.02083333334</v>
       </c>
       <c r="B3" t="n">
-        <v>66.36179</v>
+        <v>57.06</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -613,20 +593,20 @@
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>46044</v>
+        <v>46045</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46044.04166666666</v>
+        <v>46045.04166666666</v>
       </c>
       <c r="B4" t="n">
-        <v>66.16028</v>
+        <v>57.06</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -634,20 +614,20 @@
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>46044</v>
+        <v>46045</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46044.0625</v>
+        <v>46045.0625</v>
       </c>
       <c r="B5" t="n">
-        <v>66.29066</v>
+        <v>56.98</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -655,20 +635,20 @@
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>46044</v>
+        <v>46045</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>46044.08333333334</v>
+        <v>46045.08333333334</v>
       </c>
       <c r="B6" t="n">
-        <v>66.0025</v>
+        <v>56.97994</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -676,20 +656,20 @@
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>46044</v>
+        <v>46045</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>46044.10416666666</v>
+        <v>46045.10416666666</v>
       </c>
       <c r="B7" t="n">
-        <v>66.91710999999999</v>
+        <v>56.97994</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -697,20 +677,20 @@
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>46044</v>
+        <v>46045</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>46044.125</v>
+        <v>46045.125</v>
       </c>
       <c r="B8" t="n">
-        <v>73.2</v>
+        <v>56.98</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -718,20 +698,20 @@
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>46044</v>
+        <v>46045</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>46044.14583333334</v>
+        <v>46045.14583333334</v>
       </c>
       <c r="B9" t="n">
-        <v>73.2</v>
+        <v>56.98</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -739,20 +719,20 @@
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>46044</v>
+        <v>46045</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>46044.16666666666</v>
+        <v>46045.16666666666</v>
       </c>
       <c r="B10" t="n">
-        <v>73.2</v>
+        <v>57.06</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -760,7 +740,7 @@
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>46044</v>
+        <v>46045</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -770,10 +750,10 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>46044.1875</v>
+        <v>46045.1875</v>
       </c>
       <c r="B11" t="n">
-        <v>73.2</v>
+        <v>57.06</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -781,7 +761,7 @@
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>46044</v>
+        <v>46045</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -791,10 +771,10 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>46044.20833333334</v>
+        <v>46045.20833333334</v>
       </c>
       <c r="B12" t="n">
-        <v>67.38898</v>
+        <v>57.06</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -802,7 +782,7 @@
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>46044</v>
+        <v>46045</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -812,10 +792,10 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>46044.22916666666</v>
+        <v>46045.22916666666</v>
       </c>
       <c r="B13" t="n">
-        <v>78</v>
+        <v>58.43713</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -823,7 +803,7 @@
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>46044</v>
+        <v>46045</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -833,10 +813,10 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>46044.25</v>
+        <v>46045.25</v>
       </c>
       <c r="B14" t="n">
-        <v>64.89</v>
+        <v>58.00918</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -844,7 +824,7 @@
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>46044</v>
+        <v>46045</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -854,7 +834,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>46044.27083333334</v>
+        <v>46045.27083333334</v>
       </c>
       <c r="B15" t="n">
         <v>57.06</v>
@@ -865,7 +845,7 @@
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>46044</v>
+        <v>46045</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -875,10 +855,10 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>46044.29166666666</v>
+        <v>46045.29166666666</v>
       </c>
       <c r="B16" t="n">
-        <v>35.88</v>
+        <v>26.82191</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -886,7 +866,7 @@
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>46044</v>
+        <v>46045</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -896,10 +876,10 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>46044.3125</v>
+        <v>46045.3125</v>
       </c>
       <c r="B17" t="n">
-        <v>0.51</v>
+        <v>34.69723</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -907,7 +887,7 @@
         </is>
       </c>
       <c r="D17" s="3" t="n">
-        <v>46044</v>
+        <v>46045</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -917,10 +897,10 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>46044.33333333334</v>
+        <v>46045.33333333334</v>
       </c>
       <c r="B18" t="n">
-        <v>-5.95032</v>
+        <v>25.178</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -928,7 +908,7 @@
         </is>
       </c>
       <c r="D18" s="3" t="n">
-        <v>46044</v>
+        <v>46045</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -938,10 +918,10 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>46044.35416666666</v>
+        <v>46045.35416666666</v>
       </c>
       <c r="B19" t="n">
-        <v>-6.38688</v>
+        <v>32.18984</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -949,7 +929,7 @@
         </is>
       </c>
       <c r="D19" s="3" t="n">
-        <v>46044</v>
+        <v>46045</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -959,10 +939,10 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>46044.375</v>
+        <v>46045.375</v>
       </c>
       <c r="B20" t="n">
-        <v>-6.90384</v>
+        <v>0.7</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -970,7 +950,7 @@
         </is>
       </c>
       <c r="D20" s="3" t="n">
-        <v>46044</v>
+        <v>46045</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -980,10 +960,10 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>46044.39583333334</v>
+        <v>46045.39583333334</v>
       </c>
       <c r="B21" t="n">
-        <v>-7.84163</v>
+        <v>0.51</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -991,7 +971,7 @@
         </is>
       </c>
       <c r="D21" s="3" t="n">
-        <v>46044</v>
+        <v>46045</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1001,10 +981,10 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>46044.41666666666</v>
+        <v>46045.41666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>-7.67981</v>
+        <v>0.02957</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1012,7 +992,7 @@
         </is>
       </c>
       <c r="D22" s="3" t="n">
-        <v>46044</v>
+        <v>46045</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1022,10 +1002,10 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>46044.4375</v>
+        <v>46045.4375</v>
       </c>
       <c r="B23" t="n">
-        <v>-9.029170000000001</v>
+        <v>0.7</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1033,7 +1013,7 @@
         </is>
       </c>
       <c r="D23" s="3" t="n">
-        <v>46044</v>
+        <v>46045</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1043,10 +1023,10 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>46044.45833333334</v>
+        <v>46045.45833333334</v>
       </c>
       <c r="B24" t="n">
-        <v>-10</v>
+        <v>5.26268</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1054,7 +1034,7 @@
         </is>
       </c>
       <c r="D24" s="3" t="n">
-        <v>46044</v>
+        <v>46045</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1064,10 +1044,10 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>46044.47916666666</v>
+        <v>46045.47916666666</v>
       </c>
       <c r="B25" t="n">
-        <v>-5.58973</v>
+        <v>22.07</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1075,7 +1055,7 @@
         </is>
       </c>
       <c r="D25" s="3" t="n">
-        <v>46044</v>
+        <v>46045</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1085,10 +1065,10 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>46044.5</v>
+        <v>46045.5</v>
       </c>
       <c r="B26" t="n">
-        <v>-6.72804</v>
+        <v>23.31255</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1096,7 +1076,7 @@
         </is>
       </c>
       <c r="D26" s="3" t="n">
-        <v>46044</v>
+        <v>46045</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1106,10 +1086,10 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>46044.52083333334</v>
+        <v>46045.52083333334</v>
       </c>
       <c r="B27" t="n">
-        <v>-7.42351</v>
+        <v>33.78973</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1117,7 +1097,7 @@
         </is>
       </c>
       <c r="D27" s="3" t="n">
-        <v>46044</v>
+        <v>46045</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1127,10 +1107,10 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>46044.54166666666</v>
+        <v>46045.54166666666</v>
       </c>
       <c r="B28" t="n">
-        <v>-7.85989</v>
+        <v>34.45564</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1138,7 +1118,7 @@
         </is>
       </c>
       <c r="D28" s="3" t="n">
-        <v>46044</v>
+        <v>46045</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1148,10 +1128,10 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>46044.5625</v>
+        <v>46045.5625</v>
       </c>
       <c r="B29" t="n">
-        <v>-5.95281</v>
+        <v>36.06</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1159,7 +1139,7 @@
         </is>
       </c>
       <c r="D29" s="3" t="n">
-        <v>46044</v>
+        <v>46045</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1169,10 +1149,10 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>46044.58333333334</v>
+        <v>46045.58333333334</v>
       </c>
       <c r="B30" t="n">
-        <v>-5.50985</v>
+        <v>36.06</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1180,7 +1160,7 @@
         </is>
       </c>
       <c r="D30" s="3" t="n">
-        <v>46044</v>
+        <v>46045</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1190,10 +1170,10 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>46044.60416666666</v>
+        <v>46045.60416666666</v>
       </c>
       <c r="B31" t="n">
-        <v>-2.54301</v>
+        <v>36.06</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1201,7 +1181,7 @@
         </is>
       </c>
       <c r="D31" s="3" t="n">
-        <v>46044</v>
+        <v>46045</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1211,10 +1191,10 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>46044.625</v>
+        <v>46045.625</v>
       </c>
       <c r="B32" t="n">
-        <v>0.51</v>
+        <v>33.2633</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1222,7 +1202,7 @@
         </is>
       </c>
       <c r="D32" s="3" t="n">
-        <v>46044</v>
+        <v>46045</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1232,10 +1212,10 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>46044.64583333334</v>
+        <v>46045.64583333334</v>
       </c>
       <c r="B33" t="n">
-        <v>-10</v>
+        <v>0.00855</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1243,7 +1223,7 @@
         </is>
       </c>
       <c r="D33" s="3" t="n">
-        <v>46044</v>
+        <v>46045</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1253,10 +1233,10 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>46044.66666666666</v>
+        <v>46045.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>-9.710129999999999</v>
+        <v>-1.16441</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1264,7 +1244,7 @@
         </is>
       </c>
       <c r="D34" s="3" t="n">
-        <v>46044</v>
+        <v>46045</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1274,10 +1254,10 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>46044.6875</v>
+        <v>46045.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>-10</v>
+        <v>-4.62815</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1285,7 +1265,7 @@
         </is>
       </c>
       <c r="D35" s="3" t="n">
-        <v>46044</v>
+        <v>46045</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1295,10 +1275,10 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>46044.70833333334</v>
+        <v>46045.70833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>-11.01</v>
+        <v>-4.57905</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1306,7 +1286,7 @@
         </is>
       </c>
       <c r="D36" s="3" t="n">
-        <v>46044</v>
+        <v>46045</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1316,10 +1296,10 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>46044.72916666666</v>
+        <v>46045.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>-8.114129999999999</v>
+        <v>-2.65261</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1327,7 +1307,7 @@
         </is>
       </c>
       <c r="D37" s="3" t="n">
-        <v>46044</v>
+        <v>46045</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1337,10 +1317,10 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>46044.75</v>
+        <v>46045.75</v>
       </c>
       <c r="B38" t="n">
-        <v>-1.63893</v>
+        <v>9.4903</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1348,7 +1328,7 @@
         </is>
       </c>
       <c r="D38" s="3" t="n">
-        <v>46044</v>
+        <v>46045</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1358,18 +1338,18 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>46044.77083333334</v>
+        <v>46045.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>7.77743</v>
+        <v>48.00716</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D39" s="3" t="n">
-        <v>46044</v>
+        <v>46045</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1379,18 +1359,18 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>46044.79166666666</v>
+        <v>46045.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>18.5855</v>
+        <v>64.41531999999999</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D40" s="3" t="n">
-        <v>46044</v>
+        <v>46045</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1400,18 +1380,18 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>46044.8125</v>
+        <v>46045.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>51.4753</v>
+        <v>69.52844</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D41" s="3" t="n">
-        <v>46044</v>
+        <v>46045</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1421,157 +1401,157 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>46044.83333333334</v>
+        <v>46045.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>59.36649</v>
+        <v>68.68244</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D42" s="3" t="n">
-        <v>46044</v>
+        <v>46045</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>46044.85416666666</v>
+        <v>46045.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>61.94424</v>
+        <v>65.47422</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D43" s="3" t="n">
-        <v>46044</v>
+        <v>46045</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>46044.875</v>
+        <v>46045.875</v>
       </c>
       <c r="B44" t="n">
-        <v>57.04367</v>
+        <v>62.68453</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D44" s="3" t="n">
-        <v>46044</v>
+        <v>46045</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>46044.89583333334</v>
+        <v>46045.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>57.03541</v>
+        <v>60.92979</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D45" s="3" t="n">
-        <v>46044</v>
+        <v>46045</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>46044.91666666666</v>
+        <v>46045.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>42.99245</v>
+        <v>58.15264</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D46" s="3" t="n">
-        <v>46044</v>
+        <v>46045</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>46044.9375</v>
+        <v>46045.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>51.47522</v>
+        <v>57.06</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D47" s="3" t="n">
-        <v>46044</v>
+        <v>46045</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>46044.95833333334</v>
+        <v>46045.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>51.47522</v>
+        <v>57.06</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D48" s="3" t="n">
-        <v>46044</v>
+        <v>46045</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>46044.97916666666</v>
+        <v>46045.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>57.09</v>
+        <v>57.06</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1579,20 +1559,20 @@
         </is>
       </c>
       <c r="D49" s="3" t="n">
-        <v>46044</v>
+        <v>46045</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>46045</v>
+        <v>46046</v>
       </c>
       <c r="B50" t="n">
-        <v>57.06</v>
+        <v>56.98</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1600,17 +1580,17 @@
         </is>
       </c>
       <c r="D50" s="3" t="n">
-        <v>46045</v>
+        <v>46046</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>46045.02083333334</v>
+        <v>46046.02083333334</v>
       </c>
       <c r="B51" t="n">
         <v>57.06</v>
@@ -1621,17 +1601,17 @@
         </is>
       </c>
       <c r="D51" s="3" t="n">
-        <v>46045</v>
+        <v>46046</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>46045.04166666666</v>
+        <v>46046.04166666666</v>
       </c>
       <c r="B52" t="n">
         <v>57.06</v>
@@ -1642,20 +1622,20 @@
         </is>
       </c>
       <c r="D52" s="3" t="n">
-        <v>46045</v>
+        <v>46046</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>46045.0625</v>
+        <v>46046.0625</v>
       </c>
       <c r="B53" t="n">
-        <v>57.00529</v>
+        <v>56.98</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1663,20 +1643,20 @@
         </is>
       </c>
       <c r="D53" s="3" t="n">
-        <v>46045</v>
+        <v>46046</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>46045.08333333334</v>
+        <v>46046.08333333334</v>
       </c>
       <c r="B54" t="n">
-        <v>56.17934</v>
+        <v>56.97994</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1684,20 +1664,20 @@
         </is>
       </c>
       <c r="D54" s="3" t="n">
-        <v>46045</v>
+        <v>46046</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>46045.10416666666</v>
+        <v>46046.10416666666</v>
       </c>
       <c r="B55" t="n">
-        <v>56.97994</v>
+        <v>57.06</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1705,20 +1685,20 @@
         </is>
       </c>
       <c r="D55" s="3" t="n">
-        <v>46045</v>
+        <v>46046</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>46045.125</v>
+        <v>46046.125</v>
       </c>
       <c r="B56" t="n">
-        <v>56.98</v>
+        <v>57.06</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1726,7 +1706,7 @@
         </is>
       </c>
       <c r="D56" s="3" t="n">
-        <v>46045</v>
+        <v>46046</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1736,10 +1716,10 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>46045.14583333334</v>
+        <v>46046.14583333334</v>
       </c>
       <c r="B57" t="n">
-        <v>56.98</v>
+        <v>57.06</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1747,7 +1727,7 @@
         </is>
       </c>
       <c r="D57" s="3" t="n">
-        <v>46045</v>
+        <v>46046</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -1757,7 +1737,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>46045.16666666666</v>
+        <v>46046.16666666666</v>
       </c>
       <c r="B58" t="n">
         <v>57.06</v>
@@ -1768,7 +1748,7 @@
         </is>
       </c>
       <c r="D58" s="3" t="n">
-        <v>46045</v>
+        <v>46046</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1778,10 +1758,10 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>46045.1875</v>
+        <v>46046.1875</v>
       </c>
       <c r="B59" t="n">
-        <v>57.06</v>
+        <v>66.12197</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1789,7 +1769,7 @@
         </is>
       </c>
       <c r="D59" s="3" t="n">
-        <v>46045</v>
+        <v>46046</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1799,10 +1779,10 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>46045.20833333334</v>
+        <v>46046.20833333334</v>
       </c>
       <c r="B60" t="n">
-        <v>57.06</v>
+        <v>66.49965</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1810,7 +1790,7 @@
         </is>
       </c>
       <c r="D60" s="3" t="n">
-        <v>46045</v>
+        <v>46046</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -1820,10 +1800,10 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>46045.22916666666</v>
+        <v>46046.22916666666</v>
       </c>
       <c r="B61" t="n">
-        <v>58.44652</v>
+        <v>73.2</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1831,7 +1811,7 @@
         </is>
       </c>
       <c r="D61" s="3" t="n">
-        <v>46045</v>
+        <v>46046</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -1841,10 +1821,10 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>46045.25</v>
+        <v>46046.25</v>
       </c>
       <c r="B62" t="n">
-        <v>57.7336</v>
+        <v>65</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1852,7 +1832,7 @@
         </is>
       </c>
       <c r="D62" s="3" t="n">
-        <v>46045</v>
+        <v>46046</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1862,7 +1842,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>46045.27083333334</v>
+        <v>46046.27083333334</v>
       </c>
       <c r="B63" t="n">
         <v>57.06</v>
@@ -1873,20 +1853,20 @@
         </is>
       </c>
       <c r="D63" s="3" t="n">
-        <v>46045</v>
+        <v>46046</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>46045.29166666666</v>
+        <v>46046.29166666666</v>
       </c>
       <c r="B64" t="n">
-        <v>35.88</v>
+        <v>36.06</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1894,7 +1874,7 @@
         </is>
       </c>
       <c r="D64" s="3" t="n">
-        <v>46045</v>
+        <v>46046</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -1904,10 +1884,10 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>46045.3125</v>
+        <v>46046.3125</v>
       </c>
       <c r="B65" t="n">
-        <v>34.69923</v>
+        <v>0.51</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1915,7 +1895,7 @@
         </is>
       </c>
       <c r="D65" s="3" t="n">
-        <v>46045</v>
+        <v>46046</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -1925,10 +1905,10 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>46045.33333333334</v>
+        <v>46046.33333333334</v>
       </c>
       <c r="B66" t="n">
-        <v>25.14593</v>
+        <v>-5.92899</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1936,7 +1916,7 @@
         </is>
       </c>
       <c r="D66" s="3" t="n">
-        <v>46045</v>
+        <v>46046</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -1946,10 +1926,10 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>46045.35416666666</v>
+        <v>46046.35416666666</v>
       </c>
       <c r="B67" t="n">
-        <v>22.07</v>
+        <v>-5.87274</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1957,7 +1937,7 @@
         </is>
       </c>
       <c r="D67" s="3" t="n">
-        <v>46045</v>
+        <v>46046</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -1967,10 +1947,10 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>46045.375</v>
+        <v>46046.375</v>
       </c>
       <c r="B68" t="n">
-        <v>0.7</v>
+        <v>-7.04298</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1978,7 +1958,7 @@
         </is>
       </c>
       <c r="D68" s="3" t="n">
-        <v>46045</v>
+        <v>46046</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -1988,10 +1968,10 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>46045.39583333334</v>
+        <v>46046.39583333334</v>
       </c>
       <c r="B69" t="n">
-        <v>0.51</v>
+        <v>-12.01</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1999,7 +1979,7 @@
         </is>
       </c>
       <c r="D69" s="3" t="n">
-        <v>46045</v>
+        <v>46046</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2009,10 +1989,10 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>46045.41666666666</v>
+        <v>46046.41666666666</v>
       </c>
       <c r="B70" t="n">
-        <v>0.02994</v>
+        <v>-14</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2020,7 +2000,7 @@
         </is>
       </c>
       <c r="D70" s="3" t="n">
-        <v>46045</v>
+        <v>46046</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2030,10 +2010,10 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>46045.4375</v>
+        <v>46046.4375</v>
       </c>
       <c r="B71" t="n">
-        <v>0.7</v>
+        <v>-19.65716</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2041,7 +2021,7 @@
         </is>
       </c>
       <c r="D71" s="3" t="n">
-        <v>46045</v>
+        <v>46046</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2051,10 +2031,10 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>46045.45833333334</v>
+        <v>46046.45833333334</v>
       </c>
       <c r="B72" t="n">
-        <v>4.5584</v>
+        <v>-21.31837</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2062,7 +2042,7 @@
         </is>
       </c>
       <c r="D72" s="3" t="n">
-        <v>46045</v>
+        <v>46046</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2072,10 +2052,10 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>46045.47916666666</v>
+        <v>46046.47916666666</v>
       </c>
       <c r="B73" t="n">
-        <v>26.07938</v>
+        <v>-20</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2083,7 +2063,7 @@
         </is>
       </c>
       <c r="D73" s="3" t="n">
-        <v>46045</v>
+        <v>46046</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2093,10 +2073,10 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>46045.5</v>
+        <v>46046.5</v>
       </c>
       <c r="B74" t="n">
-        <v>23.9121</v>
+        <v>-21.27032</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2104,7 +2084,7 @@
         </is>
       </c>
       <c r="D74" s="3" t="n">
-        <v>46045</v>
+        <v>46046</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2114,10 +2094,10 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>46045.52083333334</v>
+        <v>46046.52083333334</v>
       </c>
       <c r="B75" t="n">
-        <v>28.94831</v>
+        <v>-22.11807</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2125,7 +2105,7 @@
         </is>
       </c>
       <c r="D75" s="3" t="n">
-        <v>46045</v>
+        <v>46046</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2135,10 +2115,10 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>46045.54166666666</v>
+        <v>46046.54166666666</v>
       </c>
       <c r="B76" t="n">
-        <v>36.06</v>
+        <v>-27</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2146,7 +2126,7 @@
         </is>
       </c>
       <c r="D76" s="3" t="n">
-        <v>46045</v>
+        <v>46046</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2156,10 +2136,10 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>46045.5625</v>
+        <v>46046.5625</v>
       </c>
       <c r="B77" t="n">
-        <v>36.06</v>
+        <v>-27</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2167,7 +2147,7 @@
         </is>
       </c>
       <c r="D77" s="3" t="n">
-        <v>46045</v>
+        <v>46046</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2177,10 +2157,10 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>46045.58333333334</v>
+        <v>46046.58333333334</v>
       </c>
       <c r="B78" t="n">
-        <v>36.06</v>
+        <v>-23.5</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2188,7 +2168,7 @@
         </is>
       </c>
       <c r="D78" s="3" t="n">
-        <v>46045</v>
+        <v>46046</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2198,10 +2178,10 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>46045.60416666666</v>
+        <v>46046.60416666666</v>
       </c>
       <c r="B79" t="n">
-        <v>36.06</v>
+        <v>-10</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2209,7 +2189,7 @@
         </is>
       </c>
       <c r="D79" s="3" t="n">
-        <v>46045</v>
+        <v>46046</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2219,10 +2199,10 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>46045.625</v>
+        <v>46046.625</v>
       </c>
       <c r="B80" t="n">
-        <v>36.06</v>
+        <v>-7.4773</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2230,7 +2210,7 @@
         </is>
       </c>
       <c r="D80" s="3" t="n">
-        <v>46045</v>
+        <v>46046</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2240,10 +2220,10 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>46045.64583333334</v>
+        <v>46046.64583333334</v>
       </c>
       <c r="B81" t="n">
-        <v>0.51</v>
+        <v>-7.52092</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2251,7 +2231,7 @@
         </is>
       </c>
       <c r="D81" s="3" t="n">
-        <v>46045</v>
+        <v>46046</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2261,10 +2241,10 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>46045.66666666666</v>
+        <v>46046.66666666666</v>
       </c>
       <c r="B82" t="n">
-        <v>-1.15126</v>
+        <v>-6.0965</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2272,17 +2252,17 @@
         </is>
       </c>
       <c r="D82" s="3" t="n">
-        <v>46045</v>
+        <v>46046</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>46045.6875</v>
+        <v>46046.6875</v>
       </c>
       <c r="B83" t="n">
         <v>-6</v>
@@ -2293,20 +2273,20 @@
         </is>
       </c>
       <c r="D83" s="3" t="n">
-        <v>46045</v>
+        <v>46046</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>46045.70833333334</v>
+        <v>46046.70833333334</v>
       </c>
       <c r="B84" t="n">
-        <v>-5.2687</v>
+        <v>-5.178</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2314,20 +2294,20 @@
         </is>
       </c>
       <c r="D84" s="3" t="n">
-        <v>46045</v>
+        <v>46046</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>46045.72916666666</v>
+        <v>46046.72916666666</v>
       </c>
       <c r="B85" t="n">
-        <v>4.39456</v>
+        <v>4.13439</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2335,20 +2315,20 @@
         </is>
       </c>
       <c r="D85" s="3" t="n">
-        <v>46045</v>
+        <v>46046</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>46045.75</v>
+        <v>46046.75</v>
       </c>
       <c r="B86" t="n">
-        <v>35.14457</v>
+        <v>27.95226</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2356,20 +2336,20 @@
         </is>
       </c>
       <c r="D86" s="3" t="n">
-        <v>46045</v>
+        <v>46046</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>46045.77083333334</v>
+        <v>46046.77083333334</v>
       </c>
       <c r="B87" t="n">
-        <v>45.75267</v>
+        <v>57.57969</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2377,7 +2357,7 @@
         </is>
       </c>
       <c r="D87" s="3" t="n">
-        <v>46045</v>
+        <v>46046</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2387,10 +2367,10 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>46045.79166666666</v>
+        <v>46046.79166666666</v>
       </c>
       <c r="B88" t="n">
-        <v>57.04922</v>
+        <v>91.65038</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2398,7 +2378,7 @@
         </is>
       </c>
       <c r="D88" s="3" t="n">
-        <v>46045</v>
+        <v>46046</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2408,10 +2388,10 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>46045.8125</v>
+        <v>46046.8125</v>
       </c>
       <c r="B89" t="n">
-        <v>58.4105</v>
+        <v>125.48621</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2419,7 +2399,7 @@
         </is>
       </c>
       <c r="D89" s="3" t="n">
-        <v>46045</v>
+        <v>46046</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2429,10 +2409,10 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>46045.83333333334</v>
+        <v>46046.83333333334</v>
       </c>
       <c r="B90" t="n">
-        <v>57.63356</v>
+        <v>110.56377</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2440,7 +2420,7 @@
         </is>
       </c>
       <c r="D90" s="3" t="n">
-        <v>46045</v>
+        <v>46046</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2450,10 +2430,10 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>46045.85416666666</v>
+        <v>46046.85416666666</v>
       </c>
       <c r="B91" t="n">
-        <v>57.08217</v>
+        <v>105.79</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2461,7 +2441,7 @@
         </is>
       </c>
       <c r="D91" s="3" t="n">
-        <v>46045</v>
+        <v>46046</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -2471,10 +2451,10 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>46045.875</v>
+        <v>46046.875</v>
       </c>
       <c r="B92" t="n">
-        <v>56.98</v>
+        <v>105.79</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2482,7 +2462,7 @@
         </is>
       </c>
       <c r="D92" s="3" t="n">
-        <v>46045</v>
+        <v>46046</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -2492,10 +2472,10 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>46045.89583333334</v>
+        <v>46046.89583333334</v>
       </c>
       <c r="B93" t="n">
-        <v>56.98</v>
+        <v>85.57523999999999</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2503,7 +2483,7 @@
         </is>
       </c>
       <c r="D93" s="3" t="n">
-        <v>46045</v>
+        <v>46046</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2513,10 +2493,10 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>46045.91666666666</v>
+        <v>46046.91666666666</v>
       </c>
       <c r="B94" t="n">
-        <v>56.98</v>
+        <v>76.55418</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2524,7 +2504,7 @@
         </is>
       </c>
       <c r="D94" s="3" t="n">
-        <v>46045</v>
+        <v>46046</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -2534,10 +2514,10 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>46045.9375</v>
+        <v>46046.9375</v>
       </c>
       <c r="B95" t="n">
-        <v>57.06</v>
+        <v>108.89</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2545,7 +2525,7 @@
         </is>
       </c>
       <c r="D95" s="3" t="n">
-        <v>46045</v>
+        <v>46046</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2555,10 +2535,10 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>46045.95833333334</v>
+        <v>46046.95833333334</v>
       </c>
       <c r="B96" t="n">
-        <v>57.06</v>
+        <v>105</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2566,7 +2546,7 @@
         </is>
       </c>
       <c r="D96" s="3" t="n">
-        <v>46045</v>
+        <v>46046</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -2576,10 +2556,10 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>46045.97916666666</v>
+        <v>46046.97916666666</v>
       </c>
       <c r="B97" t="n">
-        <v>56.98</v>
+        <v>100.0633</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -2587,7 +2567,7 @@
         </is>
       </c>
       <c r="D97" s="3" t="n">
-        <v>46045</v>
+        <v>46046</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,30 +475,30 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46046</v>
+        <v>46047.125</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>46046.16666666666</v>
+        <v>46047.79166666666</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>15.12</v>
+        <v>60.48</v>
       </c>
       <c r="E2" t="n">
-        <v>484.598634</v>
+        <v>1032.875181</v>
       </c>
       <c r="F2" t="n">
-        <v>32.05017420634921</v>
+        <v>17.07796264880953</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46046.25</v>
+        <v>46048.16666666666</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>46046.75</v>
+        <v>46048.66666666666</v>
       </c>
       <c r="C3" t="n">
         <v>12</v>
@@ -507,30 +507,10 @@
         <v>45.36</v>
       </c>
       <c r="E3" t="n">
-        <v>-31.60218749999996</v>
+        <v>602.3204655</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.6966972552910045</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>46047.25</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>46047.75</v>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>45.36</v>
-      </c>
-      <c r="E4" t="n">
-        <v>363.4444515000001</v>
-      </c>
-      <c r="F4" t="n">
-        <v>8.012443816137568</v>
+        <v>13.27866987433862</v>
       </c>
     </row>
   </sheetData>
@@ -581,10 +561,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46046</v>
+        <v>46047</v>
       </c>
       <c r="B2" t="n">
-        <v>58.62625</v>
+        <v>105.79</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -592,20 +572,20 @@
         </is>
       </c>
       <c r="D2" s="3" t="n">
-        <v>46046</v>
+        <v>46047</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46046.02083333334</v>
+        <v>46047.02083333334</v>
       </c>
       <c r="B3" t="n">
-        <v>62.9804</v>
+        <v>106.85676</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -613,20 +593,20 @@
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>46046</v>
+        <v>46047</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46046.04166666666</v>
+        <v>46047.04166666666</v>
       </c>
       <c r="B4" t="n">
-        <v>60.41283</v>
+        <v>102.06314</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -634,20 +614,20 @@
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>46046</v>
+        <v>46047</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46046.0625</v>
+        <v>46047.0625</v>
       </c>
       <c r="B5" t="n">
-        <v>59.44281</v>
+        <v>103.56233</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -655,20 +635,20 @@
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>46046</v>
+        <v>46047</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>46046.08333333334</v>
+        <v>46047.08333333334</v>
       </c>
       <c r="B6" t="n">
-        <v>62.15064</v>
+        <v>103.26745</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -676,20 +656,20 @@
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>46046</v>
+        <v>46047</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>46046.10416666666</v>
+        <v>46047.10416666666</v>
       </c>
       <c r="B7" t="n">
-        <v>63.41131</v>
+        <v>105.00005</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -697,20 +677,20 @@
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>46046</v>
+        <v>46047</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>46046.125</v>
+        <v>46047.125</v>
       </c>
       <c r="B8" t="n">
-        <v>65</v>
+        <v>103.7033</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -718,7 +698,7 @@
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>46046</v>
+        <v>46047</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -728,10 +708,10 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>46046.14583333334</v>
+        <v>46047.14583333334</v>
       </c>
       <c r="B9" t="n">
-        <v>65</v>
+        <v>96.28724</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -739,7 +719,7 @@
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>46046</v>
+        <v>46047</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -749,10 +729,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>46046.16666666666</v>
+        <v>46047.16666666666</v>
       </c>
       <c r="B10" t="n">
-        <v>65</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -760,20 +740,20 @@
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>46046</v>
+        <v>46047</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>46046.1875</v>
+        <v>46047.1875</v>
       </c>
       <c r="B11" t="n">
-        <v>64.41839</v>
+        <v>85.39851</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -781,20 +761,20 @@
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>46046</v>
+        <v>46047</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>46046.20833333334</v>
+        <v>46047.20833333334</v>
       </c>
       <c r="B12" t="n">
-        <v>64.78185000000001</v>
+        <v>100.52719</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -802,20 +782,20 @@
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>46046</v>
+        <v>46047</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>46046.22916666666</v>
+        <v>46047.22916666666</v>
       </c>
       <c r="B13" t="n">
-        <v>65</v>
+        <v>101.25</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -823,20 +803,20 @@
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>46046</v>
+        <v>46047</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>46046.25</v>
+        <v>46047.25</v>
       </c>
       <c r="B14" t="n">
-        <v>63.63117</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -844,7 +824,7 @@
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>46046</v>
+        <v>46047</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -854,10 +834,10 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>46046.27083333334</v>
+        <v>46047.27083333334</v>
       </c>
       <c r="B15" t="n">
-        <v>57.06</v>
+        <v>62.29062</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -865,7 +845,7 @@
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>46046</v>
+        <v>46047</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -875,10 +855,10 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>46046.29166666666</v>
+        <v>46047.29166666666</v>
       </c>
       <c r="B16" t="n">
-        <v>36.06</v>
+        <v>51.08363</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -886,7 +866,7 @@
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>46046</v>
+        <v>46047</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -896,10 +876,10 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>46046.3125</v>
+        <v>46047.3125</v>
       </c>
       <c r="B17" t="n">
-        <v>0.009560000000000001</v>
+        <v>14.25158</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -907,7 +887,7 @@
         </is>
       </c>
       <c r="D17" s="3" t="n">
-        <v>46046</v>
+        <v>46047</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -917,10 +897,10 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>46046.33333333334</v>
+        <v>46047.33333333334</v>
       </c>
       <c r="B18" t="n">
-        <v>-5.66875</v>
+        <v>4.97668</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -928,7 +908,7 @@
         </is>
       </c>
       <c r="D18" s="3" t="n">
-        <v>46046</v>
+        <v>46047</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -938,10 +918,10 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>46046.35416666666</v>
+        <v>46047.35416666666</v>
       </c>
       <c r="B19" t="n">
-        <v>-6.5916</v>
+        <v>-1.05379</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -949,7 +929,7 @@
         </is>
       </c>
       <c r="D19" s="3" t="n">
-        <v>46046</v>
+        <v>46047</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -959,10 +939,10 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>46046.375</v>
+        <v>46047.375</v>
       </c>
       <c r="B20" t="n">
-        <v>-7.6138</v>
+        <v>-2.83936</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -970,7 +950,7 @@
         </is>
       </c>
       <c r="D20" s="3" t="n">
-        <v>46046</v>
+        <v>46047</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -980,10 +960,10 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>46046.39583333334</v>
+        <v>46047.39583333334</v>
       </c>
       <c r="B21" t="n">
-        <v>-13.5</v>
+        <v>-5.50985</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -991,7 +971,7 @@
         </is>
       </c>
       <c r="D21" s="3" t="n">
-        <v>46046</v>
+        <v>46047</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1001,10 +981,10 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>46046.41666666666</v>
+        <v>46047.41666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>-21.22764</v>
+        <v>-6.14392</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1012,7 +992,7 @@
         </is>
       </c>
       <c r="D22" s="3" t="n">
-        <v>46046</v>
+        <v>46047</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1022,10 +1002,10 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>46046.4375</v>
+        <v>46047.4375</v>
       </c>
       <c r="B23" t="n">
-        <v>-20.5462</v>
+        <v>-6.16116</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1033,7 +1013,7 @@
         </is>
       </c>
       <c r="D23" s="3" t="n">
-        <v>46046</v>
+        <v>46047</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1043,10 +1023,10 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>46046.45833333334</v>
+        <v>46047.45833333334</v>
       </c>
       <c r="B24" t="n">
-        <v>-17.19456</v>
+        <v>-6.08048</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1054,7 +1034,7 @@
         </is>
       </c>
       <c r="D24" s="3" t="n">
-        <v>46046</v>
+        <v>46047</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1064,10 +1044,10 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>46046.47916666666</v>
+        <v>46047.47916666666</v>
       </c>
       <c r="B25" t="n">
-        <v>-19.98</v>
+        <v>-6.31978</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1075,7 +1055,7 @@
         </is>
       </c>
       <c r="D25" s="3" t="n">
-        <v>46046</v>
+        <v>46047</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1085,10 +1065,10 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>46046.5</v>
+        <v>46047.5</v>
       </c>
       <c r="B26" t="n">
-        <v>-23.5</v>
+        <v>-6.3699</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1096,7 +1076,7 @@
         </is>
       </c>
       <c r="D26" s="3" t="n">
-        <v>46046</v>
+        <v>46047</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1106,10 +1086,10 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>46046.52083333334</v>
+        <v>46047.52083333334</v>
       </c>
       <c r="B27" t="n">
-        <v>-19.1221</v>
+        <v>-7.07031</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1117,7 +1097,7 @@
         </is>
       </c>
       <c r="D27" s="3" t="n">
-        <v>46046</v>
+        <v>46047</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1127,10 +1107,10 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>46046.54166666666</v>
+        <v>46047.54166666666</v>
       </c>
       <c r="B28" t="n">
-        <v>-23.5</v>
+        <v>-6.44209</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1138,7 +1118,7 @@
         </is>
       </c>
       <c r="D28" s="3" t="n">
-        <v>46046</v>
+        <v>46047</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1148,10 +1128,10 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>46046.5625</v>
+        <v>46047.5625</v>
       </c>
       <c r="B29" t="n">
-        <v>-19.90312</v>
+        <v>-5.06689</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1159,7 +1139,7 @@
         </is>
       </c>
       <c r="D29" s="3" t="n">
-        <v>46046</v>
+        <v>46047</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1169,10 +1149,10 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>46046.58333333334</v>
+        <v>46047.58333333334</v>
       </c>
       <c r="B30" t="n">
-        <v>-12.01</v>
+        <v>5.65972</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1180,7 +1160,7 @@
         </is>
       </c>
       <c r="D30" s="3" t="n">
-        <v>46046</v>
+        <v>46047</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1190,10 +1170,10 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>46046.60416666666</v>
+        <v>46047.60416666666</v>
       </c>
       <c r="B31" t="n">
-        <v>-6.83624</v>
+        <v>-0.89269</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1201,7 +1181,7 @@
         </is>
       </c>
       <c r="D31" s="3" t="n">
-        <v>46046</v>
+        <v>46047</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1211,10 +1191,10 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>46046.625</v>
+        <v>46047.625</v>
       </c>
       <c r="B32" t="n">
-        <v>-5.92803</v>
+        <v>-1.49465</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1222,7 +1202,7 @@
         </is>
       </c>
       <c r="D32" s="3" t="n">
-        <v>46046</v>
+        <v>46047</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1232,10 +1212,10 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>46046.64583333334</v>
+        <v>46047.64583333334</v>
       </c>
       <c r="B33" t="n">
-        <v>-6</v>
+        <v>0.40115</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1243,7 +1223,7 @@
         </is>
       </c>
       <c r="D33" s="3" t="n">
-        <v>46046</v>
+        <v>46047</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1253,10 +1233,10 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>46046.66666666666</v>
+        <v>46047.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>-4.89</v>
+        <v>2.68496</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1264,7 +1244,7 @@
         </is>
       </c>
       <c r="D34" s="3" t="n">
-        <v>46046</v>
+        <v>46047</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1274,10 +1254,10 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>46046.6875</v>
+        <v>46047.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>-4.91236</v>
+        <v>48.75844</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1285,7 +1265,7 @@
         </is>
       </c>
       <c r="D35" s="3" t="n">
-        <v>46046</v>
+        <v>46047</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1295,10 +1275,10 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>46046.70833333334</v>
+        <v>46047.70833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>0.51</v>
+        <v>71.27915</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1306,7 +1286,7 @@
         </is>
       </c>
       <c r="D36" s="3" t="n">
-        <v>46046</v>
+        <v>46047</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1316,10 +1296,10 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>46046.72916666666</v>
+        <v>46047.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>49.24117</v>
+        <v>36.25</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1327,7 +1307,7 @@
         </is>
       </c>
       <c r="D37" s="3" t="n">
-        <v>46046</v>
+        <v>46047</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1337,10 +1317,10 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>46046.75</v>
+        <v>46047.75</v>
       </c>
       <c r="B38" t="n">
-        <v>66.35997</v>
+        <v>64.65661</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1348,49 +1328,49 @@
         </is>
       </c>
       <c r="D38" s="3" t="n">
-        <v>46046</v>
+        <v>46047</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>46046.77083333334</v>
+        <v>46047.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>83.01918999999999</v>
+        <v>101.76525</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D39" s="3" t="n">
-        <v>46046</v>
+        <v>46047</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>46046.79166666666</v>
+        <v>46047.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>119.83444</v>
+        <v>190</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D40" s="3" t="n">
-        <v>46046</v>
+        <v>46047</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1400,18 +1380,18 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>46046.8125</v>
+        <v>46047.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>147.04151</v>
+        <v>146.77654</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D41" s="3" t="n">
-        <v>46046</v>
+        <v>46047</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1421,18 +1401,18 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>46046.83333333334</v>
+        <v>46047.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>147.51746</v>
+        <v>146.9771</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D42" s="3" t="n">
-        <v>46046</v>
+        <v>46047</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1442,18 +1422,18 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>46046.85416666666</v>
+        <v>46047.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>186.23306</v>
+        <v>234.34183</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D43" s="3" t="n">
-        <v>46046</v>
+        <v>46047</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1463,18 +1443,18 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>46046.875</v>
+        <v>46047.875</v>
       </c>
       <c r="B44" t="n">
-        <v>138.42</v>
+        <v>206.08201</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D44" s="3" t="n">
-        <v>46046</v>
+        <v>46047</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1484,18 +1464,18 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>46046.89583333334</v>
+        <v>46047.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>116.49262</v>
+        <v>147.51</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D45" s="3" t="n">
-        <v>46046</v>
+        <v>46047</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1505,18 +1485,18 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>46046.91666666666</v>
+        <v>46047.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>108.89</v>
+        <v>120.89</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D46" s="3" t="n">
-        <v>46046</v>
+        <v>46047</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1526,18 +1506,18 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>46046.9375</v>
+        <v>46047.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>101.25</v>
+        <v>147.52</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D47" s="3" t="n">
-        <v>46046</v>
+        <v>46047</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1547,18 +1527,18 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>46046.95833333334</v>
+        <v>46047.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>102.30723</v>
+        <v>108.89</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D48" s="3" t="n">
-        <v>46046</v>
+        <v>46047</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1568,10 +1548,10 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>46046.97916666666</v>
+        <v>46047.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>105.79</v>
+        <v>101.25</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1579,7 +1559,7 @@
         </is>
       </c>
       <c r="D49" s="3" t="n">
-        <v>46046</v>
+        <v>46047</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1589,10 +1569,10 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="B50" t="n">
-        <v>105.79</v>
+        <v>96.54971</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1600,7 +1580,7 @@
         </is>
       </c>
       <c r="D50" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1610,10 +1590,10 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>46047.02083333334</v>
+        <v>46048.02083333334</v>
       </c>
       <c r="B51" t="n">
-        <v>124.32627</v>
+        <v>89.76787</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1621,7 +1601,7 @@
         </is>
       </c>
       <c r="D51" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1631,10 +1611,10 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>46047.04166666666</v>
+        <v>46048.04166666666</v>
       </c>
       <c r="B52" t="n">
-        <v>105.79</v>
+        <v>72.58583</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1642,7 +1622,7 @@
         </is>
       </c>
       <c r="D52" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1652,10 +1632,10 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>46047.0625</v>
+        <v>46048.0625</v>
       </c>
       <c r="B53" t="n">
-        <v>105.79</v>
+        <v>65</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1663,7 +1643,7 @@
         </is>
       </c>
       <c r="D53" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1673,10 +1653,10 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>46047.08333333334</v>
+        <v>46048.08333333334</v>
       </c>
       <c r="B54" t="n">
-        <v>103.78068</v>
+        <v>58.71341</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1684,7 +1664,7 @@
         </is>
       </c>
       <c r="D54" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1694,10 +1674,10 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>46047.10416666666</v>
+        <v>46048.10416666666</v>
       </c>
       <c r="B55" t="n">
-        <v>105.00005</v>
+        <v>58.46663</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1705,7 +1685,7 @@
         </is>
       </c>
       <c r="D55" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1715,10 +1695,10 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>46047.125</v>
+        <v>46048.125</v>
       </c>
       <c r="B56" t="n">
-        <v>105.00005</v>
+        <v>59.2025</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1726,7 +1706,7 @@
         </is>
       </c>
       <c r="D56" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1736,10 +1716,10 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>46047.14583333334</v>
+        <v>46048.14583333334</v>
       </c>
       <c r="B57" t="n">
-        <v>105.35984</v>
+        <v>59.60614</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1747,7 +1727,7 @@
         </is>
       </c>
       <c r="D57" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -1757,10 +1737,10 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>46047.16666666666</v>
+        <v>46048.16666666666</v>
       </c>
       <c r="B58" t="n">
-        <v>87.60003</v>
+        <v>58.60513</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1768,20 +1748,20 @@
         </is>
       </c>
       <c r="D58" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>46047.1875</v>
+        <v>46048.1875</v>
       </c>
       <c r="B59" t="n">
-        <v>98.25972</v>
+        <v>65</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1789,20 +1769,20 @@
         </is>
       </c>
       <c r="D59" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>46047.20833333334</v>
+        <v>46048.20833333334</v>
       </c>
       <c r="B60" t="n">
-        <v>103.39668</v>
+        <v>66.64578</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1810,20 +1790,20 @@
         </is>
       </c>
       <c r="D60" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>46047.22916666666</v>
+        <v>46048.22916666666</v>
       </c>
       <c r="B61" t="n">
-        <v>102.36287</v>
+        <v>69.79337</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1831,20 +1811,20 @@
         </is>
       </c>
       <c r="D61" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>46047.25</v>
+        <v>46048.25</v>
       </c>
       <c r="B62" t="n">
-        <v>99.50184</v>
+        <v>65</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1852,7 +1832,7 @@
         </is>
       </c>
       <c r="D62" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1862,10 +1842,10 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>46047.27083333334</v>
+        <v>46048.27083333334</v>
       </c>
       <c r="B63" t="n">
-        <v>62.29726</v>
+        <v>41.74372</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1873,7 +1853,7 @@
         </is>
       </c>
       <c r="D63" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -1883,10 +1863,10 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>46047.29166666666</v>
+        <v>46048.29166666666</v>
       </c>
       <c r="B64" t="n">
-        <v>51.22225</v>
+        <v>35.88</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1894,7 +1874,7 @@
         </is>
       </c>
       <c r="D64" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -1904,10 +1884,10 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>46047.3125</v>
+        <v>46048.3125</v>
       </c>
       <c r="B65" t="n">
-        <v>19.80149</v>
+        <v>35.88</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1915,7 +1895,7 @@
         </is>
       </c>
       <c r="D65" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -1925,10 +1905,10 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>46047.33333333334</v>
+        <v>46048.33333333334</v>
       </c>
       <c r="B66" t="n">
-        <v>5.70924</v>
+        <v>32.94468</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1936,7 +1916,7 @@
         </is>
       </c>
       <c r="D66" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -1946,10 +1926,10 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>46047.35416666666</v>
+        <v>46048.35416666666</v>
       </c>
       <c r="B67" t="n">
-        <v>-1.06044</v>
+        <v>0.7</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1957,7 +1937,7 @@
         </is>
       </c>
       <c r="D67" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -1967,10 +1947,10 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>46047.375</v>
+        <v>46048.375</v>
       </c>
       <c r="B68" t="n">
-        <v>-5.50985</v>
+        <v>0</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1978,7 +1958,7 @@
         </is>
       </c>
       <c r="D68" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -1988,10 +1968,10 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>46047.39583333334</v>
+        <v>46048.39583333334</v>
       </c>
       <c r="B69" t="n">
-        <v>-6</v>
+        <v>0.00991</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1999,7 +1979,7 @@
         </is>
       </c>
       <c r="D69" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2009,10 +1989,10 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>46047.41666666666</v>
+        <v>46048.41666666666</v>
       </c>
       <c r="B70" t="n">
-        <v>-6.19359</v>
+        <v>0.7</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2020,7 +2000,7 @@
         </is>
       </c>
       <c r="D70" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2030,10 +2010,10 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>46047.4375</v>
+        <v>46048.4375</v>
       </c>
       <c r="B71" t="n">
-        <v>-6.16627</v>
+        <v>-0.97701</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2041,7 +2021,7 @@
         </is>
       </c>
       <c r="D71" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2051,10 +2031,10 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>46047.45833333334</v>
+        <v>46048.45833333334</v>
       </c>
       <c r="B72" t="n">
-        <v>-6.08061</v>
+        <v>-0.21959</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2062,7 +2042,7 @@
         </is>
       </c>
       <c r="D72" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2072,10 +2052,10 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>46047.47916666666</v>
+        <v>46048.47916666666</v>
       </c>
       <c r="B73" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2083,7 +2063,7 @@
         </is>
       </c>
       <c r="D73" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2093,10 +2073,10 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>46047.5</v>
+        <v>46048.5</v>
       </c>
       <c r="B74" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2104,7 +2084,7 @@
         </is>
       </c>
       <c r="D74" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2114,10 +2094,10 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>46047.52083333334</v>
+        <v>46048.52083333334</v>
       </c>
       <c r="B75" t="n">
-        <v>-6.52693</v>
+        <v>0.28508</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2125,7 +2105,7 @@
         </is>
       </c>
       <c r="D75" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2135,10 +2115,10 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>46047.54166666666</v>
+        <v>46048.54166666666</v>
       </c>
       <c r="B76" t="n">
-        <v>-6</v>
+        <v>0.7</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2146,7 +2126,7 @@
         </is>
       </c>
       <c r="D76" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2156,10 +2136,10 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>46047.5625</v>
+        <v>46048.5625</v>
       </c>
       <c r="B77" t="n">
-        <v>-5.50985</v>
+        <v>31.11445</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2167,7 +2147,7 @@
         </is>
       </c>
       <c r="D77" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2177,10 +2157,10 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>46047.58333333334</v>
+        <v>46048.58333333334</v>
       </c>
       <c r="B78" t="n">
-        <v>2e-05</v>
+        <v>36.06</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2188,7 +2168,7 @@
         </is>
       </c>
       <c r="D78" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2198,10 +2178,10 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>46047.60416666666</v>
+        <v>46048.60416666666</v>
       </c>
       <c r="B79" t="n">
-        <v>-2.54301</v>
+        <v>35.99355</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2209,7 +2189,7 @@
         </is>
       </c>
       <c r="D79" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2219,10 +2199,10 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>46047.625</v>
+        <v>46048.625</v>
       </c>
       <c r="B80" t="n">
-        <v>-1.49771</v>
+        <v>22.07</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2230,7 +2210,7 @@
         </is>
       </c>
       <c r="D80" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2240,10 +2220,10 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>46047.64583333334</v>
+        <v>46048.64583333334</v>
       </c>
       <c r="B81" t="n">
-        <v>0.41892</v>
+        <v>19.83551</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2251,7 +2231,7 @@
         </is>
       </c>
       <c r="D81" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2261,10 +2241,10 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>46047.66666666666</v>
+        <v>46048.66666666666</v>
       </c>
       <c r="B82" t="n">
-        <v>2.68504</v>
+        <v>10.36161</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2272,20 +2252,20 @@
         </is>
       </c>
       <c r="D82" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>46047.6875</v>
+        <v>46048.6875</v>
       </c>
       <c r="B83" t="n">
-        <v>48.75908</v>
+        <v>6.36081</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2293,20 +2273,20 @@
         </is>
       </c>
       <c r="D83" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>46047.70833333334</v>
+        <v>46048.70833333334</v>
       </c>
       <c r="B84" t="n">
-        <v>70.50918</v>
+        <v>9.500030000000001</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2314,20 +2294,20 @@
         </is>
       </c>
       <c r="D84" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>46047.72916666666</v>
+        <v>46048.72916666666</v>
       </c>
       <c r="B85" t="n">
-        <v>76.94748</v>
+        <v>7.6655</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2335,20 +2315,20 @@
         </is>
       </c>
       <c r="D85" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>46047.75</v>
+        <v>46048.75</v>
       </c>
       <c r="B86" t="n">
-        <v>184.43252</v>
+        <v>-3.97723</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2356,7 +2336,7 @@
         </is>
       </c>
       <c r="D86" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2366,10 +2346,10 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>46047.77083333334</v>
+        <v>46048.77083333334</v>
       </c>
       <c r="B87" t="n">
-        <v>349.81754</v>
+        <v>-6</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2377,7 +2357,7 @@
         </is>
       </c>
       <c r="D87" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2387,10 +2367,10 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>46047.79166666666</v>
+        <v>46048.79166666666</v>
       </c>
       <c r="B88" t="n">
-        <v>408.81344</v>
+        <v>-38.16</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2398,7 +2378,7 @@
         </is>
       </c>
       <c r="D88" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2408,10 +2388,10 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>46047.8125</v>
+        <v>46048.8125</v>
       </c>
       <c r="B89" t="n">
-        <v>286.65072</v>
+        <v>-38.16</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2419,7 +2399,7 @@
         </is>
       </c>
       <c r="D89" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2429,10 +2409,10 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>46047.83333333334</v>
+        <v>46048.83333333334</v>
       </c>
       <c r="B90" t="n">
-        <v>330.17155</v>
+        <v>-38.16</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2440,7 +2420,7 @@
         </is>
       </c>
       <c r="D90" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2450,10 +2430,10 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>46047.85416666666</v>
+        <v>46048.85416666666</v>
       </c>
       <c r="B91" t="n">
-        <v>168.29492</v>
+        <v>87.4353</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2461,7 +2441,7 @@
         </is>
       </c>
       <c r="D91" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -2471,10 +2451,10 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>46047.875</v>
+        <v>46048.875</v>
       </c>
       <c r="B92" t="n">
-        <v>279.10835</v>
+        <v>77.02996</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2482,7 +2462,7 @@
         </is>
       </c>
       <c r="D92" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -2492,10 +2472,10 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>46047.89583333334</v>
+        <v>46048.89583333334</v>
       </c>
       <c r="B93" t="n">
-        <v>240.89</v>
+        <v>64.01339</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2503,7 +2483,7 @@
         </is>
       </c>
       <c r="D93" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2513,10 +2493,10 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>46047.91666666666</v>
+        <v>46048.91666666666</v>
       </c>
       <c r="B94" t="n">
-        <v>138.57805</v>
+        <v>62.46015</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2524,7 +2504,7 @@
         </is>
       </c>
       <c r="D94" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -2534,10 +2514,10 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>46047.9375</v>
+        <v>46048.9375</v>
       </c>
       <c r="B95" t="n">
-        <v>147.52</v>
+        <v>73.35365</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2545,7 +2525,7 @@
         </is>
       </c>
       <c r="D95" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2555,10 +2535,10 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>46047.95833333334</v>
+        <v>46048.95833333334</v>
       </c>
       <c r="B96" t="n">
-        <v>101.25</v>
+        <v>75.69112</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2566,7 +2546,7 @@
         </is>
       </c>
       <c r="D96" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -2576,10 +2556,10 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>46047.97916666666</v>
+        <v>46048.97916666666</v>
       </c>
       <c r="B97" t="n">
-        <v>91.65622999999999</v>
+        <v>70.47257</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -2587,7 +2567,7 @@
         </is>
       </c>
       <c r="D97" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -475,10 +475,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46047.125</v>
+        <v>46047.08333333334</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>46047.79166666666</v>
+        <v>46047.75</v>
       </c>
       <c r="C2" t="n">
         <v>16</v>
@@ -487,10 +487,10 @@
         <v>60.48</v>
       </c>
       <c r="E2" t="n">
-        <v>1032.875181</v>
+        <v>1111.0247265</v>
       </c>
       <c r="F2" t="n">
-        <v>17.07796264880953</v>
+        <v>18.37011783234127</v>
       </c>
     </row>
     <row r="3">
@@ -507,10 +507,10 @@
         <v>45.36</v>
       </c>
       <c r="E3" t="n">
-        <v>602.3204655</v>
+        <v>638.3248462500001</v>
       </c>
       <c r="F3" t="n">
-        <v>13.27866987433862</v>
+        <v>14.07241724537037</v>
       </c>
     </row>
   </sheetData>
@@ -660,7 +660,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
         <v>46047.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>36.25</v>
+        <v>74.55774</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>46047.75</v>
       </c>
       <c r="B38" t="n">
-        <v>64.65661</v>
+        <v>184.26096</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1341,11 +1341,11 @@
         <v>46047.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>101.76525</v>
+        <v>443.46623</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D39" s="3" t="n">
@@ -1353,7 +1353,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1362,11 +1362,11 @@
         <v>46047.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>190</v>
+        <v>714.58874</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D40" s="3" t="n">
@@ -1383,11 +1383,11 @@
         <v>46047.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>146.77654</v>
+        <v>281.53276</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D41" s="3" t="n">
@@ -1404,11 +1404,11 @@
         <v>46047.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>146.9771</v>
+        <v>286.28441</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D42" s="3" t="n">
@@ -1425,11 +1425,11 @@
         <v>46047.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>234.34183</v>
+        <v>221.81395</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D43" s="3" t="n">
@@ -1446,11 +1446,11 @@
         <v>46047.875</v>
       </c>
       <c r="B44" t="n">
-        <v>206.08201</v>
+        <v>287.13583</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D44" s="3" t="n">
@@ -1467,11 +1467,11 @@
         <v>46047.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>147.51</v>
+        <v>240.89</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D45" s="3" t="n">
@@ -1488,11 +1488,11 @@
         <v>46047.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>120.89</v>
+        <v>136.05642</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D46" s="3" t="n">
@@ -1509,11 +1509,11 @@
         <v>46047.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>147.52</v>
+        <v>108.89</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D47" s="3" t="n">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D48" s="3" t="n">
@@ -1551,7 +1551,7 @@
         <v>46047.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>101.25</v>
+        <v>103.96471</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>46048</v>
       </c>
       <c r="B50" t="n">
-        <v>96.54971</v>
+        <v>87.55598000000001</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1593,7 +1593,7 @@
         <v>46048.02083333334</v>
       </c>
       <c r="B51" t="n">
-        <v>89.76787</v>
+        <v>108.89</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         <v>46048.04166666666</v>
       </c>
       <c r="B52" t="n">
-        <v>72.58583</v>
+        <v>80.33551</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
         <v>46048.0625</v>
       </c>
       <c r="B53" t="n">
-        <v>65</v>
+        <v>75.73583000000001</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>46048.08333333334</v>
       </c>
       <c r="B54" t="n">
-        <v>58.71341</v>
+        <v>75.41946</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         <v>46048.10416666666</v>
       </c>
       <c r="B55" t="n">
-        <v>58.46663</v>
+        <v>78.83341</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>46048.125</v>
       </c>
       <c r="B56" t="n">
-        <v>59.2025</v>
+        <v>74.01472</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>46048.14583333334</v>
       </c>
       <c r="B57" t="n">
-        <v>59.60614</v>
+        <v>73.15487</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1740,7 +1740,7 @@
         <v>46048.16666666666</v>
       </c>
       <c r="B58" t="n">
-        <v>58.60513</v>
+        <v>68.3989</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>46048.1875</v>
       </c>
       <c r="B59" t="n">
-        <v>65</v>
+        <v>66.07885</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>46048.20833333334</v>
       </c>
       <c r="B60" t="n">
-        <v>66.64578</v>
+        <v>66.55280999999999</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>46048.22916666666</v>
       </c>
       <c r="B61" t="n">
-        <v>69.79337</v>
+        <v>73.20018</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>46048.25</v>
       </c>
       <c r="B62" t="n">
-        <v>65</v>
+        <v>64.27084000000001</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>46048.27083333334</v>
       </c>
       <c r="B63" t="n">
-        <v>41.74372</v>
+        <v>49.68661</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>46048.3125</v>
       </c>
       <c r="B65" t="n">
-        <v>35.88</v>
+        <v>25.52634</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>46048.33333333334</v>
       </c>
       <c r="B66" t="n">
-        <v>32.94468</v>
+        <v>33.17233</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>46048.39583333334</v>
       </c>
       <c r="B69" t="n">
-        <v>0.00991</v>
+        <v>0.01109</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2013,7 +2013,7 @@
         <v>46048.4375</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.97701</v>
+        <v>0.03091</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
         <v>46048.45833333334</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.21959</v>
+        <v>0.59</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>46048.47916666666</v>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>0.03112</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         <v>46048.5</v>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v>0.02987</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>46048.52083333334</v>
       </c>
       <c r="B75" t="n">
-        <v>0.28508</v>
+        <v>0.00991</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
         <v>46048.54166666666</v>
       </c>
       <c r="B76" t="n">
-        <v>0.7</v>
+        <v>2.63312</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>46048.5625</v>
       </c>
       <c r="B77" t="n">
-        <v>31.11445</v>
+        <v>35.88</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>46048.60416666666</v>
       </c>
       <c r="B79" t="n">
-        <v>35.99355</v>
+        <v>36.06</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>46048.625</v>
       </c>
       <c r="B80" t="n">
-        <v>22.07</v>
+        <v>35.88</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>46048.64583333334</v>
       </c>
       <c r="B81" t="n">
-        <v>19.83551</v>
+        <v>23.30927</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2244,7 +2244,7 @@
         <v>46048.66666666666</v>
       </c>
       <c r="B82" t="n">
-        <v>10.36161</v>
+        <v>12.6901</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>46048.6875</v>
       </c>
       <c r="B83" t="n">
-        <v>6.36081</v>
+        <v>9.837199999999999</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2286,7 +2286,7 @@
         <v>46048.70833333334</v>
       </c>
       <c r="B84" t="n">
-        <v>9.500030000000001</v>
+        <v>10.66298</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         <v>46048.72916666666</v>
       </c>
       <c r="B85" t="n">
-        <v>7.6655</v>
+        <v>11.24709</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2328,7 +2328,7 @@
         <v>46048.75</v>
       </c>
       <c r="B86" t="n">
-        <v>-3.97723</v>
+        <v>10.08989</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2412,7 +2412,7 @@
         <v>46048.83333333334</v>
       </c>
       <c r="B90" t="n">
-        <v>-38.16</v>
+        <v>-47.36008</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>46048.85416666666</v>
       </c>
       <c r="B91" t="n">
-        <v>87.4353</v>
+        <v>93.79707999999999</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>46048.875</v>
       </c>
       <c r="B92" t="n">
-        <v>77.02996</v>
+        <v>82.04774</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2475,7 +2475,7 @@
         <v>46048.89583333334</v>
       </c>
       <c r="B93" t="n">
-        <v>64.01339</v>
+        <v>79.35881000000001</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>46048.91666666666</v>
       </c>
       <c r="B94" t="n">
-        <v>62.46015</v>
+        <v>78</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>46048.9375</v>
       </c>
       <c r="B95" t="n">
-        <v>73.35365</v>
+        <v>98.59914999999999</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>46048.95833333334</v>
       </c>
       <c r="B96" t="n">
-        <v>75.69112</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         <v>46048.97916666666</v>
       </c>
       <c r="B97" t="n">
-        <v>70.47257</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,42 +475,62 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46047.08333333334</v>
+        <v>46048.16666666666</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>46047.75</v>
+        <v>46048.66666666666</v>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>60.48</v>
+        <v>45.36</v>
       </c>
       <c r="E2" t="n">
-        <v>1111.0247265</v>
+        <v>711.8193517500001</v>
       </c>
       <c r="F2" t="n">
-        <v>18.37011783234127</v>
+        <v>15.69266648478836</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46048.16666666666</v>
+        <v>46048.83333333334</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>46048.66666666666</v>
+        <v>46049.125</v>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>45.36</v>
+        <v>26.46</v>
       </c>
       <c r="E3" t="n">
-        <v>638.3248462500001</v>
+        <v>811.3302405000001</v>
       </c>
       <c r="F3" t="n">
-        <v>14.07241724537037</v>
+        <v>30.66251853741497</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>46049.29166666666</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>46049.66666666666</v>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>34.02</v>
+      </c>
+      <c r="E4" t="n">
+        <v>217.9336477500001</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6.40604490740741</v>
       </c>
     </row>
   </sheetData>
@@ -561,10 +581,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="B2" t="n">
-        <v>105.79</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -572,7 +592,7 @@
         </is>
       </c>
       <c r="D2" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -582,10 +602,10 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46047.02083333334</v>
+        <v>46048.02083333334</v>
       </c>
       <c r="B3" t="n">
-        <v>106.85676</v>
+        <v>107.48337</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -593,7 +613,7 @@
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -603,10 +623,10 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46047.04166666666</v>
+        <v>46048.04166666666</v>
       </c>
       <c r="B4" t="n">
-        <v>102.06314</v>
+        <v>83.73248</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -614,7 +634,7 @@
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -624,10 +644,10 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46047.0625</v>
+        <v>46048.0625</v>
       </c>
       <c r="B5" t="n">
-        <v>103.56233</v>
+        <v>74.13683</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -635,7 +655,7 @@
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -645,10 +665,10 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>46047.08333333334</v>
+        <v>46048.08333333334</v>
       </c>
       <c r="B6" t="n">
-        <v>103.26745</v>
+        <v>78.68822</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -656,20 +676,20 @@
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>46047.10416666666</v>
+        <v>46048.10416666666</v>
       </c>
       <c r="B7" t="n">
-        <v>105.00005</v>
+        <v>74.41306</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -677,20 +697,20 @@
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>46047.125</v>
+        <v>46048.125</v>
       </c>
       <c r="B8" t="n">
-        <v>103.7033</v>
+        <v>73.20017</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -698,20 +718,20 @@
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>46047.14583333334</v>
+        <v>46048.14583333334</v>
       </c>
       <c r="B9" t="n">
-        <v>96.28724</v>
+        <v>71.01886</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -719,20 +739,20 @@
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>46047.16666666666</v>
+        <v>46048.16666666666</v>
       </c>
       <c r="B10" t="n">
-        <v>84.79000000000001</v>
+        <v>70.46914</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -740,7 +760,7 @@
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -750,10 +770,10 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>46047.1875</v>
+        <v>46048.1875</v>
       </c>
       <c r="B11" t="n">
-        <v>85.39851</v>
+        <v>65.62146</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -761,7 +781,7 @@
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -771,10 +791,10 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>46047.20833333334</v>
+        <v>46048.20833333334</v>
       </c>
       <c r="B12" t="n">
-        <v>100.52719</v>
+        <v>67.03016</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -782,7 +802,7 @@
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -792,10 +812,10 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>46047.22916666666</v>
+        <v>46048.22916666666</v>
       </c>
       <c r="B13" t="n">
-        <v>101.25</v>
+        <v>72.8609</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -803,7 +823,7 @@
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -813,10 +833,10 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>46047.25</v>
+        <v>46048.25</v>
       </c>
       <c r="B14" t="n">
-        <v>84.79000000000001</v>
+        <v>64.2651</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -824,7 +844,7 @@
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -834,10 +854,10 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>46047.27083333334</v>
+        <v>46048.27083333334</v>
       </c>
       <c r="B15" t="n">
-        <v>62.29062</v>
+        <v>56.74104</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -845,7 +865,7 @@
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -855,10 +875,10 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>46047.29166666666</v>
+        <v>46048.29166666666</v>
       </c>
       <c r="B16" t="n">
-        <v>51.08363</v>
+        <v>35.88</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -866,7 +886,7 @@
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -876,10 +896,10 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>46047.3125</v>
+        <v>46048.3125</v>
       </c>
       <c r="B17" t="n">
-        <v>14.25158</v>
+        <v>35.88</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -887,7 +907,7 @@
         </is>
       </c>
       <c r="D17" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -897,10 +917,10 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>46047.33333333334</v>
+        <v>46048.33333333334</v>
       </c>
       <c r="B18" t="n">
-        <v>4.97668</v>
+        <v>33.33781</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -908,7 +928,7 @@
         </is>
       </c>
       <c r="D18" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -918,10 +938,10 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>46047.35416666666</v>
+        <v>46048.35416666666</v>
       </c>
       <c r="B19" t="n">
-        <v>-1.05379</v>
+        <v>7.98973</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -929,7 +949,7 @@
         </is>
       </c>
       <c r="D19" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -939,10 +959,10 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>46047.375</v>
+        <v>46048.375</v>
       </c>
       <c r="B20" t="n">
-        <v>-2.83936</v>
+        <v>0.5099900000000001</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -950,7 +970,7 @@
         </is>
       </c>
       <c r="D20" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -960,10 +980,10 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>46047.39583333334</v>
+        <v>46048.39583333334</v>
       </c>
       <c r="B21" t="n">
-        <v>-5.50985</v>
+        <v>3.38071</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -971,7 +991,7 @@
         </is>
       </c>
       <c r="D21" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -981,10 +1001,10 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>46047.41666666666</v>
+        <v>46048.41666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>-6.14392</v>
+        <v>3.39226</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -992,7 +1012,7 @@
         </is>
       </c>
       <c r="D22" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1002,10 +1022,10 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>46047.4375</v>
+        <v>46048.4375</v>
       </c>
       <c r="B23" t="n">
-        <v>-6.16116</v>
+        <v>0.01043</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1013,7 +1033,7 @@
         </is>
       </c>
       <c r="D23" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1023,10 +1043,10 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>46047.45833333334</v>
+        <v>46048.45833333334</v>
       </c>
       <c r="B24" t="n">
-        <v>-6.08048</v>
+        <v>0.03105</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1034,7 +1054,7 @@
         </is>
       </c>
       <c r="D24" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1044,10 +1064,10 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>46047.47916666666</v>
+        <v>46048.47916666666</v>
       </c>
       <c r="B25" t="n">
-        <v>-6.31978</v>
+        <v>0.7</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1055,7 +1075,7 @@
         </is>
       </c>
       <c r="D25" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1065,10 +1085,10 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>46047.5</v>
+        <v>46048.5</v>
       </c>
       <c r="B26" t="n">
-        <v>-6.3699</v>
+        <v>0.5099900000000001</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1076,7 +1096,7 @@
         </is>
       </c>
       <c r="D26" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1086,10 +1106,10 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>46047.52083333334</v>
+        <v>46048.52083333334</v>
       </c>
       <c r="B27" t="n">
-        <v>-7.07031</v>
+        <v>8.277699999999999</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1097,7 +1117,7 @@
         </is>
       </c>
       <c r="D27" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1107,10 +1127,10 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>46047.54166666666</v>
+        <v>46048.54166666666</v>
       </c>
       <c r="B28" t="n">
-        <v>-6.44209</v>
+        <v>35.88</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1118,7 +1138,7 @@
         </is>
       </c>
       <c r="D28" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1128,10 +1148,10 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>46047.5625</v>
+        <v>46048.5625</v>
       </c>
       <c r="B29" t="n">
-        <v>-5.06689</v>
+        <v>36.06</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1139,7 +1159,7 @@
         </is>
       </c>
       <c r="D29" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1149,10 +1169,10 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>46047.58333333334</v>
+        <v>46048.58333333334</v>
       </c>
       <c r="B30" t="n">
-        <v>5.65972</v>
+        <v>36.06</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1160,7 +1180,7 @@
         </is>
       </c>
       <c r="D30" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1170,10 +1190,10 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>46047.60416666666</v>
+        <v>46048.60416666666</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.89269</v>
+        <v>36.06</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1181,7 +1201,7 @@
         </is>
       </c>
       <c r="D31" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1191,10 +1211,10 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>46047.625</v>
+        <v>46048.625</v>
       </c>
       <c r="B32" t="n">
-        <v>-1.49465</v>
+        <v>35.98451</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1202,7 +1222,7 @@
         </is>
       </c>
       <c r="D32" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1212,10 +1232,10 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>46047.64583333334</v>
+        <v>46048.64583333334</v>
       </c>
       <c r="B33" t="n">
-        <v>0.40115</v>
+        <v>23.13915</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1223,7 +1243,7 @@
         </is>
       </c>
       <c r="D33" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1233,10 +1253,10 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>46047.66666666666</v>
+        <v>46048.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>2.68496</v>
+        <v>12.6901</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1244,20 +1264,20 @@
         </is>
       </c>
       <c r="D34" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>46047.6875</v>
+        <v>46048.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>48.75844</v>
+        <v>9.83667</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1265,20 +1285,20 @@
         </is>
       </c>
       <c r="D35" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>46047.70833333334</v>
+        <v>46048.70833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>71.27915</v>
+        <v>10.66234</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1286,20 +1306,20 @@
         </is>
       </c>
       <c r="D36" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>46047.72916666666</v>
+        <v>46048.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>74.55774</v>
+        <v>-38.16</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1307,20 +1327,20 @@
         </is>
       </c>
       <c r="D37" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>46047.75</v>
+        <v>46048.75</v>
       </c>
       <c r="B38" t="n">
-        <v>184.26096</v>
+        <v>-1.85333</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1328,7 +1348,7 @@
         </is>
       </c>
       <c r="D38" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1338,18 +1358,18 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>46047.77083333334</v>
+        <v>46048.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>443.46623</v>
+        <v>-9.47439</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D39" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1359,18 +1379,18 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>46047.79166666666</v>
+        <v>46048.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>714.58874</v>
+        <v>-10.00186</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D40" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1380,18 +1400,18 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>46047.8125</v>
+        <v>46048.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>281.53276</v>
+        <v>1.60622</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D41" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1401,157 +1421,157 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>46047.83333333334</v>
+        <v>46048.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>286.28441</v>
+        <v>9.23577</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D42" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>46047.85416666666</v>
+        <v>46048.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>221.81395</v>
+        <v>67.56927</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D43" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>46047.875</v>
+        <v>46048.875</v>
       </c>
       <c r="B44" t="n">
-        <v>287.13583</v>
+        <v>64.01339</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D44" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>46047.89583333334</v>
+        <v>46048.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>240.89</v>
+        <v>65.90980999999999</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D45" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>46047.91666666666</v>
+        <v>46048.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>136.05642</v>
+        <v>66.79807</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D46" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>46047.9375</v>
+        <v>46048.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>108.89</v>
+        <v>67.25798</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D47" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>46047.95833333334</v>
+        <v>46048.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>108.89</v>
+        <v>67.68881</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D48" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>46047.97916666666</v>
+        <v>46048.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>103.96471</v>
+        <v>65</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1559,20 +1579,20 @@
         </is>
       </c>
       <c r="D49" s="3" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>46048</v>
+        <v>46049</v>
       </c>
       <c r="B50" t="n">
-        <v>87.55598000000001</v>
+        <v>64.89</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1580,20 +1600,20 @@
         </is>
       </c>
       <c r="D50" s="3" t="n">
-        <v>46048</v>
+        <v>46049</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>46048.02083333334</v>
+        <v>46049.02083333334</v>
       </c>
       <c r="B51" t="n">
-        <v>108.89</v>
+        <v>65</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1601,20 +1621,20 @@
         </is>
       </c>
       <c r="D51" s="3" t="n">
-        <v>46048</v>
+        <v>46049</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>46048.04166666666</v>
+        <v>46049.04166666666</v>
       </c>
       <c r="B52" t="n">
-        <v>80.33551</v>
+        <v>57.44461</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1622,20 +1642,20 @@
         </is>
       </c>
       <c r="D52" s="3" t="n">
-        <v>46048</v>
+        <v>46049</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>46048.0625</v>
+        <v>46049.0625</v>
       </c>
       <c r="B53" t="n">
-        <v>75.73583000000001</v>
+        <v>57.06</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1643,20 +1663,20 @@
         </is>
       </c>
       <c r="D53" s="3" t="n">
-        <v>46048</v>
+        <v>46049</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>46048.08333333334</v>
+        <v>46049.08333333334</v>
       </c>
       <c r="B54" t="n">
-        <v>75.41946</v>
+        <v>57.20587</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1664,20 +1684,20 @@
         </is>
       </c>
       <c r="D54" s="3" t="n">
-        <v>46048</v>
+        <v>46049</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>46048.10416666666</v>
+        <v>46049.10416666666</v>
       </c>
       <c r="B55" t="n">
-        <v>78.83341</v>
+        <v>57.06</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1685,20 +1705,20 @@
         </is>
       </c>
       <c r="D55" s="3" t="n">
-        <v>46048</v>
+        <v>46049</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>46048.125</v>
+        <v>46049.125</v>
       </c>
       <c r="B56" t="n">
-        <v>74.01472</v>
+        <v>57.30213</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1706,7 +1726,7 @@
         </is>
       </c>
       <c r="D56" s="3" t="n">
-        <v>46048</v>
+        <v>46049</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1716,10 +1736,10 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>46048.14583333334</v>
+        <v>46049.14583333334</v>
       </c>
       <c r="B57" t="n">
-        <v>73.15487</v>
+        <v>58.02334</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1727,7 +1747,7 @@
         </is>
       </c>
       <c r="D57" s="3" t="n">
-        <v>46048</v>
+        <v>46049</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -1737,10 +1757,10 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>46048.16666666666</v>
+        <v>46049.16666666666</v>
       </c>
       <c r="B58" t="n">
-        <v>68.3989</v>
+        <v>59.44672</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1748,20 +1768,20 @@
         </is>
       </c>
       <c r="D58" s="3" t="n">
-        <v>46048</v>
+        <v>46049</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>46048.1875</v>
+        <v>46049.1875</v>
       </c>
       <c r="B59" t="n">
-        <v>66.07885</v>
+        <v>57.06018</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1769,20 +1789,20 @@
         </is>
       </c>
       <c r="D59" s="3" t="n">
-        <v>46048</v>
+        <v>46049</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>46048.20833333334</v>
+        <v>46049.20833333334</v>
       </c>
       <c r="B60" t="n">
-        <v>66.55280999999999</v>
+        <v>60.50443</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1790,20 +1810,20 @@
         </is>
       </c>
       <c r="D60" s="3" t="n">
-        <v>46048</v>
+        <v>46049</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>46048.22916666666</v>
+        <v>46049.22916666666</v>
       </c>
       <c r="B61" t="n">
-        <v>73.20018</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1811,20 +1831,20 @@
         </is>
       </c>
       <c r="D61" s="3" t="n">
-        <v>46048</v>
+        <v>46049</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>46048.25</v>
+        <v>46049.25</v>
       </c>
       <c r="B62" t="n">
-        <v>64.27084000000001</v>
+        <v>90.11004</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1832,20 +1852,20 @@
         </is>
       </c>
       <c r="D62" s="3" t="n">
-        <v>46048</v>
+        <v>46049</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>46048.27083333334</v>
+        <v>46049.27083333334</v>
       </c>
       <c r="B63" t="n">
-        <v>49.68661</v>
+        <v>59.25663</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1853,20 +1873,20 @@
         </is>
       </c>
       <c r="D63" s="3" t="n">
-        <v>46048</v>
+        <v>46049</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>46048.29166666666</v>
+        <v>46049.29166666666</v>
       </c>
       <c r="B64" t="n">
-        <v>35.88</v>
+        <v>56.98</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1874,7 +1894,7 @@
         </is>
       </c>
       <c r="D64" s="3" t="n">
-        <v>46048</v>
+        <v>46049</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -1884,10 +1904,10 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>46048.3125</v>
+        <v>46049.3125</v>
       </c>
       <c r="B65" t="n">
-        <v>25.52634</v>
+        <v>36.06</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1895,7 +1915,7 @@
         </is>
       </c>
       <c r="D65" s="3" t="n">
-        <v>46048</v>
+        <v>46049</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -1905,10 +1925,10 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>46048.33333333334</v>
+        <v>46049.33333333334</v>
       </c>
       <c r="B66" t="n">
-        <v>33.17233</v>
+        <v>36.06</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1916,7 +1936,7 @@
         </is>
       </c>
       <c r="D66" s="3" t="n">
-        <v>46048</v>
+        <v>46049</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -1926,10 +1946,10 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>46048.35416666666</v>
+        <v>46049.35416666666</v>
       </c>
       <c r="B67" t="n">
-        <v>0.7</v>
+        <v>36.06</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1937,7 +1957,7 @@
         </is>
       </c>
       <c r="D67" s="3" t="n">
-        <v>46048</v>
+        <v>46049</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -1947,10 +1967,10 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>46048.375</v>
+        <v>46049.375</v>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>22.07</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1958,7 +1978,7 @@
         </is>
       </c>
       <c r="D68" s="3" t="n">
-        <v>46048</v>
+        <v>46049</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -1968,10 +1988,10 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>46048.39583333334</v>
+        <v>46049.39583333334</v>
       </c>
       <c r="B69" t="n">
-        <v>0.01109</v>
+        <v>20.07895</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1979,7 +1999,7 @@
         </is>
       </c>
       <c r="D69" s="3" t="n">
-        <v>46048</v>
+        <v>46049</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -1989,10 +2009,10 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>46048.41666666666</v>
+        <v>46049.41666666666</v>
       </c>
       <c r="B70" t="n">
-        <v>0.7</v>
+        <v>9.273389999999999</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2000,7 +2020,7 @@
         </is>
       </c>
       <c r="D70" s="3" t="n">
-        <v>46048</v>
+        <v>46049</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2010,10 +2030,10 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>46048.4375</v>
+        <v>46049.4375</v>
       </c>
       <c r="B71" t="n">
-        <v>0.03091</v>
+        <v>8.64038</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2021,7 +2041,7 @@
         </is>
       </c>
       <c r="D71" s="3" t="n">
-        <v>46048</v>
+        <v>46049</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2031,10 +2051,10 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>46048.45833333334</v>
+        <v>46049.45833333334</v>
       </c>
       <c r="B72" t="n">
-        <v>0.59</v>
+        <v>0.64061</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2042,7 +2062,7 @@
         </is>
       </c>
       <c r="D72" s="3" t="n">
-        <v>46048</v>
+        <v>46049</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2052,10 +2072,10 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>46048.47916666666</v>
+        <v>46049.47916666666</v>
       </c>
       <c r="B73" t="n">
-        <v>0.03112</v>
+        <v>0.51</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2063,7 +2083,7 @@
         </is>
       </c>
       <c r="D73" s="3" t="n">
-        <v>46048</v>
+        <v>46049</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2073,10 +2093,10 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>46048.5</v>
+        <v>46049.5</v>
       </c>
       <c r="B74" t="n">
-        <v>0.02987</v>
+        <v>6.59836</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2084,7 +2104,7 @@
         </is>
       </c>
       <c r="D74" s="3" t="n">
-        <v>46048</v>
+        <v>46049</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2094,10 +2114,10 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>46048.52083333334</v>
+        <v>46049.52083333334</v>
       </c>
       <c r="B75" t="n">
-        <v>0.00991</v>
+        <v>0.51</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2105,7 +2125,7 @@
         </is>
       </c>
       <c r="D75" s="3" t="n">
-        <v>46048</v>
+        <v>46049</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2115,10 +2135,10 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>46048.54166666666</v>
+        <v>46049.54166666666</v>
       </c>
       <c r="B76" t="n">
-        <v>2.63312</v>
+        <v>0.51</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2126,7 +2146,7 @@
         </is>
       </c>
       <c r="D76" s="3" t="n">
-        <v>46048</v>
+        <v>46049</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2136,10 +2156,10 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>46048.5625</v>
+        <v>46049.5625</v>
       </c>
       <c r="B77" t="n">
-        <v>35.88</v>
+        <v>0.51</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2147,7 +2167,7 @@
         </is>
       </c>
       <c r="D77" s="3" t="n">
-        <v>46048</v>
+        <v>46049</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2157,10 +2177,10 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>46048.58333333334</v>
+        <v>46049.58333333334</v>
       </c>
       <c r="B78" t="n">
-        <v>36.06</v>
+        <v>0.51</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2168,7 +2188,7 @@
         </is>
       </c>
       <c r="D78" s="3" t="n">
-        <v>46048</v>
+        <v>46049</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2178,10 +2198,10 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>46048.60416666666</v>
+        <v>46049.60416666666</v>
       </c>
       <c r="B79" t="n">
-        <v>36.06</v>
+        <v>0.51</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2189,7 +2209,7 @@
         </is>
       </c>
       <c r="D79" s="3" t="n">
-        <v>46048</v>
+        <v>46049</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2199,10 +2219,10 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>46048.625</v>
+        <v>46049.625</v>
       </c>
       <c r="B80" t="n">
-        <v>35.88</v>
+        <v>-6</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2210,7 +2230,7 @@
         </is>
       </c>
       <c r="D80" s="3" t="n">
-        <v>46048</v>
+        <v>46049</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2220,10 +2240,10 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>46048.64583333334</v>
+        <v>46049.64583333334</v>
       </c>
       <c r="B81" t="n">
-        <v>23.30927</v>
+        <v>-6</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2231,7 +2251,7 @@
         </is>
       </c>
       <c r="D81" s="3" t="n">
-        <v>46048</v>
+        <v>46049</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2241,10 +2261,10 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>46048.66666666666</v>
+        <v>46049.66666666666</v>
       </c>
       <c r="B82" t="n">
-        <v>12.6901</v>
+        <v>-3.6481</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2252,7 +2272,7 @@
         </is>
       </c>
       <c r="D82" s="3" t="n">
-        <v>46048</v>
+        <v>46049</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2262,10 +2282,10 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>46048.6875</v>
+        <v>46049.6875</v>
       </c>
       <c r="B83" t="n">
-        <v>9.837199999999999</v>
+        <v>35.88</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2273,7 +2293,7 @@
         </is>
       </c>
       <c r="D83" s="3" t="n">
-        <v>46048</v>
+        <v>46049</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2283,10 +2303,10 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>46048.70833333334</v>
+        <v>46049.70833333334</v>
       </c>
       <c r="B84" t="n">
-        <v>10.66298</v>
+        <v>13.60482</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2294,7 +2314,7 @@
         </is>
       </c>
       <c r="D84" s="3" t="n">
-        <v>46048</v>
+        <v>46049</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2304,10 +2324,10 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>46048.72916666666</v>
+        <v>46049.72916666666</v>
       </c>
       <c r="B85" t="n">
-        <v>11.24709</v>
+        <v>33.27382</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2315,7 +2335,7 @@
         </is>
       </c>
       <c r="D85" s="3" t="n">
-        <v>46048</v>
+        <v>46049</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2325,10 +2345,10 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>46048.75</v>
+        <v>46049.75</v>
       </c>
       <c r="B86" t="n">
-        <v>10.08989</v>
+        <v>18.76736</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2336,7 +2356,7 @@
         </is>
       </c>
       <c r="D86" s="3" t="n">
-        <v>46048</v>
+        <v>46049</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2346,10 +2366,10 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>46048.77083333334</v>
+        <v>46049.77083333334</v>
       </c>
       <c r="B87" t="n">
-        <v>-6</v>
+        <v>67.0701</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2357,7 +2377,7 @@
         </is>
       </c>
       <c r="D87" s="3" t="n">
-        <v>46048</v>
+        <v>46049</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2367,10 +2387,10 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>46048.79166666666</v>
+        <v>46049.79166666666</v>
       </c>
       <c r="B88" t="n">
-        <v>-38.16</v>
+        <v>105.79</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2378,7 +2398,7 @@
         </is>
       </c>
       <c r="D88" s="3" t="n">
-        <v>46048</v>
+        <v>46049</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2388,10 +2408,10 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>46048.8125</v>
+        <v>46049.8125</v>
       </c>
       <c r="B89" t="n">
-        <v>-38.16</v>
+        <v>114.09307</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2399,7 +2419,7 @@
         </is>
       </c>
       <c r="D89" s="3" t="n">
-        <v>46048</v>
+        <v>46049</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2409,10 +2429,10 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>46048.83333333334</v>
+        <v>46049.83333333334</v>
       </c>
       <c r="B90" t="n">
-        <v>-47.36008</v>
+        <v>108.37309</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2420,7 +2440,7 @@
         </is>
       </c>
       <c r="D90" s="3" t="n">
-        <v>46048</v>
+        <v>46049</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2430,10 +2450,10 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>46048.85416666666</v>
+        <v>46049.85416666666</v>
       </c>
       <c r="B91" t="n">
-        <v>93.79707999999999</v>
+        <v>105.79</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2441,7 +2461,7 @@
         </is>
       </c>
       <c r="D91" s="3" t="n">
-        <v>46048</v>
+        <v>46049</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -2451,10 +2471,10 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>46048.875</v>
+        <v>46049.875</v>
       </c>
       <c r="B92" t="n">
-        <v>82.04774</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2462,7 +2482,7 @@
         </is>
       </c>
       <c r="D92" s="3" t="n">
-        <v>46048</v>
+        <v>46049</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -2472,10 +2492,10 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>46048.89583333334</v>
+        <v>46049.89583333334</v>
       </c>
       <c r="B93" t="n">
-        <v>79.35881000000001</v>
+        <v>88.31083</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2483,7 +2503,7 @@
         </is>
       </c>
       <c r="D93" s="3" t="n">
-        <v>46048</v>
+        <v>46049</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2493,10 +2513,10 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>46048.91666666666</v>
+        <v>46049.91666666666</v>
       </c>
       <c r="B94" t="n">
-        <v>78</v>
+        <v>89.41898999999999</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2504,7 +2524,7 @@
         </is>
       </c>
       <c r="D94" s="3" t="n">
-        <v>46048</v>
+        <v>46049</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -2514,10 +2534,10 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>46048.9375</v>
+        <v>46049.9375</v>
       </c>
       <c r="B95" t="n">
-        <v>98.59914999999999</v>
+        <v>93.90031</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2525,7 +2545,7 @@
         </is>
       </c>
       <c r="D95" s="3" t="n">
-        <v>46048</v>
+        <v>46049</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2535,10 +2555,10 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>46048.95833333334</v>
+        <v>46049.95833333334</v>
       </c>
       <c r="B96" t="n">
-        <v>84.79000000000001</v>
+        <v>94.16097000000001</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2546,7 +2566,7 @@
         </is>
       </c>
       <c r="D96" s="3" t="n">
-        <v>46048</v>
+        <v>46049</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -2556,7 +2576,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>46048.97916666666</v>
+        <v>46049.97916666666</v>
       </c>
       <c r="B97" t="n">
         <v>84.79000000000001</v>
@@ -2567,7 +2587,7 @@
         </is>
       </c>
       <c r="D97" s="3" t="n">
-        <v>46048</v>
+        <v>46049</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -495,10 +495,10 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46052</v>
+        <v>46052.04166666666</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>46052.16666666666</v>
+        <v>46052.20833333334</v>
       </c>
       <c r="C3" t="n">
         <v>4</v>
@@ -507,18 +507,18 @@
         <v>15.12</v>
       </c>
       <c r="E3" t="n">
-        <v>524.329962</v>
+        <v>551.7321029999999</v>
       </c>
       <c r="F3" t="n">
-        <v>34.67790753968254</v>
+        <v>36.49021845238095</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46052.3125</v>
+        <v>46052.29166666666</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>46052.64583333334</v>
+        <v>46052.625</v>
       </c>
       <c r="C4" t="n">
         <v>8</v>
@@ -527,10 +527,10 @@
         <v>30.24</v>
       </c>
       <c r="E4" t="n">
-        <v>622.15663575</v>
+        <v>641.5914375</v>
       </c>
       <c r="F4" t="n">
-        <v>20.57396282242064</v>
+        <v>21.21664806547619</v>
       </c>
     </row>
   </sheetData>
@@ -1340,7 +1340,7 @@
         <v>46051.75</v>
       </c>
       <c r="B38" t="n">
-        <v>60.59573</v>
+        <v>57.06007</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>46051.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>64.89</v>
+        <v>73.19</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1382,11 +1382,11 @@
         <v>46051.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>75.40925</v>
+        <v>92.30755000000001</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D40" s="3" t="n">
@@ -1403,11 +1403,11 @@
         <v>46051.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>102.2975</v>
+        <v>96.67016</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D41" s="3" t="n">
@@ -1424,11 +1424,11 @@
         <v>46051.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>103.89486</v>
+        <v>101.25</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D42" s="3" t="n">
@@ -1445,11 +1445,11 @@
         <v>46051.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>99.67634</v>
+        <v>90.83913</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D43" s="3" t="n">
@@ -1466,11 +1466,11 @@
         <v>46051.875</v>
       </c>
       <c r="B44" t="n">
-        <v>86.75909</v>
+        <v>78</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D44" s="3" t="n">
@@ -1487,11 +1487,11 @@
         <v>46051.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>73.20013</v>
+        <v>73.19</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D45" s="3" t="n">
@@ -1512,7 +1512,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D46" s="3" t="n">
@@ -1529,11 +1529,11 @@
         <v>46051.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>73.19</v>
+        <v>106.9792</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D47" s="3" t="n">
@@ -1550,11 +1550,11 @@
         <v>46051.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>73.20010000000001</v>
+        <v>105</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D48" s="3" t="n">
@@ -1571,7 +1571,7 @@
         <v>46051.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>73.20010000000001</v>
+        <v>92.96397</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>46052</v>
       </c>
       <c r="B50" t="n">
-        <v>65.03060000000001</v>
+        <v>93.8609</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1613,7 +1613,7 @@
         <v>46052.02083333334</v>
       </c>
       <c r="B51" t="n">
-        <v>67.3891</v>
+        <v>78</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1634,7 +1634,7 @@
         <v>46052.04166666666</v>
       </c>
       <c r="B52" t="n">
-        <v>64.4144</v>
+        <v>76.58247</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>46052.0625</v>
       </c>
       <c r="B53" t="n">
-        <v>65.789</v>
+        <v>64.89</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
         <v>46052.08333333334</v>
       </c>
       <c r="B54" t="n">
-        <v>65.70493</v>
+        <v>66.90913</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>46052.10416666666</v>
       </c>
       <c r="B55" t="n">
-        <v>66.67346999999999</v>
+        <v>66.60672</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>46052.125</v>
       </c>
       <c r="B56" t="n">
-        <v>70.31461</v>
+        <v>68.34329</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>46052.14583333334</v>
       </c>
       <c r="B57" t="n">
-        <v>72.45820999999999</v>
+        <v>71.34737</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>46052.16666666666</v>
       </c>
       <c r="B58" t="n">
-        <v>78</v>
+        <v>73.20010000000001</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1781,7 +1781,7 @@
         <v>46052.1875</v>
       </c>
       <c r="B59" t="n">
-        <v>78.86057</v>
+        <v>78</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1802,7 +1802,7 @@
         <v>46052.20833333334</v>
       </c>
       <c r="B60" t="n">
-        <v>85.06735999999999</v>
+        <v>86.56122999999999</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>46052.22916666666</v>
       </c>
       <c r="B61" t="n">
-        <v>104.923</v>
+        <v>108.89</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>46052.25</v>
       </c>
       <c r="B62" t="n">
-        <v>108.89</v>
+        <v>127.50518</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1865,7 +1865,7 @@
         <v>46052.27083333334</v>
       </c>
       <c r="B63" t="n">
-        <v>105.79</v>
+        <v>108.89</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>46052.29166666666</v>
       </c>
       <c r="B64" t="n">
-        <v>70.98614999999999</v>
+        <v>68.43391</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1907,7 +1907,7 @@
         <v>46052.3125</v>
       </c>
       <c r="B65" t="n">
-        <v>57.06007</v>
+        <v>56.98</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
         <v>46052.33333333334</v>
       </c>
       <c r="B66" t="n">
-        <v>51.86772</v>
+        <v>36.11552</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>46052.35416666666</v>
       </c>
       <c r="B67" t="n">
-        <v>53.61641</v>
+        <v>49.44934</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>46052.375</v>
       </c>
       <c r="B68" t="n">
-        <v>34.30034</v>
+        <v>33.9499</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>46052.41666666666</v>
       </c>
       <c r="B70" t="n">
-        <v>36.07</v>
+        <v>36.0601</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>46052.4375</v>
       </c>
       <c r="B71" t="n">
-        <v>22.07</v>
+        <v>31.49306</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>46052.47916666666</v>
       </c>
       <c r="B73" t="n">
-        <v>34.72852</v>
+        <v>36.07</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>46052.52083333334</v>
       </c>
       <c r="B75" t="n">
-        <v>22.08444</v>
+        <v>36.0601</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>46052.58333333334</v>
       </c>
       <c r="B78" t="n">
-        <v>36.0601</v>
+        <v>36.07</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>46052.60416666666</v>
       </c>
       <c r="B79" t="n">
-        <v>52.87127</v>
+        <v>57.06007</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>46052.625</v>
       </c>
       <c r="B80" t="n">
-        <v>57.08</v>
+        <v>73.05861</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -2243,7 +2243,7 @@
         <v>46052.64583333334</v>
       </c>
       <c r="B81" t="n">
-        <v>64.89</v>
+        <v>73.20007</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2264,7 +2264,7 @@
         <v>46052.66666666666</v>
       </c>
       <c r="B82" t="n">
-        <v>74.87629</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>46052.6875</v>
       </c>
       <c r="B83" t="n">
-        <v>60.03486</v>
+        <v>68.44540000000001</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>46052.70833333334</v>
       </c>
       <c r="B84" t="n">
-        <v>60.49817</v>
+        <v>73.88037</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
         <v>46052.72916666666</v>
       </c>
       <c r="B85" t="n">
-        <v>95.56211</v>
+        <v>101.25</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>46052.75</v>
       </c>
       <c r="B86" t="n">
-        <v>108.61461</v>
+        <v>108.89</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>46052.77083333334</v>
       </c>
       <c r="B87" t="n">
-        <v>126.32733</v>
+        <v>125.64596</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>46052.79166666666</v>
       </c>
       <c r="B88" t="n">
-        <v>261.18</v>
+        <v>283.96</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>46052.85416666666</v>
       </c>
       <c r="B91" t="n">
-        <v>240.89</v>
+        <v>299.99</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
         <v>46052.875</v>
       </c>
       <c r="B92" t="n">
-        <v>175.46595</v>
+        <v>240.89</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>46052.89583333334</v>
       </c>
       <c r="B93" t="n">
-        <v>147.51</v>
+        <v>147.89</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>46052.91666666666</v>
       </c>
       <c r="B94" t="n">
-        <v>120.43498</v>
+        <v>138.21589</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>46052.9375</v>
       </c>
       <c r="B95" t="n">
-        <v>134.46069</v>
+        <v>147.51</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>46052.95833333334</v>
       </c>
       <c r="B96" t="n">
-        <v>138.42</v>
+        <v>158.64449</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>46052.97916666666</v>
       </c>
       <c r="B97" t="n">
-        <v>108.89</v>
+        <v>133.70206</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,42 +475,62 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46052</v>
+        <v>46053.27083333334</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>46052.66666666666</v>
+        <v>46053.79166666666</v>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>12.5</v>
       </c>
       <c r="D2" t="n">
-        <v>60.48</v>
+        <v>47.25</v>
       </c>
       <c r="E2" t="n">
-        <v>1910.954126250001</v>
+        <v>877.1731019999999</v>
       </c>
       <c r="F2" t="n">
-        <v>31.59646372767858</v>
+        <v>18.56451009523809</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46053.27083333334</v>
+        <v>46053.85416666666</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>46053.77083333334</v>
+        <v>46054.02083333334</v>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>45.36</v>
+        <v>15.12</v>
       </c>
       <c r="E3" t="n">
-        <v>845.3962432500002</v>
+        <v>776.644167</v>
       </c>
       <c r="F3" t="n">
-        <v>18.63748331679895</v>
+        <v>51.36535496031747</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>46054.1875</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>46054.66666666666</v>
+      </c>
+      <c r="C4" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>43.47</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1047.746544</v>
+      </c>
+      <c r="F4" t="n">
+        <v>24.10275003450656</v>
       </c>
     </row>
   </sheetData>
@@ -561,10 +581,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46052</v>
+        <v>46053</v>
       </c>
       <c r="B2" t="n">
-        <v>84.79000000000001</v>
+        <v>105.64101</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -572,20 +592,20 @@
         </is>
       </c>
       <c r="D2" s="3" t="n">
-        <v>46052</v>
+        <v>46053</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46052.02083333334</v>
+        <v>46053.02083333334</v>
       </c>
       <c r="B3" t="n">
-        <v>78</v>
+        <v>105.79</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -593,20 +613,20 @@
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>46052</v>
+        <v>46053</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46052.04166666666</v>
+        <v>46053.04166666666</v>
       </c>
       <c r="B4" t="n">
-        <v>78</v>
+        <v>108.89</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -614,20 +634,20 @@
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>46052</v>
+        <v>46053</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46052.0625</v>
+        <v>46053.0625</v>
       </c>
       <c r="B5" t="n">
-        <v>75.80537</v>
+        <v>105.01791</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -635,20 +655,20 @@
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>46052</v>
+        <v>46053</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>46052.08333333334</v>
+        <v>46053.08333333334</v>
       </c>
       <c r="B6" t="n">
-        <v>73.20010000000001</v>
+        <v>105.92264</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -656,20 +676,20 @@
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>46052</v>
+        <v>46053</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>46052.10416666666</v>
+        <v>46053.10416666666</v>
       </c>
       <c r="B7" t="n">
-        <v>68.4837</v>
+        <v>107.65434</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -677,20 +697,20 @@
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>46052</v>
+        <v>46053</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>46052.125</v>
+        <v>46053.125</v>
       </c>
       <c r="B8" t="n">
-        <v>69.20050999999999</v>
+        <v>108.89</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -698,20 +718,20 @@
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>46052</v>
+        <v>46053</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>46052.14583333334</v>
+        <v>46053.14583333334</v>
       </c>
       <c r="B9" t="n">
-        <v>73.20007</v>
+        <v>108.89</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -719,20 +739,20 @@
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>46052</v>
+        <v>46053</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>46052.16666666666</v>
+        <v>46053.16666666666</v>
       </c>
       <c r="B10" t="n">
-        <v>73.20010000000001</v>
+        <v>108.89</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -740,20 +760,20 @@
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>46052</v>
+        <v>46053</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>46052.1875</v>
+        <v>46053.1875</v>
       </c>
       <c r="B11" t="n">
-        <v>78</v>
+        <v>108.89</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -761,20 +781,20 @@
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>46052</v>
+        <v>46053</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>46052.20833333334</v>
+        <v>46053.20833333334</v>
       </c>
       <c r="B12" t="n">
-        <v>86.55987</v>
+        <v>108.89</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -782,20 +802,20 @@
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>46052</v>
+        <v>46053</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>46052.22916666666</v>
+        <v>46053.22916666666</v>
       </c>
       <c r="B13" t="n">
-        <v>108.86688</v>
+        <v>112.25144</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -803,20 +823,20 @@
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>46052</v>
+        <v>46053</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>46052.25</v>
+        <v>46053.25</v>
       </c>
       <c r="B14" t="n">
-        <v>109.98508</v>
+        <v>108.89</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -824,20 +844,20 @@
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>46052</v>
+        <v>46053</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>46052.27083333334</v>
+        <v>46053.27083333334</v>
       </c>
       <c r="B15" t="n">
-        <v>105.79</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -845,7 +865,7 @@
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>46052</v>
+        <v>46053</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -855,10 +875,10 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>46052.29166666666</v>
+        <v>46053.29166666666</v>
       </c>
       <c r="B16" t="n">
-        <v>68.14360000000001</v>
+        <v>57.98375</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -866,7 +886,7 @@
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>46052</v>
+        <v>46053</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -876,10 +896,10 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>46052.3125</v>
+        <v>46053.3125</v>
       </c>
       <c r="B17" t="n">
-        <v>56.81604</v>
+        <v>39.92831</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -887,7 +907,7 @@
         </is>
       </c>
       <c r="D17" s="3" t="n">
-        <v>46052</v>
+        <v>46053</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -897,10 +917,10 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>46052.33333333334</v>
+        <v>46053.33333333334</v>
       </c>
       <c r="B18" t="n">
-        <v>54.1061</v>
+        <v>36.0601</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -908,7 +928,7 @@
         </is>
       </c>
       <c r="D18" s="3" t="n">
-        <v>46052</v>
+        <v>46053</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -918,10 +938,10 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>46052.35416666666</v>
+        <v>46053.35416666666</v>
       </c>
       <c r="B19" t="n">
-        <v>36.12037</v>
+        <v>35.79269</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -929,7 +949,7 @@
         </is>
       </c>
       <c r="D19" s="3" t="n">
-        <v>46052</v>
+        <v>46053</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -939,10 +959,10 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>46052.375</v>
+        <v>46053.375</v>
       </c>
       <c r="B20" t="n">
-        <v>22.07</v>
+        <v>0.51</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -950,7 +970,7 @@
         </is>
       </c>
       <c r="D20" s="3" t="n">
-        <v>46052</v>
+        <v>46053</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -960,10 +980,10 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>46052.39583333334</v>
+        <v>46053.39583333334</v>
       </c>
       <c r="B21" t="n">
-        <v>22.80374</v>
+        <v>0.51</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -971,7 +991,7 @@
         </is>
       </c>
       <c r="D21" s="3" t="n">
-        <v>46052</v>
+        <v>46053</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -981,10 +1001,10 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>46052.41666666666</v>
+        <v>46053.41666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>40.61595</v>
+        <v>0.51</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -992,7 +1012,7 @@
         </is>
       </c>
       <c r="D22" s="3" t="n">
-        <v>46052</v>
+        <v>46053</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1002,10 +1022,10 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>46052.4375</v>
+        <v>46053.4375</v>
       </c>
       <c r="B23" t="n">
-        <v>36.0601</v>
+        <v>22.07</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1013,7 +1033,7 @@
         </is>
       </c>
       <c r="D23" s="3" t="n">
-        <v>46052</v>
+        <v>46053</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1023,10 +1043,10 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>46052.45833333334</v>
+        <v>46053.45833333334</v>
       </c>
       <c r="B24" t="n">
-        <v>36.06045</v>
+        <v>19.78818</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1034,7 +1054,7 @@
         </is>
       </c>
       <c r="D24" s="3" t="n">
-        <v>46052</v>
+        <v>46053</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1044,10 +1064,10 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>46052.47916666666</v>
+        <v>46053.47916666666</v>
       </c>
       <c r="B25" t="n">
-        <v>35.17815</v>
+        <v>10.32927</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1055,7 +1075,7 @@
         </is>
       </c>
       <c r="D25" s="3" t="n">
-        <v>46052</v>
+        <v>46053</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1065,10 +1085,10 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>46052.5</v>
+        <v>46053.5</v>
       </c>
       <c r="B26" t="n">
-        <v>29.5382</v>
+        <v>10.14859</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1076,7 +1096,7 @@
         </is>
       </c>
       <c r="D26" s="3" t="n">
-        <v>46052</v>
+        <v>46053</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1086,10 +1106,10 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>46052.52083333334</v>
+        <v>46053.52083333334</v>
       </c>
       <c r="B27" t="n">
-        <v>27.34776</v>
+        <v>20.99554</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1097,7 +1117,7 @@
         </is>
       </c>
       <c r="D27" s="3" t="n">
-        <v>46052</v>
+        <v>46053</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1107,10 +1127,10 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>46052.54166666666</v>
+        <v>46053.54166666666</v>
       </c>
       <c r="B28" t="n">
-        <v>36.0601</v>
+        <v>9.71796</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1118,7 +1138,7 @@
         </is>
       </c>
       <c r="D28" s="3" t="n">
-        <v>46052</v>
+        <v>46053</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1128,10 +1148,10 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>46052.5625</v>
+        <v>46053.5625</v>
       </c>
       <c r="B29" t="n">
-        <v>36.0601</v>
+        <v>9.67252</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1139,7 +1159,7 @@
         </is>
       </c>
       <c r="D29" s="3" t="n">
-        <v>46052</v>
+        <v>46053</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1149,10 +1169,10 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>46052.58333333334</v>
+        <v>46053.58333333334</v>
       </c>
       <c r="B30" t="n">
-        <v>56.57134</v>
+        <v>10.87604</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1160,7 +1180,7 @@
         </is>
       </c>
       <c r="D30" s="3" t="n">
-        <v>46052</v>
+        <v>46053</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1170,10 +1190,10 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>46052.60416666666</v>
+        <v>46053.60416666666</v>
       </c>
       <c r="B31" t="n">
-        <v>57.06007</v>
+        <v>36.0601</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1181,7 +1201,7 @@
         </is>
       </c>
       <c r="D31" s="3" t="n">
-        <v>46052</v>
+        <v>46053</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1191,10 +1211,10 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>46052.625</v>
+        <v>46053.625</v>
       </c>
       <c r="B32" t="n">
-        <v>73.05913</v>
+        <v>56.98</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1202,7 +1222,7 @@
         </is>
       </c>
       <c r="D32" s="3" t="n">
-        <v>46052</v>
+        <v>46053</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1212,10 +1232,10 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>46052.64583333334</v>
+        <v>46053.64583333334</v>
       </c>
       <c r="B33" t="n">
-        <v>73.20007</v>
+        <v>57.21982</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1223,7 +1243,7 @@
         </is>
       </c>
       <c r="D33" s="3" t="n">
-        <v>46052</v>
+        <v>46053</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1233,10 +1253,10 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>46052.66666666666</v>
+        <v>46053.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>84.79000000000001</v>
+        <v>50.27294</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1244,20 +1264,20 @@
         </is>
       </c>
       <c r="D34" s="3" t="n">
-        <v>46052</v>
+        <v>46053</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>46052.6875</v>
+        <v>46053.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>68.02379000000001</v>
+        <v>55.44876</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1265,20 +1285,20 @@
         </is>
       </c>
       <c r="D35" s="3" t="n">
-        <v>46052</v>
+        <v>46053</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>46052.70833333334</v>
+        <v>46053.70833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>73.88464999999999</v>
+        <v>57.35</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1286,20 +1306,20 @@
         </is>
       </c>
       <c r="D36" s="3" t="n">
-        <v>46052</v>
+        <v>46053</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>46052.72916666666</v>
+        <v>46053.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>101.25</v>
+        <v>57.35</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1307,20 +1327,20 @@
         </is>
       </c>
       <c r="D37" s="3" t="n">
-        <v>46052</v>
+        <v>46053</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>46052.75</v>
+        <v>46053.75</v>
       </c>
       <c r="B38" t="n">
-        <v>108.89</v>
+        <v>70.41015</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1328,49 +1348,49 @@
         </is>
       </c>
       <c r="D38" s="3" t="n">
-        <v>46052</v>
+        <v>46053</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>46052.77083333334</v>
+        <v>46053.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>123.17919</v>
+        <v>88.89</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D39" s="3" t="n">
-        <v>46052</v>
+        <v>46053</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>46052.79166666666</v>
+        <v>46053.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>283.96</v>
+        <v>115.88703</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D40" s="3" t="n">
-        <v>46052</v>
+        <v>46053</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1380,18 +1400,18 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>46052.8125</v>
+        <v>46053.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>299.99</v>
+        <v>116.59666</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D41" s="3" t="n">
-        <v>46052</v>
+        <v>46053</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1401,18 +1421,18 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>46052.83333333334</v>
+        <v>46053.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>299.99</v>
+        <v>116.93555</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D42" s="3" t="n">
-        <v>46052</v>
+        <v>46053</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1422,136 +1442,136 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>46052.85416666666</v>
+        <v>46053.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>299.98</v>
+        <v>105</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D43" s="3" t="n">
-        <v>46052</v>
+        <v>46053</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>46052.875</v>
+        <v>46053.875</v>
       </c>
       <c r="B44" t="n">
-        <v>240.89</v>
+        <v>105.79</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D44" s="3" t="n">
-        <v>46052</v>
+        <v>46053</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>46052.89583333334</v>
+        <v>46053.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>147.89</v>
+        <v>102.82346</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D45" s="3" t="n">
-        <v>46052</v>
+        <v>46053</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>46052.91666666666</v>
+        <v>46053.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>138.2218</v>
+        <v>105</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D46" s="3" t="n">
-        <v>46052</v>
+        <v>46053</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>46052.9375</v>
+        <v>46053.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>109.51175</v>
+        <v>102.34491</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D47" s="3" t="n">
-        <v>46052</v>
+        <v>46053</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>46052.95833333334</v>
+        <v>46053.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>112.49854</v>
+        <v>103.04682</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D48" s="3" t="n">
-        <v>46052</v>
+        <v>46053</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>46052.97916666666</v>
+        <v>46053.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>105.79</v>
+        <v>87.76293</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1559,20 +1579,20 @@
         </is>
       </c>
       <c r="D49" s="3" t="n">
-        <v>46052</v>
+        <v>46053</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="B50" t="n">
-        <v>105.79</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1580,20 +1600,20 @@
         </is>
       </c>
       <c r="D50" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>46053.02083333334</v>
+        <v>46054.02083333334</v>
       </c>
       <c r="B51" t="n">
-        <v>105.79</v>
+        <v>100.3</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1601,7 +1621,7 @@
         </is>
       </c>
       <c r="D51" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1611,10 +1631,10 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>46053.04166666666</v>
+        <v>46054.04166666666</v>
       </c>
       <c r="B52" t="n">
-        <v>108.89</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1622,7 +1642,7 @@
         </is>
       </c>
       <c r="D52" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1632,10 +1652,10 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>46053.0625</v>
+        <v>46054.0625</v>
       </c>
       <c r="B53" t="n">
-        <v>105.12588</v>
+        <v>78</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1643,7 +1663,7 @@
         </is>
       </c>
       <c r="D53" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1653,10 +1673,10 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>46053.08333333334</v>
+        <v>46054.08333333334</v>
       </c>
       <c r="B54" t="n">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1664,7 +1684,7 @@
         </is>
       </c>
       <c r="D54" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1674,10 +1694,10 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>46053.10416666666</v>
+        <v>46054.10416666666</v>
       </c>
       <c r="B55" t="n">
-        <v>105.78998</v>
+        <v>78</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1685,7 +1705,7 @@
         </is>
       </c>
       <c r="D55" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1695,10 +1715,10 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>46053.125</v>
+        <v>46054.125</v>
       </c>
       <c r="B56" t="n">
-        <v>108.89</v>
+        <v>78</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1706,7 +1726,7 @@
         </is>
       </c>
       <c r="D56" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1716,10 +1736,10 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>46053.14583333334</v>
+        <v>46054.14583333334</v>
       </c>
       <c r="B57" t="n">
-        <v>108.89</v>
+        <v>78</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1727,7 +1747,7 @@
         </is>
       </c>
       <c r="D57" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -1737,10 +1757,10 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>46053.16666666666</v>
+        <v>46054.16666666666</v>
       </c>
       <c r="B58" t="n">
-        <v>108.89</v>
+        <v>78</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1748,7 +1768,7 @@
         </is>
       </c>
       <c r="D58" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1758,10 +1778,10 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>46053.1875</v>
+        <v>46054.1875</v>
       </c>
       <c r="B59" t="n">
-        <v>108.89</v>
+        <v>64.43549</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1769,20 +1789,20 @@
         </is>
       </c>
       <c r="D59" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>46053.20833333334</v>
+        <v>46054.20833333334</v>
       </c>
       <c r="B60" t="n">
-        <v>108.89</v>
+        <v>61.38667</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1790,20 +1810,20 @@
         </is>
       </c>
       <c r="D60" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>46053.22916666666</v>
+        <v>46054.22916666666</v>
       </c>
       <c r="B61" t="n">
-        <v>108.89</v>
+        <v>69.00776</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1811,20 +1831,20 @@
         </is>
       </c>
       <c r="D61" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>46053.25</v>
+        <v>46054.25</v>
       </c>
       <c r="B62" t="n">
-        <v>108.89</v>
+        <v>61.87331</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1832,20 +1852,20 @@
         </is>
       </c>
       <c r="D62" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>46053.27083333334</v>
+        <v>46054.27083333334</v>
       </c>
       <c r="B63" t="n">
-        <v>84.79000000000001</v>
+        <v>57.31</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1853,7 +1873,7 @@
         </is>
       </c>
       <c r="D63" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -1863,10 +1883,10 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>46053.29166666666</v>
+        <v>46054.29166666666</v>
       </c>
       <c r="B64" t="n">
-        <v>58.18999</v>
+        <v>57.06</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1874,7 +1894,7 @@
         </is>
       </c>
       <c r="D64" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -1884,10 +1904,10 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>46053.3125</v>
+        <v>46054.3125</v>
       </c>
       <c r="B65" t="n">
-        <v>39.93361</v>
+        <v>36.06</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1895,7 +1915,7 @@
         </is>
       </c>
       <c r="D65" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -1905,10 +1925,10 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>46053.33333333334</v>
+        <v>46054.33333333334</v>
       </c>
       <c r="B66" t="n">
-        <v>36.0601</v>
+        <v>36.06</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1916,7 +1936,7 @@
         </is>
       </c>
       <c r="D66" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -1926,10 +1946,10 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>46053.35416666666</v>
+        <v>46054.35416666666</v>
       </c>
       <c r="B67" t="n">
-        <v>35.53145</v>
+        <v>36.06</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1937,7 +1957,7 @@
         </is>
       </c>
       <c r="D67" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -1947,10 +1967,10 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>46053.375</v>
+        <v>46054.375</v>
       </c>
       <c r="B68" t="n">
-        <v>0.51</v>
+        <v>36.06</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1958,7 +1978,7 @@
         </is>
       </c>
       <c r="D68" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -1968,10 +1988,10 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>46053.39583333334</v>
+        <v>46054.39583333334</v>
       </c>
       <c r="B69" t="n">
-        <v>0.51</v>
+        <v>36.06</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1979,7 +1999,7 @@
         </is>
       </c>
       <c r="D69" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -1989,10 +2009,10 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>46053.41666666666</v>
+        <v>46054.41666666666</v>
       </c>
       <c r="B70" t="n">
-        <v>0.51</v>
+        <v>36.06</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2000,7 +2020,7 @@
         </is>
       </c>
       <c r="D70" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2010,10 +2030,10 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>46053.4375</v>
+        <v>46054.4375</v>
       </c>
       <c r="B71" t="n">
-        <v>22.07</v>
+        <v>36.06</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2021,7 +2041,7 @@
         </is>
       </c>
       <c r="D71" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2031,10 +2051,10 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>46053.45833333334</v>
+        <v>46054.45833333334</v>
       </c>
       <c r="B72" t="n">
-        <v>13.11547</v>
+        <v>36.06</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2042,7 +2062,7 @@
         </is>
       </c>
       <c r="D72" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2052,10 +2072,10 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>46053.47916666666</v>
+        <v>46054.47916666666</v>
       </c>
       <c r="B73" t="n">
-        <v>10.40562</v>
+        <v>36.06</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2063,7 +2083,7 @@
         </is>
       </c>
       <c r="D73" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2073,10 +2093,10 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>46053.5</v>
+        <v>46054.5</v>
       </c>
       <c r="B74" t="n">
-        <v>21.42291</v>
+        <v>36.06</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2084,7 +2104,7 @@
         </is>
       </c>
       <c r="D74" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2094,10 +2114,10 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>46053.52083333334</v>
+        <v>46054.52083333334</v>
       </c>
       <c r="B75" t="n">
-        <v>22.07</v>
+        <v>36.06</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2105,7 +2125,7 @@
         </is>
       </c>
       <c r="D75" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2115,10 +2135,10 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>46053.54166666666</v>
+        <v>46054.54166666666</v>
       </c>
       <c r="B76" t="n">
-        <v>9.63969</v>
+        <v>36.06</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2126,7 +2146,7 @@
         </is>
       </c>
       <c r="D76" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2136,10 +2156,10 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>46053.5625</v>
+        <v>46054.5625</v>
       </c>
       <c r="B77" t="n">
-        <v>9.48333</v>
+        <v>36.06</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2147,7 +2167,7 @@
         </is>
       </c>
       <c r="D77" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2157,10 +2177,10 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>46053.58333333334</v>
+        <v>46054.58333333334</v>
       </c>
       <c r="B78" t="n">
-        <v>10.34407</v>
+        <v>41.97542</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2168,7 +2188,7 @@
         </is>
       </c>
       <c r="D78" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2178,10 +2198,10 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>46053.60416666666</v>
+        <v>46054.60416666666</v>
       </c>
       <c r="B79" t="n">
-        <v>36.0601</v>
+        <v>61.38075</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2189,7 +2209,7 @@
         </is>
       </c>
       <c r="D79" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2199,10 +2219,10 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>46053.625</v>
+        <v>46054.625</v>
       </c>
       <c r="B80" t="n">
-        <v>56.98</v>
+        <v>61.23431</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2210,7 +2230,7 @@
         </is>
       </c>
       <c r="D80" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2220,10 +2240,10 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>46053.64583333334</v>
+        <v>46054.64583333334</v>
       </c>
       <c r="B81" t="n">
-        <v>57.57846</v>
+        <v>70.16813</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2231,7 +2251,7 @@
         </is>
       </c>
       <c r="D81" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2241,10 +2261,10 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>46053.66666666666</v>
+        <v>46054.66666666666</v>
       </c>
       <c r="B82" t="n">
-        <v>50.27428</v>
+        <v>78</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2252,20 +2272,20 @@
         </is>
       </c>
       <c r="D82" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>46053.6875</v>
+        <v>46054.6875</v>
       </c>
       <c r="B83" t="n">
-        <v>55.78964</v>
+        <v>71.53643</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2273,20 +2293,20 @@
         </is>
       </c>
       <c r="D83" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>46053.70833333334</v>
+        <v>46054.70833333334</v>
       </c>
       <c r="B84" t="n">
-        <v>57.35</v>
+        <v>75.20431000000001</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2294,20 +2314,20 @@
         </is>
       </c>
       <c r="D84" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>46053.72916666666</v>
+        <v>46054.72916666666</v>
       </c>
       <c r="B85" t="n">
-        <v>73.45435000000001</v>
+        <v>73.06093</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2315,20 +2335,20 @@
         </is>
       </c>
       <c r="D85" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>46053.75</v>
+        <v>46054.75</v>
       </c>
       <c r="B86" t="n">
-        <v>105</v>
+        <v>81.63234</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2336,20 +2356,20 @@
         </is>
       </c>
       <c r="D86" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>46053.77083333334</v>
+        <v>46054.77083333334</v>
       </c>
       <c r="B87" t="n">
-        <v>105</v>
+        <v>57.31</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2357,7 +2377,7 @@
         </is>
       </c>
       <c r="D87" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2367,10 +2387,10 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>46053.79166666666</v>
+        <v>46054.79166666666</v>
       </c>
       <c r="B88" t="n">
-        <v>147.52</v>
+        <v>57.35</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2378,7 +2398,7 @@
         </is>
       </c>
       <c r="D88" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2388,10 +2408,10 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>46053.8125</v>
+        <v>46054.8125</v>
       </c>
       <c r="B89" t="n">
-        <v>147.52</v>
+        <v>100.3</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2399,7 +2419,7 @@
         </is>
       </c>
       <c r="D89" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2409,10 +2429,10 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>46053.83333333334</v>
+        <v>46054.83333333334</v>
       </c>
       <c r="B90" t="n">
-        <v>132.6472</v>
+        <v>100.3</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2420,7 +2440,7 @@
         </is>
       </c>
       <c r="D90" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2430,10 +2450,10 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>46053.85416666666</v>
+        <v>46054.85416666666</v>
       </c>
       <c r="B91" t="n">
-        <v>107.54808</v>
+        <v>90.2595</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2441,7 +2461,7 @@
         </is>
       </c>
       <c r="D91" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -2451,10 +2471,10 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>46053.875</v>
+        <v>46054.875</v>
       </c>
       <c r="B92" t="n">
-        <v>101.25</v>
+        <v>77.03008</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2462,7 +2482,7 @@
         </is>
       </c>
       <c r="D92" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -2472,10 +2492,10 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>46053.89583333334</v>
+        <v>46054.89583333334</v>
       </c>
       <c r="B93" t="n">
-        <v>105.79</v>
+        <v>69.40161999999999</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2483,7 +2503,7 @@
         </is>
       </c>
       <c r="D93" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2493,10 +2513,10 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>46053.91666666666</v>
+        <v>46054.91666666666</v>
       </c>
       <c r="B94" t="n">
-        <v>100.3</v>
+        <v>60.53508</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2504,7 +2524,7 @@
         </is>
       </c>
       <c r="D94" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -2514,10 +2534,10 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>46053.9375</v>
+        <v>46054.9375</v>
       </c>
       <c r="B95" t="n">
-        <v>105</v>
+        <v>57.31</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2525,7 +2545,7 @@
         </is>
       </c>
       <c r="D95" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2535,10 +2555,10 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>46053.95833333334</v>
+        <v>46054.95833333334</v>
       </c>
       <c r="B96" t="n">
-        <v>105.79</v>
+        <v>59.78036</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2546,7 +2566,7 @@
         </is>
       </c>
       <c r="D96" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -2556,10 +2576,10 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>46053.97916666666</v>
+        <v>46054.97916666666</v>
       </c>
       <c r="B97" t="n">
-        <v>97.42995000000001</v>
+        <v>57.53601</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -2567,7 +2587,7 @@
         </is>
       </c>
       <c r="D97" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -475,62 +475,62 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46053.27083333334</v>
+        <v>46053.25</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>46053.79166666666</v>
       </c>
       <c r="C2" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>47.25</v>
+        <v>49.14</v>
       </c>
       <c r="E2" t="n">
-        <v>877.1731019999999</v>
+        <v>1047.58868175</v>
       </c>
       <c r="F2" t="n">
-        <v>18.56451009523809</v>
+        <v>21.31845099206349</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46053.85416666666</v>
+        <v>46053.875</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>46054.02083333334</v>
+        <v>46054.08333333334</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>15.12</v>
+        <v>18.9</v>
       </c>
       <c r="E3" t="n">
-        <v>776.644167</v>
+        <v>781.9951815000001</v>
       </c>
       <c r="F3" t="n">
-        <v>51.36535496031747</v>
+        <v>41.37540642857144</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46054.1875</v>
+        <v>46054.25</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>46054.66666666666</v>
       </c>
       <c r="C4" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>43.47</v>
+        <v>37.8</v>
       </c>
       <c r="E4" t="n">
-        <v>1047.746544</v>
+        <v>862.4053132500001</v>
       </c>
       <c r="F4" t="n">
-        <v>24.10275003450656</v>
+        <v>22.81495537698413</v>
       </c>
     </row>
   </sheetData>
@@ -848,7 +848,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1319,7 +1319,7 @@
         <v>46053.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>57.35</v>
+        <v>73.55727</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         <v>46053.75</v>
       </c>
       <c r="B38" t="n">
-        <v>70.41015</v>
+        <v>103.98809</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1361,11 +1361,11 @@
         <v>46053.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>88.89</v>
+        <v>105</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D39" s="3" t="n">
@@ -1382,11 +1382,11 @@
         <v>46053.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>115.88703</v>
+        <v>147.52</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D40" s="3" t="n">
@@ -1403,11 +1403,11 @@
         <v>46053.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>116.59666</v>
+        <v>146.76862</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D41" s="3" t="n">
@@ -1424,11 +1424,11 @@
         <v>46053.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>116.93555</v>
+        <v>147.52</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D42" s="3" t="n">
@@ -1445,11 +1445,11 @@
         <v>46053.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>105</v>
+        <v>115.25453</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D43" s="3" t="n">
@@ -1457,7 +1457,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1466,11 +1466,11 @@
         <v>46053.875</v>
       </c>
       <c r="B44" t="n">
-        <v>105.79</v>
+        <v>101.25</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D44" s="3" t="n">
@@ -1487,11 +1487,11 @@
         <v>46053.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>102.82346</v>
+        <v>105</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D45" s="3" t="n">
@@ -1508,11 +1508,11 @@
         <v>46053.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>105</v>
+        <v>98.23987</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D46" s="3" t="n">
@@ -1529,11 +1529,11 @@
         <v>46053.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>102.34491</v>
+        <v>78</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D47" s="3" t="n">
@@ -1550,11 +1550,11 @@
         <v>46053.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>103.04682</v>
+        <v>70.38733999999999</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D48" s="3" t="n">
@@ -1571,7 +1571,7 @@
         <v>46053.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>87.76293</v>
+        <v>63.44156</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>46054</v>
       </c>
       <c r="B50" t="n">
-        <v>84.79000000000001</v>
+        <v>57.31</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
         <v>46054.02083333334</v>
       </c>
       <c r="B51" t="n">
-        <v>100.3</v>
+        <v>78</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1634,7 +1634,7 @@
         <v>46054.04166666666</v>
       </c>
       <c r="B52" t="n">
-        <v>84.79000000000001</v>
+        <v>76.12041000000001</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1655,7 +1655,7 @@
         <v>46054.0625</v>
       </c>
       <c r="B53" t="n">
-        <v>78</v>
+        <v>74.29716000000001</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1676,7 +1676,7 @@
         <v>46054.08333333334</v>
       </c>
       <c r="B54" t="n">
-        <v>78</v>
+        <v>73.20010000000001</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>46054.10416666666</v>
       </c>
       <c r="B55" t="n">
-        <v>78</v>
+        <v>73.20010000000001</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>46054.125</v>
       </c>
       <c r="B56" t="n">
-        <v>78</v>
+        <v>72.51924</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>46054.14583333334</v>
       </c>
       <c r="B57" t="n">
-        <v>78</v>
+        <v>63.1318</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>46054.16666666666</v>
       </c>
       <c r="B58" t="n">
-        <v>78</v>
+        <v>61.57904</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>46054.1875</v>
       </c>
       <c r="B59" t="n">
-        <v>64.43549</v>
+        <v>78.73907</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1802,7 +1802,7 @@
         <v>46054.20833333334</v>
       </c>
       <c r="B60" t="n">
-        <v>61.38667</v>
+        <v>75.28270000000001</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
         <v>46054.22916666666</v>
       </c>
       <c r="B61" t="n">
-        <v>69.00776</v>
+        <v>76.99852</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1844,7 +1844,7 @@
         <v>46054.25</v>
       </c>
       <c r="B62" t="n">
-        <v>61.87331</v>
+        <v>73.20001999999999</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1865,7 +1865,7 @@
         <v>46054.27083333334</v>
       </c>
       <c r="B63" t="n">
-        <v>57.31</v>
+        <v>64.97036</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>46054.35416666666</v>
       </c>
       <c r="B67" t="n">
-        <v>36.06</v>
+        <v>35.88</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>46054.375</v>
       </c>
       <c r="B68" t="n">
-        <v>36.06</v>
+        <v>35.88</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>46054.47916666666</v>
       </c>
       <c r="B73" t="n">
-        <v>36.06</v>
+        <v>35.88</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>46054.58333333334</v>
       </c>
       <c r="B78" t="n">
-        <v>41.97542</v>
+        <v>36.06071</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>46054.60416666666</v>
       </c>
       <c r="B79" t="n">
-        <v>61.38075</v>
+        <v>57.06003</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>46054.625</v>
       </c>
       <c r="B80" t="n">
-        <v>61.23431</v>
+        <v>59.21238</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>46054.64583333334</v>
       </c>
       <c r="B81" t="n">
-        <v>70.16813</v>
+        <v>68.71477</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2264,7 +2264,7 @@
         <v>46054.66666666666</v>
       </c>
       <c r="B82" t="n">
-        <v>78</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>46054.6875</v>
       </c>
       <c r="B83" t="n">
-        <v>71.53643</v>
+        <v>78</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>46054.70833333334</v>
       </c>
       <c r="B84" t="n">
-        <v>75.20431000000001</v>
+        <v>92.14239000000001</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
         <v>46054.72916666666</v>
       </c>
       <c r="B85" t="n">
-        <v>73.06093</v>
+        <v>89.95526</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>46054.75</v>
       </c>
       <c r="B86" t="n">
-        <v>81.63234</v>
+        <v>80.93996</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>46054.77083333334</v>
       </c>
       <c r="B87" t="n">
-        <v>57.31</v>
+        <v>100.3</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>46054.79166666666</v>
       </c>
       <c r="B88" t="n">
-        <v>57.35</v>
+        <v>147.52</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>46054.8125</v>
       </c>
       <c r="B89" t="n">
-        <v>100.3</v>
+        <v>135.04632</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>46054.85416666666</v>
       </c>
       <c r="B91" t="n">
-        <v>90.2595</v>
+        <v>82.70392</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
         <v>46054.875</v>
       </c>
       <c r="B92" t="n">
-        <v>77.03008</v>
+        <v>90.98444000000001</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>46054.89583333334</v>
       </c>
       <c r="B93" t="n">
-        <v>69.40161999999999</v>
+        <v>77.03009</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>46054.91666666666</v>
       </c>
       <c r="B94" t="n">
-        <v>60.53508</v>
+        <v>57.31</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>46054.9375</v>
       </c>
       <c r="B95" t="n">
-        <v>57.31</v>
+        <v>63.73481</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>46054.95833333334</v>
       </c>
       <c r="B96" t="n">
-        <v>59.78036</v>
+        <v>57.31</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>46054.97916666666</v>
       </c>
       <c r="B97" t="n">
-        <v>57.53601</v>
+        <v>64.81568</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -475,62 +475,62 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46053.25</v>
+        <v>46054.14583333334</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>46053.79166666666</v>
+        <v>46054.64583333334</v>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>49.14</v>
+        <v>45.36</v>
       </c>
       <c r="E2" t="n">
-        <v>1047.58868175</v>
+        <v>1136.58783225</v>
       </c>
       <c r="F2" t="n">
-        <v>21.31845099206349</v>
+        <v>25.0570509755291</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46053.875</v>
+        <v>46054.72916666666</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>46054.08333333334</v>
+        <v>46054.89583333334</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>18.9</v>
+        <v>15.12</v>
       </c>
       <c r="E3" t="n">
-        <v>781.9951815000001</v>
+        <v>435.56721</v>
       </c>
       <c r="F3" t="n">
-        <v>41.37540642857144</v>
+        <v>28.80735515873016</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46054.25</v>
+        <v>46055.16666666666</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>46054.66666666666</v>
+        <v>46055.66666666666</v>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>37.8</v>
+        <v>45.36</v>
       </c>
       <c r="E4" t="n">
-        <v>862.4053132500001</v>
+        <v>579.241338</v>
       </c>
       <c r="F4" t="n">
-        <v>22.81495537698413</v>
+        <v>12.76987076719577</v>
       </c>
     </row>
   </sheetData>
@@ -581,10 +581,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="B2" t="n">
-        <v>105.64101</v>
+        <v>64.04572</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D2" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -602,10 +602,10 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46053.02083333334</v>
+        <v>46054.02083333334</v>
       </c>
       <c r="B3" t="n">
-        <v>105.79</v>
+        <v>78</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -623,10 +623,10 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46053.04166666666</v>
+        <v>46054.04166666666</v>
       </c>
       <c r="B4" t="n">
-        <v>108.89</v>
+        <v>72.76477</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -644,10 +644,10 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46053.0625</v>
+        <v>46054.0625</v>
       </c>
       <c r="B5" t="n">
-        <v>105.01791</v>
+        <v>73.20014</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -655,7 +655,7 @@
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -665,10 +665,10 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>46053.08333333334</v>
+        <v>46054.08333333334</v>
       </c>
       <c r="B6" t="n">
-        <v>105.92264</v>
+        <v>73.20010000000001</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>46053.10416666666</v>
+        <v>46054.10416666666</v>
       </c>
       <c r="B7" t="n">
-        <v>107.65434</v>
+        <v>73.20010000000001</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -707,10 +707,10 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>46053.125</v>
+        <v>46054.125</v>
       </c>
       <c r="B8" t="n">
-        <v>108.89</v>
+        <v>73.20007</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -718,7 +718,7 @@
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -728,10 +728,10 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>46053.14583333334</v>
+        <v>46054.14583333334</v>
       </c>
       <c r="B9" t="n">
-        <v>108.89</v>
+        <v>63.8882</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -739,20 +739,20 @@
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>46053.16666666666</v>
+        <v>46054.16666666666</v>
       </c>
       <c r="B10" t="n">
-        <v>108.89</v>
+        <v>63.4447</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -760,20 +760,20 @@
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>46053.1875</v>
+        <v>46054.1875</v>
       </c>
       <c r="B11" t="n">
-        <v>108.89</v>
+        <v>73.20003</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -781,20 +781,20 @@
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>46053.20833333334</v>
+        <v>46054.20833333334</v>
       </c>
       <c r="B12" t="n">
-        <v>108.89</v>
+        <v>73.20001999999999</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -802,20 +802,20 @@
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>46053.22916666666</v>
+        <v>46054.22916666666</v>
       </c>
       <c r="B13" t="n">
-        <v>112.25144</v>
+        <v>76.85856</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -823,20 +823,20 @@
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>46053.25</v>
+        <v>46054.25</v>
       </c>
       <c r="B14" t="n">
-        <v>108.89</v>
+        <v>73.20001999999999</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -854,10 +854,10 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>46053.27083333334</v>
+        <v>46054.27083333334</v>
       </c>
       <c r="B15" t="n">
-        <v>84.79000000000001</v>
+        <v>64.57255000000001</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -875,10 +875,10 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>46053.29166666666</v>
+        <v>46054.29166666666</v>
       </c>
       <c r="B16" t="n">
-        <v>57.98375</v>
+        <v>57.06</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -886,7 +886,7 @@
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -896,10 +896,10 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>46053.3125</v>
+        <v>46054.3125</v>
       </c>
       <c r="B17" t="n">
-        <v>39.92831</v>
+        <v>36.06</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         </is>
       </c>
       <c r="D17" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -917,10 +917,10 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>46053.33333333334</v>
+        <v>46054.33333333334</v>
       </c>
       <c r="B18" t="n">
-        <v>36.0601</v>
+        <v>36.06</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="D18" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -938,10 +938,10 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>46053.35416666666</v>
+        <v>46054.35416666666</v>
       </c>
       <c r="B19" t="n">
-        <v>35.79269</v>
+        <v>35.88</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         </is>
       </c>
       <c r="D19" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -959,10 +959,10 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>46053.375</v>
+        <v>46054.375</v>
       </c>
       <c r="B20" t="n">
-        <v>0.51</v>
+        <v>35.88</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         </is>
       </c>
       <c r="D20" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -980,10 +980,10 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>46053.39583333334</v>
+        <v>46054.39583333334</v>
       </c>
       <c r="B21" t="n">
-        <v>0.51</v>
+        <v>36.06</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         </is>
       </c>
       <c r="D21" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>46053.41666666666</v>
+        <v>46054.41666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>0.51</v>
+        <v>36.06</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="D22" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1022,10 +1022,10 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>46053.4375</v>
+        <v>46054.4375</v>
       </c>
       <c r="B23" t="n">
-        <v>22.07</v>
+        <v>36.06</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         </is>
       </c>
       <c r="D23" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1043,10 +1043,10 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>46053.45833333334</v>
+        <v>46054.45833333334</v>
       </c>
       <c r="B24" t="n">
-        <v>19.78818</v>
+        <v>36.06</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1054,7 +1054,7 @@
         </is>
       </c>
       <c r="D24" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1064,10 +1064,10 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>46053.47916666666</v>
+        <v>46054.47916666666</v>
       </c>
       <c r="B25" t="n">
-        <v>10.32927</v>
+        <v>35.88</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1075,7 +1075,7 @@
         </is>
       </c>
       <c r="D25" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1085,10 +1085,10 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>46053.5</v>
+        <v>46054.5</v>
       </c>
       <c r="B26" t="n">
-        <v>10.14859</v>
+        <v>35.88</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="D26" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1106,10 +1106,10 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>46053.52083333334</v>
+        <v>46054.52083333334</v>
       </c>
       <c r="B27" t="n">
-        <v>20.99554</v>
+        <v>36.06</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="D27" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1127,10 +1127,10 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>46053.54166666666</v>
+        <v>46054.54166666666</v>
       </c>
       <c r="B28" t="n">
-        <v>9.71796</v>
+        <v>36.06</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
         </is>
       </c>
       <c r="D28" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1148,10 +1148,10 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>46053.5625</v>
+        <v>46054.5625</v>
       </c>
       <c r="B29" t="n">
-        <v>9.67252</v>
+        <v>36.06</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1159,7 +1159,7 @@
         </is>
       </c>
       <c r="D29" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1169,10 +1169,10 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>46053.58333333334</v>
+        <v>46054.58333333334</v>
       </c>
       <c r="B30" t="n">
-        <v>10.87604</v>
+        <v>36.06</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         </is>
       </c>
       <c r="D30" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1190,10 +1190,10 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>46053.60416666666</v>
+        <v>46054.60416666666</v>
       </c>
       <c r="B31" t="n">
-        <v>36.0601</v>
+        <v>56.98</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         </is>
       </c>
       <c r="D31" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1211,10 +1211,10 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>46053.625</v>
+        <v>46054.625</v>
       </c>
       <c r="B32" t="n">
-        <v>56.98</v>
+        <v>59.20703</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="D32" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>46053.64583333334</v>
+        <v>46054.64583333334</v>
       </c>
       <c r="B33" t="n">
-        <v>57.21982</v>
+        <v>68.68810000000001</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1243,20 +1243,20 @@
         </is>
       </c>
       <c r="D33" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>46053.66666666666</v>
+        <v>46054.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>50.27294</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1264,20 +1264,20 @@
         </is>
       </c>
       <c r="D34" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>46053.6875</v>
+        <v>46054.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>55.44876</v>
+        <v>78</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1285,20 +1285,20 @@
         </is>
       </c>
       <c r="D35" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>46053.70833333334</v>
+        <v>46054.70833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>57.35</v>
+        <v>94.20838000000001</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1306,20 +1306,20 @@
         </is>
       </c>
       <c r="D36" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>46053.72916666666</v>
+        <v>46054.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>73.55727</v>
+        <v>46.96682</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
         </is>
       </c>
       <c r="D37" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1337,10 +1337,10 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>46053.75</v>
+        <v>46054.75</v>
       </c>
       <c r="B38" t="n">
-        <v>103.98809</v>
+        <v>47.21938</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         </is>
       </c>
       <c r="D38" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1358,18 +1358,18 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>46053.77083333334</v>
+        <v>46054.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>105</v>
+        <v>41.95003</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D39" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1379,102 +1379,102 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>46053.79166666666</v>
+        <v>46054.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>147.52</v>
+        <v>51.13828</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D40" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>46053.8125</v>
+        <v>46054.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>146.76862</v>
+        <v>59.68278</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D41" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>46053.83333333334</v>
+        <v>46054.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>147.52</v>
+        <v>57.31</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D42" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>46053.85416666666</v>
+        <v>46054.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>115.25453</v>
+        <v>57.31</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D43" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>46053.875</v>
+        <v>46054.875</v>
       </c>
       <c r="B44" t="n">
-        <v>101.25</v>
+        <v>85.15831</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D44" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1484,94 +1484,94 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>46053.89583333334</v>
+        <v>46054.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>105</v>
+        <v>98.80513999999999</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D45" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>46053.91666666666</v>
+        <v>46054.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>98.23987</v>
+        <v>77.0301</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D46" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>46053.9375</v>
+        <v>46054.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>78</v>
+        <v>82.04785</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D47" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>46053.95833333334</v>
+        <v>46054.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>70.38733999999999</v>
+        <v>74.02293</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D48" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>46053.97916666666</v>
+        <v>46054.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>63.44156</v>
+        <v>66.04464</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1579,20 +1579,20 @@
         </is>
       </c>
       <c r="D49" s="3" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>46054</v>
+        <v>46055</v>
       </c>
       <c r="B50" t="n">
-        <v>57.31</v>
+        <v>64.9802</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1600,20 +1600,20 @@
         </is>
       </c>
       <c r="D50" s="3" t="n">
-        <v>46054</v>
+        <v>46055</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>46054.02083333334</v>
+        <v>46055.02083333334</v>
       </c>
       <c r="B51" t="n">
-        <v>78</v>
+        <v>81.43071</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1621,20 +1621,20 @@
         </is>
       </c>
       <c r="D51" s="3" t="n">
-        <v>46054</v>
+        <v>46055</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>46054.04166666666</v>
+        <v>46055.04166666666</v>
       </c>
       <c r="B52" t="n">
-        <v>76.12041000000001</v>
+        <v>79.95</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1642,20 +1642,20 @@
         </is>
       </c>
       <c r="D52" s="3" t="n">
-        <v>46054</v>
+        <v>46055</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>46054.0625</v>
+        <v>46055.0625</v>
       </c>
       <c r="B53" t="n">
-        <v>74.29716000000001</v>
+        <v>79.95</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1663,20 +1663,20 @@
         </is>
       </c>
       <c r="D53" s="3" t="n">
-        <v>46054</v>
+        <v>46055</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>46054.08333333334</v>
+        <v>46055.08333333334</v>
       </c>
       <c r="B54" t="n">
-        <v>73.20010000000001</v>
+        <v>73.20001999999999</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         </is>
       </c>
       <c r="D54" s="3" t="n">
-        <v>46054</v>
+        <v>46055</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1694,10 +1694,10 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>46054.10416666666</v>
+        <v>46055.10416666666</v>
       </c>
       <c r="B55" t="n">
-        <v>73.20010000000001</v>
+        <v>73.20001999999999</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         </is>
       </c>
       <c r="D55" s="3" t="n">
-        <v>46054</v>
+        <v>46055</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>46054.125</v>
+        <v>46055.125</v>
       </c>
       <c r="B56" t="n">
-        <v>72.51924</v>
+        <v>73.20001999999999</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         </is>
       </c>
       <c r="D56" s="3" t="n">
-        <v>46054</v>
+        <v>46055</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1736,10 +1736,10 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>46054.14583333334</v>
+        <v>46055.14583333334</v>
       </c>
       <c r="B57" t="n">
-        <v>63.1318</v>
+        <v>73.20001999999999</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="D57" s="3" t="n">
-        <v>46054</v>
+        <v>46055</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -1757,10 +1757,10 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>46054.16666666666</v>
+        <v>46055.16666666666</v>
       </c>
       <c r="B58" t="n">
-        <v>61.57904</v>
+        <v>79.26611</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1768,20 +1768,20 @@
         </is>
       </c>
       <c r="D58" s="3" t="n">
-        <v>46054</v>
+        <v>46055</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>46054.1875</v>
+        <v>46055.1875</v>
       </c>
       <c r="B59" t="n">
-        <v>78.73907</v>
+        <v>70.11391</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1789,20 +1789,20 @@
         </is>
       </c>
       <c r="D59" s="3" t="n">
-        <v>46054</v>
+        <v>46055</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>46054.20833333334</v>
+        <v>46055.20833333334</v>
       </c>
       <c r="B60" t="n">
-        <v>75.28270000000001</v>
+        <v>70.12486</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1810,20 +1810,20 @@
         </is>
       </c>
       <c r="D60" s="3" t="n">
-        <v>46054</v>
+        <v>46055</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>46054.22916666666</v>
+        <v>46055.22916666666</v>
       </c>
       <c r="B61" t="n">
-        <v>76.99852</v>
+        <v>70.46628</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1831,20 +1831,20 @@
         </is>
       </c>
       <c r="D61" s="3" t="n">
-        <v>46054</v>
+        <v>46055</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>46054.25</v>
+        <v>46055.25</v>
       </c>
       <c r="B62" t="n">
-        <v>73.20001999999999</v>
+        <v>73.19</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="D62" s="3" t="n">
-        <v>46054</v>
+        <v>46055</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1862,10 +1862,10 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>46054.27083333334</v>
+        <v>46055.27083333334</v>
       </c>
       <c r="B63" t="n">
-        <v>64.97036</v>
+        <v>64.58128000000001</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1873,7 +1873,7 @@
         </is>
       </c>
       <c r="D63" s="3" t="n">
-        <v>46054</v>
+        <v>46055</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -1883,10 +1883,10 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>46054.29166666666</v>
+        <v>46055.29166666666</v>
       </c>
       <c r="B64" t="n">
-        <v>57.06</v>
+        <v>57.06023</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         </is>
       </c>
       <c r="D64" s="3" t="n">
-        <v>46054</v>
+        <v>46055</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -1904,10 +1904,10 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>46054.3125</v>
+        <v>46055.3125</v>
       </c>
       <c r="B65" t="n">
-        <v>36.06</v>
+        <v>36.0601</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         </is>
       </c>
       <c r="D65" s="3" t="n">
-        <v>46054</v>
+        <v>46055</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -1925,10 +1925,10 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>46054.33333333334</v>
+        <v>46055.33333333334</v>
       </c>
       <c r="B66" t="n">
-        <v>36.06</v>
+        <v>36.0126</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         </is>
       </c>
       <c r="D66" s="3" t="n">
-        <v>46054</v>
+        <v>46055</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -1946,10 +1946,10 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>46054.35416666666</v>
+        <v>46055.35416666666</v>
       </c>
       <c r="B67" t="n">
-        <v>35.88</v>
+        <v>36.0601</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
         </is>
       </c>
       <c r="D67" s="3" t="n">
-        <v>46054</v>
+        <v>46055</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -1967,10 +1967,10 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>46054.375</v>
+        <v>46055.375</v>
       </c>
       <c r="B68" t="n">
-        <v>35.88</v>
+        <v>22.07</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
         </is>
       </c>
       <c r="D68" s="3" t="n">
-        <v>46054</v>
+        <v>46055</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -1988,10 +1988,10 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>46054.39583333334</v>
+        <v>46055.39583333334</v>
       </c>
       <c r="B69" t="n">
-        <v>36.06</v>
+        <v>0.7</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="D69" s="3" t="n">
-        <v>46054</v>
+        <v>46055</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2009,10 +2009,10 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>46054.41666666666</v>
+        <v>46055.41666666666</v>
       </c>
       <c r="B70" t="n">
-        <v>36.06</v>
+        <v>0.50965</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         </is>
       </c>
       <c r="D70" s="3" t="n">
-        <v>46054</v>
+        <v>46055</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2030,10 +2030,10 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>46054.4375</v>
+        <v>46055.4375</v>
       </c>
       <c r="B71" t="n">
-        <v>36.06</v>
+        <v>0.009560000000000001</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         </is>
       </c>
       <c r="D71" s="3" t="n">
-        <v>46054</v>
+        <v>46055</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2051,10 +2051,10 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>46054.45833333334</v>
+        <v>46055.45833333334</v>
       </c>
       <c r="B72" t="n">
-        <v>36.06</v>
+        <v>0</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="D72" s="3" t="n">
-        <v>46054</v>
+        <v>46055</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2072,10 +2072,10 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>46054.47916666666</v>
+        <v>46055.47916666666</v>
       </c>
       <c r="B73" t="n">
-        <v>35.88</v>
+        <v>0.00881</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         </is>
       </c>
       <c r="D73" s="3" t="n">
-        <v>46054</v>
+        <v>46055</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2093,10 +2093,10 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>46054.5</v>
+        <v>46055.5</v>
       </c>
       <c r="B74" t="n">
-        <v>36.06</v>
+        <v>0.00842</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2104,7 +2104,7 @@
         </is>
       </c>
       <c r="D74" s="3" t="n">
-        <v>46054</v>
+        <v>46055</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2114,10 +2114,10 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>46054.52083333334</v>
+        <v>46055.52083333334</v>
       </c>
       <c r="B75" t="n">
-        <v>36.06</v>
+        <v>0.51</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2125,7 +2125,7 @@
         </is>
       </c>
       <c r="D75" s="3" t="n">
-        <v>46054</v>
+        <v>46055</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2135,10 +2135,10 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>46054.54166666666</v>
+        <v>46055.54166666666</v>
       </c>
       <c r="B76" t="n">
-        <v>36.06</v>
+        <v>0.51</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="D76" s="3" t="n">
-        <v>46054</v>
+        <v>46055</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2156,10 +2156,10 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>46054.5625</v>
+        <v>46055.5625</v>
       </c>
       <c r="B77" t="n">
-        <v>36.06</v>
+        <v>-2.54301</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D77" s="3" t="n">
-        <v>46054</v>
+        <v>46055</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2177,10 +2177,10 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>46054.58333333334</v>
+        <v>46055.58333333334</v>
       </c>
       <c r="B78" t="n">
-        <v>36.06071</v>
+        <v>-5.01</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         </is>
       </c>
       <c r="D78" s="3" t="n">
-        <v>46054</v>
+        <v>46055</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2198,10 +2198,10 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>46054.60416666666</v>
+        <v>46055.60416666666</v>
       </c>
       <c r="B79" t="n">
-        <v>57.06003</v>
+        <v>-5.01</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         </is>
       </c>
       <c r="D79" s="3" t="n">
-        <v>46054</v>
+        <v>46055</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2219,10 +2219,10 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>46054.625</v>
+        <v>46055.625</v>
       </c>
       <c r="B80" t="n">
-        <v>59.21238</v>
+        <v>-5.22335</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         </is>
       </c>
       <c r="D80" s="3" t="n">
-        <v>46054</v>
+        <v>46055</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2240,10 +2240,10 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>46054.64583333334</v>
+        <v>46055.64583333334</v>
       </c>
       <c r="B81" t="n">
-        <v>68.71477</v>
+        <v>-5.38187</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="D81" s="3" t="n">
-        <v>46054</v>
+        <v>46055</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2261,10 +2261,10 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>46054.66666666666</v>
+        <v>46055.66666666666</v>
       </c>
       <c r="B82" t="n">
-        <v>84.79000000000001</v>
+        <v>-2.09332</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="D82" s="3" t="n">
-        <v>46054</v>
+        <v>46055</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2282,10 +2282,10 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>46054.6875</v>
+        <v>46055.6875</v>
       </c>
       <c r="B83" t="n">
-        <v>78</v>
+        <v>-7.85855</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         </is>
       </c>
       <c r="D83" s="3" t="n">
-        <v>46054</v>
+        <v>46055</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2303,10 +2303,10 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>46054.70833333334</v>
+        <v>46055.70833333334</v>
       </c>
       <c r="B84" t="n">
-        <v>92.14239000000001</v>
+        <v>-12.1222</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         </is>
       </c>
       <c r="D84" s="3" t="n">
-        <v>46054</v>
+        <v>46055</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2324,10 +2324,10 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>46054.72916666666</v>
+        <v>46055.72916666666</v>
       </c>
       <c r="B85" t="n">
-        <v>89.95526</v>
+        <v>-9.38336</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         </is>
       </c>
       <c r="D85" s="3" t="n">
-        <v>46054</v>
+        <v>46055</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2345,10 +2345,10 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>46054.75</v>
+        <v>46055.75</v>
       </c>
       <c r="B86" t="n">
-        <v>80.93996</v>
+        <v>-5.78298</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2356,7 +2356,7 @@
         </is>
       </c>
       <c r="D86" s="3" t="n">
-        <v>46054</v>
+        <v>46055</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2366,10 +2366,10 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>46054.77083333334</v>
+        <v>46055.77083333334</v>
       </c>
       <c r="B87" t="n">
-        <v>100.3</v>
+        <v>4.3265</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         </is>
       </c>
       <c r="D87" s="3" t="n">
-        <v>46054</v>
+        <v>46055</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2387,10 +2387,10 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>46054.79166666666</v>
+        <v>46055.79166666666</v>
       </c>
       <c r="B88" t="n">
-        <v>147.52</v>
+        <v>65.11315999999999</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         </is>
       </c>
       <c r="D88" s="3" t="n">
-        <v>46054</v>
+        <v>46055</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2408,10 +2408,10 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>46054.8125</v>
+        <v>46055.8125</v>
       </c>
       <c r="B89" t="n">
-        <v>135.04632</v>
+        <v>71.77072</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         </is>
       </c>
       <c r="D89" s="3" t="n">
-        <v>46054</v>
+        <v>46055</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2429,10 +2429,10 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>46054.83333333334</v>
+        <v>46055.83333333334</v>
       </c>
       <c r="B90" t="n">
-        <v>100.3</v>
+        <v>73.19</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         </is>
       </c>
       <c r="D90" s="3" t="n">
-        <v>46054</v>
+        <v>46055</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2450,10 +2450,10 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>46054.85416666666</v>
+        <v>46055.85416666666</v>
       </c>
       <c r="B91" t="n">
-        <v>82.70392</v>
+        <v>74.19323</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2461,7 +2461,7 @@
         </is>
       </c>
       <c r="D91" s="3" t="n">
-        <v>46054</v>
+        <v>46055</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -2471,10 +2471,10 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>46054.875</v>
+        <v>46055.875</v>
       </c>
       <c r="B92" t="n">
-        <v>90.98444000000001</v>
+        <v>78</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="D92" s="3" t="n">
-        <v>46054</v>
+        <v>46055</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -2492,10 +2492,10 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>46054.89583333334</v>
+        <v>46055.89583333334</v>
       </c>
       <c r="B93" t="n">
-        <v>77.03009</v>
+        <v>73.19</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
         </is>
       </c>
       <c r="D93" s="3" t="n">
-        <v>46054</v>
+        <v>46055</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2513,10 +2513,10 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>46054.91666666666</v>
+        <v>46055.91666666666</v>
       </c>
       <c r="B94" t="n">
-        <v>57.31</v>
+        <v>73.19</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="D94" s="3" t="n">
-        <v>46054</v>
+        <v>46055</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -2534,10 +2534,10 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>46054.9375</v>
+        <v>46055.9375</v>
       </c>
       <c r="B95" t="n">
-        <v>63.73481</v>
+        <v>68.31252000000001</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         </is>
       </c>
       <c r="D95" s="3" t="n">
-        <v>46054</v>
+        <v>46055</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2555,10 +2555,10 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>46054.95833333334</v>
+        <v>46055.95833333334</v>
       </c>
       <c r="B96" t="n">
-        <v>57.31</v>
+        <v>67.27242</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         </is>
       </c>
       <c r="D96" s="3" t="n">
-        <v>46054</v>
+        <v>46055</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -2576,10 +2576,10 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>46054.97916666666</v>
+        <v>46055.97916666666</v>
       </c>
       <c r="B97" t="n">
-        <v>64.81568</v>
+        <v>63.75556</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         </is>
       </c>
       <c r="D97" s="3" t="n">
-        <v>46054</v>
+        <v>46055</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,62 +475,42 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46054.14583333334</v>
+        <v>46054</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>46054.64583333334</v>
+        <v>46054.66666666666</v>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>45.36</v>
+        <v>60.48</v>
       </c>
       <c r="E2" t="n">
-        <v>1136.58783225</v>
+        <v>1698.47935725</v>
       </c>
       <c r="F2" t="n">
-        <v>25.0570509755291</v>
+        <v>28.08332270585318</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46054.72916666666</v>
+        <v>46055.16666666666</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>46054.89583333334</v>
+        <v>46055.66666666666</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>15.12</v>
+        <v>45.36</v>
       </c>
       <c r="E3" t="n">
-        <v>435.56721</v>
+        <v>500.595693</v>
       </c>
       <c r="F3" t="n">
-        <v>28.80735515873016</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>46055.16666666666</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>46055.66666666666</v>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>45.36</v>
-      </c>
-      <c r="E4" t="n">
-        <v>579.241338</v>
-      </c>
-      <c r="F4" t="n">
-        <v>12.76987076719577</v>
+        <v>11.03606025132275</v>
       </c>
     </row>
   </sheetData>
@@ -596,7 +576,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -617,7 +597,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -638,7 +618,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -659,7 +639,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -680,7 +660,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -701,7 +681,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -722,7 +702,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1247,7 +1227,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1319,7 +1299,7 @@
         <v>46054.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>46.96682</v>
+        <v>89.95614999999999</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1331,7 +1311,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1340,7 +1320,7 @@
         <v>46054.75</v>
       </c>
       <c r="B38" t="n">
-        <v>47.21938</v>
+        <v>78.59831</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1352,7 +1332,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1361,11 +1341,11 @@
         <v>46054.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>41.95003</v>
+        <v>94.26672000000001</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D39" s="3" t="n">
@@ -1373,7 +1353,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1382,11 +1362,11 @@
         <v>46054.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>51.13828</v>
+        <v>135.62451</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D40" s="3" t="n">
@@ -1394,7 +1374,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1403,11 +1383,11 @@
         <v>46054.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>59.68278</v>
+        <v>134.88863</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D41" s="3" t="n">
@@ -1415,7 +1395,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1424,11 +1404,11 @@
         <v>46054.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>57.31</v>
+        <v>134.85102</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D42" s="3" t="n">
@@ -1436,7 +1416,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1445,11 +1425,11 @@
         <v>46054.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>57.31</v>
+        <v>82.71496999999999</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D43" s="3" t="n">
@@ -1457,7 +1437,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1466,11 +1446,11 @@
         <v>46054.875</v>
       </c>
       <c r="B44" t="n">
-        <v>85.15831</v>
+        <v>90.98048</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D44" s="3" t="n">
@@ -1478,7 +1458,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1487,11 +1467,11 @@
         <v>46054.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>98.80513999999999</v>
+        <v>77.03009</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D45" s="3" t="n">
@@ -1508,11 +1488,11 @@
         <v>46054.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>77.0301</v>
+        <v>57.31</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D46" s="3" t="n">
@@ -1529,11 +1509,11 @@
         <v>46054.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>82.04785</v>
+        <v>64.35014</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D47" s="3" t="n">
@@ -1550,11 +1530,11 @@
         <v>46054.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>74.02293</v>
+        <v>78</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D48" s="3" t="n">
@@ -1571,7 +1551,7 @@
         <v>46054.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>66.04464</v>
+        <v>73.19</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1592,7 +1572,7 @@
         <v>46055</v>
       </c>
       <c r="B50" t="n">
-        <v>64.9802</v>
+        <v>78</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1613,7 +1593,7 @@
         <v>46055.02083333334</v>
       </c>
       <c r="B51" t="n">
-        <v>81.43071</v>
+        <v>82.11529</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1655,7 +1635,7 @@
         <v>46055.0625</v>
       </c>
       <c r="B53" t="n">
-        <v>79.95</v>
+        <v>80.71124</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1676,7 +1656,7 @@
         <v>46055.08333333334</v>
       </c>
       <c r="B54" t="n">
-        <v>73.20001999999999</v>
+        <v>79.95010000000001</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1718,7 +1698,7 @@
         <v>46055.125</v>
       </c>
       <c r="B56" t="n">
-        <v>73.20001999999999</v>
+        <v>73.46559999999999</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1739,7 +1719,7 @@
         <v>46055.14583333334</v>
       </c>
       <c r="B57" t="n">
-        <v>73.20001999999999</v>
+        <v>79.95</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1760,7 +1740,7 @@
         <v>46055.16666666666</v>
       </c>
       <c r="B58" t="n">
-        <v>79.26611</v>
+        <v>73.96261</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1781,7 +1761,7 @@
         <v>46055.1875</v>
       </c>
       <c r="B59" t="n">
-        <v>70.11391</v>
+        <v>73.20014999999999</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1802,7 +1782,7 @@
         <v>46055.20833333334</v>
       </c>
       <c r="B60" t="n">
-        <v>70.12486</v>
+        <v>73.20012</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1823,7 +1803,7 @@
         <v>46055.22916666666</v>
       </c>
       <c r="B61" t="n">
-        <v>70.46628</v>
+        <v>73.19</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1844,7 +1824,7 @@
         <v>46055.25</v>
       </c>
       <c r="B62" t="n">
-        <v>73.19</v>
+        <v>81.85907</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1865,7 +1845,7 @@
         <v>46055.27083333334</v>
       </c>
       <c r="B63" t="n">
-        <v>64.58128000000001</v>
+        <v>72.43491</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1886,7 +1866,7 @@
         <v>46055.29166666666</v>
       </c>
       <c r="B64" t="n">
-        <v>57.06023</v>
+        <v>57.31</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1928,7 +1908,7 @@
         <v>46055.33333333334</v>
       </c>
       <c r="B66" t="n">
-        <v>36.0126</v>
+        <v>36.0601</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1949,7 +1929,7 @@
         <v>46055.35416666666</v>
       </c>
       <c r="B67" t="n">
-        <v>36.0601</v>
+        <v>31.40015</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1970,7 +1950,7 @@
         <v>46055.375</v>
       </c>
       <c r="B68" t="n">
-        <v>22.07</v>
+        <v>25.02526</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -2012,7 +1992,7 @@
         <v>46055.41666666666</v>
       </c>
       <c r="B70" t="n">
-        <v>0.50965</v>
+        <v>0.50987</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2033,7 +2013,7 @@
         <v>46055.4375</v>
       </c>
       <c r="B71" t="n">
-        <v>0.009560000000000001</v>
+        <v>0.51</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2054,7 +2034,7 @@
         <v>46055.45833333334</v>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>0.00894</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2075,7 +2055,7 @@
         <v>46055.47916666666</v>
       </c>
       <c r="B73" t="n">
-        <v>0.00881</v>
+        <v>0.51</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2096,7 +2076,7 @@
         <v>46055.5</v>
       </c>
       <c r="B74" t="n">
-        <v>0.00842</v>
+        <v>0.51</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2117,7 +2097,7 @@
         <v>46055.52083333334</v>
       </c>
       <c r="B75" t="n">
-        <v>0.51</v>
+        <v>0.47</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2138,7 +2118,7 @@
         <v>46055.54166666666</v>
       </c>
       <c r="B76" t="n">
-        <v>0.51</v>
+        <v>-12.01</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2159,7 +2139,7 @@
         <v>46055.5625</v>
       </c>
       <c r="B77" t="n">
-        <v>-2.54301</v>
+        <v>-14</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2180,7 +2160,7 @@
         <v>46055.58333333334</v>
       </c>
       <c r="B78" t="n">
-        <v>-5.01</v>
+        <v>-27</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2201,7 +2181,7 @@
         <v>46055.60416666666</v>
       </c>
       <c r="B79" t="n">
-        <v>-5.01</v>
+        <v>-26.9998</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2222,7 +2202,7 @@
         <v>46055.625</v>
       </c>
       <c r="B80" t="n">
-        <v>-5.22335</v>
+        <v>-23.5</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2243,7 +2223,7 @@
         <v>46055.64583333334</v>
       </c>
       <c r="B81" t="n">
-        <v>-5.38187</v>
+        <v>-19.98</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2264,7 +2244,7 @@
         <v>46055.66666666666</v>
       </c>
       <c r="B82" t="n">
-        <v>-2.09332</v>
+        <v>-11.85588</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2285,7 +2265,7 @@
         <v>46055.6875</v>
       </c>
       <c r="B83" t="n">
-        <v>-7.85855</v>
+        <v>-15.84213</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2306,7 +2286,7 @@
         <v>46055.70833333334</v>
       </c>
       <c r="B84" t="n">
-        <v>-12.1222</v>
+        <v>-12.11053</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2327,7 +2307,7 @@
         <v>46055.72916666666</v>
       </c>
       <c r="B85" t="n">
-        <v>-9.38336</v>
+        <v>-8.386850000000001</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2348,7 +2328,7 @@
         <v>46055.75</v>
       </c>
       <c r="B86" t="n">
-        <v>-5.78298</v>
+        <v>-6.41678</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2369,7 +2349,7 @@
         <v>46055.77083333334</v>
       </c>
       <c r="B87" t="n">
-        <v>4.3265</v>
+        <v>17.17136</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2390,7 +2370,7 @@
         <v>46055.79166666666</v>
       </c>
       <c r="B88" t="n">
-        <v>65.11315999999999</v>
+        <v>65</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2411,7 +2391,7 @@
         <v>46055.8125</v>
       </c>
       <c r="B89" t="n">
-        <v>71.77072</v>
+        <v>73.19</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2453,7 +2433,7 @@
         <v>46055.85416666666</v>
       </c>
       <c r="B91" t="n">
-        <v>74.19323</v>
+        <v>73.19</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2474,7 +2454,7 @@
         <v>46055.875</v>
       </c>
       <c r="B92" t="n">
-        <v>78</v>
+        <v>73.19</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2516,7 +2496,7 @@
         <v>46055.91666666666</v>
       </c>
       <c r="B94" t="n">
-        <v>73.19</v>
+        <v>69.49034</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2537,7 +2517,7 @@
         <v>46055.9375</v>
       </c>
       <c r="B95" t="n">
-        <v>68.31252000000001</v>
+        <v>68.18883</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2558,7 +2538,7 @@
         <v>46055.95833333334</v>
       </c>
       <c r="B96" t="n">
-        <v>67.27242</v>
+        <v>65.12989</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2579,7 +2559,7 @@
         <v>46055.97916666666</v>
       </c>
       <c r="B97" t="n">
-        <v>63.75556</v>
+        <v>63.55921</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -475,42 +475,42 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46055.08333333334</v>
+        <v>46055.16666666666</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>46055.66666666666</v>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>52.91999999999999</v>
+        <v>45.36</v>
       </c>
       <c r="E2" t="n">
-        <v>791.31004875</v>
+        <v>474.7860487499999</v>
       </c>
       <c r="F2" t="n">
-        <v>14.9529487670068</v>
+        <v>10.46706456679894</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46055.91666666666</v>
+        <v>46055.83333333334</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>46056.14583333334</v>
       </c>
       <c r="C3" t="n">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="D3" t="n">
-        <v>20.79</v>
+        <v>28.35</v>
       </c>
       <c r="E3" t="n">
-        <v>841.943544</v>
+        <v>1083.7736715</v>
       </c>
       <c r="F3" t="n">
-        <v>40.49752496392497</v>
+        <v>38.22834820105821</v>
       </c>
     </row>
     <row r="4">
@@ -527,10 +527,10 @@
         <v>32.13</v>
       </c>
       <c r="E4" t="n">
-        <v>485.139915</v>
+        <v>648.43762425</v>
       </c>
       <c r="F4" t="n">
-        <v>15.09928151260504</v>
+        <v>20.18168765172736</v>
       </c>
     </row>
   </sheetData>
@@ -680,7 +680,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -722,7 +722,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -743,7 +743,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1340,7 +1340,7 @@
         <v>46055.75</v>
       </c>
       <c r="B38" t="n">
-        <v>-8.578989999999999</v>
+        <v>-6</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>46055.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>14.5695</v>
+        <v>22.80121</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1382,11 +1382,11 @@
         <v>46055.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>67.81986000000001</v>
+        <v>65.11238</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D40" s="3" t="n">
@@ -1403,11 +1403,11 @@
         <v>46055.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>73.19</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D41" s="3" t="n">
@@ -1424,11 +1424,11 @@
         <v>46055.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>80.96581999999999</v>
+        <v>73.19</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D42" s="3" t="n">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1445,11 +1445,11 @@
         <v>46055.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>77.44132</v>
+        <v>75.10932</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D43" s="3" t="n">
@@ -1457,7 +1457,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1466,11 +1466,11 @@
         <v>46055.875</v>
       </c>
       <c r="B44" t="n">
-        <v>82.76155</v>
+        <v>75.98278000000001</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D44" s="3" t="n">
@@ -1478,7 +1478,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1487,11 +1487,11 @@
         <v>46055.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>84.79000000000001</v>
+        <v>73.19</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D45" s="3" t="n">
@@ -1499,7 +1499,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1508,11 +1508,11 @@
         <v>46055.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>79.26555</v>
+        <v>70.23766999999999</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D46" s="3" t="n">
@@ -1529,11 +1529,11 @@
         <v>46055.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>84.79000000000001</v>
+        <v>83.69302</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D47" s="3" t="n">
@@ -1550,11 +1550,11 @@
         <v>46055.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>89.59390999999999</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D48" s="3" t="n">
@@ -1571,7 +1571,7 @@
         <v>46055.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>84.79000000000001</v>
+        <v>73.17999</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>46056</v>
       </c>
       <c r="B50" t="n">
-        <v>84.79000000000001</v>
+        <v>66.31119</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
         <v>46056.02083333334</v>
       </c>
       <c r="B51" t="n">
-        <v>81.74438000000001</v>
+        <v>79.60947</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>46056.04166666666</v>
       </c>
       <c r="B52" t="n">
-        <v>76.88491999999999</v>
+        <v>74.92478</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>46056.0625</v>
       </c>
       <c r="B53" t="n">
-        <v>75.86904</v>
+        <v>73.20007</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
         <v>46056.08333333334</v>
       </c>
       <c r="B54" t="n">
-        <v>68.14861000000001</v>
+        <v>67.21592</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>46056.10416666666</v>
       </c>
       <c r="B55" t="n">
-        <v>68.54403000000001</v>
+        <v>67.72846</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>46056.125</v>
       </c>
       <c r="B56" t="n">
-        <v>69.1114</v>
+        <v>73.20007</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>46056.16666666666</v>
       </c>
       <c r="B58" t="n">
-        <v>73.20007</v>
+        <v>77.93452000000001</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>46056.1875</v>
       </c>
       <c r="B59" t="n">
-        <v>82.32329</v>
+        <v>77.82303</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>46056.20833333334</v>
       </c>
       <c r="B60" t="n">
-        <v>86.20023</v>
+        <v>83.94917</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>46056.22916666666</v>
       </c>
       <c r="B61" t="n">
-        <v>101.25</v>
+        <v>86.71747000000001</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>46056.25</v>
       </c>
       <c r="B62" t="n">
-        <v>108.89</v>
+        <v>87.42259</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1865,7 +1865,7 @@
         <v>46056.27083333334</v>
       </c>
       <c r="B63" t="n">
-        <v>108.89</v>
+        <v>97.5778</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>46056.29166666666</v>
       </c>
       <c r="B64" t="n">
-        <v>100.61367</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>46056.3125</v>
       </c>
       <c r="B65" t="n">
-        <v>56.65206</v>
+        <v>53.34919</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
         <v>46056.33333333334</v>
       </c>
       <c r="B66" t="n">
-        <v>36.0601</v>
+        <v>46.3042</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>46056.35416666666</v>
       </c>
       <c r="B67" t="n">
-        <v>35.88</v>
+        <v>36.0601</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>46056.375</v>
       </c>
       <c r="B68" t="n">
-        <v>35.73239</v>
+        <v>36.06005</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>46056.41666666666</v>
       </c>
       <c r="B70" t="n">
-        <v>34.03239</v>
+        <v>36.0601</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>46056.4375</v>
       </c>
       <c r="B71" t="n">
-        <v>36.0601</v>
+        <v>36.06049</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>46056.47916666666</v>
       </c>
       <c r="B73" t="n">
-        <v>26.48953</v>
+        <v>26.62484</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2096,7 +2096,7 @@
         <v>46056.5</v>
       </c>
       <c r="B74" t="n">
-        <v>23.46803</v>
+        <v>35.92515</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>46056.52083333334</v>
       </c>
       <c r="B75" t="n">
-        <v>22.07</v>
+        <v>36.0601</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>46056.54166666666</v>
       </c>
       <c r="B76" t="n">
-        <v>3.92187</v>
+        <v>36.0601</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2159,7 +2159,7 @@
         <v>46056.5625</v>
       </c>
       <c r="B77" t="n">
-        <v>0.7</v>
+        <v>36.0601</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>46056.58333333334</v>
       </c>
       <c r="B78" t="n">
-        <v>6.21243</v>
+        <v>36.0601</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>46056.625</v>
       </c>
       <c r="B80" t="n">
-        <v>36.0601</v>
+        <v>49.13934</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>46056.64583333334</v>
       </c>
       <c r="B81" t="n">
-        <v>36.0601</v>
+        <v>57.06007</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2264,7 +2264,7 @@
         <v>46056.66666666666</v>
       </c>
       <c r="B82" t="n">
-        <v>36.0601</v>
+        <v>46.29534</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>46056.6875</v>
       </c>
       <c r="B83" t="n">
-        <v>36.0601</v>
+        <v>33.06049</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>46056.70833333334</v>
       </c>
       <c r="B84" t="n">
-        <v>50.11187</v>
+        <v>62.6256</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
         <v>46056.72916666666</v>
       </c>
       <c r="B85" t="n">
-        <v>70.6862</v>
+        <v>73.77512</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>46056.75</v>
       </c>
       <c r="B86" t="n">
-        <v>84.79000000000001</v>
+        <v>101.25</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>46056.77083333334</v>
       </c>
       <c r="B87" t="n">
-        <v>100.72737</v>
+        <v>100.91246</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>46056.79166666666</v>
       </c>
       <c r="B88" t="n">
-        <v>108.89</v>
+        <v>105.79</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>46056.8125</v>
       </c>
       <c r="B89" t="n">
-        <v>105.0001</v>
+        <v>101.89163</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>46056.83333333334</v>
       </c>
       <c r="B90" t="n">
-        <v>94.65255000000001</v>
+        <v>105.79</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>46056.85416666666</v>
       </c>
       <c r="B91" t="n">
-        <v>104.48028</v>
+        <v>106.53158</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
         <v>46056.875</v>
       </c>
       <c r="B92" t="n">
-        <v>104.11979</v>
+        <v>109.41</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>46056.89583333334</v>
       </c>
       <c r="B93" t="n">
-        <v>105.0001</v>
+        <v>108.89</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>46056.91666666666</v>
       </c>
       <c r="B94" t="n">
-        <v>92.07096</v>
+        <v>101.33</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>46056.9375</v>
       </c>
       <c r="B95" t="n">
-        <v>105.0001</v>
+        <v>108.89</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>46056.95833333334</v>
       </c>
       <c r="B96" t="n">
-        <v>99.20686000000001</v>
+        <v>120.62819</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>46056.97916666666</v>
       </c>
       <c r="B97" t="n">
-        <v>101.25</v>
+        <v>108.89</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,59 +478,79 @@
         <v>46056</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>46056.66666666666</v>
+        <v>46056.27083333334</v>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>6.5</v>
       </c>
       <c r="D2" t="n">
-        <v>60.48</v>
+        <v>24.57</v>
       </c>
       <c r="E2" t="n">
-        <v>1692.2214855</v>
+        <v>865.85679375</v>
       </c>
       <c r="F2" t="n">
-        <v>27.97985260416667</v>
+        <v>35.24040674603174</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46057.04166666666</v>
+        <v>46056.29166666666</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>46057.20833333334</v>
+        <v>46056.66666666666</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>15.12</v>
+        <v>34.02</v>
       </c>
       <c r="E3" t="n">
-        <v>729.02942775</v>
+        <v>728.5141402499999</v>
       </c>
       <c r="F3" t="n">
-        <v>48.21623199404762</v>
+        <v>21.41428983686067</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46057.33333333334</v>
+        <v>46056.97916666666</v>
       </c>
       <c r="B4" s="2" t="n">
+        <v>46057.14583333334</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15.12</v>
+      </c>
+      <c r="E4" t="n">
+        <v>759.9122115</v>
+      </c>
+      <c r="F4" t="n">
+        <v>50.2587441468254</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>46057.3125</v>
+      </c>
+      <c r="B5" s="2" t="n">
         <v>46057.66666666666</v>
       </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>30.24</v>
-      </c>
-      <c r="E4" t="n">
-        <v>244.94637375</v>
-      </c>
-      <c r="F4" t="n">
-        <v>8.10007849702381</v>
+      <c r="C5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>32.13</v>
+      </c>
+      <c r="E5" t="n">
+        <v>143.36233275</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4.461946241830066</v>
       </c>
     </row>
   </sheetData>
@@ -869,7 +889,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1340,7 +1360,7 @@
         <v>46056.75</v>
       </c>
       <c r="B38" t="n">
-        <v>93.86206</v>
+        <v>101.25</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1361,7 +1381,7 @@
         <v>46056.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>101.25</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1382,11 +1402,11 @@
         <v>46056.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>105.74564</v>
+        <v>104.91701</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D40" s="3" t="n">
@@ -1403,11 +1423,11 @@
         <v>46056.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>129.14595</v>
+        <v>105.79</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D41" s="3" t="n">
@@ -1424,11 +1444,11 @@
         <v>46056.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>127.22273</v>
+        <v>103.03022</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D42" s="3" t="n">
@@ -1445,11 +1465,11 @@
         <v>46056.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>129.01383</v>
+        <v>106.12755</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D43" s="3" t="n">
@@ -1466,11 +1486,11 @@
         <v>46056.875</v>
       </c>
       <c r="B44" t="n">
-        <v>104.72161</v>
+        <v>108.89</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D44" s="3" t="n">
@@ -1487,11 +1507,11 @@
         <v>46056.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>106.30076</v>
+        <v>108.89</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D45" s="3" t="n">
@@ -1508,11 +1528,11 @@
         <v>46056.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>105.38477</v>
+        <v>101.33</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D46" s="3" t="n">
@@ -1529,11 +1549,11 @@
         <v>46056.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>108.89</v>
+        <v>101.53606</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D47" s="3" t="n">
@@ -1550,11 +1570,11 @@
         <v>46056.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>108.89</v>
+        <v>100.91363</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D48" s="3" t="n">
@@ -1571,7 +1591,7 @@
         <v>46056.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>106.63352</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1583,7 +1603,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1592,7 +1612,7 @@
         <v>46057</v>
       </c>
       <c r="B50" t="n">
-        <v>105.7196</v>
+        <v>97.73156</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1604,7 +1624,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1613,7 +1633,7 @@
         <v>46057.02083333334</v>
       </c>
       <c r="B51" t="n">
-        <v>104.67201</v>
+        <v>101.25</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1625,7 +1645,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1634,7 +1654,7 @@
         <v>46057.04166666666</v>
       </c>
       <c r="B52" t="n">
-        <v>105.79</v>
+        <v>102.50664</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1655,7 +1675,7 @@
         <v>46057.0625</v>
       </c>
       <c r="B53" t="n">
-        <v>90.39601999999999</v>
+        <v>101.25</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1676,7 +1696,7 @@
         <v>46057.08333333334</v>
       </c>
       <c r="B54" t="n">
-        <v>105.78998</v>
+        <v>101.25</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1697,7 +1717,7 @@
         <v>46057.10416666666</v>
       </c>
       <c r="B55" t="n">
-        <v>90.6523</v>
+        <v>101.25</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1718,7 +1738,7 @@
         <v>46057.125</v>
       </c>
       <c r="B56" t="n">
-        <v>85.50418999999999</v>
+        <v>89.36893999999999</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1739,7 +1759,7 @@
         <v>46057.14583333334</v>
       </c>
       <c r="B57" t="n">
-        <v>84.79000000000001</v>
+        <v>84.90018999999999</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1751,7 +1771,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1792,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1781,7 +1801,7 @@
         <v>46057.1875</v>
       </c>
       <c r="B59" t="n">
-        <v>100.01</v>
+        <v>100.3</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1793,7 +1813,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1802,7 +1822,7 @@
         <v>46057.20833333334</v>
       </c>
       <c r="B60" t="n">
-        <v>108.89</v>
+        <v>105.79</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1823,7 +1843,7 @@
         <v>46057.22916666666</v>
       </c>
       <c r="B61" t="n">
-        <v>108.89</v>
+        <v>110.39857</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1844,7 +1864,7 @@
         <v>46057.25</v>
       </c>
       <c r="B62" t="n">
-        <v>125.30678</v>
+        <v>108.89</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1865,7 +1885,7 @@
         <v>46057.27083333334</v>
       </c>
       <c r="B63" t="n">
-        <v>126.38491</v>
+        <v>115.90225</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1886,7 +1906,7 @@
         <v>46057.29166666666</v>
       </c>
       <c r="B64" t="n">
-        <v>97.4055</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1907,7 +1927,7 @@
         <v>46057.3125</v>
       </c>
       <c r="B65" t="n">
-        <v>70.38627</v>
+        <v>57.06007</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1919,7 +1939,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1928,7 +1948,7 @@
         <v>46057.33333333334</v>
       </c>
       <c r="B66" t="n">
-        <v>61.66934</v>
+        <v>38.68104</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1949,7 +1969,7 @@
         <v>46057.35416666666</v>
       </c>
       <c r="B67" t="n">
-        <v>48.44212</v>
+        <v>32.96129</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1970,7 +1990,7 @@
         <v>46057.375</v>
       </c>
       <c r="B68" t="n">
-        <v>36.05984</v>
+        <v>21.5418</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1991,7 +2011,7 @@
         <v>46057.39583333334</v>
       </c>
       <c r="B69" t="n">
-        <v>32.3167</v>
+        <v>0.7</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2012,7 +2032,7 @@
         <v>46057.41666666666</v>
       </c>
       <c r="B70" t="n">
-        <v>0.7</v>
+        <v>0.01101</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2033,7 +2053,7 @@
         <v>46057.4375</v>
       </c>
       <c r="B71" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2054,7 +2074,7 @@
         <v>46057.45833333334</v>
       </c>
       <c r="B72" t="n">
-        <v>0.51</v>
+        <v>-2.54301</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2075,7 +2095,7 @@
         <v>46057.47916666666</v>
       </c>
       <c r="B73" t="n">
-        <v>0.51</v>
+        <v>-1.15096</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2096,7 +2116,7 @@
         <v>46057.5</v>
       </c>
       <c r="B74" t="n">
-        <v>0.009639999999999999</v>
+        <v>0</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2117,7 +2137,7 @@
         <v>46057.52083333334</v>
       </c>
       <c r="B75" t="n">
-        <v>6e-05</v>
+        <v>-4.67865</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2138,7 +2158,7 @@
         <v>46057.54166666666</v>
       </c>
       <c r="B76" t="n">
-        <v>6e-05</v>
+        <v>-4.70553</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2180,7 +2200,7 @@
         <v>46057.58333333334</v>
       </c>
       <c r="B78" t="n">
-        <v>0.51</v>
+        <v>-1.04393</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2201,7 +2221,7 @@
         <v>46057.60416666666</v>
       </c>
       <c r="B79" t="n">
-        <v>13.24462</v>
+        <v>2e-05</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2222,7 +2242,7 @@
         <v>46057.625</v>
       </c>
       <c r="B80" t="n">
-        <v>22.07</v>
+        <v>0.51</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2243,7 +2263,7 @@
         <v>46057.64583333334</v>
       </c>
       <c r="B81" t="n">
-        <v>33.97481</v>
+        <v>9.185280000000001</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2264,7 +2284,7 @@
         <v>46057.66666666666</v>
       </c>
       <c r="B82" t="n">
-        <v>33.10649</v>
+        <v>20.89615</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2285,7 +2305,7 @@
         <v>46057.6875</v>
       </c>
       <c r="B83" t="n">
-        <v>47.94977</v>
+        <v>36.0601</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2306,7 +2326,7 @@
         <v>46057.70833333334</v>
       </c>
       <c r="B84" t="n">
-        <v>60.12327</v>
+        <v>54.25499</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2327,7 +2347,7 @@
         <v>46057.72916666666</v>
       </c>
       <c r="B85" t="n">
-        <v>65.72942</v>
+        <v>63.05162</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2348,7 +2368,7 @@
         <v>46057.75</v>
       </c>
       <c r="B86" t="n">
-        <v>101.25</v>
+        <v>69.26626</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2369,7 +2389,7 @@
         <v>46057.77083333334</v>
       </c>
       <c r="B87" t="n">
-        <v>109.52985</v>
+        <v>102.96323</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2390,7 +2410,7 @@
         <v>46057.79166666666</v>
       </c>
       <c r="B88" t="n">
-        <v>167.374</v>
+        <v>135.5606</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2411,7 +2431,7 @@
         <v>46057.8125</v>
       </c>
       <c r="B89" t="n">
-        <v>177.13082</v>
+        <v>141.98066</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2432,7 +2452,7 @@
         <v>46057.83333333334</v>
       </c>
       <c r="B90" t="n">
-        <v>155.01712</v>
+        <v>169.53226</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2453,7 +2473,7 @@
         <v>46057.85416666666</v>
       </c>
       <c r="B91" t="n">
-        <v>155.26297</v>
+        <v>150.50671</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2474,7 +2494,7 @@
         <v>46057.875</v>
       </c>
       <c r="B92" t="n">
-        <v>171.42027</v>
+        <v>142.08175</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2495,7 +2515,7 @@
         <v>46057.89583333334</v>
       </c>
       <c r="B93" t="n">
-        <v>138.42</v>
+        <v>118.30564</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2516,7 +2536,7 @@
         <v>46057.91666666666</v>
       </c>
       <c r="B94" t="n">
-        <v>108.03</v>
+        <v>115.04338</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2537,7 +2557,7 @@
         <v>46057.9375</v>
       </c>
       <c r="B95" t="n">
-        <v>101.25</v>
+        <v>113.3996</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2558,7 +2578,7 @@
         <v>46057.95833333334</v>
       </c>
       <c r="B96" t="n">
-        <v>112.58383</v>
+        <v>111.84804</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2579,7 +2599,7 @@
         <v>46057.97916666666</v>
       </c>
       <c r="B97" t="n">
-        <v>115.64246</v>
+        <v>115.71339</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,82 +475,62 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>46056.27083333334</v>
+        <v>46057.66666666666</v>
       </c>
       <c r="C2" t="n">
-        <v>6.5</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>24.57</v>
+        <v>60.48</v>
       </c>
       <c r="E2" t="n">
-        <v>865.85679375</v>
+        <v>1572.62936025</v>
       </c>
       <c r="F2" t="n">
-        <v>35.24040674603174</v>
+        <v>26.00246958085317</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46056.29166666666</v>
+        <v>46058.04166666666</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>46056.66666666666</v>
+        <v>46058.20833333334</v>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>34.02</v>
+        <v>15.12</v>
       </c>
       <c r="E3" t="n">
-        <v>728.5141402499999</v>
+        <v>1058.963958</v>
       </c>
       <c r="F3" t="n">
-        <v>21.41428983686067</v>
+        <v>70.03729880952382</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46056.97916666666</v>
+        <v>46058.3125</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>46057.14583333334</v>
+        <v>46058.64583333334</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>15.12</v>
+        <v>30.24</v>
       </c>
       <c r="E4" t="n">
-        <v>759.9122115</v>
+        <v>652.31574525</v>
       </c>
       <c r="F4" t="n">
-        <v>50.2587441468254</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>46057.3125</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>46057.66666666666</v>
-      </c>
-      <c r="C5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>32.13</v>
-      </c>
-      <c r="E5" t="n">
-        <v>143.36233275</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4.461946241830066</v>
+        <v>21.57128787202381</v>
       </c>
     </row>
   </sheetData>
@@ -601,10 +581,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="B2" t="n">
-        <v>65.30853999999999</v>
+        <v>101.25</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -612,7 +592,7 @@
         </is>
       </c>
       <c r="D2" s="3" t="n">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -622,10 +602,10 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46056.02083333334</v>
+        <v>46057.02083333334</v>
       </c>
       <c r="B3" t="n">
-        <v>72.73926</v>
+        <v>86.33268</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -633,7 +613,7 @@
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -643,10 +623,10 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46056.04166666666</v>
+        <v>46057.04166666666</v>
       </c>
       <c r="B4" t="n">
-        <v>64.89867</v>
+        <v>87.50901</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -654,7 +634,7 @@
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -664,10 +644,10 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46056.0625</v>
+        <v>46057.0625</v>
       </c>
       <c r="B5" t="n">
-        <v>63.82945</v>
+        <v>101.25</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -675,7 +655,7 @@
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -685,10 +665,10 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>46056.08333333334</v>
+        <v>46057.08333333334</v>
       </c>
       <c r="B6" t="n">
-        <v>63.18235</v>
+        <v>88.887</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -696,7 +676,7 @@
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -706,10 +686,10 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>46056.10416666666</v>
+        <v>46057.10416666666</v>
       </c>
       <c r="B7" t="n">
-        <v>62.81913</v>
+        <v>89.70874000000001</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -717,7 +697,7 @@
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -727,10 +707,10 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>46056.125</v>
+        <v>46057.125</v>
       </c>
       <c r="B8" t="n">
-        <v>63.37495</v>
+        <v>88.45527</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -738,7 +718,7 @@
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -748,10 +728,10 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>46056.14583333334</v>
+        <v>46057.14583333334</v>
       </c>
       <c r="B9" t="n">
-        <v>67.40364</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -759,7 +739,7 @@
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -769,10 +749,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>46056.16666666666</v>
+        <v>46057.16666666666</v>
       </c>
       <c r="B10" t="n">
-        <v>69.02879</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -780,7 +760,7 @@
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -790,10 +770,10 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>46056.1875</v>
+        <v>46057.1875</v>
       </c>
       <c r="B11" t="n">
-        <v>70.42346999999999</v>
+        <v>87.12812</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -801,7 +781,7 @@
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -811,10 +791,10 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>46056.20833333334</v>
+        <v>46057.20833333334</v>
       </c>
       <c r="B12" t="n">
-        <v>64.89</v>
+        <v>101.25</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -822,7 +802,7 @@
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -832,10 +812,10 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>46056.22916666666</v>
+        <v>46057.22916666666</v>
       </c>
       <c r="B13" t="n">
-        <v>80.08</v>
+        <v>101.73227</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -843,7 +823,7 @@
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -853,10 +833,10 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>46056.25</v>
+        <v>46057.25</v>
       </c>
       <c r="B14" t="n">
-        <v>80.08</v>
+        <v>129.77914</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -864,7 +844,7 @@
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -874,10 +854,10 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>46056.27083333334</v>
+        <v>46057.27083333334</v>
       </c>
       <c r="B15" t="n">
-        <v>100.35954</v>
+        <v>125.55543</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -885,20 +865,20 @@
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>46056.29166666666</v>
+        <v>46057.29166666666</v>
       </c>
       <c r="B16" t="n">
-        <v>95.83337</v>
+        <v>95.5111</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -906,7 +886,7 @@
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -916,10 +896,10 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>46056.3125</v>
+        <v>46057.3125</v>
       </c>
       <c r="B17" t="n">
-        <v>57.31</v>
+        <v>56.97999</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -927,7 +907,7 @@
         </is>
       </c>
       <c r="D17" s="3" t="n">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -937,10 +917,10 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>46056.33333333334</v>
+        <v>46057.33333333334</v>
       </c>
       <c r="B18" t="n">
-        <v>42.41909</v>
+        <v>38.67906</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -948,7 +928,7 @@
         </is>
       </c>
       <c r="D18" s="3" t="n">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -958,10 +938,10 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>46056.35416666666</v>
+        <v>46057.35416666666</v>
       </c>
       <c r="B19" t="n">
-        <v>35.88</v>
+        <v>32.96143</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -969,7 +949,7 @@
         </is>
       </c>
       <c r="D19" s="3" t="n">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -979,10 +959,10 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>46056.375</v>
+        <v>46057.375</v>
       </c>
       <c r="B20" t="n">
-        <v>35.88</v>
+        <v>33.82802</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -990,7 +970,7 @@
         </is>
       </c>
       <c r="D20" s="3" t="n">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1000,10 +980,10 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>46056.39583333334</v>
+        <v>46057.39583333334</v>
       </c>
       <c r="B21" t="n">
-        <v>37.33531</v>
+        <v>0.7</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1011,7 +991,7 @@
         </is>
       </c>
       <c r="D21" s="3" t="n">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1021,10 +1001,10 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>46056.41666666666</v>
+        <v>46057.41666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>36.0601</v>
+        <v>0.51</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1032,7 +1012,7 @@
         </is>
       </c>
       <c r="D22" s="3" t="n">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1042,10 +1022,10 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>46056.4375</v>
+        <v>46057.4375</v>
       </c>
       <c r="B23" t="n">
-        <v>35.88931</v>
+        <v>0.0654</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1053,7 +1033,7 @@
         </is>
       </c>
       <c r="D23" s="3" t="n">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1063,10 +1043,10 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>46056.45833333334</v>
+        <v>46057.45833333334</v>
       </c>
       <c r="B24" t="n">
-        <v>36.0601</v>
+        <v>0.01068</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1074,7 +1054,7 @@
         </is>
       </c>
       <c r="D24" s="3" t="n">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1084,10 +1064,10 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>46056.47916666666</v>
+        <v>46057.47916666666</v>
       </c>
       <c r="B25" t="n">
-        <v>36.0601</v>
+        <v>-4.69059</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1095,7 +1075,7 @@
         </is>
       </c>
       <c r="D25" s="3" t="n">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1105,10 +1085,10 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>46056.5</v>
+        <v>46057.5</v>
       </c>
       <c r="B26" t="n">
-        <v>27.89014</v>
+        <v>-2.54301</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1116,7 +1096,7 @@
         </is>
       </c>
       <c r="D26" s="3" t="n">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1126,10 +1106,10 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>46056.52083333334</v>
+        <v>46057.52083333334</v>
       </c>
       <c r="B27" t="n">
-        <v>36.0601</v>
+        <v>0</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1137,7 +1117,7 @@
         </is>
       </c>
       <c r="D27" s="3" t="n">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1147,10 +1127,10 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>46056.54166666666</v>
+        <v>46057.54166666666</v>
       </c>
       <c r="B28" t="n">
-        <v>36.0601</v>
+        <v>-4.6942</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1158,7 +1138,7 @@
         </is>
       </c>
       <c r="D28" s="3" t="n">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1168,10 +1148,10 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>46056.5625</v>
+        <v>46057.5625</v>
       </c>
       <c r="B29" t="n">
-        <v>30.3832</v>
+        <v>-2.54301</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1179,7 +1159,7 @@
         </is>
       </c>
       <c r="D29" s="3" t="n">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1189,10 +1169,10 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>46056.58333333334</v>
+        <v>46057.58333333334</v>
       </c>
       <c r="B30" t="n">
-        <v>36.0601</v>
+        <v>-1.06753</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1200,7 +1180,7 @@
         </is>
       </c>
       <c r="D30" s="3" t="n">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1210,10 +1190,10 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>46056.60416666666</v>
+        <v>46057.60416666666</v>
       </c>
       <c r="B31" t="n">
-        <v>36.06072</v>
+        <v>0.01001</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1221,7 +1201,7 @@
         </is>
       </c>
       <c r="D31" s="3" t="n">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1231,10 +1211,10 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>46056.625</v>
+        <v>46057.625</v>
       </c>
       <c r="B32" t="n">
-        <v>48.84676</v>
+        <v>0.51</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1242,7 +1222,7 @@
         </is>
       </c>
       <c r="D32" s="3" t="n">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1252,10 +1232,10 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>46056.64583333334</v>
+        <v>46057.64583333334</v>
       </c>
       <c r="B33" t="n">
-        <v>47.10549</v>
+        <v>10.30818</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1263,7 +1243,7 @@
         </is>
       </c>
       <c r="D33" s="3" t="n">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1273,10 +1253,10 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>46056.66666666666</v>
+        <v>46057.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>47.23938</v>
+        <v>21.04062</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1284,7 +1264,7 @@
         </is>
       </c>
       <c r="D34" s="3" t="n">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1294,10 +1274,10 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>46056.6875</v>
+        <v>46057.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>47.9554</v>
+        <v>36.0601</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1305,7 +1285,7 @@
         </is>
       </c>
       <c r="D35" s="3" t="n">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1315,10 +1295,10 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>46056.70833333334</v>
+        <v>46057.70833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>73.20010000000001</v>
+        <v>54.25392</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1326,7 +1306,7 @@
         </is>
       </c>
       <c r="D36" s="3" t="n">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1336,10 +1316,10 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>46056.72916666666</v>
+        <v>46057.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>101.25</v>
+        <v>63.04346</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1347,7 +1327,7 @@
         </is>
       </c>
       <c r="D37" s="3" t="n">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1357,10 +1337,10 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>46056.75</v>
+        <v>46057.75</v>
       </c>
       <c r="B38" t="n">
-        <v>101.25</v>
+        <v>135.18074</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1368,7 +1348,7 @@
         </is>
       </c>
       <c r="D38" s="3" t="n">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1378,10 +1358,10 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>46056.77083333334</v>
+        <v>46057.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>84.79000000000001</v>
+        <v>147.51</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1389,7 +1369,7 @@
         </is>
       </c>
       <c r="D39" s="3" t="n">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1399,18 +1379,18 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>46056.79166666666</v>
+        <v>46057.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>104.91701</v>
+        <v>253.85729</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D40" s="3" t="n">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1420,18 +1400,18 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>46056.8125</v>
+        <v>46057.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>105.79</v>
+        <v>279.91253</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D41" s="3" t="n">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1441,18 +1421,18 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>46056.83333333334</v>
+        <v>46057.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>103.03022</v>
+        <v>270.98806</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D42" s="3" t="n">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1462,18 +1442,18 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>46056.85416666666</v>
+        <v>46057.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>106.12755</v>
+        <v>197.20535</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D43" s="3" t="n">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1483,18 +1463,18 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>46056.875</v>
+        <v>46057.875</v>
       </c>
       <c r="B44" t="n">
-        <v>108.89</v>
+        <v>206.15985</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D44" s="3" t="n">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1504,18 +1484,18 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>46056.89583333334</v>
+        <v>46057.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>108.89</v>
+        <v>199.83008</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D45" s="3" t="n">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1525,18 +1505,18 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>46056.91666666666</v>
+        <v>46057.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>101.33</v>
+        <v>177.7</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D46" s="3" t="n">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1546,18 +1526,18 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>46056.9375</v>
+        <v>46057.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>101.53606</v>
+        <v>169.46567</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D47" s="3" t="n">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1567,18 +1547,18 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>46056.95833333334</v>
+        <v>46057.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>100.91363</v>
+        <v>167.20415</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D48" s="3" t="n">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1588,10 +1568,10 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>46056.97916666666</v>
+        <v>46057.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>84.79000000000001</v>
+        <v>185.35149</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1599,20 +1579,20 @@
         </is>
       </c>
       <c r="D49" s="3" t="n">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B50" t="n">
-        <v>97.73156</v>
+        <v>172.16256</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1620,20 +1600,20 @@
         </is>
       </c>
       <c r="D50" s="3" t="n">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>46057.02083333334</v>
+        <v>46058.02083333334</v>
       </c>
       <c r="B51" t="n">
-        <v>101.25</v>
+        <v>157.22924</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1641,20 +1621,20 @@
         </is>
       </c>
       <c r="D51" s="3" t="n">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>46057.04166666666</v>
+        <v>46058.04166666666</v>
       </c>
       <c r="B52" t="n">
-        <v>102.50664</v>
+        <v>154.79992</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1662,7 +1642,7 @@
         </is>
       </c>
       <c r="D52" s="3" t="n">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1672,10 +1652,10 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>46057.0625</v>
+        <v>46058.0625</v>
       </c>
       <c r="B53" t="n">
-        <v>101.25</v>
+        <v>138.42</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1683,7 +1663,7 @@
         </is>
       </c>
       <c r="D53" s="3" t="n">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1693,10 +1673,10 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>46057.08333333334</v>
+        <v>46058.08333333334</v>
       </c>
       <c r="B54" t="n">
-        <v>101.25</v>
+        <v>131.78002</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1704,7 +1684,7 @@
         </is>
       </c>
       <c r="D54" s="3" t="n">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1714,10 +1694,10 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>46057.10416666666</v>
+        <v>46058.10416666666</v>
       </c>
       <c r="B55" t="n">
-        <v>101.25</v>
+        <v>131.36389</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1725,7 +1705,7 @@
         </is>
       </c>
       <c r="D55" s="3" t="n">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1735,10 +1715,10 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>46057.125</v>
+        <v>46058.125</v>
       </c>
       <c r="B56" t="n">
-        <v>89.36893999999999</v>
+        <v>127.50879</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1746,7 +1726,7 @@
         </is>
       </c>
       <c r="D56" s="3" t="n">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1756,10 +1736,10 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>46057.14583333334</v>
+        <v>46058.14583333334</v>
       </c>
       <c r="B57" t="n">
-        <v>84.90018999999999</v>
+        <v>133.42576</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1767,20 +1747,20 @@
         </is>
       </c>
       <c r="D57" s="3" t="n">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>46057.16666666666</v>
+        <v>46058.16666666666</v>
       </c>
       <c r="B58" t="n">
-        <v>84.79000000000001</v>
+        <v>130.3985</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1788,20 +1768,20 @@
         </is>
       </c>
       <c r="D58" s="3" t="n">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>46057.1875</v>
+        <v>46058.1875</v>
       </c>
       <c r="B59" t="n">
-        <v>100.3</v>
+        <v>138.42</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1809,20 +1789,20 @@
         </is>
       </c>
       <c r="D59" s="3" t="n">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>46057.20833333334</v>
+        <v>46058.20833333334</v>
       </c>
       <c r="B60" t="n">
-        <v>105.79</v>
+        <v>158.84773</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1830,7 +1810,7 @@
         </is>
       </c>
       <c r="D60" s="3" t="n">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -1840,10 +1820,10 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>46057.22916666666</v>
+        <v>46058.22916666666</v>
       </c>
       <c r="B61" t="n">
-        <v>110.39857</v>
+        <v>154.2</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1851,7 +1831,7 @@
         </is>
       </c>
       <c r="D61" s="3" t="n">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -1861,10 +1841,10 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>46057.25</v>
+        <v>46058.25</v>
       </c>
       <c r="B62" t="n">
-        <v>108.89</v>
+        <v>243.67105</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1872,7 +1852,7 @@
         </is>
       </c>
       <c r="D62" s="3" t="n">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1882,10 +1862,10 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>46057.27083333334</v>
+        <v>46058.27083333334</v>
       </c>
       <c r="B63" t="n">
-        <v>115.90225</v>
+        <v>154.2</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1893,7 +1873,7 @@
         </is>
       </c>
       <c r="D63" s="3" t="n">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -1903,10 +1883,10 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>46057.29166666666</v>
+        <v>46058.29166666666</v>
       </c>
       <c r="B64" t="n">
-        <v>84.79000000000001</v>
+        <v>83.1707</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1914,7 +1894,7 @@
         </is>
       </c>
       <c r="D64" s="3" t="n">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -1924,10 +1904,10 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>46057.3125</v>
+        <v>46058.3125</v>
       </c>
       <c r="B65" t="n">
-        <v>57.06007</v>
+        <v>56.98</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1935,7 +1915,7 @@
         </is>
       </c>
       <c r="D65" s="3" t="n">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -1945,10 +1925,10 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>46057.33333333334</v>
+        <v>46058.33333333334</v>
       </c>
       <c r="B66" t="n">
-        <v>38.68104</v>
+        <v>36.0601</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1956,7 +1936,7 @@
         </is>
       </c>
       <c r="D66" s="3" t="n">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -1966,10 +1946,10 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>46057.35416666666</v>
+        <v>46058.35416666666</v>
       </c>
       <c r="B67" t="n">
-        <v>32.96129</v>
+        <v>36.06004</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1977,7 +1957,7 @@
         </is>
       </c>
       <c r="D67" s="3" t="n">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -1987,10 +1967,10 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>46057.375</v>
+        <v>46058.375</v>
       </c>
       <c r="B68" t="n">
-        <v>21.5418</v>
+        <v>36.05963</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1998,7 +1978,7 @@
         </is>
       </c>
       <c r="D68" s="3" t="n">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2008,10 +1988,10 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>46057.39583333334</v>
+        <v>46058.39583333334</v>
       </c>
       <c r="B69" t="n">
-        <v>0.7</v>
+        <v>23.74829</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2019,7 +1999,7 @@
         </is>
       </c>
       <c r="D69" s="3" t="n">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2029,10 +2009,10 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>46057.41666666666</v>
+        <v>46058.41666666666</v>
       </c>
       <c r="B70" t="n">
-        <v>0.01101</v>
+        <v>35.51281</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2040,7 +2020,7 @@
         </is>
       </c>
       <c r="D70" s="3" t="n">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2050,10 +2030,10 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>46057.4375</v>
+        <v>46058.4375</v>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>36.0601</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2061,7 +2041,7 @@
         </is>
       </c>
       <c r="D71" s="3" t="n">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2071,10 +2051,10 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>46057.45833333334</v>
+        <v>46058.45833333334</v>
       </c>
       <c r="B72" t="n">
-        <v>-2.54301</v>
+        <v>36.0601</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2082,7 +2062,7 @@
         </is>
       </c>
       <c r="D72" s="3" t="n">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2092,10 +2072,10 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>46057.47916666666</v>
+        <v>46058.47916666666</v>
       </c>
       <c r="B73" t="n">
-        <v>-1.15096</v>
+        <v>36.0601</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2103,7 +2083,7 @@
         </is>
       </c>
       <c r="D73" s="3" t="n">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2113,10 +2093,10 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>46057.5</v>
+        <v>46058.5</v>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v>36.0601</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2124,7 +2104,7 @@
         </is>
       </c>
       <c r="D74" s="3" t="n">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2134,10 +2114,10 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>46057.52083333334</v>
+        <v>46058.52083333334</v>
       </c>
       <c r="B75" t="n">
-        <v>-4.67865</v>
+        <v>36.0601</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2145,7 +2125,7 @@
         </is>
       </c>
       <c r="D75" s="3" t="n">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2155,10 +2135,10 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>46057.54166666666</v>
+        <v>46058.54166666666</v>
       </c>
       <c r="B76" t="n">
-        <v>-4.70553</v>
+        <v>36.0601</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2166,7 +2146,7 @@
         </is>
       </c>
       <c r="D76" s="3" t="n">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2176,10 +2156,10 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>46057.5625</v>
+        <v>46058.5625</v>
       </c>
       <c r="B77" t="n">
-        <v>0.50986</v>
+        <v>57.06007</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2187,7 +2167,7 @@
         </is>
       </c>
       <c r="D77" s="3" t="n">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2197,10 +2177,10 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>46057.58333333334</v>
+        <v>46058.58333333334</v>
       </c>
       <c r="B78" t="n">
-        <v>-1.04393</v>
+        <v>57.06007</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2208,7 +2188,7 @@
         </is>
       </c>
       <c r="D78" s="3" t="n">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2218,10 +2198,10 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>46057.60416666666</v>
+        <v>46058.60416666666</v>
       </c>
       <c r="B79" t="n">
-        <v>2e-05</v>
+        <v>57.06018</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2229,7 +2209,7 @@
         </is>
       </c>
       <c r="D79" s="3" t="n">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2239,10 +2219,10 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>46057.625</v>
+        <v>46058.625</v>
       </c>
       <c r="B80" t="n">
-        <v>0.51</v>
+        <v>57.08</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2250,7 +2230,7 @@
         </is>
       </c>
       <c r="D80" s="3" t="n">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2260,10 +2240,10 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>46057.64583333334</v>
+        <v>46058.64583333334</v>
       </c>
       <c r="B81" t="n">
-        <v>9.185280000000001</v>
+        <v>96.93053999999999</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2271,20 +2251,20 @@
         </is>
       </c>
       <c r="D81" s="3" t="n">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>46057.66666666666</v>
+        <v>46058.66666666666</v>
       </c>
       <c r="B82" t="n">
-        <v>20.89615</v>
+        <v>146.63267</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2292,7 +2272,7 @@
         </is>
       </c>
       <c r="D82" s="3" t="n">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2302,10 +2282,10 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>46057.6875</v>
+        <v>46058.6875</v>
       </c>
       <c r="B83" t="n">
-        <v>36.0601</v>
+        <v>154.2</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2313,7 +2293,7 @@
         </is>
       </c>
       <c r="D83" s="3" t="n">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2323,10 +2303,10 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>46057.70833333334</v>
+        <v>46058.70833333334</v>
       </c>
       <c r="B84" t="n">
-        <v>54.25499</v>
+        <v>299.75</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2334,7 +2314,7 @@
         </is>
       </c>
       <c r="D84" s="3" t="n">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2344,10 +2324,10 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>46057.72916666666</v>
+        <v>46058.72916666666</v>
       </c>
       <c r="B85" t="n">
-        <v>63.05162</v>
+        <v>299.75</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2355,7 +2335,7 @@
         </is>
       </c>
       <c r="D85" s="3" t="n">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2365,10 +2345,10 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>46057.75</v>
+        <v>46058.75</v>
       </c>
       <c r="B86" t="n">
-        <v>69.26626</v>
+        <v>11210.61073</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2376,7 +2356,7 @@
         </is>
       </c>
       <c r="D86" s="3" t="n">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2386,10 +2366,10 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>46057.77083333334</v>
+        <v>46058.77083333334</v>
       </c>
       <c r="B87" t="n">
-        <v>102.96323</v>
+        <v>10358.32413</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2397,7 +2377,7 @@
         </is>
       </c>
       <c r="D87" s="3" t="n">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2407,10 +2387,10 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>46057.79166666666</v>
+        <v>46058.79166666666</v>
       </c>
       <c r="B88" t="n">
-        <v>135.5606</v>
+        <v>10428.42356</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2418,7 +2398,7 @@
         </is>
       </c>
       <c r="D88" s="3" t="n">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2428,10 +2408,10 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>46057.8125</v>
+        <v>46058.8125</v>
       </c>
       <c r="B89" t="n">
-        <v>141.98066</v>
+        <v>1131.23511</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2439,7 +2419,7 @@
         </is>
       </c>
       <c r="D89" s="3" t="n">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2449,10 +2429,10 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>46057.83333333334</v>
+        <v>46058.83333333334</v>
       </c>
       <c r="B90" t="n">
-        <v>169.53226</v>
+        <v>578.62218</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2460,7 +2440,7 @@
         </is>
       </c>
       <c r="D90" s="3" t="n">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2470,10 +2450,10 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>46057.85416666666</v>
+        <v>46058.85416666666</v>
       </c>
       <c r="B91" t="n">
-        <v>150.50671</v>
+        <v>256.84405</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2481,7 +2461,7 @@
         </is>
       </c>
       <c r="D91" s="3" t="n">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -2491,10 +2471,10 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>46057.875</v>
+        <v>46058.875</v>
       </c>
       <c r="B92" t="n">
-        <v>142.08175</v>
+        <v>274.1442</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2502,7 +2482,7 @@
         </is>
       </c>
       <c r="D92" s="3" t="n">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -2512,10 +2492,10 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>46057.89583333334</v>
+        <v>46058.89583333334</v>
       </c>
       <c r="B93" t="n">
-        <v>118.30564</v>
+        <v>174.25413</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2523,7 +2503,7 @@
         </is>
       </c>
       <c r="D93" s="3" t="n">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2533,10 +2513,10 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>46057.91666666666</v>
+        <v>46058.91666666666</v>
       </c>
       <c r="B94" t="n">
-        <v>115.04338</v>
+        <v>122.3245</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2544,7 +2524,7 @@
         </is>
       </c>
       <c r="D94" s="3" t="n">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -2554,10 +2534,10 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>46057.9375</v>
+        <v>46058.9375</v>
       </c>
       <c r="B95" t="n">
-        <v>113.3996</v>
+        <v>121.58413</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2565,7 +2545,7 @@
         </is>
       </c>
       <c r="D95" s="3" t="n">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2575,10 +2555,10 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>46057.95833333334</v>
+        <v>46058.95833333334</v>
       </c>
       <c r="B96" t="n">
-        <v>111.84804</v>
+        <v>105.79</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2586,7 +2566,7 @@
         </is>
       </c>
       <c r="D96" s="3" t="n">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -2596,10 +2576,10 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>46057.97916666666</v>
+        <v>46058.97916666666</v>
       </c>
       <c r="B97" t="n">
-        <v>115.71339</v>
+        <v>100.12595</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -2607,7 +2587,7 @@
         </is>
       </c>
       <c r="D97" s="3" t="n">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -478,47 +478,47 @@
         <v>46058</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>46058.22916666666</v>
+        <v>46058.20833333334</v>
       </c>
       <c r="C2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>20.79</v>
+        <v>18.9</v>
       </c>
       <c r="E2" t="n">
-        <v>1511.7124035</v>
+        <v>1361.3674035</v>
       </c>
       <c r="F2" t="n">
-        <v>72.71343932178932</v>
+        <v>72.03002134920635</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46058.27083333334</v>
+        <v>46058.29166666666</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>46058.66666666666</v>
       </c>
       <c r="C3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>35.91</v>
+        <v>34.02</v>
       </c>
       <c r="E3" t="n">
-        <v>1003.92841575</v>
+        <v>853.5834157500001</v>
       </c>
       <c r="F3" t="n">
-        <v>27.95679241854638</v>
+        <v>25.09063538359789</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46058.95833333334</v>
+        <v>46058.91666666666</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>46059.1875</v>
+        <v>46059.14583333334</v>
       </c>
       <c r="C4" t="n">
         <v>5.5</v>
@@ -527,10 +527,10 @@
         <v>20.79</v>
       </c>
       <c r="E4" t="n">
-        <v>1501.566846</v>
+        <v>1521.22143225</v>
       </c>
       <c r="F4" t="n">
-        <v>72.22543751803752</v>
+        <v>73.17082406204906</v>
       </c>
     </row>
     <row r="5">
@@ -538,19 +538,19 @@
         <v>46059.29166666666</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>46059.60416666666</v>
+        <v>46059.64583333334</v>
       </c>
       <c r="C5" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="D5" t="n">
-        <v>28.35</v>
+        <v>32.13</v>
       </c>
       <c r="E5" t="n">
-        <v>736.2810097500001</v>
+        <v>729.14001225</v>
       </c>
       <c r="F5" t="n">
-        <v>25.97111145502646</v>
+        <v>22.69343330999067</v>
       </c>
     </row>
   </sheetData>
@@ -826,7 +826,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -889,7 +889,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1360,7 +1360,7 @@
         <v>46058.75</v>
       </c>
       <c r="B38" t="n">
-        <v>992.33</v>
+        <v>12313.45737</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>46058.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>9916.038399999999</v>
+        <v>10364.32948</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1402,11 +1402,11 @@
         <v>46058.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>10502.46506</v>
+        <v>10486.99271</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D40" s="3" t="n">
@@ -1423,11 +1423,11 @@
         <v>46058.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>294.94232</v>
+        <v>1165.90971</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D41" s="3" t="n">
@@ -1444,11 +1444,11 @@
         <v>46058.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>323.40166</v>
+        <v>1129.92235</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D42" s="3" t="n">
@@ -1465,11 +1465,11 @@
         <v>46058.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>249.38041</v>
+        <v>599.6182</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D43" s="3" t="n">
@@ -1486,11 +1486,11 @@
         <v>46058.875</v>
       </c>
       <c r="B44" t="n">
-        <v>328.20671</v>
+        <v>299.99</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D44" s="3" t="n">
@@ -1507,11 +1507,11 @@
         <v>46058.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>299.99</v>
+        <v>299.98</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D45" s="3" t="n">
@@ -1528,11 +1528,11 @@
         <v>46058.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>283.49032</v>
+        <v>140.16864</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D46" s="3" t="n">
@@ -1540,7 +1540,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1549,11 +1549,11 @@
         <v>46058.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>174.54082</v>
+        <v>138.63456</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D47" s="3" t="n">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1570,11 +1570,11 @@
         <v>46058.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>150.58028</v>
+        <v>150.88824</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D48" s="3" t="n">
@@ -1591,7 +1591,7 @@
         <v>46058.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>138.42</v>
+        <v>133.92999</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>46059</v>
       </c>
       <c r="B50" t="n">
-        <v>138.41994</v>
+        <v>138.42</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>46059.02083333334</v>
       </c>
       <c r="B51" t="n">
-        <v>130.94034</v>
+        <v>141.23793</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>46059.04166666666</v>
       </c>
       <c r="B52" t="n">
-        <v>131.65737</v>
+        <v>138.42</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>46059.0625</v>
       </c>
       <c r="B53" t="n">
-        <v>140.00835</v>
+        <v>138.42</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         <v>46059.08333333334</v>
       </c>
       <c r="B54" t="n">
-        <v>131.81592</v>
+        <v>138.41996</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
         <v>46059.125</v>
       </c>
       <c r="B56" t="n">
-        <v>138.42</v>
+        <v>163.26779</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1759,7 +1759,7 @@
         <v>46059.14583333334</v>
       </c>
       <c r="B57" t="n">
-        <v>147.18636</v>
+        <v>162.21248</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1780,7 +1780,7 @@
         <v>46059.16666666666</v>
       </c>
       <c r="B58" t="n">
-        <v>154.2</v>
+        <v>180.61696</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1801,7 +1801,7 @@
         <v>46059.1875</v>
       </c>
       <c r="B59" t="n">
-        <v>188.01924</v>
+        <v>197.96695</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>46059.20833333334</v>
       </c>
       <c r="B60" t="n">
-        <v>196.7937</v>
+        <v>232.46122</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>46059.22916666666</v>
       </c>
       <c r="B61" t="n">
-        <v>226.00379</v>
+        <v>169.81627</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>46059.25</v>
       </c>
       <c r="B62" t="n">
-        <v>299.75</v>
+        <v>267.85792</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>46059.27083333334</v>
       </c>
       <c r="B63" t="n">
-        <v>249.54616</v>
+        <v>179.56561</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>46059.29166666666</v>
       </c>
       <c r="B64" t="n">
-        <v>138.42</v>
+        <v>108.89</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         <v>46059.3125</v>
       </c>
       <c r="B65" t="n">
-        <v>69.03261999999999</v>
+        <v>72.59603</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>46059.33333333334</v>
       </c>
       <c r="B66" t="n">
-        <v>57.08</v>
+        <v>58.78186</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>46059.35416666666</v>
       </c>
       <c r="B67" t="n">
-        <v>57.02707</v>
+        <v>56.98</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>46059.41666666666</v>
       </c>
       <c r="B70" t="n">
-        <v>36.06</v>
+        <v>0.51</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>46059.4375</v>
       </c>
       <c r="B71" t="n">
-        <v>35.96</v>
+        <v>0.50992</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         <v>46059.45833333334</v>
       </c>
       <c r="B72" t="n">
-        <v>35.96</v>
+        <v>0.50993</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>46059.47916666666</v>
       </c>
       <c r="B73" t="n">
-        <v>36.06</v>
+        <v>0.51</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>46059.5</v>
       </c>
       <c r="B74" t="n">
-        <v>36.06</v>
+        <v>0.51</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>46059.52083333334</v>
       </c>
       <c r="B75" t="n">
-        <v>36.06027</v>
+        <v>-5.11183</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
         <v>46059.54166666666</v>
       </c>
       <c r="B76" t="n">
-        <v>36.06</v>
+        <v>0.51</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>46059.5625</v>
       </c>
       <c r="B77" t="n">
-        <v>73.20005</v>
+        <v>36.06</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -2242,7 +2242,7 @@
         <v>46059.625</v>
       </c>
       <c r="B80" t="n">
-        <v>240.9</v>
+        <v>154.2</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -2284,7 +2284,7 @@
         <v>46059.66666666666</v>
       </c>
       <c r="B82" t="n">
-        <v>9240.440000000001</v>
+        <v>919.99</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>46059.6875</v>
       </c>
       <c r="B83" t="n">
-        <v>919.99</v>
+        <v>299.75</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>46059.70833333334</v>
       </c>
       <c r="B84" t="n">
-        <v>12220.83666</v>
+        <v>12224.9073</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         <v>46059.72916666666</v>
       </c>
       <c r="B85" t="n">
-        <v>12274.37936</v>
+        <v>12289.93225</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>46059.75</v>
       </c>
       <c r="B86" t="n">
-        <v>12302.04436</v>
+        <v>12301.17287</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         <v>46059.77083333334</v>
       </c>
       <c r="B87" t="n">
-        <v>12314.47539</v>
+        <v>12328.72822</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>46059.79166666666</v>
       </c>
       <c r="B88" t="n">
-        <v>20256.71781</v>
+        <v>12927.09746</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>46059.83333333334</v>
       </c>
       <c r="B90" t="n">
-        <v>1273.91</v>
+        <v>20222.9</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>46059.85416666666</v>
       </c>
       <c r="B91" t="n">
-        <v>489.28028</v>
+        <v>352.7553</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>46059.875</v>
       </c>
       <c r="B92" t="n">
-        <v>457.38179</v>
+        <v>299.99</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>46059.89583333334</v>
       </c>
       <c r="B93" t="n">
-        <v>254.4264</v>
+        <v>248.84013</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>46059.91666666666</v>
       </c>
       <c r="B94" t="n">
-        <v>238.74801</v>
+        <v>207.38775</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2557,7 +2557,7 @@
         <v>46059.9375</v>
       </c>
       <c r="B95" t="n">
-        <v>188.61897</v>
+        <v>188.52289</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>46059.95833333334</v>
       </c>
       <c r="B96" t="n">
-        <v>105.79</v>
+        <v>122.25984</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>46059.97916666666</v>
       </c>
       <c r="B97" t="n">
-        <v>108.89</v>
+        <v>138.42</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,82 +475,102 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>46058.20833333334</v>
+        <v>46059.16666666666</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>18.9</v>
+        <v>15.12</v>
       </c>
       <c r="E2" t="n">
-        <v>1361.3674035</v>
+        <v>995.5691849999998</v>
       </c>
       <c r="F2" t="n">
-        <v>72.03002134920635</v>
+        <v>65.84452281746032</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46058.29166666666</v>
+        <v>46059.29166666666</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>46058.66666666666</v>
+        <v>46059.625</v>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>34.02</v>
+        <v>30.24</v>
       </c>
       <c r="E3" t="n">
-        <v>853.5834157500001</v>
+        <v>460.1391307499999</v>
       </c>
       <c r="F3" t="n">
-        <v>25.09063538359789</v>
+        <v>15.21624109623016</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46058.91666666666</v>
+        <v>46059.83333333334</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>46059.14583333334</v>
+        <v>46060</v>
       </c>
       <c r="C4" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>20.79</v>
+        <v>15.12</v>
       </c>
       <c r="E4" t="n">
-        <v>1521.22143225</v>
+        <v>1036.76657175</v>
       </c>
       <c r="F4" t="n">
-        <v>73.17082406204906</v>
+        <v>68.56921770833333</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46059.29166666666</v>
+        <v>46060.29166666666</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>46059.64583333334</v>
+        <v>46060.5625</v>
       </c>
       <c r="C5" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="D5" t="n">
-        <v>32.13</v>
+        <v>24.57</v>
       </c>
       <c r="E5" t="n">
-        <v>729.14001225</v>
+        <v>761.5728315000002</v>
       </c>
       <c r="F5" t="n">
-        <v>22.69343330999067</v>
+        <v>30.99604523809525</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>46060.75</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>46060.97916666666</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>20.79</v>
+      </c>
+      <c r="E6" t="n">
+        <v>979.2702075</v>
+      </c>
+      <c r="F6" t="n">
+        <v>47.10294408369408</v>
       </c>
     </row>
   </sheetData>
@@ -601,10 +621,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B2" t="n">
-        <v>144.95384</v>
+        <v>109.33707</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -612,7 +632,7 @@
         </is>
       </c>
       <c r="D2" s="3" t="n">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -622,10 +642,10 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46058.02083333334</v>
+        <v>46059.02083333334</v>
       </c>
       <c r="B3" t="n">
-        <v>139.14219</v>
+        <v>126.20139</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -633,7 +653,7 @@
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -643,10 +663,10 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46058.04166666666</v>
+        <v>46059.04166666666</v>
       </c>
       <c r="B4" t="n">
-        <v>139.95683</v>
+        <v>108.89</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -654,7 +674,7 @@
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -664,10 +684,10 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46058.0625</v>
+        <v>46059.0625</v>
       </c>
       <c r="B5" t="n">
-        <v>138.42</v>
+        <v>132.77416</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -675,7 +695,7 @@
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -685,10 +705,10 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>46058.08333333334</v>
+        <v>46059.08333333334</v>
       </c>
       <c r="B6" t="n">
-        <v>138.41996</v>
+        <v>131.22401</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -696,7 +716,7 @@
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -706,10 +726,10 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>46058.10416666666</v>
+        <v>46059.10416666666</v>
       </c>
       <c r="B7" t="n">
-        <v>138.41996</v>
+        <v>135.82997</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -717,7 +737,7 @@
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -727,7 +747,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>46058.125</v>
+        <v>46059.125</v>
       </c>
       <c r="B8" t="n">
         <v>138.42</v>
@@ -738,7 +758,7 @@
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -748,7 +768,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>46058.14583333334</v>
+        <v>46059.14583333334</v>
       </c>
       <c r="B9" t="n">
         <v>138.42</v>
@@ -759,7 +779,7 @@
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -769,10 +789,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>46058.16666666666</v>
+        <v>46059.16666666666</v>
       </c>
       <c r="B10" t="n">
-        <v>138.42</v>
+        <v>153.01</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -780,20 +800,20 @@
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>46058.1875</v>
+        <v>46059.1875</v>
       </c>
       <c r="B11" t="n">
-        <v>141.70148</v>
+        <v>195.68028</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -801,20 +821,20 @@
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>46058.20833333334</v>
+        <v>46059.20833333334</v>
       </c>
       <c r="B12" t="n">
-        <v>154.2</v>
+        <v>235.35339</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -822,7 +842,7 @@
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -832,10 +852,10 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>46058.22916666666</v>
+        <v>46059.22916666666</v>
       </c>
       <c r="B13" t="n">
-        <v>161.08119</v>
+        <v>227.37697</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -843,7 +863,7 @@
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -853,10 +873,10 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>46058.25</v>
+        <v>46059.25</v>
       </c>
       <c r="B14" t="n">
-        <v>182.04218</v>
+        <v>286.19889</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -864,7 +884,7 @@
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -874,10 +894,10 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>46058.27083333334</v>
+        <v>46059.27083333334</v>
       </c>
       <c r="B15" t="n">
-        <v>154.2</v>
+        <v>245.61799</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -885,7 +905,7 @@
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -895,10 +915,10 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>46058.29166666666</v>
+        <v>46059.29166666666</v>
       </c>
       <c r="B16" t="n">
-        <v>101.93969</v>
+        <v>108.89</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -906,7 +926,7 @@
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -916,10 +936,10 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>46058.3125</v>
+        <v>46059.3125</v>
       </c>
       <c r="B17" t="n">
-        <v>57.08</v>
+        <v>61.03948</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -927,7 +947,7 @@
         </is>
       </c>
       <c r="D17" s="3" t="n">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -937,10 +957,10 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>46058.33333333334</v>
+        <v>46059.33333333334</v>
       </c>
       <c r="B18" t="n">
-        <v>53.78355</v>
+        <v>59.15131</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -948,7 +968,7 @@
         </is>
       </c>
       <c r="D18" s="3" t="n">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -958,10 +978,10 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>46058.35416666666</v>
+        <v>46059.35416666666</v>
       </c>
       <c r="B19" t="n">
-        <v>36.06004</v>
+        <v>56.98</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -969,7 +989,7 @@
         </is>
       </c>
       <c r="D19" s="3" t="n">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -979,10 +999,10 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>46058.375</v>
+        <v>46059.375</v>
       </c>
       <c r="B20" t="n">
-        <v>36.06004</v>
+        <v>36.06</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -990,7 +1010,7 @@
         </is>
       </c>
       <c r="D20" s="3" t="n">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1000,10 +1020,10 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>46058.39583333334</v>
+        <v>46059.39583333334</v>
       </c>
       <c r="B21" t="n">
-        <v>20.81988</v>
+        <v>36.06</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1011,7 +1031,7 @@
         </is>
       </c>
       <c r="D21" s="3" t="n">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1021,10 +1041,10 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>46058.41666666666</v>
+        <v>46059.41666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>24.78109</v>
+        <v>0.51</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1032,7 +1052,7 @@
         </is>
       </c>
       <c r="D22" s="3" t="n">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1042,10 +1062,10 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>46058.4375</v>
+        <v>46059.4375</v>
       </c>
       <c r="B23" t="n">
-        <v>36.0601</v>
+        <v>0.50992</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1053,7 +1073,7 @@
         </is>
       </c>
       <c r="D23" s="3" t="n">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1063,10 +1083,10 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>46058.45833333334</v>
+        <v>46059.45833333334</v>
       </c>
       <c r="B24" t="n">
-        <v>36.0601</v>
+        <v>0.50993</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1074,7 +1094,7 @@
         </is>
       </c>
       <c r="D24" s="3" t="n">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1084,10 +1104,10 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>46058.47916666666</v>
+        <v>46059.47916666666</v>
       </c>
       <c r="B25" t="n">
-        <v>36.0601</v>
+        <v>0.50993</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1095,7 +1115,7 @@
         </is>
       </c>
       <c r="D25" s="3" t="n">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1105,10 +1125,10 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>46058.5</v>
+        <v>46059.5</v>
       </c>
       <c r="B26" t="n">
-        <v>36.0601</v>
+        <v>-0.13867</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1116,7 +1136,7 @@
         </is>
       </c>
       <c r="D26" s="3" t="n">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1126,10 +1146,10 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>46058.52083333334</v>
+        <v>46059.52083333334</v>
       </c>
       <c r="B27" t="n">
-        <v>36.0601</v>
+        <v>-5.50985</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1137,7 +1157,7 @@
         </is>
       </c>
       <c r="D27" s="3" t="n">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1147,10 +1167,10 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>46058.54166666666</v>
+        <v>46059.54166666666</v>
       </c>
       <c r="B28" t="n">
-        <v>36.0601</v>
+        <v>0.51</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1158,7 +1178,7 @@
         </is>
       </c>
       <c r="D28" s="3" t="n">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1168,10 +1188,10 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>46058.5625</v>
+        <v>46059.5625</v>
       </c>
       <c r="B29" t="n">
-        <v>36.0601</v>
+        <v>36.06</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1179,7 +1199,7 @@
         </is>
       </c>
       <c r="D29" s="3" t="n">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1189,10 +1209,10 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>46058.58333333334</v>
+        <v>46059.58333333334</v>
       </c>
       <c r="B30" t="n">
-        <v>36.0601</v>
+        <v>0.71552</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1200,7 +1220,7 @@
         </is>
       </c>
       <c r="D30" s="3" t="n">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1210,10 +1230,10 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>46058.60416666666</v>
+        <v>46059.60416666666</v>
       </c>
       <c r="B31" t="n">
-        <v>36.0601</v>
+        <v>80.08</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1221,7 +1241,7 @@
         </is>
       </c>
       <c r="D31" s="3" t="n">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1231,10 +1251,10 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>46058.625</v>
+        <v>46059.625</v>
       </c>
       <c r="B32" t="n">
-        <v>74.10493</v>
+        <v>154.2</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1242,20 +1262,20 @@
         </is>
       </c>
       <c r="D32" s="3" t="n">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>46058.64583333334</v>
+        <v>46059.64583333334</v>
       </c>
       <c r="B33" t="n">
-        <v>146.30005</v>
+        <v>299.75</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1263,20 +1283,20 @@
         </is>
       </c>
       <c r="D33" s="3" t="n">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>46058.66666666666</v>
+        <v>46059.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>154.2</v>
+        <v>2164.51739</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1284,7 +1304,7 @@
         </is>
       </c>
       <c r="D34" s="3" t="n">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1294,7 +1314,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>46058.6875</v>
+        <v>46059.6875</v>
       </c>
       <c r="B35" t="n">
         <v>299.75</v>
@@ -1305,7 +1325,7 @@
         </is>
       </c>
       <c r="D35" s="3" t="n">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1315,10 +1335,10 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>46058.70833333334</v>
+        <v>46059.70833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>299.75</v>
+        <v>12228.98287</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1326,7 +1346,7 @@
         </is>
       </c>
       <c r="D36" s="3" t="n">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1336,10 +1356,10 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>46058.72916666666</v>
+        <v>46059.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>299.75</v>
+        <v>12289.28552</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1347,7 +1367,7 @@
         </is>
       </c>
       <c r="D37" s="3" t="n">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1357,10 +1377,10 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>46058.75</v>
+        <v>46059.75</v>
       </c>
       <c r="B38" t="n">
-        <v>12313.45737</v>
+        <v>113.39106</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1368,7 +1388,7 @@
         </is>
       </c>
       <c r="D38" s="3" t="n">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1378,10 +1398,10 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>46058.77083333334</v>
+        <v>46059.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>10364.32948</v>
+        <v>83.68558</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1389,7 +1409,7 @@
         </is>
       </c>
       <c r="D39" s="3" t="n">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1399,18 +1419,18 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>46058.79166666666</v>
+        <v>46059.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>10486.99271</v>
+        <v>127.85435</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D40" s="3" t="n">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1420,18 +1440,18 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>46058.8125</v>
+        <v>46059.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>1165.90971</v>
+        <v>135.76546</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D41" s="3" t="n">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1441,102 +1461,102 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>46058.83333333334</v>
+        <v>46059.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>1129.92235</v>
+        <v>132.11181</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D42" s="3" t="n">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>46058.85416666666</v>
+        <v>46059.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>599.6182</v>
+        <v>118.33893</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D43" s="3" t="n">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>46058.875</v>
+        <v>46059.875</v>
       </c>
       <c r="B44" t="n">
-        <v>299.99</v>
+        <v>126.50639</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D44" s="3" t="n">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>46058.89583333334</v>
+        <v>46059.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>299.98</v>
+        <v>133.03395</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D45" s="3" t="n">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>46058.91666666666</v>
+        <v>46059.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>140.16864</v>
+        <v>136.27037</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D46" s="3" t="n">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1546,18 +1566,18 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>46058.9375</v>
+        <v>46059.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>138.63456</v>
+        <v>140.24888</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D47" s="3" t="n">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1567,18 +1587,18 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>46058.95833333334</v>
+        <v>46059.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>150.88824</v>
+        <v>138.42</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D48" s="3" t="n">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1588,10 +1608,10 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>46058.97916666666</v>
+        <v>46059.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>133.92999</v>
+        <v>138.42</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1599,7 +1619,7 @@
         </is>
       </c>
       <c r="D49" s="3" t="n">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1609,7 +1629,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="B50" t="n">
         <v>138.42</v>
@@ -1620,20 +1640,20 @@
         </is>
       </c>
       <c r="D50" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>46059.02083333334</v>
+        <v>46060.02083333334</v>
       </c>
       <c r="B51" t="n">
-        <v>141.23793</v>
+        <v>123.9668</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1641,20 +1661,20 @@
         </is>
       </c>
       <c r="D51" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>46059.04166666666</v>
+        <v>46060.04166666666</v>
       </c>
       <c r="B52" t="n">
-        <v>138.42</v>
+        <v>131.10934</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1662,20 +1682,20 @@
         </is>
       </c>
       <c r="D52" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>46059.0625</v>
+        <v>46060.0625</v>
       </c>
       <c r="B53" t="n">
-        <v>138.42</v>
+        <v>108.89</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1683,20 +1703,20 @@
         </is>
       </c>
       <c r="D53" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>46059.08333333334</v>
+        <v>46060.08333333334</v>
       </c>
       <c r="B54" t="n">
-        <v>138.41996</v>
+        <v>108.89</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1704,20 +1724,20 @@
         </is>
       </c>
       <c r="D54" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>46059.10416666666</v>
+        <v>46060.10416666666</v>
       </c>
       <c r="B55" t="n">
-        <v>138.42</v>
+        <v>108.89</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1725,20 +1745,20 @@
         </is>
       </c>
       <c r="D55" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>46059.125</v>
+        <v>46060.125</v>
       </c>
       <c r="B56" t="n">
-        <v>163.26779</v>
+        <v>108.89</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1746,20 +1766,20 @@
         </is>
       </c>
       <c r="D56" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>46059.14583333334</v>
+        <v>46060.14583333334</v>
       </c>
       <c r="B57" t="n">
-        <v>162.21248</v>
+        <v>108.43639</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1767,7 +1787,7 @@
         </is>
       </c>
       <c r="D57" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -1777,10 +1797,10 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>46059.16666666666</v>
+        <v>46060.16666666666</v>
       </c>
       <c r="B58" t="n">
-        <v>180.61696</v>
+        <v>108.89</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1788,7 +1808,7 @@
         </is>
       </c>
       <c r="D58" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1798,10 +1818,10 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>46059.1875</v>
+        <v>46060.1875</v>
       </c>
       <c r="B59" t="n">
-        <v>197.96695</v>
+        <v>108.89</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1809,7 +1829,7 @@
         </is>
       </c>
       <c r="D59" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1819,10 +1839,10 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>46059.20833333334</v>
+        <v>46060.20833333334</v>
       </c>
       <c r="B60" t="n">
-        <v>232.46122</v>
+        <v>108.89</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1830,7 +1850,7 @@
         </is>
       </c>
       <c r="D60" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -1840,10 +1860,10 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>46059.22916666666</v>
+        <v>46060.22916666666</v>
       </c>
       <c r="B61" t="n">
-        <v>169.81627</v>
+        <v>105.79</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1851,7 +1871,7 @@
         </is>
       </c>
       <c r="D61" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -1861,10 +1881,10 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>46059.25</v>
+        <v>46060.25</v>
       </c>
       <c r="B62" t="n">
-        <v>267.85792</v>
+        <v>108.89</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1872,7 +1892,7 @@
         </is>
       </c>
       <c r="D62" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1882,10 +1902,10 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>46059.27083333334</v>
+        <v>46060.27083333334</v>
       </c>
       <c r="B63" t="n">
-        <v>179.56561</v>
+        <v>102.11206</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1893,7 +1913,7 @@
         </is>
       </c>
       <c r="D63" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -1903,10 +1923,10 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>46059.29166666666</v>
+        <v>46060.29166666666</v>
       </c>
       <c r="B64" t="n">
-        <v>108.89</v>
+        <v>64.89</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1914,7 +1934,7 @@
         </is>
       </c>
       <c r="D64" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -1924,10 +1944,10 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>46059.3125</v>
+        <v>46060.3125</v>
       </c>
       <c r="B65" t="n">
-        <v>72.59603</v>
+        <v>65.00005</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1935,7 +1955,7 @@
         </is>
       </c>
       <c r="D65" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -1945,10 +1965,10 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>46059.33333333334</v>
+        <v>46060.33333333334</v>
       </c>
       <c r="B66" t="n">
-        <v>58.78186</v>
+        <v>57.06007</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1956,7 +1976,7 @@
         </is>
       </c>
       <c r="D66" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -1966,10 +1986,10 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>46059.35416666666</v>
+        <v>46060.35416666666</v>
       </c>
       <c r="B67" t="n">
-        <v>56.98</v>
+        <v>57.08</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1977,7 +1997,7 @@
         </is>
       </c>
       <c r="D67" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -1987,10 +2007,10 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>46059.375</v>
+        <v>46060.375</v>
       </c>
       <c r="B68" t="n">
-        <v>36.06</v>
+        <v>57.06007</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1998,7 +2018,7 @@
         </is>
       </c>
       <c r="D68" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2008,10 +2028,10 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>46059.39583333334</v>
+        <v>46060.39583333334</v>
       </c>
       <c r="B69" t="n">
-        <v>36.06</v>
+        <v>57.08</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2019,7 +2039,7 @@
         </is>
       </c>
       <c r="D69" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2029,10 +2049,10 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>46059.41666666666</v>
+        <v>46060.41666666666</v>
       </c>
       <c r="B70" t="n">
-        <v>0.51</v>
+        <v>85.43000000000001</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2040,7 +2060,7 @@
         </is>
       </c>
       <c r="D70" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2050,10 +2070,10 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>46059.4375</v>
+        <v>46060.4375</v>
       </c>
       <c r="B71" t="n">
-        <v>0.50992</v>
+        <v>36.0598</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2061,7 +2081,7 @@
         </is>
       </c>
       <c r="D71" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2071,10 +2091,10 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>46059.45833333334</v>
+        <v>46060.45833333334</v>
       </c>
       <c r="B72" t="n">
-        <v>0.50993</v>
+        <v>57.06007</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2082,7 +2102,7 @@
         </is>
       </c>
       <c r="D72" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2092,10 +2112,10 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>46059.47916666666</v>
+        <v>46060.47916666666</v>
       </c>
       <c r="B73" t="n">
-        <v>0.51</v>
+        <v>57.06007</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2103,7 +2123,7 @@
         </is>
       </c>
       <c r="D73" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2113,10 +2133,10 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>46059.5</v>
+        <v>46060.5</v>
       </c>
       <c r="B74" t="n">
-        <v>0.51</v>
+        <v>73.20007</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2124,7 +2144,7 @@
         </is>
       </c>
       <c r="D74" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2134,10 +2154,10 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>46059.52083333334</v>
+        <v>46060.52083333334</v>
       </c>
       <c r="B75" t="n">
-        <v>-5.11183</v>
+        <v>57.06007</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2145,7 +2165,7 @@
         </is>
       </c>
       <c r="D75" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2155,10 +2175,10 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>46059.54166666666</v>
+        <v>46060.54166666666</v>
       </c>
       <c r="B76" t="n">
-        <v>0.51</v>
+        <v>57.06007</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2166,7 +2186,7 @@
         </is>
       </c>
       <c r="D76" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2176,10 +2196,10 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>46059.5625</v>
+        <v>46060.5625</v>
       </c>
       <c r="B77" t="n">
-        <v>36.06</v>
+        <v>548.7864</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2187,20 +2207,20 @@
         </is>
       </c>
       <c r="D77" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>46059.58333333334</v>
+        <v>46060.58333333334</v>
       </c>
       <c r="B78" t="n">
-        <v>36.06</v>
+        <v>83.35232999999999</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2208,20 +2228,20 @@
         </is>
       </c>
       <c r="D78" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>46059.60416666666</v>
+        <v>46060.60416666666</v>
       </c>
       <c r="B79" t="n">
-        <v>154.2</v>
+        <v>12532.62869</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2229,20 +2249,20 @@
         </is>
       </c>
       <c r="D79" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>46059.625</v>
+        <v>46060.625</v>
       </c>
       <c r="B80" t="n">
-        <v>154.2</v>
+        <v>12516.56346</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2250,20 +2270,20 @@
         </is>
       </c>
       <c r="D80" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>46059.64583333334</v>
+        <v>46060.64583333334</v>
       </c>
       <c r="B81" t="n">
-        <v>299.75</v>
+        <v>12493.18879</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2271,7 +2291,7 @@
         </is>
       </c>
       <c r="D81" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2281,10 +2301,10 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>46059.66666666666</v>
+        <v>46060.66666666666</v>
       </c>
       <c r="B82" t="n">
-        <v>919.99</v>
+        <v>2535.40194</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2292,7 +2312,7 @@
         </is>
       </c>
       <c r="D82" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2302,10 +2322,10 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>46059.6875</v>
+        <v>46060.6875</v>
       </c>
       <c r="B83" t="n">
-        <v>299.75</v>
+        <v>12361.59727</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2313,7 +2333,7 @@
         </is>
       </c>
       <c r="D83" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2323,10 +2343,10 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>46059.70833333334</v>
+        <v>46060.70833333334</v>
       </c>
       <c r="B84" t="n">
-        <v>12224.9073</v>
+        <v>106.84</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2334,7 +2354,7 @@
         </is>
       </c>
       <c r="D84" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2344,10 +2364,10 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>46059.72916666666</v>
+        <v>46060.72916666666</v>
       </c>
       <c r="B85" t="n">
-        <v>12289.93225</v>
+        <v>99.77401</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2355,7 +2375,7 @@
         </is>
       </c>
       <c r="D85" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2365,10 +2385,10 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>46059.75</v>
+        <v>46060.75</v>
       </c>
       <c r="B86" t="n">
-        <v>12301.17287</v>
+        <v>90.3548</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2376,20 +2396,20 @@
         </is>
       </c>
       <c r="D86" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>46059.77083333334</v>
+        <v>46060.77083333334</v>
       </c>
       <c r="B87" t="n">
-        <v>12328.72822</v>
+        <v>93.26141</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2397,20 +2417,20 @@
         </is>
       </c>
       <c r="D87" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>46059.79166666666</v>
+        <v>46060.79166666666</v>
       </c>
       <c r="B88" t="n">
-        <v>12927.09746</v>
+        <v>80.00957</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2418,20 +2438,20 @@
         </is>
       </c>
       <c r="D88" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>46059.8125</v>
+        <v>46060.8125</v>
       </c>
       <c r="B89" t="n">
-        <v>20222.9</v>
+        <v>106.3761</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2439,20 +2459,20 @@
         </is>
       </c>
       <c r="D89" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>46059.83333333334</v>
+        <v>46060.83333333334</v>
       </c>
       <c r="B90" t="n">
-        <v>20222.9</v>
+        <v>101.93574</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2460,20 +2480,20 @@
         </is>
       </c>
       <c r="D90" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>46059.85416666666</v>
+        <v>46060.85416666666</v>
       </c>
       <c r="B91" t="n">
-        <v>352.7553</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2481,20 +2501,20 @@
         </is>
       </c>
       <c r="D91" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>46059.875</v>
+        <v>46060.875</v>
       </c>
       <c r="B92" t="n">
-        <v>299.99</v>
+        <v>78.34406</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2502,20 +2522,20 @@
         </is>
       </c>
       <c r="D92" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>46059.89583333334</v>
+        <v>46060.89583333334</v>
       </c>
       <c r="B93" t="n">
-        <v>248.84013</v>
+        <v>106.84</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2523,20 +2543,20 @@
         </is>
       </c>
       <c r="D93" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>46059.91666666666</v>
+        <v>46060.91666666666</v>
       </c>
       <c r="B94" t="n">
-        <v>207.38775</v>
+        <v>92.88802</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2544,20 +2564,20 @@
         </is>
       </c>
       <c r="D94" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>46059.9375</v>
+        <v>46060.9375</v>
       </c>
       <c r="B95" t="n">
-        <v>188.52289</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2565,20 +2585,20 @@
         </is>
       </c>
       <c r="D95" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>46059.95833333334</v>
+        <v>46060.95833333334</v>
       </c>
       <c r="B96" t="n">
-        <v>122.25984</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2586,20 +2606,20 @@
         </is>
       </c>
       <c r="D96" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>46059.97916666666</v>
+        <v>46060.97916666666</v>
       </c>
       <c r="B97" t="n">
-        <v>138.42</v>
+        <v>96.25245</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -2607,7 +2627,7 @@
         </is>
       </c>
       <c r="D97" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,19 +478,19 @@
         <v>46059</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>46059.16666666666</v>
+        <v>46059.22916666666</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="D2" t="n">
-        <v>15.12</v>
+        <v>20.79</v>
       </c>
       <c r="E2" t="n">
-        <v>995.5691849999998</v>
+        <v>1565.01176325</v>
       </c>
       <c r="F2" t="n">
-        <v>65.84452281746032</v>
+        <v>75.27714108946608</v>
       </c>
     </row>
     <row r="3">
@@ -498,39 +498,39 @@
         <v>46059.29166666666</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>46059.625</v>
+        <v>46059.64583333334</v>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="D3" t="n">
-        <v>30.24</v>
+        <v>32.13</v>
       </c>
       <c r="E3" t="n">
-        <v>460.1391307499999</v>
+        <v>610.48413075</v>
       </c>
       <c r="F3" t="n">
-        <v>15.21624109623016</v>
+        <v>19.00043979925304</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46059.83333333334</v>
+        <v>46059.91666666666</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>46060</v>
+        <v>46060.10416666666</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="D4" t="n">
-        <v>15.12</v>
+        <v>17.01</v>
       </c>
       <c r="E4" t="n">
-        <v>1036.76657175</v>
+        <v>1038.87770025</v>
       </c>
       <c r="F4" t="n">
-        <v>68.56921770833333</v>
+        <v>61.07452676366844</v>
       </c>
     </row>
     <row r="5">
@@ -538,39 +538,19 @@
         <v>46060.29166666666</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>46060.5625</v>
+        <v>46060.6875</v>
       </c>
       <c r="C5" t="n">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="D5" t="n">
-        <v>24.57</v>
+        <v>35.91</v>
       </c>
       <c r="E5" t="n">
-        <v>761.5728315000002</v>
+        <v>650.7175545</v>
       </c>
       <c r="F5" t="n">
-        <v>30.99604523809525</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>46060.75</v>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>46060.97916666666</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>20.79</v>
-      </c>
-      <c r="E6" t="n">
-        <v>979.2702075</v>
-      </c>
-      <c r="F6" t="n">
-        <v>47.10294408369408</v>
+        <v>18.1207895989975</v>
       </c>
     </row>
   </sheetData>
@@ -804,7 +784,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -825,7 +805,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -846,7 +826,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1246,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1380,7 +1360,7 @@
         <v>46059.75</v>
       </c>
       <c r="B38" t="n">
-        <v>113.39106</v>
+        <v>12306.56409</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1401,7 +1381,7 @@
         <v>46059.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>83.68558</v>
+        <v>12327.04053</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1422,11 +1402,11 @@
         <v>46059.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>127.85435</v>
+        <v>12957.91242</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D40" s="3" t="n">
@@ -1443,11 +1423,11 @@
         <v>46059.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>135.76546</v>
+        <v>20222.9</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D41" s="3" t="n">
@@ -1464,11 +1444,11 @@
         <v>46059.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>132.11181</v>
+        <v>20222.9</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D42" s="3" t="n">
@@ -1476,7 +1456,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1485,11 +1465,11 @@
         <v>46059.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>118.33893</v>
+        <v>299.99</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D43" s="3" t="n">
@@ -1497,7 +1477,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1506,11 +1486,11 @@
         <v>46059.875</v>
       </c>
       <c r="B44" t="n">
-        <v>126.50639</v>
+        <v>299.99</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D44" s="3" t="n">
@@ -1518,7 +1498,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1527,11 +1507,11 @@
         <v>46059.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>133.03395</v>
+        <v>243.39528</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D45" s="3" t="n">
@@ -1539,7 +1519,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1548,11 +1528,11 @@
         <v>46059.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>136.27037</v>
+        <v>225.66307</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D46" s="3" t="n">
@@ -1569,11 +1549,11 @@
         <v>46059.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>140.24888</v>
+        <v>111.90623</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D47" s="3" t="n">
@@ -1590,11 +1570,11 @@
         <v>46059.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>138.42</v>
+        <v>108.01</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D48" s="3" t="n">
@@ -1611,7 +1591,7 @@
         <v>46059.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>138.42</v>
+        <v>108.01</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1632,7 +1612,7 @@
         <v>46060</v>
       </c>
       <c r="B50" t="n">
-        <v>138.42</v>
+        <v>105.79</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1644,7 +1624,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1633,7 @@
         <v>46060.02083333334</v>
       </c>
       <c r="B51" t="n">
-        <v>123.9668</v>
+        <v>107.54919</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1665,7 +1645,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1674,7 +1654,7 @@
         <v>46060.04166666666</v>
       </c>
       <c r="B52" t="n">
-        <v>131.10934</v>
+        <v>105.79</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1686,7 +1666,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1695,7 +1675,7 @@
         <v>46060.0625</v>
       </c>
       <c r="B53" t="n">
-        <v>108.89</v>
+        <v>87.00709999999999</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1707,7 +1687,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1696,7 @@
         <v>46060.08333333334</v>
       </c>
       <c r="B54" t="n">
-        <v>108.89</v>
+        <v>105.79</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1728,7 +1708,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1717,7 @@
         <v>46060.10416666666</v>
       </c>
       <c r="B55" t="n">
-        <v>108.89</v>
+        <v>105.79</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1758,7 +1738,7 @@
         <v>46060.125</v>
       </c>
       <c r="B56" t="n">
-        <v>108.89</v>
+        <v>94.89507</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1779,7 +1759,7 @@
         <v>46060.14583333334</v>
       </c>
       <c r="B57" t="n">
-        <v>108.43639</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1800,7 +1780,7 @@
         <v>46060.16666666666</v>
       </c>
       <c r="B58" t="n">
-        <v>108.89</v>
+        <v>86.33874</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1821,7 +1801,7 @@
         <v>46060.1875</v>
       </c>
       <c r="B59" t="n">
-        <v>108.89</v>
+        <v>105.79</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1842,7 +1822,7 @@
         <v>46060.20833333334</v>
       </c>
       <c r="B60" t="n">
-        <v>108.89</v>
+        <v>106.95927</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1863,7 +1843,7 @@
         <v>46060.22916666666</v>
       </c>
       <c r="B61" t="n">
-        <v>105.79</v>
+        <v>108.61938</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1905,7 +1885,7 @@
         <v>46060.27083333334</v>
       </c>
       <c r="B63" t="n">
-        <v>102.11206</v>
+        <v>105.79</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1926,7 +1906,7 @@
         <v>46060.29166666666</v>
       </c>
       <c r="B64" t="n">
-        <v>64.89</v>
+        <v>61.02668</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1947,7 +1927,7 @@
         <v>46060.3125</v>
       </c>
       <c r="B65" t="n">
-        <v>65.00005</v>
+        <v>57.06007</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1968,7 +1948,7 @@
         <v>46060.33333333334</v>
       </c>
       <c r="B66" t="n">
-        <v>57.06007</v>
+        <v>36.05952</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1989,7 +1969,7 @@
         <v>46060.35416666666</v>
       </c>
       <c r="B67" t="n">
-        <v>57.08</v>
+        <v>36.0601</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -2010,7 +1990,7 @@
         <v>46060.375</v>
       </c>
       <c r="B68" t="n">
-        <v>57.06007</v>
+        <v>35.88</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -2031,7 +2011,7 @@
         <v>46060.39583333334</v>
       </c>
       <c r="B69" t="n">
-        <v>57.08</v>
+        <v>36.0601</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2052,7 +2032,7 @@
         <v>46060.41666666666</v>
       </c>
       <c r="B70" t="n">
-        <v>85.43000000000001</v>
+        <v>0.51</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2073,7 +2053,7 @@
         <v>46060.4375</v>
       </c>
       <c r="B71" t="n">
-        <v>36.0598</v>
+        <v>-6.8954</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2094,7 +2074,7 @@
         <v>46060.45833333334</v>
       </c>
       <c r="B72" t="n">
-        <v>57.06007</v>
+        <v>-5.51</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2115,7 +2095,7 @@
         <v>46060.47916666666</v>
       </c>
       <c r="B73" t="n">
-        <v>57.06007</v>
+        <v>0.5099399999999999</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2136,7 +2116,7 @@
         <v>46060.5</v>
       </c>
       <c r="B74" t="n">
-        <v>73.20007</v>
+        <v>3.78089</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2157,7 +2137,7 @@
         <v>46060.52083333334</v>
       </c>
       <c r="B75" t="n">
-        <v>57.06007</v>
+        <v>0.51</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2178,7 +2158,7 @@
         <v>46060.54166666666</v>
       </c>
       <c r="B76" t="n">
-        <v>57.06007</v>
+        <v>35.88</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2199,7 +2179,7 @@
         <v>46060.5625</v>
       </c>
       <c r="B77" t="n">
-        <v>548.7864</v>
+        <v>36.0601</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2211,7 +2191,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -2220,7 +2200,7 @@
         <v>46060.58333333334</v>
       </c>
       <c r="B78" t="n">
-        <v>83.35232999999999</v>
+        <v>36.0601</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2232,7 +2212,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2221,7 @@
         <v>46060.60416666666</v>
       </c>
       <c r="B79" t="n">
-        <v>12532.62869</v>
+        <v>78.0001</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2253,7 +2233,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -2262,7 +2242,7 @@
         <v>46060.625</v>
       </c>
       <c r="B80" t="n">
-        <v>12516.56346</v>
+        <v>73.20007</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2274,7 +2254,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -2283,7 +2263,7 @@
         <v>46060.64583333334</v>
       </c>
       <c r="B81" t="n">
-        <v>12493.18879</v>
+        <v>73.20007</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2295,7 +2275,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -2304,7 +2284,7 @@
         <v>46060.66666666666</v>
       </c>
       <c r="B82" t="n">
-        <v>2535.40194</v>
+        <v>79.95028000000001</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2316,7 +2296,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -2325,7 +2305,7 @@
         <v>46060.6875</v>
       </c>
       <c r="B83" t="n">
-        <v>12361.59727</v>
+        <v>282.40859</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2346,7 +2326,7 @@
         <v>46060.70833333334</v>
       </c>
       <c r="B84" t="n">
-        <v>106.84</v>
+        <v>170.91832</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2367,7 +2347,7 @@
         <v>46060.72916666666</v>
       </c>
       <c r="B85" t="n">
-        <v>99.77401</v>
+        <v>142.36</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2388,7 +2368,7 @@
         <v>46060.75</v>
       </c>
       <c r="B86" t="n">
-        <v>90.3548</v>
+        <v>160.27773</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2400,7 +2380,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -2409,7 +2389,7 @@
         <v>46060.77083333334</v>
       </c>
       <c r="B87" t="n">
-        <v>93.26141</v>
+        <v>142.36</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2421,7 +2401,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -2430,7 +2410,7 @@
         <v>46060.79166666666</v>
       </c>
       <c r="B88" t="n">
-        <v>80.00957</v>
+        <v>158.38464</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2442,7 +2422,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -2451,7 +2431,7 @@
         <v>46060.8125</v>
       </c>
       <c r="B89" t="n">
-        <v>106.3761</v>
+        <v>152.22231</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2463,7 +2443,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -2472,7 +2452,7 @@
         <v>46060.83333333334</v>
       </c>
       <c r="B90" t="n">
-        <v>101.93574</v>
+        <v>146.77255</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2484,7 +2464,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -2493,7 +2473,7 @@
         <v>46060.85416666666</v>
       </c>
       <c r="B91" t="n">
-        <v>84.79000000000001</v>
+        <v>161.47573</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2505,7 +2485,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -2514,7 +2494,7 @@
         <v>46060.875</v>
       </c>
       <c r="B92" t="n">
-        <v>78.34406</v>
+        <v>113.62486</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2526,7 +2506,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -2535,7 +2515,7 @@
         <v>46060.89583333334</v>
       </c>
       <c r="B93" t="n">
-        <v>106.84</v>
+        <v>108.89</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2547,7 +2527,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2536,7 @@
         <v>46060.91666666666</v>
       </c>
       <c r="B94" t="n">
-        <v>92.88802</v>
+        <v>86.33872</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2568,7 +2548,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -2589,7 +2569,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -2610,7 +2590,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -2619,7 +2599,7 @@
         <v>46060.97916666666</v>
       </c>
       <c r="B97" t="n">
-        <v>96.25245</v>
+        <v>98.40777</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,82 +475,62 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>46059.22916666666</v>
+        <v>46060.25</v>
       </c>
       <c r="C2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>20.79</v>
+        <v>22.68</v>
       </c>
       <c r="E2" t="n">
-        <v>1565.01176325</v>
+        <v>1174.25648925</v>
       </c>
       <c r="F2" t="n">
-        <v>75.27714108946608</v>
+        <v>51.77497748015873</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46059.29166666666</v>
+        <v>46060.27083333334</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>46059.64583333334</v>
+        <v>46060.6875</v>
       </c>
       <c r="C3" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>32.13</v>
+        <v>37.8</v>
       </c>
       <c r="E3" t="n">
-        <v>610.48413075</v>
+        <v>750.3483</v>
       </c>
       <c r="F3" t="n">
-        <v>19.00043979925304</v>
+        <v>19.85048412698413</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46059.91666666666</v>
+        <v>46061.25</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>46060.10416666666</v>
+        <v>46061.75</v>
       </c>
       <c r="C4" t="n">
-        <v>4.5</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>17.01</v>
+        <v>45.36</v>
       </c>
       <c r="E4" t="n">
-        <v>1038.87770025</v>
+        <v>1229.85635175</v>
       </c>
       <c r="F4" t="n">
-        <v>61.07452676366844</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>46060.29166666666</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>46060.6875</v>
-      </c>
-      <c r="C5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>35.91</v>
-      </c>
-      <c r="E5" t="n">
-        <v>650.7175545</v>
-      </c>
-      <c r="F5" t="n">
-        <v>18.1207895989975</v>
+        <v>27.11323526785715</v>
       </c>
     </row>
   </sheetData>
@@ -601,10 +581,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="B2" t="n">
-        <v>109.33707</v>
+        <v>86.61725</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -612,7 +592,7 @@
         </is>
       </c>
       <c r="D2" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -622,10 +602,10 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46059.02083333334</v>
+        <v>46060.02083333334</v>
       </c>
       <c r="B3" t="n">
-        <v>126.20139</v>
+        <v>107.91953</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -633,7 +613,7 @@
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -643,10 +623,10 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46059.04166666666</v>
+        <v>46060.04166666666</v>
       </c>
       <c r="B4" t="n">
-        <v>108.89</v>
+        <v>105.79</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -654,7 +634,7 @@
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -664,10 +644,10 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46059.0625</v>
+        <v>46060.0625</v>
       </c>
       <c r="B5" t="n">
-        <v>132.77416</v>
+        <v>97.2998</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -675,7 +655,7 @@
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -685,10 +665,10 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>46059.08333333334</v>
+        <v>46060.08333333334</v>
       </c>
       <c r="B6" t="n">
-        <v>131.22401</v>
+        <v>105.79</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -696,7 +676,7 @@
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -706,10 +686,10 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>46059.10416666666</v>
+        <v>46060.10416666666</v>
       </c>
       <c r="B7" t="n">
-        <v>135.82997</v>
+        <v>105.79</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -717,7 +697,7 @@
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -727,10 +707,10 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>46059.125</v>
+        <v>46060.125</v>
       </c>
       <c r="B8" t="n">
-        <v>138.42</v>
+        <v>105.79</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -738,7 +718,7 @@
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -748,10 +728,10 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>46059.14583333334</v>
+        <v>46060.14583333334</v>
       </c>
       <c r="B9" t="n">
-        <v>138.42</v>
+        <v>98.30193</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -759,7 +739,7 @@
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -769,10 +749,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>46059.16666666666</v>
+        <v>46060.16666666666</v>
       </c>
       <c r="B10" t="n">
-        <v>153.01</v>
+        <v>86.31838</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -780,7 +760,7 @@
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -790,10 +770,10 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>46059.1875</v>
+        <v>46060.1875</v>
       </c>
       <c r="B11" t="n">
-        <v>195.68028</v>
+        <v>90.34272</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -801,7 +781,7 @@
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -811,10 +791,10 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>46059.20833333334</v>
+        <v>46060.20833333334</v>
       </c>
       <c r="B12" t="n">
-        <v>235.35339</v>
+        <v>105.79</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -822,7 +802,7 @@
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -832,10 +812,10 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>46059.22916666666</v>
+        <v>46060.22916666666</v>
       </c>
       <c r="B13" t="n">
-        <v>227.37697</v>
+        <v>108.61602</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -843,20 +823,20 @@
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>46059.25</v>
+        <v>46060.25</v>
       </c>
       <c r="B14" t="n">
-        <v>286.19889</v>
+        <v>113.30932</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -864,7 +844,7 @@
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -874,10 +854,10 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>46059.27083333334</v>
+        <v>46060.27083333334</v>
       </c>
       <c r="B15" t="n">
-        <v>245.61799</v>
+        <v>106.2694</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -885,20 +865,20 @@
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>46059.29166666666</v>
+        <v>46060.29166666666</v>
       </c>
       <c r="B16" t="n">
-        <v>108.89</v>
+        <v>64.89</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -906,7 +886,7 @@
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -916,10 +896,10 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>46059.3125</v>
+        <v>46060.3125</v>
       </c>
       <c r="B17" t="n">
-        <v>61.03948</v>
+        <v>57.06007</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -927,7 +907,7 @@
         </is>
       </c>
       <c r="D17" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -937,10 +917,10 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>46059.33333333334</v>
+        <v>46060.33333333334</v>
       </c>
       <c r="B18" t="n">
-        <v>59.15131</v>
+        <v>36.05952</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -948,7 +928,7 @@
         </is>
       </c>
       <c r="D18" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -958,10 +938,10 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>46059.35416666666</v>
+        <v>46060.35416666666</v>
       </c>
       <c r="B19" t="n">
-        <v>56.98</v>
+        <v>36.0601</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -969,7 +949,7 @@
         </is>
       </c>
       <c r="D19" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -979,10 +959,10 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>46059.375</v>
+        <v>46060.375</v>
       </c>
       <c r="B20" t="n">
-        <v>36.06</v>
+        <v>35.88</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -990,7 +970,7 @@
         </is>
       </c>
       <c r="D20" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1000,10 +980,10 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>46059.39583333334</v>
+        <v>46060.39583333334</v>
       </c>
       <c r="B21" t="n">
-        <v>36.06</v>
+        <v>35.88</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1011,7 +991,7 @@
         </is>
       </c>
       <c r="D21" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1021,10 +1001,10 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>46059.41666666666</v>
+        <v>46060.41666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>0.51</v>
+        <v>-5.17</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1032,7 +1012,7 @@
         </is>
       </c>
       <c r="D22" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1042,10 +1022,10 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>46059.4375</v>
+        <v>46060.4375</v>
       </c>
       <c r="B23" t="n">
-        <v>0.50992</v>
+        <v>-8.52</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1053,7 +1033,7 @@
         </is>
       </c>
       <c r="D23" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1063,10 +1043,10 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>46059.45833333334</v>
+        <v>46060.45833333334</v>
       </c>
       <c r="B24" t="n">
-        <v>0.50993</v>
+        <v>-5.51</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1074,7 +1054,7 @@
         </is>
       </c>
       <c r="D24" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1084,10 +1064,10 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>46059.47916666666</v>
+        <v>46060.47916666666</v>
       </c>
       <c r="B25" t="n">
-        <v>0.50993</v>
+        <v>0.51</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1095,7 +1075,7 @@
         </is>
       </c>
       <c r="D25" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1105,10 +1085,10 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>46059.5</v>
+        <v>46060.5</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.13867</v>
+        <v>3.86812</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1116,7 +1096,7 @@
         </is>
       </c>
       <c r="D26" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1126,10 +1106,10 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>46059.52083333334</v>
+        <v>46060.52083333334</v>
       </c>
       <c r="B27" t="n">
-        <v>-5.50985</v>
+        <v>1.92032</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1137,7 +1117,7 @@
         </is>
       </c>
       <c r="D27" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1147,10 +1127,10 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>46059.54166666666</v>
+        <v>46060.54166666666</v>
       </c>
       <c r="B28" t="n">
-        <v>0.51</v>
+        <v>35.88</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1158,7 +1138,7 @@
         </is>
       </c>
       <c r="D28" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1168,10 +1148,10 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>46059.5625</v>
+        <v>46060.5625</v>
       </c>
       <c r="B29" t="n">
-        <v>36.06</v>
+        <v>36.0601</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1179,7 +1159,7 @@
         </is>
       </c>
       <c r="D29" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1189,10 +1169,10 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>46059.58333333334</v>
+        <v>46060.58333333334</v>
       </c>
       <c r="B30" t="n">
-        <v>0.71552</v>
+        <v>36.0601</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1200,7 +1180,7 @@
         </is>
       </c>
       <c r="D30" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1210,10 +1190,10 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>46059.60416666666</v>
+        <v>46060.60416666666</v>
       </c>
       <c r="B31" t="n">
-        <v>80.08</v>
+        <v>73.19</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1221,7 +1201,7 @@
         </is>
       </c>
       <c r="D31" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1231,10 +1211,10 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>46059.625</v>
+        <v>46060.625</v>
       </c>
       <c r="B32" t="n">
-        <v>154.2</v>
+        <v>73.20007</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1242,7 +1222,7 @@
         </is>
       </c>
       <c r="D32" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1252,10 +1232,10 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>46059.64583333334</v>
+        <v>46060.64583333334</v>
       </c>
       <c r="B33" t="n">
-        <v>299.75</v>
+        <v>78.0001</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1263,20 +1243,20 @@
         </is>
       </c>
       <c r="D33" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>46059.66666666666</v>
+        <v>46060.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>2164.51739</v>
+        <v>78.0001</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1284,20 +1264,20 @@
         </is>
       </c>
       <c r="D34" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>46059.6875</v>
+        <v>46060.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>299.75</v>
+        <v>299</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1305,7 +1285,7 @@
         </is>
       </c>
       <c r="D35" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1315,10 +1295,10 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>46059.70833333334</v>
+        <v>46060.70833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>12228.98287</v>
+        <v>115.1172</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1326,7 +1306,7 @@
         </is>
       </c>
       <c r="D36" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1336,10 +1316,10 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>46059.72916666666</v>
+        <v>46060.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>12289.28552</v>
+        <v>57.48772</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1347,7 +1327,7 @@
         </is>
       </c>
       <c r="D37" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1357,10 +1337,10 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>46059.75</v>
+        <v>46060.75</v>
       </c>
       <c r="B38" t="n">
-        <v>12306.56409</v>
+        <v>134.17447</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1368,7 +1348,7 @@
         </is>
       </c>
       <c r="D38" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1378,18 +1358,18 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>46059.77083333334</v>
+        <v>46060.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>12327.04053</v>
+        <v>141.54606</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D39" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1399,18 +1379,18 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>46059.79166666666</v>
+        <v>46060.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>12957.91242</v>
+        <v>128.47721</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D40" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1420,18 +1400,18 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>46059.8125</v>
+        <v>46060.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>20222.9</v>
+        <v>149.90055</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D41" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1441,18 +1421,18 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>46059.83333333334</v>
+        <v>46060.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>20222.9</v>
+        <v>152.22231</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D42" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1462,18 +1442,18 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>46059.85416666666</v>
+        <v>46060.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>299.99</v>
+        <v>139.63806</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D43" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1483,18 +1463,18 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>46059.875</v>
+        <v>46060.875</v>
       </c>
       <c r="B44" t="n">
-        <v>299.99</v>
+        <v>137.37434</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D44" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1504,18 +1484,18 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>46059.89583333334</v>
+        <v>46060.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>243.39528</v>
+        <v>131.6107</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D45" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1525,73 +1505,73 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>46059.91666666666</v>
+        <v>46060.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>225.66307</v>
+        <v>136.80525</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D46" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>46059.9375</v>
+        <v>46060.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>111.90623</v>
+        <v>138.42</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D47" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>46059.95833333334</v>
+        <v>46060.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>108.01</v>
+        <v>137.81211</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D48" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>46059.97916666666</v>
+        <v>46060.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>108.01</v>
+        <v>131.34324</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1599,20 +1579,20 @@
         </is>
       </c>
       <c r="D49" s="3" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="B50" t="n">
-        <v>105.79</v>
+        <v>119.18056</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1620,20 +1600,20 @@
         </is>
       </c>
       <c r="D50" s="3" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>46060.02083333334</v>
+        <v>46061.02083333334</v>
       </c>
       <c r="B51" t="n">
-        <v>107.54919</v>
+        <v>108.89</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1641,20 +1621,20 @@
         </is>
       </c>
       <c r="D51" s="3" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>46060.04166666666</v>
+        <v>46061.04166666666</v>
       </c>
       <c r="B52" t="n">
-        <v>105.79</v>
+        <v>128.952</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1662,20 +1642,20 @@
         </is>
       </c>
       <c r="D52" s="3" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>46060.0625</v>
+        <v>46061.0625</v>
       </c>
       <c r="B53" t="n">
-        <v>87.00709999999999</v>
+        <v>105.79</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1683,20 +1663,20 @@
         </is>
       </c>
       <c r="D53" s="3" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>46060.08333333334</v>
+        <v>46061.08333333334</v>
       </c>
       <c r="B54" t="n">
-        <v>105.79</v>
+        <v>105.26904</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1704,20 +1684,20 @@
         </is>
       </c>
       <c r="D54" s="3" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>46060.10416666666</v>
+        <v>46061.10416666666</v>
       </c>
       <c r="B55" t="n">
-        <v>105.79</v>
+        <v>104.24116</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1725,7 +1705,7 @@
         </is>
       </c>
       <c r="D55" s="3" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1735,10 +1715,10 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>46060.125</v>
+        <v>46061.125</v>
       </c>
       <c r="B56" t="n">
-        <v>94.89507</v>
+        <v>101.72808</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1746,7 +1726,7 @@
         </is>
       </c>
       <c r="D56" s="3" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1756,10 +1736,10 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>46060.14583333334</v>
+        <v>46061.14583333334</v>
       </c>
       <c r="B57" t="n">
-        <v>84.79000000000001</v>
+        <v>90.58771</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1767,7 +1747,7 @@
         </is>
       </c>
       <c r="D57" s="3" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -1777,10 +1757,10 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>46060.16666666666</v>
+        <v>46061.16666666666</v>
       </c>
       <c r="B58" t="n">
-        <v>86.33874</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1788,7 +1768,7 @@
         </is>
       </c>
       <c r="D58" s="3" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1798,10 +1778,10 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>46060.1875</v>
+        <v>46061.1875</v>
       </c>
       <c r="B59" t="n">
-        <v>105.79</v>
+        <v>94.92861000000001</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1809,7 +1789,7 @@
         </is>
       </c>
       <c r="D59" s="3" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1819,10 +1799,10 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>46060.20833333334</v>
+        <v>46061.20833333334</v>
       </c>
       <c r="B60" t="n">
-        <v>106.95927</v>
+        <v>95.48935</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1830,7 +1810,7 @@
         </is>
       </c>
       <c r="D60" s="3" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -1840,10 +1820,10 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>46060.22916666666</v>
+        <v>46061.22916666666</v>
       </c>
       <c r="B61" t="n">
-        <v>108.61938</v>
+        <v>94.42637000000001</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1851,7 +1831,7 @@
         </is>
       </c>
       <c r="D61" s="3" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -1861,10 +1841,10 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>46060.25</v>
+        <v>46061.25</v>
       </c>
       <c r="B62" t="n">
-        <v>108.89</v>
+        <v>105</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1872,20 +1852,20 @@
         </is>
       </c>
       <c r="D62" s="3" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>46060.27083333334</v>
+        <v>46061.27083333334</v>
       </c>
       <c r="B63" t="n">
-        <v>105.79</v>
+        <v>103.34965</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1893,20 +1873,20 @@
         </is>
       </c>
       <c r="D63" s="3" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>46060.29166666666</v>
+        <v>46061.29166666666</v>
       </c>
       <c r="B64" t="n">
-        <v>61.02668</v>
+        <v>65</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1914,7 +1894,7 @@
         </is>
       </c>
       <c r="D64" s="3" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -1924,10 +1904,10 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>46060.3125</v>
+        <v>46061.3125</v>
       </c>
       <c r="B65" t="n">
-        <v>57.06007</v>
+        <v>61.34332</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1935,7 +1915,7 @@
         </is>
       </c>
       <c r="D65" s="3" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -1945,10 +1925,10 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>46060.33333333334</v>
+        <v>46061.33333333334</v>
       </c>
       <c r="B66" t="n">
-        <v>36.05952</v>
+        <v>57.08</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1956,7 +1936,7 @@
         </is>
       </c>
       <c r="D66" s="3" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -1966,10 +1946,10 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>46060.35416666666</v>
+        <v>46061.35416666666</v>
       </c>
       <c r="B67" t="n">
-        <v>36.0601</v>
+        <v>43.15735</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1977,7 +1957,7 @@
         </is>
       </c>
       <c r="D67" s="3" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -1987,10 +1967,10 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>46060.375</v>
+        <v>46061.375</v>
       </c>
       <c r="B68" t="n">
-        <v>35.88</v>
+        <v>36.07</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1998,7 +1978,7 @@
         </is>
       </c>
       <c r="D68" s="3" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2008,10 +1988,10 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>46060.39583333334</v>
+        <v>46061.39583333334</v>
       </c>
       <c r="B69" t="n">
-        <v>36.0601</v>
+        <v>36.07</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2019,7 +1999,7 @@
         </is>
       </c>
       <c r="D69" s="3" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2029,10 +2009,10 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>46060.41666666666</v>
+        <v>46061.41666666666</v>
       </c>
       <c r="B70" t="n">
-        <v>0.51</v>
+        <v>36.0601</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2040,7 +2020,7 @@
         </is>
       </c>
       <c r="D70" s="3" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2050,10 +2030,10 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>46060.4375</v>
+        <v>46061.4375</v>
       </c>
       <c r="B71" t="n">
-        <v>-6.8954</v>
+        <v>36.06004</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2061,7 +2041,7 @@
         </is>
       </c>
       <c r="D71" s="3" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2071,10 +2051,10 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>46060.45833333334</v>
+        <v>46061.45833333334</v>
       </c>
       <c r="B72" t="n">
-        <v>-5.51</v>
+        <v>36.06004</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2082,7 +2062,7 @@
         </is>
       </c>
       <c r="D72" s="3" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2092,10 +2072,10 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>46060.47916666666</v>
+        <v>46061.47916666666</v>
       </c>
       <c r="B73" t="n">
-        <v>0.5099399999999999</v>
+        <v>36.0601</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2103,7 +2083,7 @@
         </is>
       </c>
       <c r="D73" s="3" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2113,10 +2093,10 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>46060.5</v>
+        <v>46061.5</v>
       </c>
       <c r="B74" t="n">
-        <v>3.78089</v>
+        <v>36.0601</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2124,7 +2104,7 @@
         </is>
       </c>
       <c r="D74" s="3" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2134,10 +2114,10 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>46060.52083333334</v>
+        <v>46061.52083333334</v>
       </c>
       <c r="B75" t="n">
-        <v>0.51</v>
+        <v>36.07</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2145,7 +2125,7 @@
         </is>
       </c>
       <c r="D75" s="3" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2155,10 +2135,10 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>46060.54166666666</v>
+        <v>46061.54166666666</v>
       </c>
       <c r="B76" t="n">
-        <v>35.88</v>
+        <v>36.07</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2166,7 +2146,7 @@
         </is>
       </c>
       <c r="D76" s="3" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2176,7 +2156,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>46060.5625</v>
+        <v>46061.5625</v>
       </c>
       <c r="B77" t="n">
         <v>36.0601</v>
@@ -2187,7 +2167,7 @@
         </is>
       </c>
       <c r="D77" s="3" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2197,7 +2177,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>46060.58333333334</v>
+        <v>46061.58333333334</v>
       </c>
       <c r="B78" t="n">
         <v>36.0601</v>
@@ -2208,7 +2188,7 @@
         </is>
       </c>
       <c r="D78" s="3" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2218,10 +2198,10 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>46060.60416666666</v>
+        <v>46061.60416666666</v>
       </c>
       <c r="B79" t="n">
-        <v>78.0001</v>
+        <v>36.0601</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2229,7 +2209,7 @@
         </is>
       </c>
       <c r="D79" s="3" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2239,10 +2219,10 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>46060.625</v>
+        <v>46061.625</v>
       </c>
       <c r="B80" t="n">
-        <v>73.20007</v>
+        <v>65</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2250,7 +2230,7 @@
         </is>
       </c>
       <c r="D80" s="3" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2260,10 +2240,10 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>46060.64583333334</v>
+        <v>46061.64583333334</v>
       </c>
       <c r="B81" t="n">
-        <v>73.20007</v>
+        <v>58.65555</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2271,7 +2251,7 @@
         </is>
       </c>
       <c r="D81" s="3" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2281,10 +2261,10 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>46060.66666666666</v>
+        <v>46061.66666666666</v>
       </c>
       <c r="B82" t="n">
-        <v>79.95028000000001</v>
+        <v>57.06022</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2292,7 +2272,7 @@
         </is>
       </c>
       <c r="D82" s="3" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2302,10 +2282,10 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>46060.6875</v>
+        <v>46061.6875</v>
       </c>
       <c r="B83" t="n">
-        <v>282.40859</v>
+        <v>62.25563</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2313,20 +2293,20 @@
         </is>
       </c>
       <c r="D83" s="3" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>46060.70833333334</v>
+        <v>46061.70833333334</v>
       </c>
       <c r="B84" t="n">
-        <v>170.91832</v>
+        <v>65</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2334,20 +2314,20 @@
         </is>
       </c>
       <c r="D84" s="3" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>46060.72916666666</v>
+        <v>46061.72916666666</v>
       </c>
       <c r="B85" t="n">
-        <v>142.36</v>
+        <v>85.72873</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2355,20 +2335,20 @@
         </is>
       </c>
       <c r="D85" s="3" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>46060.75</v>
+        <v>46061.75</v>
       </c>
       <c r="B86" t="n">
-        <v>160.27773</v>
+        <v>105.79</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2376,7 +2356,7 @@
         </is>
       </c>
       <c r="D86" s="3" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2386,10 +2366,10 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>46060.77083333334</v>
+        <v>46061.77083333334</v>
       </c>
       <c r="B87" t="n">
-        <v>142.36</v>
+        <v>108.89</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2397,7 +2377,7 @@
         </is>
       </c>
       <c r="D87" s="3" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2407,10 +2387,10 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>46060.79166666666</v>
+        <v>46061.79166666666</v>
       </c>
       <c r="B88" t="n">
-        <v>158.38464</v>
+        <v>147.52</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2418,7 +2398,7 @@
         </is>
       </c>
       <c r="D88" s="3" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2428,10 +2408,10 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>46060.8125</v>
+        <v>46061.8125</v>
       </c>
       <c r="B89" t="n">
-        <v>152.22231</v>
+        <v>108.89</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2439,7 +2419,7 @@
         </is>
       </c>
       <c r="D89" s="3" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2449,10 +2429,10 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>46060.83333333334</v>
+        <v>46061.83333333334</v>
       </c>
       <c r="B90" t="n">
-        <v>146.77255</v>
+        <v>114.21803</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2460,7 +2440,7 @@
         </is>
       </c>
       <c r="D90" s="3" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2470,10 +2450,10 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>46060.85416666666</v>
+        <v>46061.85416666666</v>
       </c>
       <c r="B91" t="n">
-        <v>161.47573</v>
+        <v>115.97062</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2481,7 +2461,7 @@
         </is>
       </c>
       <c r="D91" s="3" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -2491,10 +2471,10 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>46060.875</v>
+        <v>46061.875</v>
       </c>
       <c r="B92" t="n">
-        <v>113.62486</v>
+        <v>113.53497</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2502,7 +2482,7 @@
         </is>
       </c>
       <c r="D92" s="3" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -2512,10 +2492,10 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>46060.89583333334</v>
+        <v>46061.89583333334</v>
       </c>
       <c r="B93" t="n">
-        <v>108.89</v>
+        <v>116.08568</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2523,7 +2503,7 @@
         </is>
       </c>
       <c r="D93" s="3" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2533,10 +2513,10 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>46060.91666666666</v>
+        <v>46061.91666666666</v>
       </c>
       <c r="B94" t="n">
-        <v>86.33872</v>
+        <v>108.01</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2544,7 +2524,7 @@
         </is>
       </c>
       <c r="D94" s="3" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -2554,10 +2534,10 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>46060.9375</v>
+        <v>46061.9375</v>
       </c>
       <c r="B95" t="n">
-        <v>84.79000000000001</v>
+        <v>105.79</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2565,7 +2545,7 @@
         </is>
       </c>
       <c r="D95" s="3" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2575,10 +2555,10 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>46060.95833333334</v>
+        <v>46061.95833333334</v>
       </c>
       <c r="B96" t="n">
-        <v>84.79000000000001</v>
+        <v>104.65639</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2586,7 +2566,7 @@
         </is>
       </c>
       <c r="D96" s="3" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -2596,10 +2576,10 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>46060.97916666666</v>
+        <v>46061.97916666666</v>
       </c>
       <c r="B97" t="n">
-        <v>98.40777</v>
+        <v>105.79</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -2607,7 +2587,7 @@
         </is>
       </c>
       <c r="D97" s="3" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,62 +475,82 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46060</v>
+        <v>46060.0625</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>46060.25</v>
+        <v>46060.22916666666</v>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>22.68</v>
+        <v>15.12</v>
       </c>
       <c r="E2" t="n">
-        <v>1174.25648925</v>
+        <v>775.5372592500001</v>
       </c>
       <c r="F2" t="n">
-        <v>51.77497748015873</v>
+        <v>51.29214677579366</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46060.27083333334</v>
+        <v>46060.29166666666</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>46060.6875</v>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="D3" t="n">
-        <v>37.8</v>
+        <v>35.91</v>
       </c>
       <c r="E3" t="n">
-        <v>750.3483</v>
+        <v>646.735635</v>
       </c>
       <c r="F3" t="n">
-        <v>19.85048412698413</v>
+        <v>18.00990350877193</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46061.25</v>
+        <v>46060.89583333334</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>46061.75</v>
+        <v>46061.0625</v>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>45.36</v>
+        <v>15.12</v>
       </c>
       <c r="E4" t="n">
-        <v>1229.85635175</v>
+        <v>687.70106925</v>
       </c>
       <c r="F4" t="n">
-        <v>27.11323526785715</v>
+        <v>45.48287495039683</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>46061.16666666666</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>46061.60416666666</v>
+      </c>
+      <c r="C5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>39.69</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1220.94551475</v>
+      </c>
+      <c r="F5" t="n">
+        <v>30.762043707483</v>
       </c>
     </row>
   </sheetData>
@@ -596,7 +616,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -617,7 +637,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -638,7 +658,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -827,7 +847,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -869,7 +889,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1319,7 +1339,7 @@
         <v>46060.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>57.48772</v>
+        <v>115.05557</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1340,7 +1360,7 @@
         <v>46060.75</v>
       </c>
       <c r="B38" t="n">
-        <v>134.17447</v>
+        <v>163.87544</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1361,11 +1381,11 @@
         <v>46060.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>141.54606</v>
+        <v>151.54563</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D39" s="3" t="n">
@@ -1382,11 +1402,11 @@
         <v>46060.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>128.47721</v>
+        <v>150.68478</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D40" s="3" t="n">
@@ -1403,11 +1423,11 @@
         <v>46060.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>149.90055</v>
+        <v>159.07424</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D41" s="3" t="n">
@@ -1424,11 +1444,11 @@
         <v>46060.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>152.22231</v>
+        <v>189.86016</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D42" s="3" t="n">
@@ -1445,11 +1465,11 @@
         <v>46060.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>139.63806</v>
+        <v>240.89</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D43" s="3" t="n">
@@ -1466,11 +1486,11 @@
         <v>46060.875</v>
       </c>
       <c r="B44" t="n">
-        <v>137.37434</v>
+        <v>121.06852</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D44" s="3" t="n">
@@ -1487,11 +1507,11 @@
         <v>46060.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>131.6107</v>
+        <v>108.89</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D45" s="3" t="n">
@@ -1499,7 +1519,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1508,11 +1528,11 @@
         <v>46060.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>136.80525</v>
+        <v>89.27254000000001</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D46" s="3" t="n">
@@ -1520,7 +1540,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1529,11 +1549,11 @@
         <v>46060.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>138.42</v>
+        <v>69.30265</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D47" s="3" t="n">
@@ -1541,7 +1561,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1550,11 +1570,11 @@
         <v>46060.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>137.81211</v>
+        <v>79.95028000000001</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D48" s="3" t="n">
@@ -1562,7 +1582,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1571,7 +1591,7 @@
         <v>46060.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>131.34324</v>
+        <v>82.06932</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1583,7 +1603,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1592,7 +1612,7 @@
         <v>46061</v>
       </c>
       <c r="B50" t="n">
-        <v>119.18056</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1604,7 +1624,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1613,7 +1633,7 @@
         <v>46061.02083333334</v>
       </c>
       <c r="B51" t="n">
-        <v>108.89</v>
+        <v>85.26964</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1625,7 +1645,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1634,7 +1654,7 @@
         <v>46061.04166666666</v>
       </c>
       <c r="B52" t="n">
-        <v>128.952</v>
+        <v>105.79</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1646,7 +1666,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1655,7 +1675,7 @@
         <v>46061.0625</v>
       </c>
       <c r="B53" t="n">
-        <v>105.79</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1676,7 +1696,7 @@
         <v>46061.08333333334</v>
       </c>
       <c r="B54" t="n">
-        <v>105.26904</v>
+        <v>81.37902</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1697,7 +1717,7 @@
         <v>46061.10416666666</v>
       </c>
       <c r="B55" t="n">
-        <v>104.24116</v>
+        <v>78.00005</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1718,7 +1738,7 @@
         <v>46061.125</v>
       </c>
       <c r="B56" t="n">
-        <v>101.72808</v>
+        <v>78.00005</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1739,7 +1759,7 @@
         <v>46061.14583333334</v>
       </c>
       <c r="B57" t="n">
-        <v>90.58771</v>
+        <v>73.20007</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1760,7 +1780,7 @@
         <v>46061.16666666666</v>
       </c>
       <c r="B58" t="n">
-        <v>84.79000000000001</v>
+        <v>69.70384</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1772,7 +1792,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1781,7 +1801,7 @@
         <v>46061.1875</v>
       </c>
       <c r="B59" t="n">
-        <v>94.92861000000001</v>
+        <v>69.38724999999999</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1793,7 +1813,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1802,7 +1822,7 @@
         <v>46061.20833333334</v>
       </c>
       <c r="B60" t="n">
-        <v>95.48935</v>
+        <v>66.08642</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1814,7 +1834,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1823,7 +1843,7 @@
         <v>46061.22916666666</v>
       </c>
       <c r="B61" t="n">
-        <v>94.42637000000001</v>
+        <v>73.20010000000001</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1835,7 +1855,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1844,7 +1864,7 @@
         <v>46061.25</v>
       </c>
       <c r="B62" t="n">
-        <v>105</v>
+        <v>69.46913000000001</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1865,7 +1885,7 @@
         <v>46061.27083333334</v>
       </c>
       <c r="B63" t="n">
-        <v>103.34965</v>
+        <v>69.11879999999999</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1886,7 +1906,7 @@
         <v>46061.29166666666</v>
       </c>
       <c r="B64" t="n">
-        <v>65</v>
+        <v>62.28628</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1907,7 +1927,7 @@
         <v>46061.3125</v>
       </c>
       <c r="B65" t="n">
-        <v>61.34332</v>
+        <v>57.06007</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1928,7 +1948,7 @@
         <v>46061.33333333334</v>
       </c>
       <c r="B66" t="n">
-        <v>57.08</v>
+        <v>56.97996</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1949,7 +1969,7 @@
         <v>46061.35416666666</v>
       </c>
       <c r="B67" t="n">
-        <v>43.15735</v>
+        <v>36.07</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1970,7 +1990,7 @@
         <v>46061.375</v>
       </c>
       <c r="B68" t="n">
-        <v>36.07</v>
+        <v>45.50642</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1991,7 +2011,7 @@
         <v>46061.39583333334</v>
       </c>
       <c r="B69" t="n">
-        <v>36.07</v>
+        <v>56.98</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2012,7 +2032,7 @@
         <v>46061.41666666666</v>
       </c>
       <c r="B70" t="n">
-        <v>36.0601</v>
+        <v>57.08</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2033,7 +2053,7 @@
         <v>46061.4375</v>
       </c>
       <c r="B71" t="n">
-        <v>36.06004</v>
+        <v>56.98</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2054,7 +2074,7 @@
         <v>46061.45833333334</v>
       </c>
       <c r="B72" t="n">
-        <v>36.06004</v>
+        <v>56.98</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2075,7 +2095,7 @@
         <v>46061.47916666666</v>
       </c>
       <c r="B73" t="n">
-        <v>36.0601</v>
+        <v>56.98</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2096,7 +2116,7 @@
         <v>46061.5</v>
       </c>
       <c r="B74" t="n">
-        <v>36.0601</v>
+        <v>57.08</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2117,7 +2137,7 @@
         <v>46061.52083333334</v>
       </c>
       <c r="B75" t="n">
-        <v>36.07</v>
+        <v>57.08</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2138,7 +2158,7 @@
         <v>46061.54166666666</v>
       </c>
       <c r="B76" t="n">
-        <v>36.07</v>
+        <v>61.19489</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2159,7 +2179,7 @@
         <v>46061.5625</v>
       </c>
       <c r="B77" t="n">
-        <v>36.0601</v>
+        <v>57.08</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2180,7 +2200,7 @@
         <v>46061.58333333334</v>
       </c>
       <c r="B78" t="n">
-        <v>36.0601</v>
+        <v>59.94865</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2201,7 +2221,7 @@
         <v>46061.60416666666</v>
       </c>
       <c r="B79" t="n">
-        <v>36.0601</v>
+        <v>73.20010000000001</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2213,7 +2233,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -2222,7 +2242,7 @@
         <v>46061.625</v>
       </c>
       <c r="B80" t="n">
-        <v>65</v>
+        <v>108.01</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2234,7 +2254,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -2243,7 +2263,7 @@
         <v>46061.64583333334</v>
       </c>
       <c r="B81" t="n">
-        <v>58.65555</v>
+        <v>105</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2255,7 +2275,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -2264,7 +2284,7 @@
         <v>46061.66666666666</v>
       </c>
       <c r="B82" t="n">
-        <v>57.06022</v>
+        <v>74.36649</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2276,7 +2296,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -2285,7 +2305,7 @@
         <v>46061.6875</v>
       </c>
       <c r="B83" t="n">
-        <v>62.25563</v>
+        <v>65.35863999999999</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2297,7 +2317,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -2306,7 +2326,7 @@
         <v>46061.70833333334</v>
       </c>
       <c r="B84" t="n">
-        <v>65</v>
+        <v>73.20010000000001</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2318,7 +2338,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -2327,7 +2347,7 @@
         <v>46061.72916666666</v>
       </c>
       <c r="B85" t="n">
-        <v>85.72873</v>
+        <v>103.38668</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2339,7 +2359,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -2369,7 +2389,7 @@
         <v>46061.77083333334</v>
       </c>
       <c r="B87" t="n">
-        <v>108.89</v>
+        <v>108.01</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2390,7 +2410,7 @@
         <v>46061.79166666666</v>
       </c>
       <c r="B88" t="n">
-        <v>147.52</v>
+        <v>119.11621</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2411,7 +2431,7 @@
         <v>46061.8125</v>
       </c>
       <c r="B89" t="n">
-        <v>108.89</v>
+        <v>107.76225</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2432,7 +2452,7 @@
         <v>46061.83333333334</v>
       </c>
       <c r="B90" t="n">
-        <v>114.21803</v>
+        <v>111.41472</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2453,7 +2473,7 @@
         <v>46061.85416666666</v>
       </c>
       <c r="B91" t="n">
-        <v>115.97062</v>
+        <v>108.89</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2474,7 +2494,7 @@
         <v>46061.875</v>
       </c>
       <c r="B92" t="n">
-        <v>113.53497</v>
+        <v>108.01</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2495,7 +2515,7 @@
         <v>46061.89583333334</v>
       </c>
       <c r="B93" t="n">
-        <v>116.08568</v>
+        <v>105.79</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2516,7 +2536,7 @@
         <v>46061.91666666666</v>
       </c>
       <c r="B94" t="n">
-        <v>108.01</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2537,7 +2557,7 @@
         <v>46061.9375</v>
       </c>
       <c r="B95" t="n">
-        <v>105.79</v>
+        <v>80.14892</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2558,7 +2578,7 @@
         <v>46061.95833333334</v>
       </c>
       <c r="B96" t="n">
-        <v>104.65639</v>
+        <v>82.68552</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2579,7 +2599,7 @@
         <v>46061.97916666666</v>
       </c>
       <c r="B97" t="n">
-        <v>105.79</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -507,10 +507,10 @@
         <v>17.01</v>
       </c>
       <c r="E3" t="n">
-        <v>745.1979112500001</v>
+        <v>819.03405675</v>
       </c>
       <c r="F3" t="n">
-        <v>43.80940101410935</v>
+        <v>48.15015030864198</v>
       </c>
     </row>
     <row r="4">
@@ -527,10 +527,10 @@
         <v>28.35</v>
       </c>
       <c r="E4" t="n">
-        <v>1257.6281055</v>
+        <v>1294.16421225</v>
       </c>
       <c r="F4" t="n">
-        <v>44.36077973544973</v>
+        <v>45.64953129629629</v>
       </c>
     </row>
   </sheetData>
@@ -1319,7 +1319,7 @@
         <v>46061.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>93.17475</v>
+        <v>87.84635</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         <v>46061.75</v>
       </c>
       <c r="B38" t="n">
-        <v>97.18558</v>
+        <v>85.01606</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>46061.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>108.01</v>
+        <v>100.01</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1382,11 +1382,11 @@
         <v>46061.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>116.98093</v>
+        <v>108.89</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D40" s="3" t="n">
@@ -1403,11 +1403,11 @@
         <v>46061.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>118.99635</v>
+        <v>119.51613</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D41" s="3" t="n">
@@ -1424,11 +1424,11 @@
         <v>46061.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>116.03728</v>
+        <v>108.89</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D42" s="3" t="n">
@@ -1445,11 +1445,11 @@
         <v>46061.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>119.43831</v>
+        <v>120.10153</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D43" s="3" t="n">
@@ -1466,11 +1466,11 @@
         <v>46061.875</v>
       </c>
       <c r="B44" t="n">
-        <v>113.50686</v>
+        <v>108.89</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D44" s="3" t="n">
@@ -1487,11 +1487,11 @@
         <v>46061.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>104.56192</v>
+        <v>105.79</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D45" s="3" t="n">
@@ -1508,11 +1508,11 @@
         <v>46061.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>105.79</v>
+        <v>86.07659</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D46" s="3" t="n">
@@ -1533,7 +1533,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D47" s="3" t="n">
@@ -1550,11 +1550,11 @@
         <v>46061.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>98.22367</v>
+        <v>108.01</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D48" s="3" t="n">
@@ -1571,7 +1571,7 @@
         <v>46061.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>84.79000000000001</v>
+        <v>104.83796</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>46062</v>
       </c>
       <c r="B50" t="n">
-        <v>81.66013</v>
+        <v>85.65000000000001</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
         <v>46062.02083333334</v>
       </c>
       <c r="B51" t="n">
-        <v>84.79000000000001</v>
+        <v>105.79</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>46062.04166666666</v>
       </c>
       <c r="B52" t="n">
-        <v>87.61</v>
+        <v>105.79</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>46062.0625</v>
       </c>
       <c r="B53" t="n">
-        <v>85.65000000000001</v>
+        <v>95.00112</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
         <v>46062.08333333334</v>
       </c>
       <c r="B54" t="n">
-        <v>84.79000000000001</v>
+        <v>85.65000000000001</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>46062.10416666666</v>
       </c>
       <c r="B55" t="n">
-        <v>84.79000000000001</v>
+        <v>85.65000000000001</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>46062.125</v>
       </c>
       <c r="B56" t="n">
-        <v>84.79000000000001</v>
+        <v>87.01595</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>46062.14583333334</v>
       </c>
       <c r="B57" t="n">
-        <v>84.79000000000001</v>
+        <v>85.65000000000001</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>46062.16666666666</v>
       </c>
       <c r="B58" t="n">
-        <v>85.43541999999999</v>
+        <v>103.83786</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>46062.1875</v>
       </c>
       <c r="B59" t="n">
-        <v>107.33484</v>
+        <v>108.01</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>46062.22916666666</v>
       </c>
       <c r="B61" t="n">
-        <v>108.89</v>
+        <v>131.52376</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>46062.25</v>
       </c>
       <c r="B62" t="n">
-        <v>120.11674</v>
+        <v>130.19921</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1865,7 +1865,7 @@
         <v>46062.27083333334</v>
       </c>
       <c r="B63" t="n">
-        <v>138.42</v>
+        <v>149.71495</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>46062.29166666666</v>
       </c>
       <c r="B64" t="n">
-        <v>138.42</v>
+        <v>147.51</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>46062.3125</v>
       </c>
       <c r="B65" t="n">
-        <v>108.8899</v>
+        <v>147.51</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
         <v>46062.33333333334</v>
       </c>
       <c r="B66" t="n">
-        <v>106.44457</v>
+        <v>138</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>46062.35416666666</v>
       </c>
       <c r="B67" t="n">
-        <v>105.79</v>
+        <v>107.88115</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>46062.375</v>
       </c>
       <c r="B68" t="n">
-        <v>88.27488</v>
+        <v>100.01</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         <v>46062.39583333334</v>
       </c>
       <c r="B69" t="n">
-        <v>105</v>
+        <v>108.89</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>46062.41666666666</v>
       </c>
       <c r="B70" t="n">
-        <v>105</v>
+        <v>105.79</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>46062.4375</v>
       </c>
       <c r="B71" t="n">
-        <v>80.61</v>
+        <v>85.65000000000001</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>46062.47916666666</v>
       </c>
       <c r="B73" t="n">
-        <v>78</v>
+        <v>78.0001</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2096,7 +2096,7 @@
         <v>46062.5</v>
       </c>
       <c r="B74" t="n">
-        <v>78</v>
+        <v>79.44887</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>46062.58333333334</v>
       </c>
       <c r="B78" t="n">
-        <v>84.79000000000001</v>
+        <v>84.33557999999999</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>46062.625</v>
       </c>
       <c r="B80" t="n">
-        <v>83.2701</v>
+        <v>82.08329000000001</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>46062.64583333334</v>
       </c>
       <c r="B81" t="n">
-        <v>84.34999999999999</v>
+        <v>98.46892</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2264,7 +2264,7 @@
         <v>46062.66666666666</v>
       </c>
       <c r="B82" t="n">
-        <v>97.39767999999999</v>
+        <v>100.25304</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>46062.6875</v>
       </c>
       <c r="B83" t="n">
-        <v>84.79000000000001</v>
+        <v>93.76103999999999</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
         <v>46062.72916666666</v>
       </c>
       <c r="B85" t="n">
-        <v>103.17788</v>
+        <v>107.62964</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>46062.75</v>
       </c>
       <c r="B86" t="n">
-        <v>107.49479</v>
+        <v>114.75372</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>46062.77083333334</v>
       </c>
       <c r="B87" t="n">
-        <v>117.49308</v>
+        <v>130.86899</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>46062.79166666666</v>
       </c>
       <c r="B88" t="n">
-        <v>139.68424</v>
+        <v>166.99</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>46062.83333333334</v>
       </c>
       <c r="B90" t="n">
-        <v>145</v>
+        <v>173.3557</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>46062.85416666666</v>
       </c>
       <c r="B91" t="n">
-        <v>147.89</v>
+        <v>149.06831</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>46062.89583333334</v>
       </c>
       <c r="B93" t="n">
-        <v>123.55164</v>
+        <v>147.51</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>46062.91666666666</v>
       </c>
       <c r="B94" t="n">
-        <v>105</v>
+        <v>111.07152</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>46062.9375</v>
       </c>
       <c r="B95" t="n">
-        <v>105.79</v>
+        <v>136.74568</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>46062.95833333334</v>
       </c>
       <c r="B96" t="n">
-        <v>105</v>
+        <v>108.89</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>46062.97916666666</v>
       </c>
       <c r="B97" t="n">
-        <v>96.53089</v>
+        <v>105.79</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,42 +495,22 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46064.08333333334</v>
+        <v>46064.16666666666</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>46064.25</v>
+        <v>46064.66666666666</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>15.12</v>
+        <v>45.36</v>
       </c>
       <c r="E3" t="n">
-        <v>766.53851625</v>
+        <v>1536.192411</v>
       </c>
       <c r="F3" t="n">
-        <v>50.6969918154762</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>46064.3125</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>46064.64583333334</v>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>30.24</v>
-      </c>
-      <c r="E4" t="n">
-        <v>576.2613187499999</v>
-      </c>
-      <c r="F4" t="n">
-        <v>19.0562605406746</v>
+        <v>33.86667572751323</v>
       </c>
     </row>
   </sheetData>
@@ -1340,7 +1320,7 @@
         <v>46063.75</v>
       </c>
       <c r="B38" t="n">
-        <v>56.10568</v>
+        <v>110.17505</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1361,7 +1341,7 @@
         <v>46063.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>88.60187999999999</v>
+        <v>161.25495</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1382,11 +1362,11 @@
         <v>46063.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>143.28587</v>
+        <v>206.75779</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D40" s="3" t="n">
@@ -1403,11 +1383,11 @@
         <v>46063.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>166.99</v>
+        <v>299.99</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D41" s="3" t="n">
@@ -1424,11 +1404,11 @@
         <v>46063.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>166.99</v>
+        <v>299.99</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D42" s="3" t="n">
@@ -1445,11 +1425,11 @@
         <v>46063.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>154.2</v>
+        <v>222.23033</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D43" s="3" t="n">
@@ -1466,11 +1446,11 @@
         <v>46063.875</v>
       </c>
       <c r="B44" t="n">
-        <v>161.16954</v>
+        <v>178.67423</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D44" s="3" t="n">
@@ -1491,7 +1471,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D45" s="3" t="n">
@@ -1508,11 +1488,11 @@
         <v>46063.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>137.75151</v>
+        <v>144.62829</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D46" s="3" t="n">
@@ -1529,11 +1509,11 @@
         <v>46063.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>145.15097</v>
+        <v>154.2</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D47" s="3" t="n">
@@ -1550,11 +1530,11 @@
         <v>46063.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>163.04317</v>
+        <v>166.99</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D48" s="3" t="n">
@@ -1571,11 +1551,11 @@
         <v>46063.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>138.42</v>
+        <v>166.99</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D49" s="3" t="n">
@@ -1592,7 +1572,7 @@
         <v>46064</v>
       </c>
       <c r="B50" t="n">
-        <v>138.00356</v>
+        <v>150.37229</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1613,7 +1593,7 @@
         <v>46064.02083333334</v>
       </c>
       <c r="B51" t="n">
-        <v>131.34676</v>
+        <v>138.42</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1634,7 +1614,7 @@
         <v>46064.04166666666</v>
       </c>
       <c r="B52" t="n">
-        <v>113.43426</v>
+        <v>134.72311</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1655,7 +1635,7 @@
         <v>46064.0625</v>
       </c>
       <c r="B53" t="n">
-        <v>108.89</v>
+        <v>113.50454</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1676,7 +1656,7 @@
         <v>46064.08333333334</v>
       </c>
       <c r="B54" t="n">
-        <v>108.89</v>
+        <v>105.79</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1688,7 +1668,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1697,7 +1677,7 @@
         <v>46064.10416666666</v>
       </c>
       <c r="B55" t="n">
-        <v>102.0586</v>
+        <v>105.79</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1709,7 +1689,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1718,7 +1698,7 @@
         <v>46064.125</v>
       </c>
       <c r="B56" t="n">
-        <v>97.36472999999999</v>
+        <v>105.79</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1730,7 +1710,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1739,7 +1719,7 @@
         <v>46064.14583333334</v>
       </c>
       <c r="B57" t="n">
-        <v>98.21002</v>
+        <v>105.79</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1751,7 +1731,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1760,7 +1740,7 @@
         <v>46064.16666666666</v>
       </c>
       <c r="B58" t="n">
-        <v>105.79</v>
+        <v>108.89</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1781,7 +1761,7 @@
         <v>46064.1875</v>
       </c>
       <c r="B59" t="n">
-        <v>80.2</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1802,7 +1782,7 @@
         <v>46064.20833333334</v>
       </c>
       <c r="B60" t="n">
-        <v>84.79000000000001</v>
+        <v>93.77001</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1823,7 +1803,7 @@
         <v>46064.22916666666</v>
       </c>
       <c r="B61" t="n">
-        <v>108.89</v>
+        <v>118.44767</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1844,7 +1824,7 @@
         <v>46064.25</v>
       </c>
       <c r="B62" t="n">
-        <v>121.29524</v>
+        <v>122.19086</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1856,7 +1836,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1865,7 +1845,7 @@
         <v>46064.27083333334</v>
       </c>
       <c r="B63" t="n">
-        <v>113.43943</v>
+        <v>119.50455</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1877,7 +1857,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1886,7 +1866,7 @@
         <v>46064.29166666666</v>
       </c>
       <c r="B64" t="n">
-        <v>75.43277</v>
+        <v>59.79985</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1898,7 +1878,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1907,7 +1887,7 @@
         <v>46064.3125</v>
       </c>
       <c r="B65" t="n">
-        <v>40.54</v>
+        <v>48.3489</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1928,7 +1908,7 @@
         <v>46064.33333333334</v>
       </c>
       <c r="B66" t="n">
-        <v>21.99175</v>
+        <v>36.07</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1949,7 +1929,7 @@
         <v>46064.35416666666</v>
       </c>
       <c r="B67" t="n">
-        <v>22.07</v>
+        <v>48.30146</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1970,7 +1950,7 @@
         <v>46064.375</v>
       </c>
       <c r="B68" t="n">
-        <v>32.28838</v>
+        <v>36.07</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1991,7 +1971,7 @@
         <v>46064.39583333334</v>
       </c>
       <c r="B69" t="n">
-        <v>32.11463</v>
+        <v>50.62162</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2012,7 +1992,7 @@
         <v>46064.41666666666</v>
       </c>
       <c r="B70" t="n">
-        <v>34.11363</v>
+        <v>36.07</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2033,7 +2013,7 @@
         <v>46064.4375</v>
       </c>
       <c r="B71" t="n">
-        <v>22.07</v>
+        <v>36.07</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2054,7 +2034,7 @@
         <v>46064.45833333334</v>
       </c>
       <c r="B72" t="n">
-        <v>21.65638</v>
+        <v>36.07</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2075,7 +2055,7 @@
         <v>46064.47916666666</v>
       </c>
       <c r="B73" t="n">
-        <v>27.3618</v>
+        <v>36.07</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2096,7 +2076,7 @@
         <v>46064.5</v>
       </c>
       <c r="B74" t="n">
-        <v>33.34318</v>
+        <v>36.07</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2117,7 +2097,7 @@
         <v>46064.52083333334</v>
       </c>
       <c r="B75" t="n">
-        <v>36.07</v>
+        <v>52.88049</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2138,7 +2118,7 @@
         <v>46064.54166666666</v>
       </c>
       <c r="B76" t="n">
-        <v>50.31048</v>
+        <v>57.08</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2159,7 +2139,7 @@
         <v>46064.5625</v>
       </c>
       <c r="B77" t="n">
-        <v>54.4215</v>
+        <v>62.1786</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2180,7 +2160,7 @@
         <v>46064.58333333334</v>
       </c>
       <c r="B78" t="n">
-        <v>63.72507</v>
+        <v>65.34656</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2201,7 +2181,7 @@
         <v>46064.60416666666</v>
       </c>
       <c r="B79" t="n">
-        <v>51.66364</v>
+        <v>64.89</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2222,7 +2202,7 @@
         <v>46064.625</v>
       </c>
       <c r="B80" t="n">
-        <v>47.29681</v>
+        <v>68.08553000000001</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2243,7 +2223,7 @@
         <v>46064.64583333334</v>
       </c>
       <c r="B81" t="n">
-        <v>113.21101</v>
+        <v>97.96586000000001</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2255,7 +2235,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -2264,7 +2244,7 @@
         <v>46064.66666666666</v>
       </c>
       <c r="B82" t="n">
-        <v>147.81739</v>
+        <v>134.56236</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2285,7 +2265,7 @@
         <v>46064.6875</v>
       </c>
       <c r="B83" t="n">
-        <v>163.07715</v>
+        <v>248.88</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2306,7 +2286,7 @@
         <v>46064.70833333334</v>
       </c>
       <c r="B84" t="n">
-        <v>12342.58821</v>
+        <v>12131.28128</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2327,7 +2307,7 @@
         <v>46064.72916666666</v>
       </c>
       <c r="B85" t="n">
-        <v>4761.15688</v>
+        <v>12182.58465</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2348,7 +2328,7 @@
         <v>46064.75</v>
       </c>
       <c r="B86" t="n">
-        <v>12390.96813</v>
+        <v>12291.53742</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2369,7 +2349,7 @@
         <v>46064.77083333334</v>
       </c>
       <c r="B87" t="n">
-        <v>13668.26038</v>
+        <v>13979.99364</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2453,7 +2433,7 @@
         <v>46064.85416666666</v>
       </c>
       <c r="B91" t="n">
-        <v>299.99</v>
+        <v>248.88</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2495,7 +2475,7 @@
         <v>46064.89583333334</v>
       </c>
       <c r="B93" t="n">
-        <v>152.84822</v>
+        <v>133.03</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2516,7 +2496,7 @@
         <v>46064.91666666666</v>
       </c>
       <c r="B94" t="n">
-        <v>125.70129</v>
+        <v>126.46787</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2537,7 +2517,7 @@
         <v>46064.9375</v>
       </c>
       <c r="B95" t="n">
-        <v>128.67818</v>
+        <v>131.40716</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2558,7 +2538,7 @@
         <v>46064.95833333334</v>
       </c>
       <c r="B96" t="n">
-        <v>105.79</v>
+        <v>90.43129999999999</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2579,7 +2559,7 @@
         <v>46064.97916666666</v>
       </c>
       <c r="B97" t="n">
-        <v>84.79000000000001</v>
+        <v>81.16719999999999</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -475,62 +475,62 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46064.02083333334</v>
+        <v>46064.0625</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>46064.66666666666</v>
       </c>
       <c r="C2" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="D2" t="n">
-        <v>58.59</v>
+        <v>54.81</v>
       </c>
       <c r="E2" t="n">
-        <v>2325.75486975</v>
+        <v>2059.4403375</v>
       </c>
       <c r="F2" t="n">
-        <v>39.69542361751152</v>
+        <v>37.5741714559387</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46064.97916666666</v>
+        <v>46064.9375</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>46065.25</v>
+        <v>46065.27083333334</v>
       </c>
       <c r="C3" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>24.57</v>
+        <v>30.24</v>
       </c>
       <c r="E3" t="n">
-        <v>1118.7162675</v>
+        <v>1377.67331325</v>
       </c>
       <c r="F3" t="n">
-        <v>45.53179761904762</v>
+        <v>45.55797993551587</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46065.375</v>
+        <v>46065.41666666666</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>46065.625</v>
+        <v>46065.64583333334</v>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="D4" t="n">
-        <v>22.68</v>
+        <v>20.79</v>
       </c>
       <c r="E4" t="n">
-        <v>981.427551</v>
+        <v>954.65273475</v>
       </c>
       <c r="F4" t="n">
-        <v>43.27281970899471</v>
+        <v>45.91884246031746</v>
       </c>
     </row>
   </sheetData>
@@ -617,7 +617,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -638,7 +638,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1340,7 +1340,7 @@
         <v>46064.75</v>
       </c>
       <c r="B38" t="n">
-        <v>112.0939</v>
+        <v>12291.53742</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>46064.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>672.24617</v>
+        <v>13979.99364</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1382,11 +1382,11 @@
         <v>46064.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>1007.62384</v>
+        <v>20300</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D40" s="3" t="n">
@@ -1403,11 +1403,11 @@
         <v>46064.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>518.57313</v>
+        <v>20300</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D41" s="3" t="n">
@@ -1424,11 +1424,11 @@
         <v>46064.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>521.0274899999999</v>
+        <v>20300</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D42" s="3" t="n">
@@ -1445,11 +1445,11 @@
         <v>46064.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>137.7904</v>
+        <v>248.88</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D43" s="3" t="n">
@@ -1466,11 +1466,11 @@
         <v>46064.875</v>
       </c>
       <c r="B44" t="n">
-        <v>229.56132</v>
+        <v>166.99</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D44" s="3" t="n">
@@ -1487,11 +1487,11 @@
         <v>46064.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>166.99</v>
+        <v>133.03</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D45" s="3" t="n">
@@ -1508,11 +1508,11 @@
         <v>46064.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>144.7754</v>
+        <v>126.46787</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D46" s="3" t="n">
@@ -1529,11 +1529,11 @@
         <v>46064.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>166.99</v>
+        <v>131.40716</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D47" s="3" t="n">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1550,11 +1550,11 @@
         <v>46064.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>166.99</v>
+        <v>95.01533999999999</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D48" s="3" t="n">
@@ -1562,7 +1562,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1571,11 +1571,11 @@
         <v>46064.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>132.61259</v>
+        <v>78.48924</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D49" s="3" t="n">
@@ -1592,7 +1592,7 @@
         <v>46065</v>
       </c>
       <c r="B50" t="n">
-        <v>101.18498</v>
+        <v>69.04391</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
         <v>46065.02083333334</v>
       </c>
       <c r="B51" t="n">
-        <v>85.65000000000001</v>
+        <v>85.42874</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>46065.04166666666</v>
       </c>
       <c r="B52" t="n">
-        <v>77.64966</v>
+        <v>85.65000000000001</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>46065.0625</v>
       </c>
       <c r="B53" t="n">
-        <v>75.5325</v>
+        <v>83.38836000000001</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
         <v>46065.08333333334</v>
       </c>
       <c r="B54" t="n">
-        <v>79.00301</v>
+        <v>83.80474</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>46065.10416666666</v>
       </c>
       <c r="B55" t="n">
-        <v>84.79000000000001</v>
+        <v>85.65000000000001</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>46065.125</v>
       </c>
       <c r="B56" t="n">
-        <v>84.79000000000001</v>
+        <v>85.65000000000001</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>46065.14583333334</v>
       </c>
       <c r="B57" t="n">
-        <v>84.79000000000001</v>
+        <v>85.65000000000001</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>46065.16666666666</v>
       </c>
       <c r="B58" t="n">
-        <v>84.79000000000001</v>
+        <v>85.65000000000001</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>46065.1875</v>
       </c>
       <c r="B59" t="n">
-        <v>80.28492</v>
+        <v>85.65000000000001</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>46065.20833333334</v>
       </c>
       <c r="B60" t="n">
-        <v>84.79000000000001</v>
+        <v>85.65000000000001</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>46065.22916666666</v>
       </c>
       <c r="B61" t="n">
-        <v>91.53364000000001</v>
+        <v>83.88238</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>46065.25</v>
       </c>
       <c r="B62" t="n">
-        <v>119.65542</v>
+        <v>102.9884</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1865,7 +1865,7 @@
         <v>46065.27083333334</v>
       </c>
       <c r="B63" t="n">
-        <v>155.54456</v>
+        <v>138.42</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>46065.29166666666</v>
       </c>
       <c r="B64" t="n">
-        <v>148.44324</v>
+        <v>147.34773</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>46065.3125</v>
       </c>
       <c r="B65" t="n">
-        <v>138.42</v>
+        <v>129.74388</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
         <v>46065.33333333334</v>
       </c>
       <c r="B66" t="n">
-        <v>138.42</v>
+        <v>124.59387</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>46065.375</v>
       </c>
       <c r="B68" t="n">
-        <v>84.79000000000001</v>
+        <v>105.55063</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1982,7 +1982,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
         <v>46065.39583333334</v>
       </c>
       <c r="B69" t="n">
-        <v>84.79000000000001</v>
+        <v>105.79</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -2012,7 +2012,7 @@
         <v>46065.41666666666</v>
       </c>
       <c r="B70" t="n">
-        <v>84.79000000000001</v>
+        <v>105.79</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>46065.4375</v>
       </c>
       <c r="B71" t="n">
-        <v>84.79000000000001</v>
+        <v>85.65000000000001</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>46065.45833333334</v>
       </c>
       <c r="B72" t="n">
-        <v>84.79000000000001</v>
+        <v>85.65000000000001</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>46065.47916666666</v>
       </c>
       <c r="B73" t="n">
-        <v>80.77046</v>
+        <v>82.01393</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2096,7 +2096,7 @@
         <v>46065.5</v>
       </c>
       <c r="B74" t="n">
-        <v>75.54079</v>
+        <v>81.44007000000001</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>46065.52083333334</v>
       </c>
       <c r="B75" t="n">
-        <v>82.02697000000001</v>
+        <v>85.65000000000001</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>46065.54166666666</v>
       </c>
       <c r="B76" t="n">
-        <v>84.79000000000001</v>
+        <v>85.65000000000001</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2159,7 +2159,7 @@
         <v>46065.5625</v>
       </c>
       <c r="B77" t="n">
-        <v>84.79000000000001</v>
+        <v>86.16898999999999</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>46065.58333333334</v>
       </c>
       <c r="B78" t="n">
-        <v>89.24948000000001</v>
+        <v>93.46454</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>46065.60416666666</v>
       </c>
       <c r="B79" t="n">
-        <v>85.47466</v>
+        <v>87.64348</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>46065.625</v>
       </c>
       <c r="B80" t="n">
-        <v>106.77513</v>
+        <v>100.01</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -2243,7 +2243,7 @@
         <v>46065.64583333334</v>
       </c>
       <c r="B81" t="n">
-        <v>136.48697</v>
+        <v>136.4289</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2264,7 +2264,7 @@
         <v>46065.66666666666</v>
       </c>
       <c r="B82" t="n">
-        <v>121.79555</v>
+        <v>65.5369</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>46065.6875</v>
       </c>
       <c r="B83" t="n">
-        <v>57.31</v>
+        <v>46.18369</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>46065.70833333334</v>
       </c>
       <c r="B84" t="n">
-        <v>46.16323</v>
+        <v>75.00112</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
         <v>46065.72916666666</v>
       </c>
       <c r="B85" t="n">
-        <v>64.29215000000001</v>
+        <v>92.04031000000001</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>46065.75</v>
       </c>
       <c r="B86" t="n">
-        <v>299.49</v>
+        <v>57.31</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>46065.77083333334</v>
       </c>
       <c r="B87" t="n">
-        <v>166.99</v>
+        <v>57.31</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>46065.79166666666</v>
       </c>
       <c r="B88" t="n">
-        <v>1028.98677</v>
+        <v>36.25</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>46065.8125</v>
       </c>
       <c r="B89" t="n">
-        <v>405.18851</v>
+        <v>115</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>46065.83333333334</v>
       </c>
       <c r="B90" t="n">
-        <v>299.49</v>
+        <v>299.99</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>46065.85416666666</v>
       </c>
       <c r="B91" t="n">
-        <v>166.99</v>
+        <v>139.51244</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
         <v>46065.875</v>
       </c>
       <c r="B92" t="n">
-        <v>137.44773</v>
+        <v>73.43344999999999</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>46065.89583333334</v>
       </c>
       <c r="B93" t="n">
-        <v>132.69183</v>
+        <v>75.71758</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>46065.91666666666</v>
       </c>
       <c r="B94" t="n">
-        <v>108.89</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>46065.9375</v>
       </c>
       <c r="B95" t="n">
-        <v>108.89</v>
+        <v>75.94145</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>46065.95833333334</v>
       </c>
       <c r="B96" t="n">
-        <v>82.57934</v>
+        <v>64.89</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>46065.97916666666</v>
       </c>
       <c r="B97" t="n">
-        <v>81.94995</v>
+        <v>64.89</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -475,82 +475,82 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>46065.27083333334</v>
+        <v>46066.16666666666</v>
       </c>
       <c r="C2" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>24.57</v>
+        <v>15.12</v>
       </c>
       <c r="E2" t="n">
-        <v>1080.38436675</v>
+        <v>622.9101547499999</v>
       </c>
       <c r="F2" t="n">
-        <v>43.9716876984127</v>
+        <v>41.19776155753968</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46065.375</v>
+        <v>46066.3125</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>46065.64583333334</v>
+        <v>46066.66666666666</v>
       </c>
       <c r="C3" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="D3" t="n">
-        <v>24.57</v>
+        <v>32.13</v>
       </c>
       <c r="E3" t="n">
-        <v>1160.709849</v>
+        <v>980.9461057500005</v>
       </c>
       <c r="F3" t="n">
-        <v>47.24093809523809</v>
+        <v>30.5305355042017</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46065.875</v>
+        <v>46066.85416666666</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>46066.14583333334</v>
+        <v>46067.10416666666</v>
       </c>
       <c r="C4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>24.57</v>
+        <v>22.68</v>
       </c>
       <c r="E4" t="n">
-        <v>833.799759</v>
+        <v>735.9325545</v>
       </c>
       <c r="F4" t="n">
-        <v>33.93568412698413</v>
+        <v>32.44852533068784</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46066.3125</v>
+        <v>46067.35416666666</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>46066.66666666666</v>
+        <v>46067.75</v>
       </c>
       <c r="C5" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="D5" t="n">
-        <v>32.13</v>
+        <v>35.91</v>
       </c>
       <c r="E5" t="n">
-        <v>951.1251750000004</v>
+        <v>559.949559</v>
       </c>
       <c r="F5" t="n">
-        <v>29.60240196078433</v>
+        <v>15.59313725981621</v>
       </c>
     </row>
   </sheetData>
@@ -601,10 +601,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="B2" t="n">
-        <v>69.04391</v>
+        <v>78.21843</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="D2" s="3" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -622,10 +622,10 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46065.02083333334</v>
+        <v>46066.02083333334</v>
       </c>
       <c r="B3" t="n">
-        <v>85.42874</v>
+        <v>81.53060000000001</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -643,10 +643,10 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46065.04166666666</v>
+        <v>46066.04166666666</v>
       </c>
       <c r="B4" t="n">
-        <v>85.65000000000001</v>
+        <v>81.78924000000001</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -654,7 +654,7 @@
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -664,10 +664,10 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46065.0625</v>
+        <v>46066.0625</v>
       </c>
       <c r="B5" t="n">
-        <v>83.38836000000001</v>
+        <v>73.20009</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -685,10 +685,10 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>46065.08333333334</v>
+        <v>46066.08333333334</v>
       </c>
       <c r="B6" t="n">
-        <v>83.80474</v>
+        <v>79.88585999999999</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -706,10 +706,10 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>46065.10416666666</v>
+        <v>46066.10416666666</v>
       </c>
       <c r="B7" t="n">
-        <v>85.65000000000001</v>
+        <v>79.95038</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -727,10 +727,10 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>46065.125</v>
+        <v>46066.125</v>
       </c>
       <c r="B8" t="n">
-        <v>85.65000000000001</v>
+        <v>81.89208000000001</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -738,7 +738,7 @@
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -748,10 +748,10 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>46065.14583333334</v>
+        <v>46066.14583333334</v>
       </c>
       <c r="B9" t="n">
-        <v>85.65000000000001</v>
+        <v>82.41553</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -769,10 +769,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>46065.16666666666</v>
+        <v>46066.16666666666</v>
       </c>
       <c r="B10" t="n">
-        <v>85.65000000000001</v>
+        <v>83.88291</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -780,20 +780,20 @@
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>46065.1875</v>
+        <v>46066.1875</v>
       </c>
       <c r="B11" t="n">
-        <v>85.65000000000001</v>
+        <v>82.06502999999999</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -801,20 +801,20 @@
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>46065.20833333334</v>
+        <v>46066.20833333334</v>
       </c>
       <c r="B12" t="n">
-        <v>85.65000000000001</v>
+        <v>82.39475</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -822,20 +822,20 @@
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>46065.22916666666</v>
+        <v>46066.22916666666</v>
       </c>
       <c r="B13" t="n">
-        <v>83.88238</v>
+        <v>81.66082</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -843,20 +843,20 @@
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>46065.25</v>
+        <v>46066.25</v>
       </c>
       <c r="B14" t="n">
-        <v>102.9884</v>
+        <v>105.79</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -864,20 +864,20 @@
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>46065.27083333334</v>
+        <v>46066.27083333334</v>
       </c>
       <c r="B15" t="n">
-        <v>138.42</v>
+        <v>115.71045</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -895,10 +895,10 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>46065.29166666666</v>
+        <v>46066.29166666666</v>
       </c>
       <c r="B16" t="n">
-        <v>147.34773</v>
+        <v>105.79</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -906,7 +906,7 @@
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -916,10 +916,10 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>46065.3125</v>
+        <v>46066.3125</v>
       </c>
       <c r="B17" t="n">
-        <v>129.74388</v>
+        <v>59.36645</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -927,20 +927,20 @@
         </is>
       </c>
       <c r="D17" s="3" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>46065.33333333334</v>
+        <v>46066.33333333334</v>
       </c>
       <c r="B18" t="n">
-        <v>124.59387</v>
+        <v>57.03887</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -948,20 +948,20 @@
         </is>
       </c>
       <c r="D18" s="3" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>46065.35416666666</v>
+        <v>46066.35416666666</v>
       </c>
       <c r="B19" t="n">
-        <v>105.79</v>
+        <v>68.76662</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -969,20 +969,20 @@
         </is>
       </c>
       <c r="D19" s="3" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>46065.375</v>
+        <v>46066.375</v>
       </c>
       <c r="B20" t="n">
-        <v>105.55063</v>
+        <v>73.20022</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
         </is>
       </c>
       <c r="D20" s="3" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1000,10 +1000,10 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>46065.39583333334</v>
+        <v>46066.39583333334</v>
       </c>
       <c r="B21" t="n">
-        <v>105.79</v>
+        <v>57.06007</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D21" s="3" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1021,10 +1021,10 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>46065.41666666666</v>
+        <v>46066.41666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>105.79</v>
+        <v>61.64737</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="D22" s="3" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1042,10 +1042,10 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>46065.4375</v>
+        <v>46066.4375</v>
       </c>
       <c r="B23" t="n">
-        <v>85.65000000000001</v>
+        <v>58.29975</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D23" s="3" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1063,10 +1063,10 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>46065.45833333334</v>
+        <v>46066.45833333334</v>
       </c>
       <c r="B24" t="n">
-        <v>85.65000000000001</v>
+        <v>57.06</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1074,7 +1074,7 @@
         </is>
       </c>
       <c r="D24" s="3" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1084,10 +1084,10 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>46065.47916666666</v>
+        <v>46066.47916666666</v>
       </c>
       <c r="B25" t="n">
-        <v>82.01393</v>
+        <v>57.25873</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         </is>
       </c>
       <c r="D25" s="3" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1105,10 +1105,10 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>46065.5</v>
+        <v>46066.5</v>
       </c>
       <c r="B26" t="n">
-        <v>81.44007000000001</v>
+        <v>57.06007</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         </is>
       </c>
       <c r="D26" s="3" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1126,10 +1126,10 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>46065.52083333334</v>
+        <v>46066.52083333334</v>
       </c>
       <c r="B27" t="n">
-        <v>85.65000000000001</v>
+        <v>57.06007</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1137,7 +1137,7 @@
         </is>
       </c>
       <c r="D27" s="3" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1147,10 +1147,10 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>46065.54166666666</v>
+        <v>46066.54166666666</v>
       </c>
       <c r="B28" t="n">
-        <v>85.65000000000001</v>
+        <v>57.06007</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         </is>
       </c>
       <c r="D28" s="3" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1168,10 +1168,10 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>46065.5625</v>
+        <v>46066.5625</v>
       </c>
       <c r="B29" t="n">
-        <v>86.16898999999999</v>
+        <v>57.06007</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
         </is>
       </c>
       <c r="D29" s="3" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1189,10 +1189,10 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>46065.58333333334</v>
+        <v>46066.58333333334</v>
       </c>
       <c r="B30" t="n">
-        <v>93.46454</v>
+        <v>56.98</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         </is>
       </c>
       <c r="D30" s="3" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1210,10 +1210,10 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>46065.60416666666</v>
+        <v>46066.60416666666</v>
       </c>
       <c r="B31" t="n">
-        <v>87.64348</v>
+        <v>57.06007</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="D31" s="3" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1231,10 +1231,10 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>46065.625</v>
+        <v>46066.625</v>
       </c>
       <c r="B32" t="n">
-        <v>100.01</v>
+        <v>57.06007</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="D32" s="3" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1252,10 +1252,10 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>46065.64583333334</v>
+        <v>46066.64583333334</v>
       </c>
       <c r="B33" t="n">
-        <v>136.4289</v>
+        <v>57.06007</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1263,20 +1263,20 @@
         </is>
       </c>
       <c r="D33" s="3" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>46065.66666666666</v>
+        <v>46066.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>65.5369</v>
+        <v>57.06007</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         </is>
       </c>
       <c r="D34" s="3" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1294,10 +1294,10 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>46065.6875</v>
+        <v>46066.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>46.18369</v>
+        <v>56.98</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         </is>
       </c>
       <c r="D35" s="3" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1315,10 +1315,10 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>46065.70833333334</v>
+        <v>46066.70833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>75.00112</v>
+        <v>53.94172</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
         </is>
       </c>
       <c r="D36" s="3" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1336,10 +1336,10 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>46065.72916666666</v>
+        <v>46066.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>92.04031000000001</v>
+        <v>53.91421</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         </is>
       </c>
       <c r="D37" s="3" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1357,10 +1357,10 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>46065.75</v>
+        <v>46066.75</v>
       </c>
       <c r="B38" t="n">
-        <v>57.31</v>
+        <v>48.35025</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         </is>
       </c>
       <c r="D38" s="3" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1378,10 +1378,10 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>46065.77083333334</v>
+        <v>46066.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>57.31</v>
+        <v>48.95277</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         </is>
       </c>
       <c r="D39" s="3" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1399,18 +1399,18 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>46065.79166666666</v>
+        <v>46066.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>36.25</v>
+        <v>69.51005000000001</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D40" s="3" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1420,18 +1420,18 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>46065.8125</v>
+        <v>46066.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>115</v>
+        <v>69.96134000000001</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D41" s="3" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1441,18 +1441,18 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>46065.83333333334</v>
+        <v>46066.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>299.99</v>
+        <v>73.19</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D42" s="3" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1462,39 +1462,39 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>46065.85416666666</v>
+        <v>46066.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>139.51244</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D43" s="3" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>46065.875</v>
+        <v>46066.875</v>
       </c>
       <c r="B44" t="n">
-        <v>73.43344999999999</v>
+        <v>69.92804</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D44" s="3" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1504,18 +1504,18 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>46065.89583333334</v>
+        <v>46066.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>75.71758</v>
+        <v>70.17409000000001</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D45" s="3" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1525,18 +1525,18 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>46065.91666666666</v>
+        <v>46066.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>84.79000000000001</v>
+        <v>71.19528</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D46" s="3" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1546,18 +1546,18 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>46065.9375</v>
+        <v>46066.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>79.95038</v>
+        <v>67.91888</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D47" s="3" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1567,18 +1567,18 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>46065.95833333334</v>
+        <v>46066.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>73.20012</v>
+        <v>57.31</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D48" s="3" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1588,18 +1588,18 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>46065.97916666666</v>
+        <v>46066.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>57.31</v>
+        <v>64.89</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D49" s="3" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1609,10 +1609,10 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="B50" t="n">
-        <v>57.68</v>
+        <v>64.89</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
         </is>
       </c>
       <c r="D50" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>46066.02083333334</v>
+        <v>46067.02083333334</v>
       </c>
       <c r="B51" t="n">
-        <v>66.54771</v>
+        <v>57.31</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         </is>
       </c>
       <c r="D51" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1651,10 +1651,10 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>46066.04166666666</v>
+        <v>46067.04166666666</v>
       </c>
       <c r="B52" t="n">
-        <v>57.31</v>
+        <v>57.06007</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="D52" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1672,10 +1672,10 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>46066.0625</v>
+        <v>46067.0625</v>
       </c>
       <c r="B53" t="n">
-        <v>57.31</v>
+        <v>51.94034</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="D53" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1693,10 +1693,10 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>46066.08333333334</v>
+        <v>46067.08333333334</v>
       </c>
       <c r="B54" t="n">
-        <v>57.31</v>
+        <v>50.78592</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="D54" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1714,10 +1714,10 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>46066.10416666666</v>
+        <v>46067.10416666666</v>
       </c>
       <c r="B55" t="n">
-        <v>57.31</v>
+        <v>51.78333</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1725,20 +1725,20 @@
         </is>
       </c>
       <c r="D55" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>46066.125</v>
+        <v>46067.125</v>
       </c>
       <c r="B56" t="n">
-        <v>57.31</v>
+        <v>51.02373</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1746,20 +1746,20 @@
         </is>
       </c>
       <c r="D56" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>46066.14583333334</v>
+        <v>46067.14583333334</v>
       </c>
       <c r="B57" t="n">
-        <v>57.31</v>
+        <v>50.03655</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D57" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -1777,10 +1777,10 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>46066.16666666666</v>
+        <v>46067.16666666666</v>
       </c>
       <c r="B58" t="n">
-        <v>79.95038</v>
+        <v>50.90511</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         </is>
       </c>
       <c r="D58" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1798,10 +1798,10 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>46066.1875</v>
+        <v>46067.1875</v>
       </c>
       <c r="B59" t="n">
-        <v>64.89</v>
+        <v>57.06007</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         </is>
       </c>
       <c r="D59" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1819,10 +1819,10 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>46066.20833333334</v>
+        <v>46067.20833333334</v>
       </c>
       <c r="B60" t="n">
-        <v>64.89</v>
+        <v>57.06007</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         </is>
       </c>
       <c r="D60" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -1840,10 +1840,10 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>46066.22916666666</v>
+        <v>46067.22916666666</v>
       </c>
       <c r="B61" t="n">
-        <v>71.1951</v>
+        <v>73.19</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         </is>
       </c>
       <c r="D61" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -1861,10 +1861,10 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>46066.25</v>
+        <v>46067.25</v>
       </c>
       <c r="B62" t="n">
-        <v>83.48781</v>
+        <v>78.00005</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="D62" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1882,10 +1882,10 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>46066.27083333334</v>
+        <v>46067.27083333334</v>
       </c>
       <c r="B63" t="n">
-        <v>84.79000000000001</v>
+        <v>78.0001</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         </is>
       </c>
       <c r="D63" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>46066.29166666666</v>
+        <v>46067.29166666666</v>
       </c>
       <c r="B64" t="n">
         <v>73.19</v>
@@ -1914,7 +1914,7 @@
         </is>
       </c>
       <c r="D64" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -1924,10 +1924,10 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>46066.3125</v>
+        <v>46067.3125</v>
       </c>
       <c r="B65" t="n">
-        <v>57.06007</v>
+        <v>51.87916</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1935,20 +1935,20 @@
         </is>
       </c>
       <c r="D65" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>46066.33333333334</v>
+        <v>46067.33333333334</v>
       </c>
       <c r="B66" t="n">
-        <v>57.0595</v>
+        <v>60.73421</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1956,20 +1956,20 @@
         </is>
       </c>
       <c r="D66" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>46066.35416666666</v>
+        <v>46067.35416666666</v>
       </c>
       <c r="B67" t="n">
-        <v>57.06007</v>
+        <v>49.97626</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
         </is>
       </c>
       <c r="D67" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -1987,10 +1987,10 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>46066.375</v>
+        <v>46067.375</v>
       </c>
       <c r="B68" t="n">
-        <v>57.06007</v>
+        <v>47.09031</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         </is>
       </c>
       <c r="D68" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2008,10 +2008,10 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>46066.39583333334</v>
+        <v>46067.39583333334</v>
       </c>
       <c r="B69" t="n">
-        <v>57.06007</v>
+        <v>36.07</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2019,7 +2019,7 @@
         </is>
       </c>
       <c r="D69" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2029,10 +2029,10 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>46066.41666666666</v>
+        <v>46067.41666666666</v>
       </c>
       <c r="B70" t="n">
-        <v>60.57149</v>
+        <v>31.44006</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         </is>
       </c>
       <c r="D70" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2050,10 +2050,10 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>46066.4375</v>
+        <v>46067.4375</v>
       </c>
       <c r="B71" t="n">
-        <v>58.30307</v>
+        <v>36.07</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D71" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2071,10 +2071,10 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>46066.45833333334</v>
+        <v>46067.45833333334</v>
       </c>
       <c r="B72" t="n">
-        <v>57.8781</v>
+        <v>36.07</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="D72" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2092,10 +2092,10 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>46066.47916666666</v>
+        <v>46067.47916666666</v>
       </c>
       <c r="B73" t="n">
-        <v>57.06007</v>
+        <v>36.07</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
         </is>
       </c>
       <c r="D73" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2113,10 +2113,10 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>46066.5</v>
+        <v>46067.5</v>
       </c>
       <c r="B74" t="n">
-        <v>57.06007</v>
+        <v>33.48293</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="D74" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2134,10 +2134,10 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>46066.52083333334</v>
+        <v>46067.52083333334</v>
       </c>
       <c r="B75" t="n">
-        <v>57.06007</v>
+        <v>21.54441</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         </is>
       </c>
       <c r="D75" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2155,10 +2155,10 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>46066.54166666666</v>
+        <v>46067.54166666666</v>
       </c>
       <c r="B76" t="n">
-        <v>57.06007</v>
+        <v>11.95678</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2166,7 +2166,7 @@
         </is>
       </c>
       <c r="D76" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2176,10 +2176,10 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>46066.5625</v>
+        <v>46067.5625</v>
       </c>
       <c r="B77" t="n">
-        <v>57.06007</v>
+        <v>3.20158</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         </is>
       </c>
       <c r="D77" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2197,10 +2197,10 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>46066.58333333334</v>
+        <v>46067.58333333334</v>
       </c>
       <c r="B78" t="n">
-        <v>56.98</v>
+        <v>22.07</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         </is>
       </c>
       <c r="D78" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2218,10 +2218,10 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>46066.60416666666</v>
+        <v>46067.60416666666</v>
       </c>
       <c r="B79" t="n">
-        <v>57.06007</v>
+        <v>17.43885</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2229,7 +2229,7 @@
         </is>
       </c>
       <c r="D79" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2239,10 +2239,10 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>46066.625</v>
+        <v>46067.625</v>
       </c>
       <c r="B80" t="n">
-        <v>57.06007</v>
+        <v>36.0601</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2250,7 +2250,7 @@
         </is>
       </c>
       <c r="D80" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2260,10 +2260,10 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>46066.64583333334</v>
+        <v>46067.64583333334</v>
       </c>
       <c r="B81" t="n">
-        <v>57.06007</v>
+        <v>0.51</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="D81" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2281,10 +2281,10 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>46066.66666666666</v>
+        <v>46067.66666666666</v>
       </c>
       <c r="B82" t="n">
-        <v>57.06007</v>
+        <v>36.05897</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2292,20 +2292,20 @@
         </is>
       </c>
       <c r="D82" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>46066.6875</v>
+        <v>46067.6875</v>
       </c>
       <c r="B83" t="n">
-        <v>56.98</v>
+        <v>36.0601</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2313,20 +2313,20 @@
         </is>
       </c>
       <c r="D83" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>46066.70833333334</v>
+        <v>46067.70833333334</v>
       </c>
       <c r="B84" t="n">
-        <v>53.90789</v>
+        <v>36.0601</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2334,20 +2334,20 @@
         </is>
       </c>
       <c r="D84" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>46066.72916666666</v>
+        <v>46067.72916666666</v>
       </c>
       <c r="B85" t="n">
-        <v>53.83945</v>
+        <v>47.07679</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2355,20 +2355,20 @@
         </is>
       </c>
       <c r="D85" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>46066.75</v>
+        <v>46067.75</v>
       </c>
       <c r="B86" t="n">
-        <v>48.11085</v>
+        <v>56.98</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         </is>
       </c>
       <c r="D86" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2386,10 +2386,10 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>46066.77083333334</v>
+        <v>46067.77083333334</v>
       </c>
       <c r="B87" t="n">
-        <v>39.58292</v>
+        <v>56.98</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         </is>
       </c>
       <c r="D87" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2407,10 +2407,10 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>46066.79166666666</v>
+        <v>46067.79166666666</v>
       </c>
       <c r="B88" t="n">
-        <v>64.89</v>
+        <v>57.31</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         </is>
       </c>
       <c r="D88" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2428,10 +2428,10 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>46066.8125</v>
+        <v>46067.8125</v>
       </c>
       <c r="B89" t="n">
-        <v>68.6712</v>
+        <v>57.52734</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         </is>
       </c>
       <c r="D89" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2449,10 +2449,10 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>46066.83333333334</v>
+        <v>46067.83333333334</v>
       </c>
       <c r="B90" t="n">
-        <v>66.42968</v>
+        <v>57.7336</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         </is>
       </c>
       <c r="D90" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2470,10 +2470,10 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>46066.85416666666</v>
+        <v>46067.85416666666</v>
       </c>
       <c r="B91" t="n">
-        <v>68.35113</v>
+        <v>57.48701</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         </is>
       </c>
       <c r="D91" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -2491,10 +2491,10 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>46066.875</v>
+        <v>46067.875</v>
       </c>
       <c r="B92" t="n">
-        <v>64.89</v>
+        <v>57.31</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         </is>
       </c>
       <c r="D92" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -2512,10 +2512,10 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>46066.89583333334</v>
+        <v>46067.89583333334</v>
       </c>
       <c r="B93" t="n">
-        <v>64.89</v>
+        <v>57.31</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         </is>
       </c>
       <c r="D93" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2533,10 +2533,10 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>46066.91666666666</v>
+        <v>46067.91666666666</v>
       </c>
       <c r="B94" t="n">
-        <v>64.89</v>
+        <v>57.31</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         </is>
       </c>
       <c r="D94" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -2554,10 +2554,10 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>46066.9375</v>
+        <v>46067.9375</v>
       </c>
       <c r="B95" t="n">
-        <v>73.19</v>
+        <v>57.06007</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D95" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2575,10 +2575,10 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>46066.95833333334</v>
+        <v>46067.95833333334</v>
       </c>
       <c r="B96" t="n">
-        <v>67.81603</v>
+        <v>50.04714</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         </is>
       </c>
       <c r="D96" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -2596,10 +2596,10 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>46066.97916666666</v>
+        <v>46067.97916666666</v>
       </c>
       <c r="B97" t="n">
-        <v>69.28548000000001</v>
+        <v>51.72523</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         </is>
       </c>
       <c r="D97" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,102 +475,62 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46066</v>
+        <v>46067.3125</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>46066.16666666666</v>
+        <v>46067.8125</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>15.12</v>
+        <v>45.36</v>
       </c>
       <c r="E2" t="n">
-        <v>622.9101547499999</v>
+        <v>718.8197737499999</v>
       </c>
       <c r="F2" t="n">
-        <v>41.19776155753968</v>
+        <v>15.84699677579365</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46066.33333333334</v>
+        <v>46067.83333333334</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>46066.66666666666</v>
+        <v>46068.02083333334</v>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="D3" t="n">
-        <v>30.24</v>
+        <v>17.01</v>
       </c>
       <c r="E3" t="n">
-        <v>923.0638170000002</v>
+        <v>483.9006997500001</v>
       </c>
       <c r="F3" t="n">
-        <v>30.52459712301588</v>
+        <v>28.44801291887126</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46066.83333333334</v>
+        <v>46068.29166666666</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>46067</v>
+        <v>46068.77083333334</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>11.5</v>
       </c>
       <c r="D4" t="n">
-        <v>15.12</v>
+        <v>43.47</v>
       </c>
       <c r="E4" t="n">
-        <v>550.5185009999999</v>
+        <v>830.6510842499997</v>
       </c>
       <c r="F4" t="n">
-        <v>36.40995376984127</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>46067.04166666666</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>46067.20833333334</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>15.12</v>
-      </c>
-      <c r="E5" t="n">
-        <v>406.95022875</v>
-      </c>
-      <c r="F5" t="n">
-        <v>26.9146976686508</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>46067.375</v>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>46067.70833333334</v>
-      </c>
-      <c r="C6" t="n">
-        <v>8</v>
-      </c>
-      <c r="D6" t="n">
-        <v>30.24</v>
-      </c>
-      <c r="E6" t="n">
-        <v>251.7862035</v>
-      </c>
-      <c r="F6" t="n">
-        <v>8.326263343253968</v>
+        <v>19.10860557280883</v>
       </c>
     </row>
   </sheetData>
@@ -621,10 +581,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="B2" t="n">
-        <v>78.21843</v>
+        <v>73.42098</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -632,20 +592,20 @@
         </is>
       </c>
       <c r="D2" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46066.02083333334</v>
+        <v>46067.02083333334</v>
       </c>
       <c r="B3" t="n">
-        <v>81.53060000000001</v>
+        <v>71.34744999999999</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -653,20 +613,20 @@
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46066.04166666666</v>
+        <v>46067.04166666666</v>
       </c>
       <c r="B4" t="n">
-        <v>81.78924000000001</v>
+        <v>61.01486</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -674,20 +634,20 @@
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46066.0625</v>
+        <v>46067.0625</v>
       </c>
       <c r="B5" t="n">
-        <v>73.20009</v>
+        <v>57.06014</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -695,20 +655,20 @@
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>46066.08333333334</v>
+        <v>46067.08333333334</v>
       </c>
       <c r="B6" t="n">
-        <v>79.88585999999999</v>
+        <v>57.06007</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -716,20 +676,20 @@
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>46066.10416666666</v>
+        <v>46067.10416666666</v>
       </c>
       <c r="B7" t="n">
-        <v>79.95038</v>
+        <v>56.98</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -737,20 +697,20 @@
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>46066.125</v>
+        <v>46067.125</v>
       </c>
       <c r="B8" t="n">
-        <v>81.89208000000001</v>
+        <v>53.23796</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -758,20 +718,20 @@
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>46066.14583333334</v>
+        <v>46067.14583333334</v>
       </c>
       <c r="B9" t="n">
-        <v>82.41553</v>
+        <v>53.24036</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -779,20 +739,20 @@
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>46066.16666666666</v>
+        <v>46067.16666666666</v>
       </c>
       <c r="B10" t="n">
-        <v>83.88291</v>
+        <v>54.22002</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -800,7 +760,7 @@
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -810,10 +770,10 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>46066.1875</v>
+        <v>46067.1875</v>
       </c>
       <c r="B11" t="n">
-        <v>82.06502999999999</v>
+        <v>57.06007</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -821,7 +781,7 @@
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -831,10 +791,10 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>46066.20833333334</v>
+        <v>46067.20833333334</v>
       </c>
       <c r="B12" t="n">
-        <v>82.39475</v>
+        <v>62.36894</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -842,7 +802,7 @@
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -852,10 +812,10 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>46066.22916666666</v>
+        <v>46067.22916666666</v>
       </c>
       <c r="B13" t="n">
-        <v>81.66082</v>
+        <v>76.13726</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -863,7 +823,7 @@
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -873,10 +833,10 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>46066.25</v>
+        <v>46067.25</v>
       </c>
       <c r="B14" t="n">
-        <v>105.79</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -884,7 +844,7 @@
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -894,10 +854,10 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>46066.27083333334</v>
+        <v>46067.27083333334</v>
       </c>
       <c r="B15" t="n">
-        <v>115.71045</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -905,7 +865,7 @@
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -915,10 +875,10 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>46066.29166666666</v>
+        <v>46067.29166666666</v>
       </c>
       <c r="B16" t="n">
-        <v>105.79</v>
+        <v>73.19</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -926,7 +886,7 @@
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -936,10 +896,10 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>46066.3125</v>
+        <v>46067.3125</v>
       </c>
       <c r="B17" t="n">
-        <v>59.36645</v>
+        <v>51.59311</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -947,20 +907,20 @@
         </is>
       </c>
       <c r="D17" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>46066.33333333334</v>
+        <v>46067.33333333334</v>
       </c>
       <c r="B18" t="n">
-        <v>57.03887</v>
+        <v>56.98</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -968,7 +928,7 @@
         </is>
       </c>
       <c r="D18" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -978,10 +938,10 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>46066.35416666666</v>
+        <v>46067.35416666666</v>
       </c>
       <c r="B19" t="n">
-        <v>68.76662</v>
+        <v>47.45981</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -989,7 +949,7 @@
         </is>
       </c>
       <c r="D19" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -999,10 +959,10 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>46066.375</v>
+        <v>46067.375</v>
       </c>
       <c r="B20" t="n">
-        <v>73.20022</v>
+        <v>36.07</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1010,7 +970,7 @@
         </is>
       </c>
       <c r="D20" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1020,10 +980,10 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>46066.39583333334</v>
+        <v>46067.39583333334</v>
       </c>
       <c r="B21" t="n">
-        <v>57.06007</v>
+        <v>31.1147</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1031,7 +991,7 @@
         </is>
       </c>
       <c r="D21" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1041,10 +1001,10 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>46066.41666666666</v>
+        <v>46067.41666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>61.64737</v>
+        <v>22.07</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1052,7 +1012,7 @@
         </is>
       </c>
       <c r="D22" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1062,10 +1022,10 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>46066.4375</v>
+        <v>46067.4375</v>
       </c>
       <c r="B23" t="n">
-        <v>58.29975</v>
+        <v>30.94737</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1073,7 +1033,7 @@
         </is>
       </c>
       <c r="D23" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1083,10 +1043,10 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>46066.45833333334</v>
+        <v>46067.45833333334</v>
       </c>
       <c r="B24" t="n">
-        <v>57.06</v>
+        <v>30.52819</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1094,7 +1054,7 @@
         </is>
       </c>
       <c r="D24" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1104,10 +1064,10 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>46066.47916666666</v>
+        <v>46067.47916666666</v>
       </c>
       <c r="B25" t="n">
-        <v>57.25873</v>
+        <v>22.07</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1115,7 +1075,7 @@
         </is>
       </c>
       <c r="D25" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1125,10 +1085,10 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>46066.5</v>
+        <v>46067.5</v>
       </c>
       <c r="B26" t="n">
-        <v>57.06007</v>
+        <v>8.03814</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1136,7 +1096,7 @@
         </is>
       </c>
       <c r="D26" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1146,10 +1106,10 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>46066.52083333334</v>
+        <v>46067.52083333334</v>
       </c>
       <c r="B27" t="n">
-        <v>57.06007</v>
+        <v>-4.68971</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1157,7 +1117,7 @@
         </is>
       </c>
       <c r="D27" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1167,10 +1127,10 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>46066.54166666666</v>
+        <v>46067.54166666666</v>
       </c>
       <c r="B28" t="n">
-        <v>57.06007</v>
+        <v>-0.99369</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1178,7 +1138,7 @@
         </is>
       </c>
       <c r="D28" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1188,10 +1148,10 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>46066.5625</v>
+        <v>46067.5625</v>
       </c>
       <c r="B29" t="n">
-        <v>57.06007</v>
+        <v>-2.66469</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1199,7 +1159,7 @@
         </is>
       </c>
       <c r="D29" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1209,10 +1169,10 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>46066.58333333334</v>
+        <v>46067.58333333334</v>
       </c>
       <c r="B30" t="n">
-        <v>56.98</v>
+        <v>2.9527</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1220,7 +1180,7 @@
         </is>
       </c>
       <c r="D30" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1230,10 +1190,10 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>46066.60416666666</v>
+        <v>46067.60416666666</v>
       </c>
       <c r="B31" t="n">
-        <v>57.06007</v>
+        <v>9.45477</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1241,7 +1201,7 @@
         </is>
       </c>
       <c r="D31" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1251,10 +1211,10 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>46066.625</v>
+        <v>46067.625</v>
       </c>
       <c r="B32" t="n">
-        <v>57.06007</v>
+        <v>21.73531</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1262,7 +1222,7 @@
         </is>
       </c>
       <c r="D32" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1272,10 +1232,10 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>46066.64583333334</v>
+        <v>46067.64583333334</v>
       </c>
       <c r="B33" t="n">
-        <v>57.06007</v>
+        <v>36.0601</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1283,7 +1243,7 @@
         </is>
       </c>
       <c r="D33" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1293,10 +1253,10 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>46066.66666666666</v>
+        <v>46067.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>57.06007</v>
+        <v>44.72673</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1304,20 +1264,20 @@
         </is>
       </c>
       <c r="D34" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>46066.6875</v>
+        <v>46067.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>56.98</v>
+        <v>36.0601</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1325,20 +1285,20 @@
         </is>
       </c>
       <c r="D35" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>46066.70833333334</v>
+        <v>46067.70833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>53.94172</v>
+        <v>47.91498</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1346,20 +1306,20 @@
         </is>
       </c>
       <c r="D36" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>46066.72916666666</v>
+        <v>46067.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>53.91421</v>
+        <v>56.98</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1367,20 +1327,20 @@
         </is>
       </c>
       <c r="D37" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>46066.75</v>
+        <v>46067.75</v>
       </c>
       <c r="B38" t="n">
-        <v>49.00286</v>
+        <v>47.01998</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1388,70 +1348,70 @@
         </is>
       </c>
       <c r="D38" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>46066.77083333334</v>
+        <v>46067.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>39.58239</v>
+        <v>48.51315</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D39" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>46066.79166666666</v>
+        <v>46067.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>66.37485</v>
+        <v>57.31</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D40" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>46066.8125</v>
+        <v>46067.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>73.19</v>
+        <v>57.31</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D41" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1461,18 +1421,18 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>46066.83333333334</v>
+        <v>46067.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>67.05637</v>
+        <v>57.31</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D42" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1482,18 +1442,18 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>46066.85416666666</v>
+        <v>46067.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>71.80374999999999</v>
+        <v>57.31</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D43" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1503,18 +1463,18 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>46066.875</v>
+        <v>46067.875</v>
       </c>
       <c r="B44" t="n">
-        <v>68.15342</v>
+        <v>57.31</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D44" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1524,18 +1484,18 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>46066.89583333334</v>
+        <v>46067.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>71.40000000000001</v>
+        <v>57.31</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D45" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1545,18 +1505,18 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>46066.91666666666</v>
+        <v>46067.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>71.40000000000001</v>
+        <v>57.31</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D46" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1566,18 +1526,18 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>46066.9375</v>
+        <v>46067.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>72.51486</v>
+        <v>56.98</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D47" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1587,18 +1547,18 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>46066.95833333334</v>
+        <v>46067.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>70.80972</v>
+        <v>49.86031</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D48" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1608,10 +1568,10 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>46066.97916666666</v>
+        <v>46067.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>71.49624</v>
+        <v>51.49506</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1619,7 +1579,7 @@
         </is>
       </c>
       <c r="D49" s="3" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1629,10 +1589,10 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="B50" t="n">
-        <v>72.97991</v>
+        <v>51.42304</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1640,20 +1600,20 @@
         </is>
       </c>
       <c r="D50" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>46067.02083333334</v>
+        <v>46068.02083333334</v>
       </c>
       <c r="B51" t="n">
-        <v>64.89</v>
+        <v>56.98</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1661,7 +1621,7 @@
         </is>
       </c>
       <c r="D51" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1671,10 +1631,10 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>46067.04166666666</v>
+        <v>46068.04166666666</v>
       </c>
       <c r="B52" t="n">
-        <v>57.06007</v>
+        <v>53.15058</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1682,20 +1642,20 @@
         </is>
       </c>
       <c r="D52" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>46067.0625</v>
+        <v>46068.0625</v>
       </c>
       <c r="B53" t="n">
-        <v>56.98</v>
+        <v>54.35368</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1703,20 +1663,20 @@
         </is>
       </c>
       <c r="D53" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>46067.08333333334</v>
+        <v>46068.08333333334</v>
       </c>
       <c r="B54" t="n">
-        <v>56.98</v>
+        <v>52.91245</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1724,20 +1684,20 @@
         </is>
       </c>
       <c r="D54" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>46067.10416666666</v>
+        <v>46068.10416666666</v>
       </c>
       <c r="B55" t="n">
-        <v>52.64259</v>
+        <v>52.96661</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1745,20 +1705,20 @@
         </is>
       </c>
       <c r="D55" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>46067.125</v>
+        <v>46068.125</v>
       </c>
       <c r="B56" t="n">
-        <v>49.99118</v>
+        <v>53.0055</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1766,20 +1726,20 @@
         </is>
       </c>
       <c r="D56" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>46067.14583333334</v>
+        <v>46068.14583333334</v>
       </c>
       <c r="B57" t="n">
-        <v>36.07</v>
+        <v>54.7633</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1787,20 +1747,20 @@
         </is>
       </c>
       <c r="D57" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>46067.16666666666</v>
+        <v>46068.16666666666</v>
       </c>
       <c r="B58" t="n">
-        <v>50.60094</v>
+        <v>56.85005</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1808,20 +1768,20 @@
         </is>
       </c>
       <c r="D58" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>46067.1875</v>
+        <v>46068.1875</v>
       </c>
       <c r="B59" t="n">
-        <v>57.06007</v>
+        <v>52.6801</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1829,20 +1789,20 @@
         </is>
       </c>
       <c r="D59" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>46067.20833333334</v>
+        <v>46068.20833333334</v>
       </c>
       <c r="B60" t="n">
-        <v>60.48199</v>
+        <v>52.65439</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1850,7 +1810,7 @@
         </is>
       </c>
       <c r="D60" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -1860,10 +1820,10 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>46067.22916666666</v>
+        <v>46068.22916666666</v>
       </c>
       <c r="B61" t="n">
-        <v>73.19</v>
+        <v>54.4821</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1871,7 +1831,7 @@
         </is>
       </c>
       <c r="D61" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -1881,10 +1841,10 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>46067.25</v>
+        <v>46068.25</v>
       </c>
       <c r="B62" t="n">
-        <v>78.00005</v>
+        <v>53.29684</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1892,7 +1852,7 @@
         </is>
       </c>
       <c r="D62" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1902,10 +1862,10 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>46067.27083333334</v>
+        <v>46068.27083333334</v>
       </c>
       <c r="B63" t="n">
-        <v>78.55543</v>
+        <v>56.90006</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1913,7 +1873,7 @@
         </is>
       </c>
       <c r="D63" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -1923,10 +1883,10 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>46067.29166666666</v>
+        <v>46068.29166666666</v>
       </c>
       <c r="B64" t="n">
-        <v>73.19</v>
+        <v>36.0601</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1934,20 +1894,20 @@
         </is>
       </c>
       <c r="D64" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>46067.3125</v>
+        <v>46068.3125</v>
       </c>
       <c r="B65" t="n">
-        <v>52.38598</v>
+        <v>40.58272</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1955,20 +1915,20 @@
         </is>
       </c>
       <c r="D65" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>46067.33333333334</v>
+        <v>46068.33333333334</v>
       </c>
       <c r="B66" t="n">
-        <v>56.81604</v>
+        <v>36.0601</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1976,20 +1936,20 @@
         </is>
       </c>
       <c r="D66" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>46067.35416666666</v>
+        <v>46068.35416666666</v>
       </c>
       <c r="B67" t="n">
-        <v>47.46014</v>
+        <v>36.0601</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1997,20 +1957,20 @@
         </is>
       </c>
       <c r="D67" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>46067.375</v>
+        <v>46068.375</v>
       </c>
       <c r="B68" t="n">
-        <v>36.07</v>
+        <v>36.0601</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -2018,7 +1978,7 @@
         </is>
       </c>
       <c r="D68" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2028,10 +1988,10 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>46067.39583333334</v>
+        <v>46068.39583333334</v>
       </c>
       <c r="B69" t="n">
-        <v>33.0391</v>
+        <v>36.0601</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2039,7 +1999,7 @@
         </is>
       </c>
       <c r="D69" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2049,10 +2009,10 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>46067.41666666666</v>
+        <v>46068.41666666666</v>
       </c>
       <c r="B70" t="n">
-        <v>20.06478</v>
+        <v>36.0601</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2060,7 +2020,7 @@
         </is>
       </c>
       <c r="D70" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2070,10 +2030,10 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>46067.4375</v>
+        <v>46068.4375</v>
       </c>
       <c r="B71" t="n">
-        <v>36.07</v>
+        <v>36.0601</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2081,7 +2041,7 @@
         </is>
       </c>
       <c r="D71" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2091,10 +2051,10 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>46067.45833333334</v>
+        <v>46068.45833333334</v>
       </c>
       <c r="B72" t="n">
-        <v>22.07</v>
+        <v>36.07</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2102,7 +2062,7 @@
         </is>
       </c>
       <c r="D72" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2112,10 +2072,10 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>46067.47916666666</v>
+        <v>46068.47916666666</v>
       </c>
       <c r="B73" t="n">
-        <v>0.51</v>
+        <v>36.05985</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2123,7 +2083,7 @@
         </is>
       </c>
       <c r="D73" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2133,10 +2093,10 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>46067.5</v>
+        <v>46068.5</v>
       </c>
       <c r="B74" t="n">
-        <v>8.038040000000001</v>
+        <v>36.0601</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2144,7 +2104,7 @@
         </is>
       </c>
       <c r="D74" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2154,10 +2114,10 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>46067.52083333334</v>
+        <v>46068.52083333334</v>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>34.01</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2165,7 +2125,7 @@
         </is>
       </c>
       <c r="D75" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2175,10 +2135,10 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>46067.54166666666</v>
+        <v>46068.54166666666</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.99369</v>
+        <v>36.07</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2186,7 +2146,7 @@
         </is>
       </c>
       <c r="D76" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2196,10 +2156,10 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>46067.5625</v>
+        <v>46068.5625</v>
       </c>
       <c r="B77" t="n">
-        <v>-2.60914</v>
+        <v>36.0601</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2207,7 +2167,7 @@
         </is>
       </c>
       <c r="D77" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2217,10 +2177,10 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>46067.58333333334</v>
+        <v>46068.58333333334</v>
       </c>
       <c r="B78" t="n">
-        <v>0.00831</v>
+        <v>36.0601</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2228,7 +2188,7 @@
         </is>
       </c>
       <c r="D78" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2238,10 +2198,10 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>46067.60416666666</v>
+        <v>46068.60416666666</v>
       </c>
       <c r="B79" t="n">
-        <v>-11.64094</v>
+        <v>36.0601</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2249,7 +2209,7 @@
         </is>
       </c>
       <c r="D79" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2259,10 +2219,10 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>46067.625</v>
+        <v>46068.625</v>
       </c>
       <c r="B80" t="n">
-        <v>0.51</v>
+        <v>47.55734</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2270,7 +2230,7 @@
         </is>
       </c>
       <c r="D80" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2280,10 +2240,10 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>46067.64583333334</v>
+        <v>46068.64583333334</v>
       </c>
       <c r="B81" t="n">
-        <v>36.0601</v>
+        <v>48.57635</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2291,7 +2251,7 @@
         </is>
       </c>
       <c r="D81" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2301,10 +2261,10 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>46067.66666666666</v>
+        <v>46068.66666666666</v>
       </c>
       <c r="B82" t="n">
-        <v>44.9856</v>
+        <v>46.03598</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2312,7 +2272,7 @@
         </is>
       </c>
       <c r="D82" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2322,10 +2282,10 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>46067.6875</v>
+        <v>46068.6875</v>
       </c>
       <c r="B83" t="n">
-        <v>36.0601</v>
+        <v>27.22859</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2333,7 +2293,7 @@
         </is>
       </c>
       <c r="D83" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2343,10 +2303,10 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>46067.70833333334</v>
+        <v>46068.70833333334</v>
       </c>
       <c r="B84" t="n">
-        <v>47.91478</v>
+        <v>29.38653</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2354,20 +2314,20 @@
         </is>
       </c>
       <c r="D84" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>46067.72916666666</v>
+        <v>46068.72916666666</v>
       </c>
       <c r="B85" t="n">
-        <v>57.09</v>
+        <v>26.90027</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2375,20 +2335,20 @@
         </is>
       </c>
       <c r="D85" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>46067.75</v>
+        <v>46068.75</v>
       </c>
       <c r="B86" t="n">
-        <v>57.09</v>
+        <v>46.8111</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2396,20 +2356,20 @@
         </is>
       </c>
       <c r="D86" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>46067.77083333334</v>
+        <v>46068.77083333334</v>
       </c>
       <c r="B87" t="n">
-        <v>56.98</v>
+        <v>58.03766</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2417,7 +2377,7 @@
         </is>
       </c>
       <c r="D87" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2427,10 +2387,10 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>46067.79166666666</v>
+        <v>46068.79166666666</v>
       </c>
       <c r="B88" t="n">
-        <v>58.1749</v>
+        <v>64.89</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2438,7 +2398,7 @@
         </is>
       </c>
       <c r="D88" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2448,10 +2408,10 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>46067.8125</v>
+        <v>46068.8125</v>
       </c>
       <c r="B89" t="n">
-        <v>64.89</v>
+        <v>65</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2459,7 +2419,7 @@
         </is>
       </c>
       <c r="D89" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2469,10 +2429,10 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>46067.83333333334</v>
+        <v>46068.83333333334</v>
       </c>
       <c r="B90" t="n">
-        <v>64.89</v>
+        <v>65</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2480,7 +2440,7 @@
         </is>
       </c>
       <c r="D90" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2490,7 +2450,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>46067.85416666666</v>
+        <v>46068.85416666666</v>
       </c>
       <c r="B91" t="n">
         <v>64.89</v>
@@ -2501,7 +2461,7 @@
         </is>
       </c>
       <c r="D91" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -2511,10 +2471,10 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>46067.875</v>
+        <v>46068.875</v>
       </c>
       <c r="B92" t="n">
-        <v>64.89</v>
+        <v>61.21727</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2522,7 +2482,7 @@
         </is>
       </c>
       <c r="D92" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -2532,10 +2492,10 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>46067.89583333334</v>
+        <v>46068.89583333334</v>
       </c>
       <c r="B93" t="n">
-        <v>57.60652</v>
+        <v>62.14165</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2543,7 +2503,7 @@
         </is>
       </c>
       <c r="D93" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2553,10 +2513,10 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>46067.91666666666</v>
+        <v>46068.91666666666</v>
       </c>
       <c r="B94" t="n">
-        <v>58.42788</v>
+        <v>57.09</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2564,7 +2524,7 @@
         </is>
       </c>
       <c r="D94" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -2574,10 +2534,10 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>46067.9375</v>
+        <v>46068.9375</v>
       </c>
       <c r="B95" t="n">
-        <v>57.09</v>
+        <v>48.95755</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2585,7 +2545,7 @@
         </is>
       </c>
       <c r="D95" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2595,10 +2555,10 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>46067.95833333334</v>
+        <v>46068.95833333334</v>
       </c>
       <c r="B96" t="n">
-        <v>56.98</v>
+        <v>46.00878</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2606,7 +2566,7 @@
         </is>
       </c>
       <c r="D96" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -2616,10 +2576,10 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>46067.97916666666</v>
+        <v>46068.97916666666</v>
       </c>
       <c r="B97" t="n">
-        <v>56.98</v>
+        <v>36.0601</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -2627,7 +2587,7 @@
         </is>
       </c>
       <c r="D97" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -475,62 +475,62 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46067.04166666666</v>
+        <v>46068.14583333334</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>46067.22916666666</v>
+        <v>46068.77083333334</v>
       </c>
       <c r="C2" t="n">
-        <v>4.5</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>17.01</v>
+        <v>56.7</v>
       </c>
       <c r="E2" t="n">
-        <v>499.4363595</v>
+        <v>770.9686529999999</v>
       </c>
       <c r="F2" t="n">
-        <v>29.36133800705468</v>
+        <v>13.59733074074074</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46067.3125</v>
+        <v>46068.95833333334</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>46067.79166666666</v>
+        <v>46069.14583333334</v>
       </c>
       <c r="C3" t="n">
-        <v>11.5</v>
+        <v>4.5</v>
       </c>
       <c r="D3" t="n">
-        <v>43.47</v>
+        <v>17.01</v>
       </c>
       <c r="E3" t="n">
-        <v>681.1232219999997</v>
+        <v>465.6658792499999</v>
       </c>
       <c r="F3" t="n">
-        <v>15.66881118012422</v>
+        <v>27.37600701058201</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46068.27083333334</v>
+        <v>46069.3125</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>46068.77083333334</v>
+        <v>46069.66666666666</v>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="D4" t="n">
-        <v>45.36</v>
+        <v>32.13</v>
       </c>
       <c r="E4" t="n">
-        <v>462.74472075</v>
+        <v>275.6391885</v>
       </c>
       <c r="F4" t="n">
-        <v>10.20160319113757</v>
+        <v>8.578872969187678</v>
       </c>
     </row>
   </sheetData>
@@ -581,10 +581,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="B2" t="n">
-        <v>73.42098</v>
+        <v>56.98</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D2" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -602,10 +602,10 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46067.02083333334</v>
+        <v>46068.02083333334</v>
       </c>
       <c r="B3" t="n">
-        <v>71.34744999999999</v>
+        <v>56.98</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -623,10 +623,10 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46067.04166666666</v>
+        <v>46068.04166666666</v>
       </c>
       <c r="B4" t="n">
-        <v>61.01486</v>
+        <v>53.87364</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -634,20 +634,20 @@
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46067.0625</v>
+        <v>46068.0625</v>
       </c>
       <c r="B5" t="n">
-        <v>57.06014</v>
+        <v>56.79006</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -655,20 +655,20 @@
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>46067.08333333334</v>
+        <v>46068.08333333334</v>
       </c>
       <c r="B6" t="n">
-        <v>57.06007</v>
+        <v>53.26316</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -676,20 +676,20 @@
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>46067.10416666666</v>
+        <v>46068.10416666666</v>
       </c>
       <c r="B7" t="n">
-        <v>56.98</v>
+        <v>55.08303</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -697,20 +697,20 @@
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>46067.125</v>
+        <v>46068.125</v>
       </c>
       <c r="B8" t="n">
-        <v>53.23796</v>
+        <v>54.7739</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -718,20 +718,20 @@
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>46067.14583333334</v>
+        <v>46068.14583333334</v>
       </c>
       <c r="B9" t="n">
-        <v>53.24036</v>
+        <v>54.77339</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -749,10 +749,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>46067.16666666666</v>
+        <v>46068.16666666666</v>
       </c>
       <c r="B10" t="n">
-        <v>54.22002</v>
+        <v>56.83994</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -770,10 +770,10 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>46067.1875</v>
+        <v>46068.1875</v>
       </c>
       <c r="B11" t="n">
-        <v>57.06007</v>
+        <v>54.35372</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -791,10 +791,10 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>46067.20833333334</v>
+        <v>46068.20833333334</v>
       </c>
       <c r="B12" t="n">
-        <v>62.36894</v>
+        <v>56.98</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -812,10 +812,10 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>46067.22916666666</v>
+        <v>46068.22916666666</v>
       </c>
       <c r="B13" t="n">
-        <v>76.13726</v>
+        <v>56.98</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -823,20 +823,20 @@
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>46067.25</v>
+        <v>46068.25</v>
       </c>
       <c r="B14" t="n">
-        <v>84.79000000000001</v>
+        <v>56.98</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -844,20 +844,20 @@
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>46067.27083333334</v>
+        <v>46068.27083333334</v>
       </c>
       <c r="B15" t="n">
-        <v>84.79000000000001</v>
+        <v>53.16496</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -865,20 +865,20 @@
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>46067.29166666666</v>
+        <v>46068.29166666666</v>
       </c>
       <c r="B16" t="n">
-        <v>73.19</v>
+        <v>36.0601</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -886,20 +886,20 @@
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>46067.3125</v>
+        <v>46068.3125</v>
       </c>
       <c r="B17" t="n">
-        <v>51.59311</v>
+        <v>36.07</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         </is>
       </c>
       <c r="D17" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -917,10 +917,10 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>46067.33333333334</v>
+        <v>46068.33333333334</v>
       </c>
       <c r="B18" t="n">
-        <v>56.98</v>
+        <v>36.0601</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="D18" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -938,10 +938,10 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>46067.35416666666</v>
+        <v>46068.35416666666</v>
       </c>
       <c r="B19" t="n">
-        <v>47.45981</v>
+        <v>36.0601</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         </is>
       </c>
       <c r="D19" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -959,10 +959,10 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>46067.375</v>
+        <v>46068.375</v>
       </c>
       <c r="B20" t="n">
-        <v>36.07</v>
+        <v>36.0601</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         </is>
       </c>
       <c r="D20" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -980,10 +980,10 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>46067.39583333334</v>
+        <v>46068.39583333334</v>
       </c>
       <c r="B21" t="n">
-        <v>31.1147</v>
+        <v>36.0601</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         </is>
       </c>
       <c r="D21" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>46067.41666666666</v>
+        <v>46068.41666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>22.07</v>
+        <v>32.84175</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="D22" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1022,10 +1022,10 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>46067.4375</v>
+        <v>46068.4375</v>
       </c>
       <c r="B23" t="n">
-        <v>30.94737</v>
+        <v>36.0601</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         </is>
       </c>
       <c r="D23" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1043,10 +1043,10 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>46067.45833333334</v>
+        <v>46068.45833333334</v>
       </c>
       <c r="B24" t="n">
-        <v>30.52819</v>
+        <v>22.07</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1054,7 +1054,7 @@
         </is>
       </c>
       <c r="D24" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1064,7 +1064,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>46067.47916666666</v>
+        <v>46068.47916666666</v>
       </c>
       <c r="B25" t="n">
         <v>22.07</v>
@@ -1075,7 +1075,7 @@
         </is>
       </c>
       <c r="D25" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1085,10 +1085,10 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>46067.5</v>
+        <v>46068.5</v>
       </c>
       <c r="B26" t="n">
-        <v>8.03814</v>
+        <v>4.38659</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="D26" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1106,10 +1106,10 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>46067.52083333334</v>
+        <v>46068.52083333334</v>
       </c>
       <c r="B27" t="n">
-        <v>-4.68971</v>
+        <v>0.51</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="D27" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1127,10 +1127,10 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>46067.54166666666</v>
+        <v>46068.54166666666</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.99369</v>
+        <v>0.51</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
         </is>
       </c>
       <c r="D28" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1148,10 +1148,10 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>46067.5625</v>
+        <v>46068.5625</v>
       </c>
       <c r="B29" t="n">
-        <v>-2.66469</v>
+        <v>0.44703</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1159,7 +1159,7 @@
         </is>
       </c>
       <c r="D29" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1169,10 +1169,10 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>46067.58333333334</v>
+        <v>46068.58333333334</v>
       </c>
       <c r="B30" t="n">
-        <v>2.9527</v>
+        <v>-3.11157</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         </is>
       </c>
       <c r="D30" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1190,10 +1190,10 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>46067.60416666666</v>
+        <v>46068.60416666666</v>
       </c>
       <c r="B31" t="n">
-        <v>9.45477</v>
+        <v>-7.04692</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         </is>
       </c>
       <c r="D31" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1211,10 +1211,10 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>46067.625</v>
+        <v>46068.625</v>
       </c>
       <c r="B32" t="n">
-        <v>21.73531</v>
+        <v>-1.02238</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="D32" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>46067.64583333334</v>
+        <v>46068.64583333334</v>
       </c>
       <c r="B33" t="n">
-        <v>36.0601</v>
+        <v>0.01038</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="D33" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1253,10 +1253,10 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>46067.66666666666</v>
+        <v>46068.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>44.72673</v>
+        <v>9.089130000000001</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1264,7 +1264,7 @@
         </is>
       </c>
       <c r="D34" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1274,10 +1274,10 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>46067.6875</v>
+        <v>46068.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>36.0601</v>
+        <v>8.8331</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         </is>
       </c>
       <c r="D35" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1295,10 +1295,10 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>46067.70833333334</v>
+        <v>46068.70833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>47.91498</v>
+        <v>8.984669999999999</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         </is>
       </c>
       <c r="D36" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1316,10 +1316,10 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>46067.72916666666</v>
+        <v>46068.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>57.09</v>
+        <v>12.32016</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
         </is>
       </c>
       <c r="D37" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1337,10 +1337,10 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>46067.75</v>
+        <v>46068.75</v>
       </c>
       <c r="B38" t="n">
-        <v>57.09</v>
+        <v>37.34253</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         </is>
       </c>
       <c r="D38" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>46067.77083333334</v>
+        <v>46068.77083333334</v>
       </c>
       <c r="B39" t="n">
         <v>56.98</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="D39" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>46067.79166666666</v>
+        <v>46068.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>63.60109</v>
+        <v>64.89</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D40" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1400,18 +1400,18 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>46067.8125</v>
+        <v>46068.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>64.89</v>
+        <v>73.27</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D41" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1421,18 +1421,18 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>46067.83333333334</v>
+        <v>46068.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>64.89</v>
+        <v>76.76687</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D42" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1442,18 +1442,18 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>46067.85416666666</v>
+        <v>46068.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>65.00005</v>
+        <v>73.29000000000001</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D43" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1463,18 +1463,18 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>46067.875</v>
+        <v>46068.875</v>
       </c>
       <c r="B44" t="n">
-        <v>64.89</v>
+        <v>59.01826</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D44" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1484,18 +1484,18 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>46067.89583333334</v>
+        <v>46068.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>57.60478</v>
+        <v>59.11256</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D45" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1505,18 +1505,18 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>46067.91666666666</v>
+        <v>46068.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>57.31</v>
+        <v>58.95819</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D46" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1526,18 +1526,18 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>46067.9375</v>
+        <v>46068.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>57.09</v>
+        <v>56.98</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D47" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1547,31 +1547,31 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>46067.95833333334</v>
+        <v>46068.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>56.98</v>
+        <v>48.41499</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D48" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>46067.97916666666</v>
+        <v>46068.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>56.98</v>
+        <v>49.73329</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1579,20 +1579,20 @@
         </is>
       </c>
       <c r="D49" s="3" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>46068</v>
+        <v>46069</v>
       </c>
       <c r="B50" t="n">
-        <v>53.12933</v>
+        <v>49.37423</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1600,17 +1600,17 @@
         </is>
       </c>
       <c r="D50" s="3" t="n">
-        <v>46068</v>
+        <v>46069</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>46068.02083333334</v>
+        <v>46069.02083333334</v>
       </c>
       <c r="B51" t="n">
         <v>56.98</v>
@@ -1621,20 +1621,20 @@
         </is>
       </c>
       <c r="D51" s="3" t="n">
-        <v>46068</v>
+        <v>46069</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>46068.04166666666</v>
+        <v>46069.04166666666</v>
       </c>
       <c r="B52" t="n">
-        <v>53.53295</v>
+        <v>56.98</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1642,20 +1642,20 @@
         </is>
       </c>
       <c r="D52" s="3" t="n">
-        <v>46068</v>
+        <v>46069</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>46068.0625</v>
+        <v>46069.0625</v>
       </c>
       <c r="B53" t="n">
-        <v>53.94375</v>
+        <v>52.30742</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1663,20 +1663,20 @@
         </is>
       </c>
       <c r="D53" s="3" t="n">
-        <v>46068</v>
+        <v>46069</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>46068.08333333334</v>
+        <v>46069.08333333334</v>
       </c>
       <c r="B54" t="n">
-        <v>54.01585</v>
+        <v>51.8802</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1684,20 +1684,20 @@
         </is>
       </c>
       <c r="D54" s="3" t="n">
-        <v>46068</v>
+        <v>46069</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>46068.10416666666</v>
+        <v>46069.10416666666</v>
       </c>
       <c r="B55" t="n">
-        <v>52.6617</v>
+        <v>55.14573</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1705,20 +1705,20 @@
         </is>
       </c>
       <c r="D55" s="3" t="n">
-        <v>46068</v>
+        <v>46069</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>46068.125</v>
+        <v>46069.125</v>
       </c>
       <c r="B56" t="n">
-        <v>52.37068</v>
+        <v>56.79017</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1726,20 +1726,20 @@
         </is>
       </c>
       <c r="D56" s="3" t="n">
-        <v>46068</v>
+        <v>46069</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>46068.14583333334</v>
+        <v>46069.14583333334</v>
       </c>
       <c r="B57" t="n">
-        <v>52.37048</v>
+        <v>56.98</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="D57" s="3" t="n">
-        <v>46068</v>
+        <v>46069</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -1757,10 +1757,10 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>46068.16666666666</v>
+        <v>46069.16666666666</v>
       </c>
       <c r="B58" t="n">
-        <v>54.43034</v>
+        <v>56.98</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
         </is>
       </c>
       <c r="D58" s="3" t="n">
-        <v>46068</v>
+        <v>46069</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1778,10 +1778,10 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>46068.1875</v>
+        <v>46069.1875</v>
       </c>
       <c r="B59" t="n">
-        <v>52.0279</v>
+        <v>55.01863</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1789,7 +1789,7 @@
         </is>
       </c>
       <c r="D59" s="3" t="n">
-        <v>46068</v>
+        <v>46069</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1799,10 +1799,10 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>46068.20833333334</v>
+        <v>46069.20833333334</v>
       </c>
       <c r="B60" t="n">
-        <v>53.70872</v>
+        <v>56.98</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1810,7 +1810,7 @@
         </is>
       </c>
       <c r="D60" s="3" t="n">
-        <v>46068</v>
+        <v>46069</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -1820,10 +1820,10 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>46068.22916666666</v>
+        <v>46069.22916666666</v>
       </c>
       <c r="B61" t="n">
-        <v>56.98</v>
+        <v>57.31</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         </is>
       </c>
       <c r="D61" s="3" t="n">
-        <v>46068</v>
+        <v>46069</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -1841,10 +1841,10 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>46068.25</v>
+        <v>46069.25</v>
       </c>
       <c r="B62" t="n">
-        <v>56.03</v>
+        <v>64.89</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="D62" s="3" t="n">
-        <v>46068</v>
+        <v>46069</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1862,10 +1862,10 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>46068.27083333334</v>
+        <v>46069.27083333334</v>
       </c>
       <c r="B63" t="n">
-        <v>53.68323</v>
+        <v>65</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1873,20 +1873,20 @@
         </is>
       </c>
       <c r="D63" s="3" t="n">
-        <v>46068</v>
+        <v>46069</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>46068.29166666666</v>
+        <v>46069.29166666666</v>
       </c>
       <c r="B64" t="n">
-        <v>36.0601</v>
+        <v>56.98</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1894,20 +1894,20 @@
         </is>
       </c>
       <c r="D64" s="3" t="n">
-        <v>46068</v>
+        <v>46069</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>46068.3125</v>
+        <v>46069.3125</v>
       </c>
       <c r="B65" t="n">
-        <v>36.0601</v>
+        <v>47.11845</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         </is>
       </c>
       <c r="D65" s="3" t="n">
-        <v>46068</v>
+        <v>46069</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -1925,7 +1925,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>46068.33333333334</v>
+        <v>46069.33333333334</v>
       </c>
       <c r="B66" t="n">
         <v>36.0601</v>
@@ -1936,7 +1936,7 @@
         </is>
       </c>
       <c r="D66" s="3" t="n">
-        <v>46068</v>
+        <v>46069</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -1946,10 +1946,10 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>46068.35416666666</v>
+        <v>46069.35416666666</v>
       </c>
       <c r="B67" t="n">
-        <v>36.0601</v>
+        <v>20.85946</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
         </is>
       </c>
       <c r="D67" s="3" t="n">
-        <v>46068</v>
+        <v>46069</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -1967,10 +1967,10 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>46068.375</v>
+        <v>46069.375</v>
       </c>
       <c r="B68" t="n">
-        <v>36.0601</v>
+        <v>22.07</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
         </is>
       </c>
       <c r="D68" s="3" t="n">
-        <v>46068</v>
+        <v>46069</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -1988,10 +1988,10 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>46068.39583333334</v>
+        <v>46069.39583333334</v>
       </c>
       <c r="B69" t="n">
-        <v>36.0601</v>
+        <v>22.07</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="D69" s="3" t="n">
-        <v>46068</v>
+        <v>46069</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2009,10 +2009,10 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>46068.41666666666</v>
+        <v>46069.41666666666</v>
       </c>
       <c r="B70" t="n">
-        <v>36.0601</v>
+        <v>22.07</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         </is>
       </c>
       <c r="D70" s="3" t="n">
-        <v>46068</v>
+        <v>46069</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2030,10 +2030,10 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>46068.4375</v>
+        <v>46069.4375</v>
       </c>
       <c r="B71" t="n">
-        <v>36.0601</v>
+        <v>30.83785</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         </is>
       </c>
       <c r="D71" s="3" t="n">
-        <v>46068</v>
+        <v>46069</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2051,10 +2051,10 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>46068.45833333334</v>
+        <v>46069.45833333334</v>
       </c>
       <c r="B72" t="n">
-        <v>22.07</v>
+        <v>12.76166</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="D72" s="3" t="n">
-        <v>46068</v>
+        <v>46069</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2072,10 +2072,10 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>46068.47916666666</v>
+        <v>46069.47916666666</v>
       </c>
       <c r="B73" t="n">
-        <v>22.07</v>
+        <v>12.54898</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         </is>
       </c>
       <c r="D73" s="3" t="n">
-        <v>46068</v>
+        <v>46069</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2093,10 +2093,10 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>46068.5</v>
+        <v>46069.5</v>
       </c>
       <c r="B74" t="n">
-        <v>1.23444</v>
+        <v>0.66442</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2104,7 +2104,7 @@
         </is>
       </c>
       <c r="D74" s="3" t="n">
-        <v>46068</v>
+        <v>46069</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2114,10 +2114,10 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>46068.52083333334</v>
+        <v>46069.52083333334</v>
       </c>
       <c r="B75" t="n">
-        <v>0.03385</v>
+        <v>0.67361</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2125,7 +2125,7 @@
         </is>
       </c>
       <c r="D75" s="3" t="n">
-        <v>46068</v>
+        <v>46069</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>46068.54166666666</v>
+        <v>46069.54166666666</v>
       </c>
       <c r="B76" t="n">
         <v>0.51</v>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="D76" s="3" t="n">
-        <v>46068</v>
+        <v>46069</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2156,10 +2156,10 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>46068.5625</v>
+        <v>46069.5625</v>
       </c>
       <c r="B77" t="n">
-        <v>0.36345</v>
+        <v>0.7</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D77" s="3" t="n">
-        <v>46068</v>
+        <v>46069</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2177,10 +2177,10 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>46068.58333333334</v>
+        <v>46069.58333333334</v>
       </c>
       <c r="B78" t="n">
-        <v>0.50984</v>
+        <v>11.7925</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         </is>
       </c>
       <c r="D78" s="3" t="n">
-        <v>46068</v>
+        <v>46069</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2198,10 +2198,10 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>46068.60416666666</v>
+        <v>46069.60416666666</v>
       </c>
       <c r="B79" t="n">
-        <v>-6.99601</v>
+        <v>22.07</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         </is>
       </c>
       <c r="D79" s="3" t="n">
-        <v>46068</v>
+        <v>46069</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2219,10 +2219,10 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>46068.625</v>
+        <v>46069.625</v>
       </c>
       <c r="B80" t="n">
-        <v>-1.80118</v>
+        <v>8.290380000000001</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         </is>
       </c>
       <c r="D80" s="3" t="n">
-        <v>46068</v>
+        <v>46069</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2240,10 +2240,10 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>46068.64583333334</v>
+        <v>46069.64583333334</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0103</v>
+        <v>11.60945</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="D81" s="3" t="n">
-        <v>46068</v>
+        <v>46069</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2261,10 +2261,10 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>46068.66666666666</v>
+        <v>46069.66666666666</v>
       </c>
       <c r="B82" t="n">
-        <v>9.023770000000001</v>
+        <v>42.50838</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2272,20 +2272,20 @@
         </is>
       </c>
       <c r="D82" s="3" t="n">
-        <v>46068</v>
+        <v>46069</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>46068.6875</v>
+        <v>46069.6875</v>
       </c>
       <c r="B83" t="n">
-        <v>8.768990000000001</v>
+        <v>49.23912</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2293,20 +2293,20 @@
         </is>
       </c>
       <c r="D83" s="3" t="n">
-        <v>46068</v>
+        <v>46069</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>46068.70833333334</v>
+        <v>46069.70833333334</v>
       </c>
       <c r="B84" t="n">
-        <v>8.92048</v>
+        <v>53.12629</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2314,20 +2314,20 @@
         </is>
       </c>
       <c r="D84" s="3" t="n">
-        <v>46068</v>
+        <v>46069</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>46068.72916666666</v>
+        <v>46069.72916666666</v>
       </c>
       <c r="B85" t="n">
-        <v>31.10246</v>
+        <v>66.99075999999999</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2335,20 +2335,20 @@
         </is>
       </c>
       <c r="D85" s="3" t="n">
-        <v>46068</v>
+        <v>46069</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>46068.75</v>
+        <v>46069.75</v>
       </c>
       <c r="B86" t="n">
-        <v>36.62555</v>
+        <v>73.19</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2356,20 +2356,20 @@
         </is>
       </c>
       <c r="D86" s="3" t="n">
-        <v>46068</v>
+        <v>46069</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>46068.77083333334</v>
+        <v>46069.77083333334</v>
       </c>
       <c r="B87" t="n">
-        <v>57.6508</v>
+        <v>75.36904</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         </is>
       </c>
       <c r="D87" s="3" t="n">
-        <v>46068</v>
+        <v>46069</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2387,10 +2387,10 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>46068.79166666666</v>
+        <v>46069.79166666666</v>
       </c>
       <c r="B88" t="n">
-        <v>64.89</v>
+        <v>90.12555999999999</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         </is>
       </c>
       <c r="D88" s="3" t="n">
-        <v>46068</v>
+        <v>46069</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2408,10 +2408,10 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>46068.8125</v>
+        <v>46069.8125</v>
       </c>
       <c r="B89" t="n">
-        <v>68.62712999999999</v>
+        <v>92.73465</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         </is>
       </c>
       <c r="D89" s="3" t="n">
-        <v>46068</v>
+        <v>46069</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2429,10 +2429,10 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>46068.83333333334</v>
+        <v>46069.83333333334</v>
       </c>
       <c r="B90" t="n">
-        <v>68.85534</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         </is>
       </c>
       <c r="D90" s="3" t="n">
-        <v>46068</v>
+        <v>46069</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2450,10 +2450,10 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>46068.85416666666</v>
+        <v>46069.85416666666</v>
       </c>
       <c r="B91" t="n">
-        <v>64.89</v>
+        <v>78</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2461,7 +2461,7 @@
         </is>
       </c>
       <c r="D91" s="3" t="n">
-        <v>46068</v>
+        <v>46069</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -2471,10 +2471,10 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>46068.875</v>
+        <v>46069.875</v>
       </c>
       <c r="B92" t="n">
-        <v>64.89</v>
+        <v>72.90904999999999</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="D92" s="3" t="n">
-        <v>46068</v>
+        <v>46069</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -2492,10 +2492,10 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>46068.89583333334</v>
+        <v>46069.89583333334</v>
       </c>
       <c r="B93" t="n">
-        <v>60.64516</v>
+        <v>65</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
         </is>
       </c>
       <c r="D93" s="3" t="n">
-        <v>46068</v>
+        <v>46069</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2513,10 +2513,10 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>46068.91666666666</v>
+        <v>46069.91666666666</v>
       </c>
       <c r="B94" t="n">
-        <v>56.98</v>
+        <v>61.73451</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="D94" s="3" t="n">
-        <v>46068</v>
+        <v>46069</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -2534,10 +2534,10 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>46068.9375</v>
+        <v>46069.9375</v>
       </c>
       <c r="B95" t="n">
-        <v>47.60427</v>
+        <v>56.98</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         </is>
       </c>
       <c r="D95" s="3" t="n">
-        <v>46068</v>
+        <v>46069</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2555,10 +2555,10 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>46068.95833333334</v>
+        <v>46069.95833333334</v>
       </c>
       <c r="B96" t="n">
-        <v>42.12537</v>
+        <v>56.98</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         </is>
       </c>
       <c r="D96" s="3" t="n">
-        <v>46068</v>
+        <v>46069</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -2576,10 +2576,10 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>46068.97916666666</v>
+        <v>46069.97916666666</v>
       </c>
       <c r="B97" t="n">
-        <v>36.0601</v>
+        <v>56.98</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         </is>
       </c>
       <c r="D97" s="3" t="n">
-        <v>46068</v>
+        <v>46069</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -495,42 +495,42 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46071.04166666666</v>
+        <v>46071.0625</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>46071.20833333334</v>
+        <v>46071.25</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="D3" t="n">
-        <v>15.12</v>
+        <v>17.01</v>
       </c>
       <c r="E3" t="n">
-        <v>501.9901575</v>
+        <v>636.442014</v>
       </c>
       <c r="F3" t="n">
-        <v>33.20040724206349</v>
+        <v>37.41575626102293</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46071.29166666666</v>
+        <v>46071.3125</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>46071.625</v>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="D4" t="n">
-        <v>30.24</v>
+        <v>28.35</v>
       </c>
       <c r="E4" t="n">
-        <v>217.18991775</v>
+        <v>250.087149</v>
       </c>
       <c r="F4" t="n">
-        <v>7.182206274801588</v>
+        <v>8.821416190476191</v>
       </c>
     </row>
   </sheetData>
@@ -1340,7 +1340,7 @@
         <v>46070.75</v>
       </c>
       <c r="B38" t="n">
-        <v>68.81783</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>46070.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>73.19</v>
+        <v>70.36225</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1382,11 +1382,11 @@
         <v>46070.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>84.85141</v>
+        <v>90.82671999999999</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D40" s="3" t="n">
@@ -1403,11 +1403,11 @@
         <v>46070.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>70.61107</v>
+        <v>100.95901</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D41" s="3" t="n">
@@ -1424,11 +1424,11 @@
         <v>46070.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>86.569</v>
+        <v>105.79</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D42" s="3" t="n">
@@ -1445,11 +1445,11 @@
         <v>46070.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>78</v>
+        <v>103.66848</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D43" s="3" t="n">
@@ -1466,11 +1466,11 @@
         <v>46070.875</v>
       </c>
       <c r="B44" t="n">
-        <v>84.79000000000001</v>
+        <v>95.72272</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D44" s="3" t="n">
@@ -1487,11 +1487,11 @@
         <v>46070.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>70.07711</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D45" s="3" t="n">
@@ -1508,11 +1508,11 @@
         <v>46070.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>72.48559</v>
+        <v>78</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D46" s="3" t="n">
@@ -1529,11 +1529,11 @@
         <v>46070.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>71.90935</v>
+        <v>72.75097</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D47" s="3" t="n">
@@ -1550,11 +1550,11 @@
         <v>46070.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>73.20005999999999</v>
+        <v>66.93682</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D48" s="3" t="n">
@@ -1571,11 +1571,11 @@
         <v>46070.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>73.20004</v>
+        <v>66.324</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D49" s="3" t="n">
@@ -1592,7 +1592,7 @@
         <v>46071</v>
       </c>
       <c r="B50" t="n">
-        <v>76.18969</v>
+        <v>73.19</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
         <v>46071.02083333334</v>
       </c>
       <c r="B51" t="n">
-        <v>76.92153</v>
+        <v>78.35751</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>46071.04166666666</v>
       </c>
       <c r="B52" t="n">
-        <v>65.3531</v>
+        <v>78.95034</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1655,7 +1655,7 @@
         <v>46071.0625</v>
       </c>
       <c r="B53" t="n">
-        <v>65</v>
+        <v>74.77921000000001</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
         <v>46071.08333333334</v>
       </c>
       <c r="B54" t="n">
-        <v>65</v>
+        <v>73.20017</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>46071.10416666666</v>
       </c>
       <c r="B55" t="n">
-        <v>64.26692</v>
+        <v>73.20016</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>46071.125</v>
       </c>
       <c r="B56" t="n">
-        <v>64.25041</v>
+        <v>73.2</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>46071.14583333334</v>
       </c>
       <c r="B57" t="n">
-        <v>64.16764000000001</v>
+        <v>73.2</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>46071.16666666666</v>
       </c>
       <c r="B58" t="n">
-        <v>64.19459999999999</v>
+        <v>73.20017</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>46071.1875</v>
       </c>
       <c r="B59" t="n">
-        <v>62.62903</v>
+        <v>65</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>46071.20833333334</v>
       </c>
       <c r="B60" t="n">
-        <v>69.37429</v>
+        <v>73.20013</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
         <v>46071.22916666666</v>
       </c>
       <c r="B61" t="n">
-        <v>72.50086</v>
+        <v>73.7812</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1844,7 +1844,7 @@
         <v>46071.25</v>
       </c>
       <c r="B62" t="n">
-        <v>90.29996</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1865,7 +1865,7 @@
         <v>46071.27083333334</v>
       </c>
       <c r="B63" t="n">
-        <v>105.79</v>
+        <v>110.45944</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>46071.29166666666</v>
       </c>
       <c r="B64" t="n">
-        <v>68.06057</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1907,7 +1907,7 @@
         <v>46071.3125</v>
       </c>
       <c r="B65" t="n">
-        <v>11.80785</v>
+        <v>35.88</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
         <v>46071.33333333334</v>
       </c>
       <c r="B66" t="n">
-        <v>0.50973</v>
+        <v>13.52897</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         <v>46071.39583333334</v>
       </c>
       <c r="B69" t="n">
-        <v>0.08356</v>
+        <v>0.51</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>46071.4375</v>
       </c>
       <c r="B71" t="n">
-        <v>0.1588</v>
+        <v>0.51</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>46071.47916666666</v>
       </c>
       <c r="B73" t="n">
-        <v>0.51</v>
+        <v>0.7</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2096,7 +2096,7 @@
         <v>46071.5</v>
       </c>
       <c r="B74" t="n">
-        <v>8.180960000000001</v>
+        <v>22.07</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>46071.52083333334</v>
       </c>
       <c r="B75" t="n">
-        <v>7.69199</v>
+        <v>22.07</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>46071.54166666666</v>
       </c>
       <c r="B76" t="n">
-        <v>5.01583</v>
+        <v>22.07</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2159,7 +2159,7 @@
         <v>46071.5625</v>
       </c>
       <c r="B77" t="n">
-        <v>16.97289</v>
+        <v>36.06046</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>46071.58333333334</v>
       </c>
       <c r="B78" t="n">
-        <v>36.06</v>
+        <v>36.06021</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>46071.60416666666</v>
       </c>
       <c r="B79" t="n">
-        <v>65.66670999999999</v>
+        <v>65</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>46071.625</v>
       </c>
       <c r="B80" t="n">
-        <v>81.96638</v>
+        <v>79.95016</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>46071.64583333334</v>
       </c>
       <c r="B81" t="n">
-        <v>65</v>
+        <v>71.85057999999999</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2264,7 +2264,7 @@
         <v>46071.66666666666</v>
       </c>
       <c r="B82" t="n">
-        <v>71.85048999999999</v>
+        <v>71.25176</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>46071.6875</v>
       </c>
       <c r="B83" t="n">
-        <v>67.99102999999999</v>
+        <v>66.72439</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>46071.70833333334</v>
       </c>
       <c r="B84" t="n">
-        <v>80.47418999999999</v>
+        <v>81.14199000000001</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
         <v>46071.72916666666</v>
       </c>
       <c r="B85" t="n">
-        <v>40.0381</v>
+        <v>49.38732</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>46071.75</v>
       </c>
       <c r="B86" t="n">
-        <v>56.15151</v>
+        <v>56.72622</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>46071.77083333334</v>
       </c>
       <c r="B87" t="n">
-        <v>70.49961999999999</v>
+        <v>100.81666</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>46071.79166666666</v>
       </c>
       <c r="B88" t="n">
-        <v>129.26841</v>
+        <v>159.33954</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>46071.8125</v>
       </c>
       <c r="B89" t="n">
-        <v>154.2</v>
+        <v>151.65295</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>46071.83333333334</v>
       </c>
       <c r="B90" t="n">
-        <v>130.09729</v>
+        <v>144.56143</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>46071.85416666666</v>
       </c>
       <c r="B91" t="n">
-        <v>108.01</v>
+        <v>143.3261</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
         <v>46071.875</v>
       </c>
       <c r="B92" t="n">
-        <v>108.89</v>
+        <v>138.42</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>46071.89583333334</v>
       </c>
       <c r="B93" t="n">
-        <v>108.01</v>
+        <v>108.89</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>46071.91666666666</v>
       </c>
       <c r="B94" t="n">
-        <v>105.79</v>
+        <v>108.89</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>46071.9375</v>
       </c>
       <c r="B95" t="n">
-        <v>84.79000000000001</v>
+        <v>105.79</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>46071.95833333334</v>
       </c>
       <c r="B96" t="n">
-        <v>84.79000000000001</v>
+        <v>105.79</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>46071.97916666666</v>
       </c>
       <c r="B97" t="n">
-        <v>82.30945</v>
+        <v>97.55358</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,62 +475,82 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46070</v>
+        <v>46071</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>46070.66666666666</v>
+        <v>46071.25</v>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>60.48</v>
+        <v>22.68</v>
       </c>
       <c r="E2" t="n">
-        <v>875.318184</v>
+        <v>844.2312645</v>
       </c>
       <c r="F2" t="n">
-        <v>14.47285357142857</v>
+        <v>37.22360072751322</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46071.0625</v>
+        <v>46071.3125</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>46071.25</v>
+        <v>46071.66666666666</v>
       </c>
       <c r="C3" t="n">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
       <c r="D3" t="n">
-        <v>17.01</v>
+        <v>32.13</v>
       </c>
       <c r="E3" t="n">
-        <v>636.442014</v>
+        <v>404.2313925</v>
       </c>
       <c r="F3" t="n">
-        <v>37.41575626102293</v>
+        <v>12.58112021475257</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46071.3125</v>
+        <v>46071.9375</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>46071.625</v>
+        <v>46072.14583333334</v>
       </c>
       <c r="C4" t="n">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>28.35</v>
+        <v>18.9</v>
       </c>
       <c r="E4" t="n">
-        <v>250.087149</v>
+        <v>806.1283327499998</v>
       </c>
       <c r="F4" t="n">
-        <v>8.821416190476191</v>
+        <v>42.65229273809523</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>46072.3125</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>46072.66666666666</v>
+      </c>
+      <c r="C5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>32.13</v>
+      </c>
+      <c r="E5" t="n">
+        <v>648.46745925</v>
+      </c>
+      <c r="F5" t="n">
+        <v>20.18261622315593</v>
       </c>
     </row>
   </sheetData>
@@ -581,10 +601,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46070</v>
+        <v>46071</v>
       </c>
       <c r="B2" t="n">
-        <v>56.98</v>
+        <v>65.18495</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -592,7 +612,7 @@
         </is>
       </c>
       <c r="D2" s="3" t="n">
-        <v>46070</v>
+        <v>46071</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -602,10 +622,10 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46070.02083333334</v>
+        <v>46071.02083333334</v>
       </c>
       <c r="B3" t="n">
-        <v>57.06012</v>
+        <v>76.89252999999999</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -613,7 +633,7 @@
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>46070</v>
+        <v>46071</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -623,10 +643,10 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46070.04166666666</v>
+        <v>46071.04166666666</v>
       </c>
       <c r="B4" t="n">
-        <v>53.04865</v>
+        <v>73.20009</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -634,7 +654,7 @@
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>46070</v>
+        <v>46071</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -644,10 +664,10 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46070.0625</v>
+        <v>46071.0625</v>
       </c>
       <c r="B5" t="n">
-        <v>56.98</v>
+        <v>73.20013</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -655,7 +675,7 @@
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>46070</v>
+        <v>46071</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -665,10 +685,10 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>46070.08333333334</v>
+        <v>46071.08333333334</v>
       </c>
       <c r="B6" t="n">
-        <v>56.98</v>
+        <v>73.20017</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -676,7 +696,7 @@
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>46070</v>
+        <v>46071</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -686,10 +706,10 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>46070.10416666666</v>
+        <v>46071.10416666666</v>
       </c>
       <c r="B7" t="n">
-        <v>56.98</v>
+        <v>73.20001999999999</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -697,7 +717,7 @@
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>46070</v>
+        <v>46071</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -707,10 +727,10 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>46070.125</v>
+        <v>46071.125</v>
       </c>
       <c r="B8" t="n">
-        <v>56.98</v>
+        <v>73.2</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -718,7 +738,7 @@
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>46070</v>
+        <v>46071</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -728,10 +748,10 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>46070.14583333334</v>
+        <v>46071.14583333334</v>
       </c>
       <c r="B9" t="n">
-        <v>56.98</v>
+        <v>73.2</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -739,7 +759,7 @@
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>46070</v>
+        <v>46071</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -749,10 +769,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>46070.16666666666</v>
+        <v>46071.16666666666</v>
       </c>
       <c r="B10" t="n">
-        <v>57.06007</v>
+        <v>73.20017</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -760,7 +780,7 @@
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>46070</v>
+        <v>46071</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -770,10 +790,10 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>46070.1875</v>
+        <v>46071.1875</v>
       </c>
       <c r="B11" t="n">
-        <v>57.31</v>
+        <v>65</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -781,7 +801,7 @@
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>46070</v>
+        <v>46071</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -791,10 +811,10 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>46070.20833333334</v>
+        <v>46071.20833333334</v>
       </c>
       <c r="B12" t="n">
-        <v>64.83663</v>
+        <v>73.20013</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -802,7 +822,7 @@
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>46070</v>
+        <v>46071</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -812,10 +832,10 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>46070.22916666666</v>
+        <v>46071.22916666666</v>
       </c>
       <c r="B13" t="n">
-        <v>73.2</v>
+        <v>73.20003</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -823,7 +843,7 @@
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>46070</v>
+        <v>46071</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -833,10 +853,10 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>46070.25</v>
+        <v>46071.25</v>
       </c>
       <c r="B14" t="n">
-        <v>76.36685</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -844,20 +864,20 @@
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>46070</v>
+        <v>46071</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>46070.27083333334</v>
+        <v>46071.27083333334</v>
       </c>
       <c r="B15" t="n">
-        <v>73.45554</v>
+        <v>107.78769</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -865,20 +885,20 @@
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>46070</v>
+        <v>46071</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>46070.29166666666</v>
+        <v>46071.29166666666</v>
       </c>
       <c r="B16" t="n">
-        <v>56.98</v>
+        <v>94.74899000000001</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -886,20 +906,20 @@
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>46070</v>
+        <v>46071</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>46070.3125</v>
+        <v>46071.3125</v>
       </c>
       <c r="B17" t="n">
-        <v>28.67198</v>
+        <v>35.88</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -907,7 +927,7 @@
         </is>
       </c>
       <c r="D17" s="3" t="n">
-        <v>46070</v>
+        <v>46071</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -917,10 +937,10 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>46070.33333333334</v>
+        <v>46071.33333333334</v>
       </c>
       <c r="B18" t="n">
-        <v>14.66346</v>
+        <v>13.26863</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -928,7 +948,7 @@
         </is>
       </c>
       <c r="D18" s="3" t="n">
-        <v>46070</v>
+        <v>46071</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -938,10 +958,10 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>46070.35416666666</v>
+        <v>46071.35416666666</v>
       </c>
       <c r="B19" t="n">
-        <v>0.65347</v>
+        <v>0.51</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -949,7 +969,7 @@
         </is>
       </c>
       <c r="D19" s="3" t="n">
-        <v>46070</v>
+        <v>46071</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -959,10 +979,10 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>46070.375</v>
+        <v>46071.375</v>
       </c>
       <c r="B20" t="n">
-        <v>0.07736</v>
+        <v>0.51</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -970,7 +990,7 @@
         </is>
       </c>
       <c r="D20" s="3" t="n">
-        <v>46070</v>
+        <v>46071</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -980,10 +1000,10 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>46070.39583333334</v>
+        <v>46071.39583333334</v>
       </c>
       <c r="B21" t="n">
-        <v>-4.28635</v>
+        <v>0.51</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -991,7 +1011,7 @@
         </is>
       </c>
       <c r="D21" s="3" t="n">
-        <v>46070</v>
+        <v>46071</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1001,10 +1021,10 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>46070.41666666666</v>
+        <v>46071.41666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>-5.25609</v>
+        <v>0.51</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1012,7 +1032,7 @@
         </is>
       </c>
       <c r="D22" s="3" t="n">
-        <v>46070</v>
+        <v>46071</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1022,10 +1042,10 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>46070.4375</v>
+        <v>46071.4375</v>
       </c>
       <c r="B23" t="n">
-        <v>-5.97948</v>
+        <v>0.51</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1033,7 +1053,7 @@
         </is>
       </c>
       <c r="D23" s="3" t="n">
-        <v>46070</v>
+        <v>46071</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1043,10 +1063,10 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>46070.45833333334</v>
+        <v>46071.45833333334</v>
       </c>
       <c r="B24" t="n">
-        <v>-8.474729999999999</v>
+        <v>0.51</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1054,7 +1074,7 @@
         </is>
       </c>
       <c r="D24" s="3" t="n">
-        <v>46070</v>
+        <v>46071</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1064,10 +1084,10 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>46070.47916666666</v>
+        <v>46071.47916666666</v>
       </c>
       <c r="B25" t="n">
-        <v>-8.31752</v>
+        <v>0.7</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1075,7 +1095,7 @@
         </is>
       </c>
       <c r="D25" s="3" t="n">
-        <v>46070</v>
+        <v>46071</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1085,10 +1105,10 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>46070.5</v>
+        <v>46071.5</v>
       </c>
       <c r="B26" t="n">
-        <v>-6.24252</v>
+        <v>22.07</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1096,7 +1116,7 @@
         </is>
       </c>
       <c r="D26" s="3" t="n">
-        <v>46070</v>
+        <v>46071</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1106,10 +1126,10 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>46070.52083333334</v>
+        <v>46071.52083333334</v>
       </c>
       <c r="B27" t="n">
-        <v>-7.97915</v>
+        <v>22.07</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1117,7 +1137,7 @@
         </is>
       </c>
       <c r="D27" s="3" t="n">
-        <v>46070</v>
+        <v>46071</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1127,10 +1147,10 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>46070.54166666666</v>
+        <v>46071.54166666666</v>
       </c>
       <c r="B28" t="n">
-        <v>-7.73511</v>
+        <v>30.34515</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1138,7 +1158,7 @@
         </is>
       </c>
       <c r="D28" s="3" t="n">
-        <v>46070</v>
+        <v>46071</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1148,10 +1168,10 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>46070.5625</v>
+        <v>46071.5625</v>
       </c>
       <c r="B29" t="n">
-        <v>-7.2788</v>
+        <v>36.06</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1159,7 +1179,7 @@
         </is>
       </c>
       <c r="D29" s="3" t="n">
-        <v>46070</v>
+        <v>46071</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1169,10 +1189,10 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>46070.58333333334</v>
+        <v>46071.58333333334</v>
       </c>
       <c r="B30" t="n">
-        <v>-4</v>
+        <v>36.07</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1180,7 +1200,7 @@
         </is>
       </c>
       <c r="D30" s="3" t="n">
-        <v>46070</v>
+        <v>46071</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1190,10 +1210,10 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>46070.60416666666</v>
+        <v>46071.60416666666</v>
       </c>
       <c r="B31" t="n">
-        <v>-2.17044</v>
+        <v>58.68331</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1201,7 +1221,7 @@
         </is>
       </c>
       <c r="D31" s="3" t="n">
-        <v>46070</v>
+        <v>46071</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1211,10 +1231,10 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>46070.625</v>
+        <v>46071.625</v>
       </c>
       <c r="B32" t="n">
-        <v>4.98853</v>
+        <v>84.53863</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1222,7 +1242,7 @@
         </is>
       </c>
       <c r="D32" s="3" t="n">
-        <v>46070</v>
+        <v>46071</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1232,10 +1252,10 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>46070.64583333334</v>
+        <v>46071.64583333334</v>
       </c>
       <c r="B33" t="n">
-        <v>5.22977</v>
+        <v>71.85057999999999</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1243,7 +1263,7 @@
         </is>
       </c>
       <c r="D33" s="3" t="n">
-        <v>46070</v>
+        <v>46071</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1253,10 +1273,10 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>46070.66666666666</v>
+        <v>46071.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>6.70394</v>
+        <v>71.681</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1264,7 +1284,7 @@
         </is>
       </c>
       <c r="D34" s="3" t="n">
-        <v>46070</v>
+        <v>46071</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1274,10 +1294,10 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>46070.6875</v>
+        <v>46071.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>36.06</v>
+        <v>66.86939</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1285,7 +1305,7 @@
         </is>
       </c>
       <c r="D35" s="3" t="n">
-        <v>46070</v>
+        <v>46071</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1295,10 +1315,10 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>46070.70833333334</v>
+        <v>46071.70833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>57.85294</v>
+        <v>97.76803</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1306,7 +1326,7 @@
         </is>
       </c>
       <c r="D36" s="3" t="n">
-        <v>46070</v>
+        <v>46071</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1316,10 +1336,10 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>46070.72916666666</v>
+        <v>46071.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>65.53963</v>
+        <v>49.22509</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1327,7 +1347,7 @@
         </is>
       </c>
       <c r="D37" s="3" t="n">
-        <v>46070</v>
+        <v>46071</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1337,10 +1357,10 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>46070.75</v>
+        <v>46071.75</v>
       </c>
       <c r="B38" t="n">
-        <v>84.79000000000001</v>
+        <v>59.29074</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1348,7 +1368,7 @@
         </is>
       </c>
       <c r="D38" s="3" t="n">
-        <v>46070</v>
+        <v>46071</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1358,10 +1378,10 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>46070.77083333334</v>
+        <v>46071.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>70.36225</v>
+        <v>60.82714</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1369,7 +1389,7 @@
         </is>
       </c>
       <c r="D39" s="3" t="n">
-        <v>46070</v>
+        <v>46071</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1379,18 +1399,18 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>46070.79166666666</v>
+        <v>46071.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>90.82671999999999</v>
+        <v>72.43123</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D40" s="3" t="n">
-        <v>46070</v>
+        <v>46071</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1400,18 +1420,18 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>46070.8125</v>
+        <v>46071.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>100.95901</v>
+        <v>74.00949</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D41" s="3" t="n">
-        <v>46070</v>
+        <v>46071</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1421,18 +1441,18 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>46070.83333333334</v>
+        <v>46071.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>105.79</v>
+        <v>85.12521</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D42" s="3" t="n">
-        <v>46070</v>
+        <v>46071</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1442,18 +1462,18 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>46070.85416666666</v>
+        <v>46071.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>103.66848</v>
+        <v>89.08286</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D43" s="3" t="n">
-        <v>46070</v>
+        <v>46071</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1463,18 +1483,18 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>46070.875</v>
+        <v>46071.875</v>
       </c>
       <c r="B44" t="n">
-        <v>95.72272</v>
+        <v>93.88782999999999</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D44" s="3" t="n">
-        <v>46070</v>
+        <v>46071</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1484,18 +1504,18 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>46070.89583333334</v>
+        <v>46071.89583333334</v>
       </c>
       <c r="B45" t="n">
         <v>84.79000000000001</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D45" s="3" t="n">
-        <v>46070</v>
+        <v>46071</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1505,18 +1525,18 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>46070.91666666666</v>
+        <v>46071.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>78</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D46" s="3" t="n">
-        <v>46070</v>
+        <v>46071</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1526,73 +1546,73 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>46070.9375</v>
+        <v>46071.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>72.75097</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D47" s="3" t="n">
-        <v>46070</v>
+        <v>46071</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>46070.95833333334</v>
+        <v>46071.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>66.93682</v>
+        <v>90.83708</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D48" s="3" t="n">
-        <v>46070</v>
+        <v>46071</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>46070.97916666666</v>
+        <v>46071.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>66.324</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D49" s="3" t="n">
-        <v>46070</v>
+        <v>46071</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="B50" t="n">
-        <v>73.19</v>
+        <v>84.21037</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1600,20 +1620,20 @@
         </is>
       </c>
       <c r="D50" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>46071.02083333334</v>
+        <v>46072.02083333334</v>
       </c>
       <c r="B51" t="n">
-        <v>78.35751</v>
+        <v>82.42048</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1621,20 +1641,20 @@
         </is>
       </c>
       <c r="D51" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>46071.04166666666</v>
+        <v>46072.04166666666</v>
       </c>
       <c r="B52" t="n">
-        <v>78.95034</v>
+        <v>79.95036</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1642,20 +1662,20 @@
         </is>
       </c>
       <c r="D52" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>46071.0625</v>
+        <v>46072.0625</v>
       </c>
       <c r="B53" t="n">
-        <v>74.77921000000001</v>
+        <v>79.95</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1663,7 +1683,7 @@
         </is>
       </c>
       <c r="D53" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1673,10 +1693,10 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>46071.08333333334</v>
+        <v>46072.08333333334</v>
       </c>
       <c r="B54" t="n">
-        <v>73.20017</v>
+        <v>79.95</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1684,7 +1704,7 @@
         </is>
       </c>
       <c r="D54" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1694,10 +1714,10 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>46071.10416666666</v>
+        <v>46072.10416666666</v>
       </c>
       <c r="B55" t="n">
-        <v>73.20016</v>
+        <v>79.95</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1705,7 +1725,7 @@
         </is>
       </c>
       <c r="D55" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1715,10 +1735,10 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>46071.125</v>
+        <v>46072.125</v>
       </c>
       <c r="B56" t="n">
-        <v>73.2</v>
+        <v>79.95</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1726,7 +1746,7 @@
         </is>
       </c>
       <c r="D56" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1736,10 +1756,10 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>46071.14583333334</v>
+        <v>46072.14583333334</v>
       </c>
       <c r="B57" t="n">
-        <v>73.2</v>
+        <v>79.95</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1747,20 +1767,20 @@
         </is>
       </c>
       <c r="D57" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>46071.16666666666</v>
+        <v>46072.16666666666</v>
       </c>
       <c r="B58" t="n">
-        <v>73.20017</v>
+        <v>78</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1768,20 +1788,20 @@
         </is>
       </c>
       <c r="D58" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>46071.1875</v>
+        <v>46072.1875</v>
       </c>
       <c r="B59" t="n">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1789,20 +1809,20 @@
         </is>
       </c>
       <c r="D59" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>46071.20833333334</v>
+        <v>46072.20833333334</v>
       </c>
       <c r="B60" t="n">
-        <v>73.20013</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1810,20 +1830,20 @@
         </is>
       </c>
       <c r="D60" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>46071.22916666666</v>
+        <v>46072.22916666666</v>
       </c>
       <c r="B61" t="n">
-        <v>73.7812</v>
+        <v>94.76989</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1831,20 +1851,20 @@
         </is>
       </c>
       <c r="D61" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>46071.25</v>
+        <v>46072.25</v>
       </c>
       <c r="B62" t="n">
-        <v>84.79000000000001</v>
+        <v>105.79</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1852,7 +1872,7 @@
         </is>
       </c>
       <c r="D62" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1862,10 +1882,10 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>46071.27083333334</v>
+        <v>46072.27083333334</v>
       </c>
       <c r="B63" t="n">
-        <v>110.45944</v>
+        <v>108.01</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1873,7 +1893,7 @@
         </is>
       </c>
       <c r="D63" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -1883,10 +1903,10 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>46071.29166666666</v>
+        <v>46072.29166666666</v>
       </c>
       <c r="B64" t="n">
-        <v>84.79000000000001</v>
+        <v>87.51828</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1894,7 +1914,7 @@
         </is>
       </c>
       <c r="D64" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -1904,10 +1924,10 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>46071.3125</v>
+        <v>46072.3125</v>
       </c>
       <c r="B65" t="n">
-        <v>35.88</v>
+        <v>50.36064</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1915,7 +1935,7 @@
         </is>
       </c>
       <c r="D65" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -1925,10 +1945,10 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>46071.33333333334</v>
+        <v>46072.33333333334</v>
       </c>
       <c r="B66" t="n">
-        <v>13.52897</v>
+        <v>56.98</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1936,7 +1956,7 @@
         </is>
       </c>
       <c r="D66" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -1946,10 +1966,10 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>46071.35416666666</v>
+        <v>46072.35416666666</v>
       </c>
       <c r="B67" t="n">
-        <v>0.51</v>
+        <v>36.06</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1957,7 +1977,7 @@
         </is>
       </c>
       <c r="D67" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -1967,10 +1987,10 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>46071.375</v>
+        <v>46072.375</v>
       </c>
       <c r="B68" t="n">
-        <v>0.51</v>
+        <v>22.07</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1978,7 +1998,7 @@
         </is>
       </c>
       <c r="D68" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -1988,10 +2008,10 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>46071.39583333334</v>
+        <v>46072.39583333334</v>
       </c>
       <c r="B69" t="n">
-        <v>0.51</v>
+        <v>36.06</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1999,7 +2019,7 @@
         </is>
       </c>
       <c r="D69" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2009,10 +2029,10 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>46071.41666666666</v>
+        <v>46072.41666666666</v>
       </c>
       <c r="B70" t="n">
-        <v>0.51</v>
+        <v>33.58334</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2020,7 +2040,7 @@
         </is>
       </c>
       <c r="D70" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2030,10 +2050,10 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>46071.4375</v>
+        <v>46072.4375</v>
       </c>
       <c r="B71" t="n">
-        <v>0.51</v>
+        <v>36.06</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2041,7 +2061,7 @@
         </is>
       </c>
       <c r="D71" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2051,10 +2071,10 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>46071.45833333334</v>
+        <v>46072.45833333334</v>
       </c>
       <c r="B72" t="n">
-        <v>0.51</v>
+        <v>36.06</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2062,7 +2082,7 @@
         </is>
       </c>
       <c r="D72" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2072,10 +2092,10 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>46071.47916666666</v>
+        <v>46072.47916666666</v>
       </c>
       <c r="B73" t="n">
-        <v>0.7</v>
+        <v>36.06</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2083,7 +2103,7 @@
         </is>
       </c>
       <c r="D73" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2093,10 +2113,10 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>46071.5</v>
+        <v>46072.5</v>
       </c>
       <c r="B74" t="n">
-        <v>22.07</v>
+        <v>34.01</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2104,7 +2124,7 @@
         </is>
       </c>
       <c r="D74" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2114,10 +2134,10 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>46071.52083333334</v>
+        <v>46072.52083333334</v>
       </c>
       <c r="B75" t="n">
-        <v>22.07</v>
+        <v>36.06</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2125,7 +2145,7 @@
         </is>
       </c>
       <c r="D75" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2135,10 +2155,10 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>46071.54166666666</v>
+        <v>46072.54166666666</v>
       </c>
       <c r="B76" t="n">
-        <v>22.07</v>
+        <v>36.07</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2146,7 +2166,7 @@
         </is>
       </c>
       <c r="D76" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2156,10 +2176,10 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>46071.5625</v>
+        <v>46072.5625</v>
       </c>
       <c r="B77" t="n">
-        <v>36.06046</v>
+        <v>36.06</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2167,7 +2187,7 @@
         </is>
       </c>
       <c r="D77" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2177,10 +2197,10 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>46071.58333333334</v>
+        <v>46072.58333333334</v>
       </c>
       <c r="B78" t="n">
-        <v>36.06021</v>
+        <v>36.06</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2188,7 +2208,7 @@
         </is>
       </c>
       <c r="D78" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2198,10 +2218,10 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>46071.60416666666</v>
+        <v>46072.60416666666</v>
       </c>
       <c r="B79" t="n">
-        <v>65</v>
+        <v>36.06</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2209,7 +2229,7 @@
         </is>
       </c>
       <c r="D79" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2219,10 +2239,10 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>46071.625</v>
+        <v>46072.625</v>
       </c>
       <c r="B80" t="n">
-        <v>79.95016</v>
+        <v>50.42078</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2230,20 +2250,20 @@
         </is>
       </c>
       <c r="D80" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>46071.64583333334</v>
+        <v>46072.64583333334</v>
       </c>
       <c r="B81" t="n">
-        <v>71.85057999999999</v>
+        <v>57.06007</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2251,20 +2271,20 @@
         </is>
       </c>
       <c r="D81" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>46071.66666666666</v>
+        <v>46072.66666666666</v>
       </c>
       <c r="B82" t="n">
-        <v>71.25176</v>
+        <v>64.89</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2272,7 +2292,7 @@
         </is>
       </c>
       <c r="D82" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2282,10 +2302,10 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>46071.6875</v>
+        <v>46072.6875</v>
       </c>
       <c r="B83" t="n">
-        <v>66.72439</v>
+        <v>59.41129</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2293,7 +2313,7 @@
         </is>
       </c>
       <c r="D83" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2303,10 +2323,10 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>46071.70833333334</v>
+        <v>46072.70833333334</v>
       </c>
       <c r="B84" t="n">
-        <v>81.14199000000001</v>
+        <v>62.17262</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2314,7 +2334,7 @@
         </is>
       </c>
       <c r="D84" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2324,10 +2344,10 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>46071.72916666666</v>
+        <v>46072.72916666666</v>
       </c>
       <c r="B85" t="n">
-        <v>49.38732</v>
+        <v>63.00145</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2335,7 +2355,7 @@
         </is>
       </c>
       <c r="D85" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2345,10 +2365,10 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>46071.75</v>
+        <v>46072.75</v>
       </c>
       <c r="B86" t="n">
-        <v>56.72622</v>
+        <v>68.02938</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2356,7 +2376,7 @@
         </is>
       </c>
       <c r="D86" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2366,10 +2386,10 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>46071.77083333334</v>
+        <v>46072.77083333334</v>
       </c>
       <c r="B87" t="n">
-        <v>100.81666</v>
+        <v>121.48637</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2377,7 +2397,7 @@
         </is>
       </c>
       <c r="D87" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2387,10 +2407,10 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>46071.79166666666</v>
+        <v>46072.79166666666</v>
       </c>
       <c r="B88" t="n">
-        <v>159.33954</v>
+        <v>179.66617</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2398,7 +2418,7 @@
         </is>
       </c>
       <c r="D88" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2408,10 +2428,10 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>46071.8125</v>
+        <v>46072.8125</v>
       </c>
       <c r="B89" t="n">
-        <v>151.65295</v>
+        <v>173.79569</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2419,7 +2439,7 @@
         </is>
       </c>
       <c r="D89" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2429,10 +2449,10 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>46071.83333333334</v>
+        <v>46072.83333333334</v>
       </c>
       <c r="B90" t="n">
-        <v>144.56143</v>
+        <v>147.21562</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2440,7 +2460,7 @@
         </is>
       </c>
       <c r="D90" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2450,10 +2470,10 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>46071.85416666666</v>
+        <v>46072.85416666666</v>
       </c>
       <c r="B91" t="n">
-        <v>143.3261</v>
+        <v>127.90728</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2461,7 +2481,7 @@
         </is>
       </c>
       <c r="D91" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -2471,10 +2491,10 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>46071.875</v>
+        <v>46072.875</v>
       </c>
       <c r="B92" t="n">
-        <v>138.42</v>
+        <v>105</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2482,7 +2502,7 @@
         </is>
       </c>
       <c r="D92" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -2492,10 +2512,10 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>46071.89583333334</v>
+        <v>46072.89583333334</v>
       </c>
       <c r="B93" t="n">
-        <v>108.89</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2503,7 +2523,7 @@
         </is>
       </c>
       <c r="D93" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2513,10 +2533,10 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>46071.91666666666</v>
+        <v>46072.91666666666</v>
       </c>
       <c r="B94" t="n">
-        <v>108.89</v>
+        <v>78</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2524,7 +2544,7 @@
         </is>
       </c>
       <c r="D94" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -2534,10 +2554,10 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>46071.9375</v>
+        <v>46072.9375</v>
       </c>
       <c r="B95" t="n">
-        <v>105.79</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2545,7 +2565,7 @@
         </is>
       </c>
       <c r="D95" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2555,10 +2575,10 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>46071.95833333334</v>
+        <v>46072.95833333334</v>
       </c>
       <c r="B96" t="n">
-        <v>105.79</v>
+        <v>78</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2566,7 +2586,7 @@
         </is>
       </c>
       <c r="D96" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -2576,10 +2596,10 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>46071.97916666666</v>
+        <v>46072.97916666666</v>
       </c>
       <c r="B97" t="n">
-        <v>97.55358</v>
+        <v>80.08</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -2587,7 +2607,7 @@
         </is>
       </c>
       <c r="D97" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -478,19 +478,19 @@
         <v>46071</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>46071.25</v>
+        <v>46071.27083333334</v>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="D2" t="n">
-        <v>22.68</v>
+        <v>24.57</v>
       </c>
       <c r="E2" t="n">
-        <v>844.2312645</v>
+        <v>926.9015145</v>
       </c>
       <c r="F2" t="n">
-        <v>37.22360072751322</v>
+        <v>37.72492936507936</v>
       </c>
     </row>
     <row r="3">
@@ -515,22 +515,22 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46071.9375</v>
+        <v>46071.95833333334</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>46072.14583333334</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="D4" t="n">
-        <v>18.9</v>
+        <v>17.01</v>
       </c>
       <c r="E4" t="n">
-        <v>806.1283327499998</v>
+        <v>710.3674597499999</v>
       </c>
       <c r="F4" t="n">
-        <v>42.65229273809523</v>
+        <v>41.76175542328042</v>
       </c>
     </row>
     <row r="5">
@@ -547,10 +547,10 @@
         <v>32.13</v>
       </c>
       <c r="E5" t="n">
-        <v>648.46745925</v>
+        <v>715.6762470000002</v>
       </c>
       <c r="F5" t="n">
-        <v>20.18261622315593</v>
+        <v>22.27439299719889</v>
       </c>
     </row>
   </sheetData>
@@ -868,7 +868,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1360,7 +1360,7 @@
         <v>46071.75</v>
       </c>
       <c r="B38" t="n">
-        <v>59.29074</v>
+        <v>56.57435</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>46071.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>60.82714</v>
+        <v>67.5433</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1402,11 +1402,11 @@
         <v>46071.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>72.43123</v>
+        <v>157.27893</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D40" s="3" t="n">
@@ -1423,11 +1423,11 @@
         <v>46071.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>74.00949</v>
+        <v>154.2</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D41" s="3" t="n">
@@ -1444,11 +1444,11 @@
         <v>46071.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>85.12521</v>
+        <v>146.17011</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D42" s="3" t="n">
@@ -1465,11 +1465,11 @@
         <v>46071.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>89.08286</v>
+        <v>143.63034</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D43" s="3" t="n">
@@ -1486,11 +1486,11 @@
         <v>46071.875</v>
       </c>
       <c r="B44" t="n">
-        <v>93.88782999999999</v>
+        <v>138.42</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D44" s="3" t="n">
@@ -1507,11 +1507,11 @@
         <v>46071.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>84.79000000000001</v>
+        <v>108.89</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D45" s="3" t="n">
@@ -1528,11 +1528,11 @@
         <v>46071.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>84.79000000000001</v>
+        <v>108.89</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D46" s="3" t="n">
@@ -1549,11 +1549,11 @@
         <v>46071.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>84.79000000000001</v>
+        <v>95.11075</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D47" s="3" t="n">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1570,11 +1570,11 @@
         <v>46071.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>90.83708</v>
+        <v>86.06352</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D48" s="3" t="n">
@@ -1591,11 +1591,11 @@
         <v>46071.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>84.79000000000001</v>
+        <v>73.20005999999999</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D49" s="3" t="n">
@@ -1612,7 +1612,7 @@
         <v>46072</v>
       </c>
       <c r="B50" t="n">
-        <v>84.21037</v>
+        <v>80.02367</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>46072.02083333334</v>
       </c>
       <c r="B51" t="n">
-        <v>82.42048</v>
+        <v>84.70398</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>46072.04166666666</v>
       </c>
       <c r="B52" t="n">
-        <v>79.95036</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>46072.0625</v>
       </c>
       <c r="B53" t="n">
-        <v>79.95</v>
+        <v>79.95038</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         <v>46072.08333333334</v>
       </c>
       <c r="B54" t="n">
-        <v>79.95</v>
+        <v>79.9504</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         <v>46072.16666666666</v>
       </c>
       <c r="B58" t="n">
-        <v>78</v>
+        <v>79.95</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>46072.1875</v>
       </c>
       <c r="B59" t="n">
-        <v>78</v>
+        <v>83.47329999999999</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>46072.20833333334</v>
       </c>
       <c r="B60" t="n">
-        <v>84.79000000000001</v>
+        <v>90.54376000000001</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>46072.22916666666</v>
       </c>
       <c r="B61" t="n">
-        <v>94.76989</v>
+        <v>98.17335</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>46072.25</v>
       </c>
       <c r="B62" t="n">
-        <v>105.79</v>
+        <v>106.84888</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>46072.27083333334</v>
       </c>
       <c r="B63" t="n">
-        <v>108.01</v>
+        <v>108.89</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>46072.29166666666</v>
       </c>
       <c r="B64" t="n">
-        <v>87.51828</v>
+        <v>100.01</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         <v>46072.3125</v>
       </c>
       <c r="B65" t="n">
-        <v>50.36064</v>
+        <v>60.51663</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>46072.33333333334</v>
       </c>
       <c r="B66" t="n">
-        <v>56.98</v>
+        <v>57.06</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>46072.35416666666</v>
       </c>
       <c r="B67" t="n">
-        <v>36.06</v>
+        <v>51.29678</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>46072.375</v>
       </c>
       <c r="B68" t="n">
-        <v>22.07</v>
+        <v>36.06</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>46072.41666666666</v>
       </c>
       <c r="B70" t="n">
-        <v>33.58334</v>
+        <v>36.06</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>46072.5</v>
       </c>
       <c r="B74" t="n">
-        <v>34.01</v>
+        <v>36.06</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>46072.5625</v>
       </c>
       <c r="B77" t="n">
-        <v>36.06</v>
+        <v>54.35344</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>46072.58333333334</v>
       </c>
       <c r="B78" t="n">
-        <v>36.06</v>
+        <v>36.07</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>46072.625</v>
       </c>
       <c r="B80" t="n">
-        <v>50.42078</v>
+        <v>57.06</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>46072.66666666666</v>
       </c>
       <c r="B82" t="n">
-        <v>64.89</v>
+        <v>64.9019</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>46072.6875</v>
       </c>
       <c r="B83" t="n">
-        <v>59.41129</v>
+        <v>60.0036</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>46072.70833333334</v>
       </c>
       <c r="B84" t="n">
-        <v>62.17262</v>
+        <v>64.12925</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         <v>46072.72916666666</v>
       </c>
       <c r="B85" t="n">
-        <v>63.00145</v>
+        <v>64.22445999999999</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>46072.75</v>
       </c>
       <c r="B86" t="n">
-        <v>68.02938</v>
+        <v>63.53876</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         <v>46072.77083333334</v>
       </c>
       <c r="B87" t="n">
-        <v>121.48637</v>
+        <v>135.50041</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>46072.79166666666</v>
       </c>
       <c r="B88" t="n">
-        <v>179.66617</v>
+        <v>166.61417</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>46072.8125</v>
       </c>
       <c r="B89" t="n">
-        <v>173.79569</v>
+        <v>156.49832</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>46072.83333333334</v>
       </c>
       <c r="B90" t="n">
-        <v>147.21562</v>
+        <v>180.12572</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>46072.85416666666</v>
       </c>
       <c r="B91" t="n">
-        <v>127.90728</v>
+        <v>138.60419</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>46072.89583333334</v>
       </c>
       <c r="B93" t="n">
-        <v>84.79000000000001</v>
+        <v>104.74819</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>46072.91666666666</v>
       </c>
       <c r="B94" t="n">
-        <v>78</v>
+        <v>92.70107</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2557,7 +2557,7 @@
         <v>46072.9375</v>
       </c>
       <c r="B95" t="n">
-        <v>84.79000000000001</v>
+        <v>92.65982</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>46072.97916666666</v>
       </c>
       <c r="B97" t="n">
-        <v>80.08</v>
+        <v>85.65000000000001</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -475,30 +475,30 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>46071.27083333334</v>
+        <v>46072.22916666666</v>
       </c>
       <c r="C2" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="D2" t="n">
-        <v>24.57</v>
+        <v>20.79</v>
       </c>
       <c r="E2" t="n">
-        <v>926.9015145</v>
+        <v>896.6872589999999</v>
       </c>
       <c r="F2" t="n">
-        <v>37.72492936507936</v>
+        <v>43.13070028860029</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46071.3125</v>
+        <v>46072.3125</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>46071.66666666666</v>
+        <v>46072.66666666666</v>
       </c>
       <c r="C3" t="n">
         <v>8.5</v>
@@ -507,38 +507,38 @@
         <v>32.13</v>
       </c>
       <c r="E3" t="n">
-        <v>404.2313925</v>
+        <v>712.30453125</v>
       </c>
       <c r="F3" t="n">
-        <v>12.58112021475257</v>
+        <v>22.16945319794585</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46071.95833333334</v>
+        <v>46072.91666666666</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>46072.14583333334</v>
+        <v>46073.14583333334</v>
       </c>
       <c r="C4" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="D4" t="n">
-        <v>17.01</v>
+        <v>20.79</v>
       </c>
       <c r="E4" t="n">
-        <v>710.3674597499999</v>
+        <v>985.7853329999999</v>
       </c>
       <c r="F4" t="n">
-        <v>41.76175542328042</v>
+        <v>47.41632193362193</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46072.3125</v>
+        <v>46073.3125</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>46072.66666666666</v>
+        <v>46073.66666666666</v>
       </c>
       <c r="C5" t="n">
         <v>8.5</v>
@@ -547,10 +547,10 @@
         <v>32.13</v>
       </c>
       <c r="E5" t="n">
-        <v>715.6762470000002</v>
+        <v>735.5292165</v>
       </c>
       <c r="F5" t="n">
-        <v>22.27439299719889</v>
+        <v>22.8922880952381</v>
       </c>
     </row>
   </sheetData>
@@ -601,10 +601,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="B2" t="n">
-        <v>65.18495</v>
+        <v>85.50449</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="D2" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -622,10 +622,10 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46071.02083333334</v>
+        <v>46072.02083333334</v>
       </c>
       <c r="B3" t="n">
-        <v>76.89252999999999</v>
+        <v>87.06509</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -643,10 +643,10 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46071.04166666666</v>
+        <v>46072.04166666666</v>
       </c>
       <c r="B4" t="n">
-        <v>73.20009</v>
+        <v>89.34726999999999</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -654,7 +654,7 @@
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -664,10 +664,10 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46071.0625</v>
+        <v>46072.0625</v>
       </c>
       <c r="B5" t="n">
-        <v>73.20013</v>
+        <v>80.44962</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -685,10 +685,10 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>46071.08333333334</v>
+        <v>46072.08333333334</v>
       </c>
       <c r="B6" t="n">
-        <v>73.20017</v>
+        <v>84.52333</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -706,10 +706,10 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>46071.10416666666</v>
+        <v>46072.10416666666</v>
       </c>
       <c r="B7" t="n">
-        <v>73.20001999999999</v>
+        <v>79.95</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -727,10 +727,10 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>46071.125</v>
+        <v>46072.125</v>
       </c>
       <c r="B8" t="n">
-        <v>73.2</v>
+        <v>79.95</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -738,7 +738,7 @@
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -748,10 +748,10 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>46071.14583333334</v>
+        <v>46072.14583333334</v>
       </c>
       <c r="B9" t="n">
-        <v>73.2</v>
+        <v>79.95</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -769,10 +769,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>46071.16666666666</v>
+        <v>46072.16666666666</v>
       </c>
       <c r="B10" t="n">
-        <v>73.20017</v>
+        <v>79.95</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -790,10 +790,10 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>46071.1875</v>
+        <v>46072.1875</v>
       </c>
       <c r="B11" t="n">
-        <v>65</v>
+        <v>82.45023999999999</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -811,10 +811,10 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>46071.20833333334</v>
+        <v>46072.20833333334</v>
       </c>
       <c r="B12" t="n">
-        <v>73.20013</v>
+        <v>90.53919999999999</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -832,10 +832,10 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>46071.22916666666</v>
+        <v>46072.22916666666</v>
       </c>
       <c r="B13" t="n">
-        <v>73.20003</v>
+        <v>100.01</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -843,20 +843,20 @@
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>46071.25</v>
+        <v>46072.25</v>
       </c>
       <c r="B14" t="n">
-        <v>84.79000000000001</v>
+        <v>105.79</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -864,20 +864,20 @@
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>46071.27083333334</v>
+        <v>46072.27083333334</v>
       </c>
       <c r="B15" t="n">
-        <v>107.78769</v>
+        <v>108.89</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -895,10 +895,10 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>46071.29166666666</v>
+        <v>46072.29166666666</v>
       </c>
       <c r="B16" t="n">
-        <v>94.74899000000001</v>
+        <v>99.73763</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -906,7 +906,7 @@
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -916,10 +916,10 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>46071.3125</v>
+        <v>46072.3125</v>
       </c>
       <c r="B17" t="n">
-        <v>35.88</v>
+        <v>57.06</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         </is>
       </c>
       <c r="D17" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -937,10 +937,10 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>46071.33333333334</v>
+        <v>46072.33333333334</v>
       </c>
       <c r="B18" t="n">
-        <v>13.26863</v>
+        <v>57.06</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         </is>
       </c>
       <c r="D18" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -958,10 +958,10 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>46071.35416666666</v>
+        <v>46072.35416666666</v>
       </c>
       <c r="B19" t="n">
-        <v>0.51</v>
+        <v>51.29697</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         </is>
       </c>
       <c r="D19" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -979,10 +979,10 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>46071.375</v>
+        <v>46072.375</v>
       </c>
       <c r="B20" t="n">
-        <v>0.51</v>
+        <v>36.06</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
         </is>
       </c>
       <c r="D20" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1000,10 +1000,10 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>46071.39583333334</v>
+        <v>46072.39583333334</v>
       </c>
       <c r="B21" t="n">
-        <v>0.51</v>
+        <v>36.06</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D21" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1021,10 +1021,10 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>46071.41666666666</v>
+        <v>46072.41666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>0.51</v>
+        <v>36.06</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="D22" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1042,10 +1042,10 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>46071.4375</v>
+        <v>46072.4375</v>
       </c>
       <c r="B23" t="n">
-        <v>0.51</v>
+        <v>36.06</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D23" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1063,10 +1063,10 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>46071.45833333334</v>
+        <v>46072.45833333334</v>
       </c>
       <c r="B24" t="n">
-        <v>0.51</v>
+        <v>36.06</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1074,7 +1074,7 @@
         </is>
       </c>
       <c r="D24" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1084,10 +1084,10 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>46071.47916666666</v>
+        <v>46072.47916666666</v>
       </c>
       <c r="B25" t="n">
-        <v>0.7</v>
+        <v>36.06</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         </is>
       </c>
       <c r="D25" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1105,10 +1105,10 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>46071.5</v>
+        <v>46072.5</v>
       </c>
       <c r="B26" t="n">
-        <v>22.07</v>
+        <v>36.06</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         </is>
       </c>
       <c r="D26" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1126,10 +1126,10 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>46071.52083333334</v>
+        <v>46072.52083333334</v>
       </c>
       <c r="B27" t="n">
-        <v>22.07</v>
+        <v>36.06</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1137,7 +1137,7 @@
         </is>
       </c>
       <c r="D27" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1147,10 +1147,10 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>46071.54166666666</v>
+        <v>46072.54166666666</v>
       </c>
       <c r="B28" t="n">
-        <v>30.34515</v>
+        <v>36.07</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         </is>
       </c>
       <c r="D28" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1168,10 +1168,10 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>46071.5625</v>
+        <v>46072.5625</v>
       </c>
       <c r="B29" t="n">
-        <v>36.06</v>
+        <v>54.35171</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
         </is>
       </c>
       <c r="D29" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1189,7 +1189,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>46071.58333333334</v>
+        <v>46072.58333333334</v>
       </c>
       <c r="B30" t="n">
         <v>36.07</v>
@@ -1200,7 +1200,7 @@
         </is>
       </c>
       <c r="D30" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1210,10 +1210,10 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>46071.60416666666</v>
+        <v>46072.60416666666</v>
       </c>
       <c r="B31" t="n">
-        <v>58.68331</v>
+        <v>36.06</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="D31" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1231,10 +1231,10 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>46071.625</v>
+        <v>46072.625</v>
       </c>
       <c r="B32" t="n">
-        <v>84.53863</v>
+        <v>57.06</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="D32" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1252,10 +1252,10 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>46071.64583333334</v>
+        <v>46072.64583333334</v>
       </c>
       <c r="B33" t="n">
-        <v>71.85057999999999</v>
+        <v>57.06007</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         </is>
       </c>
       <c r="D33" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>46071.66666666666</v>
+        <v>46072.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>71.681</v>
+        <v>64.90155</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         </is>
       </c>
       <c r="D34" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1294,10 +1294,10 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>46071.6875</v>
+        <v>46072.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>66.86939</v>
+        <v>60.00102</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         </is>
       </c>
       <c r="D35" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1315,10 +1315,10 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>46071.70833333334</v>
+        <v>46072.70833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>97.76803</v>
+        <v>64.14396000000001</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
         </is>
       </c>
       <c r="D36" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1336,10 +1336,10 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>46071.72916666666</v>
+        <v>46072.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>49.22509</v>
+        <v>64.01336999999999</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         </is>
       </c>
       <c r="D37" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1357,10 +1357,10 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>46071.75</v>
+        <v>46072.75</v>
       </c>
       <c r="B38" t="n">
-        <v>56.57435</v>
+        <v>60.65947</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         </is>
       </c>
       <c r="D38" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1378,10 +1378,10 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>46071.77083333334</v>
+        <v>46072.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>67.5433</v>
+        <v>88.67211</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         </is>
       </c>
       <c r="D39" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1399,18 +1399,18 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>46071.79166666666</v>
+        <v>46072.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>157.27893</v>
+        <v>154.00536</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D40" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1420,18 +1420,18 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>46071.8125</v>
+        <v>46072.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>154.2</v>
+        <v>141.56265</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D41" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1441,18 +1441,18 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>46071.83333333334</v>
+        <v>46072.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>146.17011</v>
+        <v>151.10197</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D42" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1462,18 +1462,18 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>46071.85416666666</v>
+        <v>46072.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>143.63034</v>
+        <v>147.51</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D43" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1483,18 +1483,18 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>46071.875</v>
+        <v>46072.875</v>
       </c>
       <c r="B44" t="n">
-        <v>138.42</v>
+        <v>110.65344</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D44" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1504,18 +1504,18 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>46071.89583333334</v>
+        <v>46072.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>108.89</v>
+        <v>108.01</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D45" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1525,60 +1525,60 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>46071.91666666666</v>
+        <v>46072.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>108.89</v>
+        <v>92.83602</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D46" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>46071.9375</v>
+        <v>46072.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>95.11075</v>
+        <v>105.79</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D47" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>46071.95833333334</v>
+        <v>46072.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>86.06352</v>
+        <v>89.63834</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D48" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1588,18 +1588,18 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>46071.97916666666</v>
+        <v>46072.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>73.20005999999999</v>
+        <v>104.0458</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D49" s="3" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1609,10 +1609,10 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="B50" t="n">
-        <v>80.02367</v>
+        <v>85.0064</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
         </is>
       </c>
       <c r="D50" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>46072.02083333334</v>
+        <v>46073.02083333334</v>
       </c>
       <c r="B51" t="n">
-        <v>84.70398</v>
+        <v>89.58095</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         </is>
       </c>
       <c r="D51" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1651,10 +1651,10 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>46072.04166666666</v>
+        <v>46073.04166666666</v>
       </c>
       <c r="B52" t="n">
-        <v>84.79000000000001</v>
+        <v>88.59341999999999</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="D52" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1672,10 +1672,10 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>46072.0625</v>
+        <v>46073.0625</v>
       </c>
       <c r="B53" t="n">
-        <v>79.95038</v>
+        <v>89.97313</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="D53" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1693,10 +1693,10 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>46072.08333333334</v>
+        <v>46073.08333333334</v>
       </c>
       <c r="B54" t="n">
-        <v>79.9504</v>
+        <v>88.34782</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="D54" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1714,10 +1714,10 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>46072.10416666666</v>
+        <v>46073.10416666666</v>
       </c>
       <c r="B55" t="n">
-        <v>79.95</v>
+        <v>89.56339</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="D55" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1735,10 +1735,10 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>46072.125</v>
+        <v>46073.125</v>
       </c>
       <c r="B56" t="n">
-        <v>79.95</v>
+        <v>87.68661</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="D56" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1756,10 +1756,10 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>46072.14583333334</v>
+        <v>46073.14583333334</v>
       </c>
       <c r="B57" t="n">
-        <v>79.95</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D57" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -1777,10 +1777,10 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>46072.16666666666</v>
+        <v>46073.16666666666</v>
       </c>
       <c r="B58" t="n">
-        <v>79.95</v>
+        <v>87.86566000000001</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         </is>
       </c>
       <c r="D58" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1798,10 +1798,10 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>46072.1875</v>
+        <v>46073.1875</v>
       </c>
       <c r="B59" t="n">
-        <v>83.47329999999999</v>
+        <v>85.36185999999999</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         </is>
       </c>
       <c r="D59" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1819,10 +1819,10 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>46072.20833333334</v>
+        <v>46073.20833333334</v>
       </c>
       <c r="B60" t="n">
-        <v>90.54376000000001</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         </is>
       </c>
       <c r="D60" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -1840,10 +1840,10 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>46072.22916666666</v>
+        <v>46073.22916666666</v>
       </c>
       <c r="B61" t="n">
-        <v>98.17335</v>
+        <v>105.79</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         </is>
       </c>
       <c r="D61" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -1861,10 +1861,10 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>46072.25</v>
+        <v>46073.25</v>
       </c>
       <c r="B62" t="n">
-        <v>106.84888</v>
+        <v>119.30368</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="D62" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1882,10 +1882,10 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>46072.27083333334</v>
+        <v>46073.27083333334</v>
       </c>
       <c r="B63" t="n">
-        <v>108.89</v>
+        <v>142.36</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         </is>
       </c>
       <c r="D63" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -1903,10 +1903,10 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>46072.29166666666</v>
+        <v>46073.29166666666</v>
       </c>
       <c r="B64" t="n">
-        <v>100.01</v>
+        <v>115.12072</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1914,7 +1914,7 @@
         </is>
       </c>
       <c r="D64" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -1924,10 +1924,10 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>46072.3125</v>
+        <v>46073.3125</v>
       </c>
       <c r="B65" t="n">
-        <v>60.51663</v>
+        <v>74.56739</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         </is>
       </c>
       <c r="D65" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -1945,10 +1945,10 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>46072.33333333334</v>
+        <v>46073.33333333334</v>
       </c>
       <c r="B66" t="n">
-        <v>57.06</v>
+        <v>67.34251999999999</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1956,7 +1956,7 @@
         </is>
       </c>
       <c r="D66" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -1966,10 +1966,10 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>46072.35416666666</v>
+        <v>46073.35416666666</v>
       </c>
       <c r="B67" t="n">
-        <v>51.29678</v>
+        <v>56.98</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
         </is>
       </c>
       <c r="D67" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -1987,10 +1987,10 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>46072.375</v>
+        <v>46073.375</v>
       </c>
       <c r="B68" t="n">
-        <v>36.06</v>
+        <v>42.69144</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         </is>
       </c>
       <c r="D68" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2008,10 +2008,10 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>46072.39583333334</v>
+        <v>46073.39583333334</v>
       </c>
       <c r="B69" t="n">
-        <v>36.06</v>
+        <v>42.5745</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2019,7 +2019,7 @@
         </is>
       </c>
       <c r="D69" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>46072.41666666666</v>
+        <v>46073.41666666666</v>
       </c>
       <c r="B70" t="n">
         <v>36.06</v>
@@ -2040,7 +2040,7 @@
         </is>
       </c>
       <c r="D70" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>46072.4375</v>
+        <v>46073.4375</v>
       </c>
       <c r="B71" t="n">
         <v>36.06</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D71" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2071,7 +2071,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>46072.45833333334</v>
+        <v>46073.45833333334</v>
       </c>
       <c r="B72" t="n">
         <v>36.06</v>
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="D72" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>46072.47916666666</v>
+        <v>46073.47916666666</v>
       </c>
       <c r="B73" t="n">
         <v>36.06</v>
@@ -2103,7 +2103,7 @@
         </is>
       </c>
       <c r="D73" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>46072.5</v>
+        <v>46073.5</v>
       </c>
       <c r="B74" t="n">
         <v>36.06</v>
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="D74" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>46072.52083333334</v>
+        <v>46073.52083333334</v>
       </c>
       <c r="B75" t="n">
         <v>36.06</v>
@@ -2145,7 +2145,7 @@
         </is>
       </c>
       <c r="D75" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2155,10 +2155,10 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>46072.54166666666</v>
+        <v>46073.54166666666</v>
       </c>
       <c r="B76" t="n">
-        <v>36.07</v>
+        <v>36.06</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2166,7 +2166,7 @@
         </is>
       </c>
       <c r="D76" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2176,10 +2176,10 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>46072.5625</v>
+        <v>46073.5625</v>
       </c>
       <c r="B77" t="n">
-        <v>54.35344</v>
+        <v>36.06</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         </is>
       </c>
       <c r="D77" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2197,10 +2197,10 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>46072.58333333334</v>
+        <v>46073.58333333334</v>
       </c>
       <c r="B78" t="n">
-        <v>36.07</v>
+        <v>36.06</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         </is>
       </c>
       <c r="D78" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2218,10 +2218,10 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>46072.60416666666</v>
+        <v>46073.60416666666</v>
       </c>
       <c r="B79" t="n">
-        <v>36.06</v>
+        <v>37.3666</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2229,7 +2229,7 @@
         </is>
       </c>
       <c r="D79" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2239,10 +2239,10 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>46072.625</v>
+        <v>46073.625</v>
       </c>
       <c r="B80" t="n">
-        <v>57.06</v>
+        <v>53.58127</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2250,7 +2250,7 @@
         </is>
       </c>
       <c r="D80" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2260,10 +2260,10 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>46072.64583333334</v>
+        <v>46073.64583333334</v>
       </c>
       <c r="B81" t="n">
-        <v>57.06007</v>
+        <v>54.74522</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="D81" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2281,10 +2281,10 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>46072.66666666666</v>
+        <v>46073.66666666666</v>
       </c>
       <c r="B82" t="n">
-        <v>64.9019</v>
+        <v>52.20696</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="D82" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2302,10 +2302,10 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>46072.6875</v>
+        <v>46073.6875</v>
       </c>
       <c r="B83" t="n">
-        <v>60.0036</v>
+        <v>36.9688</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         </is>
       </c>
       <c r="D83" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2323,10 +2323,10 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>46072.70833333334</v>
+        <v>46073.70833333334</v>
       </c>
       <c r="B84" t="n">
-        <v>64.12925</v>
+        <v>57.31</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         </is>
       </c>
       <c r="D84" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2344,10 +2344,10 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>46072.72916666666</v>
+        <v>46073.72916666666</v>
       </c>
       <c r="B85" t="n">
-        <v>64.22445999999999</v>
+        <v>61.85713</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         </is>
       </c>
       <c r="D85" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2365,10 +2365,10 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>46072.75</v>
+        <v>46073.75</v>
       </c>
       <c r="B86" t="n">
-        <v>63.53876</v>
+        <v>79.95009</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         </is>
       </c>
       <c r="D86" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2386,10 +2386,10 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>46072.77083333334</v>
+        <v>46073.77083333334</v>
       </c>
       <c r="B87" t="n">
-        <v>135.50041</v>
+        <v>117.94485</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         </is>
       </c>
       <c r="D87" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2407,10 +2407,10 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>46072.79166666666</v>
+        <v>46073.79166666666</v>
       </c>
       <c r="B88" t="n">
-        <v>166.61417</v>
+        <v>147.51</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         </is>
       </c>
       <c r="D88" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2428,10 +2428,10 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>46072.8125</v>
+        <v>46073.8125</v>
       </c>
       <c r="B89" t="n">
-        <v>156.49832</v>
+        <v>154.2</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         </is>
       </c>
       <c r="D89" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2449,10 +2449,10 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>46072.83333333334</v>
+        <v>46073.83333333334</v>
       </c>
       <c r="B90" t="n">
-        <v>180.12572</v>
+        <v>147.51</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         </is>
       </c>
       <c r="D90" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2470,10 +2470,10 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>46072.85416666666</v>
+        <v>46073.85416666666</v>
       </c>
       <c r="B91" t="n">
-        <v>138.60419</v>
+        <v>154.2</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         </is>
       </c>
       <c r="D91" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -2491,10 +2491,10 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>46072.875</v>
+        <v>46073.875</v>
       </c>
       <c r="B92" t="n">
-        <v>105</v>
+        <v>134.20201</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         </is>
       </c>
       <c r="D92" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -2512,10 +2512,10 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>46072.89583333334</v>
+        <v>46073.89583333334</v>
       </c>
       <c r="B93" t="n">
-        <v>104.74819</v>
+        <v>108.89</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         </is>
       </c>
       <c r="D93" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2533,10 +2533,10 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>46072.91666666666</v>
+        <v>46073.91666666666</v>
       </c>
       <c r="B94" t="n">
-        <v>92.70107</v>
+        <v>108.00648</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         </is>
       </c>
       <c r="D94" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -2554,10 +2554,10 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>46072.9375</v>
+        <v>46073.9375</v>
       </c>
       <c r="B95" t="n">
-        <v>92.65982</v>
+        <v>91.68204</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D95" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2575,10 +2575,10 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>46072.95833333334</v>
+        <v>46073.95833333334</v>
       </c>
       <c r="B96" t="n">
-        <v>78</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         </is>
       </c>
       <c r="D96" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -2596,10 +2596,10 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>46072.97916666666</v>
+        <v>46073.97916666666</v>
       </c>
       <c r="B97" t="n">
-        <v>85.65000000000001</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         </is>
       </c>
       <c r="D97" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -518,39 +518,39 @@
         <v>46072.91666666666</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>46073.14583333334</v>
+        <v>46073.1875</v>
       </c>
       <c r="C4" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="D4" t="n">
-        <v>20.79</v>
+        <v>24.57</v>
       </c>
       <c r="E4" t="n">
-        <v>985.7853329999999</v>
+        <v>1055.546232</v>
       </c>
       <c r="F4" t="n">
-        <v>47.41632193362193</v>
+        <v>42.9607746031746</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46073.3125</v>
+        <v>46073.35416666666</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>46073.66666666666</v>
       </c>
       <c r="C5" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="D5" t="n">
-        <v>32.13</v>
+        <v>28.35</v>
       </c>
       <c r="E5" t="n">
-        <v>735.5292165</v>
+        <v>647.7046485</v>
       </c>
       <c r="F5" t="n">
-        <v>22.8922880952381</v>
+        <v>22.84672481481482</v>
       </c>
     </row>
   </sheetData>
@@ -1360,7 +1360,7 @@
         <v>46072.75</v>
       </c>
       <c r="B38" t="n">
-        <v>60.65947</v>
+        <v>63.5383</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>46072.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>88.67211</v>
+        <v>135.50007</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1402,11 +1402,11 @@
         <v>46072.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>154.00536</v>
+        <v>152.2771</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D40" s="3" t="n">
@@ -1423,11 +1423,11 @@
         <v>46072.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>141.56265</v>
+        <v>163.40706</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D41" s="3" t="n">
@@ -1444,11 +1444,11 @@
         <v>46072.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>151.10197</v>
+        <v>175.81475</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D42" s="3" t="n">
@@ -1465,11 +1465,11 @@
         <v>46072.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>147.51</v>
+        <v>137.45336</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D43" s="3" t="n">
@@ -1486,11 +1486,11 @@
         <v>46072.875</v>
       </c>
       <c r="B44" t="n">
-        <v>110.65344</v>
+        <v>105.79</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D44" s="3" t="n">
@@ -1507,11 +1507,11 @@
         <v>46072.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>108.01</v>
+        <v>92.90457000000001</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D45" s="3" t="n">
@@ -1528,11 +1528,11 @@
         <v>46072.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>92.83602</v>
+        <v>94.81484</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D46" s="3" t="n">
@@ -1549,11 +1549,11 @@
         <v>46072.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>105.79</v>
+        <v>103.80585</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D47" s="3" t="n">
@@ -1570,11 +1570,11 @@
         <v>46072.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>89.63834</v>
+        <v>86.89385</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D48" s="3" t="n">
@@ -1591,11 +1591,11 @@
         <v>46072.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>104.0458</v>
+        <v>86.50848000000001</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D49" s="3" t="n">
@@ -1612,7 +1612,7 @@
         <v>46073</v>
       </c>
       <c r="B50" t="n">
-        <v>85.0064</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>46073.02083333334</v>
       </c>
       <c r="B51" t="n">
-        <v>89.58095</v>
+        <v>88.21511</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>46073.04166666666</v>
       </c>
       <c r="B52" t="n">
-        <v>88.59341999999999</v>
+        <v>80.43079</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>46073.0625</v>
       </c>
       <c r="B53" t="n">
-        <v>89.97313</v>
+        <v>78</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         <v>46073.08333333334</v>
       </c>
       <c r="B54" t="n">
-        <v>88.34782</v>
+        <v>75.0665</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>46073.10416666666</v>
       </c>
       <c r="B55" t="n">
-        <v>89.56339</v>
+        <v>73.20010000000001</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
         <v>46073.125</v>
       </c>
       <c r="B56" t="n">
-        <v>87.68661</v>
+        <v>76.64899</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1759,7 +1759,7 @@
         <v>46073.14583333334</v>
       </c>
       <c r="B57" t="n">
-        <v>84.79000000000001</v>
+        <v>76.23701</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1780,7 +1780,7 @@
         <v>46073.16666666666</v>
       </c>
       <c r="B58" t="n">
-        <v>87.86566000000001</v>
+        <v>78</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1801,7 +1801,7 @@
         <v>46073.1875</v>
       </c>
       <c r="B59" t="n">
-        <v>85.36185999999999</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>46073.20833333334</v>
       </c>
       <c r="B60" t="n">
-        <v>84.79000000000001</v>
+        <v>92.01094999999999</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>46073.22916666666</v>
       </c>
       <c r="B61" t="n">
-        <v>105.79</v>
+        <v>110.14174</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>46073.25</v>
       </c>
       <c r="B62" t="n">
-        <v>119.30368</v>
+        <v>120.67129</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>46073.27083333334</v>
       </c>
       <c r="B63" t="n">
-        <v>142.36</v>
+        <v>154.2</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>46073.29166666666</v>
       </c>
       <c r="B64" t="n">
-        <v>115.12072</v>
+        <v>147.73579</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         <v>46073.3125</v>
       </c>
       <c r="B65" t="n">
-        <v>74.56739</v>
+        <v>105</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1948,7 +1948,7 @@
         <v>46073.33333333334</v>
       </c>
       <c r="B66" t="n">
-        <v>67.34251999999999</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1960,7 +1960,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1969,7 +1969,7 @@
         <v>46073.35416666666</v>
       </c>
       <c r="B67" t="n">
-        <v>56.98</v>
+        <v>69.80952000000001</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>46073.375</v>
       </c>
       <c r="B68" t="n">
-        <v>42.69144</v>
+        <v>53.44321</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
         <v>46073.39583333334</v>
       </c>
       <c r="B69" t="n">
-        <v>42.5745</v>
+        <v>51.45703</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>46073.41666666666</v>
       </c>
       <c r="B70" t="n">
-        <v>36.06</v>
+        <v>36.07</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>46073.58333333334</v>
       </c>
       <c r="B78" t="n">
-        <v>36.06</v>
+        <v>36.07</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>46073.60416666666</v>
       </c>
       <c r="B79" t="n">
-        <v>37.3666</v>
+        <v>56.98</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>46073.625</v>
       </c>
       <c r="B80" t="n">
-        <v>53.58127</v>
+        <v>54.39344</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>46073.64583333334</v>
       </c>
       <c r="B81" t="n">
-        <v>54.74522</v>
+        <v>53.66926</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>46073.66666666666</v>
       </c>
       <c r="B82" t="n">
-        <v>52.20696</v>
+        <v>57.06</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>46073.6875</v>
       </c>
       <c r="B83" t="n">
-        <v>36.9688</v>
+        <v>58.40413</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>46073.70833333334</v>
       </c>
       <c r="B84" t="n">
-        <v>57.31</v>
+        <v>79.95</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         <v>46073.72916666666</v>
       </c>
       <c r="B85" t="n">
-        <v>61.85713</v>
+        <v>79.95</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>46073.75</v>
       </c>
       <c r="B86" t="n">
-        <v>79.95009</v>
+        <v>91.14861999999999</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         <v>46073.77083333334</v>
       </c>
       <c r="B87" t="n">
-        <v>117.94485</v>
+        <v>153.80955</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>46073.79166666666</v>
       </c>
       <c r="B88" t="n">
-        <v>147.51</v>
+        <v>203.35678</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>46073.8125</v>
       </c>
       <c r="B89" t="n">
-        <v>154.2</v>
+        <v>299.75</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>46073.83333333334</v>
       </c>
       <c r="B90" t="n">
-        <v>147.51</v>
+        <v>224.6582</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>46073.85416666666</v>
       </c>
       <c r="B91" t="n">
-        <v>154.2</v>
+        <v>174.75371</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>46073.875</v>
       </c>
       <c r="B92" t="n">
-        <v>134.20201</v>
+        <v>169.78203</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>46073.89583333334</v>
       </c>
       <c r="B93" t="n">
-        <v>108.89</v>
+        <v>135.92044</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>46073.91666666666</v>
       </c>
       <c r="B94" t="n">
-        <v>108.00648</v>
+        <v>108.89</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2557,7 +2557,7 @@
         <v>46073.9375</v>
       </c>
       <c r="B95" t="n">
-        <v>91.68204</v>
+        <v>105.79</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>46073.95833333334</v>
       </c>
       <c r="B96" t="n">
-        <v>84.79000000000001</v>
+        <v>105.79</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>46073.97916666666</v>
       </c>
       <c r="B97" t="n">
-        <v>84.79000000000001</v>
+        <v>105.79</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -475,82 +475,82 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>46072.22916666666</v>
+        <v>46073.20833333334</v>
       </c>
       <c r="C2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>20.79</v>
+        <v>18.9</v>
       </c>
       <c r="E2" t="n">
-        <v>896.6872589999999</v>
+        <v>806.2277437499999</v>
       </c>
       <c r="F2" t="n">
-        <v>43.13070028860029</v>
+        <v>42.65755257936508</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46072.3125</v>
+        <v>46073.33333333334</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>46072.66666666666</v>
+        <v>46073.66666666666</v>
       </c>
       <c r="C3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>32.13</v>
+        <v>30.24</v>
       </c>
       <c r="E3" t="n">
-        <v>712.30453125</v>
+        <v>724.3832895000002</v>
       </c>
       <c r="F3" t="n">
-        <v>22.16945319794585</v>
+        <v>23.95447385912699</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46072.91666666666</v>
+        <v>46073.875</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>46073.1875</v>
+        <v>46074.04166666666</v>
       </c>
       <c r="C4" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>24.57</v>
+        <v>15.12</v>
       </c>
       <c r="E4" t="n">
-        <v>1055.546232</v>
+        <v>784.93557675</v>
       </c>
       <c r="F4" t="n">
-        <v>42.9607746031746</v>
+        <v>51.91372862103175</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46073.35416666666</v>
+        <v>46074.29166666666</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>46073.66666666666</v>
+        <v>46074.75</v>
       </c>
       <c r="C5" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>28.35</v>
+        <v>41.58</v>
       </c>
       <c r="E5" t="n">
-        <v>647.7046485</v>
+        <v>391.7288017499999</v>
       </c>
       <c r="F5" t="n">
-        <v>22.84672481481482</v>
+        <v>9.421087103174601</v>
       </c>
     </row>
   </sheetData>
@@ -601,10 +601,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="B2" t="n">
-        <v>85.50449</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="D2" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -622,10 +622,10 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46072.02083333334</v>
+        <v>46073.02083333334</v>
       </c>
       <c r="B3" t="n">
-        <v>87.06509</v>
+        <v>89.06780999999999</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -643,10 +643,10 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46072.04166666666</v>
+        <v>46073.04166666666</v>
       </c>
       <c r="B4" t="n">
-        <v>89.34726999999999</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -654,7 +654,7 @@
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -664,10 +664,10 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46072.0625</v>
+        <v>46073.0625</v>
       </c>
       <c r="B5" t="n">
-        <v>80.44962</v>
+        <v>78</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -685,10 +685,10 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>46072.08333333334</v>
+        <v>46073.08333333334</v>
       </c>
       <c r="B6" t="n">
-        <v>84.52333</v>
+        <v>83.25254</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -706,10 +706,10 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>46072.10416666666</v>
+        <v>46073.10416666666</v>
       </c>
       <c r="B7" t="n">
-        <v>79.95</v>
+        <v>85.65000000000001</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -727,10 +727,10 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>46072.125</v>
+        <v>46073.125</v>
       </c>
       <c r="B8" t="n">
-        <v>79.95</v>
+        <v>78</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -738,7 +738,7 @@
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -748,10 +748,10 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>46072.14583333334</v>
+        <v>46073.14583333334</v>
       </c>
       <c r="B9" t="n">
-        <v>79.95</v>
+        <v>79.6999</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -769,10 +769,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>46072.16666666666</v>
+        <v>46073.16666666666</v>
       </c>
       <c r="B10" t="n">
-        <v>79.95</v>
+        <v>78</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -790,10 +790,10 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>46072.1875</v>
+        <v>46073.1875</v>
       </c>
       <c r="B11" t="n">
-        <v>82.45023999999999</v>
+        <v>85.65000000000001</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -811,10 +811,10 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>46072.20833333334</v>
+        <v>46073.20833333334</v>
       </c>
       <c r="B12" t="n">
-        <v>90.53919999999999</v>
+        <v>91.44624</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -822,20 +822,20 @@
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>46072.22916666666</v>
+        <v>46073.22916666666</v>
       </c>
       <c r="B13" t="n">
-        <v>100.01</v>
+        <v>110.13518</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -853,10 +853,10 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>46072.25</v>
+        <v>46073.25</v>
       </c>
       <c r="B14" t="n">
-        <v>105.79</v>
+        <v>120.66799</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -874,10 +874,10 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>46072.27083333334</v>
+        <v>46073.27083333334</v>
       </c>
       <c r="B15" t="n">
-        <v>108.89</v>
+        <v>138.42</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -895,10 +895,10 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>46072.29166666666</v>
+        <v>46073.29166666666</v>
       </c>
       <c r="B16" t="n">
-        <v>99.73763</v>
+        <v>119.39764</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -906,7 +906,7 @@
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -916,10 +916,10 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>46072.3125</v>
+        <v>46073.3125</v>
       </c>
       <c r="B17" t="n">
-        <v>57.06</v>
+        <v>105</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -927,20 +927,20 @@
         </is>
       </c>
       <c r="D17" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>46072.33333333334</v>
+        <v>46073.33333333334</v>
       </c>
       <c r="B18" t="n">
-        <v>57.06</v>
+        <v>79.95</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         </is>
       </c>
       <c r="D18" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -958,10 +958,10 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>46072.35416666666</v>
+        <v>46073.35416666666</v>
       </c>
       <c r="B19" t="n">
-        <v>51.29697</v>
+        <v>69.5744</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         </is>
       </c>
       <c r="D19" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -979,10 +979,10 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>46072.375</v>
+        <v>46073.375</v>
       </c>
       <c r="B20" t="n">
-        <v>36.06</v>
+        <v>53.43962</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
         </is>
       </c>
       <c r="D20" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1000,10 +1000,10 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>46072.39583333334</v>
+        <v>46073.39583333334</v>
       </c>
       <c r="B21" t="n">
-        <v>36.06</v>
+        <v>51.45378</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D21" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1021,10 +1021,10 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>46072.41666666666</v>
+        <v>46073.41666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>36.06</v>
+        <v>36.63752</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="D22" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>46072.4375</v>
+        <v>46073.4375</v>
       </c>
       <c r="B23" t="n">
         <v>36.06</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D23" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>46072.45833333334</v>
+        <v>46073.45833333334</v>
       </c>
       <c r="B24" t="n">
         <v>36.06</v>
@@ -1074,7 +1074,7 @@
         </is>
       </c>
       <c r="D24" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>46072.47916666666</v>
+        <v>46073.47916666666</v>
       </c>
       <c r="B25" t="n">
         <v>36.06</v>
@@ -1095,7 +1095,7 @@
         </is>
       </c>
       <c r="D25" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>46072.5</v>
+        <v>46073.5</v>
       </c>
       <c r="B26" t="n">
         <v>36.06</v>
@@ -1116,7 +1116,7 @@
         </is>
       </c>
       <c r="D26" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1126,7 +1126,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>46072.52083333334</v>
+        <v>46073.52083333334</v>
       </c>
       <c r="B27" t="n">
         <v>36.06</v>
@@ -1137,7 +1137,7 @@
         </is>
       </c>
       <c r="D27" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1147,10 +1147,10 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>46072.54166666666</v>
+        <v>46073.54166666666</v>
       </c>
       <c r="B28" t="n">
-        <v>36.07</v>
+        <v>36.06</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         </is>
       </c>
       <c r="D28" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1168,10 +1168,10 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>46072.5625</v>
+        <v>46073.5625</v>
       </c>
       <c r="B29" t="n">
-        <v>54.35171</v>
+        <v>36.06</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
         </is>
       </c>
       <c r="D29" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1189,10 +1189,10 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>46072.58333333334</v>
+        <v>46073.58333333334</v>
       </c>
       <c r="B30" t="n">
-        <v>36.07</v>
+        <v>36.06</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         </is>
       </c>
       <c r="D30" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1210,10 +1210,10 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>46072.60416666666</v>
+        <v>46073.60416666666</v>
       </c>
       <c r="B31" t="n">
-        <v>36.06</v>
+        <v>52.2928</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="D31" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1231,10 +1231,10 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>46072.625</v>
+        <v>46073.625</v>
       </c>
       <c r="B32" t="n">
-        <v>57.06</v>
+        <v>54.72705</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="D32" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1252,10 +1252,10 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>46072.64583333334</v>
+        <v>46073.64583333334</v>
       </c>
       <c r="B33" t="n">
-        <v>57.06007</v>
+        <v>56.40205</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         </is>
       </c>
       <c r="D33" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>46072.66666666666</v>
+        <v>46073.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>64.90155</v>
+        <v>57.06</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         </is>
       </c>
       <c r="D34" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1294,10 +1294,10 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>46072.6875</v>
+        <v>46073.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>60.00102</v>
+        <v>58.45106</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         </is>
       </c>
       <c r="D35" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1315,10 +1315,10 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>46072.70833333334</v>
+        <v>46073.70833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>64.14396000000001</v>
+        <v>76.44814</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
         </is>
       </c>
       <c r="D36" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1336,10 +1336,10 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>46072.72916666666</v>
+        <v>46073.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>64.01336999999999</v>
+        <v>79.95</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         </is>
       </c>
       <c r="D37" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1357,10 +1357,10 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>46072.75</v>
+        <v>46073.75</v>
       </c>
       <c r="B38" t="n">
-        <v>63.5383</v>
+        <v>78.27357000000001</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         </is>
       </c>
       <c r="D38" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1378,10 +1378,10 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>46072.77083333334</v>
+        <v>46073.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>135.50007</v>
+        <v>105.91225</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         </is>
       </c>
       <c r="D39" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1399,18 +1399,18 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>46072.79166666666</v>
+        <v>46073.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>152.2771</v>
+        <v>116.77754</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D40" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1420,18 +1420,18 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>46072.8125</v>
+        <v>46073.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>163.40706</v>
+        <v>116.49963</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D41" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1441,18 +1441,18 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>46072.83333333334</v>
+        <v>46073.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>175.81475</v>
+        <v>147.51</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D42" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1462,18 +1462,18 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>46072.85416666666</v>
+        <v>46073.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>137.45336</v>
+        <v>133.09303</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D43" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1483,60 +1483,60 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>46072.875</v>
+        <v>46073.875</v>
       </c>
       <c r="B44" t="n">
-        <v>105.79</v>
+        <v>108.89</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D44" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>46072.89583333334</v>
+        <v>46073.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>92.90457000000001</v>
+        <v>108.01</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D45" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>46072.91666666666</v>
+        <v>46073.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>94.81484</v>
+        <v>105.79</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D46" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1546,18 +1546,18 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>46072.9375</v>
+        <v>46073.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>103.80585</v>
+        <v>94.05615</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D47" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1567,18 +1567,18 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>46072.95833333334</v>
+        <v>46073.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>86.89385</v>
+        <v>91.71635999999999</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D48" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1588,18 +1588,18 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>46072.97916666666</v>
+        <v>46073.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>86.50848000000001</v>
+        <v>99.15864000000001</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D49" s="3" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1609,10 +1609,10 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="B50" t="n">
-        <v>84.79000000000001</v>
+        <v>104.54148</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
         </is>
       </c>
       <c r="D50" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>46073.02083333334</v>
+        <v>46074.02083333334</v>
       </c>
       <c r="B51" t="n">
-        <v>88.21511</v>
+        <v>92.8995</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         </is>
       </c>
       <c r="D51" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1651,10 +1651,10 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>46073.04166666666</v>
+        <v>46074.04166666666</v>
       </c>
       <c r="B52" t="n">
-        <v>80.43079</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1662,20 +1662,20 @@
         </is>
       </c>
       <c r="D52" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>46073.0625</v>
+        <v>46074.0625</v>
       </c>
       <c r="B53" t="n">
-        <v>78</v>
+        <v>88.63481</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1683,20 +1683,20 @@
         </is>
       </c>
       <c r="D53" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>46073.08333333334</v>
+        <v>46074.08333333334</v>
       </c>
       <c r="B54" t="n">
-        <v>75.0665</v>
+        <v>98.94916000000001</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1704,20 +1704,20 @@
         </is>
       </c>
       <c r="D54" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>46073.10416666666</v>
+        <v>46074.10416666666</v>
       </c>
       <c r="B55" t="n">
-        <v>73.20010000000001</v>
+        <v>95.56204</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1725,20 +1725,20 @@
         </is>
       </c>
       <c r="D55" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>46073.125</v>
+        <v>46074.125</v>
       </c>
       <c r="B56" t="n">
-        <v>76.64899</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1746,20 +1746,20 @@
         </is>
       </c>
       <c r="D56" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>46073.14583333334</v>
+        <v>46074.14583333334</v>
       </c>
       <c r="B57" t="n">
-        <v>76.23701</v>
+        <v>88.63522</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1767,20 +1767,20 @@
         </is>
       </c>
       <c r="D57" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>46073.16666666666</v>
+        <v>46074.16666666666</v>
       </c>
       <c r="B58" t="n">
-        <v>78</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1788,17 +1788,17 @@
         </is>
       </c>
       <c r="D58" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>46073.1875</v>
+        <v>46074.1875</v>
       </c>
       <c r="B59" t="n">
         <v>84.79000000000001</v>
@@ -1809,7 +1809,7 @@
         </is>
       </c>
       <c r="D59" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1819,10 +1819,10 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>46073.20833333334</v>
+        <v>46074.20833333334</v>
       </c>
       <c r="B60" t="n">
-        <v>92.01094999999999</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         </is>
       </c>
       <c r="D60" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -1840,10 +1840,10 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>46073.22916666666</v>
+        <v>46074.22916666666</v>
       </c>
       <c r="B61" t="n">
-        <v>110.14174</v>
+        <v>94.40602</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         </is>
       </c>
       <c r="D61" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -1861,10 +1861,10 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>46073.25</v>
+        <v>46074.25</v>
       </c>
       <c r="B62" t="n">
-        <v>120.67129</v>
+        <v>97.821</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="D62" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1882,10 +1882,10 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>46073.27083333334</v>
+        <v>46074.27083333334</v>
       </c>
       <c r="B63" t="n">
-        <v>154.2</v>
+        <v>91.90158</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         </is>
       </c>
       <c r="D63" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -1903,10 +1903,10 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>46073.29166666666</v>
+        <v>46074.29166666666</v>
       </c>
       <c r="B64" t="n">
-        <v>147.73579</v>
+        <v>57.96518</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1914,20 +1914,20 @@
         </is>
       </c>
       <c r="D64" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>46073.3125</v>
+        <v>46074.3125</v>
       </c>
       <c r="B65" t="n">
-        <v>105</v>
+        <v>8.74869</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1935,20 +1935,20 @@
         </is>
       </c>
       <c r="D65" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>46073.33333333334</v>
+        <v>46074.33333333334</v>
       </c>
       <c r="B66" t="n">
-        <v>84.79000000000001</v>
+        <v>1.20919</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1956,20 +1956,20 @@
         </is>
       </c>
       <c r="D66" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>46073.35416666666</v>
+        <v>46074.35416666666</v>
       </c>
       <c r="B67" t="n">
-        <v>69.80952000000001</v>
+        <v>0.7</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
         </is>
       </c>
       <c r="D67" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -1987,10 +1987,10 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>46073.375</v>
+        <v>46074.375</v>
       </c>
       <c r="B68" t="n">
-        <v>53.44321</v>
+        <v>0.51</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         </is>
       </c>
       <c r="D68" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2008,10 +2008,10 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>46073.39583333334</v>
+        <v>46074.39583333334</v>
       </c>
       <c r="B69" t="n">
-        <v>51.45703</v>
+        <v>0.0003</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2019,7 +2019,7 @@
         </is>
       </c>
       <c r="D69" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2029,10 +2029,10 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>46073.41666666666</v>
+        <v>46074.41666666666</v>
       </c>
       <c r="B70" t="n">
-        <v>36.07</v>
+        <v>-3.11157</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         </is>
       </c>
       <c r="D70" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2050,10 +2050,10 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>46073.4375</v>
+        <v>46074.4375</v>
       </c>
       <c r="B71" t="n">
-        <v>36.06</v>
+        <v>0.36344</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D71" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2071,10 +2071,10 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>46073.45833333334</v>
+        <v>46074.45833333334</v>
       </c>
       <c r="B72" t="n">
-        <v>36.06</v>
+        <v>0.36344</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="D72" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2092,10 +2092,10 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>46073.47916666666</v>
+        <v>46074.47916666666</v>
       </c>
       <c r="B73" t="n">
-        <v>36.06</v>
+        <v>0.51</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
         </is>
       </c>
       <c r="D73" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2113,10 +2113,10 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>46073.5</v>
+        <v>46074.5</v>
       </c>
       <c r="B74" t="n">
-        <v>36.06</v>
+        <v>0.51</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="D74" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2134,10 +2134,10 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>46073.52083333334</v>
+        <v>46074.52083333334</v>
       </c>
       <c r="B75" t="n">
-        <v>36.06</v>
+        <v>0.51</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         </is>
       </c>
       <c r="D75" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2155,10 +2155,10 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>46073.54166666666</v>
+        <v>46074.54166666666</v>
       </c>
       <c r="B76" t="n">
-        <v>36.06</v>
+        <v>0.51</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2166,7 +2166,7 @@
         </is>
       </c>
       <c r="D76" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2176,10 +2176,10 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>46073.5625</v>
+        <v>46074.5625</v>
       </c>
       <c r="B77" t="n">
-        <v>36.06</v>
+        <v>0.51</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         </is>
       </c>
       <c r="D77" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2197,10 +2197,10 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>46073.58333333334</v>
+        <v>46074.58333333334</v>
       </c>
       <c r="B78" t="n">
-        <v>36.07</v>
+        <v>35.88</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         </is>
       </c>
       <c r="D78" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2218,10 +2218,10 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>46073.60416666666</v>
+        <v>46074.60416666666</v>
       </c>
       <c r="B79" t="n">
-        <v>56.98</v>
+        <v>35.88</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2229,7 +2229,7 @@
         </is>
       </c>
       <c r="D79" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2239,10 +2239,10 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>46073.625</v>
+        <v>46074.625</v>
       </c>
       <c r="B80" t="n">
-        <v>54.39344</v>
+        <v>35.88039</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2250,7 +2250,7 @@
         </is>
       </c>
       <c r="D80" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2260,10 +2260,10 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>46073.64583333334</v>
+        <v>46074.64583333334</v>
       </c>
       <c r="B81" t="n">
-        <v>53.66926</v>
+        <v>37.89</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="D81" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2281,10 +2281,10 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>46073.66666666666</v>
+        <v>46074.66666666666</v>
       </c>
       <c r="B82" t="n">
-        <v>57.06</v>
+        <v>37.89</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2292,20 +2292,20 @@
         </is>
       </c>
       <c r="D82" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>46073.6875</v>
+        <v>46074.6875</v>
       </c>
       <c r="B83" t="n">
-        <v>58.40413</v>
+        <v>37.89</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2313,20 +2313,20 @@
         </is>
       </c>
       <c r="D83" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>46073.70833333334</v>
+        <v>46074.70833333334</v>
       </c>
       <c r="B84" t="n">
-        <v>79.95</v>
+        <v>51.97348</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2334,20 +2334,20 @@
         </is>
       </c>
       <c r="D84" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>46073.72916666666</v>
+        <v>46074.72916666666</v>
       </c>
       <c r="B85" t="n">
-        <v>79.95</v>
+        <v>59.19059</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2355,20 +2355,20 @@
         </is>
       </c>
       <c r="D85" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>46073.75</v>
+        <v>46074.75</v>
       </c>
       <c r="B86" t="n">
-        <v>91.14861999999999</v>
+        <v>94.25928</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         </is>
       </c>
       <c r="D86" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2386,10 +2386,10 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>46073.77083333334</v>
+        <v>46074.77083333334</v>
       </c>
       <c r="B87" t="n">
-        <v>153.80955</v>
+        <v>108.01</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         </is>
       </c>
       <c r="D87" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2407,10 +2407,10 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>46073.79166666666</v>
+        <v>46074.79166666666</v>
       </c>
       <c r="B88" t="n">
-        <v>203.35678</v>
+        <v>130.7718</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         </is>
       </c>
       <c r="D88" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2428,10 +2428,10 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>46073.8125</v>
+        <v>46074.8125</v>
       </c>
       <c r="B89" t="n">
-        <v>299.75</v>
+        <v>120.54874</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         </is>
       </c>
       <c r="D89" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2449,10 +2449,10 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>46073.83333333334</v>
+        <v>46074.83333333334</v>
       </c>
       <c r="B90" t="n">
-        <v>224.6582</v>
+        <v>108.01</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         </is>
       </c>
       <c r="D90" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2470,10 +2470,10 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>46073.85416666666</v>
+        <v>46074.85416666666</v>
       </c>
       <c r="B91" t="n">
-        <v>174.75371</v>
+        <v>108.01</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         </is>
       </c>
       <c r="D91" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -2491,10 +2491,10 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>46073.875</v>
+        <v>46074.875</v>
       </c>
       <c r="B92" t="n">
-        <v>169.78203</v>
+        <v>99.1056</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         </is>
       </c>
       <c r="D92" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -2512,10 +2512,10 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>46073.89583333334</v>
+        <v>46074.89583333334</v>
       </c>
       <c r="B93" t="n">
-        <v>135.92044</v>
+        <v>89.78837</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         </is>
       </c>
       <c r="D93" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2533,10 +2533,10 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>46073.91666666666</v>
+        <v>46074.91666666666</v>
       </c>
       <c r="B94" t="n">
-        <v>108.89</v>
+        <v>78</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         </is>
       </c>
       <c r="D94" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -2554,10 +2554,10 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>46073.9375</v>
+        <v>46074.9375</v>
       </c>
       <c r="B95" t="n">
-        <v>105.79</v>
+        <v>79.95</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D95" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2575,10 +2575,10 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>46073.95833333334</v>
+        <v>46074.95833333334</v>
       </c>
       <c r="B96" t="n">
-        <v>105.79</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         </is>
       </c>
       <c r="D96" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -2596,10 +2596,10 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>46073.97916666666</v>
+        <v>46074.97916666666</v>
       </c>
       <c r="B97" t="n">
-        <v>105.79</v>
+        <v>83.18697</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         </is>
       </c>
       <c r="D97" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,82 +475,62 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46073</v>
+        <v>46074.02083333334</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>46073.22916666666</v>
+        <v>46074.20833333334</v>
       </c>
       <c r="C2" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="D2" t="n">
-        <v>20.79</v>
+        <v>17.01</v>
       </c>
       <c r="E2" t="n">
-        <v>895.3878277499999</v>
+        <v>713.2278952500001</v>
       </c>
       <c r="F2" t="n">
-        <v>43.06819758297258</v>
+        <v>41.92991741622576</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46073.3125</v>
+        <v>46074.29166666666</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>46073.66666666666</v>
+        <v>46074.77083333334</v>
       </c>
       <c r="C3" t="n">
-        <v>8.5</v>
+        <v>11.5</v>
       </c>
       <c r="D3" t="n">
-        <v>32.13</v>
+        <v>43.47</v>
       </c>
       <c r="E3" t="n">
-        <v>826.7582895000002</v>
+        <v>490.2942134999999</v>
       </c>
       <c r="F3" t="n">
-        <v>25.73166167133521</v>
+        <v>11.27890990338164</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46073.91666666666</v>
+        <v>46075.22916666666</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>46074.08333333334</v>
+        <v>46075.72916666666</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>15.12</v>
+        <v>45.36</v>
       </c>
       <c r="E4" t="n">
-        <v>680.28356175</v>
+        <v>1152.201492</v>
       </c>
       <c r="F4" t="n">
-        <v>44.99229905753968</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>46074.3125</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>46074.72916666666</v>
-      </c>
-      <c r="C5" t="n">
-        <v>10</v>
-      </c>
-      <c r="D5" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="E5" t="n">
-        <v>262.600767</v>
-      </c>
-      <c r="F5" t="n">
-        <v>6.947110238095239</v>
+        <v>25.40126746031746</v>
       </c>
     </row>
   </sheetData>
@@ -601,10 +581,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="B2" t="n">
-        <v>84.79000000000001</v>
+        <v>97.1383</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -612,20 +592,20 @@
         </is>
       </c>
       <c r="D2" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46073.02083333334</v>
+        <v>46074.02083333334</v>
       </c>
       <c r="B3" t="n">
-        <v>89.06780999999999</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -633,7 +613,7 @@
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -643,10 +623,10 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46073.04166666666</v>
+        <v>46074.04166666666</v>
       </c>
       <c r="B4" t="n">
-        <v>84.79000000000001</v>
+        <v>82.07989000000001</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -654,7 +634,7 @@
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -664,10 +644,10 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46073.0625</v>
+        <v>46074.0625</v>
       </c>
       <c r="B5" t="n">
-        <v>78</v>
+        <v>79.95</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -675,7 +655,7 @@
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -685,10 +665,10 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>46073.08333333334</v>
+        <v>46074.08333333334</v>
       </c>
       <c r="B6" t="n">
-        <v>83.25254</v>
+        <v>79.95</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -696,7 +676,7 @@
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -706,10 +686,10 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>46073.10416666666</v>
+        <v>46074.10416666666</v>
       </c>
       <c r="B7" t="n">
-        <v>85.65000000000001</v>
+        <v>79.95</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -717,7 +697,7 @@
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -727,10 +707,10 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>46073.125</v>
+        <v>46074.125</v>
       </c>
       <c r="B8" t="n">
-        <v>78</v>
+        <v>79.729</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -738,7 +718,7 @@
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -748,10 +728,10 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>46073.14583333334</v>
+        <v>46074.14583333334</v>
       </c>
       <c r="B9" t="n">
-        <v>79.6999</v>
+        <v>79.95</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -759,7 +739,7 @@
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -769,10 +749,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>46073.16666666666</v>
+        <v>46074.16666666666</v>
       </c>
       <c r="B10" t="n">
-        <v>78</v>
+        <v>80.32689999999999</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -780,7 +760,7 @@
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -790,10 +770,10 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>46073.1875</v>
+        <v>46074.1875</v>
       </c>
       <c r="B11" t="n">
-        <v>85.65000000000001</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -801,7 +781,7 @@
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -811,10 +791,10 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>46073.20833333334</v>
+        <v>46074.20833333334</v>
       </c>
       <c r="B12" t="n">
-        <v>91.44624</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -822,20 +802,20 @@
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>46073.22916666666</v>
+        <v>46074.22916666666</v>
       </c>
       <c r="B13" t="n">
-        <v>110.13518</v>
+        <v>96.91313</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -843,7 +823,7 @@
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -853,10 +833,10 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>46073.25</v>
+        <v>46074.25</v>
       </c>
       <c r="B14" t="n">
-        <v>120.66799</v>
+        <v>98.98903</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -864,7 +844,7 @@
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -874,10 +854,10 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>46073.27083333334</v>
+        <v>46074.27083333334</v>
       </c>
       <c r="B15" t="n">
-        <v>138.42</v>
+        <v>99.02897</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -885,7 +865,7 @@
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -895,10 +875,10 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>46073.29166666666</v>
+        <v>46074.29166666666</v>
       </c>
       <c r="B16" t="n">
-        <v>119.39764</v>
+        <v>73.2</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -906,20 +886,20 @@
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>46073.3125</v>
+        <v>46074.3125</v>
       </c>
       <c r="B17" t="n">
-        <v>105</v>
+        <v>12.48561</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -927,7 +907,7 @@
         </is>
       </c>
       <c r="D17" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -937,10 +917,10 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>46073.33333333334</v>
+        <v>46074.33333333334</v>
       </c>
       <c r="B18" t="n">
-        <v>79.95</v>
+        <v>1.62799</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -948,7 +928,7 @@
         </is>
       </c>
       <c r="D18" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -958,10 +938,10 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>46073.35416666666</v>
+        <v>46074.35416666666</v>
       </c>
       <c r="B19" t="n">
-        <v>69.5744</v>
+        <v>0.80338</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -969,7 +949,7 @@
         </is>
       </c>
       <c r="D19" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -979,10 +959,10 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>46073.375</v>
+        <v>46074.375</v>
       </c>
       <c r="B20" t="n">
-        <v>53.43962</v>
+        <v>0.51</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -990,7 +970,7 @@
         </is>
       </c>
       <c r="D20" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1000,10 +980,10 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>46073.39583333334</v>
+        <v>46074.39583333334</v>
       </c>
       <c r="B21" t="n">
-        <v>51.45378</v>
+        <v>0.51</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1011,7 +991,7 @@
         </is>
       </c>
       <c r="D21" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1021,10 +1001,10 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>46073.41666666666</v>
+        <v>46074.41666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>36.63752</v>
+        <v>0.51</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1032,7 +1012,7 @@
         </is>
       </c>
       <c r="D22" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1042,10 +1022,10 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>46073.4375</v>
+        <v>46074.4375</v>
       </c>
       <c r="B23" t="n">
-        <v>36.06</v>
+        <v>-0.10684</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1053,7 +1033,7 @@
         </is>
       </c>
       <c r="D23" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1063,10 +1043,10 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>46073.45833333334</v>
+        <v>46074.45833333334</v>
       </c>
       <c r="B24" t="n">
-        <v>36.06</v>
+        <v>0.01087</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1074,7 +1054,7 @@
         </is>
       </c>
       <c r="D24" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1084,10 +1064,10 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>46073.47916666666</v>
+        <v>46074.47916666666</v>
       </c>
       <c r="B25" t="n">
-        <v>36.06</v>
+        <v>0.51</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1095,7 +1075,7 @@
         </is>
       </c>
       <c r="D25" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1105,10 +1085,10 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>46073.5</v>
+        <v>46074.5</v>
       </c>
       <c r="B26" t="n">
-        <v>36.06</v>
+        <v>0.51</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1116,7 +1096,7 @@
         </is>
       </c>
       <c r="D26" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1126,10 +1106,10 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>46073.52083333334</v>
+        <v>46074.52083333334</v>
       </c>
       <c r="B27" t="n">
-        <v>36.06</v>
+        <v>0.51</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1137,7 +1117,7 @@
         </is>
       </c>
       <c r="D27" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1147,10 +1127,10 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>46073.54166666666</v>
+        <v>46074.54166666666</v>
       </c>
       <c r="B28" t="n">
-        <v>36.06</v>
+        <v>0.51</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1158,7 +1138,7 @@
         </is>
       </c>
       <c r="D28" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1168,10 +1148,10 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>46073.5625</v>
+        <v>46074.5625</v>
       </c>
       <c r="B29" t="n">
-        <v>36.06</v>
+        <v>0.51</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1179,7 +1159,7 @@
         </is>
       </c>
       <c r="D29" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1189,10 +1169,10 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>46073.58333333334</v>
+        <v>46074.58333333334</v>
       </c>
       <c r="B30" t="n">
-        <v>36.06</v>
+        <v>10.31271</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1200,7 +1180,7 @@
         </is>
       </c>
       <c r="D30" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1210,10 +1190,10 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>46073.60416666666</v>
+        <v>46074.60416666666</v>
       </c>
       <c r="B31" t="n">
-        <v>52.2928</v>
+        <v>35.88</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1221,7 +1201,7 @@
         </is>
       </c>
       <c r="D31" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1231,10 +1211,10 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>46073.625</v>
+        <v>46074.625</v>
       </c>
       <c r="B32" t="n">
-        <v>54.72705</v>
+        <v>35.88039</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1242,7 +1222,7 @@
         </is>
       </c>
       <c r="D32" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1252,10 +1232,10 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>46073.64583333334</v>
+        <v>46074.64583333334</v>
       </c>
       <c r="B33" t="n">
-        <v>56.40205</v>
+        <v>35.88</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1263,7 +1243,7 @@
         </is>
       </c>
       <c r="D33" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1273,10 +1253,10 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>46073.66666666666</v>
+        <v>46074.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>57.06</v>
+        <v>45.57629</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1284,20 +1264,20 @@
         </is>
       </c>
       <c r="D34" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>46073.6875</v>
+        <v>46074.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>58.45106</v>
+        <v>37.89</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1305,20 +1285,20 @@
         </is>
       </c>
       <c r="D35" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>46073.70833333334</v>
+        <v>46074.70833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>76.44814</v>
+        <v>54.41526</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1326,20 +1306,20 @@
         </is>
       </c>
       <c r="D36" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>46073.72916666666</v>
+        <v>46074.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>79.95</v>
+        <v>73.49200999999999</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1347,20 +1327,20 @@
         </is>
       </c>
       <c r="D37" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>46073.75</v>
+        <v>46074.75</v>
       </c>
       <c r="B38" t="n">
-        <v>91.68944999999999</v>
+        <v>81.43819000000001</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1368,28 +1348,28 @@
         </is>
       </c>
       <c r="D38" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>46073.77083333334</v>
+        <v>46074.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>154.2</v>
+        <v>102.68353</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D39" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1399,18 +1379,18 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>46073.79166666666</v>
+        <v>46074.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>182.50982</v>
+        <v>108.91887</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D40" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1420,18 +1400,18 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>46073.8125</v>
+        <v>46074.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>299.75</v>
+        <v>108.01</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D41" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1441,18 +1421,18 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>46073.83333333334</v>
+        <v>46074.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>252.98315</v>
+        <v>108.01</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D42" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1462,18 +1442,18 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>46073.85416666666</v>
+        <v>46074.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>279.9547</v>
+        <v>108.01</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D43" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1483,18 +1463,18 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>46073.875</v>
+        <v>46074.875</v>
       </c>
       <c r="B44" t="n">
-        <v>169.78702</v>
+        <v>101.1856</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D44" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1504,18 +1484,18 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>46073.89583333334</v>
+        <v>46074.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>136.96511</v>
+        <v>95.09075</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D45" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1525,73 +1505,73 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>46073.91666666666</v>
+        <v>46074.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>108.89</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D46" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>46073.9375</v>
+        <v>46074.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>87.14085</v>
+        <v>82.65846000000001</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D47" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>46073.95833333334</v>
+        <v>46074.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>78</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D48" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>46073.97916666666</v>
+        <v>46074.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>84.79000000000001</v>
+        <v>75.31887999999999</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1599,20 +1579,20 @@
         </is>
       </c>
       <c r="D49" s="3" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="B50" t="n">
-        <v>93.67686999999999</v>
+        <v>77.77522999999999</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1620,20 +1600,20 @@
         </is>
       </c>
       <c r="D50" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>46074.02083333334</v>
+        <v>46075.02083333334</v>
       </c>
       <c r="B51" t="n">
-        <v>84.79000000000001</v>
+        <v>79.95</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1641,20 +1621,20 @@
         </is>
       </c>
       <c r="D51" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>46074.04166666666</v>
+        <v>46075.04166666666</v>
       </c>
       <c r="B52" t="n">
-        <v>80.20632999999999</v>
+        <v>79.95</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1662,20 +1642,20 @@
         </is>
       </c>
       <c r="D52" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>46074.0625</v>
+        <v>46075.0625</v>
       </c>
       <c r="B53" t="n">
-        <v>80.23268</v>
+        <v>78.94695</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1683,20 +1663,20 @@
         </is>
       </c>
       <c r="D53" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>46074.08333333334</v>
+        <v>46075.08333333334</v>
       </c>
       <c r="B54" t="n">
-        <v>80.30043000000001</v>
+        <v>79.95</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1704,7 +1684,7 @@
         </is>
       </c>
       <c r="D54" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1714,10 +1694,10 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>46074.10416666666</v>
+        <v>46075.10416666666</v>
       </c>
       <c r="B55" t="n">
-        <v>79.95016</v>
+        <v>79.95</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1725,7 +1705,7 @@
         </is>
       </c>
       <c r="D55" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1735,10 +1715,10 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>46074.125</v>
+        <v>46075.125</v>
       </c>
       <c r="B56" t="n">
-        <v>80.45996</v>
+        <v>79.95</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1746,7 +1726,7 @@
         </is>
       </c>
       <c r="D56" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1756,10 +1736,10 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>46074.14583333334</v>
+        <v>46075.14583333334</v>
       </c>
       <c r="B57" t="n">
-        <v>80.50973999999999</v>
+        <v>79.95</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1767,7 +1747,7 @@
         </is>
       </c>
       <c r="D57" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -1777,10 +1757,10 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>46074.16666666666</v>
+        <v>46075.16666666666</v>
       </c>
       <c r="B58" t="n">
-        <v>80.53968</v>
+        <v>79.95</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1788,7 +1768,7 @@
         </is>
       </c>
       <c r="D58" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1798,10 +1778,10 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>46074.1875</v>
+        <v>46075.1875</v>
       </c>
       <c r="B59" t="n">
-        <v>80.80479</v>
+        <v>79.95</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1809,7 +1789,7 @@
         </is>
       </c>
       <c r="D59" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1819,10 +1799,10 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>46074.20833333334</v>
+        <v>46075.20833333334</v>
       </c>
       <c r="B60" t="n">
-        <v>80.27793</v>
+        <v>79.95</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1830,7 +1810,7 @@
         </is>
       </c>
       <c r="D60" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -1840,10 +1820,10 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>46074.22916666666</v>
+        <v>46075.22916666666</v>
       </c>
       <c r="B61" t="n">
-        <v>92.87231</v>
+        <v>79.95</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1851,20 +1831,20 @@
         </is>
       </c>
       <c r="D61" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>46074.25</v>
+        <v>46075.25</v>
       </c>
       <c r="B62" t="n">
-        <v>93.91743</v>
+        <v>79.95</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1872,20 +1852,20 @@
         </is>
       </c>
       <c r="D62" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>46074.27083333334</v>
+        <v>46075.27083333334</v>
       </c>
       <c r="B63" t="n">
-        <v>95.45453000000001</v>
+        <v>79.95</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1893,20 +1873,20 @@
         </is>
       </c>
       <c r="D63" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>46074.29166666666</v>
+        <v>46075.29166666666</v>
       </c>
       <c r="B64" t="n">
-        <v>59.14226</v>
+        <v>57.31</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1914,20 +1894,20 @@
         </is>
       </c>
       <c r="D64" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>46074.3125</v>
+        <v>46075.3125</v>
       </c>
       <c r="B65" t="n">
-        <v>12.48745</v>
+        <v>37.89</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1935,7 +1915,7 @@
         </is>
       </c>
       <c r="D65" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -1945,10 +1925,10 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>46074.33333333334</v>
+        <v>46075.33333333334</v>
       </c>
       <c r="B66" t="n">
-        <v>1.6283</v>
+        <v>37.89</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1956,7 +1936,7 @@
         </is>
       </c>
       <c r="D66" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -1966,10 +1946,10 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>46074.35416666666</v>
+        <v>46075.35416666666</v>
       </c>
       <c r="B67" t="n">
-        <v>0.7</v>
+        <v>20.19709</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1977,7 +1957,7 @@
         </is>
       </c>
       <c r="D67" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -1987,10 +1967,10 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>46074.375</v>
+        <v>46075.375</v>
       </c>
       <c r="B68" t="n">
-        <v>0.51</v>
+        <v>13.88472</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1998,7 +1978,7 @@
         </is>
       </c>
       <c r="D68" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2008,10 +1988,10 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>46074.39583333334</v>
+        <v>46075.39583333334</v>
       </c>
       <c r="B69" t="n">
-        <v>0.51</v>
+        <v>13.01353</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2019,7 +1999,7 @@
         </is>
       </c>
       <c r="D69" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2029,10 +2009,10 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>46074.41666666666</v>
+        <v>46075.41666666666</v>
       </c>
       <c r="B70" t="n">
-        <v>0.01049</v>
+        <v>19.85336</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2040,7 +2020,7 @@
         </is>
       </c>
       <c r="D70" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2050,10 +2030,10 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>46074.4375</v>
+        <v>46075.4375</v>
       </c>
       <c r="B71" t="n">
-        <v>0.51</v>
+        <v>35.88</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2061,7 +2041,7 @@
         </is>
       </c>
       <c r="D71" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2071,10 +2051,10 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>46074.45833333334</v>
+        <v>46075.45833333334</v>
       </c>
       <c r="B72" t="n">
-        <v>0.36381</v>
+        <v>37.89</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2082,7 +2062,7 @@
         </is>
       </c>
       <c r="D72" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2092,10 +2072,10 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>46074.47916666666</v>
+        <v>46075.47916666666</v>
       </c>
       <c r="B73" t="n">
-        <v>0.51</v>
+        <v>37.89</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2103,7 +2083,7 @@
         </is>
       </c>
       <c r="D73" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2113,10 +2093,10 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>46074.5</v>
+        <v>46075.5</v>
       </c>
       <c r="B74" t="n">
-        <v>0.51</v>
+        <v>37.89</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2124,7 +2104,7 @@
         </is>
       </c>
       <c r="D74" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2134,10 +2114,10 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>46074.52083333334</v>
+        <v>46075.52083333334</v>
       </c>
       <c r="B75" t="n">
-        <v>0.36344</v>
+        <v>37.89</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2145,7 +2125,7 @@
         </is>
       </c>
       <c r="D75" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2155,10 +2135,10 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>46074.54166666666</v>
+        <v>46075.54166666666</v>
       </c>
       <c r="B76" t="n">
-        <v>0.01096</v>
+        <v>37.89</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2166,7 +2146,7 @@
         </is>
       </c>
       <c r="D76" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2176,10 +2156,10 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>46074.5625</v>
+        <v>46075.5625</v>
       </c>
       <c r="B77" t="n">
-        <v>0.51</v>
+        <v>57.08</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2187,7 +2167,7 @@
         </is>
       </c>
       <c r="D77" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2197,10 +2177,10 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>46074.58333333334</v>
+        <v>46075.58333333334</v>
       </c>
       <c r="B78" t="n">
-        <v>12.15582</v>
+        <v>57.06</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2208,7 +2188,7 @@
         </is>
       </c>
       <c r="D78" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2218,10 +2198,10 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>46074.60416666666</v>
+        <v>46075.60416666666</v>
       </c>
       <c r="B79" t="n">
-        <v>35.86</v>
+        <v>64.89</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2229,7 +2209,7 @@
         </is>
       </c>
       <c r="D79" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2239,10 +2219,10 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>46074.625</v>
+        <v>46075.625</v>
       </c>
       <c r="B80" t="n">
-        <v>35.88</v>
+        <v>70.70617</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2250,7 +2230,7 @@
         </is>
       </c>
       <c r="D80" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2260,10 +2240,10 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>46074.64583333334</v>
+        <v>46075.64583333334</v>
       </c>
       <c r="B81" t="n">
-        <v>35.88</v>
+        <v>64.89</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2271,7 +2251,7 @@
         </is>
       </c>
       <c r="D81" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2281,10 +2261,10 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>46074.66666666666</v>
+        <v>46075.66666666666</v>
       </c>
       <c r="B82" t="n">
-        <v>37.89</v>
+        <v>71.34214</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2292,7 +2272,7 @@
         </is>
       </c>
       <c r="D82" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2302,10 +2282,10 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>46074.6875</v>
+        <v>46075.6875</v>
       </c>
       <c r="B83" t="n">
-        <v>37.89</v>
+        <v>64.89</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2313,7 +2293,7 @@
         </is>
       </c>
       <c r="D83" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2323,10 +2303,10 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>46074.70833333334</v>
+        <v>46075.70833333334</v>
       </c>
       <c r="B84" t="n">
-        <v>55.15385</v>
+        <v>65.66811</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2334,7 +2314,7 @@
         </is>
       </c>
       <c r="D84" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2344,10 +2324,10 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>46074.72916666666</v>
+        <v>46075.72916666666</v>
       </c>
       <c r="B85" t="n">
-        <v>57.31011</v>
+        <v>83.25357</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2355,7 +2335,7 @@
         </is>
       </c>
       <c r="D85" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2365,10 +2345,10 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>46074.75</v>
+        <v>46075.75</v>
       </c>
       <c r="B86" t="n">
-        <v>84.79000000000001</v>
+        <v>94.18357</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2376,7 +2356,7 @@
         </is>
       </c>
       <c r="D86" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2386,10 +2366,10 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>46074.77083333334</v>
+        <v>46075.77083333334</v>
       </c>
       <c r="B87" t="n">
-        <v>108.01</v>
+        <v>100.68046</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2397,7 +2377,7 @@
         </is>
       </c>
       <c r="D87" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2407,10 +2387,10 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>46074.79166666666</v>
+        <v>46075.79166666666</v>
       </c>
       <c r="B88" t="n">
-        <v>134.10369</v>
+        <v>98.03542</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2418,7 +2398,7 @@
         </is>
       </c>
       <c r="D88" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2428,10 +2408,10 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>46074.8125</v>
+        <v>46075.8125</v>
       </c>
       <c r="B89" t="n">
-        <v>108.01</v>
+        <v>88.98027999999999</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2439,7 +2419,7 @@
         </is>
       </c>
       <c r="D89" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2449,10 +2429,10 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>46074.83333333334</v>
+        <v>46075.83333333334</v>
       </c>
       <c r="B90" t="n">
-        <v>144.68466</v>
+        <v>88.80911999999999</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2460,7 +2440,7 @@
         </is>
       </c>
       <c r="D90" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2470,10 +2450,10 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>46074.85416666666</v>
+        <v>46075.85416666666</v>
       </c>
       <c r="B91" t="n">
-        <v>108.01</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2481,7 +2461,7 @@
         </is>
       </c>
       <c r="D91" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -2491,10 +2471,10 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>46074.875</v>
+        <v>46075.875</v>
       </c>
       <c r="B92" t="n">
-        <v>98.77869</v>
+        <v>78</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2502,7 +2482,7 @@
         </is>
       </c>
       <c r="D92" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -2512,10 +2492,10 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>46074.89583333334</v>
+        <v>46075.89583333334</v>
       </c>
       <c r="B93" t="n">
-        <v>85.95</v>
+        <v>70.9238</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2523,7 +2503,7 @@
         </is>
       </c>
       <c r="D93" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2533,10 +2513,10 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>46074.91666666666</v>
+        <v>46075.91666666666</v>
       </c>
       <c r="B94" t="n">
-        <v>74.99234</v>
+        <v>70.39288000000001</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2544,7 +2524,7 @@
         </is>
       </c>
       <c r="D94" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -2554,10 +2534,10 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>46074.9375</v>
+        <v>46075.9375</v>
       </c>
       <c r="B95" t="n">
-        <v>78</v>
+        <v>67.39133</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2565,7 +2545,7 @@
         </is>
       </c>
       <c r="D95" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2575,10 +2555,10 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>46074.95833333334</v>
+        <v>46075.95833333334</v>
       </c>
       <c r="B96" t="n">
-        <v>78</v>
+        <v>67.72055</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2586,7 +2566,7 @@
         </is>
       </c>
       <c r="D96" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -2596,10 +2576,10 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>46074.97916666666</v>
+        <v>46075.97916666666</v>
       </c>
       <c r="B97" t="n">
-        <v>78</v>
+        <v>72.99578</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -2607,7 +2587,7 @@
         </is>
       </c>
       <c r="D97" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,19 +478,19 @@
         <v>46074.02083333334</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>46074.20833333334</v>
+        <v>46074.22916666666</v>
       </c>
       <c r="C2" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>17.01</v>
+        <v>18.9</v>
       </c>
       <c r="E2" t="n">
-        <v>713.2278952500001</v>
+        <v>795.8981452500001</v>
       </c>
       <c r="F2" t="n">
-        <v>41.92991741622576</v>
+        <v>42.11101297619049</v>
       </c>
     </row>
     <row r="3">
@@ -498,39 +498,59 @@
         <v>46074.29166666666</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>46074.77083333334</v>
+        <v>46074.75</v>
       </c>
       <c r="C3" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>43.47</v>
+        <v>41.58</v>
       </c>
       <c r="E3" t="n">
-        <v>490.2942134999999</v>
+        <v>402.0109762499999</v>
       </c>
       <c r="F3" t="n">
-        <v>11.27890990338164</v>
+        <v>9.668373647186145</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46075.22916666666</v>
+        <v>46075.04166666666</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>46075.72916666666</v>
+        <v>46075.25</v>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>45.36</v>
+        <v>18.9</v>
       </c>
       <c r="E4" t="n">
-        <v>1152.201492</v>
+        <v>788.95167</v>
       </c>
       <c r="F4" t="n">
-        <v>25.40126746031746</v>
+        <v>41.74347460317461</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>46075.70833333334</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>46076</v>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>26.46</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1081.6806585</v>
+      </c>
+      <c r="F5" t="n">
+        <v>40.87984348072562</v>
       </c>
     </row>
   </sheetData>
@@ -806,7 +826,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1319,7 +1339,7 @@
         <v>46074.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>73.49200999999999</v>
+        <v>64.38329</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1340,7 +1360,7 @@
         <v>46074.75</v>
       </c>
       <c r="B38" t="n">
-        <v>81.43819000000001</v>
+        <v>105.93651</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1352,7 +1372,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1361,11 +1381,11 @@
         <v>46074.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>102.68353</v>
+        <v>118.32177</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D39" s="3" t="n">
@@ -1382,11 +1402,11 @@
         <v>46074.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>108.91887</v>
+        <v>135.70002</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D40" s="3" t="n">
@@ -1403,11 +1423,11 @@
         <v>46074.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>108.01</v>
+        <v>133.50611</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D41" s="3" t="n">
@@ -1428,7 +1448,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D42" s="3" t="n">
@@ -1449,7 +1469,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D43" s="3" t="n">
@@ -1466,11 +1486,11 @@
         <v>46074.875</v>
       </c>
       <c r="B44" t="n">
-        <v>101.1856</v>
+        <v>106.05354</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D44" s="3" t="n">
@@ -1487,11 +1507,11 @@
         <v>46074.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>95.09075</v>
+        <v>101.07415</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D45" s="3" t="n">
@@ -1512,7 +1532,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D46" s="3" t="n">
@@ -1529,11 +1549,11 @@
         <v>46074.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>82.65846000000001</v>
+        <v>105.79</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D47" s="3" t="n">
@@ -1550,11 +1570,11 @@
         <v>46074.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>84.79000000000001</v>
+        <v>107.0409</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D48" s="3" t="n">
@@ -1571,7 +1591,7 @@
         <v>46074.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>75.31887999999999</v>
+        <v>101.76526</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1592,7 +1612,7 @@
         <v>46075</v>
       </c>
       <c r="B50" t="n">
-        <v>77.77522999999999</v>
+        <v>96.82904000000001</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1613,7 +1633,7 @@
         <v>46075.02083333334</v>
       </c>
       <c r="B51" t="n">
-        <v>79.95</v>
+        <v>94.21093</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1634,7 +1654,7 @@
         <v>46075.04166666666</v>
       </c>
       <c r="B52" t="n">
-        <v>79.95</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1646,7 +1666,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1655,7 +1675,7 @@
         <v>46075.0625</v>
       </c>
       <c r="B53" t="n">
-        <v>78.94695</v>
+        <v>79.95</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1667,7 +1687,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1688,7 +1708,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1709,7 +1729,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1730,7 +1750,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1751,7 +1771,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1792,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1781,7 +1801,7 @@
         <v>46075.1875</v>
       </c>
       <c r="B59" t="n">
-        <v>79.95</v>
+        <v>79.95059999999999</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1793,7 +1813,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1802,7 +1822,7 @@
         <v>46075.20833333334</v>
       </c>
       <c r="B60" t="n">
-        <v>79.95</v>
+        <v>79.95059999999999</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1814,7 +1834,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1823,7 +1843,7 @@
         <v>46075.22916666666</v>
       </c>
       <c r="B61" t="n">
-        <v>79.95</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1844,7 +1864,7 @@
         <v>46075.25</v>
       </c>
       <c r="B62" t="n">
-        <v>79.95</v>
+        <v>96.94302999999999</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1856,7 +1876,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1865,7 +1885,7 @@
         <v>46075.27083333334</v>
       </c>
       <c r="B63" t="n">
-        <v>79.95</v>
+        <v>100.01</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1877,7 +1897,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1886,7 +1906,7 @@
         <v>46075.29166666666</v>
       </c>
       <c r="B64" t="n">
-        <v>57.31</v>
+        <v>87.53771</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1898,7 +1918,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1907,7 +1927,7 @@
         <v>46075.3125</v>
       </c>
       <c r="B65" t="n">
-        <v>37.89</v>
+        <v>79.95027</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1919,7 +1939,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1928,7 +1948,7 @@
         <v>46075.33333333334</v>
       </c>
       <c r="B66" t="n">
-        <v>37.89</v>
+        <v>78</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1940,7 +1960,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1949,7 +1969,7 @@
         <v>46075.35416666666</v>
       </c>
       <c r="B67" t="n">
-        <v>20.19709</v>
+        <v>79.64982999999999</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1961,7 +1981,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1970,7 +1990,7 @@
         <v>46075.375</v>
       </c>
       <c r="B68" t="n">
-        <v>13.88472</v>
+        <v>90.89</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1982,7 +2002,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1991,7 +2011,7 @@
         <v>46075.39583333334</v>
       </c>
       <c r="B69" t="n">
-        <v>13.01353</v>
+        <v>84.84577</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2003,7 +2023,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -2012,7 +2032,7 @@
         <v>46075.41666666666</v>
       </c>
       <c r="B70" t="n">
-        <v>19.85336</v>
+        <v>108.01</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2024,7 +2044,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -2033,7 +2053,7 @@
         <v>46075.4375</v>
       </c>
       <c r="B71" t="n">
-        <v>35.88</v>
+        <v>108.01</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2045,7 +2065,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -2054,7 +2074,7 @@
         <v>46075.45833333334</v>
       </c>
       <c r="B72" t="n">
-        <v>37.89</v>
+        <v>105</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2066,7 +2086,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -2075,7 +2095,7 @@
         <v>46075.47916666666</v>
       </c>
       <c r="B73" t="n">
-        <v>37.89</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2087,7 +2107,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -2096,7 +2116,7 @@
         <v>46075.5</v>
       </c>
       <c r="B74" t="n">
-        <v>37.89</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2108,7 +2128,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -2117,7 +2137,7 @@
         <v>46075.52083333334</v>
       </c>
       <c r="B75" t="n">
-        <v>37.89</v>
+        <v>108.01</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2129,7 +2149,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -2138,7 +2158,7 @@
         <v>46075.54166666666</v>
       </c>
       <c r="B76" t="n">
-        <v>37.89</v>
+        <v>105.00015</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2150,7 +2170,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -2159,7 +2179,7 @@
         <v>46075.5625</v>
       </c>
       <c r="B77" t="n">
-        <v>57.08</v>
+        <v>108.01</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2171,7 +2191,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -2180,7 +2200,7 @@
         <v>46075.58333333334</v>
       </c>
       <c r="B78" t="n">
-        <v>57.06</v>
+        <v>104.51402</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2192,7 +2212,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -2201,7 +2221,7 @@
         <v>46075.60416666666</v>
       </c>
       <c r="B79" t="n">
-        <v>64.89</v>
+        <v>108.01</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2213,7 +2233,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -2222,7 +2242,7 @@
         <v>46075.625</v>
       </c>
       <c r="B80" t="n">
-        <v>70.70617</v>
+        <v>105.00015</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2234,7 +2254,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -2243,7 +2263,7 @@
         <v>46075.64583333334</v>
       </c>
       <c r="B81" t="n">
-        <v>64.89</v>
+        <v>105.00015</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2255,7 +2275,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -2264,7 +2284,7 @@
         <v>46075.66666666666</v>
       </c>
       <c r="B82" t="n">
-        <v>71.34214</v>
+        <v>115.00185</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2276,7 +2296,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -2285,7 +2305,7 @@
         <v>46075.6875</v>
       </c>
       <c r="B83" t="n">
-        <v>64.89</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2297,7 +2317,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -2306,7 +2326,7 @@
         <v>46075.70833333334</v>
       </c>
       <c r="B84" t="n">
-        <v>65.66811</v>
+        <v>77.99985</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2327,7 +2347,7 @@
         <v>46075.72916666666</v>
       </c>
       <c r="B85" t="n">
-        <v>83.25357</v>
+        <v>78</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2339,7 +2359,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -2348,7 +2368,7 @@
         <v>46075.75</v>
       </c>
       <c r="B86" t="n">
-        <v>94.18357</v>
+        <v>78</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2360,7 +2380,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -2369,7 +2389,7 @@
         <v>46075.77083333334</v>
       </c>
       <c r="B87" t="n">
-        <v>100.68046</v>
+        <v>93.12528</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2381,7 +2401,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -2390,7 +2410,7 @@
         <v>46075.79166666666</v>
       </c>
       <c r="B88" t="n">
-        <v>98.03542</v>
+        <v>85.92464</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2402,7 +2422,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -2411,7 +2431,7 @@
         <v>46075.8125</v>
       </c>
       <c r="B89" t="n">
-        <v>88.98027999999999</v>
+        <v>81.64194000000001</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2423,7 +2443,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -2432,7 +2452,7 @@
         <v>46075.83333333334</v>
       </c>
       <c r="B90" t="n">
-        <v>88.80911999999999</v>
+        <v>90.48074</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2444,7 +2464,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -2453,7 +2473,7 @@
         <v>46075.85416666666</v>
       </c>
       <c r="B91" t="n">
-        <v>84.79000000000001</v>
+        <v>84.36094</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2465,7 +2485,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -2486,7 +2506,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -2495,7 +2515,7 @@
         <v>46075.89583333334</v>
       </c>
       <c r="B93" t="n">
-        <v>70.9238</v>
+        <v>76.1215</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2507,7 +2527,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -2516,7 +2536,7 @@
         <v>46075.91666666666</v>
       </c>
       <c r="B94" t="n">
-        <v>70.39288000000001</v>
+        <v>78</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2528,7 +2548,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -2537,7 +2557,7 @@
         <v>46075.9375</v>
       </c>
       <c r="B95" t="n">
-        <v>67.39133</v>
+        <v>67.2539</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2549,7 +2569,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -2558,7 +2578,7 @@
         <v>46075.95833333334</v>
       </c>
       <c r="B96" t="n">
-        <v>67.72055</v>
+        <v>67.11895</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2570,7 +2590,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -2579,7 +2599,7 @@
         <v>46075.97916666666</v>
       </c>
       <c r="B97" t="n">
-        <v>72.99578</v>
+        <v>73.38831999999999</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -2591,7 +2611,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -475,10 +475,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46074.02083333334</v>
+        <v>46075.04166666666</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>46074.22916666666</v>
+        <v>46075.25</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
@@ -487,70 +487,70 @@
         <v>18.9</v>
       </c>
       <c r="E2" t="n">
-        <v>795.8981452500001</v>
+        <v>784.2324555</v>
       </c>
       <c r="F2" t="n">
-        <v>42.11101297619049</v>
+        <v>41.49378071428572</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46074.29166666666</v>
+        <v>46075.29166666666</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>46074.75</v>
+        <v>46075.45833333334</v>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>41.58</v>
+        <v>15.12</v>
       </c>
       <c r="E3" t="n">
-        <v>402.0109762499999</v>
+        <v>553.2277335</v>
       </c>
       <c r="F3" t="n">
-        <v>9.668373647186145</v>
+        <v>36.58913581349206</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46075.04166666666</v>
+        <v>46075.70833333334</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>46075.25</v>
+        <v>46076.25</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>18.9</v>
+        <v>49.14</v>
       </c>
       <c r="E4" t="n">
-        <v>788.95167</v>
+        <v>1760.58504375</v>
       </c>
       <c r="F4" t="n">
-        <v>41.74347460317461</v>
+        <v>35.82794146825397</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46075.70833333334</v>
+        <v>46076.41666666666</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>46076</v>
+        <v>46076.66666666666</v>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>26.46</v>
+        <v>22.68</v>
       </c>
       <c r="E5" t="n">
-        <v>1081.6806585</v>
+        <v>680.1094657499999</v>
       </c>
       <c r="F5" t="n">
-        <v>40.87984348072562</v>
+        <v>29.9871898478836</v>
       </c>
     </row>
   </sheetData>
@@ -601,10 +601,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="B2" t="n">
-        <v>97.1383</v>
+        <v>96.23214</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="D2" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -622,10 +622,10 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46074.02083333334</v>
+        <v>46075.02083333334</v>
       </c>
       <c r="B3" t="n">
-        <v>84.79000000000001</v>
+        <v>91.20010000000001</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -633,20 +633,20 @@
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46074.04166666666</v>
+        <v>46075.04166666666</v>
       </c>
       <c r="B4" t="n">
-        <v>82.07989000000001</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -654,7 +654,7 @@
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -664,10 +664,10 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46074.0625</v>
+        <v>46075.0625</v>
       </c>
       <c r="B5" t="n">
-        <v>79.95</v>
+        <v>79.95021</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>46074.08333333334</v>
+        <v>46075.08333333334</v>
       </c>
       <c r="B6" t="n">
         <v>79.95</v>
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>46074.10416666666</v>
+        <v>46075.10416666666</v>
       </c>
       <c r="B7" t="n">
         <v>79.95</v>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -727,10 +727,10 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>46074.125</v>
+        <v>46075.125</v>
       </c>
       <c r="B8" t="n">
-        <v>79.729</v>
+        <v>79.95</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -738,7 +738,7 @@
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>46074.14583333334</v>
+        <v>46075.14583333334</v>
       </c>
       <c r="B9" t="n">
         <v>79.95</v>
@@ -759,7 +759,7 @@
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -769,10 +769,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>46074.16666666666</v>
+        <v>46075.16666666666</v>
       </c>
       <c r="B10" t="n">
-        <v>80.32689999999999</v>
+        <v>79.95</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -790,10 +790,10 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>46074.1875</v>
+        <v>46075.1875</v>
       </c>
       <c r="B11" t="n">
-        <v>84.79000000000001</v>
+        <v>79.9502</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -811,10 +811,10 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>46074.20833333334</v>
+        <v>46075.20833333334</v>
       </c>
       <c r="B12" t="n">
-        <v>84.79000000000001</v>
+        <v>79.95</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -832,10 +832,10 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>46074.22916666666</v>
+        <v>46075.22916666666</v>
       </c>
       <c r="B13" t="n">
-        <v>96.91313</v>
+        <v>79.95057</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -843,20 +843,20 @@
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>46074.25</v>
+        <v>46075.25</v>
       </c>
       <c r="B14" t="n">
-        <v>98.98903</v>
+        <v>93.80569</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -874,10 +874,10 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>46074.27083333334</v>
+        <v>46075.27083333334</v>
       </c>
       <c r="B15" t="n">
-        <v>99.02897</v>
+        <v>100.27203</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -895,10 +895,10 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>46074.29166666666</v>
+        <v>46075.29166666666</v>
       </c>
       <c r="B16" t="n">
-        <v>73.2</v>
+        <v>79.95014999999999</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -906,7 +906,7 @@
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -916,10 +916,10 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>46074.3125</v>
+        <v>46075.3125</v>
       </c>
       <c r="B17" t="n">
-        <v>12.48561</v>
+        <v>61.91253</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         </is>
       </c>
       <c r="D17" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -937,10 +937,10 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>46074.33333333334</v>
+        <v>46075.33333333334</v>
       </c>
       <c r="B18" t="n">
-        <v>1.62799</v>
+        <v>57.06012</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         </is>
       </c>
       <c r="D18" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -958,10 +958,10 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>46074.35416666666</v>
+        <v>46075.35416666666</v>
       </c>
       <c r="B19" t="n">
-        <v>0.80338</v>
+        <v>57.06026</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         </is>
       </c>
       <c r="D19" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -979,10 +979,10 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>46074.375</v>
+        <v>46075.375</v>
       </c>
       <c r="B20" t="n">
-        <v>0.51</v>
+        <v>57.06</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
         </is>
       </c>
       <c r="D20" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1000,10 +1000,10 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>46074.39583333334</v>
+        <v>46075.39583333334</v>
       </c>
       <c r="B21" t="n">
-        <v>0.51</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D21" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1021,10 +1021,10 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>46074.41666666666</v>
+        <v>46075.41666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>0.51</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="D22" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1042,10 +1042,10 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>46074.4375</v>
+        <v>46075.4375</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.10684</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D23" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1063,10 +1063,10 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>46074.45833333334</v>
+        <v>46075.45833333334</v>
       </c>
       <c r="B24" t="n">
-        <v>0.01087</v>
+        <v>105</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1074,20 +1074,20 @@
         </is>
       </c>
       <c r="D24" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>46074.47916666666</v>
+        <v>46075.47916666666</v>
       </c>
       <c r="B25" t="n">
-        <v>0.51</v>
+        <v>74.8419</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1095,20 +1095,20 @@
         </is>
       </c>
       <c r="D25" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>46074.5</v>
+        <v>46075.5</v>
       </c>
       <c r="B26" t="n">
-        <v>0.51</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1116,20 +1116,20 @@
         </is>
       </c>
       <c r="D26" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>46074.52083333334</v>
+        <v>46075.52083333334</v>
       </c>
       <c r="B27" t="n">
-        <v>0.51</v>
+        <v>108.01</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1137,20 +1137,20 @@
         </is>
       </c>
       <c r="D27" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>46074.54166666666</v>
+        <v>46075.54166666666</v>
       </c>
       <c r="B28" t="n">
-        <v>0.51</v>
+        <v>105.00015</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1158,20 +1158,20 @@
         </is>
       </c>
       <c r="D28" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>46074.5625</v>
+        <v>46075.5625</v>
       </c>
       <c r="B29" t="n">
-        <v>0.51</v>
+        <v>138.00005</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1179,20 +1179,20 @@
         </is>
       </c>
       <c r="D29" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>46074.58333333334</v>
+        <v>46075.58333333334</v>
       </c>
       <c r="B30" t="n">
-        <v>10.31271</v>
+        <v>108.89018</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1200,20 +1200,20 @@
         </is>
       </c>
       <c r="D30" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>46074.60416666666</v>
+        <v>46075.60416666666</v>
       </c>
       <c r="B31" t="n">
-        <v>35.88</v>
+        <v>110.54485</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1221,20 +1221,20 @@
         </is>
       </c>
       <c r="D31" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>46074.625</v>
+        <v>46075.625</v>
       </c>
       <c r="B32" t="n">
-        <v>35.88039</v>
+        <v>109.92103</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1242,20 +1242,20 @@
         </is>
       </c>
       <c r="D32" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>46074.64583333334</v>
+        <v>46075.64583333334</v>
       </c>
       <c r="B33" t="n">
-        <v>35.88</v>
+        <v>111.23383</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1263,20 +1263,20 @@
         </is>
       </c>
       <c r="D33" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>46074.66666666666</v>
+        <v>46075.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>45.57629</v>
+        <v>135.38704</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1284,20 +1284,20 @@
         </is>
       </c>
       <c r="D34" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>46074.6875</v>
+        <v>46075.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>37.89</v>
+        <v>105.0001</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1305,20 +1305,20 @@
         </is>
       </c>
       <c r="D35" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>46074.70833333334</v>
+        <v>46075.70833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>54.41526</v>
+        <v>78</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
         </is>
       </c>
       <c r="D36" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1336,10 +1336,10 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>46074.72916666666</v>
+        <v>46075.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>64.38329</v>
+        <v>65.02253</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         </is>
       </c>
       <c r="D37" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1357,10 +1357,10 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>46074.75</v>
+        <v>46075.75</v>
       </c>
       <c r="B38" t="n">
-        <v>105.93651</v>
+        <v>73.59238000000001</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1368,230 +1368,230 @@
         </is>
       </c>
       <c r="D38" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>46074.77083333334</v>
+        <v>46075.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>118.32177</v>
+        <v>78</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D39" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>46074.79166666666</v>
+        <v>46075.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>135.70002</v>
+        <v>70.58141000000001</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D40" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>46074.8125</v>
+        <v>46075.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>133.50611</v>
+        <v>73.52688999999999</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D41" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>46074.83333333334</v>
+        <v>46075.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>108.01</v>
+        <v>72.3176</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D42" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>46074.85416666666</v>
+        <v>46075.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>108.01</v>
+        <v>78</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D43" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>46074.875</v>
+        <v>46075.875</v>
       </c>
       <c r="B44" t="n">
-        <v>106.05354</v>
+        <v>72.3917</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D44" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>46074.89583333334</v>
+        <v>46075.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>101.07415</v>
+        <v>70.75689</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D45" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>46074.91666666666</v>
+        <v>46075.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>84.79000000000001</v>
+        <v>68.7543</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D46" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>46074.9375</v>
+        <v>46075.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>105.79</v>
+        <v>64.89</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D47" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>46074.95833333334</v>
+        <v>46075.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>107.0409</v>
+        <v>61.3</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D48" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>46074.97916666666</v>
+        <v>46075.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>101.76526</v>
+        <v>64.89</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1599,20 +1599,20 @@
         </is>
       </c>
       <c r="D49" s="3" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="B50" t="n">
-        <v>96.82904000000001</v>
+        <v>64.89</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1620,20 +1620,20 @@
         </is>
       </c>
       <c r="D50" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>46075.02083333334</v>
+        <v>46076.02083333334</v>
       </c>
       <c r="B51" t="n">
-        <v>94.21093</v>
+        <v>73.2</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1641,20 +1641,20 @@
         </is>
       </c>
       <c r="D51" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>46075.04166666666</v>
+        <v>46076.04166666666</v>
       </c>
       <c r="B52" t="n">
-        <v>84.79000000000001</v>
+        <v>73.2</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="D52" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1672,10 +1672,10 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>46075.0625</v>
+        <v>46076.0625</v>
       </c>
       <c r="B53" t="n">
-        <v>79.95</v>
+        <v>65.05749</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="D53" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1693,10 +1693,10 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>46075.08333333334</v>
+        <v>46076.08333333334</v>
       </c>
       <c r="B54" t="n">
-        <v>79.95</v>
+        <v>64.28218</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="D54" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1714,10 +1714,10 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>46075.10416666666</v>
+        <v>46076.10416666666</v>
       </c>
       <c r="B55" t="n">
-        <v>79.95</v>
+        <v>64.84444999999999</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="D55" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1735,10 +1735,10 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>46075.125</v>
+        <v>46076.125</v>
       </c>
       <c r="B56" t="n">
-        <v>79.95</v>
+        <v>64.48016</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="D56" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1756,10 +1756,10 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>46075.14583333334</v>
+        <v>46076.14583333334</v>
       </c>
       <c r="B57" t="n">
-        <v>79.95</v>
+        <v>63.55941</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D57" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -1777,10 +1777,10 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>46075.16666666666</v>
+        <v>46076.16666666666</v>
       </c>
       <c r="B58" t="n">
-        <v>79.95</v>
+        <v>65.24021</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         </is>
       </c>
       <c r="D58" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1798,10 +1798,10 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>46075.1875</v>
+        <v>46076.1875</v>
       </c>
       <c r="B59" t="n">
-        <v>79.95059999999999</v>
+        <v>72.08705999999999</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         </is>
       </c>
       <c r="D59" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1819,10 +1819,10 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>46075.20833333334</v>
+        <v>46076.20833333334</v>
       </c>
       <c r="B60" t="n">
-        <v>79.95059999999999</v>
+        <v>69.66356</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         </is>
       </c>
       <c r="D60" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -1840,10 +1840,10 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>46075.22916666666</v>
+        <v>46076.22916666666</v>
       </c>
       <c r="B61" t="n">
-        <v>84.79000000000001</v>
+        <v>73.20003</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         </is>
       </c>
       <c r="D61" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -1861,10 +1861,10 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>46075.25</v>
+        <v>46076.25</v>
       </c>
       <c r="B62" t="n">
-        <v>96.94302999999999</v>
+        <v>76.50799000000001</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="D62" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1882,10 +1882,10 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>46075.27083333334</v>
+        <v>46076.27083333334</v>
       </c>
       <c r="B63" t="n">
-        <v>100.01</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         </is>
       </c>
       <c r="D63" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -1903,10 +1903,10 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>46075.29166666666</v>
+        <v>46076.29166666666</v>
       </c>
       <c r="B64" t="n">
-        <v>87.53771</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1914,7 +1914,7 @@
         </is>
       </c>
       <c r="D64" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -1924,10 +1924,10 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>46075.3125</v>
+        <v>46076.3125</v>
       </c>
       <c r="B65" t="n">
-        <v>79.95027</v>
+        <v>78</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         </is>
       </c>
       <c r="D65" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -1945,10 +1945,10 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>46075.33333333334</v>
+        <v>46076.33333333334</v>
       </c>
       <c r="B66" t="n">
-        <v>78</v>
+        <v>79.03036</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1956,7 +1956,7 @@
         </is>
       </c>
       <c r="D66" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -1966,10 +1966,10 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>46075.35416666666</v>
+        <v>46076.35416666666</v>
       </c>
       <c r="B67" t="n">
-        <v>79.64982999999999</v>
+        <v>81.10084999999999</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
         </is>
       </c>
       <c r="D67" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -1987,10 +1987,10 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>46075.375</v>
+        <v>46076.375</v>
       </c>
       <c r="B68" t="n">
-        <v>90.89</v>
+        <v>78</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         </is>
       </c>
       <c r="D68" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2008,10 +2008,10 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>46075.39583333334</v>
+        <v>46076.39583333334</v>
       </c>
       <c r="B69" t="n">
-        <v>84.84577</v>
+        <v>77.02106000000001</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2019,7 +2019,7 @@
         </is>
       </c>
       <c r="D69" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2029,10 +2029,10 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>46075.41666666666</v>
+        <v>46076.41666666666</v>
       </c>
       <c r="B70" t="n">
-        <v>108.01</v>
+        <v>57.06</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2040,20 +2040,20 @@
         </is>
       </c>
       <c r="D70" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>46075.4375</v>
+        <v>46076.4375</v>
       </c>
       <c r="B71" t="n">
-        <v>108.01</v>
+        <v>57.06</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2061,20 +2061,20 @@
         </is>
       </c>
       <c r="D71" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>46075.45833333334</v>
+        <v>46076.45833333334</v>
       </c>
       <c r="B72" t="n">
-        <v>105</v>
+        <v>56.98002</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2082,20 +2082,20 @@
         </is>
       </c>
       <c r="D72" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>46075.47916666666</v>
+        <v>46076.47916666666</v>
       </c>
       <c r="B73" t="n">
-        <v>84.79000000000001</v>
+        <v>56.98</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2103,20 +2103,20 @@
         </is>
       </c>
       <c r="D73" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>46075.5</v>
+        <v>46076.5</v>
       </c>
       <c r="B74" t="n">
-        <v>84.79000000000001</v>
+        <v>57.06</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2124,20 +2124,20 @@
         </is>
       </c>
       <c r="D74" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>46075.52083333334</v>
+        <v>46076.52083333334</v>
       </c>
       <c r="B75" t="n">
-        <v>108.01</v>
+        <v>57.06009</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2145,20 +2145,20 @@
         </is>
       </c>
       <c r="D75" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>46075.54166666666</v>
+        <v>46076.54166666666</v>
       </c>
       <c r="B76" t="n">
-        <v>105.00015</v>
+        <v>53.78697</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2166,20 +2166,20 @@
         </is>
       </c>
       <c r="D76" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>46075.5625</v>
+        <v>46076.5625</v>
       </c>
       <c r="B77" t="n">
-        <v>108.01</v>
+        <v>61.32739</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2187,20 +2187,20 @@
         </is>
       </c>
       <c r="D77" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>46075.58333333334</v>
+        <v>46076.58333333334</v>
       </c>
       <c r="B78" t="n">
-        <v>104.51402</v>
+        <v>60.97359</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2208,20 +2208,20 @@
         </is>
       </c>
       <c r="D78" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>46075.60416666666</v>
+        <v>46076.60416666666</v>
       </c>
       <c r="B79" t="n">
-        <v>108.01</v>
+        <v>57.06011</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2229,20 +2229,20 @@
         </is>
       </c>
       <c r="D79" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>46075.625</v>
+        <v>46076.625</v>
       </c>
       <c r="B80" t="n">
-        <v>105.00015</v>
+        <v>57.31</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2250,20 +2250,20 @@
         </is>
       </c>
       <c r="D80" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>46075.64583333334</v>
+        <v>46076.64583333334</v>
       </c>
       <c r="B81" t="n">
-        <v>105.00015</v>
+        <v>64.89</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2271,20 +2271,20 @@
         </is>
       </c>
       <c r="D81" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>46075.66666666666</v>
+        <v>46076.66666666666</v>
       </c>
       <c r="B82" t="n">
-        <v>115.00185</v>
+        <v>71.49021999999999</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="D82" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2302,10 +2302,10 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>46075.6875</v>
+        <v>46076.6875</v>
       </c>
       <c r="B83" t="n">
-        <v>84.79000000000001</v>
+        <v>57.31</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         </is>
       </c>
       <c r="D83" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2323,10 +2323,10 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>46075.70833333334</v>
+        <v>46076.70833333334</v>
       </c>
       <c r="B84" t="n">
-        <v>77.99985</v>
+        <v>68.69691</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2334,20 +2334,20 @@
         </is>
       </c>
       <c r="D84" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>46075.72916666666</v>
+        <v>46076.72916666666</v>
       </c>
       <c r="B85" t="n">
-        <v>78</v>
+        <v>61.94294</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2355,20 +2355,20 @@
         </is>
       </c>
       <c r="D85" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>46075.75</v>
+        <v>46076.75</v>
       </c>
       <c r="B86" t="n">
-        <v>78</v>
+        <v>64.01351</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2376,20 +2376,20 @@
         </is>
       </c>
       <c r="D86" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>46075.77083333334</v>
+        <v>46076.77083333334</v>
       </c>
       <c r="B87" t="n">
-        <v>93.12528</v>
+        <v>81.14694</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2397,20 +2397,20 @@
         </is>
       </c>
       <c r="D87" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>46075.79166666666</v>
+        <v>46076.79166666666</v>
       </c>
       <c r="B88" t="n">
-        <v>85.92464</v>
+        <v>74.05699</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2418,20 +2418,20 @@
         </is>
       </c>
       <c r="D88" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>46075.8125</v>
+        <v>46076.8125</v>
       </c>
       <c r="B89" t="n">
-        <v>81.64194000000001</v>
+        <v>89.52167</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2439,20 +2439,20 @@
         </is>
       </c>
       <c r="D89" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>46075.83333333334</v>
+        <v>46076.83333333334</v>
       </c>
       <c r="B90" t="n">
-        <v>90.48074</v>
+        <v>90.46507</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2460,20 +2460,20 @@
         </is>
       </c>
       <c r="D90" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>46075.85416666666</v>
+        <v>46076.85416666666</v>
       </c>
       <c r="B91" t="n">
-        <v>84.36094</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2481,20 +2481,20 @@
         </is>
       </c>
       <c r="D91" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>46075.875</v>
+        <v>46076.875</v>
       </c>
       <c r="B92" t="n">
-        <v>78</v>
+        <v>72.48084</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2502,20 +2502,20 @@
         </is>
       </c>
       <c r="D92" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>46075.89583333334</v>
+        <v>46076.89583333334</v>
       </c>
       <c r="B93" t="n">
-        <v>76.1215</v>
+        <v>73.20337000000001</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2523,20 +2523,20 @@
         </is>
       </c>
       <c r="D93" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>46075.91666666666</v>
+        <v>46076.91666666666</v>
       </c>
       <c r="B94" t="n">
-        <v>78</v>
+        <v>64.89</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2544,20 +2544,20 @@
         </is>
       </c>
       <c r="D94" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>46075.9375</v>
+        <v>46076.9375</v>
       </c>
       <c r="B95" t="n">
-        <v>67.2539</v>
+        <v>66.44816</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2565,20 +2565,20 @@
         </is>
       </c>
       <c r="D95" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>46075.95833333334</v>
+        <v>46076.95833333334</v>
       </c>
       <c r="B96" t="n">
-        <v>67.11895</v>
+        <v>65.47123999999999</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2586,20 +2586,20 @@
         </is>
       </c>
       <c r="D96" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>46075.97916666666</v>
+        <v>46076.97916666666</v>
       </c>
       <c r="B97" t="n">
-        <v>73.38831999999999</v>
+        <v>64.89</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -2607,11 +2607,11 @@
         </is>
       </c>
       <c r="D97" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,102 +475,82 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46075.04166666666</v>
+        <v>46076</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>46075.25</v>
+        <v>46076.22916666666</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="D2" t="n">
-        <v>18.9</v>
+        <v>20.79</v>
       </c>
       <c r="E2" t="n">
-        <v>784.2324555</v>
+        <v>852.0254534999999</v>
       </c>
       <c r="F2" t="n">
-        <v>41.49378071428572</v>
+        <v>40.9824652958153</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46075.29166666666</v>
+        <v>46076.35416666666</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>46075.45833333334</v>
+        <v>46076.66666666666</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="D3" t="n">
-        <v>15.12</v>
+        <v>28.35</v>
       </c>
       <c r="E3" t="n">
-        <v>553.2277335</v>
+        <v>778.122267</v>
       </c>
       <c r="F3" t="n">
-        <v>36.58913581349206</v>
+        <v>27.44699354497354</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46075.70833333334</v>
+        <v>46076.875</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>46076.04166666666</v>
+        <v>46077.14583333334</v>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="D4" t="n">
-        <v>30.24</v>
+        <v>24.57</v>
       </c>
       <c r="E4" t="n">
-        <v>1220.848668</v>
+        <v>964.9788037499998</v>
       </c>
       <c r="F4" t="n">
-        <v>40.37197976190476</v>
+        <v>39.27467658730158</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46076.375</v>
+        <v>46077.3125</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>46076.66666666666</v>
+        <v>46077.66666666666</v>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="D5" t="n">
-        <v>26.46</v>
+        <v>32.13</v>
       </c>
       <c r="E5" t="n">
-        <v>671.65442175</v>
+        <v>790.8133057499998</v>
       </c>
       <c r="F5" t="n">
-        <v>25.38376499433107</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>46076.83333333334</v>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>46077</v>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>15.12</v>
-      </c>
-      <c r="E6" t="n">
-        <v>598.86511425</v>
-      </c>
-      <c r="F6" t="n">
-        <v>39.60748110119048</v>
+        <v>24.61292579365079</v>
       </c>
     </row>
   </sheetData>
@@ -621,10 +601,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="B2" t="n">
-        <v>96.23214</v>
+        <v>74.00527</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -632,20 +612,20 @@
         </is>
       </c>
       <c r="D2" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46075.02083333334</v>
+        <v>46076.02083333334</v>
       </c>
       <c r="B3" t="n">
-        <v>91.20010000000001</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -653,20 +633,20 @@
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46075.04166666666</v>
+        <v>46076.04166666666</v>
       </c>
       <c r="B4" t="n">
-        <v>84.79000000000001</v>
+        <v>79.95017</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -674,7 +654,7 @@
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -684,10 +664,10 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46075.0625</v>
+        <v>46076.0625</v>
       </c>
       <c r="B5" t="n">
-        <v>79.95021</v>
+        <v>79.95014</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -695,7 +675,7 @@
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -705,7 +685,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>46075.08333333334</v>
+        <v>46076.08333333334</v>
       </c>
       <c r="B6" t="n">
         <v>79.95</v>
@@ -716,7 +696,7 @@
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -726,10 +706,10 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>46075.10416666666</v>
+        <v>46076.10416666666</v>
       </c>
       <c r="B7" t="n">
-        <v>79.95</v>
+        <v>78.74460999999999</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -737,7 +717,7 @@
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -747,10 +727,10 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>46075.125</v>
+        <v>46076.125</v>
       </c>
       <c r="B8" t="n">
-        <v>79.95</v>
+        <v>78.80903000000001</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -758,7 +738,7 @@
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -768,10 +748,10 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>46075.14583333334</v>
+        <v>46076.14583333334</v>
       </c>
       <c r="B9" t="n">
-        <v>79.95</v>
+        <v>78</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -779,7 +759,7 @@
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -789,10 +769,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>46075.16666666666</v>
+        <v>46076.16666666666</v>
       </c>
       <c r="B10" t="n">
-        <v>79.95</v>
+        <v>79.77303999999999</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -800,7 +780,7 @@
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -810,10 +790,10 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>46075.1875</v>
+        <v>46076.1875</v>
       </c>
       <c r="B11" t="n">
-        <v>79.9502</v>
+        <v>79.95</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -821,7 +801,7 @@
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -831,7 +811,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>46075.20833333334</v>
+        <v>46076.20833333334</v>
       </c>
       <c r="B12" t="n">
         <v>79.95</v>
@@ -842,7 +822,7 @@
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -852,10 +832,10 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>46075.22916666666</v>
+        <v>46076.22916666666</v>
       </c>
       <c r="B13" t="n">
-        <v>79.95057</v>
+        <v>91.19653</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -863,20 +843,20 @@
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>46075.25</v>
+        <v>46076.25</v>
       </c>
       <c r="B14" t="n">
-        <v>93.80569</v>
+        <v>94.95806</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -884,7 +864,7 @@
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -894,10 +874,10 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>46075.27083333334</v>
+        <v>46076.27083333334</v>
       </c>
       <c r="B15" t="n">
-        <v>100.27203</v>
+        <v>103.85607</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -905,7 +885,7 @@
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -915,10 +895,10 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>46075.29166666666</v>
+        <v>46076.29166666666</v>
       </c>
       <c r="B16" t="n">
-        <v>79.95014999999999</v>
+        <v>105</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -926,20 +906,20 @@
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>46075.3125</v>
+        <v>46076.3125</v>
       </c>
       <c r="B17" t="n">
-        <v>61.91253</v>
+        <v>105</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -947,20 +927,20 @@
         </is>
       </c>
       <c r="D17" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>46075.33333333334</v>
+        <v>46076.33333333334</v>
       </c>
       <c r="B18" t="n">
-        <v>57.06012</v>
+        <v>100.51427</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -968,20 +948,20 @@
         </is>
       </c>
       <c r="D18" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>46075.35416666666</v>
+        <v>46076.35416666666</v>
       </c>
       <c r="B19" t="n">
-        <v>57.06026</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -989,7 +969,7 @@
         </is>
       </c>
       <c r="D19" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -999,10 +979,10 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>46075.375</v>
+        <v>46076.375</v>
       </c>
       <c r="B20" t="n">
-        <v>57.06</v>
+        <v>78.66107</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1010,7 +990,7 @@
         </is>
       </c>
       <c r="D20" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1020,10 +1000,10 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>46075.39583333334</v>
+        <v>46076.39583333334</v>
       </c>
       <c r="B21" t="n">
-        <v>84.79000000000001</v>
+        <v>59.29384</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1031,7 +1011,7 @@
         </is>
       </c>
       <c r="D21" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1041,10 +1021,10 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>46075.41666666666</v>
+        <v>46076.41666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>84.79000000000001</v>
+        <v>57.06</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1052,7 +1032,7 @@
         </is>
       </c>
       <c r="D22" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1062,10 +1042,10 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>46075.4375</v>
+        <v>46076.4375</v>
       </c>
       <c r="B23" t="n">
-        <v>84.79000000000001</v>
+        <v>42.15368</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1073,7 +1053,7 @@
         </is>
       </c>
       <c r="D23" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1083,10 +1063,10 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>46075.45833333334</v>
+        <v>46076.45833333334</v>
       </c>
       <c r="B24" t="n">
-        <v>105</v>
+        <v>40.32717</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1094,20 +1074,20 @@
         </is>
       </c>
       <c r="D24" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>46075.47916666666</v>
+        <v>46076.47916666666</v>
       </c>
       <c r="B25" t="n">
-        <v>74.8419</v>
+        <v>37.89</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1115,20 +1095,20 @@
         </is>
       </c>
       <c r="D25" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>46075.5</v>
+        <v>46076.5</v>
       </c>
       <c r="B26" t="n">
-        <v>84.79000000000001</v>
+        <v>37.89</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1136,20 +1116,20 @@
         </is>
       </c>
       <c r="D26" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>46075.52083333334</v>
+        <v>46076.52083333334</v>
       </c>
       <c r="B27" t="n">
-        <v>108.01</v>
+        <v>37.89</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1157,20 +1137,20 @@
         </is>
       </c>
       <c r="D27" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>46075.54166666666</v>
+        <v>46076.54166666666</v>
       </c>
       <c r="B28" t="n">
-        <v>105.00015</v>
+        <v>37.89</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1178,20 +1158,20 @@
         </is>
       </c>
       <c r="D28" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>46075.5625</v>
+        <v>46076.5625</v>
       </c>
       <c r="B29" t="n">
-        <v>138.00005</v>
+        <v>56.83749</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1199,20 +1179,20 @@
         </is>
       </c>
       <c r="D29" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>46075.58333333334</v>
+        <v>46076.58333333334</v>
       </c>
       <c r="B30" t="n">
-        <v>108.89018</v>
+        <v>56.92589</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1220,20 +1200,20 @@
         </is>
       </c>
       <c r="D30" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>46075.60416666666</v>
+        <v>46076.60416666666</v>
       </c>
       <c r="B31" t="n">
-        <v>110.54485</v>
+        <v>50.80989</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1241,20 +1221,20 @@
         </is>
       </c>
       <c r="D31" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>46075.625</v>
+        <v>46076.625</v>
       </c>
       <c r="B32" t="n">
-        <v>109.92103</v>
+        <v>56.78384</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1262,20 +1242,20 @@
         </is>
       </c>
       <c r="D32" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>46075.64583333334</v>
+        <v>46076.64583333334</v>
       </c>
       <c r="B33" t="n">
-        <v>111.23383</v>
+        <v>62.87125</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1283,20 +1263,20 @@
         </is>
       </c>
       <c r="D33" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>46075.66666666666</v>
+        <v>46076.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>135.38704</v>
+        <v>64.89</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1304,7 +1284,7 @@
         </is>
       </c>
       <c r="D34" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1314,10 +1294,10 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>46075.6875</v>
+        <v>46076.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>105.0001</v>
+        <v>57.31</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1325,7 +1305,7 @@
         </is>
       </c>
       <c r="D35" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1335,10 +1315,10 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>46075.70833333334</v>
+        <v>46076.70833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>78</v>
+        <v>64.89</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1346,20 +1326,20 @@
         </is>
       </c>
       <c r="D36" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>46075.72916666666</v>
+        <v>46076.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>72.06066</v>
+        <v>65.80216</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1367,20 +1347,20 @@
         </is>
       </c>
       <c r="D37" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>46075.75</v>
+        <v>46076.75</v>
       </c>
       <c r="B38" t="n">
-        <v>78</v>
+        <v>57.31</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1388,20 +1368,20 @@
         </is>
       </c>
       <c r="D38" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>46075.77083333334</v>
+        <v>46076.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>93.68526</v>
+        <v>69.89302000000001</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1409,112 +1389,112 @@
         </is>
       </c>
       <c r="D39" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>46075.79166666666</v>
+        <v>46076.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>85.97179</v>
+        <v>99.89228</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D40" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>46075.8125</v>
+        <v>46076.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>85.82669</v>
+        <v>106.75338</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D41" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>46075.83333333334</v>
+        <v>46076.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>87.72131</v>
+        <v>108.01</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D42" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>46075.85416666666</v>
+        <v>46076.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>78</v>
+        <v>95.5257</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D43" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>46075.875</v>
+        <v>46076.875</v>
       </c>
       <c r="B44" t="n">
         <v>78</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D44" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1524,18 +1504,18 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>46075.89583333334</v>
+        <v>46076.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>76.12253</v>
+        <v>72.71819000000001</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D45" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1545,18 +1525,18 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>46075.91666666666</v>
+        <v>46076.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>78</v>
+        <v>75.76251000000001</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D46" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1566,18 +1546,18 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>46075.9375</v>
+        <v>46076.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>70.70273</v>
+        <v>71.18069</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D47" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1587,18 +1567,18 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>46075.95833333334</v>
+        <v>46076.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>68.00121</v>
+        <v>78</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D48" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1608,10 +1588,10 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>46075.97916666666</v>
+        <v>46076.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>72.455</v>
+        <v>70.57126</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1619,7 +1599,7 @@
         </is>
       </c>
       <c r="D49" s="3" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1629,10 +1609,10 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="B50" t="n">
-        <v>69.6553</v>
+        <v>74.3154</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1640,7 +1620,7 @@
         </is>
       </c>
       <c r="D50" s="3" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1650,10 +1630,10 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>46076.02083333334</v>
+        <v>46077.02083333334</v>
       </c>
       <c r="B51" t="n">
-        <v>79.95</v>
+        <v>78</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1661,7 +1641,7 @@
         </is>
       </c>
       <c r="D51" s="3" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1671,10 +1651,10 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>46076.04166666666</v>
+        <v>46077.04166666666</v>
       </c>
       <c r="B52" t="n">
-        <v>79.95</v>
+        <v>78</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1682,20 +1662,20 @@
         </is>
       </c>
       <c r="D52" s="3" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>46076.0625</v>
+        <v>46077.0625</v>
       </c>
       <c r="B53" t="n">
-        <v>77.54143999999999</v>
+        <v>78</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1703,20 +1683,20 @@
         </is>
       </c>
       <c r="D53" s="3" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>46076.08333333334</v>
+        <v>46077.08333333334</v>
       </c>
       <c r="B54" t="n">
-        <v>77.49072</v>
+        <v>78</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1724,17 +1704,17 @@
         </is>
       </c>
       <c r="D54" s="3" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>46076.10416666666</v>
+        <v>46077.10416666666</v>
       </c>
       <c r="B55" t="n">
         <v>78</v>
@@ -1745,20 +1725,20 @@
         </is>
       </c>
       <c r="D55" s="3" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>46076.125</v>
+        <v>46077.125</v>
       </c>
       <c r="B56" t="n">
-        <v>78</v>
+        <v>79.1738</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1766,20 +1746,20 @@
         </is>
       </c>
       <c r="D56" s="3" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>46076.14583333334</v>
+        <v>46077.14583333334</v>
       </c>
       <c r="B57" t="n">
-        <v>78</v>
+        <v>80.82232999999999</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1787,7 +1767,7 @@
         </is>
       </c>
       <c r="D57" s="3" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -1797,10 +1777,10 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>46076.16666666666</v>
+        <v>46077.16666666666</v>
       </c>
       <c r="B58" t="n">
-        <v>78.38021999999999</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1808,7 +1788,7 @@
         </is>
       </c>
       <c r="D58" s="3" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1818,10 +1798,10 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>46076.1875</v>
+        <v>46077.1875</v>
       </c>
       <c r="B59" t="n">
-        <v>79.95017</v>
+        <v>79.95021</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1829,7 +1809,7 @@
         </is>
       </c>
       <c r="D59" s="3" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1839,10 +1819,10 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>46076.20833333334</v>
+        <v>46077.20833333334</v>
       </c>
       <c r="B60" t="n">
-        <v>79.95</v>
+        <v>79.95004</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1850,7 +1830,7 @@
         </is>
       </c>
       <c r="D60" s="3" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -1860,10 +1840,10 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>46076.22916666666</v>
+        <v>46077.22916666666</v>
       </c>
       <c r="B61" t="n">
-        <v>92.71268000000001</v>
+        <v>102.97224</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1871,7 +1851,7 @@
         </is>
       </c>
       <c r="D61" s="3" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -1881,10 +1861,10 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>46076.25</v>
+        <v>46077.25</v>
       </c>
       <c r="B62" t="n">
-        <v>105</v>
+        <v>105.79</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1892,7 +1872,7 @@
         </is>
       </c>
       <c r="D62" s="3" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1902,10 +1882,10 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>46076.27083333334</v>
+        <v>46077.27083333334</v>
       </c>
       <c r="B63" t="n">
-        <v>105.79</v>
+        <v>108.89</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1913,7 +1893,7 @@
         </is>
       </c>
       <c r="D63" s="3" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -1923,10 +1903,10 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>46076.29166666666</v>
+        <v>46077.29166666666</v>
       </c>
       <c r="B64" t="n">
-        <v>105</v>
+        <v>102.71112</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1934,7 +1914,7 @@
         </is>
       </c>
       <c r="D64" s="3" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -1944,10 +1924,10 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>46076.3125</v>
+        <v>46077.3125</v>
       </c>
       <c r="B65" t="n">
-        <v>108.01</v>
+        <v>74.27677</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1955,20 +1935,20 @@
         </is>
       </c>
       <c r="D65" s="3" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>46076.33333333334</v>
+        <v>46077.33333333334</v>
       </c>
       <c r="B66" t="n">
-        <v>100.01</v>
+        <v>73.19</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1976,20 +1956,20 @@
         </is>
       </c>
       <c r="D66" s="3" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>46076.35416666666</v>
+        <v>46077.35416666666</v>
       </c>
       <c r="B67" t="n">
-        <v>84.79000000000001</v>
+        <v>57.06007</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1997,20 +1977,20 @@
         </is>
       </c>
       <c r="D67" s="3" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>46076.375</v>
+        <v>46077.375</v>
       </c>
       <c r="B68" t="n">
-        <v>78.66298</v>
+        <v>37.89</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -2018,7 +1998,7 @@
         </is>
       </c>
       <c r="D68" s="3" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2028,10 +2008,10 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>46076.39583333334</v>
+        <v>46077.39583333334</v>
       </c>
       <c r="B69" t="n">
-        <v>58.98334</v>
+        <v>37.89</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2039,7 +2019,7 @@
         </is>
       </c>
       <c r="D69" s="3" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2049,10 +2029,10 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>46076.41666666666</v>
+        <v>46077.41666666666</v>
       </c>
       <c r="B70" t="n">
-        <v>57.06</v>
+        <v>37.89</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2060,7 +2040,7 @@
         </is>
       </c>
       <c r="D70" s="3" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2070,10 +2050,10 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>46076.4375</v>
+        <v>46077.4375</v>
       </c>
       <c r="B71" t="n">
-        <v>41.60584</v>
+        <v>37.89</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2081,7 +2061,7 @@
         </is>
       </c>
       <c r="D71" s="3" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2091,10 +2071,10 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>46076.45833333334</v>
+        <v>46077.45833333334</v>
       </c>
       <c r="B72" t="n">
-        <v>40.54</v>
+        <v>37.89</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2102,7 +2082,7 @@
         </is>
       </c>
       <c r="D72" s="3" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2112,7 +2092,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>46076.47916666666</v>
+        <v>46077.47916666666</v>
       </c>
       <c r="B73" t="n">
         <v>37.89</v>
@@ -2123,7 +2103,7 @@
         </is>
       </c>
       <c r="D73" s="3" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2133,7 +2113,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>46076.5</v>
+        <v>46077.5</v>
       </c>
       <c r="B74" t="n">
         <v>37.89</v>
@@ -2144,7 +2124,7 @@
         </is>
       </c>
       <c r="D74" s="3" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2154,7 +2134,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>46076.52083333334</v>
+        <v>46077.52083333334</v>
       </c>
       <c r="B75" t="n">
         <v>37.89</v>
@@ -2165,7 +2145,7 @@
         </is>
       </c>
       <c r="D75" s="3" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2175,10 +2155,10 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>46076.54166666666</v>
+        <v>46077.54166666666</v>
       </c>
       <c r="B76" t="n">
-        <v>37.89</v>
+        <v>56.98</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2186,7 +2166,7 @@
         </is>
       </c>
       <c r="D76" s="3" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2196,10 +2176,10 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>46076.5625</v>
+        <v>46077.5625</v>
       </c>
       <c r="B77" t="n">
-        <v>38.67793</v>
+        <v>37.89023</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2207,7 +2187,7 @@
         </is>
       </c>
       <c r="D77" s="3" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2217,10 +2197,10 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>46076.58333333334</v>
+        <v>46077.58333333334</v>
       </c>
       <c r="B78" t="n">
-        <v>56.23396</v>
+        <v>56.72325</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2228,7 +2208,7 @@
         </is>
       </c>
       <c r="D78" s="3" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2238,10 +2218,10 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>46076.60416666666</v>
+        <v>46077.60416666666</v>
       </c>
       <c r="B79" t="n">
-        <v>51.44736</v>
+        <v>56.98002</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2249,7 +2229,7 @@
         </is>
       </c>
       <c r="D79" s="3" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2259,10 +2239,10 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>46076.625</v>
+        <v>46077.625</v>
       </c>
       <c r="B80" t="n">
-        <v>56.79492</v>
+        <v>37.8902</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2270,7 +2250,7 @@
         </is>
       </c>
       <c r="D80" s="3" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2280,10 +2260,10 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>46076.64583333334</v>
+        <v>46077.64583333334</v>
       </c>
       <c r="B81" t="n">
-        <v>57.31</v>
+        <v>56.98003</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2291,7 +2271,7 @@
         </is>
       </c>
       <c r="D81" s="3" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2301,10 +2281,10 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>46076.66666666666</v>
+        <v>46077.66666666666</v>
       </c>
       <c r="B82" t="n">
-        <v>64.89</v>
+        <v>62.00023</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2312,7 +2292,7 @@
         </is>
       </c>
       <c r="D82" s="3" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2322,10 +2302,10 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>46076.6875</v>
+        <v>46077.6875</v>
       </c>
       <c r="B83" t="n">
-        <v>57.31</v>
+        <v>56.80642</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2333,7 +2313,7 @@
         </is>
       </c>
       <c r="D83" s="3" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2343,7 +2323,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>46076.70833333334</v>
+        <v>46077.70833333334</v>
       </c>
       <c r="B84" t="n">
         <v>64.89</v>
@@ -2354,7 +2334,7 @@
         </is>
       </c>
       <c r="D84" s="3" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2364,10 +2344,10 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>46076.72916666666</v>
+        <v>46077.72916666666</v>
       </c>
       <c r="B85" t="n">
-        <v>57.32</v>
+        <v>73.19</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2375,7 +2355,7 @@
         </is>
       </c>
       <c r="D85" s="3" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2385,10 +2365,10 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>46076.75</v>
+        <v>46077.75</v>
       </c>
       <c r="B86" t="n">
-        <v>70.36225</v>
+        <v>98.56792</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2396,7 +2376,7 @@
         </is>
       </c>
       <c r="D86" s="3" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2406,10 +2386,10 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>46076.77083333334</v>
+        <v>46077.77083333334</v>
       </c>
       <c r="B87" t="n">
-        <v>91.36573</v>
+        <v>112.63281</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2417,7 +2397,7 @@
         </is>
       </c>
       <c r="D87" s="3" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2427,10 +2407,10 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>46076.79166666666</v>
+        <v>46077.79166666666</v>
       </c>
       <c r="B88" t="n">
-        <v>91.18938</v>
+        <v>115.77759</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2438,7 +2418,7 @@
         </is>
       </c>
       <c r="D88" s="3" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2448,10 +2428,10 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>46076.8125</v>
+        <v>46077.8125</v>
       </c>
       <c r="B89" t="n">
-        <v>94.27449</v>
+        <v>108.89</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2459,7 +2439,7 @@
         </is>
       </c>
       <c r="D89" s="3" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2469,10 +2449,10 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>46076.83333333334</v>
+        <v>46077.83333333334</v>
       </c>
       <c r="B90" t="n">
-        <v>88.96250000000001</v>
+        <v>108.01</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2480,20 +2460,20 @@
         </is>
       </c>
       <c r="D90" s="3" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>46076.85416666666</v>
+        <v>46077.85416666666</v>
       </c>
       <c r="B91" t="n">
-        <v>88.62682</v>
+        <v>105</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2501,20 +2481,20 @@
         </is>
       </c>
       <c r="D91" s="3" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>46076.875</v>
+        <v>46077.875</v>
       </c>
       <c r="B92" t="n">
-        <v>78</v>
+        <v>90.02785</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2522,20 +2502,20 @@
         </is>
       </c>
       <c r="D92" s="3" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>46076.89583333334</v>
+        <v>46077.89583333334</v>
       </c>
       <c r="B93" t="n">
-        <v>77.20961</v>
+        <v>78</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2543,17 +2523,17 @@
         </is>
       </c>
       <c r="D93" s="3" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>46076.91666666666</v>
+        <v>46077.91666666666</v>
       </c>
       <c r="B94" t="n">
         <v>64.89</v>
@@ -2564,20 +2544,20 @@
         </is>
       </c>
       <c r="D94" s="3" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>46076.9375</v>
+        <v>46077.9375</v>
       </c>
       <c r="B95" t="n">
-        <v>71.05977</v>
+        <v>64.89</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2585,20 +2565,20 @@
         </is>
       </c>
       <c r="D95" s="3" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>46076.95833333334</v>
+        <v>46077.95833333334</v>
       </c>
       <c r="B96" t="n">
-        <v>73.20005999999999</v>
+        <v>64.89</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2606,20 +2586,20 @@
         </is>
       </c>
       <c r="D96" s="3" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>46076.97916666666</v>
+        <v>46077.97916666666</v>
       </c>
       <c r="B97" t="n">
-        <v>72.27187000000001</v>
+        <v>57.08</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -2627,11 +2607,11 @@
         </is>
       </c>
       <c r="D97" s="3" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,79 +478,99 @@
         <v>46076</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>46076.22916666666</v>
+        <v>46076.20833333334</v>
       </c>
       <c r="C2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>20.79</v>
+        <v>18.9</v>
       </c>
       <c r="E2" t="n">
-        <v>852.0254534999999</v>
+        <v>774.0742035</v>
       </c>
       <c r="F2" t="n">
-        <v>40.9824652958153</v>
+        <v>40.95630706349206</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46076.35416666666</v>
+        <v>46076.375</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>46076.66666666666</v>
       </c>
       <c r="C3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>28.35</v>
+        <v>26.46</v>
       </c>
       <c r="E3" t="n">
-        <v>778.122267</v>
+        <v>695.4520169999998</v>
       </c>
       <c r="F3" t="n">
-        <v>27.44699354497354</v>
+        <v>26.28314501133787</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46076.875</v>
+        <v>46076.83333333334</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>46077.14583333334</v>
+        <v>46077</v>
       </c>
       <c r="C4" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>24.57</v>
+        <v>15.12</v>
       </c>
       <c r="E4" t="n">
-        <v>964.9788037499998</v>
+        <v>701.3367465000001</v>
       </c>
       <c r="F4" t="n">
-        <v>39.27467658730158</v>
+        <v>46.38470545634922</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46077.3125</v>
+        <v>46077.33333333334</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>46077.66666666666</v>
       </c>
       <c r="C5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>32.13</v>
+        <v>30.24</v>
       </c>
       <c r="E5" t="n">
-        <v>790.8133057499998</v>
+        <v>594.1234065</v>
       </c>
       <c r="F5" t="n">
-        <v>24.61292579365079</v>
+        <v>19.64693804563492</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>46077.83333333334</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>46078</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>15.12</v>
+      </c>
+      <c r="E6" t="n">
+        <v>660.41255475</v>
+      </c>
+      <c r="F6" t="n">
+        <v>43.67807901785714</v>
       </c>
     </row>
   </sheetData>
@@ -826,7 +846,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -973,7 +993,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1360,7 +1380,7 @@
         <v>46076.75</v>
       </c>
       <c r="B38" t="n">
-        <v>57.31</v>
+        <v>70.92874</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1381,7 +1401,7 @@
         <v>46076.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>69.89302000000001</v>
+        <v>88.27029</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1402,11 +1422,11 @@
         <v>46076.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>99.89228</v>
+        <v>85.13891</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D40" s="3" t="n">
@@ -1423,11 +1443,11 @@
         <v>46076.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>106.75338</v>
+        <v>85.66633</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D41" s="3" t="n">
@@ -1444,11 +1464,11 @@
         <v>46076.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>108.01</v>
+        <v>99.35961</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D42" s="3" t="n">
@@ -1456,7 +1476,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1465,11 +1485,11 @@
         <v>46076.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>95.5257</v>
+        <v>93.23457000000001</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D43" s="3" t="n">
@@ -1477,7 +1497,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1490,7 +1510,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D44" s="3" t="n">
@@ -1507,11 +1527,11 @@
         <v>46076.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>72.71819000000001</v>
+        <v>78</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D45" s="3" t="n">
@@ -1528,11 +1548,11 @@
         <v>46076.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>75.76251000000001</v>
+        <v>68.61024</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D46" s="3" t="n">
@@ -1549,11 +1569,11 @@
         <v>46076.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>71.18069</v>
+        <v>103.84773</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D47" s="3" t="n">
@@ -1570,11 +1590,11 @@
         <v>46076.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>78</v>
+        <v>103.79417</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D48" s="3" t="n">
@@ -1591,11 +1611,11 @@
         <v>46076.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>70.57126</v>
+        <v>94.47342</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D49" s="3" t="n">
@@ -1612,7 +1632,7 @@
         <v>46077</v>
       </c>
       <c r="B50" t="n">
-        <v>74.3154</v>
+        <v>97.72414999999999</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1624,7 +1644,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1633,7 +1653,7 @@
         <v>46077.02083333334</v>
       </c>
       <c r="B51" t="n">
-        <v>78</v>
+        <v>92.20686000000001</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1645,7 +1665,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1674,7 @@
         <v>46077.04166666666</v>
       </c>
       <c r="B52" t="n">
-        <v>78</v>
+        <v>93.19385</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1666,7 +1686,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1675,7 +1695,7 @@
         <v>46077.0625</v>
       </c>
       <c r="B53" t="n">
-        <v>78</v>
+        <v>93.9629</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1687,7 +1707,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1696,7 +1716,7 @@
         <v>46077.08333333334</v>
       </c>
       <c r="B54" t="n">
-        <v>78</v>
+        <v>92.51766000000001</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1708,7 +1728,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1717,7 +1737,7 @@
         <v>46077.10416666666</v>
       </c>
       <c r="B55" t="n">
-        <v>78</v>
+        <v>102.77994</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1729,7 +1749,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1758,7 @@
         <v>46077.125</v>
       </c>
       <c r="B56" t="n">
-        <v>79.1738</v>
+        <v>103.67301</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1750,7 +1770,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1759,7 +1779,7 @@
         <v>46077.14583333334</v>
       </c>
       <c r="B57" t="n">
-        <v>80.82232999999999</v>
+        <v>105</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1780,7 +1800,7 @@
         <v>46077.16666666666</v>
       </c>
       <c r="B58" t="n">
-        <v>84.79000000000001</v>
+        <v>105.79</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1801,7 +1821,7 @@
         <v>46077.1875</v>
       </c>
       <c r="B59" t="n">
-        <v>79.95021</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1822,7 +1842,7 @@
         <v>46077.20833333334</v>
       </c>
       <c r="B60" t="n">
-        <v>79.95004</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1843,7 +1863,7 @@
         <v>46077.22916666666</v>
       </c>
       <c r="B61" t="n">
-        <v>102.97224</v>
+        <v>108.01</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1864,7 +1884,7 @@
         <v>46077.25</v>
       </c>
       <c r="B62" t="n">
-        <v>105.79</v>
+        <v>108.01</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1906,7 +1926,7 @@
         <v>46077.29166666666</v>
       </c>
       <c r="B64" t="n">
-        <v>102.71112</v>
+        <v>93.30685</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1927,7 +1947,7 @@
         <v>46077.3125</v>
       </c>
       <c r="B65" t="n">
-        <v>74.27677</v>
+        <v>76.29461999999999</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1939,7 +1959,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
@@ -1948,7 +1968,7 @@
         <v>46077.33333333334</v>
       </c>
       <c r="B66" t="n">
-        <v>73.19</v>
+        <v>62.22123</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1969,7 +1989,7 @@
         <v>46077.35416666666</v>
       </c>
       <c r="B67" t="n">
-        <v>57.06007</v>
+        <v>56.98</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -2011,7 +2031,7 @@
         <v>46077.39583333334</v>
       </c>
       <c r="B69" t="n">
-        <v>37.89</v>
+        <v>22.07</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2053,7 +2073,7 @@
         <v>46077.4375</v>
       </c>
       <c r="B71" t="n">
-        <v>37.89</v>
+        <v>34.01</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2074,7 +2094,7 @@
         <v>46077.45833333334</v>
       </c>
       <c r="B72" t="n">
-        <v>37.89</v>
+        <v>28.92581</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2095,7 +2115,7 @@
         <v>46077.47916666666</v>
       </c>
       <c r="B73" t="n">
-        <v>37.89</v>
+        <v>34.01</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2116,7 +2136,7 @@
         <v>46077.5</v>
       </c>
       <c r="B74" t="n">
-        <v>37.89</v>
+        <v>34.01</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2137,7 +2157,7 @@
         <v>46077.52083333334</v>
       </c>
       <c r="B75" t="n">
-        <v>37.89</v>
+        <v>34.01</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2158,7 +2178,7 @@
         <v>46077.54166666666</v>
       </c>
       <c r="B76" t="n">
-        <v>56.98</v>
+        <v>37.89</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2179,7 +2199,7 @@
         <v>46077.5625</v>
       </c>
       <c r="B77" t="n">
-        <v>37.89023</v>
+        <v>37.89</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2200,7 +2220,7 @@
         <v>46077.58333333334</v>
       </c>
       <c r="B78" t="n">
-        <v>56.72325</v>
+        <v>37.89</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2221,7 +2241,7 @@
         <v>46077.60416666666</v>
       </c>
       <c r="B79" t="n">
-        <v>56.98002</v>
+        <v>37.8903</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2242,7 +2262,7 @@
         <v>46077.625</v>
       </c>
       <c r="B80" t="n">
-        <v>37.8902</v>
+        <v>37.89</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2263,7 +2283,7 @@
         <v>46077.64583333334</v>
       </c>
       <c r="B81" t="n">
-        <v>56.98003</v>
+        <v>37.89</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2284,7 +2304,7 @@
         <v>46077.66666666666</v>
       </c>
       <c r="B82" t="n">
-        <v>62.00023</v>
+        <v>56.98003</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2305,7 +2325,7 @@
         <v>46077.6875</v>
       </c>
       <c r="B83" t="n">
-        <v>56.80642</v>
+        <v>37.89019</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2326,7 +2346,7 @@
         <v>46077.70833333334</v>
       </c>
       <c r="B84" t="n">
-        <v>64.89</v>
+        <v>66.19919</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2347,7 +2367,7 @@
         <v>46077.72916666666</v>
       </c>
       <c r="B85" t="n">
-        <v>73.19</v>
+        <v>76.28172000000001</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2368,7 +2388,7 @@
         <v>46077.75</v>
       </c>
       <c r="B86" t="n">
-        <v>98.56792</v>
+        <v>95.73061</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2389,7 +2409,7 @@
         <v>46077.77083333334</v>
       </c>
       <c r="B87" t="n">
-        <v>112.63281</v>
+        <v>108.89</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2410,7 +2430,7 @@
         <v>46077.79166666666</v>
       </c>
       <c r="B88" t="n">
-        <v>115.77759</v>
+        <v>108.89</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2452,7 +2472,7 @@
         <v>46077.83333333334</v>
       </c>
       <c r="B90" t="n">
-        <v>108.01</v>
+        <v>108.89</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2464,7 +2484,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -2485,7 +2505,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -2494,7 +2514,7 @@
         <v>46077.875</v>
       </c>
       <c r="B92" t="n">
-        <v>90.02785</v>
+        <v>98.93407999999999</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2506,7 +2526,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -2515,7 +2535,7 @@
         <v>46077.89583333334</v>
       </c>
       <c r="B93" t="n">
-        <v>78</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2527,7 +2547,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -2536,7 +2556,7 @@
         <v>46077.91666666666</v>
       </c>
       <c r="B94" t="n">
-        <v>64.89</v>
+        <v>70.57161000000001</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2548,7 +2568,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -2557,7 +2577,7 @@
         <v>46077.9375</v>
       </c>
       <c r="B95" t="n">
-        <v>64.89</v>
+        <v>71.47271000000001</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2569,7 +2589,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -2578,7 +2598,7 @@
         <v>46077.95833333334</v>
       </c>
       <c r="B96" t="n">
-        <v>64.89</v>
+        <v>72.79781</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2590,7 +2610,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -2599,7 +2619,7 @@
         <v>46077.97916666666</v>
       </c>
       <c r="B97" t="n">
-        <v>57.08</v>
+        <v>64.89</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -2611,7 +2631,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -527,10 +527,10 @@
         <v>15.12</v>
       </c>
       <c r="E4" t="n">
-        <v>511.41516075</v>
+        <v>660.1421482500001</v>
       </c>
       <c r="F4" t="n">
-        <v>33.82375401785714</v>
+        <v>43.66019499007938</v>
       </c>
     </row>
     <row r="5">
@@ -547,10 +547,10 @@
         <v>26.46</v>
       </c>
       <c r="E5" t="n">
-        <v>576.28228125</v>
+        <v>564.6798300000002</v>
       </c>
       <c r="F5" t="n">
-        <v>21.77937570861678</v>
+        <v>21.34088548752835</v>
       </c>
     </row>
     <row r="6">
@@ -567,10 +567,10 @@
         <v>15.12</v>
       </c>
       <c r="E6" t="n">
-        <v>405.99810225</v>
+        <v>408.44997375</v>
       </c>
       <c r="F6" t="n">
-        <v>26.85172633928572</v>
+        <v>27.01388715277778</v>
       </c>
     </row>
   </sheetData>
@@ -1380,7 +1380,7 @@
         <v>46077.75</v>
       </c>
       <c r="B38" t="n">
-        <v>107.82657</v>
+        <v>100.01</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>46077.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>116.16282</v>
+        <v>108.89</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1422,11 +1422,11 @@
         <v>46077.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>121.0797</v>
+        <v>109.12055</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D40" s="3" t="n">
@@ -1443,11 +1443,11 @@
         <v>46077.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>109.46156</v>
+        <v>112.06343</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D41" s="3" t="n">
@@ -1464,11 +1464,11 @@
         <v>46077.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>137.0233</v>
+        <v>109.91454</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D42" s="3" t="n">
@@ -1485,11 +1485,11 @@
         <v>46077.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>104.95471</v>
+        <v>105</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D43" s="3" t="n">
@@ -1506,11 +1506,11 @@
         <v>46077.875</v>
       </c>
       <c r="B44" t="n">
-        <v>84.79000000000001</v>
+        <v>98.92904</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D44" s="3" t="n">
@@ -1527,11 +1527,11 @@
         <v>46077.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>75.55737999999999</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D45" s="3" t="n">
@@ -1548,11 +1548,11 @@
         <v>46077.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>64.89</v>
+        <v>70.57004999999999</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D46" s="3" t="n">
@@ -1569,11 +1569,11 @@
         <v>46077.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>60.03049</v>
+        <v>99.56278</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D47" s="3" t="n">
@@ -1590,11 +1590,11 @@
         <v>46077.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>60.24732</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D48" s="3" t="n">
@@ -1611,11 +1611,11 @@
         <v>46077.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>57.31</v>
+        <v>85.65000000000001</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="D49" s="3" t="n">
@@ -1632,7 +1632,7 @@
         <v>46078</v>
       </c>
       <c r="B50" t="n">
-        <v>57.31</v>
+        <v>79.57692</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>46078.02083333334</v>
       </c>
       <c r="B51" t="n">
-        <v>64.39318</v>
+        <v>73.20008</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>46078.04166666666</v>
       </c>
       <c r="B52" t="n">
-        <v>57.31</v>
+        <v>73.20009</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
         <v>46078.0625</v>
       </c>
       <c r="B53" t="n">
-        <v>57.31</v>
+        <v>73.20009</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         <v>46078.08333333334</v>
       </c>
       <c r="B54" t="n">
-        <v>57.31</v>
+        <v>73.20009</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         <v>46078.10416666666</v>
       </c>
       <c r="B55" t="n">
-        <v>57.31</v>
+        <v>78</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1758,7 +1758,7 @@
         <v>46078.125</v>
       </c>
       <c r="B56" t="n">
-        <v>64.89</v>
+        <v>78</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>46078.14583333334</v>
       </c>
       <c r="B57" t="n">
-        <v>64.89</v>
+        <v>78</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         <v>46078.16666666666</v>
       </c>
       <c r="B58" t="n">
-        <v>66.28234</v>
+        <v>78</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>46078.1875</v>
       </c>
       <c r="B59" t="n">
-        <v>57.06</v>
+        <v>66.62696</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>46078.20833333334</v>
       </c>
       <c r="B60" t="n">
-        <v>57.31</v>
+        <v>79.39904</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1863,7 +1863,7 @@
         <v>46078.22916666666</v>
       </c>
       <c r="B61" t="n">
-        <v>73.2</v>
+        <v>79.95014</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>46078.25</v>
       </c>
       <c r="B62" t="n">
-        <v>76.77948000000001</v>
+        <v>96.03658</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         <v>46078.27083333334</v>
       </c>
       <c r="B63" t="n">
-        <v>84.79000000000001</v>
+        <v>105.79</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         <v>46078.29166666666</v>
       </c>
       <c r="B64" t="n">
-        <v>73.20001000000001</v>
+        <v>94.22657</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>46078.3125</v>
       </c>
       <c r="B65" t="n">
-        <v>56.98</v>
+        <v>57.06009</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>46078.33333333334</v>
       </c>
       <c r="B66" t="n">
-        <v>56.98</v>
+        <v>55.92455</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>46078.35416666666</v>
       </c>
       <c r="B67" t="n">
-        <v>57.06</v>
+        <v>46.17584</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>46078.375</v>
       </c>
       <c r="B68" t="n">
-        <v>39.7732</v>
+        <v>37.89016</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>46078.39583333334</v>
       </c>
       <c r="B69" t="n">
-        <v>37.88999</v>
+        <v>38.73791</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         <v>46078.41666666666</v>
       </c>
       <c r="B70" t="n">
-        <v>37.89</v>
+        <v>37.89023</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         <v>46078.4375</v>
       </c>
       <c r="B71" t="n">
-        <v>37.89</v>
+        <v>37.89022</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>46078.45833333334</v>
       </c>
       <c r="B72" t="n">
-        <v>37.89</v>
+        <v>37.89021</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>46078.47916666666</v>
       </c>
       <c r="B73" t="n">
-        <v>37.89</v>
+        <v>40.24846</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2136,7 +2136,7 @@
         <v>46078.5</v>
       </c>
       <c r="B74" t="n">
-        <v>37.89</v>
+        <v>37.89021</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>46078.52083333334</v>
       </c>
       <c r="B75" t="n">
-        <v>37.89019</v>
+        <v>37.89038</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>46078.54166666666</v>
       </c>
       <c r="B76" t="n">
-        <v>39.25537</v>
+        <v>37.89018</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>46078.5625</v>
       </c>
       <c r="B77" t="n">
-        <v>37.89</v>
+        <v>37.89017</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>46078.58333333334</v>
       </c>
       <c r="B78" t="n">
-        <v>37.89</v>
+        <v>37.89019</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2241,7 +2241,7 @@
         <v>46078.60416666666</v>
       </c>
       <c r="B79" t="n">
-        <v>57.06</v>
+        <v>64.89</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>46078.625</v>
       </c>
       <c r="B80" t="n">
-        <v>57.06014</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>46078.64583333334</v>
       </c>
       <c r="B81" t="n">
-        <v>57.06</v>
+        <v>80.50707</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>46078.66666666666</v>
       </c>
       <c r="B82" t="n">
-        <v>57.06</v>
+        <v>91.21869</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>46078.6875</v>
       </c>
       <c r="B83" t="n">
-        <v>57.06</v>
+        <v>78</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>46078.70833333334</v>
       </c>
       <c r="B84" t="n">
-        <v>65</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2367,7 +2367,7 @@
         <v>46078.72916666666</v>
       </c>
       <c r="B85" t="n">
-        <v>64.89</v>
+        <v>78</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2388,7 +2388,7 @@
         <v>46078.75</v>
       </c>
       <c r="B86" t="n">
-        <v>68.05078</v>
+        <v>69.44401000000001</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>46078.77083333334</v>
       </c>
       <c r="B87" t="n">
-        <v>60.74603</v>
+        <v>70.36225</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>46078.79166666666</v>
       </c>
       <c r="B88" t="n">
-        <v>68.92322</v>
+        <v>71.02005</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2451,7 +2451,7 @@
         <v>46078.8125</v>
       </c>
       <c r="B89" t="n">
-        <v>70.36225</v>
+        <v>70.35384000000001</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2472,7 +2472,7 @@
         <v>46078.83333333334</v>
       </c>
       <c r="B90" t="n">
-        <v>69.14116</v>
+        <v>69.03394</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>46078.85416666666</v>
       </c>
       <c r="B91" t="n">
-        <v>64.89</v>
+        <v>57.31</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
         <v>46078.875</v>
       </c>
       <c r="B92" t="n">
-        <v>56.98</v>
+        <v>57.06</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>46078.9375</v>
       </c>
       <c r="B95" t="n">
-        <v>47.08583</v>
+        <v>56.98</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>46078.97916666666</v>
       </c>
       <c r="B97" t="n">
-        <v>45.55132</v>
+        <v>45.77911</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>

--- a/data/latest/optimisation_result.xlsx
+++ b/data/latest/optimisation_result.xlsx
@@ -475,50 +475,50 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46077</v>
+        <v>46078.04166666666</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>46077.16666666666</v>
+        <v>46078.22916666666</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="D2" t="n">
-        <v>15.12</v>
+        <v>17.01</v>
       </c>
       <c r="E2" t="n">
-        <v>770.3579715</v>
+        <v>701.2751264999999</v>
       </c>
       <c r="F2" t="n">
-        <v>50.94960128968254</v>
+        <v>41.22722671957672</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46077.29166666666</v>
+        <v>46078.3125</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>46077.66666666666</v>
+        <v>46078.625</v>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="D3" t="n">
-        <v>34.02</v>
+        <v>28.35</v>
       </c>
       <c r="E3" t="n">
-        <v>707.95170225</v>
+        <v>670.6475685</v>
       </c>
       <c r="F3" t="n">
-        <v>20.8098677910053</v>
+        <v>23.65599888888889</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46077.875</v>
+        <v>46078.83333333334</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>46078.04166666666</v>
+        <v>46079</v>
       </c>
       <c r="C4" t="n">
         <v>4</v>
@@ -527,50 +527,50 @@
         <v>15.12</v>
       </c>
       <c r="E4" t="n">
-        <v>660.1421482500001</v>
+        <v>516.7210034999999</v>
       </c>
       <c r="F4" t="n">
-        <v>43.66019499007938</v>
+        <v>34.17466954365079</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46078.3125</v>
+        <v>46079.04166666666</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>46078.60416666666</v>
+        <v>46079.20833333334</v>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>26.46</v>
+        <v>15.12</v>
       </c>
       <c r="E5" t="n">
-        <v>564.6798300000002</v>
+        <v>346.33328925</v>
       </c>
       <c r="F5" t="n">
-        <v>21.34088548752835</v>
+        <v>22.9056408234127</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>46078.83333333334</v>
+        <v>46079.33333333334</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>46079</v>
+        <v>46079.66666666666</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>15.12</v>
+        <v>30.24</v>
       </c>
       <c r="E6" t="n">
-        <v>408.44997375</v>
+        <v>470.72400375</v>
       </c>
       <c r="F6" t="n">
-        <v>27.01388715277778</v>
+        <v>15.56626996527778</v>
       </c>
     </row>
   </sheetData>
@@ -621,10 +621,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="B2" t="n">
-        <v>98.5227</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -632,20 +632,20 @@
         </is>
       </c>
       <c r="D2" s="3" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46077.02083333334</v>
+        <v>46078.02083333334</v>
       </c>
       <c r="B3" t="n">
-        <v>92.73206</v>
+        <v>79.95025</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -653,20 +653,20 @@
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46077.04166666666</v>
+        <v>46078.04166666666</v>
       </c>
       <c r="B4" t="n">
-        <v>94.47494</v>
+        <v>78</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -684,10 +684,10 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46077.0625</v>
+        <v>46078.0625</v>
       </c>
       <c r="B5" t="n">
-        <v>95.98868</v>
+        <v>78</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -695,7 +695,7 @@
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -705,10 +705,10 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>46077.08333333334</v>
+        <v>46078.08333333334</v>
       </c>
       <c r="B6" t="n">
-        <v>93.89529</v>
+        <v>79.95016</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -726,10 +726,10 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>46077.10416666666</v>
+        <v>46078.10416666666</v>
       </c>
       <c r="B7" t="n">
-        <v>104.25211</v>
+        <v>81.89484</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -747,10 +747,10 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>46077.125</v>
+        <v>46078.125</v>
       </c>
       <c r="B8" t="n">
-        <v>105</v>
+        <v>82.49607</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -768,10 +768,10 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>46077.14583333334</v>
+        <v>46078.14583333334</v>
       </c>
       <c r="B9" t="n">
-        <v>105.24496</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -779,7 +779,7 @@
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -789,10 +789,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>46077.16666666666</v>
+        <v>46078.16666666666</v>
       </c>
       <c r="B10" t="n">
-        <v>105.79</v>
+        <v>80.97529</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -800,20 +800,20 @@
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>46077.1875</v>
+        <v>46078.1875</v>
       </c>
       <c r="B11" t="n">
-        <v>96.26101</v>
+        <v>73.2</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -821,20 +821,20 @@
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>46077.20833333334</v>
+        <v>46078.20833333334</v>
       </c>
       <c r="B12" t="n">
-        <v>99.54603</v>
+        <v>79.95018</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -842,20 +842,20 @@
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>46077.22916666666</v>
+        <v>46078.22916666666</v>
       </c>
       <c r="B13" t="n">
-        <v>106.12695</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -873,10 +873,10 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>46077.25</v>
+        <v>46078.25</v>
       </c>
       <c r="B14" t="n">
-        <v>108.01</v>
+        <v>105</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -894,7 +894,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>46077.27083333334</v>
+        <v>46078.27083333334</v>
       </c>
       <c r="B15" t="n">
         <v>108.89</v>
@@ -905,7 +905,7 @@
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -915,10 +915,10 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>46077.29166666666</v>
+        <v>46078.29166666666</v>
       </c>
       <c r="B16" t="n">
-        <v>93.3001</v>
+        <v>95.15071</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -926,20 +926,20 @@
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>46077.3125</v>
+        <v>46078.3125</v>
       </c>
       <c r="B17" t="n">
-        <v>73.19</v>
+        <v>63.00102</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         </is>
       </c>
       <c r="D17" s="3" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -957,10 +957,10 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>46077.33333333334</v>
+        <v>46078.33333333334</v>
       </c>
       <c r="B18" t="n">
-        <v>63.34286</v>
+        <v>56.98</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -968,7 +968,7 @@
         </is>
       </c>
       <c r="D18" s="3" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -978,10 +978,10 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>46077.35416666666</v>
+        <v>46078.35416666666</v>
       </c>
       <c r="B19" t="n">
-        <v>56.98</v>
+        <v>52.45022</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -989,7 +989,7 @@
         </is>
       </c>
       <c r="D19" s="3" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -999,10 +999,10 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>46077.375</v>
+        <v>46078.375</v>
       </c>
       <c r="B20" t="n">
-        <v>37.89</v>
+        <v>37.89016</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         </is>
       </c>
       <c r="D20" s="3" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1020,10 +1020,10 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>46077.39583333334</v>
+        <v>46078.39583333334</v>
       </c>
       <c r="B21" t="n">
-        <v>37.89</v>
+        <v>37.8902</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="D21" s="3" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1041,10 +1041,10 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>46077.41666666666</v>
+        <v>46078.41666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>37.89</v>
+        <v>37.89023</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="D22" s="3" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1062,10 +1062,10 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>46077.4375</v>
+        <v>46078.4375</v>
       </c>
       <c r="B23" t="n">
-        <v>19.5096</v>
+        <v>37.89021</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1073,7 +1073,7 @@
         </is>
       </c>
       <c r="D23" s="3" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1083,10 +1083,10 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>46077.45833333334</v>
+        <v>46078.45833333334</v>
       </c>
       <c r="B24" t="n">
-        <v>12.75403</v>
+        <v>37.89021</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         </is>
       </c>
       <c r="D24" s="3" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1104,10 +1104,10 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>46077.47916666666</v>
+        <v>46078.47916666666</v>
       </c>
       <c r="B25" t="n">
-        <v>22.25945</v>
+        <v>38.9647</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         </is>
       </c>
       <c r="D25" s="3" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1125,10 +1125,10 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>46077.5</v>
+        <v>46078.5</v>
       </c>
       <c r="B26" t="n">
-        <v>22.7369</v>
+        <v>37.89021</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="D26" s="3" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1146,10 +1146,10 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>46077.52083333334</v>
+        <v>46078.52083333334</v>
       </c>
       <c r="B27" t="n">
-        <v>37.89</v>
+        <v>38.18792</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
         </is>
       </c>
       <c r="D27" s="3" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>46077.54166666666</v>
+        <v>46078.54166666666</v>
       </c>
       <c r="B28" t="n">
-        <v>37.89</v>
+        <v>55.60166</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         </is>
       </c>
       <c r="D28" s="3" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>46077.5625</v>
+        <v>46078.5625</v>
       </c>
       <c r="B29" t="n">
-        <v>21.02137</v>
+        <v>37.89017</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         </is>
       </c>
       <c r="D29" s="3" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1209,10 +1209,10 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>46077.58333333334</v>
+        <v>46078.58333333334</v>
       </c>
       <c r="B30" t="n">
-        <v>37.89</v>
+        <v>52.53675</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         </is>
       </c>
       <c r="D30" s="3" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1230,10 +1230,10 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>46077.60416666666</v>
+        <v>46078.60416666666</v>
       </c>
       <c r="B31" t="n">
-        <v>37.89</v>
+        <v>64.89</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1241,7 +1241,7 @@
         </is>
       </c>
       <c r="D31" s="3" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1251,10 +1251,10 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>46077.625</v>
+        <v>46078.625</v>
       </c>
       <c r="B32" t="n">
-        <v>37.89</v>
+        <v>100.01</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1262,20 +1262,20 @@
         </is>
       </c>
       <c r="D32" s="3" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>46077.64583333334</v>
+        <v>46078.64583333334</v>
       </c>
       <c r="B33" t="n">
-        <v>37.89</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1283,20 +1283,20 @@
         </is>
       </c>
       <c r="D33" s="3" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>46077.66666666666</v>
+        <v>46078.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>37.89021</v>
+        <v>98.78427000000001</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         </is>
       </c>
       <c r="D34" s="3" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1314,10 +1314,10 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>46077.6875</v>
+        <v>46078.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>37.89019</v>
+        <v>77.41149</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         </is>
       </c>
       <c r="D35" s="3" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1335,10 +1335,10 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>46077.70833333334</v>
+        <v>46078.70833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>65.71925</v>
+        <v>78</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="D36" s="3" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1356,10 +1356,10 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>46077.72916666666</v>
+        <v>46078.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>76.02979000000001</v>
+        <v>78</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D37" s="3" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1377,10 +1377,10 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>46077.75</v>
+        <v>46078.75</v>
       </c>
       <c r="B38" t="n">
-        <v>100.01</v>
+        <v>62.83374</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         </is>
       </c>
       <c r="D38" s="3" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1398,10 +1398,10 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>46077.77083333334</v>
+        <v>46078.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>108.89</v>
+        <v>51.97591</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         </is>
       </c>
       <c r="D39" s="3" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1419,18 +1419,18 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>46077.79166666666</v>
+        <v>46078.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>109.12055</v>
+        <v>85.29806000000001</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D40" s="3" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1440,18 +1440,18 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>46077.8125</v>
+        <v>46078.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>112.06343</v>
+        <v>75.4332</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D41" s="3" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1461,60 +1461,60 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>46077.83333333334</v>
+        <v>46078.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>109.91454</v>
+        <v>83.43141</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D42" s="3" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>46077.85416666666</v>
+        <v>46078.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>105</v>
+        <v>71.02006</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D43" s="3" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>46077.875</v>
+        <v>46078.875</v>
       </c>
       <c r="B44" t="n">
-        <v>98.92904</v>
+        <v>66.82984</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D44" s="3" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1524,18 +1524,18 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>46077.89583333334</v>
+        <v>46078.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>84.79000000000001</v>
+        <v>64.93592</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D45" s="3" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1545,18 +1545,18 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>46077.91666666666</v>
+        <v>46078.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>70.57004999999999</v>
+        <v>64.74285</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D46" s="3" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1566,18 +1566,18 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>46077.9375</v>
+        <v>46078.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>99.56278</v>
+        <v>64.89</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D47" s="3" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1587,18 +1587,18 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>46077.95833333334</v>
+        <v>46078.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>84.79000000000001</v>
+        <v>57.06009</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D48" s="3" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1608,18 +1608,18 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>46077.97916666666</v>
+        <v>46078.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>85.65000000000001</v>
+        <v>57.06009</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="D49" s="3" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1629,10 +1629,10 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="B50" t="n">
-        <v>79.57692</v>
+        <v>51.98784</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1640,20 +1640,20 @@
         </is>
       </c>
       <c r="D50" s="3" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>46078.02083333334</v>
+        <v>46079.02083333334</v>
       </c>
       <c r="B51" t="n">
-        <v>73.20008</v>
+        <v>57.06008</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1661,20 +1661,20 @@
         </is>
       </c>
       <c r="D51" s="3" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>46078.04166666666</v>
+        <v>46079.04166666666</v>
       </c>
       <c r="B52" t="n">
-        <v>73.20009</v>
+        <v>51.28719</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1682,20 +1682,20 @@
         </is>
       </c>
       <c r="D52" s="3" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>46078.0625</v>
+        <v>46079.0625</v>
       </c>
       <c r="B53" t="n">
-        <v>73.20009</v>
+        <v>50.50522</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1703,20 +1703,20 @@
         </is>
       </c>
       <c r="D53" s="3" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>46078.08333333334</v>
+        <v>46079.08333333334</v>
       </c>
       <c r="B54" t="n">
-        <v>73.20009</v>
+        <v>37.89014</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1724,20 +1724,20 @@
         </is>
       </c>
       <c r="D54" s="3" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>46078.10416666666</v>
+        <v>46079.10416666666</v>
       </c>
       <c r="B55" t="n">
-        <v>78</v>
+        <v>37.89013</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1745,20 +1745,20 @@
         </is>
       </c>
       <c r="D55" s="3" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>46078.125</v>
+        <v>46079.125</v>
       </c>
       <c r="B56" t="n">
-        <v>78</v>
+        <v>37.89014</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1766,20 +1766,20 @@
         </is>
       </c>
       <c r="D56" s="3" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>46078.14583333334</v>
+        <v>46079.14583333334</v>
       </c>
       <c r="B57" t="n">
-        <v>78</v>
+        <v>37.89013</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1787,20 +1787,20 @@
         </is>
       </c>
       <c r="D57" s="3" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>46078.16666666666</v>
+        <v>46079.16666666666</v>
       </c>
       <c r="B58" t="n">
-        <v>78</v>
+        <v>48.76016</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1808,20 +1808,20 @@
         </is>
       </c>
       <c r="D58" s="3" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>46078.1875</v>
+        <v>46079.1875</v>
       </c>
       <c r="B59" t="n">
-        <v>66.62696</v>
+        <v>53.10052</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1829,20 +1829,20 @@
         </is>
       </c>
       <c r="D59" s="3" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>OFF</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>46078.20833333334</v>
+        <v>46079.20833333334</v>
       </c>
       <c r="B60" t="n">
-        <v>79.39904</v>
+        <v>56.98</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         </is>
       </c>
       <c r="D60" s="3" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -1860,10 +1860,10 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>46078.22916666666</v>
+        <v>46079.22916666666</v>
       </c>
       <c r="B61" t="n">
-        <v>79.95014</v>
+        <v>57.06006</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="D61" s="3" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -1881,10 +1881,10 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>46078.25</v>
+        <v>46079.25</v>
       </c>
       <c r="B62" t="n">
-        <v>96.03658</v>
+        <v>65</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="D62" s="3" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1902,10 +1902,10 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>46078.27083333334</v>
+        <v>46079.27083333334</v>
       </c>
       <c r="B63" t="n">
-        <v>105.79</v>
+        <v>72.93277</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         </is>
       </c>
       <c r="D63" s="3" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -1923,10 +1923,10 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>46078.29166666666</v>
+        <v>46079.29166666666</v>
       </c>
       <c r="B64" t="n">
-        <v>94.22657</v>
+        <v>61.42566</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         </is>
       </c>
       <c r="D64" s="3" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -1944,10 +1944,10 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>46078.3125</v>
+        <v>46079.3125</v>
       </c>
       <c r="B65" t="n">
-        <v>57.06009</v>
+        <v>37.89006</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1955,20 +1955,20 @@
         </is>
       </c>
       <c r="D65" s="3" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>46078.33333333334</v>
+        <v>46079.33333333334</v>
       </c>
       <c r="B66" t="n">
-        <v>55.92455</v>
+        <v>35.88</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         </is>
       </c>
       <c r="D66" s="3" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -1986,10 +1986,10 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>46078.35416666666</v>
+        <v>46079.35416666666</v>
       </c>
       <c r="B67" t="n">
-        <v>46.17584</v>
+        <v>37.88952</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         </is>
       </c>
       <c r="D67" s="3" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2007,10 +2007,10 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>46078.375</v>
+        <v>46079.375</v>
       </c>
       <c r="B68" t="n">
-        <v>37.89016</v>
+        <v>5.26465</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         </is>
       </c>
       <c r="D68" s="3" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2028,10 +2028,10 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>46078.39583333334</v>
+        <v>46079.39583333334</v>
       </c>
       <c r="B69" t="n">
-        <v>38.73791</v>
+        <v>2.6387</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2039,7 +2039,7 @@
         </is>
       </c>
       <c r="D69" s="3" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2049,10 +2049,10 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>46078.41666666666</v>
+        <v>46079.41666666666</v>
       </c>
       <c r="B70" t="n">
-        <v>37.89023</v>
+        <v>34.3302</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         </is>
       </c>
       <c r="D70" s="3" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2070,10 +2070,10 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>46078.4375</v>
+        <v>46079.4375</v>
       </c>
       <c r="B71" t="n">
-        <v>37.89022</v>
+        <v>37.00011</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         </is>
       </c>
       <c r="D71" s="3" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2091,10 +2091,10 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>46078.45833333334</v>
+        <v>46079.45833333334</v>
       </c>
       <c r="B72" t="n">
-        <v>37.89021</v>
+        <v>0.70153</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
         </is>
       </c>
       <c r="D72" s="3" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2112,10 +2112,10 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>46078.47916666666</v>
+        <v>46079.47916666666</v>
       </c>
       <c r="B73" t="n">
-        <v>40.24846</v>
+        <v>34.55964</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         </is>
       </c>
       <c r="D73" s="3" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2133,10 +2133,10 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>46078.5</v>
+        <v>46079.5</v>
       </c>
       <c r="B74" t="n">
-        <v>37.89021</v>
+        <v>34.01</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         </is>
       </c>
       <c r="D74" s="3" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2154,10 +2154,10 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>46078.52083333334</v>
+        <v>46079.52083333334</v>
       </c>
       <c r="B75" t="n">
-        <v>37.89038</v>
+        <v>37.89</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2165,7 +2165,7 @@
         </is>
       </c>
       <c r="D75" s="3" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2175,10 +2175,10 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>46078.54166666666</v>
+        <v>46079.54166666666</v>
       </c>
       <c r="B76" t="n">
-        <v>37.89018</v>
+        <v>37.89</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         </is>
       </c>
       <c r="D76" s="3" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2196,10 +2196,10 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>46078.5625</v>
+        <v>46079.5625</v>
       </c>
       <c r="B77" t="n">
-        <v>37.89017</v>
+        <v>29.54243</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
         </is>
       </c>
       <c r="D77" s="3" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2217,10 +2217,10 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>46078.58333333334</v>
+        <v>46079.58333333334</v>
       </c>
       <c r="B78" t="n">
-        <v>37.89019</v>
+        <v>29.15887</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         </is>
       </c>
       <c r="D78" s="3" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2238,10 +2238,10 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>46078.60416666666</v>
+        <v>46079.60416666666</v>
       </c>
       <c r="B79" t="n">
-        <v>64.89</v>
+        <v>44.30557</v>
       </c>
       <c r="C79" 